--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9196.981969501356</v>
+        <v>9640.639911181766</v>
       </c>
       <c r="C2">
-        <v>9196.981969501356</v>
+        <v>9640.639911181766</v>
       </c>
       <c r="D2">
-        <v>218587.3124184817</v>
+        <v>214820.7514983334</v>
       </c>
       <c r="E2">
-        <v>275128.7838313224</v>
+        <v>265484.9350133323</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>218587.3124184817</v>
+        <v>214820.7514983334</v>
       </c>
       <c r="H2">
-        <v>161651.8844983627</v>
+        <v>156637.153239885</v>
       </c>
       <c r="I2">
-        <v>113476.8993329597</v>
+        <v>108847.7817734474</v>
       </c>
       <c r="J2">
-        <v>2765925.550684181</v>
+        <v>2764657.297391652</v>
       </c>
       <c r="K2">
-        <v>51892.8519334355</v>
+        <v>51892.85894597338</v>
       </c>
       <c r="L2">
-        <v>75129</v>
+        <v>75727</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4330.405154577749</v>
+        <v>4309.295638926041</v>
       </c>
       <c r="C3">
-        <v>4330.405154577749</v>
+        <v>4309.295638926041</v>
       </c>
       <c r="D3">
-        <v>102507.5062236185</v>
+        <v>100733.6627608483</v>
       </c>
       <c r="E3">
-        <v>129953.936425272</v>
+        <v>127023.055746254</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>102507.5062236185</v>
+        <v>100733.6627608483</v>
       </c>
       <c r="H3">
-        <v>76332.41724203582</v>
+        <v>75008.82339618492</v>
       </c>
       <c r="I3">
-        <v>53621.51918323619</v>
+        <v>52014.23235006908</v>
       </c>
       <c r="J3">
-        <v>1301927.433288557</v>
+        <v>1301253.169963323</v>
       </c>
       <c r="K3">
-        <v>24443.26177352201</v>
+        <v>24443.03673089747</v>
       </c>
       <c r="L3">
-        <v>35374</v>
+        <v>35672</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4188.817492616559</v>
+        <v>4261.94131252573</v>
       </c>
       <c r="B4">
-        <v>9564.49751850376</v>
+        <v>9981.827561934537</v>
       </c>
       <c r="C4">
-        <v>13753.31501112032</v>
+        <v>14243.76887446027</v>
       </c>
       <c r="D4">
-        <v>316799.1746763759</v>
+        <v>315636.9955679468</v>
       </c>
       <c r="E4">
-        <v>397378.5222109932</v>
+        <v>400125.3169328797</v>
       </c>
       <c r="F4">
-        <v>104615.9616117685</v>
+        <v>105366.084651279</v>
       </c>
       <c r="G4">
-        <v>212183.2130646074</v>
+        <v>210270.9109166677</v>
       </c>
       <c r="H4">
-        <v>234527.7777363171</v>
+        <v>235687.2968793492</v>
       </c>
       <c r="I4">
-        <v>162850.744474676</v>
+        <v>164438.0200535305</v>
       </c>
       <c r="J4">
-        <v>4080376.270301711</v>
+        <v>4080152.724789688</v>
       </c>
       <c r="K4">
-        <v>76598.09659907677</v>
+        <v>76598.33494062506</v>
       </c>
       <c r="L4">
-        <v>106774</v>
+        <v>107655</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>12067.08879080684</v>
+        <v>12897.28634330537</v>
       </c>
       <c r="B5">
-        <v>30402.77142662417</v>
+        <v>29411.13628199859</v>
       </c>
       <c r="C5">
-        <v>42469.86021743101</v>
+        <v>42308.42262530396</v>
       </c>
       <c r="D5">
-        <v>990216.9953546864</v>
+        <v>989035.3272361793</v>
       </c>
       <c r="E5">
-        <v>1271745.510213077</v>
+        <v>1304236.352608625</v>
       </c>
       <c r="F5">
-        <v>327884.1440123237</v>
+        <v>327315.6805794924</v>
       </c>
       <c r="G5">
-        <v>662332.8513423627</v>
+        <v>661719.6466566868</v>
       </c>
       <c r="H5">
-        <v>747334.2014239222</v>
+        <v>767448.8010152187</v>
       </c>
       <c r="I5">
-        <v>524411.3087891549</v>
+        <v>536787.5515934061</v>
       </c>
       <c r="J5">
-        <v>12811784.55140054</v>
+        <v>12813423.29234648</v>
       </c>
       <c r="K5">
-        <v>240461.3440030919</v>
+        <v>240461.2117333726</v>
       </c>
       <c r="L5">
-        <v>335152</v>
+        <v>337788</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4552.803724580426</v>
+        <v>4852.753961754111</v>
       </c>
       <c r="B6">
-        <v>11425.69967122248</v>
+        <v>10955.68828111951</v>
       </c>
       <c r="C6">
-        <v>15978.5033958029</v>
+        <v>15808.44224287362</v>
       </c>
       <c r="D6">
-        <v>360092.1599369198</v>
+        <v>363590.1525321834</v>
       </c>
       <c r="E6">
-        <v>462584.671339114</v>
+        <v>462582.0661846895</v>
       </c>
       <c r="F6">
-        <v>119384.3708180912</v>
+        <v>121127.4184961735</v>
       </c>
       <c r="G6">
-        <v>240707.7891188286</v>
+        <v>242462.7340360099</v>
       </c>
       <c r="H6">
-        <v>272571.4628120009</v>
+        <v>270805.5376974954</v>
       </c>
       <c r="I6">
-        <v>190013.208527113</v>
+        <v>191776.5284871942</v>
       </c>
       <c r="J6">
-        <v>4701604.00580824</v>
+        <v>4702780.173310255</v>
       </c>
       <c r="K6">
-        <v>88279.98859431277</v>
+        <v>88279.75465102923</v>
       </c>
       <c r="L6">
-        <v>123036</v>
+        <v>124048</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2549.817831045156</v>
+        <v>2481.102326493234</v>
       </c>
       <c r="B7">
-        <v>5791.267890430437</v>
+        <v>5895.945944324434</v>
       </c>
       <c r="C7">
-        <v>8341.085721475592</v>
+        <v>8377.048270817668</v>
       </c>
       <c r="D7">
-        <v>190146.2473711373</v>
+        <v>198710.5881579257</v>
       </c>
       <c r="E7">
-        <v>243624.7000444663</v>
+        <v>252602.6000833964</v>
       </c>
       <c r="F7">
-        <v>63876.49498278386</v>
+        <v>65175.65781901062</v>
       </c>
       <c r="G7">
-        <v>126269.7523883535</v>
+        <v>133534.9303389151</v>
       </c>
       <c r="H7">
-        <v>144040.0848296109</v>
+        <v>149041.5540757623</v>
       </c>
       <c r="I7">
-        <v>99584.61521485535</v>
+        <v>103561.0460076341</v>
       </c>
       <c r="J7">
-        <v>2504499.057108819</v>
+        <v>2505444.175533311</v>
       </c>
       <c r="K7">
-        <v>47022.64923284247</v>
+        <v>47022.89524285082</v>
       </c>
       <c r="L7">
-        <v>65561</v>
+        <v>66017</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14372.12836527151</v>
+        <v>15067.47495808538</v>
       </c>
       <c r="B8">
-        <v>35587.16571749579</v>
+        <v>36561.65389976145</v>
       </c>
       <c r="C8">
-        <v>49959.29408276731</v>
+        <v>51629.12885784682</v>
       </c>
       <c r="D8">
-        <v>1087037.67079511</v>
+        <v>1080977.011167314</v>
       </c>
       <c r="E8">
-        <v>1377126.48405075</v>
+        <v>1355107.331425333</v>
       </c>
       <c r="F8">
-        <v>360572.2537730844</v>
+        <v>363322.8692584497</v>
       </c>
       <c r="G8">
-        <v>726465.4170220257</v>
+        <v>717654.1419088647</v>
       </c>
       <c r="H8">
-        <v>810658.4678278875</v>
+        <v>800641.5163787609</v>
       </c>
       <c r="I8">
-        <v>566468.0162228619</v>
+        <v>554465.8150465725</v>
       </c>
       <c r="J8">
-        <v>14093287.26308098</v>
+        <v>14099827.50254197</v>
       </c>
       <c r="K8">
-        <v>264640.7550740132</v>
+        <v>264640.6550062314</v>
       </c>
       <c r="L8">
-        <v>369101</v>
+        <v>371867</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3899.387102978701</v>
+        <v>4144.948880024221</v>
       </c>
       <c r="B9">
-        <v>9478.630758616619</v>
+        <v>9413.751301832786</v>
       </c>
       <c r="C9">
-        <v>13378.01786159532</v>
+        <v>13558.70018185701</v>
       </c>
       <c r="D9">
-        <v>291687.8897845894</v>
+        <v>294102.6260354926</v>
       </c>
       <c r="E9">
-        <v>378145.4384265933</v>
+        <v>372617.6853662459</v>
       </c>
       <c r="F9">
-        <v>95878.36743622398</v>
+        <v>97228.34934939156</v>
       </c>
       <c r="G9">
-        <v>195809.5223483654</v>
+        <v>196874.276686101</v>
       </c>
       <c r="H9">
-        <v>222396.9392592464</v>
+        <v>218711.3063692888</v>
       </c>
       <c r="I9">
-        <v>155748.4991673469</v>
+        <v>153906.378996957</v>
       </c>
       <c r="J9">
-        <v>3804718.303264363</v>
+        <v>3806166.018129268</v>
       </c>
       <c r="K9">
-        <v>71447.82173306652</v>
+        <v>71448.3061770927</v>
       </c>
       <c r="L9">
-        <v>99540</v>
+        <v>100408</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1547.523613054012</v>
+        <v>1515.611170536783</v>
       </c>
       <c r="B10">
-        <v>3589.74890605373</v>
+        <v>3661.682586882199</v>
       </c>
       <c r="C10">
-        <v>5137.272519107742</v>
+        <v>5177.293757418983</v>
       </c>
       <c r="D10">
-        <v>115955.2972030748</v>
+        <v>114540.4564683157</v>
       </c>
       <c r="E10">
-        <v>150529.0005329578</v>
+        <v>146465.4531584897</v>
       </c>
       <c r="F10">
-        <v>38404.80781978022</v>
+        <v>38118.06774034655</v>
       </c>
       <c r="G10">
-        <v>77550.48938329463</v>
+        <v>76422.38872796913</v>
       </c>
       <c r="H10">
-        <v>88767.8053080641</v>
+        <v>86477.34079920343</v>
       </c>
       <c r="I10">
-        <v>61761.19522489372</v>
+        <v>59988.1123592863</v>
       </c>
       <c r="J10">
-        <v>1492340.811712855</v>
+        <v>1492178.741393243</v>
       </c>
       <c r="K10">
-        <v>28003.66524135592</v>
+        <v>28003.87429246709</v>
       </c>
       <c r="L10">
-        <v>39032</v>
+        <v>39356</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3030.314876979488</v>
+        <v>3166.707019726889</v>
       </c>
       <c r="B11">
-        <v>6745.921308166376</v>
+        <v>7255.647673660947</v>
       </c>
       <c r="C11">
-        <v>9776.236185145863</v>
+        <v>10422.35469338784</v>
       </c>
       <c r="D11">
-        <v>237124.7069276564</v>
+        <v>235099.0001860377</v>
       </c>
       <c r="E11">
-        <v>309529.9403738061</v>
+        <v>295856.4582819119</v>
       </c>
       <c r="F11">
-        <v>78131.46826082424</v>
+        <v>79273.89776627425</v>
       </c>
       <c r="G11">
-        <v>158993.2386668321</v>
+        <v>155825.1024197634</v>
       </c>
       <c r="H11">
-        <v>182046.6018785198</v>
+        <v>175563.215181571</v>
       </c>
       <c r="I11">
-        <v>127483.3384952863</v>
+        <v>120293.2431003409</v>
       </c>
       <c r="J11">
-        <v>3084015.060740343</v>
+        <v>3084960.33391061</v>
       </c>
       <c r="K11">
-        <v>57877.00393459378</v>
+        <v>57876.88775832531</v>
       </c>
       <c r="L11">
-        <v>80659</v>
+        <v>81359</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4653.975516573436</v>
+        <v>4433.03285955662</v>
       </c>
       <c r="B12">
-        <v>9796.687898421314</v>
+        <v>10734.76959743058</v>
       </c>
       <c r="C12">
-        <v>14450.66341499475</v>
+        <v>15167.8024569872</v>
       </c>
       <c r="D12">
-        <v>325416.4658269148</v>
+        <v>325119.478330453</v>
       </c>
       <c r="E12">
-        <v>417509.2110408125</v>
+        <v>410228.0934127284</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>325416.4658269148</v>
+        <v>325119.478330453</v>
       </c>
       <c r="H12">
-        <v>245474.5493479269</v>
+        <v>242057.2205457844</v>
       </c>
       <c r="I12">
-        <v>172034.6616928857</v>
+        <v>168170.872866944</v>
       </c>
       <c r="J12">
-        <v>4189844.902539759</v>
+        <v>4189184.618458963</v>
       </c>
       <c r="K12">
-        <v>78646.05034279739</v>
+        <v>78646.34015406699</v>
       </c>
       <c r="L12">
-        <v>113243</v>
+        <v>114073</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1817.81636628144</v>
+        <v>1933.288668406516</v>
       </c>
       <c r="B13">
-        <v>4200.718996464058</v>
+        <v>4391.773660141987</v>
       </c>
       <c r="C13">
-        <v>6018.535362745498</v>
+        <v>6325.062328548504</v>
       </c>
       <c r="D13">
-        <v>140870.4046186923</v>
+        <v>143219.5400532786</v>
       </c>
       <c r="E13">
-        <v>182524.4164333959</v>
+        <v>183078.5314538144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>140870.4046186923</v>
+        <v>143219.5400532786</v>
       </c>
       <c r="H13">
-        <v>108281.896750871</v>
+        <v>108490.152583989</v>
       </c>
       <c r="I13">
-        <v>74242.51968252487</v>
+        <v>74588.37886982539</v>
       </c>
       <c r="J13">
-        <v>1846872.46890113</v>
+        <v>1847830.929170827</v>
       </c>
       <c r="K13">
-        <v>34683.91562019746</v>
+        <v>34683.89416719328</v>
       </c>
       <c r="L13">
-        <v>49984</v>
+        <v>50293</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>7635.693512684616</v>
+        <v>7692.976765066213</v>
       </c>
       <c r="C14">
-        <v>7635.693512684616</v>
+        <v>7692.976765066213</v>
       </c>
       <c r="D14">
-        <v>179339.9946570836</v>
+        <v>175764.7836358495</v>
       </c>
       <c r="E14">
-        <v>228741.4892079686</v>
+        <v>224411.4828086799</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>179339.9946570836</v>
+        <v>175764.7836358495</v>
       </c>
       <c r="H14">
-        <v>134223.980895161</v>
+        <v>132269.7617030442</v>
       </c>
       <c r="I14">
-        <v>94517.50831280751</v>
+        <v>92141.72110563569</v>
       </c>
       <c r="J14">
-        <v>2285429.622869919</v>
+        <v>2284119.147622932</v>
       </c>
       <c r="K14">
-        <v>42868.97179548284</v>
+        <v>42868.96937295661</v>
       </c>
       <c r="L14">
-        <v>62042</v>
+        <v>62566</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7691.695703680571</v>
+        <v>7466.213574230982</v>
       </c>
       <c r="C15">
-        <v>7691.695703680571</v>
+        <v>7466.213574230982</v>
       </c>
       <c r="D15">
-        <v>172446.3473681545</v>
+        <v>172841.9362516365</v>
       </c>
       <c r="E15">
-        <v>219398.1788771499</v>
+        <v>216829.7906973776</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>172446.3473681545</v>
+        <v>172841.9362516365</v>
       </c>
       <c r="H15">
-        <v>129138.0812021384</v>
+        <v>127857.0785291326</v>
       </c>
       <c r="I15">
-        <v>90260.09767501142</v>
+        <v>88972.71216824495</v>
       </c>
       <c r="J15">
-        <v>2226867.552881137</v>
+        <v>2227054.327948038</v>
       </c>
       <c r="K15">
-        <v>41813.95548573171</v>
+        <v>41813.90407618933</v>
       </c>
       <c r="L15">
-        <v>60532</v>
+        <v>61016</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5901.332562048256</v>
+        <v>5347.368044384352</v>
       </c>
       <c r="C16">
-        <v>5901.332562048256</v>
+        <v>5347.368044384352</v>
       </c>
       <c r="D16">
-        <v>129275.3218669705</v>
+        <v>127921.1564571825</v>
       </c>
       <c r="E16">
-        <v>167115.8295905522</v>
+        <v>164220.3077078105</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>129275.3218669705</v>
+        <v>127921.1564571825</v>
       </c>
       <c r="H16">
-        <v>98631.76413810514</v>
+        <v>96327.2722554169</v>
       </c>
       <c r="I16">
-        <v>68484.0654524471</v>
+        <v>67893.0354523936</v>
       </c>
       <c r="J16">
-        <v>1654379.82132856</v>
+        <v>1655524.763439272</v>
       </c>
       <c r="K16">
-        <v>31076.93128461884</v>
+        <v>31076.74924760568</v>
       </c>
       <c r="L16">
-        <v>44982</v>
+        <v>45349</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>2071.537783553778</v>
+        <v>1922.413298423086</v>
       </c>
       <c r="C17">
-        <v>2071.537783553778</v>
+        <v>1922.413298423086</v>
       </c>
       <c r="D17">
-        <v>12171.4660762861</v>
+        <v>12116.22360167278</v>
       </c>
       <c r="E17">
-        <v>17331.03365943929</v>
+        <v>17154.29683805044</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12171.4660762861</v>
+        <v>12116.22360167278</v>
       </c>
       <c r="H17">
-        <v>9879.850977920229</v>
+        <v>9814.851557345595</v>
       </c>
       <c r="I17">
-        <v>7451.18268151906</v>
+        <v>7339.445280704838</v>
       </c>
       <c r="J17">
-        <v>136153.1429937235</v>
+        <v>136144.3528156146</v>
       </c>
       <c r="K17">
-        <v>4915.350480423083</v>
+        <v>4914.784119060522</v>
       </c>
       <c r="L17">
-        <v>6743</v>
+        <v>6879</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2757.524612443202</v>
+        <v>2736.81797155095</v>
       </c>
       <c r="C18">
-        <v>2757.524612443202</v>
+        <v>2736.81797155095</v>
       </c>
       <c r="D18">
-        <v>17101.8019685974</v>
+        <v>16939.50189894719</v>
       </c>
       <c r="E18">
-        <v>24868.36152689948</v>
+        <v>25206.55131435319</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17101.8019685974</v>
+        <v>16939.50189894719</v>
       </c>
       <c r="H18">
-        <v>14184.6270379427</v>
+        <v>14317.10669621114</v>
       </c>
       <c r="I18">
-        <v>10683.73448895679</v>
+        <v>10889.44461814204</v>
       </c>
       <c r="J18">
-        <v>194166.5353956117</v>
+        <v>194206.2705593735</v>
       </c>
       <c r="K18">
-        <v>7010.065694702418</v>
+        <v>7009.702924892958</v>
       </c>
       <c r="L18">
-        <v>9619</v>
+        <v>9816</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>596.5598226502568</v>
+        <v>577.6798256717314</v>
       </c>
       <c r="B19">
-        <v>6076.370345798979</v>
+        <v>5773.434629460549</v>
       </c>
       <c r="C19">
-        <v>6672.930168449235</v>
+        <v>6351.11445513228</v>
       </c>
       <c r="D19">
-        <v>39945.08064375243</v>
+        <v>40376.70112542092</v>
       </c>
       <c r="E19">
-        <v>56449.69747490935</v>
+        <v>57137.92697949044</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39945.08064375243</v>
+        <v>40376.70112542092</v>
       </c>
       <c r="H19">
-        <v>32261.03085713506</v>
+        <v>32478.16895122741</v>
       </c>
       <c r="I19">
-        <v>24188.66661777429</v>
+        <v>24659.75802826303</v>
       </c>
       <c r="J19">
-        <v>449310.3926267423</v>
+        <v>449459.6800182781</v>
       </c>
       <c r="K19">
-        <v>16219.21842060254</v>
+        <v>16218.90620994041</v>
       </c>
       <c r="L19">
-        <v>22168</v>
+        <v>22624</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1405.550080565177</v>
+        <v>1316.126564953893</v>
       </c>
       <c r="B20">
-        <v>13857.92443185504</v>
+        <v>13366.94887861927</v>
       </c>
       <c r="C20">
-        <v>15263.47451242021</v>
+        <v>14683.07544357316</v>
       </c>
       <c r="D20">
-        <v>93592.7249440638</v>
+        <v>92062.26606424479</v>
       </c>
       <c r="E20">
-        <v>131221.3273718585</v>
+        <v>133596.711898752</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>93592.7249440638</v>
+        <v>92062.26606424479</v>
       </c>
       <c r="H20">
-        <v>75096.5398020072</v>
+        <v>76445.89687467787</v>
       </c>
       <c r="I20">
-        <v>56124.78756985127</v>
+        <v>57150.81502407411</v>
       </c>
       <c r="J20">
-        <v>1033745.90161256</v>
+        <v>1033741.503040691</v>
       </c>
       <c r="K20">
-        <v>37313.75046060496</v>
+        <v>37313.79444701722</v>
       </c>
       <c r="L20">
-        <v>51001</v>
+        <v>52030</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3476.388849781312</v>
+        <v>3133.99698928277</v>
       </c>
       <c r="B21">
-        <v>34442.42798787005</v>
+        <v>31297.30804132136</v>
       </c>
       <c r="C21">
-        <v>37918.81683765136</v>
+        <v>34431.30503060413</v>
       </c>
       <c r="D21">
-        <v>228408.5345164356</v>
+        <v>223088.8280987069</v>
       </c>
       <c r="E21">
-        <v>329896.841396158</v>
+        <v>323829.3047931863</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>228408.5345164356</v>
+        <v>223088.8280987069</v>
       </c>
       <c r="H21">
-        <v>189376.9145807091</v>
+        <v>184206.0299905282</v>
       </c>
       <c r="I21">
-        <v>140519.9268154489</v>
+        <v>139623.2748026582</v>
       </c>
       <c r="J21">
-        <v>2515944.053507456</v>
+        <v>2515454.783936008</v>
       </c>
       <c r="K21">
-        <v>90793.95987940884</v>
+        <v>90794.35373101392</v>
       </c>
       <c r="L21">
-        <v>124170</v>
+        <v>126484</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>4022.735222525053</v>
+        <v>3951.30622030498</v>
       </c>
       <c r="B22">
-        <v>39815.58501861094</v>
+        <v>40345.80386341716</v>
       </c>
       <c r="C22">
-        <v>43838.32024113599</v>
+        <v>44297.11008372214</v>
       </c>
       <c r="D22">
-        <v>257723.6906839502</v>
+        <v>269026.0042701193</v>
       </c>
       <c r="E22">
-        <v>382354.4394204528</v>
+        <v>376487.6147388197</v>
       </c>
       <c r="F22">
-        <v>42243.16972671228</v>
+        <v>43058.37303393421</v>
       </c>
       <c r="G22">
-        <v>215480.5209572379</v>
+        <v>225967.6312361851</v>
       </c>
       <c r="H22">
-        <v>217314.9506288936</v>
+        <v>215344.7854285695</v>
       </c>
       <c r="I22">
-        <v>165039.4887915592</v>
+        <v>161142.8293102502</v>
       </c>
       <c r="J22">
-        <v>2993566.287672811</v>
+        <v>2993422.924858029</v>
       </c>
       <c r="K22">
-        <v>108045.0075246484</v>
+        <v>108045.2149894362</v>
       </c>
       <c r="L22">
-        <v>145965</v>
+        <v>148975</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4376.488145965224</v>
+        <v>4166.539254970595</v>
       </c>
       <c r="B23">
-        <v>43187.67331992732</v>
+        <v>40460.44528683967</v>
       </c>
       <c r="C23">
-        <v>47564.16146589255</v>
+        <v>44626.98454181026</v>
       </c>
       <c r="D23">
-        <v>293699.9058220782</v>
+        <v>290613.4587547482</v>
       </c>
       <c r="E23">
-        <v>420088.056534833</v>
+        <v>410464.7433768723</v>
       </c>
       <c r="F23">
-        <v>47299.50585752077</v>
+        <v>47194.93711161944</v>
       </c>
       <c r="G23">
-        <v>246400.3999645574</v>
+        <v>243418.5216431287</v>
       </c>
       <c r="H23">
-        <v>240778.2604302521</v>
+        <v>232499.8695447162</v>
       </c>
       <c r="I23">
-        <v>179309.7961045809</v>
+        <v>177964.8738321561</v>
       </c>
       <c r="J23">
-        <v>3234389.631307132</v>
+        <v>3233997.41411081</v>
       </c>
       <c r="K23">
-        <v>116725.7503220272</v>
+        <v>116726.0226257297</v>
       </c>
       <c r="L23">
-        <v>157559</v>
+        <v>160787</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7608.052835473141</v>
+        <v>7113.632119646559</v>
       </c>
       <c r="B24">
-        <v>71609.15972587574</v>
+        <v>68620.73704562239</v>
       </c>
       <c r="C24">
-        <v>79217.21256134889</v>
+        <v>75734.36916526894</v>
       </c>
       <c r="D24">
-        <v>479588.9246504819</v>
+        <v>477102.8368743749</v>
       </c>
       <c r="E24">
-        <v>685597.6225806932</v>
+        <v>673271.4301598679</v>
       </c>
       <c r="F24">
-        <v>77996.83871778927</v>
+        <v>76001.12978033713</v>
       </c>
       <c r="G24">
-        <v>401592.0859326926</v>
+        <v>401101.7070940378</v>
       </c>
       <c r="H24">
-        <v>391658.7734474735</v>
+        <v>382904.8435196204</v>
       </c>
       <c r="I24">
-        <v>293938.8491332197</v>
+        <v>290366.5866402474</v>
       </c>
       <c r="J24">
-        <v>5351502.366454525</v>
+        <v>5352471.710871102</v>
       </c>
       <c r="K24">
-        <v>193190.1759711459</v>
+        <v>193190.0251912544</v>
       </c>
       <c r="L24">
-        <v>260720</v>
+        <v>266252</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6209.566042037074</v>
+        <v>6145.669163026703</v>
       </c>
       <c r="B25">
-        <v>61011.55261730545</v>
+        <v>61241.3277905237</v>
       </c>
       <c r="C25">
-        <v>67221.11865934252</v>
+        <v>67386.99695355041</v>
       </c>
       <c r="D25">
-        <v>425044.2173530635</v>
+        <v>413188.4250598541</v>
       </c>
       <c r="E25">
-        <v>599261.3237487623</v>
+        <v>603833.0467060604</v>
       </c>
       <c r="F25">
-        <v>68305.00929583993</v>
+        <v>67320.92023287351</v>
       </c>
       <c r="G25">
-        <v>356739.2080572235</v>
+        <v>345867.5048269805</v>
       </c>
       <c r="H25">
-        <v>341675.248484802</v>
+        <v>344724.9780442536</v>
       </c>
       <c r="I25">
-        <v>257586.0752639602</v>
+        <v>259108.0686618068</v>
       </c>
       <c r="J25">
-        <v>4648752.263959666</v>
+        <v>4648918.293625981</v>
       </c>
       <c r="K25">
-        <v>167765.9454578841</v>
+        <v>167765.9994203644</v>
       </c>
       <c r="L25">
-        <v>226595</v>
+        <v>231144</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3903.269950298009</v>
+        <v>3992.561823492235</v>
       </c>
       <c r="B26">
-        <v>42265.49120179019</v>
+        <v>41321.76293786147</v>
       </c>
       <c r="C26">
-        <v>46168.7611520882</v>
+        <v>45314.3247613537</v>
       </c>
       <c r="D26">
-        <v>292641.3115524061</v>
+        <v>290459.1757416485</v>
       </c>
       <c r="E26">
-        <v>416003.5052926332</v>
+        <v>411758.5358460125</v>
       </c>
       <c r="F26">
-        <v>47901.73292672045</v>
+        <v>47081.37846289834</v>
       </c>
       <c r="G26">
-        <v>244739.5786256857</v>
+        <v>243377.7972787502</v>
       </c>
       <c r="H26">
-        <v>238624.5600337126</v>
+        <v>233168.4004451085</v>
       </c>
       <c r="I26">
-        <v>177378.9452589205</v>
+        <v>178590.135400904</v>
       </c>
       <c r="J26">
-        <v>3242567.605540611</v>
+        <v>3243298.887034602</v>
       </c>
       <c r="K26">
-        <v>117050.694213727</v>
+        <v>117051.2881603122</v>
       </c>
       <c r="L26">
-        <v>158096</v>
+        <v>161306</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5328.462079907037</v>
+        <v>5670.976530083007</v>
       </c>
       <c r="B27">
-        <v>54964.5189533985</v>
+        <v>54176.84162007367</v>
       </c>
       <c r="C27">
-        <v>60292.98103330554</v>
+        <v>59847.81815015667</v>
       </c>
       <c r="D27">
-        <v>370170.6639128377</v>
+        <v>353821.6403843592</v>
       </c>
       <c r="E27">
-        <v>528999.5968673659</v>
+        <v>528054.193393615</v>
       </c>
       <c r="F27">
-        <v>66772.18570216376</v>
+        <v>66202.47632591904</v>
       </c>
       <c r="G27">
-        <v>303398.4782106739</v>
+        <v>287619.1640584401</v>
       </c>
       <c r="H27">
-        <v>302716.9392139927</v>
+        <v>301378.7479266656</v>
       </c>
       <c r="I27">
-        <v>226282.6576533732</v>
+        <v>226675.4454669493</v>
       </c>
       <c r="J27">
-        <v>4069145.659820083</v>
+        <v>4068627.762875773</v>
       </c>
       <c r="K27">
-        <v>146865.3051668535</v>
+        <v>146865.0751538195</v>
       </c>
       <c r="L27">
-        <v>198157</v>
+        <v>202212</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6388.256080427903</v>
+        <v>6442.857979683694</v>
       </c>
       <c r="B28">
-        <v>64434.65680160091</v>
+        <v>65846.86430220588</v>
       </c>
       <c r="C28">
-        <v>70822.91288202882</v>
+        <v>72289.72228188958</v>
       </c>
       <c r="D28">
-        <v>418091.1673914531</v>
+        <v>427204.955395684</v>
       </c>
       <c r="E28">
-        <v>603950.215847155</v>
+        <v>611464.444416957</v>
       </c>
       <c r="F28">
-        <v>77673.04529343486</v>
+        <v>78281.39924331791</v>
       </c>
       <c r="G28">
-        <v>340418.1220980182</v>
+        <v>348923.5561523661</v>
       </c>
       <c r="H28">
-        <v>344224.1177154435</v>
+        <v>348325.102666047</v>
       </c>
       <c r="I28">
-        <v>259726.0981317115</v>
+        <v>263139.3417509099</v>
       </c>
       <c r="J28">
-        <v>4742412.723486677</v>
+        <v>4742355.142699378</v>
       </c>
       <c r="K28">
-        <v>171178.6837489255</v>
+        <v>171178.9867690715</v>
       </c>
       <c r="L28">
-        <v>230993</v>
+        <v>235851</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>4144.845645684007</v>
+        <v>3945.551706079866</v>
       </c>
       <c r="B29">
-        <v>37932.76478627687</v>
+        <v>39698.67869905139</v>
       </c>
       <c r="C29">
-        <v>42077.61043196088</v>
+        <v>43644.23040513126</v>
       </c>
       <c r="D29">
-        <v>256474.5156795083</v>
+        <v>262310.4014694841</v>
       </c>
       <c r="E29">
-        <v>367676.8305508976</v>
+        <v>378816.9340324599</v>
       </c>
       <c r="F29">
-        <v>48689.66523400661</v>
+        <v>48855.70116365139</v>
       </c>
       <c r="G29">
-        <v>207784.8504455017</v>
+        <v>213454.7003058327</v>
       </c>
       <c r="H29">
-        <v>209690.1490483555</v>
+        <v>216355.7126004546</v>
       </c>
       <c r="I29">
-        <v>157986.6815025421</v>
+        <v>162461.2214320053</v>
       </c>
       <c r="J29">
-        <v>2899266.232506176</v>
+        <v>2898901.396730515</v>
       </c>
       <c r="K29">
-        <v>104633.8452355745</v>
+        <v>104633.8372566938</v>
       </c>
       <c r="L29">
-        <v>141113</v>
+        <v>143928</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1896.836268026986</v>
+        <v>1770.271341558171</v>
       </c>
       <c r="B30">
-        <v>18115.32838984673</v>
+        <v>19259.17256314109</v>
       </c>
       <c r="C30">
-        <v>20012.16465787371</v>
+        <v>21029.44390469926</v>
       </c>
       <c r="D30">
-        <v>126372.7228973118</v>
+        <v>123821.1633401377</v>
       </c>
       <c r="E30">
-        <v>184195.3272755231</v>
+        <v>181258.8648911901</v>
       </c>
       <c r="F30">
-        <v>23232.74681215841</v>
+        <v>23348.23617415508</v>
       </c>
       <c r="G30">
-        <v>103139.9760851534</v>
+        <v>100472.9271659826</v>
       </c>
       <c r="H30">
-        <v>105075.8536315615</v>
+        <v>102938.9714143139</v>
       </c>
       <c r="I30">
-        <v>79119.4736439616</v>
+        <v>78319.89347687624</v>
       </c>
       <c r="J30">
-        <v>1442787.118951227</v>
+        <v>1443059.330458302</v>
       </c>
       <c r="K30">
-        <v>52081.02875001564</v>
+        <v>52080.80900993147</v>
       </c>
       <c r="L30">
-        <v>70298</v>
+        <v>71758</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1375.024780890597</v>
+        <v>1231.764522206045</v>
       </c>
       <c r="B31">
-        <v>14193.36391809189</v>
+        <v>13376.7322805106</v>
       </c>
       <c r="C31">
-        <v>15568.38869898249</v>
+        <v>14608.49680271665</v>
       </c>
       <c r="D31">
-        <v>93311.59689070095</v>
+        <v>91807.4765919842</v>
       </c>
       <c r="E31">
-        <v>134271.72163842</v>
+        <v>133438.0808092054</v>
       </c>
       <c r="F31">
-        <v>17094.84253992947</v>
+        <v>17009.75128131589</v>
       </c>
       <c r="G31">
-        <v>76216.75435077149</v>
+        <v>74797.72531066831</v>
       </c>
       <c r="H31">
-        <v>75980.0863282308</v>
+        <v>76361.39069654624</v>
       </c>
       <c r="I31">
-        <v>58291.63531018921</v>
+        <v>57076.69011265915</v>
       </c>
       <c r="J31">
-        <v>1057795.583289932</v>
+        <v>1057827.239004098</v>
       </c>
       <c r="K31">
-        <v>38181.31542671494</v>
+        <v>38180.72115837802</v>
       </c>
       <c r="L31">
-        <v>51573</v>
+        <v>52646</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>193.9867217607744</v>
+        <v>187.0922497548782</v>
       </c>
       <c r="B32">
-        <v>869.7581974122459</v>
+        <v>855.1750887631833</v>
       </c>
       <c r="C32">
-        <v>1063.74491917302</v>
+        <v>1042.267338518061</v>
       </c>
       <c r="D32">
-        <v>5965.079800439741</v>
+        <v>5847.810428907635</v>
       </c>
       <c r="E32">
-        <v>6857.112048594008</v>
+        <v>6767.610453825248</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5965.079800439741</v>
+        <v>5847.810428907635</v>
       </c>
       <c r="H32">
-        <v>3492.71074806926</v>
+        <v>3467.169757977156</v>
       </c>
       <c r="I32">
-        <v>3364.401300524748</v>
+        <v>3300.440695848093</v>
       </c>
       <c r="J32">
-        <v>74663.35316466277</v>
+        <v>74625.12381945581</v>
       </c>
       <c r="K32">
-        <v>2024.303674649635</v>
+        <v>2024.067550802572</v>
       </c>
       <c r="L32">
-        <v>2813</v>
+        <v>2776</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1741.206882504364</v>
+        <v>1777.90313502329</v>
       </c>
       <c r="B33">
-        <v>7885.298033648291</v>
+        <v>7782.78158456519</v>
       </c>
       <c r="C33">
-        <v>9626.504916152655</v>
+        <v>9560.68471958848</v>
       </c>
       <c r="D33">
-        <v>53742.23189840012</v>
+        <v>55153.21280842166</v>
       </c>
       <c r="E33">
-        <v>61793.91336546218</v>
+        <v>61833.89236484976</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>53742.23189840012</v>
+        <v>55153.21280842166</v>
       </c>
       <c r="H33">
-        <v>31336.95025808004</v>
+        <v>31734.75094933897</v>
       </c>
       <c r="I33">
-        <v>30456.96310738215</v>
+        <v>30099.14141551078</v>
       </c>
       <c r="J33">
-        <v>683197.6474601018</v>
+        <v>682798.0478738811</v>
       </c>
       <c r="K33">
-        <v>18523.33574618336</v>
+        <v>18523.24801670977</v>
       </c>
       <c r="L33">
-        <v>25772</v>
+        <v>25402</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5748.181205576139</v>
+        <v>5854.506062534658</v>
       </c>
       <c r="B34">
-        <v>25563.7036620684</v>
+        <v>26768.33098991795</v>
       </c>
       <c r="C34">
-        <v>31311.88486764454</v>
+        <v>32622.83705245261</v>
       </c>
       <c r="D34">
-        <v>179544.9382690283</v>
+        <v>180865.0414634979</v>
       </c>
       <c r="E34">
-        <v>206152.0610677488</v>
+        <v>208749.4817371865</v>
       </c>
       <c r="F34">
-        <v>31380.72245625835</v>
+        <v>31935.07791662726</v>
       </c>
       <c r="G34">
-        <v>148164.21581277</v>
+        <v>148929.9635468706</v>
       </c>
       <c r="H34">
-        <v>105002.531055301</v>
+        <v>106069.4562996991</v>
       </c>
       <c r="I34">
-        <v>101149.5300124478</v>
+        <v>102680.0254374873</v>
       </c>
       <c r="J34">
-        <v>2267733.72721431</v>
+        <v>2268027.298974216</v>
       </c>
       <c r="K34">
-        <v>61493.7689521924</v>
+        <v>61494.1589197921</v>
       </c>
       <c r="L34">
-        <v>84118</v>
+        <v>82906</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>13784.81861080838</v>
+        <v>14562.41749422575</v>
       </c>
       <c r="B35">
-        <v>63959.54089131177</v>
+        <v>67203.25771207357</v>
       </c>
       <c r="C35">
-        <v>77744.35950212015</v>
+        <v>81765.6752062993</v>
       </c>
       <c r="D35">
-        <v>457768.2541531857</v>
+        <v>453280.1274617864</v>
       </c>
       <c r="E35">
-        <v>522604.6012140802</v>
+        <v>523144.1178006601</v>
       </c>
       <c r="F35">
-        <v>80374.49826724023</v>
+        <v>79206.88568419944</v>
       </c>
       <c r="G35">
-        <v>377393.7558859455</v>
+        <v>374073.241777587</v>
       </c>
       <c r="H35">
-        <v>267303.5048760627</v>
+        <v>265813.133594663</v>
       </c>
       <c r="I35">
-        <v>255301.0963380175</v>
+        <v>257330.9842059971</v>
       </c>
       <c r="J35">
-        <v>5724958.888539217</v>
+        <v>5726071.537310225</v>
       </c>
       <c r="K35">
-        <v>155265.0370049558</v>
+        <v>155265.3649479844</v>
       </c>
       <c r="L35">
-        <v>212819</v>
+        <v>209596</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>22609.33818747523</v>
+        <v>21411.08636194355</v>
       </c>
       <c r="B36">
-        <v>97200.39887646414</v>
+        <v>98298.90964332872</v>
       </c>
       <c r="C36">
-        <v>119809.7370639394</v>
+        <v>119709.9960052723</v>
       </c>
       <c r="D36">
-        <v>696994.1777994395</v>
+        <v>686295.6071270135</v>
       </c>
       <c r="E36">
-        <v>809534.0207639736</v>
+        <v>807039.8139203517</v>
       </c>
       <c r="F36">
-        <v>122292.0559527819</v>
+        <v>119906.3088897399</v>
       </c>
       <c r="G36">
-        <v>574702.1218466576</v>
+        <v>566389.2982372736</v>
       </c>
       <c r="H36">
-        <v>411635.1613940594</v>
+        <v>411416.1148949772</v>
       </c>
       <c r="I36">
-        <v>397898.8593699142</v>
+        <v>395623.6990253745</v>
       </c>
       <c r="J36">
-        <v>8788715.529136755</v>
+        <v>8788920.083840026</v>
       </c>
       <c r="K36">
-        <v>238366.7397967277</v>
+        <v>238366.8902329803</v>
       </c>
       <c r="L36">
-        <v>326454</v>
+        <v>322212</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>6122.320087408724</v>
+        <v>5792.618008585441</v>
       </c>
       <c r="B37">
-        <v>26491.8013022784</v>
+        <v>26109.01707554151</v>
       </c>
       <c r="C37">
-        <v>32614.12138968712</v>
+        <v>31901.63508412695</v>
       </c>
       <c r="D37">
-        <v>184014.3939672777</v>
+        <v>186555.9805559907</v>
       </c>
       <c r="E37">
-        <v>216497.5691978158</v>
+        <v>214984.1337389016</v>
       </c>
       <c r="F37">
-        <v>31999.38775526441</v>
+        <v>32831.96578425353</v>
       </c>
       <c r="G37">
-        <v>152015.0062120133</v>
+        <v>153724.0147717372</v>
       </c>
       <c r="H37">
-        <v>109692.866577052</v>
+        <v>109431.3428647869</v>
       </c>
       <c r="I37">
-        <v>106804.7026207638</v>
+        <v>105552.7908741147</v>
       </c>
       <c r="J37">
-        <v>2354326.847610755</v>
+        <v>2353836.569443552</v>
       </c>
       <c r="K37">
-        <v>63837.98073105887</v>
+        <v>63838.2894824851</v>
       </c>
       <c r="L37">
-        <v>87437</v>
+        <v>86240</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>15825.03789457946</v>
+        <v>16178.73838349614</v>
       </c>
       <c r="B38">
-        <v>70773.71782161102</v>
+        <v>71996.44420478516</v>
       </c>
       <c r="C38">
-        <v>86598.75571619047</v>
+        <v>88175.1825882813</v>
       </c>
       <c r="D38">
-        <v>488687.4568352313</v>
+        <v>504307.5014505059</v>
       </c>
       <c r="E38">
-        <v>580914.7875556601</v>
+        <v>574531.7550115301</v>
       </c>
       <c r="F38">
-        <v>85445.12484298107</v>
+        <v>87690.71658349864</v>
       </c>
       <c r="G38">
-        <v>403242.3319922502</v>
+        <v>416616.7848670072</v>
       </c>
       <c r="H38">
-        <v>296714.1349403954</v>
+        <v>292708.5565336872</v>
       </c>
       <c r="I38">
-        <v>284200.6526152648</v>
+        <v>281823.1984778429</v>
       </c>
       <c r="J38">
-        <v>6237528.216880332</v>
+        <v>6234443.380812959</v>
       </c>
       <c r="K38">
-        <v>169119.9160565097</v>
+        <v>169120.2112087777</v>
       </c>
       <c r="L38">
-        <v>231581</v>
+        <v>228360</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>19510.84794296814</v>
+        <v>18132.70156260636</v>
       </c>
       <c r="B39">
-        <v>89168.66008526016</v>
+        <v>80170.48871387147</v>
       </c>
       <c r="C39">
-        <v>108679.5080282283</v>
+        <v>98303.19027647782</v>
       </c>
       <c r="D39">
-        <v>613466.1228230342</v>
+        <v>606601.50621633</v>
       </c>
       <c r="E39">
-        <v>702267.4713716813</v>
+        <v>695807.0731916935</v>
       </c>
       <c r="F39">
-        <v>104772.0863863496</v>
+        <v>106626.1706021273</v>
       </c>
       <c r="G39">
-        <v>508694.0364366845</v>
+        <v>499975.3356142027</v>
       </c>
       <c r="H39">
-        <v>357470.9785696191</v>
+        <v>353233.2207983067</v>
       </c>
       <c r="I39">
-        <v>344796.4928020621</v>
+        <v>342573.8523933868</v>
       </c>
       <c r="J39">
-        <v>7599618.370595021</v>
+        <v>7599843.227206038</v>
       </c>
       <c r="K39">
-        <v>206140.0915448684</v>
+        <v>206140.3085651334</v>
       </c>
       <c r="L39">
-        <v>282321</v>
+        <v>278598</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9395.981944561518</v>
+        <v>9219.384062742685</v>
       </c>
       <c r="B40">
-        <v>41345.91018433119</v>
+        <v>41452.42924426957</v>
       </c>
       <c r="C40">
-        <v>50741.89212889271</v>
+        <v>50671.81330701226</v>
       </c>
       <c r="D40">
-        <v>285689.6309508059</v>
+        <v>295577.9600471982</v>
       </c>
       <c r="E40">
-        <v>330132.0828923729</v>
+        <v>326961.00034285</v>
       </c>
       <c r="F40">
-        <v>49748.42215572803</v>
+        <v>52846.03676507578</v>
       </c>
       <c r="G40">
-        <v>235941.2087950779</v>
+        <v>242731.9232821224</v>
       </c>
       <c r="H40">
-        <v>168029.5220156409</v>
+        <v>165382.546718827</v>
       </c>
       <c r="I40">
-        <v>162102.560876732</v>
+        <v>161578.4536240231</v>
       </c>
       <c r="J40">
-        <v>3607551.668646098</v>
+        <v>3605832.702380762</v>
       </c>
       <c r="K40">
-        <v>97789.16352416933</v>
+        <v>97789.23645955774</v>
       </c>
       <c r="L40">
-        <v>133977</v>
+        <v>131975</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>19239.31954565347</v>
+        <v>18810.3021120308</v>
       </c>
       <c r="B41">
-        <v>86327.12550874097</v>
+        <v>81962.20079517117</v>
       </c>
       <c r="C41">
-        <v>105566.4450543944</v>
+        <v>100772.502907202</v>
       </c>
       <c r="D41">
-        <v>577968.6296442051</v>
+        <v>573887.8786873841</v>
       </c>
       <c r="E41">
-        <v>658812.4995371816</v>
+        <v>664884.3882724447</v>
       </c>
       <c r="F41">
-        <v>100225.8128514377</v>
+        <v>99549.01137404685</v>
       </c>
       <c r="G41">
-        <v>477742.8167927674</v>
+        <v>474338.8673133373</v>
       </c>
       <c r="H41">
-        <v>337036.8002947912</v>
+        <v>342214.4982674852</v>
       </c>
       <c r="I41">
-        <v>321775.6992423903</v>
+        <v>322669.8900049595</v>
       </c>
       <c r="J41">
-        <v>7292074.867345075</v>
+        <v>7296331.287824595</v>
       </c>
       <c r="K41">
-        <v>197753.2859378951</v>
+        <v>197753.2030125625</v>
       </c>
       <c r="L41">
-        <v>270910</v>
+        <v>266893</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10100.90076765224</v>
+        <v>10633.33236081709</v>
       </c>
       <c r="B42">
-        <v>45421.82684298074</v>
+        <v>46281.80625639555</v>
       </c>
       <c r="C42">
-        <v>55522.72761063297</v>
+        <v>56915.13861721264</v>
       </c>
       <c r="D42">
-        <v>327596.3276147307</v>
+        <v>323950.9572203959</v>
       </c>
       <c r="E42">
-        <v>372860.1518427075</v>
+        <v>375750.011889172</v>
       </c>
       <c r="F42">
-        <v>56900.53993882217</v>
+        <v>57067.84932359304</v>
       </c>
       <c r="G42">
-        <v>270695.7876759086</v>
+        <v>266883.1078968028</v>
       </c>
       <c r="H42">
-        <v>190349.7009814671</v>
+        <v>190578.417576867</v>
       </c>
       <c r="I42">
-        <v>182510.4508612404</v>
+        <v>185171.594312305</v>
       </c>
       <c r="J42">
-        <v>4139884.389176215</v>
+        <v>4138644.845723253</v>
       </c>
       <c r="K42">
-        <v>112252.8975093079</v>
+        <v>112252.8111235522</v>
       </c>
       <c r="L42">
-        <v>153583</v>
+        <v>151579</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>77581.96559055334</v>
+        <v>76965.67187766571</v>
       </c>
       <c r="C43">
-        <v>77581.96559055334</v>
+        <v>76965.67187766571</v>
       </c>
       <c r="D43">
-        <v>458277.2247388018</v>
+        <v>464101.9889580893</v>
       </c>
       <c r="E43">
-        <v>526377.0746257275</v>
+        <v>530213.2957103237</v>
       </c>
       <c r="F43">
-        <v>80291.15188285756</v>
+        <v>81252.61168136196</v>
       </c>
       <c r="G43">
-        <v>377986.0728559443</v>
+        <v>382849.3772767273</v>
       </c>
       <c r="H43">
-        <v>266441.4629389236</v>
+        <v>268426.0996347902</v>
       </c>
       <c r="I43">
-        <v>259935.6116868039</v>
+        <v>261787.1960755336</v>
       </c>
       <c r="J43">
-        <v>5769963.456707612</v>
+        <v>5770538.524759303</v>
       </c>
       <c r="K43">
-        <v>156449.8903753657</v>
+        <v>156449.8320818796</v>
       </c>
       <c r="L43">
-        <v>216136</v>
+        <v>213120</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>50851.88690681834</v>
+        <v>52982.71166460963</v>
       </c>
       <c r="C44">
-        <v>50851.88690681834</v>
+        <v>52982.71166460963</v>
       </c>
       <c r="D44">
-        <v>287321.3207053012</v>
+        <v>291103.8659602919</v>
       </c>
       <c r="E44">
-        <v>330363.5996889908</v>
+        <v>332997.5559456613</v>
       </c>
       <c r="F44">
-        <v>50521.94316554788</v>
+        <v>50473.93129129442</v>
       </c>
       <c r="G44">
-        <v>236799.3775397533</v>
+        <v>240629.9346689975</v>
       </c>
       <c r="H44">
-        <v>169489.2964257682</v>
+        <v>169138.4883966383</v>
       </c>
       <c r="I44">
-        <v>160874.3032632226</v>
+        <v>163859.067549023</v>
       </c>
       <c r="J44">
-        <v>3655551.449204373</v>
+        <v>3652958.20634972</v>
       </c>
       <c r="K44">
-        <v>99098.65383148528</v>
+        <v>99098.81321579905</v>
       </c>
       <c r="L44">
-        <v>136953</v>
+        <v>134967</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>38316.99295364297</v>
+        <v>38453.36578659261</v>
       </c>
       <c r="C45">
-        <v>38316.99295364297</v>
+        <v>38453.36578659261</v>
       </c>
       <c r="D45">
-        <v>213898.3207244918</v>
+        <v>217385.0151964503</v>
       </c>
       <c r="E45">
-        <v>245454.0281596434</v>
+        <v>249276.2056067472</v>
       </c>
       <c r="F45">
-        <v>37604.48329921898</v>
+        <v>37926.03591260326</v>
       </c>
       <c r="G45">
-        <v>176293.8374252728</v>
+        <v>179458.9792838471</v>
       </c>
       <c r="H45">
-        <v>124656.026474451</v>
+        <v>126471.0762501124</v>
       </c>
       <c r="I45">
-        <v>120798.0016851924</v>
+        <v>122805.1293566348</v>
       </c>
       <c r="J45">
-        <v>2734765.618482173</v>
+        <v>2734122.645369829</v>
       </c>
       <c r="K45">
-        <v>74157.79410700825</v>
+        <v>74157.72167983819</v>
       </c>
       <c r="L45">
-        <v>102494</v>
+        <v>101023</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2707.271961928825</v>
+        <v>2694.464014701163</v>
       </c>
       <c r="C46">
-        <v>2707.271961928825</v>
+        <v>2694.464014701163</v>
       </c>
       <c r="D46">
-        <v>15133.15639909356</v>
+        <v>15020.23615666514</v>
       </c>
       <c r="E46">
-        <v>17480.41700511459</v>
+        <v>17527.15197071231</v>
       </c>
       <c r="F46">
-        <v>2635.307729494819</v>
+        <v>2571.294993725202</v>
       </c>
       <c r="G46">
-        <v>12497.84866959874</v>
+        <v>12448.94116293994</v>
       </c>
       <c r="H46">
-        <v>8896.059252678528</v>
+        <v>8859.943659911118</v>
       </c>
       <c r="I46">
-        <v>8584.357752436063</v>
+        <v>8667.20831080119</v>
       </c>
       <c r="J46">
-        <v>192661.0978300129</v>
+        <v>192792.7620343667</v>
       </c>
       <c r="K46">
-        <v>5226.754548668135</v>
+        <v>5227.043923856998</v>
       </c>
       <c r="L46">
-        <v>7218</v>
+        <v>7126</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>184477.4921200797</v>
+        <v>178877.1260053548</v>
       </c>
       <c r="C47">
-        <v>184477.4921200797</v>
+        <v>178877.1260053548</v>
       </c>
       <c r="D47">
-        <v>298642.1021683803</v>
+        <v>308123.6746313238</v>
       </c>
       <c r="E47">
-        <v>403101.952525921</v>
+        <v>397774.547156601</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>298642.1021683803</v>
+        <v>308123.6746313238</v>
       </c>
       <c r="H47">
-        <v>243357.181200232</v>
+        <v>241533.4154936847</v>
       </c>
       <c r="I47">
-        <v>159744.771325689</v>
+        <v>156241.1316629163</v>
       </c>
       <c r="J47">
-        <v>6679110.801777376</v>
+        <v>6681751.361809443</v>
       </c>
       <c r="K47">
-        <v>165878.8838857674</v>
+        <v>165879.2287372459</v>
       </c>
       <c r="L47">
-        <v>235150</v>
+        <v>234770</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>9772.545292776367</v>
+        <v>10053.88503160771</v>
       </c>
       <c r="B48">
-        <v>121503.4587578053</v>
+        <v>123356.0233259525</v>
       </c>
       <c r="C48">
-        <v>131276.0040505816</v>
+        <v>133409.9083575602</v>
       </c>
       <c r="D48">
-        <v>216831.8713030611</v>
+        <v>218186.6642967756</v>
       </c>
       <c r="E48">
-        <v>287574.3861847447</v>
+        <v>300063.0708381419</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>216831.8713030611</v>
+        <v>218186.6642967756</v>
       </c>
       <c r="H48">
-        <v>174509.5696765954</v>
+        <v>181072.7391997691</v>
       </c>
       <c r="I48">
-        <v>113064.8165081493</v>
+        <v>118990.3316383728</v>
       </c>
       <c r="J48">
-        <v>4877584.580575969</v>
+        <v>4877962.171950018</v>
       </c>
       <c r="K48">
-        <v>121111.6458551132</v>
+        <v>121112.1706536749</v>
       </c>
       <c r="L48">
-        <v>170327</v>
+        <v>170083</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>25715.32134121217</v>
+        <v>25594.84215218719</v>
       </c>
       <c r="B49">
-        <v>335600.3495397951</v>
+        <v>326527.2180666957</v>
       </c>
       <c r="C49">
-        <v>361315.6708810073</v>
+        <v>352122.0602188829</v>
       </c>
       <c r="D49">
-        <v>590307.4198239105</v>
+        <v>590558.3491281373</v>
       </c>
       <c r="E49">
-        <v>782215.2756686248</v>
+        <v>803297.7737346686</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>590307.4198239105</v>
+        <v>590558.3491281373</v>
       </c>
       <c r="H49">
-        <v>469071.9679125456</v>
+        <v>486315.5788973268</v>
       </c>
       <c r="I49">
-        <v>313143.3077560792</v>
+        <v>316982.1948373418</v>
       </c>
       <c r="J49">
-        <v>13125182.86560641</v>
+        <v>13125648.90437941</v>
       </c>
       <c r="K49">
-        <v>325760.952435151</v>
+        <v>325761.0575193773</v>
       </c>
       <c r="L49">
-        <v>457797</v>
+        <v>457491</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>28750.53791994962</v>
+        <v>28642.49698622351</v>
       </c>
       <c r="B50">
-        <v>343153.8171442098</v>
+        <v>337059.2823260077</v>
       </c>
       <c r="C50">
-        <v>371904.3550641594</v>
+        <v>365701.7793122313</v>
       </c>
       <c r="D50">
-        <v>590182.4356078812</v>
+        <v>583095.2519356892</v>
       </c>
       <c r="E50">
-        <v>809201.219132959</v>
+        <v>809592.9631005987</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>590182.4356078812</v>
+        <v>583095.2519356892</v>
       </c>
       <c r="H50">
-        <v>487629.2865587659</v>
+        <v>488109.1534672788</v>
       </c>
       <c r="I50">
-        <v>321571.9325741932</v>
+        <v>321483.80963332</v>
       </c>
       <c r="J50">
-        <v>13244315.79819268</v>
+        <v>13238635.47334129</v>
       </c>
       <c r="K50">
-        <v>328833.8268601344</v>
+        <v>328833.9171862827</v>
       </c>
       <c r="L50">
-        <v>461547</v>
+        <v>461366</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>33576.87779994495</v>
+        <v>33837.02602799222</v>
       </c>
       <c r="B51">
-        <v>405580.2571251537</v>
+        <v>404947.6784660476</v>
       </c>
       <c r="C51">
-        <v>439157.1349250987</v>
+        <v>438784.7044940399</v>
       </c>
       <c r="D51">
-        <v>701515.3195434037</v>
+        <v>722973.639920963</v>
       </c>
       <c r="E51">
-        <v>943111.5365941854</v>
+        <v>968590.860494601</v>
       </c>
       <c r="F51">
-        <v>91385.5618773381</v>
+        <v>90886.78993360346</v>
       </c>
       <c r="G51">
-        <v>610129.7576660656</v>
+        <v>632086.8499873595</v>
       </c>
       <c r="H51">
-        <v>564694.9987758031</v>
+        <v>582856.4758703338</v>
       </c>
       <c r="I51">
-        <v>378416.5378183822</v>
+        <v>385734.3846242672</v>
       </c>
       <c r="J51">
-        <v>15798569.34819528</v>
+        <v>15802072.75452768</v>
       </c>
       <c r="K51">
-        <v>392265.1472492567</v>
+        <v>392265.2229967852</v>
       </c>
       <c r="L51">
-        <v>547359</v>
+        <v>546775</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>22598.81156728637</v>
+        <v>22430.39100695038</v>
       </c>
       <c r="B52">
-        <v>292265.1321086997</v>
+        <v>280414.8731537687</v>
       </c>
       <c r="C52">
-        <v>314863.9436759861</v>
+        <v>302845.2641607191</v>
       </c>
       <c r="D52">
-        <v>513251.864330461</v>
+        <v>512889.8324808674</v>
       </c>
       <c r="E52">
-        <v>688717.063806174</v>
+        <v>686419.6844100871</v>
       </c>
       <c r="F52">
-        <v>66737.60387117717</v>
+        <v>66436.65038179903</v>
       </c>
       <c r="G52">
-        <v>446514.2604592838</v>
+        <v>446453.1820990684</v>
       </c>
       <c r="H52">
-        <v>415433.6926496075</v>
+        <v>414644.317542834</v>
       </c>
       <c r="I52">
-        <v>273283.3711565665</v>
+        <v>271775.3668672531</v>
       </c>
       <c r="J52">
-        <v>11345415.32560674</v>
+        <v>11344124.2355135</v>
       </c>
       <c r="K52">
-        <v>281795.7699947639</v>
+        <v>281796.3442069713</v>
       </c>
       <c r="L52">
-        <v>392558</v>
+        <v>392705</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>24523.29573294297</v>
+        <v>25598.28682489267</v>
       </c>
       <c r="B53">
-        <v>304188.8999148816</v>
+        <v>311121.43458274</v>
       </c>
       <c r="C53">
-        <v>328712.1956478246</v>
+        <v>336719.7214076326</v>
       </c>
       <c r="D53">
-        <v>538536.0864354904</v>
+        <v>565144.0267011496</v>
       </c>
       <c r="E53">
-        <v>730186.1688970937</v>
+        <v>730417.5905367081</v>
       </c>
       <c r="F53">
-        <v>68073.00179646852</v>
+        <v>72502.7398258991</v>
       </c>
       <c r="G53">
-        <v>470463.0846390218</v>
+        <v>492641.2868752505</v>
       </c>
       <c r="H53">
-        <v>439398.9628606493</v>
+        <v>442456.0378574152</v>
       </c>
       <c r="I53">
-        <v>290787.2060364444</v>
+        <v>287961.5526792929</v>
       </c>
       <c r="J53">
-        <v>12512146.64135724</v>
+        <v>12514572.96485415</v>
       </c>
       <c r="K53">
-        <v>310511.0807301835</v>
+        <v>310511.0480652303</v>
       </c>
       <c r="L53">
-        <v>433449</v>
+        <v>432459</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>47273.34267212601</v>
+        <v>48212.86338471255</v>
       </c>
       <c r="B54">
-        <v>568132.1284267206</v>
+        <v>589591.8839820311</v>
       </c>
       <c r="C54">
-        <v>615405.4710988465</v>
+        <v>637804.7473667437</v>
       </c>
       <c r="D54">
-        <v>1027965.448837283</v>
+        <v>1028395.17736333</v>
       </c>
       <c r="E54">
-        <v>1350457.035364951</v>
+        <v>1397056.424554527</v>
       </c>
       <c r="F54">
-        <v>131745.8236110508</v>
+        <v>128986.4952130683</v>
       </c>
       <c r="G54">
-        <v>896219.6252262318</v>
+        <v>899408.6821502618</v>
       </c>
       <c r="H54">
-        <v>818899.3527350328</v>
+        <v>841184.1659535636</v>
       </c>
       <c r="I54">
-        <v>531557.6826299183</v>
+        <v>555872.2586009633</v>
       </c>
       <c r="J54">
-        <v>22987051.87816954</v>
+        <v>22974460.43944378</v>
       </c>
       <c r="K54">
-        <v>570648.6434352418</v>
+        <v>570649.1562995508</v>
       </c>
       <c r="L54">
-        <v>796891</v>
+        <v>795341</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>51486.07335677104</v>
+        <v>51641.81196721017</v>
       </c>
       <c r="B55">
-        <v>635490.2645040357</v>
+        <v>641049.4214892394</v>
       </c>
       <c r="C55">
-        <v>686976.3378608067</v>
+        <v>692691.2334564496</v>
       </c>
       <c r="D55">
-        <v>1125301.31506086</v>
+        <v>1156680.889239268</v>
       </c>
       <c r="E55">
-        <v>1515222.660647441</v>
+        <v>1494034.046837311</v>
       </c>
       <c r="F55">
-        <v>145900.9424258267</v>
+        <v>146129.899697333</v>
       </c>
       <c r="G55">
-        <v>979400.372635033</v>
+        <v>1010550.989541935</v>
       </c>
       <c r="H55">
-        <v>912817.1899926832</v>
+        <v>902619.0530519983</v>
       </c>
       <c r="I55">
-        <v>602405.4706547578</v>
+        <v>591414.9937853132</v>
       </c>
       <c r="J55">
-        <v>25724991.93528956</v>
+        <v>25724108.55681779</v>
       </c>
       <c r="K55">
-        <v>638666.0161053479</v>
+        <v>638665.8159009323</v>
       </c>
       <c r="L55">
-        <v>889750</v>
+        <v>888649</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>34885.04410826686</v>
+        <v>34429.68276834819</v>
       </c>
       <c r="B56">
-        <v>416133.0671221897</v>
+        <v>415477.6271043941</v>
       </c>
       <c r="C56">
-        <v>451018.1112304565</v>
+        <v>449907.3098727423</v>
       </c>
       <c r="D56">
-        <v>739335.2066386444</v>
+        <v>755253.0996196922</v>
       </c>
       <c r="E56">
-        <v>1008647.369067937</v>
+        <v>1031447.078159661</v>
       </c>
       <c r="F56">
-        <v>105248.6173596568</v>
+        <v>109362.3594945569</v>
       </c>
       <c r="G56">
-        <v>634086.5892789877</v>
+        <v>645890.7401251353</v>
       </c>
       <c r="H56">
-        <v>609339.6240806524</v>
+        <v>618795.7904811251</v>
       </c>
       <c r="I56">
-        <v>399307.744987285</v>
+        <v>412651.287678536</v>
       </c>
       <c r="J56">
-        <v>16618023.25551625</v>
+        <v>16615071.72129617</v>
       </c>
       <c r="K56">
-        <v>412477.9348742579</v>
+        <v>412478.2009939902</v>
       </c>
       <c r="L56">
-        <v>574932</v>
+        <v>574669</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>52179.49669037783</v>
+        <v>52568.71121239119</v>
       </c>
       <c r="B57">
-        <v>647209.2815246327</v>
+        <v>646111.8709039183</v>
       </c>
       <c r="C57">
-        <v>699388.7782150105</v>
+        <v>698680.5821163094</v>
       </c>
       <c r="D57">
-        <v>1099303.208540203</v>
+        <v>1112008.004311764</v>
       </c>
       <c r="E57">
-        <v>1520261.599274292</v>
+        <v>1488753.113800037</v>
       </c>
       <c r="F57">
-        <v>158286.5404920545</v>
+        <v>160408.6462100527</v>
       </c>
       <c r="G57">
-        <v>941016.6680481482</v>
+        <v>951599.3581017116</v>
       </c>
       <c r="H57">
-        <v>910990.0165986773</v>
+        <v>892958.2137028797</v>
       </c>
       <c r="I57">
-        <v>609271.582675615</v>
+        <v>595794.9000971575</v>
       </c>
       <c r="J57">
-        <v>24931529.04232595</v>
+        <v>24945826.28512462</v>
       </c>
       <c r="K57">
-        <v>619089.6792134764</v>
+        <v>619090.1933262489</v>
       </c>
       <c r="L57">
-        <v>862275</v>
+        <v>863332</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>214566.4813247098</v>
+        <v>220138.6796285188</v>
       </c>
       <c r="C58">
-        <v>214566.4813247098</v>
+        <v>220138.6796285188</v>
       </c>
       <c r="D58">
-        <v>353438.6980593132</v>
+        <v>360934.3723301227</v>
       </c>
       <c r="E58">
-        <v>498352.9880040686</v>
+        <v>479639.1541739101</v>
       </c>
       <c r="F58">
-        <v>49235.00398080098</v>
+        <v>51212.47841531412</v>
       </c>
       <c r="G58">
-        <v>304203.6940785123</v>
+        <v>309721.8939148086</v>
       </c>
       <c r="H58">
-        <v>299148.613188912</v>
+        <v>289660.657649934</v>
       </c>
       <c r="I58">
-        <v>199204.3748151565</v>
+        <v>189978.4965239761</v>
       </c>
       <c r="J58">
-        <v>8031069.643729287</v>
+        <v>8028297.082771593</v>
       </c>
       <c r="K58">
-        <v>199388.1711151457</v>
+        <v>199387.7013806255</v>
       </c>
       <c r="L58">
-        <v>280156</v>
+        <v>280024</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>122570.8262600577</v>
+        <v>126269.2791222095</v>
       </c>
       <c r="C59">
-        <v>122570.8262600577</v>
+        <v>126269.2791222095</v>
       </c>
       <c r="D59">
-        <v>200721.9966746617</v>
+        <v>196696.4738419116</v>
       </c>
       <c r="E59">
-        <v>282401.0146172527</v>
+        <v>270584.0772435913</v>
       </c>
       <c r="F59">
-        <v>28447.33284391965</v>
+        <v>28295.8826138069</v>
       </c>
       <c r="G59">
-        <v>172274.663830742</v>
+        <v>168400.5912281047</v>
       </c>
       <c r="H59">
-        <v>169128.1329287961</v>
+        <v>163283.2037904458</v>
       </c>
       <c r="I59">
-        <v>113272.8816884566</v>
+        <v>107300.8734531455</v>
       </c>
       <c r="J59">
-        <v>4563173.136867112</v>
+        <v>4561659.572138077</v>
       </c>
       <c r="K59">
-        <v>113273.0054189291</v>
+        <v>113273.0953270344</v>
       </c>
       <c r="L59">
-        <v>159280</v>
+        <v>159161</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>193705.5246327053</v>
+        <v>190069.5818303263</v>
       </c>
       <c r="C60">
-        <v>193705.5246327053</v>
+        <v>190069.5818303263</v>
       </c>
       <c r="D60">
-        <v>320172.633496343</v>
+        <v>314160.3448690659</v>
       </c>
       <c r="E60">
-        <v>418441.9350328923</v>
+        <v>427571.9252038829</v>
       </c>
       <c r="F60">
-        <v>46313.47065632352</v>
+        <v>45159.04922698892</v>
       </c>
       <c r="G60">
-        <v>273859.1628400195</v>
+        <v>269001.2956420769</v>
       </c>
       <c r="H60">
-        <v>252522.5060929869</v>
+        <v>260337.802180096</v>
       </c>
       <c r="I60">
-        <v>165919.4289399053</v>
+        <v>167234.1230237868</v>
       </c>
       <c r="J60">
-        <v>7080181.121496782</v>
+        <v>7084474.269941619</v>
       </c>
       <c r="K60">
-        <v>175785.6701640903</v>
+        <v>175786.2641629166</v>
       </c>
       <c r="L60">
-        <v>247005</v>
+        <v>247026</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>93083.72410017111</v>
+        <v>96056.03333212758</v>
       </c>
       <c r="C61">
-        <v>93083.72410017111</v>
+        <v>96056.03333212758</v>
       </c>
       <c r="D61">
-        <v>157480.182683752</v>
+        <v>158827.2825892528</v>
       </c>
       <c r="E61">
-        <v>213891.7309245974</v>
+        <v>212874.0416790587</v>
       </c>
       <c r="F61">
-        <v>22744.58976471785</v>
+        <v>22272.79293019106</v>
       </c>
       <c r="G61">
-        <v>134735.5929190342</v>
+        <v>136554.4896590617</v>
       </c>
       <c r="H61">
-        <v>127152.1299694066</v>
+        <v>128351.4202943452</v>
       </c>
       <c r="I61">
-        <v>86739.60095519081</v>
+        <v>84522.62138471352</v>
       </c>
       <c r="J61">
-        <v>3501521.583900076</v>
+        <v>3501096.270316372</v>
       </c>
       <c r="K61">
-        <v>86887.01580793194</v>
+        <v>86886.82957024968</v>
       </c>
       <c r="L61">
-        <v>122085</v>
+        <v>122031</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6654.51235572944</v>
+        <v>6668.16526674976</v>
       </c>
       <c r="C62">
-        <v>6654.51235572944</v>
+        <v>6668.16526674976</v>
       </c>
       <c r="D62">
-        <v>11075.87650078893</v>
+        <v>11158.73706786069</v>
       </c>
       <c r="E62">
-        <v>14877.59739593916</v>
+        <v>15322.20298397134</v>
       </c>
       <c r="F62">
-        <v>1619.732490212051</v>
+        <v>1588.526208548933</v>
       </c>
       <c r="G62">
-        <v>9456.14401057688</v>
+        <v>9570.210859311759</v>
       </c>
       <c r="H62">
-        <v>8969.49184006207</v>
+        <v>9214.680813666726</v>
       </c>
       <c r="I62">
-        <v>5908.105555877086</v>
+        <v>6107.522170304617</v>
       </c>
       <c r="J62">
-        <v>249896.2322497341</v>
+        <v>249892.9141442791</v>
       </c>
       <c r="K62">
-        <v>6203.87249439026</v>
+        <v>6203.66247325946</v>
       </c>
       <c r="L62">
-        <v>8724</v>
+        <v>8712</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2730.276688486352</v>
+        <v>2721.821940000251</v>
       </c>
       <c r="C63">
-        <v>2730.276688486352</v>
+        <v>2721.821940000251</v>
       </c>
       <c r="D63">
-        <v>4419.894839214424</v>
+        <v>4480.318153203533</v>
       </c>
       <c r="E63">
-        <v>6099.879982883148</v>
+        <v>6057.118449492586</v>
       </c>
       <c r="F63">
-        <v>649.450202083132</v>
+        <v>643.1594366361858</v>
       </c>
       <c r="G63">
-        <v>3770.444637131292</v>
+        <v>3837.158716567347</v>
       </c>
       <c r="H63">
-        <v>3699.59559651124</v>
+        <v>3673.309640037701</v>
       </c>
       <c r="I63">
-        <v>2400.284386371908</v>
+        <v>2383.808809454886</v>
       </c>
       <c r="J63">
-        <v>100979.080082882</v>
+        <v>100892.3573059778</v>
       </c>
       <c r="K63">
-        <v>2505.844441642729</v>
+        <v>2505.791532534608</v>
       </c>
       <c r="L63">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4671.604343052242</v>
+        <v>4644.983265850141</v>
       </c>
       <c r="C64">
-        <v>4671.604343052242</v>
+        <v>4644.983265850141</v>
       </c>
       <c r="D64">
-        <v>3332.480385573514</v>
+        <v>3368.32725426505</v>
       </c>
       <c r="E64">
-        <v>120.0800463680736</v>
+        <v>126.4859819710514</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3332.480385573514</v>
+        <v>3368.32725426505</v>
       </c>
       <c r="H64">
-        <v>61.99979195087919</v>
+        <v>59.65908720080825</v>
       </c>
       <c r="I64">
-        <v>58.08025441719446</v>
+        <v>66.82689477024316</v>
       </c>
       <c r="J64">
-        <v>82481.62631925949</v>
+        <v>82511.50368506691</v>
       </c>
       <c r="K64">
-        <v>1878.865394953352</v>
+        <v>1878.844880485072</v>
       </c>
       <c r="L64">
-        <v>2690</v>
+        <v>2629</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>48819.52263381019</v>
+        <v>49431.59423336513</v>
       </c>
       <c r="C65">
-        <v>48819.52263381019</v>
+        <v>49431.59423336513</v>
       </c>
       <c r="D65">
-        <v>34903.0921873248</v>
+        <v>35375.77072500406</v>
       </c>
       <c r="E65">
-        <v>1257.763082310382</v>
+        <v>1060.004085576982</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>34903.0921873248</v>
+        <v>35375.77072500406</v>
       </c>
       <c r="H65">
-        <v>597.7655661586257</v>
+        <v>530.2839609890531</v>
       </c>
       <c r="I65">
-        <v>659.9975161517566</v>
+        <v>529.7201245879288</v>
       </c>
       <c r="J65">
-        <v>864982.7908795236</v>
+        <v>864656.637446663</v>
       </c>
       <c r="K65">
-        <v>19681.75753726242</v>
+        <v>19682.10550493728</v>
       </c>
       <c r="L65">
-        <v>28213</v>
+        <v>27550</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>51931.21727529961</v>
+        <v>52686.59693855367</v>
       </c>
       <c r="C66">
-        <v>51931.21727529961</v>
+        <v>52686.59693855367</v>
       </c>
       <c r="D66">
-        <v>38024.66175934726</v>
+        <v>37606.5387695953</v>
       </c>
       <c r="E66">
-        <v>1153.703803847442</v>
+        <v>1461.687270606609</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>38024.66175934726</v>
+        <v>37606.5387695953</v>
       </c>
       <c r="H66">
-        <v>554.8740802506429</v>
+        <v>713.0196596402556</v>
       </c>
       <c r="I66">
-        <v>598.8297235967992</v>
+        <v>748.6676109663532</v>
       </c>
       <c r="J66">
-        <v>932579.3611822139</v>
+        <v>932996.2560732653</v>
       </c>
       <c r="K66">
-        <v>21219.24026920241</v>
+        <v>21218.80373536724</v>
       </c>
       <c r="L66">
-        <v>30422</v>
+        <v>29737</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>88716.0013582331</v>
+        <v>89113.62640535712</v>
       </c>
       <c r="B67">
-        <v>605208.9854667134</v>
+        <v>623020.6032291392</v>
       </c>
       <c r="C67">
-        <v>693924.9868249466</v>
+        <v>712134.2296344963</v>
       </c>
       <c r="D67">
-        <v>484902.4242158119</v>
+        <v>503736.9477706813</v>
       </c>
       <c r="E67">
-        <v>16576.60084440749</v>
+        <v>15915.34818406568</v>
       </c>
       <c r="F67">
-        <v>178477.7769939456</v>
+        <v>185306.3348524421</v>
       </c>
       <c r="G67">
-        <v>306424.6472218662</v>
+        <v>318430.6129182392</v>
       </c>
       <c r="H67">
-        <v>7622.128750015123</v>
+        <v>7501.31227810732</v>
       </c>
       <c r="I67">
-        <v>8954.472094392368</v>
+        <v>8414.035905958362</v>
       </c>
       <c r="J67">
-        <v>12262599.34878044</v>
+        <v>12263484.4308353</v>
       </c>
       <c r="K67">
-        <v>279228.0504813237</v>
+        <v>279227.882372388</v>
       </c>
       <c r="L67">
-        <v>383215</v>
+        <v>374504</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>98326.07662380673</v>
+        <v>94713.38139024432</v>
       </c>
       <c r="B68">
-        <v>661402.3773511035</v>
+        <v>651135.5732595576</v>
       </c>
       <c r="C68">
-        <v>759728.4539749102</v>
+        <v>745848.9546498019</v>
       </c>
       <c r="D68">
-        <v>541266.6490566942</v>
+        <v>527947.4126583581</v>
       </c>
       <c r="E68">
-        <v>20939.07392796073</v>
+        <v>23464.59914258695</v>
       </c>
       <c r="F68">
-        <v>196772.5242162349</v>
+        <v>194859.8931489544</v>
       </c>
       <c r="G68">
-        <v>344494.1248404593</v>
+        <v>333087.5195094038</v>
       </c>
       <c r="H68">
-        <v>10049.68475602548</v>
+        <v>10786.1201743936</v>
       </c>
       <c r="I68">
-        <v>10889.38917193525</v>
+        <v>12678.47896819335</v>
       </c>
       <c r="J68">
-        <v>13164539.18774304</v>
+        <v>13176992.56553979</v>
       </c>
       <c r="K68">
-        <v>299791.6909341045</v>
+        <v>299792.0933367551</v>
       </c>
       <c r="L68">
-        <v>411739</v>
+        <v>403310</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>218015.3202866049</v>
+        <v>205484.1834898489</v>
       </c>
       <c r="B69">
-        <v>1485051.952802472</v>
+        <v>1416813.977052567</v>
       </c>
       <c r="C69">
-        <v>1703067.273089077</v>
+        <v>1622298.160542416</v>
       </c>
       <c r="D69">
-        <v>1191382.207856072</v>
+        <v>1195565.148700099</v>
       </c>
       <c r="E69">
-        <v>40798.86701235476</v>
+        <v>44327.22373477648</v>
       </c>
       <c r="F69">
-        <v>443427.372548425</v>
+        <v>440593.2606495006</v>
       </c>
       <c r="G69">
-        <v>747954.8353076472</v>
+        <v>754971.888050598</v>
       </c>
       <c r="H69">
-        <v>19642.67387250729</v>
+        <v>21733.22162701123</v>
       </c>
       <c r="I69">
-        <v>21156.19313984747</v>
+        <v>22594.00210776525</v>
       </c>
       <c r="J69">
-        <v>29230014.50490697</v>
+        <v>29242234.52858638</v>
       </c>
       <c r="K69">
-        <v>665262.0691529954</v>
+        <v>665261.7165891103</v>
       </c>
       <c r="L69">
-        <v>911464</v>
+        <v>894978</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>180875.8680395738</v>
+        <v>182779.0362282582</v>
       </c>
       <c r="B70">
-        <v>1239991.454027022</v>
+        <v>1255555.268153545</v>
       </c>
       <c r="C70">
-        <v>1420867.322066596</v>
+        <v>1438334.304381804</v>
       </c>
       <c r="D70">
-        <v>1053875.227487326</v>
+        <v>1009480.609397159</v>
       </c>
       <c r="E70">
-        <v>36824.93786222506</v>
+        <v>34509.83077355962</v>
       </c>
       <c r="F70">
-        <v>184724.9159451991</v>
+        <v>182288.4096352134</v>
       </c>
       <c r="G70">
-        <v>869150.3115421266</v>
+        <v>827192.1997619454</v>
       </c>
       <c r="H70">
-        <v>17939.05604249491</v>
+        <v>16612.05657536343</v>
       </c>
       <c r="I70">
-        <v>18885.88181973015</v>
+        <v>17897.77419819619</v>
       </c>
       <c r="J70">
-        <v>25149884.62028181</v>
+        <v>25144688.49091979</v>
       </c>
       <c r="K70">
-        <v>572384.945413753</v>
+        <v>572385.305141728</v>
       </c>
       <c r="L70">
-        <v>789523</v>
+        <v>770571</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>269226.5559698137</v>
+        <v>274343.1186804728</v>
       </c>
       <c r="B71">
-        <v>1834696.384481449</v>
+        <v>1872573.630808973</v>
       </c>
       <c r="C71">
-        <v>2103922.940451263</v>
+        <v>2146916.749489446</v>
       </c>
       <c r="D71">
-        <v>1529116.261916329</v>
+        <v>1470293.235156594</v>
       </c>
       <c r="E71">
-        <v>54541.97425841034</v>
+        <v>56787.97192590328</v>
       </c>
       <c r="F71">
-        <v>272026.9212665258</v>
+        <v>263416.5726544593</v>
       </c>
       <c r="G71">
-        <v>1257089.340649803</v>
+        <v>1206876.662502135</v>
       </c>
       <c r="H71">
-        <v>26106.6961945889</v>
+        <v>27424.57266712234</v>
       </c>
       <c r="I71">
-        <v>28435.27806382144</v>
+        <v>29363.39925878094</v>
       </c>
       <c r="J71">
-        <v>36644697.44390696</v>
+        <v>36613507.48869932</v>
       </c>
       <c r="K71">
-        <v>833641.0802508974</v>
+        <v>833640.9837792338</v>
       </c>
       <c r="L71">
-        <v>1145787</v>
+        <v>1123793</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>216097.7687701031</v>
+        <v>214779.3227120836</v>
       </c>
       <c r="B72">
-        <v>1484829.57561272</v>
+        <v>1511741.150724459</v>
       </c>
       <c r="C72">
-        <v>1700927.344382823</v>
+        <v>1726520.473436543</v>
       </c>
       <c r="D72">
-        <v>1210834.544466736</v>
+        <v>1252139.714904799</v>
       </c>
       <c r="E72">
-        <v>48050.07522070831</v>
+        <v>53983.21297010761</v>
       </c>
       <c r="F72">
-        <v>220402.856555341</v>
+        <v>218757.8480298457</v>
       </c>
       <c r="G72">
-        <v>990431.6879113946</v>
+        <v>1033381.866874953</v>
       </c>
       <c r="H72">
-        <v>23237.18076717422</v>
+        <v>26785.75740201166</v>
       </c>
       <c r="I72">
-        <v>24812.89445353409</v>
+        <v>27197.45556809595</v>
       </c>
       <c r="J72">
-        <v>29868939.86524176</v>
+        <v>29862259.48714158</v>
       </c>
       <c r="K72">
-        <v>679393.1343182462</v>
+        <v>679392.7258932745</v>
       </c>
       <c r="L72">
-        <v>935611</v>
+        <v>916114</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>124197.0574744521</v>
+        <v>122102.5003065234</v>
       </c>
       <c r="B73">
-        <v>863036.8157997371</v>
+        <v>837088.1572187797</v>
       </c>
       <c r="C73">
-        <v>987233.8732741893</v>
+        <v>959190.6575253031</v>
       </c>
       <c r="D73">
-        <v>672123.5294326844</v>
+        <v>699130.9882093882</v>
       </c>
       <c r="E73">
-        <v>23237.86841830466</v>
+        <v>24249.57057668185</v>
       </c>
       <c r="F73">
-        <v>123908.3795180402</v>
+        <v>124703.8629560956</v>
       </c>
       <c r="G73">
-        <v>548215.1499146442</v>
+        <v>574427.1252532926</v>
       </c>
       <c r="H73">
-        <v>10461.37345846665</v>
+        <v>11762.97258018245</v>
       </c>
       <c r="I73">
-        <v>12776.49495983802</v>
+        <v>12486.59799649939</v>
       </c>
       <c r="J73">
-        <v>17100384.30282775</v>
+        <v>17121324.96700753</v>
       </c>
       <c r="K73">
-        <v>389253.3385103697</v>
+        <v>389253.0458741735</v>
       </c>
       <c r="L73">
-        <v>537199</v>
+        <v>524190.0000000001</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>171759.1000738102</v>
+        <v>175090.3033689198</v>
       </c>
       <c r="B74">
-        <v>1183164.01156551</v>
+        <v>1203464.061577399</v>
       </c>
       <c r="C74">
-        <v>1354923.11163932</v>
+        <v>1378554.364946319</v>
       </c>
       <c r="D74">
-        <v>966618.3331266235</v>
+        <v>985837.4902524753</v>
       </c>
       <c r="E74">
-        <v>34570.29072673555</v>
+        <v>32396.03967544535</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>966618.3331266235</v>
+        <v>985837.4902524753</v>
       </c>
       <c r="H74">
-        <v>16774.45470215546</v>
+        <v>14175.98952808229</v>
       </c>
       <c r="I74">
-        <v>17795.83602458009</v>
+        <v>18220.05014736306</v>
       </c>
       <c r="J74">
-        <v>23819573.30348769</v>
+        <v>23830158.8350044</v>
       </c>
       <c r="K74">
-        <v>542234.9931200449</v>
+        <v>542234.7808803616</v>
       </c>
       <c r="L74">
-        <v>754539</v>
+        <v>737496</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>539646.6590027673</v>
+        <v>534847.8215919203</v>
       </c>
       <c r="C75">
-        <v>539646.6590027673</v>
+        <v>534847.8215919203</v>
       </c>
       <c r="D75">
-        <v>388394.4128930959</v>
+        <v>381260.7064639753</v>
       </c>
       <c r="E75">
-        <v>12740.91841332808</v>
+        <v>12968.05274878504</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>388394.4128930959</v>
+        <v>381260.7064639753</v>
       </c>
       <c r="H75">
-        <v>6052.658233263548</v>
+        <v>6296.973025983037</v>
       </c>
       <c r="I75">
-        <v>6688.260180064533</v>
+        <v>6671.079722802007</v>
       </c>
       <c r="J75">
-        <v>9517649.938683772</v>
+        <v>9512752.456378831</v>
       </c>
       <c r="K75">
-        <v>216447.2319668207</v>
+        <v>216447.0960369495</v>
       </c>
       <c r="L75">
-        <v>310210</v>
+        <v>303095</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>443608.4159087691</v>
+        <v>425648.2175314819</v>
       </c>
       <c r="C76">
-        <v>443608.4159087691</v>
+        <v>425648.2175314819</v>
       </c>
       <c r="D76">
-        <v>324055.6601980967</v>
+        <v>310590.6275705341</v>
       </c>
       <c r="E76">
-        <v>11531.65897635511</v>
+        <v>10180.85674277501</v>
       </c>
       <c r="F76">
-        <v>117895.5110525305</v>
+        <v>113656.1205472039</v>
       </c>
       <c r="G76">
-        <v>206160.1491455662</v>
+        <v>196934.5070233302</v>
       </c>
       <c r="H76">
-        <v>5555.135864863294</v>
+        <v>5122.861037710272</v>
       </c>
       <c r="I76">
-        <v>5976.523111491821</v>
+        <v>5057.995705064735</v>
       </c>
       <c r="J76">
-        <v>7756402.438678922</v>
+        <v>7755830.24809528</v>
       </c>
       <c r="K76">
-        <v>176526.0042738618</v>
+        <v>176526.0680113518</v>
       </c>
       <c r="L76">
-        <v>249261</v>
+        <v>244172</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>236005.8153700706</v>
+        <v>235093.9811212466</v>
       </c>
       <c r="C77">
-        <v>236005.8153700706</v>
+        <v>235093.9811212466</v>
       </c>
       <c r="D77">
-        <v>168627.539477507</v>
+        <v>172671.5734404404</v>
       </c>
       <c r="E77">
-        <v>5688.92373256017</v>
+        <v>6447.752374592279</v>
       </c>
       <c r="F77">
-        <v>62855.79023021518</v>
+        <v>63406.06729107688</v>
       </c>
       <c r="G77">
-        <v>105771.7492472918</v>
+        <v>109265.5061493636</v>
       </c>
       <c r="H77">
-        <v>2581.143687098755</v>
+        <v>3073.497695117067</v>
       </c>
       <c r="I77">
-        <v>3107.780045461415</v>
+        <v>3374.254679475212</v>
       </c>
       <c r="J77">
-        <v>4166510.858790911</v>
+        <v>4165822.236665226</v>
       </c>
       <c r="K77">
-        <v>94798.18234075763</v>
+        <v>94797.81732388638</v>
       </c>
       <c r="L77">
-        <v>133852</v>
+        <v>130801</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>418287.5191300212</v>
+        <v>417833.8799324953</v>
       </c>
       <c r="C78">
-        <v>418287.5191300212</v>
+        <v>417833.8799324953</v>
       </c>
       <c r="D78">
-        <v>308021.1032399962</v>
+        <v>295619.0857641505</v>
       </c>
       <c r="E78">
-        <v>9954.323339570441</v>
+        <v>11384.79504994022</v>
       </c>
       <c r="F78">
-        <v>120172.1982659428</v>
+        <v>115730.5504060982</v>
       </c>
       <c r="G78">
-        <v>187848.9049740534</v>
+        <v>179888.5353580523</v>
       </c>
       <c r="H78">
-        <v>4787.58060457471</v>
+        <v>5563.109698233516</v>
       </c>
       <c r="I78">
-        <v>5166.742734995731</v>
+        <v>5821.685351706707</v>
       </c>
       <c r="J78">
-        <v>7425011.607381814</v>
+        <v>7423408.048823368</v>
       </c>
       <c r="K78">
-        <v>168934.9921945516</v>
+        <v>168934.9863705264</v>
       </c>
       <c r="L78">
-        <v>238360</v>
+        <v>233237</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>44238.10439181332</v>
+        <v>42563.48018949785</v>
       </c>
       <c r="C79">
-        <v>44238.10439181332</v>
+        <v>42563.48018949785</v>
       </c>
       <c r="D79">
-        <v>30569.24786987537</v>
+        <v>31780.37979676255</v>
       </c>
       <c r="E79">
-        <v>1192.107482424454</v>
+        <v>1242.634267885357</v>
       </c>
       <c r="F79">
-        <v>11885.87339712443</v>
+        <v>12433.2580798267</v>
       </c>
       <c r="G79">
-        <v>18683.37447275094</v>
+        <v>19347.12171693585</v>
       </c>
       <c r="H79">
-        <v>595.6750255520004</v>
+        <v>604.7534669229869</v>
       </c>
       <c r="I79">
-        <v>596.4324568724541</v>
+        <v>637.8808009623704</v>
       </c>
       <c r="J79">
-        <v>762736.1094678983</v>
+        <v>763413.8626351265</v>
       </c>
       <c r="K79">
-        <v>17369.30439038484</v>
+        <v>17368.80606863728</v>
       </c>
       <c r="L79">
-        <v>24525</v>
+        <v>23959</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6662.788857846268</v>
+        <v>6550.195157731617</v>
       </c>
       <c r="C80">
-        <v>6662.788857846268</v>
+        <v>6550.195157731617</v>
       </c>
       <c r="D80">
-        <v>4562.572639533062</v>
+        <v>4654.971756625573</v>
       </c>
       <c r="E80">
-        <v>142.7296143276945</v>
+        <v>213.0597608604444</v>
       </c>
       <c r="F80">
-        <v>1776.707857702692</v>
+        <v>1805.109803435486</v>
       </c>
       <c r="G80">
-        <v>2785.86478183037</v>
+        <v>2849.861953190087</v>
       </c>
       <c r="H80">
-        <v>70.72716665830954</v>
+        <v>101.8446623794079</v>
       </c>
       <c r="I80">
-        <v>72.00244766938491</v>
+        <v>111.2150984810365</v>
       </c>
       <c r="J80">
-        <v>115655.6620488123</v>
+        <v>115670.4638038696</v>
       </c>
       <c r="K80">
-        <v>2631.228086211535</v>
+        <v>2630.642120992145</v>
       </c>
       <c r="L80">
-        <v>3711</v>
+        <v>3632</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13930.38092503735</v>
+        <v>13742.10267881633</v>
       </c>
       <c r="C81">
-        <v>13930.38092503735</v>
+        <v>13742.10267881633</v>
       </c>
       <c r="D81">
-        <v>10234.1193116538</v>
+        <v>9959.98827016947</v>
       </c>
       <c r="E81">
-        <v>418.2870679363247</v>
+        <v>344.4878489670843</v>
       </c>
       <c r="F81">
-        <v>3959.120196088859</v>
+        <v>3901.728024240255</v>
       </c>
       <c r="G81">
-        <v>6274.999115564938</v>
+        <v>6058.260245929214</v>
       </c>
       <c r="H81">
-        <v>207.6366196224853</v>
+        <v>161.7958819174342</v>
       </c>
       <c r="I81">
-        <v>210.6504483138394</v>
+        <v>182.6919670496501</v>
       </c>
       <c r="J81">
-        <v>248192.3817378116</v>
+        <v>247872.411397152</v>
       </c>
       <c r="K81">
-        <v>5643.94795503663</v>
+        <v>5643.917297950097</v>
       </c>
       <c r="L81">
-        <v>7958</v>
+        <v>7794</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>987.2839762062976</v>
+        <v>981.3047464250371</v>
       </c>
       <c r="B82">
-        <v>3918.395121238641</v>
+        <v>3892.620785683352</v>
       </c>
       <c r="C82">
-        <v>4905.679097444939</v>
+        <v>4873.925532108389</v>
       </c>
       <c r="D82">
-        <v>12285.4537093288</v>
+        <v>12352.10215055794</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12285.4537093288</v>
+        <v>12352.10215055794</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>300955.736184161</v>
+        <v>300891.1109170334</v>
       </c>
       <c r="K82">
-        <v>5951.24987416543</v>
+        <v>5950.825374389814</v>
       </c>
       <c r="L82">
-        <v>8504</v>
+        <v>8494</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1577.302626603803</v>
+        <v>1546.772200522545</v>
       </c>
       <c r="B83">
-        <v>6390.045344197641</v>
+        <v>6382.807469709129</v>
       </c>
       <c r="C83">
-        <v>7967.347970801444</v>
+        <v>7929.579670231674</v>
       </c>
       <c r="D83">
-        <v>20695.07420855588</v>
+        <v>20557.05734515438</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20695.07420855588</v>
+        <v>20557.05734515438</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>502913.869810939</v>
+        <v>502958.6819280282</v>
       </c>
       <c r="K83">
-        <v>9946.683729198208</v>
+        <v>9947.172649420543</v>
       </c>
       <c r="L83">
-        <v>14222</v>
+        <v>14208</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>10154.30487521249</v>
+        <v>9771.406295582416</v>
       </c>
       <c r="B84">
-        <v>39560.85790006605</v>
+        <v>38303.84662101122</v>
       </c>
       <c r="C84">
-        <v>49715.16277527854</v>
+        <v>48075.25291659364</v>
       </c>
       <c r="D84">
-        <v>127022.3756861284</v>
+        <v>130160.4909267265</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>33901.61801337419</v>
+        <v>35867.15434028333</v>
       </c>
       <c r="G84">
-        <v>93120.75767275417</v>
+        <v>94293.33658644314</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3079164.933970594</v>
+        <v>3079097.737770718</v>
       </c>
       <c r="K84">
-        <v>60895.69908042722</v>
+        <v>60896.23037443357</v>
       </c>
       <c r="L84">
-        <v>85769</v>
+        <v>85547</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6173.206078618677</v>
+        <v>6253.444104371396</v>
       </c>
       <c r="B85">
-        <v>24130.23805333273</v>
+        <v>25054.11462685117</v>
       </c>
       <c r="C85">
-        <v>30303.4441319514</v>
+        <v>31307.55873122257</v>
       </c>
       <c r="D85">
-        <v>78041.05056135563</v>
+        <v>79792.29586893893</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>20999.41862566481</v>
+        <v>21640.51014665642</v>
       </c>
       <c r="G85">
-        <v>57041.63193569082</v>
+        <v>58151.78572228252</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1923030.431531647</v>
+        <v>1923168.606489766</v>
       </c>
       <c r="K85">
-        <v>38033.83289420718</v>
+        <v>38033.70525214389</v>
       </c>
       <c r="L85">
-        <v>53540</v>
+        <v>53405</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>17387.18986949472</v>
+        <v>17735.58184484507</v>
       </c>
       <c r="B86">
-        <v>70385.07081633447</v>
+        <v>71072.12573427847</v>
       </c>
       <c r="C86">
-        <v>87772.26068582918</v>
+        <v>88807.70757912354</v>
       </c>
       <c r="D86">
-        <v>237468.8282199517</v>
+        <v>228826.8369351281</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>63649.00629789552</v>
+        <v>62902.02070465579</v>
       </c>
       <c r="G86">
-        <v>173819.8219220562</v>
+        <v>165924.8162304724</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5655158.439217504</v>
+        <v>5655431.018906765</v>
       </c>
       <c r="K86">
-        <v>111846.8384595764</v>
+        <v>111847.0535859293</v>
       </c>
       <c r="L86">
-        <v>157399</v>
+        <v>157440</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10893.47634701316</v>
+        <v>10515.07883273276</v>
       </c>
       <c r="B87">
-        <v>42335.70396050611</v>
+        <v>42464.17533482728</v>
       </c>
       <c r="C87">
-        <v>53229.18030751927</v>
+        <v>52979.25416756004</v>
       </c>
       <c r="D87">
-        <v>140575.9485354884</v>
+        <v>140430.300318649</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>37867.76311596774</v>
+        <v>37746.22507858234</v>
       </c>
       <c r="G87">
-        <v>102708.1854195207</v>
+        <v>102684.0752400667</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>3384926.747628071</v>
+        <v>3385466.327292286</v>
       </c>
       <c r="K87">
-        <v>66953.18400539468</v>
+        <v>66953.14425535477</v>
       </c>
       <c r="L87">
-        <v>94356</v>
+        <v>94170</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>13712.22414911587</v>
+        <v>14287.98788882613</v>
       </c>
       <c r="B88">
-        <v>55472.35311040642</v>
+        <v>57157.57278787407</v>
       </c>
       <c r="C88">
-        <v>69184.57725952228</v>
+        <v>71445.5606767002</v>
       </c>
       <c r="D88">
-        <v>184586.2050945865</v>
+        <v>185026.735867504</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>50439.26093683798</v>
+        <v>49889.92445687904</v>
       </c>
       <c r="G88">
-        <v>134146.9441577485</v>
+        <v>135136.811410625</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>4415841.114040273</v>
+        <v>4415501.839562109</v>
       </c>
       <c r="K88">
-        <v>87332.03117499936</v>
+        <v>87331.75069389195</v>
       </c>
       <c r="L88">
-        <v>123174</v>
+        <v>122760</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10493.34103647001</v>
+        <v>10569.82500063717</v>
       </c>
       <c r="B89">
-        <v>43189.23160208556</v>
+        <v>42361.78710386589</v>
       </c>
       <c r="C89">
-        <v>53682.57263855557</v>
+        <v>52931.61210450306</v>
       </c>
       <c r="D89">
-        <v>134831.7955647147</v>
+        <v>138579.5996000395</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>36804.41924137041</v>
+        <v>37292.30234837016</v>
       </c>
       <c r="G89">
-        <v>98027.37632334427</v>
+        <v>101287.2972516694</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3342659.969766729</v>
+        <v>3343165.967308504</v>
       </c>
       <c r="K89">
-        <v>66111.2562502431</v>
+        <v>66111.22509057676</v>
       </c>
       <c r="L89">
-        <v>93079</v>
+        <v>92981</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7781.576729492554</v>
+        <v>7769.012128918745</v>
       </c>
       <c r="B90">
-        <v>31204.13642737213</v>
+        <v>32172.5318985521</v>
       </c>
       <c r="C90">
-        <v>38985.71315686469</v>
+        <v>39941.54402747085</v>
       </c>
       <c r="D90">
-        <v>100275.7661307997</v>
+        <v>99256.36457080343</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>26811.77252984334</v>
+        <v>26983.01836874674</v>
       </c>
       <c r="G90">
-        <v>73463.99360095632</v>
+        <v>72273.34620205668</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2439456.443727246</v>
+        <v>2439646.90660449</v>
       </c>
       <c r="K90">
-        <v>48244.31695080704</v>
+        <v>48244.05380746292</v>
       </c>
       <c r="L90">
-        <v>68013</v>
+        <v>67833</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8667.951291952262</v>
+        <v>8715.523874797545</v>
       </c>
       <c r="B91">
-        <v>33566.00429787536</v>
+        <v>34809.75555926003</v>
       </c>
       <c r="C91">
-        <v>42233.95558982762</v>
+        <v>43525.27943405757</v>
       </c>
       <c r="D91">
-        <v>107756.9955410088</v>
+        <v>109747.1913042034</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29151.16001297315</v>
+        <v>29717.61378194588</v>
       </c>
       <c r="G91">
-        <v>78605.83552803569</v>
+        <v>80029.57752225752</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>2649345.664077767</v>
+        <v>2649050.931971458</v>
       </c>
       <c r="K91">
-        <v>52389.25418187632</v>
+        <v>52389.17778589333</v>
       </c>
       <c r="L91">
-        <v>73706</v>
+        <v>73741</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6439.149368965864</v>
+        <v>6184.445663477529</v>
       </c>
       <c r="B92">
-        <v>25583.2807681586</v>
+        <v>25353.92327701671</v>
       </c>
       <c r="C92">
-        <v>32022.43013712446</v>
+        <v>31538.36894049424</v>
       </c>
       <c r="D92">
-        <v>86308.96265842962</v>
+        <v>81341.97159618081</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22906.23394260732</v>
+        <v>22093.6884397182</v>
       </c>
       <c r="G92">
-        <v>63402.7287158223</v>
+        <v>59248.28315646261</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1984961.211336338</v>
+        <v>1985050.809334092</v>
       </c>
       <c r="K92">
-        <v>39255.75635717893</v>
+        <v>39255.90156136184</v>
       </c>
       <c r="L92">
-        <v>55392</v>
+        <v>55191</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,25 +5355,25 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3812.274919323267</v>
+        <v>3642.282683460333</v>
       </c>
       <c r="B93">
-        <v>14963.20526810222</v>
+        <v>15326.98557471951</v>
       </c>
       <c r="C93">
-        <v>18775.48018742548</v>
+        <v>18969.26825817984</v>
       </c>
       <c r="D93">
-        <v>48964.97033097926</v>
+        <v>49168.67241005026</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>13308.59069285908</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>35656.37963812018</v>
+        <v>49168.67241005026</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1186403.903525526</v>
+        <v>1186223.011480944</v>
       </c>
       <c r="K93">
-        <v>23460.86943021356</v>
+        <v>23460.80900243096</v>
       </c>
       <c r="L93">
-        <v>33007</v>
+        <v>33478</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1692.832158476422</v>
+        <v>1630.618409750775</v>
       </c>
       <c r="B94">
-        <v>6690.970853335317</v>
+        <v>6633.447564816098</v>
       </c>
       <c r="C94">
-        <v>8383.803011811739</v>
+        <v>8264.065974566873</v>
       </c>
       <c r="D94">
-        <v>21067.36431822366</v>
+        <v>21737.73860081827</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5709.523739444608</v>
+        <v>5842.310136582515</v>
       </c>
       <c r="G94">
-        <v>15357.84057877905</v>
+        <v>15895.42846423575</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>510278.6374262876</v>
+        <v>510363.2096809818</v>
       </c>
       <c r="K94">
-        <v>10091.84441974216</v>
+        <v>10092.21360648109</v>
       </c>
       <c r="L94">
-        <v>14216</v>
+        <v>14167</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1422.999393886943</v>
+        <v>1431.1377738464</v>
       </c>
       <c r="B95">
-        <v>5701.322076686998</v>
+        <v>5597.415471464069</v>
       </c>
       <c r="C95">
-        <v>7124.321470573941</v>
+        <v>7028.55324531047</v>
       </c>
       <c r="D95">
-        <v>18488.2283366374</v>
+        <v>18709.27394598881</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>5008.24730316253</v>
+        <v>5070.033712234453</v>
       </c>
       <c r="G95">
-        <v>13479.98103347487</v>
+        <v>13639.24023375435</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>442258.9062617446</v>
+        <v>442183.0952637101</v>
       </c>
       <c r="K95">
-        <v>8745.297122292539</v>
+        <v>8744.691503832813</v>
       </c>
       <c r="L95">
-        <v>12317</v>
+        <v>12284</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1603.340064996358</v>
+        <v>1628.899620213386</v>
       </c>
       <c r="B96">
-        <v>6533.357736621639</v>
+        <v>6424.617216732112</v>
       </c>
       <c r="C96">
-        <v>8136.697801617997</v>
+        <v>8053.516836945498</v>
       </c>
       <c r="D96">
-        <v>21333.42066844242</v>
+        <v>21344.30146791833</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5707.632916020434</v>
+        <v>5810.188604553476</v>
       </c>
       <c r="G96">
-        <v>15625.78775242199</v>
+        <v>15534.11286336486</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>511035.925954228</v>
+        <v>511040.3754386819</v>
       </c>
       <c r="K96">
-        <v>10107.33900016297</v>
+        <v>10106.75020522512</v>
       </c>
       <c r="L96">
-        <v>14248</v>
+        <v>14194</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1013.347130486979</v>
+        <v>971.8906210772462</v>
       </c>
       <c r="B97">
-        <v>3998.605300374308</v>
+        <v>3886.786246716019</v>
       </c>
       <c r="C97">
-        <v>5011.952430861287</v>
+        <v>4858.676867793266</v>
       </c>
       <c r="D97">
-        <v>12822.91220536097</v>
+        <v>13086.9953415102</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3461.774278937356</v>
+        <v>3549.590139911838</v>
       </c>
       <c r="G97">
-        <v>9361.137926423615</v>
+        <v>9537.405201598358</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>313469.7188898538</v>
+        <v>313430.9389456948</v>
       </c>
       <c r="K97">
-        <v>6199.348096412209</v>
+        <v>6198.743468421589</v>
       </c>
       <c r="L97">
-        <v>8732</v>
+        <v>8715</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>502.5973585876804</v>
+        <v>533.8194240739283</v>
       </c>
       <c r="B98">
-        <v>3707.535005872407</v>
+        <v>3814.912404134158</v>
       </c>
       <c r="C98">
-        <v>4210.132364460087</v>
+        <v>4348.731828208087</v>
       </c>
       <c r="D98">
-        <v>29027.62913891718</v>
+        <v>29280.38446878571</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>29027.62913891718</v>
+        <v>29280.38446878571</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>279425.6329336767</v>
+        <v>279541.4662088874</v>
       </c>
       <c r="K98">
-        <v>6606.873215521152</v>
+        <v>6606.929283924521</v>
       </c>
       <c r="L98">
-        <v>9396</v>
+        <v>9212</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>780.3660395485335</v>
+        <v>729.4930546015864</v>
       </c>
       <c r="B99">
-        <v>5401.008830784219</v>
+        <v>5392.581678091001</v>
       </c>
       <c r="C99">
-        <v>6181.374870332752</v>
+        <v>6122.074732692588</v>
       </c>
       <c r="D99">
-        <v>41904.35335819537</v>
+        <v>40801.47592291248</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>41904.35335819537</v>
+        <v>40801.47592291248</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>397080.9589471287</v>
+        <v>396857.6461448973</v>
       </c>
       <c r="K99">
-        <v>9384.905221748882</v>
+        <v>9384.886394400019</v>
       </c>
       <c r="L99">
-        <v>13332</v>
+        <v>13089</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5229.625117668998</v>
+        <v>5603.333837833288</v>
       </c>
       <c r="B100">
-        <v>39619.58524647637</v>
+        <v>40207.7195440455</v>
       </c>
       <c r="C100">
-        <v>44849.21036414537</v>
+        <v>45811.0533818788</v>
       </c>
       <c r="D100">
-        <v>301279.4316971871</v>
+        <v>296761.8316676648</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>301279.4316971871</v>
+        <v>296761.8316676648</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2906409.031580834</v>
+        <v>2906529.442066011</v>
       </c>
       <c r="K100">
-        <v>68687.1460945627</v>
+        <v>68687.33877028446</v>
       </c>
       <c r="L100">
-        <v>97564</v>
+        <v>95796</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>158.669810156188</v>
+        <v>161.7794759724767</v>
       </c>
       <c r="B101">
-        <v>1135.337369832498</v>
+        <v>1147.777089371742</v>
       </c>
       <c r="C101">
-        <v>1294.007179988686</v>
+        <v>1309.556565344219</v>
       </c>
       <c r="D101">
-        <v>8827.468432635156</v>
+        <v>8983.402858639402</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8827.468432635156</v>
+        <v>8983.402858639402</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>85595.78405760146</v>
+        <v>85639.30853589339</v>
       </c>
       <c r="K101">
-        <v>2023.734483342755</v>
+        <v>2023.756984059065</v>
       </c>
       <c r="L101">
-        <v>2875</v>
+        <v>2824</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1910.015743503439</v>
+        <v>1918.703416173278</v>
       </c>
       <c r="B102">
-        <v>14058.13699898373</v>
+        <v>14548.89994023465</v>
       </c>
       <c r="C102">
-        <v>15968.15274248717</v>
+        <v>16467.60335640793</v>
       </c>
       <c r="D102">
-        <v>108571.4221273322</v>
+        <v>107424.7850348982</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6826.002102807766</v>
+        <v>6657.730117254329</v>
       </c>
       <c r="G102">
-        <v>101745.4200245244</v>
+        <v>100767.0549176439</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1046453.622911258</v>
+        <v>1046023.609654207</v>
       </c>
       <c r="K102">
-        <v>24733.85695666184</v>
+        <v>24733.90762534885</v>
       </c>
       <c r="L102">
-        <v>34799</v>
+        <v>34155</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1498.296677329788</v>
+        <v>1526.362321301803</v>
       </c>
       <c r="B103">
-        <v>10687.63438079395</v>
+        <v>10609.48519423431</v>
       </c>
       <c r="C103">
-        <v>12185.93105812374</v>
+        <v>12135.84751553611</v>
       </c>
       <c r="D103">
-        <v>81283.47863425195</v>
+        <v>80524.09347611429</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5102.303438106021</v>
+        <v>5064.080390796748</v>
       </c>
       <c r="G103">
-        <v>76181.17519614592</v>
+        <v>75460.01308531754</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>781438.6981132502</v>
+        <v>781265.5914798649</v>
       </c>
       <c r="K103">
-        <v>18474.98386295845</v>
+        <v>18475.08684041863</v>
       </c>
       <c r="L103">
-        <v>25975</v>
+        <v>25556</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4298.72010263587</v>
+        <v>4586.877374753614</v>
       </c>
       <c r="B104">
-        <v>34231.07874553981</v>
+        <v>33299.77308421388</v>
       </c>
       <c r="C104">
-        <v>38529.79884817568</v>
+        <v>37886.6504589675</v>
       </c>
       <c r="D104">
-        <v>260370.7832980005</v>
+        <v>253575.9544199314</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>16120.68589016555</v>
+        <v>16050.15616643655</v>
       </c>
       <c r="G104">
-        <v>244250.097407835</v>
+        <v>237525.7982534948</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2476477.300430339</v>
+        <v>2474930.220488224</v>
       </c>
       <c r="K104">
-        <v>58535.72107235402</v>
+        <v>58536.11415229982</v>
       </c>
       <c r="L104">
-        <v>82476</v>
+        <v>80848</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>7929.752959642285</v>
+        <v>8148.479462451493</v>
       </c>
       <c r="B105">
-        <v>59453.62429391485</v>
+        <v>57421.44860839917</v>
       </c>
       <c r="C105">
-        <v>67383.37725355713</v>
+        <v>65569.92807085066</v>
       </c>
       <c r="D105">
-        <v>457939.6095432799</v>
+        <v>453934.9342619387</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>28917.89950070261</v>
+        <v>27685.61474017598</v>
       </c>
       <c r="G105">
-        <v>429021.7100425773</v>
+        <v>426249.3195217628</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4353420.634938256</v>
+        <v>4357242.794184092</v>
       </c>
       <c r="K105">
-        <v>102959.7298289765</v>
+        <v>102959.6554159815</v>
       </c>
       <c r="L105">
-        <v>144784</v>
+        <v>142460</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6713.332869642595</v>
+        <v>6723.620624907286</v>
       </c>
       <c r="B106">
-        <v>49426.21577024057</v>
+        <v>49750.64144331966</v>
       </c>
       <c r="C106">
-        <v>56139.54863988316</v>
+        <v>56474.26206822695</v>
       </c>
       <c r="D106">
-        <v>370522.2600929824</v>
+        <v>374379.1628857615</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23261.03553927223</v>
+        <v>23903.0074131457</v>
       </c>
       <c r="G106">
-        <v>347261.2245537103</v>
+        <v>350476.1554726158</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3630913.18580571</v>
+        <v>3630383.302641139</v>
       </c>
       <c r="K106">
-        <v>85833.92487994382</v>
+        <v>85834.35639261545</v>
       </c>
       <c r="L106">
-        <v>120724</v>
+        <v>118561</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>6952.574431332898</v>
+        <v>7128.883327835518</v>
       </c>
       <c r="B107">
-        <v>52214.57150331559</v>
+        <v>50753.0066716181</v>
       </c>
       <c r="C107">
-        <v>59167.14593464848</v>
+        <v>57881.88999945361</v>
       </c>
       <c r="D107">
-        <v>398173.9412320966</v>
+        <v>390704.1141249454</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24834.85187999943</v>
+        <v>23858.44342387966</v>
       </c>
       <c r="G107">
-        <v>373339.0893520972</v>
+        <v>366845.6707010657</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3804073.748046846</v>
+        <v>3803673.338078552</v>
       </c>
       <c r="K107">
-        <v>89900.30880125592</v>
+        <v>89900.15987573129</v>
       </c>
       <c r="L107">
-        <v>126428</v>
+        <v>124291</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3387.866587326129</v>
+        <v>3336.822035726003</v>
       </c>
       <c r="B108">
-        <v>24234.35470454154</v>
+        <v>24072.10086971659</v>
       </c>
       <c r="C108">
-        <v>27622.22129186767</v>
+        <v>27408.9229054426</v>
       </c>
       <c r="D108">
-        <v>186709.6572858423</v>
+        <v>183583.0515043436</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11593.63729500173</v>
+        <v>11323.06660150864</v>
       </c>
       <c r="G108">
-        <v>175116.0199908406</v>
+        <v>172259.984902835</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1802235.241259476</v>
+        <v>1802102.234872804</v>
       </c>
       <c r="K108">
-        <v>42603.85105882442</v>
+        <v>42603.7953445781</v>
       </c>
       <c r="L108">
-        <v>60071</v>
+        <v>58869</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5258.586040849017</v>
+        <v>4979.17173466018</v>
       </c>
       <c r="B109">
-        <v>37504.39123675981</v>
+        <v>37542.65896432481</v>
       </c>
       <c r="C109">
-        <v>42762.97727760882</v>
+        <v>42521.83069898499</v>
       </c>
       <c r="D109">
-        <v>288752.378702093</v>
+        <v>295012.1633418488</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17994.04627860973</v>
+        <v>18583.31447756679</v>
       </c>
       <c r="G109">
-        <v>270758.3324234833</v>
+        <v>276428.848864282</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2808682.717569523</v>
+        <v>2808442.702270594</v>
       </c>
       <c r="K109">
-        <v>66364.78689052087</v>
+        <v>66364.85143872019</v>
       </c>
       <c r="L109">
-        <v>93404</v>
+        <v>91659</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>4889.633510494872</v>
+        <v>5326.455590583558</v>
       </c>
       <c r="B110">
-        <v>37450.61218743657</v>
+        <v>36862.83144041689</v>
       </c>
       <c r="C110">
-        <v>42340.24569793144</v>
+        <v>42189.28703100044</v>
       </c>
       <c r="D110">
-        <v>274651.4752053585</v>
+        <v>281844.8438834747</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>16907.10540238936</v>
+        <v>17646.20011891738</v>
       </c>
       <c r="G110">
-        <v>257744.3698029692</v>
+        <v>264198.6437645574</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2699147.726096054</v>
+        <v>2699998.516316064</v>
       </c>
       <c r="K110">
-        <v>63796.24125591795</v>
+        <v>63796.03192755461</v>
       </c>
       <c r="L110">
-        <v>89766</v>
+        <v>88109</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17406.1196280894</v>
+        <v>17122.97458772589</v>
       </c>
       <c r="B111">
-        <v>125109.785317367</v>
+        <v>121296.9833926358</v>
       </c>
       <c r="C111">
-        <v>142515.9049454564</v>
+        <v>138419.9579803617</v>
       </c>
       <c r="D111">
-        <v>941444.4904906168</v>
+        <v>946326.6149231937</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>57892.15879838383</v>
+        <v>60053.77344835238</v>
       </c>
       <c r="G111">
-        <v>883552.331692233</v>
+        <v>886272.8414748413</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>9069896.500681244</v>
+        <v>9068771.003361994</v>
       </c>
       <c r="K111">
-        <v>214312.8003655738</v>
+        <v>214313.3120933011</v>
       </c>
       <c r="L111">
-        <v>301553</v>
+        <v>295927</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>552.9398698009446</v>
+        <v>542.6799495664623</v>
       </c>
       <c r="B112">
-        <v>4088.556804924959</v>
+        <v>3981.828351456173</v>
       </c>
       <c r="C112">
-        <v>4641.496674725904</v>
+        <v>4524.508301022634</v>
       </c>
       <c r="D112">
-        <v>30722.45889210244</v>
+        <v>30497.17179865719</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1909.400347989974</v>
+        <v>1891.808654027383</v>
       </c>
       <c r="G112">
-        <v>28813.05854411247</v>
+        <v>28605.36314462981</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>296401.4653877314</v>
+        <v>296297.8485430746</v>
       </c>
       <c r="K112">
-        <v>7006.3470652908</v>
+        <v>7006.361441749767</v>
       </c>
       <c r="L112">
-        <v>9849</v>
+        <v>9682</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>133.7576468774706</v>
+        <v>130.3054114928581</v>
       </c>
       <c r="B113">
-        <v>959.6188880626721</v>
+        <v>965.4916721950216</v>
       </c>
       <c r="C113">
-        <v>1093.376534940143</v>
+        <v>1095.79708368788</v>
       </c>
       <c r="D113">
-        <v>7679.417726400256</v>
+        <v>7573.879079125545</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>474.5644438578431</v>
+        <v>471.720148982878</v>
       </c>
       <c r="G113">
-        <v>7204.853282542414</v>
+        <v>7102.158930142667</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>72746.47549129545</v>
+        <v>72758.58758851976</v>
       </c>
       <c r="K113">
-        <v>1719.295271736599</v>
+        <v>1719.098097265288</v>
       </c>
       <c r="L113">
-        <v>2422</v>
+        <v>2375</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1214.169690335087</v>
+        <v>1226.348395279537</v>
       </c>
       <c r="B114">
-        <v>8641.004423456054</v>
+        <v>8463.830145233132</v>
       </c>
       <c r="C114">
-        <v>9855.174113791139</v>
+        <v>9690.17854051267</v>
       </c>
       <c r="D114">
-        <v>66914.82495822069</v>
+        <v>66483.75839661436</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4132.487075886318</v>
+        <v>4191.07120079508</v>
       </c>
       <c r="G114">
-        <v>62782.33788233437</v>
+        <v>62292.68719581928</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>635404.1277701037</v>
+        <v>635562.3387037843</v>
       </c>
       <c r="K114">
-        <v>15019.11325940932</v>
+        <v>15018.92447395712</v>
       </c>
       <c r="L114">
-        <v>21120</v>
+        <v>20741</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>112.1044232550726</v>
+        <v>106.9480006759257</v>
       </c>
       <c r="B115">
-        <v>818.1460258754065</v>
+        <v>783.081788504498</v>
       </c>
       <c r="C115">
-        <v>930.2504491304791</v>
+        <v>890.0297891804238</v>
       </c>
       <c r="D115">
-        <v>5973.554865581704</v>
+        <v>6100.863799377858</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>373.1870207103453</v>
+        <v>378.8508901287615</v>
       </c>
       <c r="G115">
-        <v>5600.367844871358</v>
+        <v>5722.012909249097</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>58507.11658201493</v>
+        <v>58541.54352684997</v>
       </c>
       <c r="K115">
-        <v>1382.794286098195</v>
+        <v>1383.120843932423</v>
       </c>
       <c r="L115">
-        <v>1948</v>
+        <v>1912</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1444.421071927667</v>
+        <v>1495.765878719104</v>
       </c>
       <c r="B116">
-        <v>8612.310364753244</v>
+        <v>8631.642013787759</v>
       </c>
       <c r="C116">
-        <v>10056.73143668091</v>
+        <v>10127.40789250686</v>
       </c>
       <c r="D116">
-        <v>20746.78479149215</v>
+        <v>20900.46778486612</v>
       </c>
       <c r="E116">
-        <v>997.0483587946961</v>
+        <v>1109.542823087495</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>20746.78479149215</v>
+        <v>20900.46778486612</v>
       </c>
       <c r="H116">
-        <v>785.3402087373089</v>
+        <v>870.9649307682515</v>
       </c>
       <c r="I116">
-        <v>211.7081500573872</v>
+        <v>238.5778923192431</v>
       </c>
       <c r="J116">
-        <v>415020.1127703818</v>
+        <v>415218.4147049223</v>
       </c>
       <c r="K116">
-        <v>10097.7794587831</v>
+        <v>10097.79073818204</v>
       </c>
       <c r="L116">
-        <v>13795</v>
+        <v>14225</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>914.9309847102085</v>
+        <v>894.5021048571534</v>
       </c>
       <c r="B117">
-        <v>5286.027362908033</v>
+        <v>5230.521314087424</v>
       </c>
       <c r="C117">
-        <v>6200.958347618241</v>
+        <v>6125.023418944577</v>
       </c>
       <c r="D117">
-        <v>12979.17017883479</v>
+        <v>13645.57878014611</v>
       </c>
       <c r="E117">
-        <v>659.750027770254</v>
+        <v>636.2259456966617</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>12979.17017883479</v>
+        <v>13645.57878014611</v>
       </c>
       <c r="H117">
-        <v>523.9186981342016</v>
+        <v>506.0404696429526</v>
       </c>
       <c r="I117">
-        <v>135.8313296360523</v>
+        <v>130.185476053709</v>
       </c>
       <c r="J117">
-        <v>252617.6034438848</v>
+        <v>252716.6177791388</v>
       </c>
       <c r="K117">
-        <v>6147.748758503872</v>
+        <v>6148.225924283616</v>
       </c>
       <c r="L117">
-        <v>8393</v>
+        <v>8655</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2212.30869127771</v>
+        <v>2172.308962955069</v>
       </c>
       <c r="B118">
-        <v>12742.02968450573</v>
+        <v>12889.6362158272</v>
       </c>
       <c r="C118">
-        <v>14954.33837578344</v>
+        <v>15061.94517878227</v>
       </c>
       <c r="D118">
-        <v>33086.75554064813</v>
+        <v>32156.79769569167</v>
       </c>
       <c r="E118">
-        <v>1412.573800537608</v>
+        <v>1507.360283516818</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>33086.75554064813</v>
+        <v>32156.79769569167</v>
       </c>
       <c r="H118">
-        <v>1125.345028725186</v>
+        <v>1203.621262755553</v>
       </c>
       <c r="I118">
-        <v>287.2287718124218</v>
+        <v>303.7390207612653</v>
       </c>
       <c r="J118">
-        <v>617343.175677622</v>
+        <v>617343.5622680236</v>
       </c>
       <c r="K118">
-        <v>15021.00547045857</v>
+        <v>15020.92949638402</v>
       </c>
       <c r="L118">
-        <v>20530</v>
+        <v>21147</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>7924.113922901764</v>
+        <v>7783.218815632959</v>
       </c>
       <c r="B119">
-        <v>46907.4866576066</v>
+        <v>46545.08093232354</v>
       </c>
       <c r="C119">
-        <v>54831.60058050836</v>
+        <v>54328.2997479565</v>
       </c>
       <c r="D119">
-        <v>117904.6886457317</v>
+        <v>119322.0506533875</v>
       </c>
       <c r="E119">
-        <v>5666.182990839418</v>
+        <v>5645.945462418131</v>
       </c>
       <c r="F119">
-        <v>17081.38162691564</v>
+        <v>16992.93543384702</v>
       </c>
       <c r="G119">
-        <v>100823.307018816</v>
+        <v>102329.1152195405</v>
       </c>
       <c r="H119">
-        <v>4424.70393269282</v>
+        <v>4499.831092171184</v>
       </c>
       <c r="I119">
-        <v>1241.479058146598</v>
+        <v>1146.114370246948</v>
       </c>
       <c r="J119">
-        <v>2255375.662516351</v>
+        <v>2255613.045365016</v>
       </c>
       <c r="K119">
-        <v>54874.21041887481</v>
+        <v>54874.13793525389</v>
       </c>
       <c r="L119">
-        <v>74222</v>
+        <v>76770</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12260.85757863213</v>
+        <v>12499.40029670033</v>
       </c>
       <c r="B120">
-        <v>71109.21592124083</v>
+        <v>73030.87660855758</v>
       </c>
       <c r="C120">
-        <v>83370.07349987296</v>
+        <v>85530.27690525791</v>
       </c>
       <c r="D120">
-        <v>181731.0666183947</v>
+        <v>184610.7788111414</v>
       </c>
       <c r="E120">
-        <v>8964.920684817555</v>
+        <v>9219.928140423817</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>26227.09427190726</v>
       </c>
       <c r="G120">
-        <v>181731.0666183947</v>
+        <v>158383.6845392341</v>
       </c>
       <c r="H120">
-        <v>7079.537348155096</v>
+        <v>7115.982127957194</v>
       </c>
       <c r="I120">
-        <v>1885.383336662458</v>
+        <v>2103.946012466622</v>
       </c>
       <c r="J120">
-        <v>3471495.526166555</v>
+        <v>3471363.996786503</v>
       </c>
       <c r="K120">
-        <v>84458.01349473296</v>
+        <v>84457.89292372858</v>
       </c>
       <c r="L120">
-        <v>115253</v>
+        <v>117960</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7288.458983662605</v>
+        <v>7104.891181297539</v>
       </c>
       <c r="B121">
-        <v>42442.49690297126</v>
+        <v>42307.5112325113</v>
       </c>
       <c r="C121">
-        <v>49730.95588663386</v>
+        <v>49412.40241380884</v>
       </c>
       <c r="D121">
-        <v>106587.4254700516</v>
+        <v>105812.3155954966</v>
       </c>
       <c r="E121">
-        <v>5325.394047091934</v>
+        <v>5163.082046014549</v>
       </c>
       <c r="F121">
-        <v>15351.18765994045</v>
+        <v>15344.80189683995</v>
       </c>
       <c r="G121">
-        <v>91236.23781011115</v>
+        <v>90467.51369865661</v>
       </c>
       <c r="H121">
-        <v>4106.215868599276</v>
+        <v>4045.431380504682</v>
       </c>
       <c r="I121">
-        <v>1219.178178492658</v>
+        <v>1117.650665509866</v>
       </c>
       <c r="J121">
-        <v>2058708.186963545</v>
+        <v>2058321.07926905</v>
       </c>
       <c r="K121">
-        <v>50093.02600893439</v>
+        <v>50092.8565968908</v>
       </c>
       <c r="L121">
-        <v>67775</v>
+        <v>70000</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>18923.37242765199</v>
+        <v>19611.75812123298</v>
       </c>
       <c r="B122">
-        <v>110056.006435548</v>
+        <v>116496.7278822118</v>
       </c>
       <c r="C122">
-        <v>128979.3788631999</v>
+        <v>136108.4860034448</v>
       </c>
       <c r="D122">
-        <v>284520.2029706337</v>
+        <v>271103.7267245519</v>
       </c>
       <c r="E122">
-        <v>14580.57876799549</v>
+        <v>14743.86789110135</v>
       </c>
       <c r="F122">
-        <v>41071.35437924776</v>
+        <v>39615.25203458623</v>
       </c>
       <c r="G122">
-        <v>243448.848591386</v>
+        <v>231488.4746899657</v>
       </c>
       <c r="H122">
-        <v>11441.23690463475</v>
+        <v>11754.77422460193</v>
       </c>
       <c r="I122">
-        <v>3139.341863360738</v>
+        <v>2989.093666499416</v>
       </c>
       <c r="J122">
-        <v>5383346.208949565</v>
+        <v>5383095.297602908</v>
       </c>
       <c r="K122">
-        <v>131015.8902343318</v>
+        <v>131016.3442910513</v>
       </c>
       <c r="L122">
-        <v>177472</v>
+        <v>182781</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>33772.61169746176</v>
+        <v>36781.82963076311</v>
       </c>
       <c r="B123">
-        <v>197990.7711914041</v>
+        <v>208129.3502551317</v>
       </c>
       <c r="C123">
-        <v>231763.3828888659</v>
+        <v>244911.1798858948</v>
       </c>
       <c r="D123">
-        <v>511626.3766863189</v>
+        <v>513639.3095909012</v>
       </c>
       <c r="E123">
-        <v>26378.48709531926</v>
+        <v>24185.74735019567</v>
       </c>
       <c r="F123">
-        <v>74238.70204997776</v>
+        <v>73655.54235534655</v>
       </c>
       <c r="G123">
-        <v>437387.6746363412</v>
+        <v>439983.7672355547</v>
       </c>
       <c r="H123">
-        <v>20770.92701605726</v>
+        <v>18810.13611655853</v>
       </c>
       <c r="I123">
-        <v>5607.560079261997</v>
+        <v>5375.611233637151</v>
       </c>
       <c r="J123">
-        <v>9799104.285767909</v>
+        <v>9800363.678711312</v>
       </c>
       <c r="K123">
-        <v>238430.8465493349</v>
+        <v>238430.6878661475</v>
       </c>
       <c r="L123">
-        <v>322541</v>
+        <v>332815</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>23573.67074345041</v>
+        <v>23995.01994956651</v>
       </c>
       <c r="B124">
-        <v>143513.1113055664</v>
+        <v>143239.6500765431</v>
       </c>
       <c r="C124">
-        <v>167086.7820490168</v>
+        <v>167234.6700261096</v>
       </c>
       <c r="D124">
-        <v>358962.8592499456</v>
+        <v>359034.8583372417</v>
       </c>
       <c r="E124">
-        <v>16154.87866466801</v>
+        <v>17179.91702711554</v>
       </c>
       <c r="F124">
-        <v>53351.82748022882</v>
+        <v>52999.9841549691</v>
       </c>
       <c r="G124">
-        <v>305611.0317697168</v>
+        <v>306034.8741822726</v>
       </c>
       <c r="H124">
-        <v>12984.55921681737</v>
+        <v>13526.6207870149</v>
       </c>
       <c r="I124">
-        <v>3170.319447850645</v>
+        <v>3653.296240100632</v>
       </c>
       <c r="J124">
-        <v>6876670.953334115</v>
+        <v>6875165.366615069</v>
       </c>
       <c r="K124">
-        <v>167395.7533967503</v>
+        <v>167395.8314023389</v>
       </c>
       <c r="L124">
-        <v>226681</v>
+        <v>233747</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13118.47281460254</v>
+        <v>13858.15502538913</v>
       </c>
       <c r="B125">
-        <v>78171.83229478056</v>
+        <v>80058.60232583083</v>
       </c>
       <c r="C125">
-        <v>91290.3051093831</v>
+        <v>93916.75735121996</v>
       </c>
       <c r="D125">
-        <v>201666.9951776673</v>
+        <v>195012.0658501812</v>
       </c>
       <c r="E125">
-        <v>10082.3457069923</v>
+        <v>9951.895349470173</v>
       </c>
       <c r="F125">
-        <v>29383.82757956374</v>
+        <v>28401.14125363058</v>
       </c>
       <c r="G125">
-        <v>172283.1675981036</v>
+        <v>166610.9245965506</v>
       </c>
       <c r="H125">
-        <v>8121.13012451232</v>
+        <v>7698.087344733758</v>
       </c>
       <c r="I125">
-        <v>1961.215582479976</v>
+        <v>2253.808004736416</v>
       </c>
       <c r="J125">
-        <v>3838582.405263191</v>
+        <v>3838498.040210014</v>
       </c>
       <c r="K125">
-        <v>93371.74361202557</v>
+        <v>93371.70543027685</v>
       </c>
       <c r="L125">
-        <v>126506</v>
+        <v>130285</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10660.44248508441</v>
+        <v>10841.33088245828</v>
       </c>
       <c r="B126">
-        <v>63039.42097362236</v>
+        <v>61869.99749999017</v>
       </c>
       <c r="C126">
-        <v>73699.86345870678</v>
+        <v>72711.32838244845</v>
       </c>
       <c r="D126">
-        <v>154323.6695662096</v>
+        <v>157228.7230675473</v>
       </c>
       <c r="E126">
-        <v>7713.296846925216</v>
+        <v>7523.28636240334</v>
       </c>
       <c r="F126">
-        <v>22374.98915136486</v>
+        <v>23089.01952858616</v>
       </c>
       <c r="G126">
-        <v>131948.6804148447</v>
+        <v>134139.7035389611</v>
       </c>
       <c r="H126">
-        <v>6100.072601133382</v>
+        <v>5935.942404092976</v>
       </c>
       <c r="I126">
-        <v>1613.224245791834</v>
+        <v>1587.343958310364</v>
       </c>
       <c r="J126">
-        <v>3012117.403917289</v>
+        <v>3012699.232532756</v>
       </c>
       <c r="K126">
-        <v>73289.76306272279</v>
+        <v>73290.19608866636</v>
       </c>
       <c r="L126">
-        <v>99099</v>
+        <v>102342</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18584.82748677074</v>
+        <v>18521.12339526141</v>
       </c>
       <c r="B127">
-        <v>108500.6334856998</v>
+        <v>110554.7448777224</v>
       </c>
       <c r="C127">
-        <v>127085.4609724705</v>
+        <v>129075.8682729838</v>
       </c>
       <c r="D127">
-        <v>282739.2167965766</v>
+        <v>274051.8845405384</v>
       </c>
       <c r="E127">
-        <v>14099.21286527246</v>
+        <v>12844.96559530946</v>
       </c>
       <c r="F127">
-        <v>40220.13620468268</v>
+        <v>39166.30301442278</v>
       </c>
       <c r="G127">
-        <v>242519.080591894</v>
+        <v>234885.5815261156</v>
       </c>
       <c r="H127">
-        <v>11293.53440042352</v>
+        <v>10107.07367970335</v>
       </c>
       <c r="I127">
-        <v>2805.678464848941</v>
+        <v>2737.891915606118</v>
       </c>
       <c r="J127">
-        <v>5289227.448454815</v>
+        <v>5288293.199892119</v>
       </c>
       <c r="K127">
-        <v>128689.6845848902</v>
+        <v>128689.8198038138</v>
       </c>
       <c r="L127">
-        <v>174251</v>
+        <v>179825</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>35988.84742552613</v>
+        <v>34764.26358226909</v>
       </c>
       <c r="B128">
-        <v>209048.4868332372</v>
+        <v>212049.9477795903</v>
       </c>
       <c r="C128">
-        <v>245037.3342587633</v>
+        <v>246814.2113618594</v>
       </c>
       <c r="D128">
-        <v>526961.1808782158</v>
+        <v>535338.2361287366</v>
       </c>
       <c r="E128">
-        <v>23921.63076832131</v>
+        <v>27989.1047209314</v>
       </c>
       <c r="F128">
-        <v>77957.55284893894</v>
+        <v>76636.46073062766</v>
       </c>
       <c r="G128">
-        <v>449003.6280292768</v>
+        <v>458701.7753981091</v>
       </c>
       <c r="H128">
-        <v>18704.9723314087</v>
+        <v>22958.19150423444</v>
       </c>
       <c r="I128">
-        <v>5216.658436912619</v>
+        <v>5030.913216696961</v>
       </c>
       <c r="J128">
-        <v>10228099.17204639</v>
+        <v>10228941.91897236</v>
       </c>
       <c r="K128">
-        <v>248822.1350242466</v>
+        <v>248821.9202793601</v>
       </c>
       <c r="L128">
-        <v>337006</v>
+        <v>347769</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14416.93121771965</v>
+        <v>14209.76927422238</v>
       </c>
       <c r="B129">
-        <v>81520.28215751884</v>
+        <v>84406.35104438709</v>
       </c>
       <c r="C129">
-        <v>95937.2133752385</v>
+        <v>98616.12031860946</v>
       </c>
       <c r="D129">
-        <v>210105.3724144797</v>
+        <v>213838.3582891173</v>
       </c>
       <c r="E129">
-        <v>9954.375523431663</v>
+        <v>10490.10649729436</v>
       </c>
       <c r="F129">
-        <v>30512.39846135598</v>
+        <v>31668.56490538107</v>
       </c>
       <c r="G129">
-        <v>179592.9739531238</v>
+        <v>182169.7933837362</v>
       </c>
       <c r="H129">
-        <v>7957.554335863504</v>
+        <v>8411.260653131705</v>
       </c>
       <c r="I129">
-        <v>1996.82118756816</v>
+        <v>2078.845844162651</v>
       </c>
       <c r="J129">
-        <v>4038908.049846513</v>
+        <v>4039719.307696808</v>
       </c>
       <c r="K129">
-        <v>98282.96517219271</v>
+        <v>98283.08956083584</v>
       </c>
       <c r="L129">
-        <v>133026</v>
+        <v>137283</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18763.08390980705</v>
+        <v>18725.77963762779</v>
       </c>
       <c r="B130">
-        <v>109152.1237781138</v>
+        <v>109616.1985398107</v>
       </c>
       <c r="C130">
-        <v>127915.2076879209</v>
+        <v>128341.9781774385</v>
       </c>
       <c r="D130">
-        <v>274041.668820417</v>
+        <v>278304.6825074851</v>
       </c>
       <c r="E130">
-        <v>13736.77842386687</v>
+        <v>13319.80151717961</v>
       </c>
       <c r="F130">
-        <v>39509.88342189061</v>
+        <v>40438.05617499269</v>
       </c>
       <c r="G130">
-        <v>234531.7853985264</v>
+        <v>237866.6263324924</v>
       </c>
       <c r="H130">
-        <v>11191.53990437465</v>
+        <v>10543.54566480225</v>
       </c>
       <c r="I130">
-        <v>2545.238519492223</v>
+        <v>2776.255852377363</v>
       </c>
       <c r="J130">
-        <v>5229349.814975524</v>
+        <v>5227434.915157894</v>
       </c>
       <c r="K130">
-        <v>127199.1383926145</v>
+        <v>127198.7503502984</v>
       </c>
       <c r="L130">
-        <v>172220</v>
+        <v>177332</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>129.6668750856926</v>
+        <v>127.1999826327194</v>
       </c>
       <c r="B131">
-        <v>741.6495207030425</v>
+        <v>741.6834408314605</v>
       </c>
       <c r="C131">
-        <v>871.3163957887351</v>
+        <v>868.8834234641799</v>
       </c>
       <c r="D131">
-        <v>1851.398568545263</v>
+        <v>1901.250912112331</v>
       </c>
       <c r="E131">
-        <v>93.64612448934417</v>
+        <v>91.76058614005046</v>
       </c>
       <c r="F131">
-        <v>272.5135949608558</v>
+        <v>275.1357840862447</v>
       </c>
       <c r="G131">
-        <v>1578.884973584407</v>
+        <v>1626.115128026087</v>
       </c>
       <c r="H131">
-        <v>74.63521026941775</v>
+        <v>71.69749648607265</v>
       </c>
       <c r="I131">
-        <v>19.01091421992643</v>
+        <v>20.06308965397782</v>
       </c>
       <c r="J131">
-        <v>36208.26777583718</v>
+        <v>36209.18591484828</v>
       </c>
       <c r="K131">
-        <v>880.9038872796854</v>
+        <v>881.2476734196774</v>
       </c>
       <c r="L131">
-        <v>1193</v>
+        <v>1230</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>691.4892007217061</v>
+        <v>681.3705525192953</v>
       </c>
       <c r="B132">
-        <v>3972.868771464855</v>
+        <v>3998.88848792964</v>
       </c>
       <c r="C132">
-        <v>4664.357972186562</v>
+        <v>4680.259040448936</v>
       </c>
       <c r="D132">
-        <v>10072.36338645048</v>
+        <v>9872.796061239644</v>
       </c>
       <c r="E132">
-        <v>489.6522468348618</v>
+        <v>502.2144771840707</v>
       </c>
       <c r="F132">
-        <v>1432.896099012467</v>
+        <v>1414.378389986678</v>
       </c>
       <c r="G132">
-        <v>8639.467287438008</v>
+        <v>8458.417671252966</v>
       </c>
       <c r="H132">
-        <v>392.9033541334064</v>
+        <v>392.8381327870168</v>
       </c>
       <c r="I132">
-        <v>96.74889270145536</v>
+        <v>109.3763443970539</v>
       </c>
       <c r="J132">
-        <v>190976.0661208197</v>
+        <v>191030.543016317</v>
       </c>
       <c r="K132">
-        <v>4647.823389991231</v>
+        <v>4648.249200504313</v>
       </c>
       <c r="L132">
-        <v>6292</v>
+        <v>6485</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>39.97407094394832</v>
+        <v>39.43421030871655</v>
       </c>
       <c r="C133">
-        <v>39.97407094394832</v>
+        <v>39.43421030871655</v>
       </c>
       <c r="D133">
-        <v>6070.380370291772</v>
+        <v>6252.892063159354</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6070.380370291772</v>
+        <v>6252.892063159354</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>174595.8723389564</v>
+        <v>174565.2648715653</v>
       </c>
       <c r="K133">
-        <v>1858.024672463352</v>
+        <v>1858.017281651624</v>
       </c>
       <c r="L133">
-        <v>2987</v>
+        <v>2963</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>123.158385745942</v>
+        <v>150.0649297226982</v>
       </c>
       <c r="C134">
-        <v>123.158385745942</v>
+        <v>150.0649297226982</v>
       </c>
       <c r="D134">
-        <v>21011.92480234776</v>
+        <v>21112.90887949363</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>21011.92480234776</v>
+        <v>21112.90887949363</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>588967.6058213307</v>
+        <v>588883.4431366866</v>
       </c>
       <c r="K134">
-        <v>6268.085272807158</v>
+        <v>6267.892748158134</v>
       </c>
       <c r="L134">
-        <v>10072</v>
+        <v>9996</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>16.97877172528966</v>
+        <v>14.86034125628409</v>
       </c>
       <c r="C135">
-        <v>16.97877172528966</v>
+        <v>14.86034125628409</v>
       </c>
       <c r="D135">
-        <v>2576.790158884171</v>
+        <v>2595.436625569609</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>83.90007979238602</v>
+        <v>87.83794449321471</v>
       </c>
       <c r="G135">
-        <v>2492.890079091786</v>
+        <v>2507.598681076394</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>71754.11813541807</v>
+        <v>71738.0511063102</v>
       </c>
       <c r="K135">
-        <v>763.8532491605205</v>
+        <v>763.8552417524249</v>
       </c>
       <c r="L135">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>152.3187520027816</v>
+        <v>132.2686654352129</v>
       </c>
       <c r="C136">
-        <v>152.3187520027816</v>
+        <v>132.2686654352129</v>
       </c>
       <c r="D136">
-        <v>23100.05249291693</v>
+        <v>23388.26587616755</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>746.7681629706705</v>
+        <v>759.9680311935322</v>
       </c>
       <c r="G136">
-        <v>22353.28432994626</v>
+        <v>22628.29784497402</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>654972.3058809221</v>
+        <v>655049.6837038882</v>
       </c>
       <c r="K136">
-        <v>6972.107357461699</v>
+        <v>6972.091038474084</v>
       </c>
       <c r="L136">
-        <v>11142</v>
+        <v>11054</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>336.5331728430774</v>
+        <v>375.3735665799678</v>
       </c>
       <c r="C137">
-        <v>336.5331728430774</v>
+        <v>375.3735665799678</v>
       </c>
       <c r="D137">
-        <v>53221.13169683656</v>
+        <v>52551.8135395359</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53221.13169683656</v>
+        <v>52551.8135395359</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1497234.163033057</v>
+        <v>1496200.053158499</v>
       </c>
       <c r="K137">
-        <v>15929.98930854199</v>
+        <v>15929.96919176031</v>
       </c>
       <c r="L137">
-        <v>25608</v>
+        <v>25406</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>134.4742236738154</v>
+        <v>121.3855141039901</v>
       </c>
       <c r="C138">
-        <v>134.4742236738154</v>
+        <v>121.3855141039901</v>
       </c>
       <c r="D138">
-        <v>19085.39418302807</v>
+        <v>19109.15789826</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19085.39418302807</v>
+        <v>19109.15789826</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>540694.6109360637</v>
+        <v>540610.4221282225</v>
       </c>
       <c r="K138">
-        <v>5752.704081819771</v>
+        <v>5753.183003587942</v>
       </c>
       <c r="L138">
-        <v>9247</v>
+        <v>9177</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>836.320301150771</v>
+        <v>879.8695547912786</v>
       </c>
       <c r="C139">
-        <v>836.320301150771</v>
+        <v>879.8695547912786</v>
       </c>
       <c r="D139">
-        <v>130162.3709261297</v>
+        <v>127798.3801282756</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>130162.3709261297</v>
+        <v>127798.3801282756</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>3622652.020245638</v>
+        <v>3622641.824188672</v>
       </c>
       <c r="K139">
-        <v>38560.96498921666</v>
+        <v>38561.26311592908</v>
       </c>
       <c r="L139">
-        <v>61972</v>
+        <v>61502</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>441.7775833457919</v>
+        <v>445.6082882889905</v>
       </c>
       <c r="C140">
-        <v>441.7775833457919</v>
+        <v>445.6082882889905</v>
       </c>
       <c r="D140">
-        <v>70014.99476641449</v>
+        <v>68908.02579612343</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>70014.99476641449</v>
+        <v>68908.02579612343</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1944833.654451108</v>
+        <v>1945699.026088879</v>
       </c>
       <c r="K140">
-        <v>20708.843090819</v>
+        <v>20708.71499918313</v>
       </c>
       <c r="L140">
-        <v>33274</v>
+        <v>33024</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>223.9358578929318</v>
+        <v>232.3446763376409</v>
       </c>
       <c r="C141">
-        <v>223.9358578929318</v>
+        <v>232.3446763376409</v>
       </c>
       <c r="D141">
-        <v>36622.01508580613</v>
+        <v>36713.73641893805</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36622.01508580613</v>
+        <v>36713.73641893805</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1026977.278398125</v>
+        <v>1026640.603855155</v>
       </c>
       <c r="K141">
-        <v>10927.06661106308</v>
+        <v>10926.76241669466</v>
       </c>
       <c r="L141">
-        <v>17565</v>
+        <v>17425</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1283.862580313446</v>
+        <v>1335.20844227097</v>
       </c>
       <c r="C142">
-        <v>1283.862580313446</v>
+        <v>1335.20844227097</v>
       </c>
       <c r="D142">
-        <v>192937.3170613428</v>
+        <v>191334.1396692491</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>6431.841492744006</v>
       </c>
       <c r="G142">
-        <v>192937.3170613428</v>
+        <v>184902.2981765051</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>5455466.87317421</v>
+        <v>5460586.933924653</v>
       </c>
       <c r="K142">
-        <v>58072.05758921483</v>
+        <v>58072.04817761148</v>
       </c>
       <c r="L142">
-        <v>93338</v>
+        <v>92131</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>496.128347209596</v>
+        <v>451.4226908326693</v>
       </c>
       <c r="C143">
-        <v>496.128347209596</v>
+        <v>451.4226908326693</v>
       </c>
       <c r="D143">
-        <v>74814.71977575062</v>
+        <v>76256.8871026915</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2570.859878522076</v>
       </c>
       <c r="G143">
-        <v>74814.71977575062</v>
+        <v>73686.02722416942</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>2096641.12305228</v>
+        <v>2096889.711218092</v>
       </c>
       <c r="K143">
-        <v>22312.09954322212</v>
+        <v>22311.89278865425</v>
       </c>
       <c r="L143">
-        <v>35871</v>
+        <v>35366</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>557.2578661820677</v>
+        <v>524.8736813339023</v>
       </c>
       <c r="C144">
-        <v>557.2578661820677</v>
+        <v>524.8736813339023</v>
       </c>
       <c r="D144">
-        <v>84786.76341883789</v>
+        <v>84563.41581599232</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2872.24670283784</v>
+        <v>2862.550311680321</v>
       </c>
       <c r="G144">
-        <v>81914.51671600004</v>
+        <v>81700.86550431199</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>2403830.599683557</v>
+        <v>2404257.756216405</v>
       </c>
       <c r="K144">
-        <v>25591.03102032862</v>
+        <v>25591.04954863791</v>
       </c>
       <c r="L144">
-        <v>40885</v>
+        <v>40561</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1156.586443224771</v>
+        <v>1102.364638068552</v>
       </c>
       <c r="C145">
-        <v>1156.586443224771</v>
+        <v>1102.364638068552</v>
       </c>
       <c r="D145">
-        <v>174730.9281647429</v>
+        <v>175735.6831647198</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5581.020328082576</v>
+        <v>5727.140993371196</v>
       </c>
       <c r="G145">
-        <v>169149.9078366604</v>
+        <v>170008.5421713486</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>4888068.882870713</v>
+        <v>4893184.161455739</v>
       </c>
       <c r="K145">
-        <v>52068.80104606816</v>
+        <v>52069.23770212023</v>
       </c>
       <c r="L145">
-        <v>83171</v>
+        <v>82581</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1231.445508470991</v>
+        <v>1426.148171784146</v>
       </c>
       <c r="C146">
-        <v>1231.445508470991</v>
+        <v>1426.148171784146</v>
       </c>
       <c r="D146">
-        <v>214495.2461399629</v>
+        <v>212965.1305152343</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7166.38782093201</v>
+        <v>7084.623678098548</v>
       </c>
       <c r="G146">
-        <v>207328.8583190308</v>
+        <v>205880.5068371358</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>5997601.310205465</v>
+        <v>5994410.849282675</v>
       </c>
       <c r="K146">
-        <v>63820.23292019105</v>
+        <v>63820.26809525066</v>
       </c>
       <c r="L146">
-        <v>102003</v>
+        <v>101183</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1185.381986808336</v>
+        <v>1166.111428405306</v>
       </c>
       <c r="C147">
-        <v>1185.381986808336</v>
+        <v>1166.111428405306</v>
       </c>
       <c r="D147">
-        <v>184520.9078554968</v>
+        <v>185521.8158201441</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>6183.03907035908</v>
+        <v>6023.440162129059</v>
       </c>
       <c r="G147">
-        <v>178337.8687851377</v>
+        <v>179498.3756580151</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>5202358.251324926</v>
+        <v>5198535.277245642</v>
       </c>
       <c r="K147">
-        <v>55341.113667299</v>
+        <v>55340.76932528568</v>
       </c>
       <c r="L147">
-        <v>88447</v>
+        <v>87751</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1334.637405697136</v>
+        <v>1267.164105338595</v>
       </c>
       <c r="C148">
-        <v>1334.637405697136</v>
+        <v>1267.164105338595</v>
       </c>
       <c r="D148">
-        <v>206319.9593693363</v>
+        <v>212091.4612369897</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6650.983754450453</v>
+        <v>6808.541694649059</v>
       </c>
       <c r="G148">
-        <v>199668.9756148859</v>
+        <v>205282.9195423406</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>5927814.12204603</v>
+        <v>5928669.304060162</v>
       </c>
       <c r="K148">
-        <v>63093.85683610343</v>
+        <v>63094.26026530316</v>
       </c>
       <c r="L148">
-        <v>100850</v>
+        <v>100061</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1389.790237475663</v>
+        <v>1434.259020958256</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1389.790237475663</v>
+        <v>1434.259020958256</v>
       </c>
       <c r="D149">
-        <v>200820.4989305985</v>
+        <v>199147.0288235011</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6785.239464432097</v>
+        <v>6878.566662478744</v>
       </c>
       <c r="G149">
-        <v>194035.2594661664</v>
+        <v>192268.4621610224</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>5617422.874657847</v>
+        <v>5616988.97381245</v>
       </c>
       <c r="K149">
-        <v>59773.71936618517</v>
+        <v>59773.91372258824</v>
       </c>
       <c r="L149">
-        <v>95246</v>
+        <v>94485</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>738.2235858270697</v>
+        <v>746.1589557161589</v>
       </c>
       <c r="C150">
-        <v>738.2235858270697</v>
+        <v>746.1589557161589</v>
       </c>
       <c r="D150">
-        <v>109748.7325613333</v>
+        <v>111329.4975578166</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3580.344345202146</v>
+        <v>3786.741158049613</v>
       </c>
       <c r="G150">
-        <v>106168.3882161312</v>
+        <v>107542.756399767</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>3115608.150124747</v>
+        <v>3117312.125296176</v>
       </c>
       <c r="K150">
-        <v>33175.30232771467</v>
+        <v>33175.26039056513</v>
       </c>
       <c r="L150">
-        <v>53016</v>
+        <v>52585</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>725.5595411633747</v>
+        <v>740.3348751617683</v>
       </c>
       <c r="C151">
-        <v>725.5595411633747</v>
+        <v>740.3348751617683</v>
       </c>
       <c r="D151">
-        <v>115972.5286680275</v>
+        <v>115804.3610264121</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3816.380720900055</v>
+        <v>3587.562610583837</v>
       </c>
       <c r="G151">
-        <v>112156.1479471275</v>
+        <v>112216.7984158282</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>3259266.126012575</v>
+        <v>3260225.283183281</v>
       </c>
       <c r="K151">
-        <v>34695.21512057167</v>
+        <v>34695.04788678743</v>
       </c>
       <c r="L151">
-        <v>55431</v>
+        <v>55019</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>603.306701290078</v>
+        <v>607.7987883903302</v>
       </c>
       <c r="C152">
-        <v>603.306701290078</v>
+        <v>607.7987883903302</v>
       </c>
       <c r="D152">
-        <v>98344.11561806004</v>
+        <v>98687.34929652129</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3161.519156039467</v>
+        <v>3181.257596425849</v>
       </c>
       <c r="G152">
-        <v>95182.59646202058</v>
+        <v>95506.09170009545</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2802937.836640825</v>
+        <v>2803107.915919616</v>
       </c>
       <c r="K152">
-        <v>29845.19918576629</v>
+        <v>29844.69490651507</v>
       </c>
       <c r="L152">
-        <v>47686</v>
+        <v>47331</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>646.7723519599509</v>
+        <v>599.0335349965045</v>
       </c>
       <c r="C153">
-        <v>646.7723519599509</v>
+        <v>599.0335349965045</v>
       </c>
       <c r="D153">
-        <v>103606.6145880022</v>
+        <v>103272.8975580023</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3430.443926507506</v>
+        <v>3465.759076918967</v>
       </c>
       <c r="G153">
-        <v>100176.1706614946</v>
+        <v>99807.13848108328</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2900472.159196176</v>
+        <v>2900808.161055004</v>
       </c>
       <c r="K153">
-        <v>30868.05321512388</v>
+        <v>30867.90589172978</v>
       </c>
       <c r="L153">
-        <v>49328</v>
+        <v>48945</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>181.6123629146078</v>
+        <v>170.3264371603691</v>
       </c>
       <c r="C154">
-        <v>181.6123629146078</v>
+        <v>170.3264371603691</v>
       </c>
       <c r="D154">
-        <v>28968.25567777331</v>
+        <v>28254.04733018492</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>956.0035340676253</v>
+        <v>943.7370224453201</v>
       </c>
       <c r="G154">
-        <v>28012.25214370569</v>
+        <v>27310.31030773959</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>798568.8965351648</v>
+        <v>798464.1920780309</v>
       </c>
       <c r="K154">
-        <v>8499.162551170644</v>
+        <v>8499.159461175019</v>
       </c>
       <c r="L154">
-        <v>13577</v>
+        <v>13479</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>191.2794544091283</v>
+        <v>202.7507411615609</v>
       </c>
       <c r="C155">
-        <v>191.2794544091283</v>
+        <v>202.7507411615609</v>
       </c>
       <c r="D155">
-        <v>32983.34750372794</v>
+        <v>33614.96926725122</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>32983.34750372794</v>
+        <v>33614.96926725122</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>940146.128317505</v>
+        <v>940590.2699380295</v>
       </c>
       <c r="K155">
-        <v>10005.73287834159</v>
+        <v>10005.69259615493</v>
       </c>
       <c r="L155">
-        <v>16084</v>
+        <v>15961</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>87.31997647362779</v>
+        <v>90.018468316068</v>
       </c>
       <c r="C156">
-        <v>87.31997647362779</v>
+        <v>90.018468316068</v>
       </c>
       <c r="D156">
-        <v>15371.88288587509</v>
+        <v>15359.80395730424</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15371.88288587509</v>
+        <v>15359.80395730424</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>426091.1962430491</v>
+        <v>425843.5222995153</v>
       </c>
       <c r="K156">
-        <v>4532.995103064795</v>
+        <v>4532.950276130598</v>
       </c>
       <c r="L156">
-        <v>7284</v>
+        <v>7228</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9640.639911181766</v>
+        <v>9154.383362811186</v>
       </c>
       <c r="C2">
-        <v>9640.639911181766</v>
+        <v>9154.383362811186</v>
       </c>
       <c r="D2">
-        <v>214820.7514983334</v>
+        <v>210980.3298512009</v>
       </c>
       <c r="E2">
-        <v>265484.9350133323</v>
+        <v>265124.1315058662</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>214820.7514983334</v>
+        <v>210980.3298512009</v>
       </c>
       <c r="H2">
-        <v>156637.153239885</v>
+        <v>156855.225920937</v>
       </c>
       <c r="I2">
-        <v>108847.7817734474</v>
+        <v>108268.9055849293</v>
       </c>
       <c r="J2">
-        <v>2764657.297391652</v>
+        <v>2762095.982088567</v>
       </c>
       <c r="K2">
-        <v>51892.85894597338</v>
+        <v>51892.79749986341</v>
       </c>
       <c r="L2">
-        <v>75727</v>
+        <v>74123</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4309.295638926041</v>
+        <v>4702.558482386085</v>
       </c>
       <c r="C3">
-        <v>4309.295638926041</v>
+        <v>4702.558482386085</v>
       </c>
       <c r="D3">
-        <v>100733.6627608483</v>
+        <v>100673.2949079879</v>
       </c>
       <c r="E3">
-        <v>127023.055746254</v>
+        <v>127921.1284364487</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100733.6627608483</v>
+        <v>100673.2949079879</v>
       </c>
       <c r="H3">
-        <v>75008.82339618492</v>
+        <v>75027.39121462339</v>
       </c>
       <c r="I3">
-        <v>52014.23235006908</v>
+        <v>52893.7372218253</v>
       </c>
       <c r="J3">
-        <v>1301253.169963323</v>
+        <v>1301343.022493384</v>
       </c>
       <c r="K3">
-        <v>24443.03673089747</v>
+        <v>24442.93661562616</v>
       </c>
       <c r="L3">
-        <v>35672</v>
+        <v>34913</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4261.94131252573</v>
+        <v>4155.525954673894</v>
       </c>
       <c r="B4">
-        <v>9981.827561934537</v>
+        <v>9328.430341377742</v>
       </c>
       <c r="C4">
-        <v>14243.76887446027</v>
+        <v>13483.95629605164</v>
       </c>
       <c r="D4">
-        <v>315636.9955679468</v>
+        <v>321748.225184058</v>
       </c>
       <c r="E4">
-        <v>400125.3169328797</v>
+        <v>401228.0217583821</v>
       </c>
       <c r="F4">
-        <v>105366.084651279</v>
+        <v>106450.0567520371</v>
       </c>
       <c r="G4">
-        <v>210270.9109166677</v>
+        <v>215298.1684320208</v>
       </c>
       <c r="H4">
-        <v>235687.2968793492</v>
+        <v>235476.356283045</v>
       </c>
       <c r="I4">
-        <v>164438.0200535305</v>
+        <v>165751.6654753371</v>
       </c>
       <c r="J4">
-        <v>4080152.724789688</v>
+        <v>4078698.814796429</v>
       </c>
       <c r="K4">
-        <v>76598.33494062506</v>
+        <v>76597.78672133175</v>
       </c>
       <c r="L4">
-        <v>107655</v>
+        <v>105418</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>12897.28634330537</v>
+        <v>12853.20709228507</v>
       </c>
       <c r="B5">
-        <v>29411.13628199859</v>
+        <v>30408.95677526078</v>
       </c>
       <c r="C5">
-        <v>42308.42262530396</v>
+        <v>43262.16386754585</v>
       </c>
       <c r="D5">
-        <v>989035.3272361793</v>
+        <v>989246.7672223755</v>
       </c>
       <c r="E5">
-        <v>1304236.352608625</v>
+        <v>1268808.809241058</v>
       </c>
       <c r="F5">
-        <v>327315.6805794924</v>
+        <v>326547.802486503</v>
       </c>
       <c r="G5">
-        <v>661719.6466566868</v>
+        <v>662698.9647358726</v>
       </c>
       <c r="H5">
-        <v>767448.8010152187</v>
+        <v>744932.149306261</v>
       </c>
       <c r="I5">
-        <v>536787.5515934061</v>
+        <v>523876.6599347967</v>
       </c>
       <c r="J5">
-        <v>12813423.29234648</v>
+        <v>12806703.75267341</v>
       </c>
       <c r="K5">
-        <v>240461.2117333726</v>
+        <v>240460.9121888102</v>
       </c>
       <c r="L5">
-        <v>337788</v>
+        <v>330634</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4852.753961754111</v>
+        <v>4541.463686059238</v>
       </c>
       <c r="B6">
-        <v>10955.68828111951</v>
+        <v>11003.71165811256</v>
       </c>
       <c r="C6">
-        <v>15808.44224287362</v>
+        <v>15545.1753441718</v>
       </c>
       <c r="D6">
-        <v>363590.1525321834</v>
+        <v>363193.1113931292</v>
       </c>
       <c r="E6">
-        <v>462582.0661846895</v>
+        <v>462388.6363083026</v>
       </c>
       <c r="F6">
-        <v>121127.4184961735</v>
+        <v>120593.8425197346</v>
       </c>
       <c r="G6">
-        <v>242462.7340360099</v>
+        <v>242599.2688733946</v>
       </c>
       <c r="H6">
-        <v>270805.5376974954</v>
+        <v>273027.7401592776</v>
       </c>
       <c r="I6">
-        <v>191776.5284871942</v>
+        <v>189360.8961490249</v>
       </c>
       <c r="J6">
-        <v>4702780.173310255</v>
+        <v>4700709.546992749</v>
       </c>
       <c r="K6">
-        <v>88279.75465102923</v>
+        <v>88279.9768586501</v>
       </c>
       <c r="L6">
-        <v>124048</v>
+        <v>121559</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2481.102326493234</v>
+        <v>2453.82158418346</v>
       </c>
       <c r="B7">
-        <v>5895.945944324434</v>
+        <v>6046.612464653362</v>
       </c>
       <c r="C7">
-        <v>8377.048270817668</v>
+        <v>8500.434048836822</v>
       </c>
       <c r="D7">
-        <v>198710.5881579257</v>
+        <v>194239.7843440055</v>
       </c>
       <c r="E7">
-        <v>252602.6000833964</v>
+        <v>248501.4461398739</v>
       </c>
       <c r="F7">
-        <v>65175.65781901062</v>
+        <v>64196.74577734688</v>
       </c>
       <c r="G7">
-        <v>133534.9303389151</v>
+        <v>130043.0385666586</v>
       </c>
       <c r="H7">
-        <v>149041.5540757623</v>
+        <v>146684.4109059476</v>
       </c>
       <c r="I7">
-        <v>103561.0460076341</v>
+        <v>101817.0352339264</v>
       </c>
       <c r="J7">
-        <v>2505444.175533311</v>
+        <v>2504655.259471849</v>
       </c>
       <c r="K7">
-        <v>47022.89524285082</v>
+        <v>47023.19467695801</v>
       </c>
       <c r="L7">
-        <v>66017</v>
+        <v>64772.99999999999</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>15067.47495808538</v>
+        <v>13522.66121558632</v>
       </c>
       <c r="B8">
-        <v>36561.65389976145</v>
+        <v>33658.51012513271</v>
       </c>
       <c r="C8">
-        <v>51629.12885784682</v>
+        <v>47181.17134071903</v>
       </c>
       <c r="D8">
-        <v>1080977.011167314</v>
+        <v>1086519.163319365</v>
       </c>
       <c r="E8">
-        <v>1355107.331425333</v>
+        <v>1377717.156157837</v>
       </c>
       <c r="F8">
-        <v>363322.8692584497</v>
+        <v>359328.3445979765</v>
       </c>
       <c r="G8">
-        <v>717654.1419088647</v>
+        <v>727190.8187213887</v>
       </c>
       <c r="H8">
-        <v>800641.5163787609</v>
+        <v>812004.6515925514</v>
       </c>
       <c r="I8">
-        <v>554465.8150465725</v>
+        <v>565712.5045652856</v>
       </c>
       <c r="J8">
-        <v>14099827.50254197</v>
+        <v>14093082.56577308</v>
       </c>
       <c r="K8">
-        <v>264640.6550062314</v>
+        <v>264640.8928306968</v>
       </c>
       <c r="L8">
-        <v>371867</v>
+        <v>364564</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>4144.948880024221</v>
+        <v>3780.255437481505</v>
       </c>
       <c r="B9">
-        <v>9413.751301832786</v>
+        <v>9040.285715061413</v>
       </c>
       <c r="C9">
-        <v>13558.70018185701</v>
+        <v>12820.54115254292</v>
       </c>
       <c r="D9">
-        <v>294102.6260354926</v>
+        <v>295589.6105219901</v>
       </c>
       <c r="E9">
-        <v>372617.6853662459</v>
+        <v>374719.0733869281</v>
       </c>
       <c r="F9">
-        <v>97228.34934939156</v>
+        <v>98468.50049662225</v>
       </c>
       <c r="G9">
-        <v>196874.276686101</v>
+        <v>197121.1100253678</v>
       </c>
       <c r="H9">
-        <v>218711.3063692888</v>
+        <v>220362.3218248922</v>
       </c>
       <c r="I9">
-        <v>153906.378996957</v>
+        <v>154356.751562036</v>
       </c>
       <c r="J9">
-        <v>3806166.018129268</v>
+        <v>3806233.451580788</v>
       </c>
       <c r="K9">
-        <v>71448.3061770927</v>
+        <v>71448.0715181689</v>
       </c>
       <c r="L9">
-        <v>100408</v>
+        <v>98373</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1515.611170536783</v>
+        <v>1619.383772260564</v>
       </c>
       <c r="B10">
-        <v>3661.682586882199</v>
+        <v>3847.373704303177</v>
       </c>
       <c r="C10">
-        <v>5177.293757418983</v>
+        <v>5466.757476563741</v>
       </c>
       <c r="D10">
-        <v>114540.4564683157</v>
+        <v>117529.2528184068</v>
       </c>
       <c r="E10">
-        <v>146465.4531584897</v>
+        <v>149327.0471258053</v>
       </c>
       <c r="F10">
-        <v>38118.06774034655</v>
+        <v>38879.50129909742</v>
       </c>
       <c r="G10">
-        <v>76422.38872796913</v>
+        <v>78649.7515193094</v>
       </c>
       <c r="H10">
-        <v>86477.34079920343</v>
+        <v>87937.30360780339</v>
       </c>
       <c r="I10">
-        <v>59988.1123592863</v>
+        <v>61389.7435180019</v>
       </c>
       <c r="J10">
-        <v>1492178.741393243</v>
+        <v>1491313.27023998</v>
       </c>
       <c r="K10">
-        <v>28003.87429246709</v>
+        <v>28004.15165663134</v>
       </c>
       <c r="L10">
-        <v>39356</v>
+        <v>38531</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3166.707019726889</v>
+        <v>3200.116912993694</v>
       </c>
       <c r="B11">
-        <v>7255.647673660947</v>
+        <v>7502.259552422142</v>
       </c>
       <c r="C11">
-        <v>10422.35469338784</v>
+        <v>10702.37646541583</v>
       </c>
       <c r="D11">
-        <v>235099.0001860377</v>
+        <v>232201.7159509654</v>
       </c>
       <c r="E11">
-        <v>295856.4582819119</v>
+        <v>296637.3150640173</v>
       </c>
       <c r="F11">
-        <v>79273.89776627425</v>
+        <v>78623.99568888861</v>
       </c>
       <c r="G11">
-        <v>155825.1024197634</v>
+        <v>153577.7202620768</v>
       </c>
       <c r="H11">
-        <v>175563.215181571</v>
+        <v>175289.2872378932</v>
       </c>
       <c r="I11">
-        <v>120293.2431003409</v>
+        <v>121348.027826124</v>
       </c>
       <c r="J11">
-        <v>3084960.33391061</v>
+        <v>3082223.917028733</v>
       </c>
       <c r="K11">
-        <v>57876.88775832531</v>
+        <v>57877.12643798182</v>
       </c>
       <c r="L11">
-        <v>81359</v>
+        <v>79664</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4433.03285955662</v>
+        <v>4212.776540979814</v>
       </c>
       <c r="B12">
-        <v>10734.76959743058</v>
+        <v>9634.422735794918</v>
       </c>
       <c r="C12">
-        <v>15167.8024569872</v>
+        <v>13847.19927677473</v>
       </c>
       <c r="D12">
-        <v>325119.478330453</v>
+        <v>322541.6328924011</v>
       </c>
       <c r="E12">
-        <v>410228.0934127284</v>
+        <v>413829.5366885897</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>325119.478330453</v>
+        <v>322541.6328924011</v>
       </c>
       <c r="H12">
-        <v>242057.2205457844</v>
+        <v>244317.8594782054</v>
       </c>
       <c r="I12">
-        <v>168170.872866944</v>
+        <v>169511.6772103843</v>
       </c>
       <c r="J12">
-        <v>4189184.618458963</v>
+        <v>4189840.437662444</v>
       </c>
       <c r="K12">
-        <v>78646.34015406699</v>
+        <v>78645.79032953577</v>
       </c>
       <c r="L12">
-        <v>114073</v>
+        <v>111878</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1933.288668406516</v>
+        <v>1929.544680943962</v>
       </c>
       <c r="B13">
-        <v>4391.773660141987</v>
+        <v>4367.372824815598</v>
       </c>
       <c r="C13">
-        <v>6325.062328548504</v>
+        <v>6296.91750575956</v>
       </c>
       <c r="D13">
-        <v>143219.5400532786</v>
+        <v>141228.1046949216</v>
       </c>
       <c r="E13">
-        <v>183078.5314538144</v>
+        <v>178031.9833307482</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>143219.5400532786</v>
+        <v>141228.1046949216</v>
       </c>
       <c r="H13">
-        <v>108490.152583989</v>
+        <v>104397.1094703879</v>
       </c>
       <c r="I13">
-        <v>74588.37886982539</v>
+        <v>73634.8738603603</v>
       </c>
       <c r="J13">
-        <v>1847830.929170827</v>
+        <v>1846364.139586911</v>
       </c>
       <c r="K13">
-        <v>34683.89416719328</v>
+        <v>34683.97904588531</v>
       </c>
       <c r="L13">
-        <v>50293</v>
+        <v>49286</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>7692.976765066213</v>
+        <v>7299.039563245657</v>
       </c>
       <c r="C14">
-        <v>7692.976765066213</v>
+        <v>7299.039563245657</v>
       </c>
       <c r="D14">
-        <v>175764.7836358495</v>
+        <v>175631.1878958143</v>
       </c>
       <c r="E14">
-        <v>224411.4828086799</v>
+        <v>221444.2718542642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>175764.7836358495</v>
+        <v>175631.1878958143</v>
       </c>
       <c r="H14">
-        <v>132269.7617030442</v>
+        <v>130313.3723406022</v>
       </c>
       <c r="I14">
-        <v>92141.72110563569</v>
+        <v>91130.89951366198</v>
       </c>
       <c r="J14">
-        <v>2284119.147622932</v>
+        <v>2285534.715225957</v>
       </c>
       <c r="K14">
-        <v>42868.96937295661</v>
+        <v>42869.26243720428</v>
       </c>
       <c r="L14">
-        <v>62566</v>
+        <v>61248</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7466.213574230982</v>
+        <v>7842.314055729346</v>
       </c>
       <c r="C15">
-        <v>7466.213574230982</v>
+        <v>7842.314055729346</v>
       </c>
       <c r="D15">
-        <v>172841.9362516365</v>
+        <v>171550.5303737652</v>
       </c>
       <c r="E15">
-        <v>216829.7906973776</v>
+        <v>218665.5864976511</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>172841.9362516365</v>
+        <v>171550.5303737652</v>
       </c>
       <c r="H15">
-        <v>127857.0785291326</v>
+        <v>128694.7633989619</v>
       </c>
       <c r="I15">
-        <v>88972.71216824495</v>
+        <v>89970.82309868919</v>
       </c>
       <c r="J15">
-        <v>2227054.327948038</v>
+        <v>2227870.260067831</v>
       </c>
       <c r="K15">
-        <v>41813.90407618933</v>
+        <v>41813.71569457051</v>
       </c>
       <c r="L15">
-        <v>61016</v>
+        <v>59740</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5347.368044384352</v>
+        <v>5828.270286443947</v>
       </c>
       <c r="C16">
-        <v>5347.368044384352</v>
+        <v>5828.270286443947</v>
       </c>
       <c r="D16">
-        <v>127921.1564571825</v>
+        <v>125698.0280393162</v>
       </c>
       <c r="E16">
-        <v>164220.3077078105</v>
+        <v>161800.9339470647</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>127921.1564571825</v>
+        <v>125698.0280393162</v>
       </c>
       <c r="H16">
-        <v>96327.2722554169</v>
+        <v>95430.18843616938</v>
       </c>
       <c r="I16">
-        <v>67893.0354523936</v>
+        <v>66370.74551089527</v>
       </c>
       <c r="J16">
-        <v>1655524.763439272</v>
+        <v>1654851.38119405</v>
       </c>
       <c r="K16">
-        <v>31076.74924760568</v>
+        <v>31077.32236445721</v>
       </c>
       <c r="L16">
-        <v>45349</v>
+        <v>44405</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1922.413298423086</v>
+        <v>1995.243127010937</v>
       </c>
       <c r="C17">
-        <v>1922.413298423086</v>
+        <v>1995.243127010937</v>
       </c>
       <c r="D17">
-        <v>12116.22360167278</v>
+        <v>12098.514569009</v>
       </c>
       <c r="E17">
-        <v>17154.29683805044</v>
+        <v>17530.02839228709</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12116.22360167278</v>
+        <v>12098.514569009</v>
       </c>
       <c r="H17">
-        <v>9814.851557345595</v>
+        <v>9974.227814153721</v>
       </c>
       <c r="I17">
-        <v>7339.445280704838</v>
+        <v>7555.800578133372</v>
       </c>
       <c r="J17">
-        <v>136144.3528156146</v>
+        <v>136173.991277652</v>
       </c>
       <c r="K17">
-        <v>4914.784119060522</v>
+        <v>4914.782847066701</v>
       </c>
       <c r="L17">
-        <v>6879</v>
+        <v>6779</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2736.81797155095</v>
+        <v>2703.982885577237</v>
       </c>
       <c r="C18">
-        <v>2736.81797155095</v>
+        <v>2703.982885577237</v>
       </c>
       <c r="D18">
-        <v>16939.50189894719</v>
+        <v>16872.61389885054</v>
       </c>
       <c r="E18">
-        <v>25206.55131435319</v>
+        <v>24542.64576926209</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16939.50189894719</v>
+        <v>16872.61389885054</v>
       </c>
       <c r="H18">
-        <v>14317.10669621114</v>
+        <v>14014.82145483992</v>
       </c>
       <c r="I18">
-        <v>10889.44461814204</v>
+        <v>10527.82431442217</v>
       </c>
       <c r="J18">
-        <v>194206.2705593735</v>
+        <v>194182.4103074633</v>
       </c>
       <c r="K18">
-        <v>7009.702924892958</v>
+        <v>7010.146970887246</v>
       </c>
       <c r="L18">
-        <v>9816</v>
+        <v>9670</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>577.6798256717314</v>
+        <v>566.7315024858792</v>
       </c>
       <c r="B19">
-        <v>5773.434629460549</v>
+        <v>6024.826962046128</v>
       </c>
       <c r="C19">
-        <v>6351.11445513228</v>
+        <v>6591.558464532007</v>
       </c>
       <c r="D19">
-        <v>40376.70112542092</v>
+        <v>40768.88917508494</v>
       </c>
       <c r="E19">
-        <v>57137.92697949044</v>
+        <v>57492.62806443294</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40376.70112542092</v>
+        <v>40768.88917508494</v>
       </c>
       <c r="H19">
-        <v>32478.16895122741</v>
+        <v>32866.12005209253</v>
       </c>
       <c r="I19">
-        <v>24659.75802826303</v>
+        <v>24626.50801234042</v>
       </c>
       <c r="J19">
-        <v>449459.6800182781</v>
+        <v>449403.061650932</v>
       </c>
       <c r="K19">
-        <v>16218.90620994041</v>
+        <v>16218.81292972363</v>
       </c>
       <c r="L19">
-        <v>22624</v>
+        <v>22306</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1316.126564953893</v>
+        <v>1329.473962893696</v>
       </c>
       <c r="B20">
-        <v>13366.94887861927</v>
+        <v>13638.31794174424</v>
       </c>
       <c r="C20">
-        <v>14683.07544357316</v>
+        <v>14967.79190463793</v>
       </c>
       <c r="D20">
-        <v>92062.26606424479</v>
+        <v>92949.76601641139</v>
       </c>
       <c r="E20">
-        <v>133596.711898752</v>
+        <v>132054.1357375964</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>92062.26606424479</v>
+        <v>92949.76601641139</v>
       </c>
       <c r="H20">
-        <v>76445.89687467787</v>
+        <v>75307.13070092577</v>
       </c>
       <c r="I20">
-        <v>57150.81502407411</v>
+        <v>56747.00503667064</v>
       </c>
       <c r="J20">
-        <v>1033741.503040691</v>
+        <v>1033963.958621704</v>
       </c>
       <c r="K20">
-        <v>37313.79444701722</v>
+        <v>37313.75097885104</v>
       </c>
       <c r="L20">
-        <v>52030</v>
+        <v>51289</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3133.99698928277</v>
+        <v>3503.411491086992</v>
       </c>
       <c r="B21">
-        <v>31297.30804132136</v>
+        <v>33461.40437040226</v>
       </c>
       <c r="C21">
-        <v>34431.30503060413</v>
+        <v>36964.81586148925</v>
       </c>
       <c r="D21">
-        <v>223088.8280987069</v>
+        <v>221483.7396809547</v>
       </c>
       <c r="E21">
-        <v>323829.3047931863</v>
+        <v>330680.6212942894</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>223088.8280987069</v>
+        <v>221483.7396809547</v>
       </c>
       <c r="H21">
-        <v>184206.0299905282</v>
+        <v>187971.8177712157</v>
       </c>
       <c r="I21">
-        <v>139623.2748026582</v>
+        <v>142708.8035230737</v>
       </c>
       <c r="J21">
-        <v>2515454.783936008</v>
+        <v>2515344.584175836</v>
       </c>
       <c r="K21">
-        <v>90794.35373101392</v>
+        <v>90794.18135866521</v>
       </c>
       <c r="L21">
-        <v>126484</v>
+        <v>124726</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3951.30622030498</v>
+        <v>3796.042016617532</v>
       </c>
       <c r="B22">
-        <v>40345.80386341716</v>
+        <v>37786.2188538634</v>
       </c>
       <c r="C22">
-        <v>44297.11008372214</v>
+        <v>41582.26087048093</v>
       </c>
       <c r="D22">
-        <v>269026.0042701193</v>
+        <v>269005.8777912098</v>
       </c>
       <c r="E22">
-        <v>376487.6147388197</v>
+        <v>381624.6919786634</v>
       </c>
       <c r="F22">
-        <v>43058.37303393421</v>
+        <v>43295.09618146154</v>
       </c>
       <c r="G22">
-        <v>225967.6312361851</v>
+        <v>225710.7816097482</v>
       </c>
       <c r="H22">
-        <v>215344.7854285695</v>
+        <v>217587.5927647035</v>
       </c>
       <c r="I22">
-        <v>161142.8293102502</v>
+        <v>164037.0992139599</v>
       </c>
       <c r="J22">
-        <v>2993422.924858029</v>
+        <v>2993740.408035955</v>
       </c>
       <c r="K22">
-        <v>108045.2149894362</v>
+        <v>108044.9638632226</v>
       </c>
       <c r="L22">
-        <v>148975</v>
+        <v>146778</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4166.539254970595</v>
+        <v>4171.09145309753</v>
       </c>
       <c r="B23">
-        <v>40460.44528683967</v>
+        <v>42453.58584246235</v>
       </c>
       <c r="C23">
-        <v>44626.98454181026</v>
+        <v>46624.67729555988</v>
       </c>
       <c r="D23">
-        <v>290613.4587547482</v>
+        <v>282085.8657750259</v>
       </c>
       <c r="E23">
-        <v>410464.7433768723</v>
+        <v>414996.6532441133</v>
       </c>
       <c r="F23">
-        <v>47194.93711161944</v>
+        <v>45739.00486997531</v>
       </c>
       <c r="G23">
-        <v>243418.5216431287</v>
+        <v>236346.8609050506</v>
       </c>
       <c r="H23">
-        <v>232499.8695447162</v>
+        <v>237371.3108356695</v>
       </c>
       <c r="I23">
-        <v>177964.8738321561</v>
+        <v>177625.3424084438</v>
       </c>
       <c r="J23">
-        <v>3233997.41411081</v>
+        <v>3234056.25290148</v>
       </c>
       <c r="K23">
-        <v>116726.0226257297</v>
+        <v>116725.6876000695</v>
       </c>
       <c r="L23">
-        <v>160787</v>
+        <v>158673</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7113.632119646559</v>
+        <v>6761.364712804077</v>
       </c>
       <c r="B24">
-        <v>68620.73704562239</v>
+        <v>67937.0171322767</v>
       </c>
       <c r="C24">
-        <v>75734.36916526894</v>
+        <v>74698.38184508077</v>
       </c>
       <c r="D24">
-        <v>477102.8368743749</v>
+        <v>475515.9592998261</v>
       </c>
       <c r="E24">
-        <v>673271.4301598679</v>
+        <v>677518.0213506634</v>
       </c>
       <c r="F24">
-        <v>76001.12978033713</v>
+        <v>76306.77895429841</v>
       </c>
       <c r="G24">
-        <v>401101.7070940378</v>
+        <v>399209.1803455277</v>
       </c>
       <c r="H24">
-        <v>382904.8435196204</v>
+        <v>387040.0920474022</v>
       </c>
       <c r="I24">
-        <v>290366.5866402474</v>
+        <v>290477.9293032612</v>
       </c>
       <c r="J24">
-        <v>5352471.710871102</v>
+        <v>5353122.143359604</v>
       </c>
       <c r="K24">
-        <v>193190.0251912544</v>
+        <v>193190.1282879376</v>
       </c>
       <c r="L24">
-        <v>266252</v>
+        <v>262533</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6145.669163026703</v>
+        <v>6083.044126115409</v>
       </c>
       <c r="B25">
-        <v>61241.3277905237</v>
+        <v>62029.68599474323</v>
       </c>
       <c r="C25">
-        <v>67386.99695355041</v>
+        <v>68112.73012085864</v>
       </c>
       <c r="D25">
-        <v>413188.4250598541</v>
+        <v>413067.2044072779</v>
       </c>
       <c r="E25">
-        <v>603833.0467060604</v>
+        <v>588227.6907875781</v>
       </c>
       <c r="F25">
-        <v>67320.92023287351</v>
+        <v>66753.11404523716</v>
       </c>
       <c r="G25">
-        <v>345867.5048269805</v>
+        <v>346314.0903620407</v>
       </c>
       <c r="H25">
-        <v>344724.9780442536</v>
+        <v>336058.1334197436</v>
       </c>
       <c r="I25">
-        <v>259108.0686618068</v>
+        <v>252169.5573678345</v>
       </c>
       <c r="J25">
-        <v>4648918.293625981</v>
+        <v>4647780.173808425</v>
       </c>
       <c r="K25">
-        <v>167765.9994203644</v>
+        <v>167765.9791434261</v>
       </c>
       <c r="L25">
-        <v>231144</v>
+        <v>227702</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3992.561823492235</v>
+        <v>4146.167316099036</v>
       </c>
       <c r="B26">
-        <v>41321.76293786147</v>
+        <v>43503.3460114332</v>
       </c>
       <c r="C26">
-        <v>45314.3247613537</v>
+        <v>47649.51332753223</v>
       </c>
       <c r="D26">
-        <v>290459.1757416485</v>
+        <v>288093.3268534163</v>
       </c>
       <c r="E26">
-        <v>411758.5358460125</v>
+        <v>414973.7593621218</v>
       </c>
       <c r="F26">
-        <v>47081.37846289834</v>
+        <v>46172.58076151564</v>
       </c>
       <c r="G26">
-        <v>243377.7972787502</v>
+        <v>241920.7460919007</v>
       </c>
       <c r="H26">
-        <v>233168.4004451085</v>
+        <v>236436.0384861044</v>
       </c>
       <c r="I26">
-        <v>178590.135400904</v>
+        <v>178537.7208760174</v>
       </c>
       <c r="J26">
-        <v>3243298.887034602</v>
+        <v>3243020.34718355</v>
       </c>
       <c r="K26">
-        <v>117051.2881603122</v>
+        <v>117051.0732581367</v>
       </c>
       <c r="L26">
-        <v>161306</v>
+        <v>158882</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5670.976530083007</v>
+        <v>5497.714308586276</v>
       </c>
       <c r="B27">
-        <v>54176.84162007367</v>
+        <v>55108.8191745594</v>
       </c>
       <c r="C27">
-        <v>59847.81815015667</v>
+        <v>60606.53348314568</v>
       </c>
       <c r="D27">
-        <v>353821.6403843592</v>
+        <v>366804.5049736432</v>
       </c>
       <c r="E27">
-        <v>528054.193393615</v>
+        <v>525092.9994788886</v>
       </c>
       <c r="F27">
-        <v>66202.47632591904</v>
+        <v>68544.02089447703</v>
       </c>
       <c r="G27">
-        <v>287619.1640584401</v>
+        <v>298260.4840791661</v>
       </c>
       <c r="H27">
-        <v>301378.7479266656</v>
+        <v>300513.7392571892</v>
       </c>
       <c r="I27">
-        <v>226675.4454669493</v>
+        <v>224579.2602216994</v>
       </c>
       <c r="J27">
-        <v>4068627.762875773</v>
+        <v>4069253.004780055</v>
       </c>
       <c r="K27">
-        <v>146865.0751538195</v>
+        <v>146864.795292177</v>
       </c>
       <c r="L27">
-        <v>202212</v>
+        <v>198904</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6442.857979683694</v>
+        <v>6444.644346574061</v>
       </c>
       <c r="B28">
-        <v>65846.86430220588</v>
+        <v>64917.79896820647</v>
       </c>
       <c r="C28">
-        <v>72289.72228188958</v>
+        <v>71362.44331478054</v>
       </c>
       <c r="D28">
-        <v>427204.955395684</v>
+        <v>426427.5970169688</v>
       </c>
       <c r="E28">
-        <v>611464.444416957</v>
+        <v>596525.7866148102</v>
       </c>
       <c r="F28">
-        <v>78281.39924331791</v>
+        <v>78336.89409481017</v>
       </c>
       <c r="G28">
-        <v>348923.5561523661</v>
+        <v>348090.7029221586</v>
       </c>
       <c r="H28">
-        <v>348325.102666047</v>
+        <v>339799.7014502956</v>
       </c>
       <c r="I28">
-        <v>263139.3417509099</v>
+        <v>256726.0851645146</v>
       </c>
       <c r="J28">
-        <v>4742355.142699378</v>
+        <v>4742640.730316618</v>
       </c>
       <c r="K28">
-        <v>171178.9867690715</v>
+        <v>171178.8231795369</v>
       </c>
       <c r="L28">
-        <v>235851</v>
+        <v>232432</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>3945.551706079866</v>
+        <v>3723.000075477768</v>
       </c>
       <c r="B29">
-        <v>39698.67869905139</v>
+        <v>37115.47823481043</v>
       </c>
       <c r="C29">
-        <v>43644.23040513126</v>
+        <v>40838.4783102882</v>
       </c>
       <c r="D29">
-        <v>262310.4014694841</v>
+        <v>253786.0691459027</v>
       </c>
       <c r="E29">
-        <v>378816.9340324599</v>
+        <v>365388.2273046203</v>
       </c>
       <c r="F29">
-        <v>48855.70116365139</v>
+        <v>47407.19314042537</v>
       </c>
       <c r="G29">
-        <v>213454.7003058327</v>
+        <v>206378.8760054774</v>
       </c>
       <c r="H29">
-        <v>216355.7126004546</v>
+        <v>208066.2819434391</v>
       </c>
       <c r="I29">
-        <v>162461.2214320053</v>
+        <v>157321.9453611811</v>
       </c>
       <c r="J29">
-        <v>2898901.396730515</v>
+        <v>2898539.634960481</v>
       </c>
       <c r="K29">
-        <v>104633.8372566938</v>
+        <v>104633.7529755667</v>
       </c>
       <c r="L29">
-        <v>143928</v>
+        <v>142064</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1770.271341558171</v>
+        <v>1924.114506148005</v>
       </c>
       <c r="B30">
-        <v>19259.17256314109</v>
+        <v>19401.91048775758</v>
       </c>
       <c r="C30">
-        <v>21029.44390469926</v>
+        <v>21326.02499390559</v>
       </c>
       <c r="D30">
-        <v>123821.1633401377</v>
+        <v>128552.4150280822</v>
       </c>
       <c r="E30">
-        <v>181258.8648911901</v>
+        <v>188099.9793508685</v>
       </c>
       <c r="F30">
-        <v>23348.23617415508</v>
+        <v>24001.10424332624</v>
       </c>
       <c r="G30">
-        <v>100472.9271659826</v>
+        <v>104551.310784756</v>
       </c>
       <c r="H30">
-        <v>102938.9714143139</v>
+        <v>107259.1788643852</v>
       </c>
       <c r="I30">
-        <v>78319.89347687624</v>
+        <v>80840.80048648325</v>
       </c>
       <c r="J30">
-        <v>1443059.330458302</v>
+        <v>1442768.645373872</v>
       </c>
       <c r="K30">
-        <v>52080.80900993147</v>
+        <v>52080.99295181609</v>
       </c>
       <c r="L30">
-        <v>71758</v>
+        <v>70696</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1231.764522206045</v>
+        <v>1418.291791027818</v>
       </c>
       <c r="B31">
-        <v>13376.7322805106</v>
+        <v>14175.82217491045</v>
       </c>
       <c r="C31">
-        <v>14608.49680271665</v>
+        <v>15594.11396593827</v>
       </c>
       <c r="D31">
-        <v>91807.4765919842</v>
+        <v>93126.22571575946</v>
       </c>
       <c r="E31">
-        <v>133438.0808092054</v>
+        <v>129497.280676234</v>
       </c>
       <c r="F31">
-        <v>17009.75128131589</v>
+        <v>17455.87564288883</v>
       </c>
       <c r="G31">
-        <v>74797.72531066831</v>
+        <v>75670.35007287063</v>
       </c>
       <c r="H31">
-        <v>76361.39069654624</v>
+        <v>73500.63611331033</v>
       </c>
       <c r="I31">
-        <v>57076.69011265915</v>
+        <v>55996.64456292366</v>
       </c>
       <c r="J31">
-        <v>1057827.239004098</v>
+        <v>1057980.215211267</v>
       </c>
       <c r="K31">
-        <v>38180.72115837802</v>
+        <v>38181.18149760626</v>
       </c>
       <c r="L31">
-        <v>52646</v>
+        <v>51847</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>187.0922497548782</v>
+        <v>185.6121343549218</v>
       </c>
       <c r="B32">
-        <v>855.1750887631833</v>
+        <v>839.6595673856516</v>
       </c>
       <c r="C32">
-        <v>1042.267338518061</v>
+        <v>1025.271701740573</v>
       </c>
       <c r="D32">
-        <v>5847.810428907635</v>
+        <v>5831.917085265755</v>
       </c>
       <c r="E32">
-        <v>6767.610453825248</v>
+        <v>6903.740504518015</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5847.810428907635</v>
+        <v>5831.917085265755</v>
       </c>
       <c r="H32">
-        <v>3467.169757977156</v>
+        <v>3531.34861542809</v>
       </c>
       <c r="I32">
-        <v>3300.440695848093</v>
+        <v>3372.391889089925</v>
       </c>
       <c r="J32">
-        <v>74625.12381945581</v>
+        <v>74639.5255686681</v>
       </c>
       <c r="K32">
-        <v>2024.067550802572</v>
+        <v>2024.189292435861</v>
       </c>
       <c r="L32">
-        <v>2776</v>
+        <v>2802</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1777.90313502329</v>
+        <v>1698.286920912087</v>
       </c>
       <c r="B33">
-        <v>7782.78158456519</v>
+        <v>7613.397414521444</v>
       </c>
       <c r="C33">
-        <v>9560.68471958848</v>
+        <v>9311.684335433531</v>
       </c>
       <c r="D33">
-        <v>55153.21280842166</v>
+        <v>54592.56214963846</v>
       </c>
       <c r="E33">
-        <v>61833.89236484976</v>
+        <v>62945.06676017037</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>55153.21280842166</v>
+        <v>54592.56214963846</v>
       </c>
       <c r="H33">
-        <v>31734.75094933897</v>
+        <v>32129.05175301275</v>
       </c>
       <c r="I33">
-        <v>30099.14141551078</v>
+        <v>30816.01500715761</v>
       </c>
       <c r="J33">
-        <v>682798.0478738811</v>
+        <v>683085.5415141614</v>
       </c>
       <c r="K33">
-        <v>18523.24801670977</v>
+        <v>18523.20928604931</v>
       </c>
       <c r="L33">
-        <v>25402</v>
+        <v>25630</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5854.506062534658</v>
+        <v>5547.69067985281</v>
       </c>
       <c r="B34">
-        <v>26768.33098991795</v>
+        <v>25475.63385552613</v>
       </c>
       <c r="C34">
-        <v>32622.83705245261</v>
+        <v>31023.32453537894</v>
       </c>
       <c r="D34">
-        <v>180865.0414634979</v>
+        <v>180032.6292194203</v>
       </c>
       <c r="E34">
-        <v>208749.4817371865</v>
+        <v>205393.682000475</v>
       </c>
       <c r="F34">
-        <v>31935.07791662726</v>
+        <v>31804.36550443638</v>
       </c>
       <c r="G34">
-        <v>148929.9635468706</v>
+        <v>148228.2637149839</v>
       </c>
       <c r="H34">
-        <v>106069.4562996991</v>
+        <v>104833.1680985866</v>
       </c>
       <c r="I34">
-        <v>102680.0254374873</v>
+        <v>100560.5139018884</v>
       </c>
       <c r="J34">
-        <v>2268027.298974216</v>
+        <v>2268206.183359677</v>
       </c>
       <c r="K34">
-        <v>61494.1589197921</v>
+        <v>61494.19086015116</v>
       </c>
       <c r="L34">
-        <v>82906</v>
+        <v>84019</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>14562.41749422575</v>
+        <v>15119.97241467562</v>
       </c>
       <c r="B35">
-        <v>67203.25771207357</v>
+        <v>65556.6392751111</v>
       </c>
       <c r="C35">
-        <v>81765.6752062993</v>
+        <v>80676.61168978672</v>
       </c>
       <c r="D35">
-        <v>453280.1274617864</v>
+        <v>447276.4178160744</v>
       </c>
       <c r="E35">
-        <v>523144.1178006601</v>
+        <v>520110.1583930427</v>
       </c>
       <c r="F35">
-        <v>79206.88568419944</v>
+        <v>78063.72436117931</v>
       </c>
       <c r="G35">
-        <v>374073.241777587</v>
+        <v>369212.6934548952</v>
       </c>
       <c r="H35">
-        <v>265813.133594663</v>
+        <v>265224.6249479132</v>
       </c>
       <c r="I35">
-        <v>257330.9842059971</v>
+        <v>254885.5334451296</v>
       </c>
       <c r="J35">
-        <v>5726071.537310225</v>
+        <v>5726631.382147936</v>
       </c>
       <c r="K35">
-        <v>155265.3649479844</v>
+        <v>155264.7893625587</v>
       </c>
       <c r="L35">
-        <v>209596</v>
+        <v>212012</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>21411.08636194355</v>
+        <v>22474.47534116164</v>
       </c>
       <c r="B36">
-        <v>98298.90964332872</v>
+        <v>98338.52852829998</v>
       </c>
       <c r="C36">
-        <v>119709.9960052723</v>
+        <v>120813.0038694616</v>
       </c>
       <c r="D36">
-        <v>686295.6071270135</v>
+        <v>693963.9321115478</v>
       </c>
       <c r="E36">
-        <v>807039.8139203517</v>
+        <v>805743.6446100248</v>
       </c>
       <c r="F36">
-        <v>119906.3088897399</v>
+        <v>120575.1337676748</v>
       </c>
       <c r="G36">
-        <v>566389.2982372736</v>
+        <v>573388.798343873</v>
       </c>
       <c r="H36">
-        <v>411416.1148949772</v>
+        <v>409377.8527557268</v>
       </c>
       <c r="I36">
-        <v>395623.6990253745</v>
+        <v>396365.791854298</v>
       </c>
       <c r="J36">
-        <v>8788920.083840026</v>
+        <v>8790784.811568448</v>
       </c>
       <c r="K36">
-        <v>238366.8902329803</v>
+        <v>238366.9467806862</v>
       </c>
       <c r="L36">
-        <v>322212</v>
+        <v>325483</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5792.618008585441</v>
+        <v>5950.08018577278</v>
       </c>
       <c r="B37">
-        <v>26109.01707554151</v>
+        <v>26745.30215179483</v>
       </c>
       <c r="C37">
-        <v>31901.63508412695</v>
+        <v>32695.3823375676</v>
       </c>
       <c r="D37">
-        <v>186555.9805559907</v>
+        <v>191345.6938292958</v>
       </c>
       <c r="E37">
-        <v>214984.1337389016</v>
+        <v>214531.8058963495</v>
       </c>
       <c r="F37">
-        <v>32831.96578425353</v>
+        <v>32992.33116960563</v>
       </c>
       <c r="G37">
-        <v>153724.0147717372</v>
+        <v>158353.3626596901</v>
       </c>
       <c r="H37">
-        <v>109431.3428647869</v>
+        <v>109362.4580193439</v>
       </c>
       <c r="I37">
-        <v>105552.7908741147</v>
+        <v>105169.3478770056</v>
       </c>
       <c r="J37">
-        <v>2353836.569443552</v>
+        <v>2352628.562658394</v>
       </c>
       <c r="K37">
-        <v>63838.2894824851</v>
+        <v>63838.15695000386</v>
       </c>
       <c r="L37">
-        <v>86240</v>
+        <v>87130</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>16178.73838349614</v>
+        <v>15744.20688682497</v>
       </c>
       <c r="B38">
-        <v>71996.44420478516</v>
+        <v>70087.50719921406</v>
       </c>
       <c r="C38">
-        <v>88175.1825882813</v>
+        <v>85831.71408603904</v>
       </c>
       <c r="D38">
-        <v>504307.5014505059</v>
+        <v>492067.4623682782</v>
       </c>
       <c r="E38">
-        <v>574531.7550115301</v>
+        <v>566855.629847968</v>
       </c>
       <c r="F38">
-        <v>87690.71658349864</v>
+        <v>85361.57625148239</v>
       </c>
       <c r="G38">
-        <v>416616.7848670072</v>
+        <v>406705.8861167958</v>
       </c>
       <c r="H38">
-        <v>292708.5565336872</v>
+        <v>290083.8667142253</v>
       </c>
       <c r="I38">
-        <v>281823.1984778429</v>
+        <v>276771.7631337426</v>
       </c>
       <c r="J38">
-        <v>6234443.380812959</v>
+        <v>6235443.703841105</v>
       </c>
       <c r="K38">
-        <v>169120.2112087777</v>
+        <v>169120.2108354646</v>
       </c>
       <c r="L38">
-        <v>228360</v>
+        <v>230715</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>18132.70156260636</v>
+        <v>20335.2036388414</v>
       </c>
       <c r="B39">
-        <v>80170.48871387147</v>
+        <v>88784.22255028962</v>
       </c>
       <c r="C39">
-        <v>98303.19027647782</v>
+        <v>109119.426189131</v>
       </c>
       <c r="D39">
-        <v>606601.50621633</v>
+        <v>603601.4807531281</v>
       </c>
       <c r="E39">
-        <v>695807.0731916935</v>
+        <v>693771.1728425028</v>
       </c>
       <c r="F39">
-        <v>106626.1706021273</v>
+        <v>105177.5767426928</v>
       </c>
       <c r="G39">
-        <v>499975.3356142027</v>
+        <v>498423.9040104353</v>
       </c>
       <c r="H39">
-        <v>353233.2207983067</v>
+        <v>350012.5061275022</v>
       </c>
       <c r="I39">
-        <v>342573.8523933868</v>
+        <v>343758.6667150006</v>
       </c>
       <c r="J39">
-        <v>7599843.227206038</v>
+        <v>7602295.765185694</v>
       </c>
       <c r="K39">
-        <v>206140.3085651334</v>
+        <v>206140.3247257854</v>
       </c>
       <c r="L39">
-        <v>278598</v>
+        <v>281040</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9219.384062742685</v>
+        <v>9410.845952835956</v>
       </c>
       <c r="B40">
-        <v>41452.42924426957</v>
+        <v>39706.29885088178</v>
       </c>
       <c r="C40">
-        <v>50671.81330701226</v>
+        <v>49117.14480371774</v>
       </c>
       <c r="D40">
-        <v>295577.9600471982</v>
+        <v>286000.3187076718</v>
       </c>
       <c r="E40">
-        <v>326961.00034285</v>
+        <v>328969.8509565252</v>
       </c>
       <c r="F40">
-        <v>52846.03676507578</v>
+        <v>49372.0728515097</v>
       </c>
       <c r="G40">
-        <v>242731.9232821224</v>
+        <v>236628.2458561621</v>
       </c>
       <c r="H40">
-        <v>165382.546718827</v>
+        <v>167441.7374552454</v>
       </c>
       <c r="I40">
-        <v>161578.4536240231</v>
+        <v>161528.1135012799</v>
       </c>
       <c r="J40">
-        <v>3605832.702380762</v>
+        <v>3605778.406175209</v>
       </c>
       <c r="K40">
-        <v>97789.23645955774</v>
+        <v>97789.14834097645</v>
       </c>
       <c r="L40">
-        <v>131975</v>
+        <v>133530</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>18810.3021120308</v>
+        <v>18902.62057169478</v>
       </c>
       <c r="B41">
-        <v>81962.20079517117</v>
+        <v>84281.22124290177</v>
       </c>
       <c r="C41">
-        <v>100772.502907202</v>
+        <v>103183.8418145966</v>
       </c>
       <c r="D41">
-        <v>573887.8786873841</v>
+        <v>590321.5415946945</v>
       </c>
       <c r="E41">
-        <v>664884.3882724447</v>
+        <v>672004.9072884659</v>
       </c>
       <c r="F41">
-        <v>99549.01137404685</v>
+        <v>103659.1620554916</v>
       </c>
       <c r="G41">
-        <v>474338.8673133373</v>
+        <v>486662.3795392028</v>
       </c>
       <c r="H41">
-        <v>342214.4982674852</v>
+        <v>340167.6672040542</v>
       </c>
       <c r="I41">
-        <v>322669.8900049595</v>
+        <v>331837.2400844116</v>
       </c>
       <c r="J41">
-        <v>7296331.287824595</v>
+        <v>7290423.192955703</v>
       </c>
       <c r="K41">
-        <v>197753.2030125625</v>
+        <v>197752.825885629</v>
       </c>
       <c r="L41">
-        <v>266893</v>
+        <v>269444</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10633.33236081709</v>
+        <v>10841.76253227595</v>
       </c>
       <c r="B42">
-        <v>46281.80625639555</v>
+        <v>48250.55192064428</v>
       </c>
       <c r="C42">
-        <v>56915.13861721264</v>
+        <v>59092.31445292023</v>
       </c>
       <c r="D42">
-        <v>323950.9572203959</v>
+        <v>328736.7402460517</v>
       </c>
       <c r="E42">
-        <v>375750.011889172</v>
+        <v>383378.4796000207</v>
       </c>
       <c r="F42">
-        <v>57067.84932359304</v>
+        <v>57916.17291155929</v>
       </c>
       <c r="G42">
-        <v>266883.1078968028</v>
+        <v>270820.5673344924</v>
       </c>
       <c r="H42">
-        <v>190578.417576867</v>
+        <v>195585.7099766447</v>
       </c>
       <c r="I42">
-        <v>185171.594312305</v>
+        <v>187792.769623376</v>
       </c>
       <c r="J42">
-        <v>4138644.845723253</v>
+        <v>4140228.718614828</v>
       </c>
       <c r="K42">
-        <v>112252.8111235522</v>
+        <v>112253.0193853386</v>
       </c>
       <c r="L42">
-        <v>151579</v>
+        <v>153172</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>76965.67187766571</v>
+        <v>77828.79576653699</v>
       </c>
       <c r="C43">
-        <v>76965.67187766571</v>
+        <v>77828.79576653699</v>
       </c>
       <c r="D43">
-        <v>464101.9889580893</v>
+        <v>451142.3270913696</v>
       </c>
       <c r="E43">
-        <v>530213.2957103237</v>
+        <v>535334.0704137449</v>
       </c>
       <c r="F43">
-        <v>81252.61168136196</v>
+        <v>79474.89995621711</v>
       </c>
       <c r="G43">
-        <v>382849.3772767273</v>
+        <v>371667.4271351525</v>
       </c>
       <c r="H43">
-        <v>268426.0996347902</v>
+        <v>273425.1322918208</v>
       </c>
       <c r="I43">
-        <v>261787.1960755336</v>
+        <v>261908.9381219241</v>
       </c>
       <c r="J43">
-        <v>5770538.524759303</v>
+        <v>5770017.181629896</v>
       </c>
       <c r="K43">
-        <v>156449.8320818796</v>
+        <v>156449.8536845718</v>
       </c>
       <c r="L43">
-        <v>213120</v>
+        <v>215213</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>52982.71166460963</v>
+        <v>48121.33492428796</v>
       </c>
       <c r="C44">
-        <v>52982.71166460963</v>
+        <v>48121.33492428796</v>
       </c>
       <c r="D44">
-        <v>291103.8659602919</v>
+        <v>290988.751874934</v>
       </c>
       <c r="E44">
-        <v>332997.5559456613</v>
+        <v>329482.0739761732</v>
       </c>
       <c r="F44">
-        <v>50473.93129129442</v>
+        <v>51834.55980372287</v>
       </c>
       <c r="G44">
-        <v>240629.9346689975</v>
+        <v>239154.1920712111</v>
       </c>
       <c r="H44">
-        <v>169138.4883966383</v>
+        <v>168444.2495844564</v>
       </c>
       <c r="I44">
-        <v>163859.067549023</v>
+        <v>161037.8243917169</v>
       </c>
       <c r="J44">
-        <v>3652958.20634972</v>
+        <v>3653321.301621473</v>
       </c>
       <c r="K44">
-        <v>99098.81321579905</v>
+        <v>99099.11287881955</v>
       </c>
       <c r="L44">
-        <v>134967</v>
+        <v>136410</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>38453.36578659261</v>
+        <v>37638.86764739735</v>
       </c>
       <c r="C45">
-        <v>38453.36578659261</v>
+        <v>37638.86764739735</v>
       </c>
       <c r="D45">
-        <v>217385.0151964503</v>
+        <v>215444.2883514555</v>
       </c>
       <c r="E45">
-        <v>249276.2056067472</v>
+        <v>251642.1358666861</v>
       </c>
       <c r="F45">
-        <v>37926.03591260326</v>
+        <v>37313.27200946684</v>
       </c>
       <c r="G45">
-        <v>179458.9792838471</v>
+        <v>178131.0163419886</v>
       </c>
       <c r="H45">
-        <v>126471.0762501124</v>
+        <v>128222.0412119589</v>
       </c>
       <c r="I45">
-        <v>122805.1293566348</v>
+        <v>123420.0946547273</v>
       </c>
       <c r="J45">
-        <v>2734122.645369829</v>
+        <v>2733737.475661515</v>
       </c>
       <c r="K45">
-        <v>74157.72167983819</v>
+        <v>74157.68258532963</v>
       </c>
       <c r="L45">
-        <v>101023</v>
+        <v>102143</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2694.464014701163</v>
+        <v>2811.096507735482</v>
       </c>
       <c r="C46">
-        <v>2694.464014701163</v>
+        <v>2811.096507735482</v>
       </c>
       <c r="D46">
-        <v>15020.23615666514</v>
+        <v>15444.69781584244</v>
       </c>
       <c r="E46">
-        <v>17527.15197071231</v>
+        <v>17533.87264503886</v>
       </c>
       <c r="F46">
-        <v>2571.294993725202</v>
+        <v>2699.338939321554</v>
       </c>
       <c r="G46">
-        <v>12448.94116293994</v>
+        <v>12745.35887652088</v>
       </c>
       <c r="H46">
-        <v>8859.943659911118</v>
+        <v>8953.672663410538</v>
       </c>
       <c r="I46">
-        <v>8667.20831080119</v>
+        <v>8580.199981628322</v>
       </c>
       <c r="J46">
-        <v>192792.7620343667</v>
+        <v>192752.582547516</v>
       </c>
       <c r="K46">
-        <v>5227.043923856998</v>
+        <v>5227.030540279437</v>
       </c>
       <c r="L46">
-        <v>7126</v>
+        <v>7193</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>178877.1260053548</v>
+        <v>174057.2216753812</v>
       </c>
       <c r="C47">
-        <v>178877.1260053548</v>
+        <v>174057.2216753812</v>
       </c>
       <c r="D47">
-        <v>308123.6746313238</v>
+        <v>298243.9429808929</v>
       </c>
       <c r="E47">
-        <v>397774.547156601</v>
+        <v>400234.7395932662</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>308123.6746313238</v>
+        <v>298243.9429808929</v>
       </c>
       <c r="H47">
-        <v>241533.4154936847</v>
+        <v>239820.6331613339</v>
       </c>
       <c r="I47">
-        <v>156241.1316629163</v>
+        <v>160414.1064319323</v>
       </c>
       <c r="J47">
-        <v>6681751.361809443</v>
+        <v>6683645.934431964</v>
       </c>
       <c r="K47">
-        <v>165879.2287372459</v>
+        <v>165879.1087916045</v>
       </c>
       <c r="L47">
-        <v>234770</v>
+        <v>233679</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>10053.88503160771</v>
+        <v>9619.662356479614</v>
       </c>
       <c r="B48">
-        <v>123356.0233259525</v>
+        <v>118985.3075665867</v>
       </c>
       <c r="C48">
-        <v>133409.9083575602</v>
+        <v>128604.9699230663</v>
       </c>
       <c r="D48">
-        <v>218186.6642967756</v>
+        <v>217693.4616496745</v>
       </c>
       <c r="E48">
-        <v>300063.0708381419</v>
+        <v>290719.0400440964</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>218186.6642967756</v>
+        <v>217693.4616496745</v>
       </c>
       <c r="H48">
-        <v>181072.7391997691</v>
+        <v>176532.3834671793</v>
       </c>
       <c r="I48">
-        <v>118990.3316383728</v>
+        <v>114186.6565769171</v>
       </c>
       <c r="J48">
-        <v>4877962.171950018</v>
+        <v>4877195.665679976</v>
       </c>
       <c r="K48">
-        <v>121112.1706536749</v>
+        <v>121111.8256329534</v>
       </c>
       <c r="L48">
-        <v>170083</v>
+        <v>168977</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>25594.84215218719</v>
+        <v>26683.07575685968</v>
       </c>
       <c r="B49">
-        <v>326527.2180666957</v>
+        <v>324583.032349641</v>
       </c>
       <c r="C49">
-        <v>352122.0602188829</v>
+        <v>351266.1081065007</v>
       </c>
       <c r="D49">
-        <v>590558.3491281373</v>
+        <v>575935.0848415421</v>
       </c>
       <c r="E49">
-        <v>803297.7737346686</v>
+        <v>770925.6623483005</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>590558.3491281373</v>
+        <v>575935.0848415421</v>
       </c>
       <c r="H49">
-        <v>486315.5788973268</v>
+        <v>465892.5308070582</v>
       </c>
       <c r="I49">
-        <v>316982.1948373418</v>
+        <v>305033.1315412422</v>
       </c>
       <c r="J49">
-        <v>13125648.90437941</v>
+        <v>13123073.70533219</v>
       </c>
       <c r="K49">
-        <v>325761.0575193773</v>
+        <v>325760.6588759603</v>
       </c>
       <c r="L49">
-        <v>457491</v>
+        <v>454638</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>28642.49698622351</v>
+        <v>26768.80517015906</v>
       </c>
       <c r="B50">
-        <v>337059.2823260077</v>
+        <v>329589.5037009124</v>
       </c>
       <c r="C50">
-        <v>365701.7793122313</v>
+        <v>356358.3088710714</v>
       </c>
       <c r="D50">
-        <v>583095.2519356892</v>
+        <v>592252.5674292268</v>
       </c>
       <c r="E50">
-        <v>809592.9631005987</v>
+        <v>797726.827490126</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>583095.2519356892</v>
+        <v>592252.5674292268</v>
       </c>
       <c r="H50">
-        <v>488109.1534672788</v>
+        <v>481424.4684293523</v>
       </c>
       <c r="I50">
-        <v>321483.80963332</v>
+        <v>316302.3590607737</v>
       </c>
       <c r="J50">
-        <v>13238635.47334129</v>
+        <v>13242661.2299924</v>
       </c>
       <c r="K50">
-        <v>328833.9171862827</v>
+        <v>328834.1549338004</v>
       </c>
       <c r="L50">
-        <v>461366</v>
+        <v>459298</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>33837.02602799222</v>
+        <v>34298.29934297907</v>
       </c>
       <c r="B51">
-        <v>404947.6784660476</v>
+        <v>411941.7567063427</v>
       </c>
       <c r="C51">
-        <v>438784.7044940399</v>
+        <v>446240.0560493218</v>
       </c>
       <c r="D51">
-        <v>722973.639920963</v>
+        <v>695296.6009757965</v>
       </c>
       <c r="E51">
-        <v>968590.860494601</v>
+        <v>941669.6879427106</v>
       </c>
       <c r="F51">
-        <v>90886.78993360346</v>
+        <v>88633.64783898141</v>
       </c>
       <c r="G51">
-        <v>632086.8499873595</v>
+        <v>606662.9531368151</v>
       </c>
       <c r="H51">
-        <v>582856.4758703338</v>
+        <v>563210.7667062405</v>
       </c>
       <c r="I51">
-        <v>385734.3846242672</v>
+        <v>378458.9212364701</v>
       </c>
       <c r="J51">
-        <v>15802072.75452768</v>
+        <v>15795722.02178518</v>
       </c>
       <c r="K51">
-        <v>392265.2229967852</v>
+        <v>392265.0081609664</v>
       </c>
       <c r="L51">
-        <v>546775</v>
+        <v>543071</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>22430.39100695038</v>
+        <v>23633.89483621867</v>
       </c>
       <c r="B52">
-        <v>280414.8731537687</v>
+        <v>288090.0331893335</v>
       </c>
       <c r="C52">
-        <v>302845.2641607191</v>
+        <v>311723.9280255521</v>
       </c>
       <c r="D52">
-        <v>512889.8324808674</v>
+        <v>516953.8493167831</v>
       </c>
       <c r="E52">
-        <v>686419.6844100871</v>
+        <v>695712.407966139</v>
       </c>
       <c r="F52">
-        <v>66436.65038179903</v>
+        <v>65696.16898662325</v>
       </c>
       <c r="G52">
-        <v>446453.1820990684</v>
+        <v>451257.6803301598</v>
       </c>
       <c r="H52">
-        <v>414644.317542834</v>
+        <v>424091.8172975708</v>
       </c>
       <c r="I52">
-        <v>271775.3668672531</v>
+        <v>271620.5906685682</v>
       </c>
       <c r="J52">
-        <v>11344124.2355135</v>
+        <v>11347182.06276703</v>
       </c>
       <c r="K52">
-        <v>281796.3442069713</v>
+        <v>281795.7366980832</v>
       </c>
       <c r="L52">
-        <v>392705</v>
+        <v>389747</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>25598.28682489267</v>
+        <v>25066.07948208314</v>
       </c>
       <c r="B53">
-        <v>311121.43458274</v>
+        <v>312546.3084794345</v>
       </c>
       <c r="C53">
-        <v>336719.7214076326</v>
+        <v>337612.3879615176</v>
       </c>
       <c r="D53">
-        <v>565144.0267011496</v>
+        <v>569676.3258535364</v>
       </c>
       <c r="E53">
-        <v>730417.5905367081</v>
+        <v>738336.6409220044</v>
       </c>
       <c r="F53">
-        <v>72502.7398258991</v>
+        <v>72671.45289556017</v>
       </c>
       <c r="G53">
-        <v>492641.2868752505</v>
+        <v>497004.8729579762</v>
       </c>
       <c r="H53">
-        <v>442456.0378574152</v>
+        <v>443424.4534286379</v>
       </c>
       <c r="I53">
-        <v>287961.5526792929</v>
+        <v>294912.1874933665</v>
       </c>
       <c r="J53">
-        <v>12514572.96485415</v>
+        <v>12506876.32566094</v>
       </c>
       <c r="K53">
-        <v>310511.0480652303</v>
+        <v>310511.2451513718</v>
       </c>
       <c r="L53">
-        <v>432459</v>
+        <v>429750</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>48212.86338471255</v>
+        <v>47700.23664537994</v>
       </c>
       <c r="B54">
-        <v>589591.8839820311</v>
+        <v>587782.884325224</v>
       </c>
       <c r="C54">
-        <v>637804.7473667437</v>
+        <v>635483.1209706039</v>
       </c>
       <c r="D54">
-        <v>1028395.17736333</v>
+        <v>1018893.530966425</v>
       </c>
       <c r="E54">
-        <v>1397056.424554527</v>
+        <v>1398972.851611488</v>
       </c>
       <c r="F54">
-        <v>128986.4952130683</v>
+        <v>133294.1160452169</v>
       </c>
       <c r="G54">
-        <v>899408.6821502618</v>
+        <v>885599.4149212078</v>
       </c>
       <c r="H54">
-        <v>841184.1659535636</v>
+        <v>842411.9573455116</v>
       </c>
       <c r="I54">
-        <v>555872.2586009633</v>
+        <v>556560.8942659762</v>
       </c>
       <c r="J54">
-        <v>22974460.43944378</v>
+        <v>22987131.23801792</v>
       </c>
       <c r="K54">
-        <v>570649.1562995508</v>
+        <v>570648.9670611576</v>
       </c>
       <c r="L54">
-        <v>795341</v>
+        <v>790098</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>51641.81196721017</v>
+        <v>51932.84849333716</v>
       </c>
       <c r="B55">
-        <v>641049.4214892394</v>
+        <v>624965.1652673858</v>
       </c>
       <c r="C55">
-        <v>692691.2334564496</v>
+        <v>676898.0137607229</v>
       </c>
       <c r="D55">
-        <v>1156680.889239268</v>
+        <v>1151402.664317772</v>
       </c>
       <c r="E55">
-        <v>1494034.046837311</v>
+        <v>1590198.377763725</v>
       </c>
       <c r="F55">
-        <v>146129.899697333</v>
+        <v>146628.6215558278</v>
       </c>
       <c r="G55">
-        <v>1010550.989541935</v>
+        <v>1004774.042761945</v>
       </c>
       <c r="H55">
-        <v>902619.0530519983</v>
+        <v>963016.2615202194</v>
       </c>
       <c r="I55">
-        <v>591414.9937853132</v>
+        <v>627182.1162435053</v>
       </c>
       <c r="J55">
-        <v>25724108.55681779</v>
+        <v>25746111.95811895</v>
       </c>
       <c r="K55">
-        <v>638665.8159009323</v>
+        <v>638665.9311833029</v>
       </c>
       <c r="L55">
-        <v>888649</v>
+        <v>884343</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>34429.68276834819</v>
+        <v>33627.30660532656</v>
       </c>
       <c r="B56">
-        <v>415477.6271043941</v>
+        <v>412932.9201957845</v>
       </c>
       <c r="C56">
-        <v>449907.3098727423</v>
+        <v>446560.2268011111</v>
       </c>
       <c r="D56">
-        <v>755253.0996196922</v>
+        <v>759139.0676402107</v>
       </c>
       <c r="E56">
-        <v>1031447.078159661</v>
+        <v>1010302.321403634</v>
       </c>
       <c r="F56">
-        <v>109362.3594945569</v>
+        <v>109415.964806989</v>
       </c>
       <c r="G56">
-        <v>645890.7401251353</v>
+        <v>649723.1028332218</v>
       </c>
       <c r="H56">
-        <v>618795.7904811251</v>
+        <v>610299.9573730264</v>
       </c>
       <c r="I56">
-        <v>412651.287678536</v>
+        <v>400002.3640306077</v>
       </c>
       <c r="J56">
-        <v>16615071.72129617</v>
+        <v>16598850.49259596</v>
       </c>
       <c r="K56">
-        <v>412478.2009939902</v>
+        <v>412477.9802320249</v>
       </c>
       <c r="L56">
-        <v>574669</v>
+        <v>571266</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>52568.71121239119</v>
+        <v>50191.45826470528</v>
       </c>
       <c r="B57">
-        <v>646111.8709039183</v>
+        <v>629225.9726695484</v>
       </c>
       <c r="C57">
-        <v>698680.5821163094</v>
+        <v>679417.4309342536</v>
       </c>
       <c r="D57">
-        <v>1112008.004311764</v>
+        <v>1114500.241415882</v>
       </c>
       <c r="E57">
-        <v>1488753.113800037</v>
+        <v>1528148.617692448</v>
       </c>
       <c r="F57">
-        <v>160408.6462100527</v>
+        <v>160601.3115123289</v>
       </c>
       <c r="G57">
-        <v>951599.3581017116</v>
+        <v>953898.9299035536</v>
       </c>
       <c r="H57">
-        <v>892958.2137028797</v>
+        <v>921613.0969970835</v>
       </c>
       <c r="I57">
-        <v>595794.9000971575</v>
+        <v>606535.5206953648</v>
       </c>
       <c r="J57">
-        <v>24945826.28512462</v>
+        <v>24943440.07395596</v>
       </c>
       <c r="K57">
-        <v>619090.1933262489</v>
+        <v>619089.8244816549</v>
       </c>
       <c r="L57">
-        <v>863332</v>
+        <v>856685</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>220138.6796285188</v>
+        <v>215525.1684820213</v>
       </c>
       <c r="C58">
-        <v>220138.6796285188</v>
+        <v>215525.1684820213</v>
       </c>
       <c r="D58">
-        <v>360934.3723301227</v>
+        <v>368405.6322467287</v>
       </c>
       <c r="E58">
-        <v>479639.1541739101</v>
+        <v>480932.5193603063</v>
       </c>
       <c r="F58">
-        <v>51212.47841531412</v>
+        <v>54413.94043130455</v>
       </c>
       <c r="G58">
-        <v>309721.8939148086</v>
+        <v>313991.6918154241</v>
       </c>
       <c r="H58">
-        <v>289660.657649934</v>
+        <v>291366.2489070768</v>
       </c>
       <c r="I58">
-        <v>189978.4965239761</v>
+        <v>189566.2704532296</v>
       </c>
       <c r="J58">
-        <v>8028297.082771593</v>
+        <v>8029715.836023335</v>
       </c>
       <c r="K58">
-        <v>199387.7013806255</v>
+        <v>199388.1949810064</v>
       </c>
       <c r="L58">
-        <v>280024</v>
+        <v>278191</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>126269.2791222095</v>
+        <v>127258.0829188092</v>
       </c>
       <c r="C59">
-        <v>126269.2791222095</v>
+        <v>127258.0829188092</v>
       </c>
       <c r="D59">
-        <v>196696.4738419116</v>
+        <v>207414.9036457094</v>
       </c>
       <c r="E59">
-        <v>270584.0772435913</v>
+        <v>277648.2550844732</v>
       </c>
       <c r="F59">
-        <v>28295.8826138069</v>
+        <v>29879.84759847136</v>
       </c>
       <c r="G59">
-        <v>168400.5912281047</v>
+        <v>177535.0560472381</v>
       </c>
       <c r="H59">
-        <v>163283.2037904458</v>
+        <v>167933.5197696435</v>
       </c>
       <c r="I59">
-        <v>107300.8734531455</v>
+        <v>109714.7353148297</v>
       </c>
       <c r="J59">
-        <v>4561659.572138077</v>
+        <v>4563147.68216338</v>
       </c>
       <c r="K59">
-        <v>113273.0953270344</v>
+        <v>113272.8474965658</v>
       </c>
       <c r="L59">
-        <v>159161</v>
+        <v>158116</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>190069.5818303263</v>
+        <v>179689.1517850659</v>
       </c>
       <c r="C60">
-        <v>190069.5818303263</v>
+        <v>179689.1517850659</v>
       </c>
       <c r="D60">
-        <v>314160.3448690659</v>
+        <v>310369.1497623313</v>
       </c>
       <c r="E60">
-        <v>427571.9252038829</v>
+        <v>421958.8064150689</v>
       </c>
       <c r="F60">
-        <v>45159.04922698892</v>
+        <v>44721.15922726967</v>
       </c>
       <c r="G60">
-        <v>269001.2956420769</v>
+        <v>265647.9905350616</v>
       </c>
       <c r="H60">
-        <v>260337.802180096</v>
+        <v>253293.3090891621</v>
       </c>
       <c r="I60">
-        <v>167234.1230237868</v>
+        <v>168665.4973259068</v>
       </c>
       <c r="J60">
-        <v>7084474.269941619</v>
+        <v>7086187.360520934</v>
       </c>
       <c r="K60">
-        <v>175786.2641629166</v>
+        <v>175786.0683271856</v>
       </c>
       <c r="L60">
-        <v>247026</v>
+        <v>245568</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>96056.03333212758</v>
+        <v>97032.00883015277</v>
       </c>
       <c r="C61">
-        <v>96056.03333212758</v>
+        <v>97032.00883015277</v>
       </c>
       <c r="D61">
-        <v>158827.2825892528</v>
+        <v>156155.6885725634</v>
       </c>
       <c r="E61">
-        <v>212874.0416790587</v>
+        <v>215911.5260498454</v>
       </c>
       <c r="F61">
-        <v>22272.79293019106</v>
+        <v>22679.14682652719</v>
       </c>
       <c r="G61">
-        <v>136554.4896590617</v>
+        <v>133476.5417460362</v>
       </c>
       <c r="H61">
-        <v>128351.4202943452</v>
+        <v>129551.0284773319</v>
       </c>
       <c r="I61">
-        <v>84522.62138471352</v>
+        <v>86360.49757251352</v>
       </c>
       <c r="J61">
-        <v>3501096.270316372</v>
+        <v>3500011.348536015</v>
       </c>
       <c r="K61">
-        <v>86886.82957024968</v>
+        <v>86887.26254565787</v>
       </c>
       <c r="L61">
-        <v>122031</v>
+        <v>121263</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6668.16526674976</v>
+        <v>6973.953838310465</v>
       </c>
       <c r="C62">
-        <v>6668.16526674976</v>
+        <v>6973.953838310465</v>
       </c>
       <c r="D62">
-        <v>11158.73706786069</v>
+        <v>11100.39464268279</v>
       </c>
       <c r="E62">
-        <v>15322.20298397134</v>
+        <v>14703.63871713791</v>
       </c>
       <c r="F62">
-        <v>1588.526208548933</v>
+        <v>1592.661239703007</v>
       </c>
       <c r="G62">
-        <v>9570.210859311759</v>
+        <v>9507.733402979782</v>
       </c>
       <c r="H62">
-        <v>9214.680813666726</v>
+        <v>8844.605925970765</v>
       </c>
       <c r="I62">
-        <v>6107.522170304617</v>
+        <v>5859.032791167141</v>
       </c>
       <c r="J62">
-        <v>249892.9141442791</v>
+        <v>249873.4159954966</v>
       </c>
       <c r="K62">
-        <v>6203.66247325946</v>
+        <v>6203.764441239703</v>
       </c>
       <c r="L62">
-        <v>8712</v>
+        <v>8663</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2721.821940000251</v>
+        <v>2803.808621696738</v>
       </c>
       <c r="C63">
-        <v>2721.821940000251</v>
+        <v>2803.808621696738</v>
       </c>
       <c r="D63">
-        <v>4480.318153203533</v>
+        <v>4530.205069418692</v>
       </c>
       <c r="E63">
-        <v>6057.118449492586</v>
+        <v>6249.586118982877</v>
       </c>
       <c r="F63">
-        <v>643.1594366361858</v>
+        <v>662.0886207408734</v>
       </c>
       <c r="G63">
-        <v>3837.158716567347</v>
+        <v>3868.116448677818</v>
       </c>
       <c r="H63">
-        <v>3673.309640037701</v>
+        <v>3752.507805970876</v>
       </c>
       <c r="I63">
-        <v>2383.808809454886</v>
+        <v>2497.078313012001</v>
       </c>
       <c r="J63">
-        <v>100892.3573059778</v>
+        <v>100925.961188807</v>
       </c>
       <c r="K63">
-        <v>2505.791532534608</v>
+        <v>2505.64799580509</v>
       </c>
       <c r="L63">
-        <v>3520</v>
+        <v>3499</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4644.983265850141</v>
+        <v>4634.993936330956</v>
       </c>
       <c r="C64">
-        <v>4644.983265850141</v>
+        <v>4634.993936330956</v>
       </c>
       <c r="D64">
-        <v>3368.32725426505</v>
+        <v>3327.538759605692</v>
       </c>
       <c r="E64">
-        <v>126.4859819710514</v>
+        <v>96.1282632621931</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3368.32725426505</v>
+        <v>3327.538759605692</v>
       </c>
       <c r="H64">
-        <v>59.65908720080825</v>
+        <v>45.50078395565725</v>
       </c>
       <c r="I64">
-        <v>66.82689477024316</v>
+        <v>50.62747930653585</v>
       </c>
       <c r="J64">
-        <v>82511.50368506691</v>
+        <v>82595.34277730425</v>
       </c>
       <c r="K64">
-        <v>1878.844880485072</v>
+        <v>1879.270864181246</v>
       </c>
       <c r="L64">
-        <v>2629</v>
+        <v>2706</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>49431.59423336513</v>
+        <v>48588.13124327186</v>
       </c>
       <c r="C65">
-        <v>49431.59423336513</v>
+        <v>48588.13124327186</v>
       </c>
       <c r="D65">
-        <v>35375.77072500406</v>
+        <v>34664.64264781317</v>
       </c>
       <c r="E65">
-        <v>1060.004085576982</v>
+        <v>1334.950967458383</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>35375.77072500406</v>
+        <v>34664.64264781317</v>
       </c>
       <c r="H65">
-        <v>530.2839609890531</v>
+        <v>651.6183265601082</v>
       </c>
       <c r="I65">
-        <v>529.7201245879288</v>
+        <v>683.3326408982743</v>
       </c>
       <c r="J65">
-        <v>864656.637446663</v>
+        <v>865119.4295134213</v>
       </c>
       <c r="K65">
-        <v>19682.10550493728</v>
+        <v>19681.71894330778</v>
       </c>
       <c r="L65">
-        <v>27550</v>
+        <v>28352</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>52686.59693855367</v>
+        <v>53646.03059926489</v>
       </c>
       <c r="C66">
-        <v>52686.59693855367</v>
+        <v>53646.03059926489</v>
       </c>
       <c r="D66">
-        <v>37606.5387695953</v>
+        <v>36648.19053381175</v>
       </c>
       <c r="E66">
-        <v>1461.687270606609</v>
+        <v>1147.760661602403</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>37606.5387695953</v>
+        <v>36648.19053381175</v>
       </c>
       <c r="H66">
-        <v>713.0196596402556</v>
+        <v>556.4484148604377</v>
       </c>
       <c r="I66">
-        <v>748.6676109663532</v>
+        <v>591.3122467419655</v>
       </c>
       <c r="J66">
-        <v>932996.2560732653</v>
+        <v>933175.9744362768</v>
       </c>
       <c r="K66">
-        <v>21218.80373536724</v>
+        <v>21219.27198424688</v>
       </c>
       <c r="L66">
-        <v>29737</v>
+        <v>30543</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>89113.62640535712</v>
+        <v>90334.91391561077</v>
       </c>
       <c r="B67">
-        <v>623020.6032291392</v>
+        <v>631720.3770141035</v>
       </c>
       <c r="C67">
-        <v>712134.2296344963</v>
+        <v>722055.2909297142</v>
       </c>
       <c r="D67">
-        <v>503736.9477706813</v>
+        <v>500991.4786563852</v>
       </c>
       <c r="E67">
-        <v>15915.34818406568</v>
+        <v>18682.626220877</v>
       </c>
       <c r="F67">
-        <v>185306.3348524421</v>
+        <v>186621.3964029628</v>
       </c>
       <c r="G67">
-        <v>318430.6129182392</v>
+        <v>314370.0822534224</v>
       </c>
       <c r="H67">
-        <v>7501.31227810732</v>
+        <v>9579.063562874198</v>
       </c>
       <c r="I67">
-        <v>8414.035905958362</v>
+        <v>9103.562658002804</v>
       </c>
       <c r="J67">
-        <v>12263484.4308353</v>
+        <v>12279746.30114106</v>
       </c>
       <c r="K67">
-        <v>279227.882372388</v>
+        <v>279227.9414381672</v>
       </c>
       <c r="L67">
-        <v>374504</v>
+        <v>385124</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>94713.38139024432</v>
+        <v>96164.5465393482</v>
       </c>
       <c r="B68">
-        <v>651135.5732595576</v>
+        <v>665165.7694498051</v>
       </c>
       <c r="C68">
-        <v>745848.9546498019</v>
+        <v>761330.3159891533</v>
       </c>
       <c r="D68">
-        <v>527947.4126583581</v>
+        <v>539819.2440800373</v>
       </c>
       <c r="E68">
-        <v>23464.59914258695</v>
+        <v>21889.4475359632</v>
       </c>
       <c r="F68">
-        <v>194859.8931489544</v>
+        <v>197381.9331583892</v>
       </c>
       <c r="G68">
-        <v>333087.5195094038</v>
+        <v>342437.3109216482</v>
       </c>
       <c r="H68">
-        <v>10786.1201743936</v>
+        <v>10386.52906822012</v>
       </c>
       <c r="I68">
-        <v>12678.47896819335</v>
+        <v>11502.91846774308</v>
       </c>
       <c r="J68">
-        <v>13176992.56553979</v>
+        <v>13178783.22398083</v>
       </c>
       <c r="K68">
-        <v>299792.0933367551</v>
+        <v>299791.6781876413</v>
       </c>
       <c r="L68">
-        <v>403310</v>
+        <v>413849</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>205484.1834898489</v>
+        <v>211732.8489974582</v>
       </c>
       <c r="B69">
-        <v>1416813.977052567</v>
+        <v>1480182.25261042</v>
       </c>
       <c r="C69">
-        <v>1622298.160542416</v>
+        <v>1691915.101607878</v>
       </c>
       <c r="D69">
-        <v>1195565.148700099</v>
+        <v>1156367.41410368</v>
       </c>
       <c r="E69">
-        <v>44327.22373477648</v>
+        <v>38533.50469865025</v>
       </c>
       <c r="F69">
-        <v>440593.2606495006</v>
+        <v>426584.6324102235</v>
       </c>
       <c r="G69">
-        <v>754971.888050598</v>
+        <v>729782.7816934562</v>
       </c>
       <c r="H69">
-        <v>21733.22162701123</v>
+        <v>17852.89829101014</v>
       </c>
       <c r="I69">
-        <v>22594.00210776525</v>
+        <v>20680.60640764012</v>
       </c>
       <c r="J69">
-        <v>29242234.52858638</v>
+        <v>29242287.85801786</v>
       </c>
       <c r="K69">
-        <v>665261.7165891103</v>
+        <v>665261.7728538709</v>
       </c>
       <c r="L69">
-        <v>894978</v>
+        <v>917572</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>182779.0362282582</v>
+        <v>188201.5412624107</v>
       </c>
       <c r="B70">
-        <v>1255555.268153545</v>
+        <v>1254002.593455149</v>
       </c>
       <c r="C70">
-        <v>1438334.304381804</v>
+        <v>1442204.13471756</v>
       </c>
       <c r="D70">
-        <v>1009480.609397159</v>
+        <v>1011251.43460358</v>
       </c>
       <c r="E70">
-        <v>34509.83077355962</v>
+        <v>33080.76254098817</v>
       </c>
       <c r="F70">
-        <v>182288.4096352134</v>
+        <v>184439.3718166894</v>
       </c>
       <c r="G70">
-        <v>827192.1997619454</v>
+        <v>826812.0627868905</v>
       </c>
       <c r="H70">
-        <v>16612.05657536343</v>
+        <v>15590.3498548554</v>
       </c>
       <c r="I70">
-        <v>17897.77419819619</v>
+        <v>17490.41268613278</v>
       </c>
       <c r="J70">
-        <v>25144688.49091979</v>
+        <v>25159783.55197976</v>
       </c>
       <c r="K70">
-        <v>572385.305141728</v>
+        <v>572384.8340556902</v>
       </c>
       <c r="L70">
-        <v>770571</v>
+        <v>791062</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>274343.1186804728</v>
+        <v>267220.879004957</v>
       </c>
       <c r="B71">
-        <v>1872573.630808973</v>
+        <v>1822799.47957338</v>
       </c>
       <c r="C71">
-        <v>2146916.749489446</v>
+        <v>2090020.358578337</v>
       </c>
       <c r="D71">
-        <v>1470293.235156594</v>
+        <v>1489381.571808481</v>
       </c>
       <c r="E71">
-        <v>56787.97192590328</v>
+        <v>62861.9289465783</v>
       </c>
       <c r="F71">
-        <v>263416.5726544593</v>
+        <v>263111.6590647973</v>
       </c>
       <c r="G71">
-        <v>1206876.662502135</v>
+        <v>1226269.912743684</v>
       </c>
       <c r="H71">
-        <v>27424.57266712234</v>
+        <v>30431.04034232429</v>
       </c>
       <c r="I71">
-        <v>29363.39925878094</v>
+        <v>32430.88860425401</v>
       </c>
       <c r="J71">
-        <v>36613507.48869932</v>
+        <v>36621850.19694195</v>
       </c>
       <c r="K71">
-        <v>833640.9837792338</v>
+        <v>833640.7060005768</v>
       </c>
       <c r="L71">
-        <v>1123793</v>
+        <v>1153251</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>214779.3227120836</v>
+        <v>219343.2538298295</v>
       </c>
       <c r="B72">
-        <v>1511741.150724459</v>
+        <v>1480401.060271447</v>
       </c>
       <c r="C72">
-        <v>1726520.473436543</v>
+        <v>1699744.314101276</v>
       </c>
       <c r="D72">
-        <v>1252139.714904799</v>
+        <v>1216946.977304709</v>
       </c>
       <c r="E72">
-        <v>53983.21297010761</v>
+        <v>44132.673898859</v>
       </c>
       <c r="F72">
-        <v>218757.8480298457</v>
+        <v>219344.7552433145</v>
       </c>
       <c r="G72">
-        <v>1033381.866874953</v>
+        <v>997602.2220613945</v>
       </c>
       <c r="H72">
-        <v>26785.75740201166</v>
+        <v>21513.36402460974</v>
       </c>
       <c r="I72">
-        <v>27197.45556809595</v>
+        <v>22619.30987424926</v>
       </c>
       <c r="J72">
-        <v>29862259.48714158</v>
+        <v>29866240.03920441</v>
       </c>
       <c r="K72">
-        <v>679392.7258932745</v>
+        <v>679393.0381764148</v>
       </c>
       <c r="L72">
-        <v>916114</v>
+        <v>938677</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>122102.5003065234</v>
+        <v>125770.8620279243</v>
       </c>
       <c r="B73">
-        <v>837088.1572187797</v>
+        <v>872906.5288175779</v>
       </c>
       <c r="C73">
-        <v>959190.6575253031</v>
+        <v>998677.3908455023</v>
       </c>
       <c r="D73">
-        <v>699130.9882093882</v>
+        <v>696682.4328262124</v>
       </c>
       <c r="E73">
-        <v>24249.57057668185</v>
+        <v>26026.27053837208</v>
       </c>
       <c r="F73">
-        <v>124703.8629560956</v>
+        <v>125336.4846770857</v>
       </c>
       <c r="G73">
-        <v>574427.1252532926</v>
+        <v>571345.9481491267</v>
       </c>
       <c r="H73">
-        <v>11762.97258018245</v>
+        <v>12239.73537457156</v>
       </c>
       <c r="I73">
-        <v>12486.59799649939</v>
+        <v>13786.53516380052</v>
       </c>
       <c r="J73">
-        <v>17121324.96700753</v>
+        <v>17109206.31615788</v>
       </c>
       <c r="K73">
-        <v>389253.0458741735</v>
+        <v>389253.0530189707</v>
       </c>
       <c r="L73">
-        <v>524190.0000000001</v>
+        <v>538342</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>175090.3033689198</v>
+        <v>176187.5172841672</v>
       </c>
       <c r="B74">
-        <v>1203464.061577399</v>
+        <v>1189621.971624915</v>
       </c>
       <c r="C74">
-        <v>1378554.364946319</v>
+        <v>1365809.488909082</v>
       </c>
       <c r="D74">
-        <v>985837.4902524753</v>
+        <v>973886.6661985969</v>
       </c>
       <c r="E74">
-        <v>32396.03967544535</v>
+        <v>43829.36424577315</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>985837.4902524753</v>
+        <v>973886.6661985969</v>
       </c>
       <c r="H74">
-        <v>14175.98952808229</v>
+        <v>21631.37227227257</v>
       </c>
       <c r="I74">
-        <v>18220.05014736306</v>
+        <v>22197.99197350058</v>
       </c>
       <c r="J74">
-        <v>23830158.8350044</v>
+        <v>23823006.41127631</v>
       </c>
       <c r="K74">
-        <v>542234.7808803616</v>
+        <v>542235.0533774825</v>
       </c>
       <c r="L74">
-        <v>737496</v>
+        <v>757423</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>534847.8215919203</v>
+        <v>543073.4152977979</v>
       </c>
       <c r="C75">
-        <v>534847.8215919203</v>
+        <v>543073.4152977979</v>
       </c>
       <c r="D75">
-        <v>381260.7064639753</v>
+        <v>380075.3429367236</v>
       </c>
       <c r="E75">
-        <v>12968.05274878504</v>
+        <v>13532.60613234915</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>381260.7064639753</v>
+        <v>380075.3429367236</v>
       </c>
       <c r="H75">
-        <v>6296.973025983037</v>
+        <v>6441.053268160677</v>
       </c>
       <c r="I75">
-        <v>6671.079722802007</v>
+        <v>7091.552864188475</v>
       </c>
       <c r="J75">
-        <v>9512752.456378831</v>
+        <v>9520403.049649443</v>
       </c>
       <c r="K75">
-        <v>216447.0960369495</v>
+        <v>216447.0300366392</v>
       </c>
       <c r="L75">
-        <v>303095</v>
+        <v>311809</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>425648.2175314819</v>
+        <v>440415.5392466504</v>
       </c>
       <c r="C76">
-        <v>425648.2175314819</v>
+        <v>440415.5392466504</v>
       </c>
       <c r="D76">
-        <v>310590.6275705341</v>
+        <v>310392.1285979966</v>
       </c>
       <c r="E76">
-        <v>10180.85674277501</v>
+        <v>11078.56194816197</v>
       </c>
       <c r="F76">
-        <v>113656.1205472039</v>
+        <v>112752.2964595895</v>
       </c>
       <c r="G76">
-        <v>196934.5070233302</v>
+        <v>197639.8321384071</v>
       </c>
       <c r="H76">
-        <v>5122.861037710272</v>
+        <v>5486.88777220048</v>
       </c>
       <c r="I76">
-        <v>5057.995705064735</v>
+        <v>5591.674175961492</v>
       </c>
       <c r="J76">
-        <v>7755830.24809528</v>
+        <v>7753389.431032918</v>
       </c>
       <c r="K76">
-        <v>176526.0680113518</v>
+        <v>176526.2963556736</v>
       </c>
       <c r="L76">
-        <v>244172</v>
+        <v>250303</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>235093.9811212466</v>
+        <v>233968.7002674704</v>
       </c>
       <c r="C77">
-        <v>235093.9811212466</v>
+        <v>233968.7002674704</v>
       </c>
       <c r="D77">
-        <v>172671.5734404404</v>
+        <v>168472.8791297544</v>
       </c>
       <c r="E77">
-        <v>6447.752374592279</v>
+        <v>4971.926075686855</v>
       </c>
       <c r="F77">
-        <v>63406.06729107688</v>
+        <v>63548.66221828894</v>
       </c>
       <c r="G77">
-        <v>109265.5061493636</v>
+        <v>104924.2169114655</v>
       </c>
       <c r="H77">
-        <v>3073.497695117067</v>
+        <v>2543.005183131784</v>
       </c>
       <c r="I77">
-        <v>3374.254679475212</v>
+        <v>2428.920892555071</v>
       </c>
       <c r="J77">
-        <v>4165822.236665226</v>
+        <v>4167856.794300152</v>
       </c>
       <c r="K77">
-        <v>94797.81732388638</v>
+        <v>94798.12693689694</v>
       </c>
       <c r="L77">
-        <v>130801</v>
+        <v>134567</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>417833.8799324953</v>
+        <v>422176.4116602921</v>
       </c>
       <c r="C78">
-        <v>417833.8799324953</v>
+        <v>422176.4116602921</v>
       </c>
       <c r="D78">
-        <v>295619.0857641505</v>
+        <v>297185.7554877016</v>
       </c>
       <c r="E78">
-        <v>11384.79504994022</v>
+        <v>11123.7657569391</v>
       </c>
       <c r="F78">
-        <v>115730.5504060982</v>
+        <v>117284.3484945463</v>
       </c>
       <c r="G78">
-        <v>179888.5353580523</v>
+        <v>179901.4069931553</v>
       </c>
       <c r="H78">
-        <v>5563.109698233516</v>
+        <v>5519.487128588021</v>
       </c>
       <c r="I78">
-        <v>5821.685351706707</v>
+        <v>5604.278628351083</v>
       </c>
       <c r="J78">
-        <v>7423408.048823368</v>
+        <v>7422753.697002036</v>
       </c>
       <c r="K78">
-        <v>168934.9863705264</v>
+        <v>168934.6911039772</v>
       </c>
       <c r="L78">
-        <v>233237</v>
+        <v>239731</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>42563.48018949785</v>
+        <v>43266.99225669034</v>
       </c>
       <c r="C79">
-        <v>42563.48018949785</v>
+        <v>43266.99225669034</v>
       </c>
       <c r="D79">
-        <v>31780.37979676255</v>
+        <v>31873.64466294493</v>
       </c>
       <c r="E79">
-        <v>1242.634267885357</v>
+        <v>945.4418289695737</v>
       </c>
       <c r="F79">
-        <v>12433.2580798267</v>
+        <v>12384.05646461176</v>
       </c>
       <c r="G79">
-        <v>19347.12171693585</v>
+        <v>19489.58819833317</v>
       </c>
       <c r="H79">
-        <v>604.7534669229869</v>
+        <v>469.2410028494323</v>
       </c>
       <c r="I79">
-        <v>637.8808009623704</v>
+        <v>476.2008261201415</v>
       </c>
       <c r="J79">
-        <v>763413.8626351265</v>
+        <v>763803.0040616973</v>
       </c>
       <c r="K79">
-        <v>17368.80606863728</v>
+        <v>17369.11917567538</v>
       </c>
       <c r="L79">
-        <v>23959</v>
+        <v>24642</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6550.195157731617</v>
+        <v>6438.411454394984</v>
       </c>
       <c r="C80">
-        <v>6550.195157731617</v>
+        <v>6438.411454394984</v>
       </c>
       <c r="D80">
-        <v>4654.971756625573</v>
+        <v>4899.779002016416</v>
       </c>
       <c r="E80">
-        <v>213.0597608604444</v>
+        <v>199.7065385619969</v>
       </c>
       <c r="F80">
-        <v>1805.109803435486</v>
+        <v>1924.238877777012</v>
       </c>
       <c r="G80">
-        <v>2849.861953190087</v>
+        <v>2975.540124239404</v>
       </c>
       <c r="H80">
-        <v>101.8446623794079</v>
+        <v>98.89931814421249</v>
       </c>
       <c r="I80">
-        <v>111.2150984810365</v>
+        <v>100.8072204177844</v>
       </c>
       <c r="J80">
-        <v>115670.4638038696</v>
+        <v>115658.7967105667</v>
       </c>
       <c r="K80">
-        <v>2630.642120992145</v>
+        <v>2630.915913272198</v>
       </c>
       <c r="L80">
-        <v>3632</v>
+        <v>3731</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13742.10267881633</v>
+        <v>13961.59362042193</v>
       </c>
       <c r="C81">
-        <v>13742.10267881633</v>
+        <v>13961.59362042193</v>
       </c>
       <c r="D81">
-        <v>9959.98827016947</v>
+        <v>10305.10347193396</v>
       </c>
       <c r="E81">
-        <v>344.4878489670843</v>
+        <v>371.7511073603689</v>
       </c>
       <c r="F81">
-        <v>3901.728024240255</v>
+        <v>4083.883954478236</v>
       </c>
       <c r="G81">
-        <v>6058.260245929214</v>
+        <v>6221.219517455718</v>
       </c>
       <c r="H81">
-        <v>161.7958819174342</v>
+        <v>180.4662591260081</v>
       </c>
       <c r="I81">
-        <v>182.6919670496501</v>
+        <v>191.2848482343607</v>
       </c>
       <c r="J81">
-        <v>247872.411397152</v>
+        <v>247990.4969275582</v>
       </c>
       <c r="K81">
-        <v>5643.917297950097</v>
+        <v>5644.015772525917</v>
       </c>
       <c r="L81">
-        <v>7794</v>
+        <v>8006</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>981.3047464250371</v>
+        <v>928.5937006003084</v>
       </c>
       <c r="B82">
-        <v>3892.620785683352</v>
+        <v>3896.460367445443</v>
       </c>
       <c r="C82">
-        <v>4873.925532108389</v>
+        <v>4825.054068045751</v>
       </c>
       <c r="D82">
-        <v>12352.10215055794</v>
+        <v>12647.37798102086</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12352.10215055794</v>
+        <v>12647.37798102086</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>300891.1109170334</v>
+        <v>300891.6401296213</v>
       </c>
       <c r="K82">
-        <v>5950.825374389814</v>
+        <v>5950.918879144726</v>
       </c>
       <c r="L82">
-        <v>8494</v>
+        <v>8366</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1546.772200522545</v>
+        <v>1623.642768449674</v>
       </c>
       <c r="B83">
-        <v>6382.807469709129</v>
+        <v>6574.231562965606</v>
       </c>
       <c r="C83">
-        <v>7929.579670231674</v>
+        <v>8197.87433141528</v>
       </c>
       <c r="D83">
-        <v>20557.05734515438</v>
+        <v>20535.38652605947</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20557.05734515438</v>
+        <v>20535.38652605947</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>502958.6819280282</v>
+        <v>502964.6288476175</v>
       </c>
       <c r="K83">
-        <v>9947.172649420543</v>
+        <v>9946.826603242269</v>
       </c>
       <c r="L83">
-        <v>14208</v>
+        <v>13953</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9771.406295582416</v>
+        <v>9943.496233755224</v>
       </c>
       <c r="B84">
-        <v>38303.84662101122</v>
+        <v>39582.42119768582</v>
       </c>
       <c r="C84">
-        <v>48075.25291659364</v>
+        <v>49525.91743144104</v>
       </c>
       <c r="D84">
-        <v>130160.4909267265</v>
+        <v>125975.6552803214</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>35867.15434028333</v>
+        <v>33919.80502684753</v>
       </c>
       <c r="G84">
-        <v>94293.33658644314</v>
+        <v>92055.85025347385</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3079097.737770718</v>
+        <v>3079087.700237366</v>
       </c>
       <c r="K84">
-        <v>60896.23037443357</v>
+        <v>60896.01122865916</v>
       </c>
       <c r="L84">
-        <v>85547</v>
+        <v>84362</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6253.444104371396</v>
+        <v>6221.141484729619</v>
       </c>
       <c r="B85">
-        <v>25054.11462685117</v>
+        <v>24514.29540383587</v>
       </c>
       <c r="C85">
-        <v>31307.55873122257</v>
+        <v>30735.43688856549</v>
       </c>
       <c r="D85">
-        <v>79792.29586893893</v>
+        <v>79246.50348430751</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21640.51014665642</v>
+        <v>21646.88041336564</v>
       </c>
       <c r="G85">
-        <v>58151.78572228252</v>
+        <v>57599.62307094188</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1923168.606489766</v>
+        <v>1923164.064984574</v>
       </c>
       <c r="K85">
-        <v>38033.70525214389</v>
+        <v>38034.34806697549</v>
       </c>
       <c r="L85">
-        <v>53405</v>
+        <v>52790</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>17735.58184484507</v>
+        <v>17894.57992505965</v>
       </c>
       <c r="B86">
-        <v>71072.12573427847</v>
+        <v>69930.69541592074</v>
       </c>
       <c r="C86">
-        <v>88807.70757912354</v>
+        <v>87825.2753409804</v>
       </c>
       <c r="D86">
-        <v>228826.8369351281</v>
+        <v>236051.2314155719</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>62902.02070465579</v>
+        <v>63399.78114275176</v>
       </c>
       <c r="G86">
-        <v>165924.8162304724</v>
+        <v>172651.4502728201</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5655431.018906765</v>
+        <v>5655501.909258914</v>
       </c>
       <c r="K86">
-        <v>111847.0535859293</v>
+        <v>111846.8546607451</v>
       </c>
       <c r="L86">
-        <v>157440</v>
+        <v>154793</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10515.07883273276</v>
+        <v>10439.21930114926</v>
       </c>
       <c r="B87">
-        <v>42464.17533482728</v>
+        <v>42008.23758595825</v>
       </c>
       <c r="C87">
-        <v>52979.25416756004</v>
+        <v>52447.4568871075</v>
       </c>
       <c r="D87">
-        <v>140430.300318649</v>
+        <v>137311.4192504161</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>37746.22507858234</v>
+        <v>36713.48432454156</v>
       </c>
       <c r="G87">
-        <v>102684.0752400667</v>
+        <v>100597.9349258745</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>3385466.327292286</v>
+        <v>3385563.105929609</v>
       </c>
       <c r="K87">
-        <v>66953.14425535477</v>
+        <v>66952.83836902828</v>
       </c>
       <c r="L87">
-        <v>94170</v>
+        <v>92767</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>14287.98788882613</v>
+        <v>14212.88739294187</v>
       </c>
       <c r="B88">
-        <v>57157.57278787407</v>
+        <v>56030.03985139578</v>
       </c>
       <c r="C88">
-        <v>71445.5606767002</v>
+        <v>70242.92724433765</v>
       </c>
       <c r="D88">
-        <v>185026.735867504</v>
+        <v>179175.1909701068</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>49889.92445687904</v>
+        <v>48764.10021084652</v>
       </c>
       <c r="G88">
-        <v>135136.811410625</v>
+        <v>130411.0907592603</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>4415501.839562109</v>
+        <v>4416332.887409559</v>
       </c>
       <c r="K88">
-        <v>87331.75069389195</v>
+        <v>87332.09251411601</v>
       </c>
       <c r="L88">
-        <v>122760</v>
+        <v>120929</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10569.82500063717</v>
+        <v>11010.1933753275</v>
       </c>
       <c r="B89">
-        <v>42361.78710386589</v>
+        <v>42649.03719978211</v>
       </c>
       <c r="C89">
-        <v>52931.61210450306</v>
+        <v>53659.2305751096</v>
       </c>
       <c r="D89">
-        <v>138579.5996000395</v>
+        <v>138834.52972376</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>37292.30234837016</v>
+        <v>37070.01189800593</v>
       </c>
       <c r="G89">
-        <v>101287.2972516694</v>
+        <v>101764.517825754</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3343165.967308504</v>
+        <v>3342607.328226091</v>
       </c>
       <c r="K89">
-        <v>66111.22509057676</v>
+        <v>66111.02772464258</v>
       </c>
       <c r="L89">
-        <v>92981</v>
+        <v>91702</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7769.012128918745</v>
+        <v>7721.668895181642</v>
       </c>
       <c r="B90">
-        <v>32172.5318985521</v>
+        <v>30937.66276678554</v>
       </c>
       <c r="C90">
-        <v>39941.54402747085</v>
+        <v>38659.33166196718</v>
       </c>
       <c r="D90">
-        <v>99256.36457080343</v>
+        <v>101796.2191768023</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>26983.01836874674</v>
+        <v>27948.26655205119</v>
       </c>
       <c r="G90">
-        <v>72273.34620205668</v>
+        <v>73847.95262475108</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2439646.90660449</v>
+        <v>2439198.488343992</v>
       </c>
       <c r="K90">
-        <v>48244.05380746292</v>
+        <v>48243.68752678786</v>
       </c>
       <c r="L90">
-        <v>67833</v>
+        <v>66791</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8715.523874797545</v>
+        <v>8148.571604625899</v>
       </c>
       <c r="B91">
-        <v>34809.75555926003</v>
+        <v>33771.14612903702</v>
       </c>
       <c r="C91">
-        <v>43525.27943405757</v>
+        <v>41919.71773366292</v>
       </c>
       <c r="D91">
-        <v>109747.1913042034</v>
+        <v>108763.5032014682</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29717.61378194588</v>
+        <v>29360.7789033523</v>
       </c>
       <c r="G91">
-        <v>80029.57752225752</v>
+        <v>79402.72429811588</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>2649050.931971458</v>
+        <v>2648848.079145471</v>
       </c>
       <c r="K91">
-        <v>52389.17778589333</v>
+        <v>52389.01645779439</v>
       </c>
       <c r="L91">
-        <v>73741</v>
+        <v>72427</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6184.445663477529</v>
+        <v>6209.60283324887</v>
       </c>
       <c r="B92">
-        <v>25353.92327701671</v>
+        <v>24743.4533952517</v>
       </c>
       <c r="C92">
-        <v>31538.36894049424</v>
+        <v>30953.05622850057</v>
       </c>
       <c r="D92">
-        <v>81341.97159618081</v>
+        <v>80569.351662214</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22093.6884397182</v>
+        <v>21958.38435847166</v>
       </c>
       <c r="G92">
-        <v>59248.28315646261</v>
+        <v>58610.96730374234</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1985050.809334092</v>
+        <v>1985142.028185391</v>
       </c>
       <c r="K92">
-        <v>39255.90156136184</v>
+        <v>39256.32266639176</v>
       </c>
       <c r="L92">
-        <v>55191</v>
+        <v>54421</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3642.282683460333</v>
+        <v>3827.597032835222</v>
       </c>
       <c r="B93">
-        <v>15326.98557471951</v>
+        <v>14952.52565015558</v>
       </c>
       <c r="C93">
-        <v>18969.26825817984</v>
+        <v>18780.1226829908</v>
       </c>
       <c r="D93">
-        <v>49168.67241005026</v>
+        <v>48818.27063987096</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>49168.67241005026</v>
+        <v>48818.27063987096</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1186223.011480944</v>
+        <v>1186279.56709381</v>
       </c>
       <c r="K93">
-        <v>23460.80900243096</v>
+        <v>23460.88256266991</v>
       </c>
       <c r="L93">
-        <v>33478</v>
+        <v>32931</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1630.618409750775</v>
+        <v>1654.445079610225</v>
       </c>
       <c r="B94">
-        <v>6633.447564816098</v>
+        <v>6635.95753300326</v>
       </c>
       <c r="C94">
-        <v>8264.065974566873</v>
+        <v>8290.402612613485</v>
       </c>
       <c r="D94">
-        <v>21737.73860081827</v>
+        <v>20793.33908390698</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5842.310136582515</v>
+        <v>5566.048928090828</v>
       </c>
       <c r="G94">
-        <v>15895.42846423575</v>
+        <v>15227.29015581615</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>510363.2096809818</v>
+        <v>510324.6150192153</v>
       </c>
       <c r="K94">
-        <v>10092.21360648109</v>
+        <v>10092.3355690411</v>
       </c>
       <c r="L94">
-        <v>14167</v>
+        <v>13979</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1431.1377738464</v>
+        <v>1365.477411518438</v>
       </c>
       <c r="B95">
-        <v>5597.415471464069</v>
+        <v>5672.974687835714</v>
       </c>
       <c r="C95">
-        <v>7028.55324531047</v>
+        <v>7038.452099354152</v>
       </c>
       <c r="D95">
-        <v>18709.27394598881</v>
+        <v>18117.39602297164</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>5070.033712234453</v>
+        <v>4894.633741354942</v>
       </c>
       <c r="G95">
-        <v>13639.24023375435</v>
+        <v>13222.76228161669</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>442183.0952637101</v>
+        <v>442204.5420278465</v>
       </c>
       <c r="K95">
-        <v>8744.691503832813</v>
+        <v>8745.041004903502</v>
       </c>
       <c r="L95">
-        <v>12284</v>
+        <v>12119</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1628.899620213386</v>
+        <v>1648.986928195801</v>
       </c>
       <c r="B96">
-        <v>6424.617216732112</v>
+        <v>6588.140248572377</v>
       </c>
       <c r="C96">
-        <v>8053.516836945498</v>
+        <v>8237.127176768177</v>
       </c>
       <c r="D96">
-        <v>21344.30146791833</v>
+        <v>22010.87146546741</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5810.188604553476</v>
+        <v>5897.412581303963</v>
       </c>
       <c r="G96">
-        <v>15534.11286336486</v>
+        <v>16113.45888416345</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>511040.3754386819</v>
+        <v>511048.9014264666</v>
       </c>
       <c r="K96">
-        <v>10106.75020522512</v>
+        <v>10106.68004095101</v>
       </c>
       <c r="L96">
-        <v>14194</v>
+        <v>14015</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>971.8906210772462</v>
+        <v>1008.579863255801</v>
       </c>
       <c r="B97">
-        <v>3886.786246716019</v>
+        <v>4028.904536171</v>
       </c>
       <c r="C97">
-        <v>4858.676867793266</v>
+        <v>5037.484399426801</v>
       </c>
       <c r="D97">
-        <v>13086.9953415102</v>
+        <v>13397.42306742587</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3549.590139911838</v>
+        <v>3611.655254667052</v>
       </c>
       <c r="G97">
-        <v>9537.405201598358</v>
+        <v>9785.767812758821</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>313430.9389456948</v>
+        <v>313464.460114111</v>
       </c>
       <c r="K97">
-        <v>6198.743468421589</v>
+        <v>6198.883063176339</v>
       </c>
       <c r="L97">
-        <v>8715</v>
+        <v>8577</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>533.8194240739283</v>
+        <v>541.90714310893</v>
       </c>
       <c r="B98">
-        <v>3814.912404134158</v>
+        <v>3781.459710622722</v>
       </c>
       <c r="C98">
-        <v>4348.731828208087</v>
+        <v>4323.366853731653</v>
       </c>
       <c r="D98">
-        <v>29280.38446878571</v>
+        <v>28824.03527418803</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>29280.38446878571</v>
+        <v>28824.03527418803</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>279541.4662088874</v>
+        <v>279533.1269241634</v>
       </c>
       <c r="K98">
-        <v>6606.929283924521</v>
+        <v>6606.827487167158</v>
       </c>
       <c r="L98">
-        <v>9212</v>
+        <v>9167</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>729.4930546015864</v>
+        <v>748.0897807026419</v>
       </c>
       <c r="B99">
-        <v>5392.581678091001</v>
+        <v>5291.153755905167</v>
       </c>
       <c r="C99">
-        <v>6122.074732692588</v>
+        <v>6039.243536607809</v>
       </c>
       <c r="D99">
-        <v>40801.47592291248</v>
+        <v>41513.13465008557</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>40801.47592291248</v>
+        <v>41513.13465008557</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>396857.6461448973</v>
+        <v>397225.9005420883</v>
       </c>
       <c r="K99">
-        <v>9384.886394400019</v>
+        <v>9384.928287024919</v>
       </c>
       <c r="L99">
-        <v>13089</v>
+        <v>13012</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5603.333837833288</v>
+        <v>5476.655830601396</v>
       </c>
       <c r="B100">
-        <v>40207.7195440455</v>
+        <v>38766.49626376086</v>
       </c>
       <c r="C100">
-        <v>45811.0533818788</v>
+        <v>44243.15209436226</v>
       </c>
       <c r="D100">
-        <v>296761.8316676648</v>
+        <v>304691.9420034958</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>296761.8316676648</v>
+        <v>304691.9420034958</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2906529.442066011</v>
+        <v>2905744.354790874</v>
       </c>
       <c r="K100">
-        <v>68687.33877028446</v>
+        <v>68687.20203485758</v>
       </c>
       <c r="L100">
-        <v>95796</v>
+        <v>95322</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>161.7794759724767</v>
+        <v>155.5995846538829</v>
       </c>
       <c r="B101">
-        <v>1147.777089371742</v>
+        <v>1161.517676469009</v>
       </c>
       <c r="C101">
-        <v>1309.556565344219</v>
+        <v>1317.117261122892</v>
       </c>
       <c r="D101">
-        <v>8983.402858639402</v>
+        <v>8903.003872886937</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8983.402858639402</v>
+        <v>8903.003872886937</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>85639.30853589339</v>
+        <v>85628.93502988889</v>
       </c>
       <c r="K101">
-        <v>2023.756984059065</v>
+        <v>2023.957798931614</v>
       </c>
       <c r="L101">
-        <v>2824</v>
+        <v>2810</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1918.703416173278</v>
+        <v>1908.779309898269</v>
       </c>
       <c r="B102">
-        <v>14548.89994023465</v>
+        <v>13922.98784841201</v>
       </c>
       <c r="C102">
-        <v>16467.60335640793</v>
+        <v>15831.76715831027</v>
       </c>
       <c r="D102">
-        <v>107424.7850348982</v>
+        <v>110207.2176402769</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6657.730117254329</v>
+        <v>6858.05682254602</v>
       </c>
       <c r="G102">
-        <v>100767.0549176439</v>
+        <v>103349.1608177309</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1046023.609654207</v>
+        <v>1046150.275266217</v>
       </c>
       <c r="K102">
-        <v>24733.90762534885</v>
+        <v>24733.84610644189</v>
       </c>
       <c r="L102">
-        <v>34155</v>
+        <v>33977</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1526.362321301803</v>
+        <v>1490.207440267312</v>
       </c>
       <c r="B103">
-        <v>10609.48519423431</v>
+        <v>10543.08428147907</v>
       </c>
       <c r="C103">
-        <v>12135.84751553611</v>
+        <v>12033.29172174638</v>
       </c>
       <c r="D103">
-        <v>80524.09347611429</v>
+        <v>79453.7995506545</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5064.080390796748</v>
+        <v>4824.647780965273</v>
       </c>
       <c r="G103">
-        <v>75460.01308531754</v>
+        <v>74629.15176968923</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>781265.5914798649</v>
+        <v>781501.4827918522</v>
       </c>
       <c r="K103">
-        <v>18475.08684041863</v>
+        <v>18475.0024492455</v>
       </c>
       <c r="L103">
-        <v>25556</v>
+        <v>25387</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4586.877374753614</v>
+        <v>4652.563975181435</v>
       </c>
       <c r="B104">
-        <v>33299.77308421388</v>
+        <v>34598.05739496585</v>
       </c>
       <c r="C104">
-        <v>37886.6504589675</v>
+        <v>39250.62137014729</v>
       </c>
       <c r="D104">
-        <v>253575.9544199314</v>
+        <v>257056.3418146633</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>16050.15616643655</v>
+        <v>16022.6155130674</v>
       </c>
       <c r="G104">
-        <v>237525.7982534948</v>
+        <v>241033.7263015959</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2474930.220488224</v>
+        <v>2476892.899949363</v>
       </c>
       <c r="K104">
-        <v>58536.11415229982</v>
+        <v>58535.73594347661</v>
       </c>
       <c r="L104">
-        <v>80848</v>
+        <v>80582</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>8148.479462451493</v>
+        <v>8225.473958007022</v>
       </c>
       <c r="B105">
-        <v>57421.44860839917</v>
+        <v>58164.94127603219</v>
       </c>
       <c r="C105">
-        <v>65569.92807085066</v>
+        <v>66390.41523403922</v>
       </c>
       <c r="D105">
-        <v>453934.9342619387</v>
+        <v>462680.5243122999</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>27685.61474017598</v>
+        <v>27467.01441261968</v>
       </c>
       <c r="G105">
-        <v>426249.3195217628</v>
+        <v>435213.5098996802</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4357242.794184092</v>
+        <v>4356004.577298852</v>
       </c>
       <c r="K105">
-        <v>102959.6554159815</v>
+        <v>102960.1031164312</v>
       </c>
       <c r="L105">
-        <v>142460</v>
+        <v>141502</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6723.620624907286</v>
+        <v>6855.464220755047</v>
       </c>
       <c r="B106">
-        <v>49750.64144331966</v>
+        <v>49087.77646704516</v>
       </c>
       <c r="C106">
-        <v>56474.26206822695</v>
+        <v>55943.2406878002</v>
       </c>
       <c r="D106">
-        <v>374379.1628857615</v>
+        <v>363629.8835634012</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23903.0074131457</v>
+        <v>22804.90646094216</v>
       </c>
       <c r="G106">
-        <v>350476.1554726158</v>
+        <v>340824.977102459</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3630383.302641139</v>
+        <v>3632009.647478022</v>
       </c>
       <c r="K106">
-        <v>85834.35639261545</v>
+        <v>85833.75873172909</v>
       </c>
       <c r="L106">
-        <v>118561</v>
+        <v>118073</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7128.883327835518</v>
+        <v>7236.670964387625</v>
       </c>
       <c r="B107">
-        <v>50753.0066716181</v>
+        <v>52155.22759627219</v>
       </c>
       <c r="C107">
-        <v>57881.88999945361</v>
+        <v>59391.89856065981</v>
       </c>
       <c r="D107">
-        <v>390704.1141249454</v>
+        <v>396030.9273496944</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>23858.44342387966</v>
+        <v>24618.52943120913</v>
       </c>
       <c r="G107">
-        <v>366845.6707010657</v>
+        <v>371412.3979184853</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3803673.338078552</v>
+        <v>3803109.247304941</v>
       </c>
       <c r="K107">
-        <v>89900.15987573129</v>
+        <v>89899.97815406509</v>
       </c>
       <c r="L107">
-        <v>124291</v>
+        <v>123534</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3336.822035726003</v>
+        <v>3378.824333409264</v>
       </c>
       <c r="B108">
-        <v>24072.10086971659</v>
+        <v>23988.89803485131</v>
       </c>
       <c r="C108">
-        <v>27408.9229054426</v>
+        <v>27367.72236826057</v>
       </c>
       <c r="D108">
-        <v>183583.0515043436</v>
+        <v>188731.434006301</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11323.06660150864</v>
+        <v>12181.99923839475</v>
       </c>
       <c r="G108">
-        <v>172259.984902835</v>
+        <v>176549.4347679063</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1802102.234872804</v>
+        <v>1801784.08176169</v>
       </c>
       <c r="K108">
-        <v>42603.7953445781</v>
+        <v>42604.23354680958</v>
       </c>
       <c r="L108">
-        <v>58869</v>
+        <v>58579</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>4979.17173466018</v>
+        <v>5216.231522503127</v>
       </c>
       <c r="B109">
-        <v>37542.65896432481</v>
+        <v>38107.41076621533</v>
       </c>
       <c r="C109">
-        <v>42521.83069898499</v>
+        <v>43323.64228871846</v>
       </c>
       <c r="D109">
-        <v>295012.1633418488</v>
+        <v>295613.3988833436</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>18583.31447756679</v>
+        <v>18569.37457944583</v>
       </c>
       <c r="G109">
-        <v>276428.848864282</v>
+        <v>277044.0243038977</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2808442.702270594</v>
+        <v>2807013.243081531</v>
       </c>
       <c r="K109">
-        <v>66364.85143872019</v>
+        <v>66365.36250196726</v>
       </c>
       <c r="L109">
-        <v>91659</v>
+        <v>91228</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5326.455590583558</v>
+        <v>5173.933842531196</v>
       </c>
       <c r="B110">
-        <v>36862.83144041689</v>
+        <v>37348.1824122197</v>
       </c>
       <c r="C110">
-        <v>42189.28703100044</v>
+        <v>42522.11625475089</v>
       </c>
       <c r="D110">
-        <v>281844.8438834747</v>
+        <v>276813.4458628343</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17646.20011891738</v>
+        <v>17175.18517547409</v>
       </c>
       <c r="G110">
-        <v>264198.6437645574</v>
+        <v>259638.2606873602</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2699998.516316064</v>
+        <v>2699825.532229387</v>
       </c>
       <c r="K110">
-        <v>63796.03192755461</v>
+        <v>63795.8703237033</v>
       </c>
       <c r="L110">
-        <v>88109</v>
+        <v>87762</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17122.97458772589</v>
+        <v>16225.45372666705</v>
       </c>
       <c r="B111">
-        <v>121296.9833926358</v>
+        <v>122223.0330011163</v>
       </c>
       <c r="C111">
-        <v>138419.9579803617</v>
+        <v>138448.4867277833</v>
       </c>
       <c r="D111">
-        <v>946326.6149231937</v>
+        <v>927695.6709298324</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>60053.77344835238</v>
+        <v>58317.75283789932</v>
       </c>
       <c r="G111">
-        <v>886272.8414748413</v>
+        <v>869377.918091933</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>9068771.003361994</v>
+        <v>9068238.37431333</v>
       </c>
       <c r="K111">
-        <v>214313.3120933011</v>
+        <v>214313.3054862709</v>
       </c>
       <c r="L111">
-        <v>295927</v>
+        <v>294728</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>542.6799495664623</v>
+        <v>550.1745129691003</v>
       </c>
       <c r="B112">
-        <v>3981.828351456173</v>
+        <v>3972.354123378062</v>
       </c>
       <c r="C112">
-        <v>4524.508301022634</v>
+        <v>4522.528636347163</v>
       </c>
       <c r="D112">
-        <v>30497.17179865719</v>
+        <v>31202.38363828881</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1891.808654027383</v>
+        <v>1913.42003422894</v>
       </c>
       <c r="G112">
-        <v>28605.36314462981</v>
+        <v>29288.96360405987</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>296297.8485430746</v>
+        <v>296272.1982324218</v>
       </c>
       <c r="K112">
-        <v>7006.361441749767</v>
+        <v>7005.908286622288</v>
       </c>
       <c r="L112">
-        <v>9682</v>
+        <v>9630</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>130.3054114928581</v>
+        <v>140.153668469759</v>
       </c>
       <c r="B113">
-        <v>965.4916721950216</v>
+        <v>1009.122006735263</v>
       </c>
       <c r="C113">
-        <v>1095.79708368788</v>
+        <v>1149.275675205022</v>
       </c>
       <c r="D113">
-        <v>7573.879079125545</v>
+        <v>7563.69117385763</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>471.720148982878</v>
+        <v>456.412287239047</v>
       </c>
       <c r="G113">
-        <v>7102.158930142667</v>
+        <v>7107.278886618583</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>72758.58758851976</v>
+        <v>72745.8114120465</v>
       </c>
       <c r="K113">
-        <v>1719.098097265288</v>
+        <v>1719.318440357362</v>
       </c>
       <c r="L113">
-        <v>2375</v>
+        <v>2365</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1226.348395279537</v>
+        <v>1134.649115546732</v>
       </c>
       <c r="B114">
-        <v>8463.830145233132</v>
+        <v>8543.118530107133</v>
       </c>
       <c r="C114">
-        <v>9690.17854051267</v>
+        <v>9677.767645653865</v>
       </c>
       <c r="D114">
-        <v>66483.75839661436</v>
+        <v>66510.95165873446</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4191.07120079508</v>
+        <v>4229.222180375597</v>
       </c>
       <c r="G114">
-        <v>62292.68719581928</v>
+        <v>62281.72947835886</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>635562.3387037843</v>
+        <v>635042.3113169371</v>
       </c>
       <c r="K114">
-        <v>15018.92447395712</v>
+        <v>15018.87341332716</v>
       </c>
       <c r="L114">
-        <v>20741</v>
+        <v>20674</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>106.9480006759257</v>
+        <v>106.2112688778025</v>
       </c>
       <c r="B115">
-        <v>783.081788504498</v>
+        <v>785.1110683706013</v>
       </c>
       <c r="C115">
-        <v>890.0297891804238</v>
+        <v>891.3223372484039</v>
       </c>
       <c r="D115">
-        <v>6100.863799377858</v>
+        <v>6020.148502085834</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>378.8508901287615</v>
+        <v>375.9879300884977</v>
       </c>
       <c r="G115">
-        <v>5722.012909249097</v>
+        <v>5644.160571997337</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>58541.54352684997</v>
+        <v>58500.10301332166</v>
       </c>
       <c r="K115">
-        <v>1383.120843932423</v>
+        <v>1383.139643801956</v>
       </c>
       <c r="L115">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1495.765878719104</v>
+        <v>1468.181286664022</v>
       </c>
       <c r="B116">
-        <v>8631.642013787759</v>
+        <v>8697.45745698527</v>
       </c>
       <c r="C116">
-        <v>10127.40789250686</v>
+        <v>10165.63874364929</v>
       </c>
       <c r="D116">
-        <v>20900.46778486612</v>
+        <v>21521.57991163172</v>
       </c>
       <c r="E116">
-        <v>1109.542823087495</v>
+        <v>1036.648802576554</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>20900.46778486612</v>
+        <v>21521.57991163172</v>
       </c>
       <c r="H116">
-        <v>870.9649307682515</v>
+        <v>820.7374294724565</v>
       </c>
       <c r="I116">
-        <v>238.5778923192431</v>
+        <v>215.9113731040979</v>
       </c>
       <c r="J116">
-        <v>415218.4147049223</v>
+        <v>415186.6060302157</v>
       </c>
       <c r="K116">
-        <v>10097.79073818204</v>
+        <v>10098.05806519694</v>
       </c>
       <c r="L116">
-        <v>14225</v>
+        <v>14109</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>894.5021048571534</v>
+        <v>894.8220619083635</v>
       </c>
       <c r="B117">
-        <v>5230.521314087424</v>
+        <v>5161.678755614381</v>
       </c>
       <c r="C117">
-        <v>6125.023418944577</v>
+        <v>6056.500817522744</v>
       </c>
       <c r="D117">
-        <v>13645.57878014611</v>
+        <v>13481.04114680571</v>
       </c>
       <c r="E117">
-        <v>636.2259456966617</v>
+        <v>649.0918643822978</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>13645.57878014611</v>
+        <v>13481.04114680571</v>
       </c>
       <c r="H117">
-        <v>506.0404696429526</v>
+        <v>513.1067085971724</v>
       </c>
       <c r="I117">
-        <v>130.185476053709</v>
+        <v>135.9851557851253</v>
       </c>
       <c r="J117">
-        <v>252716.6177791388</v>
+        <v>252623.5672960506</v>
       </c>
       <c r="K117">
-        <v>6148.225924283616</v>
+        <v>6148.210648291566</v>
       </c>
       <c r="L117">
-        <v>8655</v>
+        <v>8590</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2172.308962955069</v>
+        <v>2136.287554099466</v>
       </c>
       <c r="B118">
-        <v>12889.6362158272</v>
+        <v>13010.93003153768</v>
       </c>
       <c r="C118">
-        <v>15061.94517878227</v>
+        <v>15147.21758563715</v>
       </c>
       <c r="D118">
-        <v>32156.79769569167</v>
+        <v>32337.80214268657</v>
       </c>
       <c r="E118">
-        <v>1507.360283516818</v>
+        <v>1677.458821125902</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>32156.79769569167</v>
+        <v>32337.80214268657</v>
       </c>
       <c r="H118">
-        <v>1203.621262755553</v>
+        <v>1333.894538634371</v>
       </c>
       <c r="I118">
-        <v>303.7390207612653</v>
+        <v>343.5642824915311</v>
       </c>
       <c r="J118">
-        <v>617343.5622680236</v>
+        <v>617693.1496280993</v>
       </c>
       <c r="K118">
-        <v>15020.92949638402</v>
+        <v>15020.87648744905</v>
       </c>
       <c r="L118">
-        <v>21147</v>
+        <v>21003</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>7783.218815632959</v>
+        <v>7675.54932674679</v>
       </c>
       <c r="B119">
-        <v>46545.08093232354</v>
+        <v>46225.60627115242</v>
       </c>
       <c r="C119">
-        <v>54328.2997479565</v>
+        <v>53901.15559789921</v>
       </c>
       <c r="D119">
-        <v>119322.0506533875</v>
+        <v>115709.3078081413</v>
       </c>
       <c r="E119">
-        <v>5645.945462418131</v>
+        <v>5572.156039765687</v>
       </c>
       <c r="F119">
-        <v>16992.93543384702</v>
+        <v>17130.59980845234</v>
       </c>
       <c r="G119">
-        <v>102329.1152195405</v>
+        <v>98578.70799968898</v>
       </c>
       <c r="H119">
-        <v>4499.831092171184</v>
+        <v>4404.477521926928</v>
       </c>
       <c r="I119">
-        <v>1146.114370246948</v>
+        <v>1167.678517838759</v>
       </c>
       <c r="J119">
-        <v>2255613.045365016</v>
+        <v>2255024.906173582</v>
       </c>
       <c r="K119">
-        <v>54874.13793525389</v>
+        <v>54873.85580139931</v>
       </c>
       <c r="L119">
-        <v>76770</v>
+        <v>76037</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12499.40029670033</v>
+        <v>12512.9381173084</v>
       </c>
       <c r="B120">
-        <v>73030.87660855758</v>
+        <v>71626.92984901073</v>
       </c>
       <c r="C120">
-        <v>85530.27690525791</v>
+        <v>84139.86796631913</v>
       </c>
       <c r="D120">
-        <v>184610.7788111414</v>
+        <v>180858.1190810389</v>
       </c>
       <c r="E120">
-        <v>9219.928140423817</v>
+        <v>9258.7850169946</v>
       </c>
       <c r="F120">
-        <v>26227.09427190726</v>
+        <v>27079.1174037135</v>
       </c>
       <c r="G120">
-        <v>158383.6845392341</v>
+        <v>153779.0016773254</v>
       </c>
       <c r="H120">
-        <v>7115.982127957194</v>
+        <v>7375.358009932608</v>
       </c>
       <c r="I120">
-        <v>2103.946012466622</v>
+        <v>1883.427007061993</v>
       </c>
       <c r="J120">
-        <v>3471363.996786503</v>
+        <v>3471279.9278957</v>
       </c>
       <c r="K120">
-        <v>84457.89292372858</v>
+        <v>84457.87677119111</v>
       </c>
       <c r="L120">
-        <v>117960</v>
+        <v>116926</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7104.891181297539</v>
+        <v>7525.052164653507</v>
       </c>
       <c r="B121">
-        <v>42307.5112325113</v>
+        <v>41956.96191206962</v>
       </c>
       <c r="C121">
-        <v>49412.40241380884</v>
+        <v>49482.01407672314</v>
       </c>
       <c r="D121">
-        <v>105812.3155954966</v>
+        <v>110149.169170574</v>
       </c>
       <c r="E121">
-        <v>5163.082046014549</v>
+        <v>5062.788118134574</v>
       </c>
       <c r="F121">
-        <v>15344.80189683995</v>
+        <v>16010.6016532321</v>
       </c>
       <c r="G121">
-        <v>90467.51369865661</v>
+        <v>94138.56751734184</v>
       </c>
       <c r="H121">
-        <v>4045.431380504682</v>
+        <v>3951.521305602576</v>
       </c>
       <c r="I121">
-        <v>1117.650665509866</v>
+        <v>1111.266812531998</v>
       </c>
       <c r="J121">
-        <v>2058321.07926905</v>
+        <v>2058092.19323273</v>
       </c>
       <c r="K121">
-        <v>50092.8565968908</v>
+        <v>50093.02895162043</v>
       </c>
       <c r="L121">
-        <v>70000</v>
+        <v>69426</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>19611.75812123298</v>
+        <v>19205.92472616769</v>
       </c>
       <c r="B122">
-        <v>116496.7278822118</v>
+        <v>113802.6855306941</v>
       </c>
       <c r="C122">
-        <v>136108.4860034448</v>
+        <v>133008.6102568618</v>
       </c>
       <c r="D122">
-        <v>271103.7267245519</v>
+        <v>276239.5940282922</v>
       </c>
       <c r="E122">
-        <v>14743.86789110135</v>
+        <v>13113.00691217623</v>
       </c>
       <c r="F122">
-        <v>39615.25203458623</v>
+        <v>40164.68937944735</v>
       </c>
       <c r="G122">
-        <v>231488.4746899657</v>
+        <v>236074.9046488449</v>
       </c>
       <c r="H122">
-        <v>11754.77422460193</v>
+        <v>10481.91455836578</v>
       </c>
       <c r="I122">
-        <v>2989.093666499416</v>
+        <v>2631.092353810451</v>
       </c>
       <c r="J122">
-        <v>5383095.297602908</v>
+        <v>5383332.828770802</v>
       </c>
       <c r="K122">
-        <v>131016.3442910513</v>
+        <v>131015.7845506912</v>
       </c>
       <c r="L122">
-        <v>182781</v>
+        <v>181647</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>36781.82963076311</v>
+        <v>33754.22325417159</v>
       </c>
       <c r="B123">
-        <v>208129.3502551317</v>
+        <v>199028.9636802668</v>
       </c>
       <c r="C123">
-        <v>244911.1798858948</v>
+        <v>232783.1869344384</v>
       </c>
       <c r="D123">
-        <v>513639.3095909012</v>
+        <v>508189.0366038191</v>
       </c>
       <c r="E123">
-        <v>24185.74735019567</v>
+        <v>25821.91587743997</v>
       </c>
       <c r="F123">
-        <v>73655.54235534655</v>
+        <v>72911.27555830918</v>
       </c>
       <c r="G123">
-        <v>439983.7672355547</v>
+        <v>435277.7610455099</v>
       </c>
       <c r="H123">
-        <v>18810.13611655853</v>
+        <v>20352.51095131371</v>
       </c>
       <c r="I123">
-        <v>5375.611233637151</v>
+        <v>5469.404926126258</v>
       </c>
       <c r="J123">
-        <v>9800363.678711312</v>
+        <v>9800482.302929845</v>
       </c>
       <c r="K123">
-        <v>238430.6878661475</v>
+        <v>238430.7001607291</v>
       </c>
       <c r="L123">
-        <v>332815</v>
+        <v>330078</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>23995.01994956651</v>
+        <v>25077.0920331241</v>
       </c>
       <c r="B124">
-        <v>143239.6500765431</v>
+        <v>145085.6725074619</v>
       </c>
       <c r="C124">
-        <v>167234.6700261096</v>
+        <v>170162.764540586</v>
       </c>
       <c r="D124">
-        <v>359034.8583372417</v>
+        <v>368569.7845795961</v>
       </c>
       <c r="E124">
-        <v>17179.91702711554</v>
+        <v>15339.11170122168</v>
       </c>
       <c r="F124">
-        <v>52999.9841549691</v>
+        <v>53355.23654861495</v>
       </c>
       <c r="G124">
-        <v>306034.8741822726</v>
+        <v>315214.5480309812</v>
       </c>
       <c r="H124">
-        <v>13526.6207870149</v>
+        <v>12414.69460295554</v>
       </c>
       <c r="I124">
-        <v>3653.296240100632</v>
+        <v>2924.417098266148</v>
       </c>
       <c r="J124">
-        <v>6875165.366615069</v>
+        <v>6881805.87819162</v>
       </c>
       <c r="K124">
-        <v>167395.8314023389</v>
+        <v>167395.7990639403</v>
       </c>
       <c r="L124">
-        <v>233747</v>
+        <v>231320</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13858.15502538913</v>
+        <v>13604.09697490469</v>
       </c>
       <c r="B125">
-        <v>80058.60232583083</v>
+        <v>79457.43848872265</v>
       </c>
       <c r="C125">
-        <v>93916.75735121996</v>
+        <v>93061.53546362734</v>
       </c>
       <c r="D125">
-        <v>195012.0658501812</v>
+        <v>201755.3113266561</v>
       </c>
       <c r="E125">
-        <v>9951.895349470173</v>
+        <v>9953.287225092783</v>
       </c>
       <c r="F125">
-        <v>28401.14125363058</v>
+        <v>29652.00093765928</v>
       </c>
       <c r="G125">
-        <v>166610.9245965506</v>
+        <v>172103.3103889968</v>
       </c>
       <c r="H125">
-        <v>7698.087344733758</v>
+        <v>7909.112285073043</v>
       </c>
       <c r="I125">
-        <v>2253.808004736416</v>
+        <v>2044.17494001974</v>
       </c>
       <c r="J125">
-        <v>3838498.040210014</v>
+        <v>3837399.21369088</v>
       </c>
       <c r="K125">
-        <v>93371.70543027685</v>
+        <v>93371.67599674348</v>
       </c>
       <c r="L125">
-        <v>130285</v>
+        <v>129237</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10841.33088245828</v>
+        <v>10655.18350788952</v>
       </c>
       <c r="B126">
-        <v>61869.99749999017</v>
+        <v>62241.14446835234</v>
       </c>
       <c r="C126">
-        <v>72711.32838244845</v>
+        <v>72896.32797624187</v>
       </c>
       <c r="D126">
-        <v>157228.7230675473</v>
+        <v>155492.2167921341</v>
       </c>
       <c r="E126">
-        <v>7523.28636240334</v>
+        <v>7383.092723410231</v>
       </c>
       <c r="F126">
-        <v>23089.01952858616</v>
+        <v>22289.31557541381</v>
       </c>
       <c r="G126">
-        <v>134139.7035389611</v>
+        <v>133202.9012167203</v>
       </c>
       <c r="H126">
-        <v>5935.942404092976</v>
+        <v>5853.089300433119</v>
       </c>
       <c r="I126">
-        <v>1587.343958310364</v>
+        <v>1530.003422977111</v>
       </c>
       <c r="J126">
-        <v>3012699.232532756</v>
+        <v>3010688.051781225</v>
       </c>
       <c r="K126">
-        <v>73290.19608866636</v>
+        <v>73290.19656284504</v>
       </c>
       <c r="L126">
-        <v>102342</v>
+        <v>101563</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18521.12339526141</v>
+        <v>19088.97736919368</v>
       </c>
       <c r="B127">
-        <v>110554.7448777224</v>
+        <v>110250.3664916925</v>
       </c>
       <c r="C127">
-        <v>129075.8682729838</v>
+        <v>129339.3438608862</v>
       </c>
       <c r="D127">
-        <v>274051.8845405384</v>
+        <v>269828.5104498925</v>
       </c>
       <c r="E127">
-        <v>12844.96559530946</v>
+        <v>14024.00700832942</v>
       </c>
       <c r="F127">
-        <v>39166.30301442278</v>
+        <v>39384.59891847322</v>
       </c>
       <c r="G127">
-        <v>234885.5815261156</v>
+        <v>230443.9115314193</v>
       </c>
       <c r="H127">
-        <v>10107.07367970335</v>
+        <v>11109.26196127751</v>
       </c>
       <c r="I127">
-        <v>2737.891915606118</v>
+        <v>2914.745047051912</v>
       </c>
       <c r="J127">
-        <v>5288293.199892119</v>
+        <v>5287824.274460813</v>
       </c>
       <c r="K127">
-        <v>128689.8198038138</v>
+        <v>128689.8694951575</v>
       </c>
       <c r="L127">
-        <v>179825</v>
+        <v>178219</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>34764.26358226909</v>
+        <v>35890.51520078858</v>
       </c>
       <c r="B128">
-        <v>212049.9477795903</v>
+        <v>211799.6521601007</v>
       </c>
       <c r="C128">
-        <v>246814.2113618594</v>
+        <v>247690.1673608892</v>
       </c>
       <c r="D128">
-        <v>535338.2361287366</v>
+        <v>550378.170192318</v>
       </c>
       <c r="E128">
-        <v>27989.1047209314</v>
+        <v>26868.8994607565</v>
       </c>
       <c r="F128">
-        <v>76636.46073062766</v>
+        <v>81027.94926281257</v>
       </c>
       <c r="G128">
-        <v>458701.7753981091</v>
+        <v>469350.2209295054</v>
       </c>
       <c r="H128">
-        <v>22958.19150423444</v>
+        <v>21194.68842404661</v>
       </c>
       <c r="I128">
-        <v>5030.913216696961</v>
+        <v>5674.211036709889</v>
       </c>
       <c r="J128">
-        <v>10228941.91897236</v>
+        <v>10227679.87806717</v>
       </c>
       <c r="K128">
-        <v>248821.9202793601</v>
+        <v>248822.0920998158</v>
       </c>
       <c r="L128">
-        <v>347769</v>
+        <v>344407</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14209.76927422238</v>
+        <v>14338.93980442915</v>
       </c>
       <c r="B129">
-        <v>84406.35104438709</v>
+        <v>85595.42215433685</v>
       </c>
       <c r="C129">
-        <v>98616.12031860946</v>
+        <v>99934.36195876599</v>
       </c>
       <c r="D129">
-        <v>213838.3582891173</v>
+        <v>205900.6864098379</v>
       </c>
       <c r="E129">
-        <v>10490.10649729436</v>
+        <v>10461.73623013406</v>
       </c>
       <c r="F129">
-        <v>31668.56490538107</v>
+        <v>29538.173134604</v>
       </c>
       <c r="G129">
-        <v>182169.7933837362</v>
+        <v>176362.5132752339</v>
       </c>
       <c r="H129">
-        <v>8411.260653131705</v>
+        <v>8343.080160330604</v>
       </c>
       <c r="I129">
-        <v>2078.845844162651</v>
+        <v>2118.656069803457</v>
       </c>
       <c r="J129">
-        <v>4039719.307696808</v>
+        <v>4039032.686848736</v>
       </c>
       <c r="K129">
-        <v>98283.08956083584</v>
+        <v>98283.33529395153</v>
       </c>
       <c r="L129">
-        <v>137283</v>
+        <v>136249</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18725.77963762779</v>
+        <v>18779.93092761424</v>
       </c>
       <c r="B130">
-        <v>109616.1985398107</v>
+        <v>108003.1000499198</v>
       </c>
       <c r="C130">
-        <v>128341.9781774385</v>
+        <v>126783.0309775341</v>
       </c>
       <c r="D130">
-        <v>278304.6825074851</v>
+        <v>264933.29501933</v>
       </c>
       <c r="E130">
-        <v>13319.80151717961</v>
+        <v>13966.67065057078</v>
       </c>
       <c r="F130">
-        <v>40438.05617499269</v>
+        <v>39065.22888003987</v>
       </c>
       <c r="G130">
-        <v>237866.6263324924</v>
+        <v>225868.0661392902</v>
       </c>
       <c r="H130">
-        <v>10543.54566480225</v>
+        <v>11121.26829316451</v>
       </c>
       <c r="I130">
-        <v>2776.255852377363</v>
+        <v>2845.402357406274</v>
       </c>
       <c r="J130">
-        <v>5227434.915157894</v>
+        <v>5228443.97409984</v>
       </c>
       <c r="K130">
-        <v>127198.7503502984</v>
+        <v>127198.9021679712</v>
       </c>
       <c r="L130">
-        <v>177332</v>
+        <v>176349</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>127.1999826327194</v>
+        <v>133.7484316672145</v>
       </c>
       <c r="B131">
-        <v>741.6834408314605</v>
+        <v>776.0230371411873</v>
       </c>
       <c r="C131">
-        <v>868.8834234641799</v>
+        <v>909.7714688084018</v>
       </c>
       <c r="D131">
-        <v>1901.250912112331</v>
+        <v>1947.235723370396</v>
       </c>
       <c r="E131">
-        <v>91.76058614005046</v>
+        <v>95.35832832653156</v>
       </c>
       <c r="F131">
-        <v>275.1357840862447</v>
+        <v>284.6894122456022</v>
       </c>
       <c r="G131">
-        <v>1626.115128026087</v>
+        <v>1662.546311124794</v>
       </c>
       <c r="H131">
-        <v>71.69749648607265</v>
+        <v>75.00605535343247</v>
       </c>
       <c r="I131">
-        <v>20.06308965397782</v>
+        <v>20.35227297309909</v>
       </c>
       <c r="J131">
-        <v>36209.18591484828</v>
+        <v>36231.98339184346</v>
       </c>
       <c r="K131">
-        <v>881.2476734196774</v>
+        <v>881.1192734775724</v>
       </c>
       <c r="L131">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>681.3705525192953</v>
+        <v>698.4468340250759</v>
       </c>
       <c r="B132">
-        <v>3998.88848792964</v>
+        <v>3960.831024627958</v>
       </c>
       <c r="C132">
-        <v>4680.259040448936</v>
+        <v>4659.277858653034</v>
       </c>
       <c r="D132">
-        <v>9872.796061239644</v>
+        <v>9980.680575328388</v>
       </c>
       <c r="E132">
-        <v>502.2144771840707</v>
+        <v>487.0001111206669</v>
       </c>
       <c r="F132">
-        <v>1414.378389986678</v>
+        <v>1442.855759011442</v>
       </c>
       <c r="G132">
-        <v>8458.417671252966</v>
+        <v>8537.824816316946</v>
       </c>
       <c r="H132">
-        <v>392.8381327870168</v>
+        <v>389.4360229312554</v>
       </c>
       <c r="I132">
-        <v>109.3763443970539</v>
+        <v>97.56408818941154</v>
       </c>
       <c r="J132">
-        <v>191030.543016317</v>
+        <v>191128.5654406695</v>
       </c>
       <c r="K132">
-        <v>4648.249200504313</v>
+        <v>4647.878702280806</v>
       </c>
       <c r="L132">
-        <v>6485</v>
+        <v>6432</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>39.43421030871655</v>
+        <v>34.99127697535002</v>
       </c>
       <c r="C133">
-        <v>39.43421030871655</v>
+        <v>34.99127697535002</v>
       </c>
       <c r="D133">
-        <v>6252.892063159354</v>
+        <v>6192.795313642525</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6252.892063159354</v>
+        <v>6192.795313642525</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>174565.2648715653</v>
+        <v>174529.650074504</v>
       </c>
       <c r="K133">
-        <v>1858.017281651624</v>
+        <v>1857.801952752257</v>
       </c>
       <c r="L133">
-        <v>2963</v>
+        <v>2940</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>150.0649297226982</v>
+        <v>147.8244903355347</v>
       </c>
       <c r="C134">
-        <v>150.0649297226982</v>
+        <v>147.8244903355347</v>
       </c>
       <c r="D134">
-        <v>21112.90887949363</v>
+        <v>20709.11626776632</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>21112.90887949363</v>
+        <v>20709.11626776632</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>588883.4431366866</v>
+        <v>588824.0554546501</v>
       </c>
       <c r="K134">
-        <v>6267.892748158134</v>
+        <v>6268.105111970423</v>
       </c>
       <c r="L134">
-        <v>9996</v>
+        <v>9921</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>14.86034125628409</v>
+        <v>16.35259046380311</v>
       </c>
       <c r="C135">
-        <v>14.86034125628409</v>
+        <v>16.35259046380311</v>
       </c>
       <c r="D135">
-        <v>2595.436625569609</v>
+        <v>2532.169278391773</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>87.83794449321471</v>
+        <v>82.53048866928715</v>
       </c>
       <c r="G135">
-        <v>2507.598681076394</v>
+        <v>2449.638789722486</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>71738.0511063102</v>
+        <v>71753.67738243827</v>
       </c>
       <c r="K135">
-        <v>763.8552417524249</v>
+        <v>763.8885274683316</v>
       </c>
       <c r="L135">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>132.2686654352129</v>
+        <v>138.3339257070708</v>
       </c>
       <c r="C136">
-        <v>132.2686654352129</v>
+        <v>138.3339257070708</v>
       </c>
       <c r="D136">
-        <v>23388.26587616755</v>
+        <v>23560.52719873477</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>759.9680311935322</v>
+        <v>796.5904542031727</v>
       </c>
       <c r="G136">
-        <v>22628.29784497402</v>
+        <v>22763.9367445316</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>655049.6837038882</v>
+        <v>655186.5440586065</v>
       </c>
       <c r="K136">
-        <v>6972.091038474084</v>
+        <v>6971.799021415526</v>
       </c>
       <c r="L136">
-        <v>11054</v>
+        <v>10972</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>375.3735665799678</v>
+        <v>368.9538555117931</v>
       </c>
       <c r="C137">
-        <v>375.3735665799678</v>
+        <v>368.9538555117931</v>
       </c>
       <c r="D137">
-        <v>52551.8135395359</v>
+        <v>52637.95921921086</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>52551.8135395359</v>
+        <v>52637.95921921086</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1496200.053158499</v>
+        <v>1496652.692220158</v>
       </c>
       <c r="K137">
-        <v>15929.96919176031</v>
+        <v>15929.91609940512</v>
       </c>
       <c r="L137">
-        <v>25406</v>
+        <v>25213</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>121.3855141039901</v>
+        <v>118.8395863706746</v>
       </c>
       <c r="C138">
-        <v>121.3855141039901</v>
+        <v>118.8395863706746</v>
       </c>
       <c r="D138">
-        <v>19109.15789826</v>
+        <v>19363.61496720248</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19109.15789826</v>
+        <v>19363.61496720248</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>540610.4221282225</v>
+        <v>540629.4781324412</v>
       </c>
       <c r="K138">
-        <v>5753.183003587942</v>
+        <v>5752.931046743208</v>
       </c>
       <c r="L138">
-        <v>9177</v>
+        <v>9104</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>879.8695547912786</v>
+        <v>798.831708649185</v>
       </c>
       <c r="C139">
-        <v>879.8695547912786</v>
+        <v>798.831708649185</v>
       </c>
       <c r="D139">
-        <v>127798.3801282756</v>
+        <v>129315.6611444086</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>127798.3801282756</v>
+        <v>129315.6611444086</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>3622641.824188672</v>
+        <v>3624122.101285523</v>
       </c>
       <c r="K139">
-        <v>38561.26311592908</v>
+        <v>38561.09831074786</v>
       </c>
       <c r="L139">
-        <v>61502</v>
+        <v>61026</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>445.6082882889905</v>
+        <v>433.9624615480619</v>
       </c>
       <c r="C140">
-        <v>445.6082882889905</v>
+        <v>433.9624615480619</v>
       </c>
       <c r="D140">
-        <v>68908.02579612343</v>
+        <v>69593.29212096246</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>68908.02579612343</v>
+        <v>69593.29212096246</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1945699.026088879</v>
+        <v>1946297.36730796</v>
       </c>
       <c r="K140">
-        <v>20708.71499918313</v>
+        <v>20709.01201874731</v>
       </c>
       <c r="L140">
-        <v>33024</v>
+        <v>32774</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>232.3446763376409</v>
+        <v>238.0635673148433</v>
       </c>
       <c r="C141">
-        <v>232.3446763376409</v>
+        <v>238.0635673148433</v>
       </c>
       <c r="D141">
-        <v>36713.73641893805</v>
+        <v>35844.17889633599</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36713.73641893805</v>
+        <v>35844.17889633599</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1026640.603855155</v>
+        <v>1026453.451683737</v>
       </c>
       <c r="K141">
-        <v>10926.76241669466</v>
+        <v>10926.91176192839</v>
       </c>
       <c r="L141">
-        <v>17425</v>
+        <v>17294</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1335.20844227097</v>
+        <v>1129.268052663707</v>
       </c>
       <c r="C142">
-        <v>1335.20844227097</v>
+        <v>1129.268052663707</v>
       </c>
       <c r="D142">
-        <v>191334.1396692491</v>
+        <v>193705.0618130859</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6431.841492744006</v>
+        <v>6209.3455491149</v>
       </c>
       <c r="G142">
-        <v>184902.2981765051</v>
+        <v>187495.716263971</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>5460586.933924653</v>
+        <v>5454704.962161245</v>
       </c>
       <c r="K142">
-        <v>58072.04817761148</v>
+        <v>58071.89373839826</v>
       </c>
       <c r="L142">
-        <v>92131</v>
+        <v>91366</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>451.4226908326693</v>
+        <v>448.7518980034757</v>
       </c>
       <c r="C143">
-        <v>451.4226908326693</v>
+        <v>448.7518980034757</v>
       </c>
       <c r="D143">
-        <v>76256.8871026915</v>
+        <v>73894.27967997917</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2570.859878522076</v>
+        <v>2340.181249223629</v>
       </c>
       <c r="G143">
-        <v>73686.02722416942</v>
+        <v>71554.09843075555</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>2096889.711218092</v>
+        <v>2096057.675772463</v>
       </c>
       <c r="K143">
-        <v>22311.89278865425</v>
+        <v>22312.26361001427</v>
       </c>
       <c r="L143">
-        <v>35366</v>
+        <v>35105</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>524.8736813339023</v>
+        <v>503.1834051047281</v>
       </c>
       <c r="C144">
-        <v>524.8736813339023</v>
+        <v>503.1834051047281</v>
       </c>
       <c r="D144">
-        <v>84563.41581599232</v>
+        <v>86556.85504370375</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2862.550311680321</v>
+        <v>2800.310836636572</v>
       </c>
       <c r="G144">
-        <v>81700.86550431199</v>
+        <v>83756.54420706717</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>2404257.756216405</v>
+        <v>2405099.036502582</v>
       </c>
       <c r="K144">
-        <v>25591.04954863791</v>
+        <v>25591.07954256504</v>
       </c>
       <c r="L144">
-        <v>40561</v>
+        <v>40250</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1102.364638068552</v>
+        <v>1111.400128048291</v>
       </c>
       <c r="C145">
-        <v>1102.364638068552</v>
+        <v>1111.400128048291</v>
       </c>
       <c r="D145">
-        <v>175735.6831647198</v>
+        <v>174688.4905570412</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5727.140993371196</v>
+        <v>5757.74937640607</v>
       </c>
       <c r="G145">
-        <v>170008.5421713486</v>
+        <v>168930.7411806351</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>4893184.161455739</v>
+        <v>4893826.191523889</v>
       </c>
       <c r="K145">
-        <v>52069.23770212023</v>
+        <v>52069.1407965021</v>
       </c>
       <c r="L145">
-        <v>82581</v>
+        <v>81944</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1426.148171784146</v>
+        <v>1406.988107841973</v>
       </c>
       <c r="C146">
-        <v>1426.148171784146</v>
+        <v>1406.988107841973</v>
       </c>
       <c r="D146">
-        <v>212965.1305152343</v>
+        <v>212366.0285742072</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7084.623678098548</v>
+        <v>7001.78967726411</v>
       </c>
       <c r="G146">
-        <v>205880.5068371358</v>
+        <v>205364.2388969431</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>5994410.849282675</v>
+        <v>5995676.627972318</v>
       </c>
       <c r="K146">
-        <v>63820.26809525066</v>
+        <v>63820.25739264641</v>
       </c>
       <c r="L146">
-        <v>101183</v>
+        <v>100435</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1166.111428405306</v>
+        <v>1171.824421297099</v>
       </c>
       <c r="C147">
-        <v>1166.111428405306</v>
+        <v>1171.824421297099</v>
       </c>
       <c r="D147">
-        <v>185521.8158201441</v>
+        <v>185803.4886949018</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>6023.440162129059</v>
+        <v>5902.470039667959</v>
       </c>
       <c r="G147">
-        <v>179498.3756580151</v>
+        <v>179901.0186552338</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>5198535.277245642</v>
+        <v>5201270.818483081</v>
       </c>
       <c r="K147">
-        <v>55340.76932528568</v>
+        <v>55341.10542077676</v>
       </c>
       <c r="L147">
-        <v>87751</v>
+        <v>87064</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1267.164105338595</v>
+        <v>1338.539856026198</v>
       </c>
       <c r="C148">
-        <v>1267.164105338595</v>
+        <v>1338.539856026198</v>
       </c>
       <c r="D148">
-        <v>212091.4612369897</v>
+        <v>209349.04958595</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6808.541694649059</v>
+        <v>6776.508624258239</v>
       </c>
       <c r="G148">
-        <v>205282.9195423406</v>
+        <v>202572.5409616917</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>5928669.304060162</v>
+        <v>5928445.903029527</v>
       </c>
       <c r="K148">
-        <v>63094.26026530316</v>
+        <v>63093.6921130082</v>
       </c>
       <c r="L148">
-        <v>100061</v>
+        <v>99296</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1434.259020958256</v>
+        <v>1358.365461151475</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1434.259020958256</v>
+        <v>1358.365461151475</v>
       </c>
       <c r="D149">
-        <v>199147.0288235011</v>
+        <v>201081.139475297</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6878.566662478744</v>
+        <v>6690.448824072631</v>
       </c>
       <c r="G149">
-        <v>192268.4621610224</v>
+        <v>194390.6906512244</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>5616988.97381245</v>
+        <v>5619265.251165273</v>
       </c>
       <c r="K149">
-        <v>59773.91372258824</v>
+        <v>59773.81164730641</v>
       </c>
       <c r="L149">
-        <v>94485</v>
+        <v>93824</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>746.1589557161589</v>
+        <v>680.0035693789276</v>
       </c>
       <c r="C150">
-        <v>746.1589557161589</v>
+        <v>680.0035693789276</v>
       </c>
       <c r="D150">
-        <v>111329.4975578166</v>
+        <v>111722.1968648272</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3786.741158049613</v>
+        <v>3822.780712372368</v>
       </c>
       <c r="G150">
-        <v>107542.756399767</v>
+        <v>107899.4161524548</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>3117312.125296176</v>
+        <v>3117887.690752182</v>
       </c>
       <c r="K150">
-        <v>33175.26039056513</v>
+        <v>33174.70454464515</v>
       </c>
       <c r="L150">
-        <v>52585</v>
+        <v>52190</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>740.3348751617683</v>
+        <v>796.1684809756434</v>
       </c>
       <c r="C151">
-        <v>740.3348751617683</v>
+        <v>796.1684809756434</v>
       </c>
       <c r="D151">
-        <v>115804.3610264121</v>
+        <v>117993.175566194</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3587.562610583837</v>
+        <v>3819.363346052541</v>
       </c>
       <c r="G151">
-        <v>112216.7984158282</v>
+        <v>114173.8122201415</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>3260225.283183281</v>
+        <v>3259115.778695803</v>
       </c>
       <c r="K151">
-        <v>34695.04788678743</v>
+        <v>34695.11335830705</v>
       </c>
       <c r="L151">
-        <v>55019</v>
+        <v>54571</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>607.7987883903302</v>
+        <v>589.6592526246578</v>
       </c>
       <c r="C152">
-        <v>607.7987883903302</v>
+        <v>589.6592526246578</v>
       </c>
       <c r="D152">
-        <v>98687.34929652129</v>
+        <v>100996.257003535</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3181.257596425849</v>
+        <v>3391.462979921773</v>
       </c>
       <c r="G152">
-        <v>95506.09170009545</v>
+        <v>97604.79402361326</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2803107.915919616</v>
+        <v>2803122.729814788</v>
       </c>
       <c r="K152">
-        <v>29844.69490651507</v>
+        <v>29845.17553381573</v>
       </c>
       <c r="L152">
-        <v>47331</v>
+        <v>46936</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>599.0335349965045</v>
+        <v>666.0913308428854</v>
       </c>
       <c r="C153">
-        <v>599.0335349965045</v>
+        <v>666.0913308428854</v>
       </c>
       <c r="D153">
-        <v>103272.8975580023</v>
+        <v>102664.984433667</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3465.759076918967</v>
+        <v>3385.620337371172</v>
       </c>
       <c r="G153">
-        <v>99807.13848108328</v>
+        <v>99279.36409629585</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2900808.161055004</v>
+        <v>2900747.305696868</v>
       </c>
       <c r="K153">
-        <v>30867.90589172978</v>
+        <v>30868.23913531625</v>
       </c>
       <c r="L153">
-        <v>48945</v>
+        <v>48570</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>170.3264371603691</v>
+        <v>166.6077654780688</v>
       </c>
       <c r="C154">
-        <v>170.3264371603691</v>
+        <v>166.6077654780688</v>
       </c>
       <c r="D154">
-        <v>28254.04733018492</v>
+        <v>28267.37716687819</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>943.7370224453201</v>
+        <v>933.2210146839066</v>
       </c>
       <c r="G154">
-        <v>27310.31030773959</v>
+        <v>27334.15615219428</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>798464.1920780309</v>
+        <v>798643.4281603862</v>
       </c>
       <c r="K154">
-        <v>8499.159461175019</v>
+        <v>8498.717737795138</v>
       </c>
       <c r="L154">
-        <v>13479</v>
+        <v>13375</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>202.7507411615609</v>
+        <v>218.1032691034229</v>
       </c>
       <c r="C155">
-        <v>202.7507411615609</v>
+        <v>218.1032691034229</v>
       </c>
       <c r="D155">
-        <v>33614.96926725122</v>
+        <v>33151.38124278215</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>33614.96926725122</v>
+        <v>33151.38124278215</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>940590.2699380295</v>
+        <v>939807.8206068362</v>
       </c>
       <c r="K155">
-        <v>10005.69259615493</v>
+        <v>10006.12900299736</v>
       </c>
       <c r="L155">
-        <v>15961</v>
+        <v>15834</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>90.018468316068</v>
+        <v>80.08000623469408</v>
       </c>
       <c r="C156">
-        <v>90.018468316068</v>
+        <v>80.08000623469408</v>
       </c>
       <c r="D156">
-        <v>15359.80395730424</v>
+        <v>15241.66271354506</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15359.80395730424</v>
+        <v>15241.66271354506</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>425843.5222995153</v>
+        <v>426000.8209545344</v>
       </c>
       <c r="K156">
-        <v>4532.950276130598</v>
+        <v>4533.040818307161</v>
       </c>
       <c r="L156">
-        <v>7228</v>
+        <v>7175</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9154.383362811186</v>
+        <v>9077.192616254508</v>
       </c>
       <c r="C2">
-        <v>9154.383362811186</v>
+        <v>9077.192616254508</v>
       </c>
       <c r="D2">
-        <v>210980.3298512009</v>
+        <v>210069.7433750755</v>
       </c>
       <c r="E2">
-        <v>265124.1315058662</v>
+        <v>266691.4074357431</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>210980.3298512009</v>
+        <v>210069.7433750755</v>
       </c>
       <c r="H2">
-        <v>156855.225920937</v>
+        <v>157854.8892139299</v>
       </c>
       <c r="I2">
-        <v>108268.9055849293</v>
+        <v>108836.5182218132</v>
       </c>
       <c r="J2">
-        <v>2762095.982088567</v>
+        <v>2436033.165249832</v>
       </c>
       <c r="K2">
-        <v>51892.79749986341</v>
+        <v>51893.18015917793</v>
       </c>
       <c r="L2">
-        <v>74123</v>
+        <v>74245</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4702.558482386085</v>
+        <v>4377.033080426426</v>
       </c>
       <c r="C3">
-        <v>4702.558482386085</v>
+        <v>4377.033080426426</v>
       </c>
       <c r="D3">
-        <v>100673.2949079879</v>
+        <v>100222.5846411468</v>
       </c>
       <c r="E3">
-        <v>127921.1284364487</v>
+        <v>126528.4677077013</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100673.2949079879</v>
+        <v>100222.5846411468</v>
       </c>
       <c r="H3">
-        <v>75027.39121462339</v>
+        <v>74711.25478990034</v>
       </c>
       <c r="I3">
-        <v>52893.7372218253</v>
+        <v>51817.21291780099</v>
       </c>
       <c r="J3">
-        <v>1301343.022493384</v>
+        <v>1140759.942370499</v>
       </c>
       <c r="K3">
-        <v>24442.93661562616</v>
+        <v>24443.15724412906</v>
       </c>
       <c r="L3">
-        <v>34913</v>
+        <v>34985</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4155.525954673894</v>
+        <v>4499.535521887247</v>
       </c>
       <c r="B4">
-        <v>9328.430341377742</v>
+        <v>9834.796538483179</v>
       </c>
       <c r="C4">
-        <v>13483.95629605164</v>
+        <v>14334.33206037043</v>
       </c>
       <c r="D4">
-        <v>321748.225184058</v>
+        <v>309627.5467626982</v>
       </c>
       <c r="E4">
-        <v>401228.0217583821</v>
+        <v>400729.7850756897</v>
       </c>
       <c r="F4">
-        <v>106450.0567520371</v>
+        <v>104235.6404718005</v>
       </c>
       <c r="G4">
-        <v>215298.1684320208</v>
+        <v>205391.9062908976</v>
       </c>
       <c r="H4">
-        <v>235476.356283045</v>
+        <v>237327.7416066356</v>
       </c>
       <c r="I4">
-        <v>165751.6654753371</v>
+        <v>163402.0434690541</v>
       </c>
       <c r="J4">
-        <v>4078698.814796429</v>
+        <v>3557645.691115658</v>
       </c>
       <c r="K4">
-        <v>76597.78672133175</v>
+        <v>76598.15154625278</v>
       </c>
       <c r="L4">
-        <v>105418</v>
+        <v>105470</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>12853.20709228507</v>
+        <v>13308.35155943828</v>
       </c>
       <c r="B5">
-        <v>30408.95677526078</v>
+        <v>29973.11726946901</v>
       </c>
       <c r="C5">
-        <v>43262.16386754585</v>
+        <v>43281.46882890729</v>
       </c>
       <c r="D5">
-        <v>989246.7672223755</v>
+        <v>983752.6819183348</v>
       </c>
       <c r="E5">
-        <v>1268808.809241058</v>
+        <v>1264441.814011484</v>
       </c>
       <c r="F5">
-        <v>326547.802486503</v>
+        <v>323719.3581552457</v>
       </c>
       <c r="G5">
-        <v>662698.9647358726</v>
+        <v>660033.3237630891</v>
       </c>
       <c r="H5">
-        <v>744932.149306261</v>
+        <v>744164.5175437784</v>
       </c>
       <c r="I5">
-        <v>523876.6599347967</v>
+        <v>520277.2964677053</v>
       </c>
       <c r="J5">
-        <v>12806703.75267341</v>
+        <v>11267626.41541815</v>
       </c>
       <c r="K5">
-        <v>240460.9121888102</v>
+        <v>240461.2466012154</v>
       </c>
       <c r="L5">
-        <v>330634</v>
+        <v>331790</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4541.463686059238</v>
+        <v>4558.768890437425</v>
       </c>
       <c r="B6">
-        <v>11003.71165811256</v>
+        <v>11596.84284447747</v>
       </c>
       <c r="C6">
-        <v>15545.1753441718</v>
+        <v>16155.6117349149</v>
       </c>
       <c r="D6">
-        <v>363193.1113931292</v>
+        <v>363822.709977581</v>
       </c>
       <c r="E6">
-        <v>462388.6363083026</v>
+        <v>471305.882686238</v>
       </c>
       <c r="F6">
-        <v>120593.8425197346</v>
+        <v>119995.3574195354</v>
       </c>
       <c r="G6">
-        <v>242599.2688733946</v>
+        <v>243827.3525580456</v>
       </c>
       <c r="H6">
-        <v>273027.7401592776</v>
+        <v>278727.793088276</v>
       </c>
       <c r="I6">
-        <v>189360.8961490249</v>
+        <v>192578.089597962</v>
       </c>
       <c r="J6">
-        <v>4700709.546992749</v>
+        <v>4140525.090759995</v>
       </c>
       <c r="K6">
-        <v>88279.9768586501</v>
+        <v>88279.66082841578</v>
       </c>
       <c r="L6">
-        <v>121559</v>
+        <v>121999</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2453.82158418346</v>
+        <v>2576.6368101936</v>
       </c>
       <c r="B7">
-        <v>6046.612464653362</v>
+        <v>6147.92236196162</v>
       </c>
       <c r="C7">
-        <v>8500.434048836822</v>
+        <v>8724.559172155221</v>
       </c>
       <c r="D7">
-        <v>194239.7843440055</v>
+        <v>190576.6468376482</v>
       </c>
       <c r="E7">
-        <v>248501.4461398739</v>
+        <v>243335.8333442997</v>
       </c>
       <c r="F7">
-        <v>64196.74577734688</v>
+        <v>63498.67219866064</v>
       </c>
       <c r="G7">
-        <v>130043.0385666586</v>
+        <v>127077.9746389876</v>
       </c>
       <c r="H7">
-        <v>146684.4109059476</v>
+        <v>143259.0519506596</v>
       </c>
       <c r="I7">
-        <v>101817.0352339264</v>
+        <v>100076.7813936401</v>
       </c>
       <c r="J7">
-        <v>2504655.259471849</v>
+        <v>2213859.373857796</v>
       </c>
       <c r="K7">
-        <v>47023.19467695801</v>
+        <v>47022.64846791415</v>
       </c>
       <c r="L7">
-        <v>64772.99999999999</v>
+        <v>64911</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>13522.66121558632</v>
+        <v>14064.31185086415</v>
       </c>
       <c r="B8">
-        <v>33658.51012513271</v>
+        <v>35219.42245729193</v>
       </c>
       <c r="C8">
-        <v>47181.17134071903</v>
+        <v>49283.73430815608</v>
       </c>
       <c r="D8">
-        <v>1086519.163319365</v>
+        <v>1071879.12812168</v>
       </c>
       <c r="E8">
-        <v>1377717.156157837</v>
+        <v>1361026.237585188</v>
       </c>
       <c r="F8">
-        <v>359328.3445979765</v>
+        <v>364795.4741246616</v>
       </c>
       <c r="G8">
-        <v>727190.8187213887</v>
+        <v>707083.6539970186</v>
       </c>
       <c r="H8">
-        <v>812004.6515925514</v>
+        <v>803944.9574436317</v>
       </c>
       <c r="I8">
-        <v>565712.5045652856</v>
+        <v>557081.2801415561</v>
       </c>
       <c r="J8">
-        <v>14093082.56577308</v>
+        <v>12365526.72891769</v>
       </c>
       <c r="K8">
-        <v>264640.8928306968</v>
+        <v>264640.6565211591</v>
       </c>
       <c r="L8">
-        <v>364564</v>
+        <v>364906</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3780.255437481505</v>
+        <v>3944.365171289555</v>
       </c>
       <c r="B9">
-        <v>9040.285715061413</v>
+        <v>9272.468561843423</v>
       </c>
       <c r="C9">
-        <v>12820.54115254292</v>
+        <v>13216.83373313298</v>
       </c>
       <c r="D9">
-        <v>295589.6105219901</v>
+        <v>300726.4663841616</v>
       </c>
       <c r="E9">
-        <v>374719.0733869281</v>
+        <v>376723.5619284556</v>
       </c>
       <c r="F9">
-        <v>98468.50049662225</v>
+        <v>99854.81968090223</v>
       </c>
       <c r="G9">
-        <v>197121.1100253678</v>
+        <v>200871.6467032594</v>
       </c>
       <c r="H9">
-        <v>220362.3218248922</v>
+        <v>222159.1553032957</v>
       </c>
       <c r="I9">
-        <v>154356.751562036</v>
+        <v>154564.4066251599</v>
       </c>
       <c r="J9">
-        <v>3806233.451580788</v>
+        <v>3349793.024835892</v>
       </c>
       <c r="K9">
-        <v>71448.0715181689</v>
+        <v>71447.69421993145</v>
       </c>
       <c r="L9">
-        <v>98373</v>
+        <v>98638</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1619.383772260564</v>
+        <v>1493.70712422214</v>
       </c>
       <c r="B10">
-        <v>3847.373704303177</v>
+        <v>3511.679399836617</v>
       </c>
       <c r="C10">
-        <v>5466.757476563741</v>
+        <v>5005.386524058757</v>
       </c>
       <c r="D10">
-        <v>117529.2528184068</v>
+        <v>114340.5478238223</v>
       </c>
       <c r="E10">
-        <v>149327.0471258053</v>
+        <v>149551.5315071405</v>
       </c>
       <c r="F10">
-        <v>38879.50129909742</v>
+        <v>38130.00114679204</v>
       </c>
       <c r="G10">
-        <v>78649.7515193094</v>
+        <v>76210.54667703027</v>
       </c>
       <c r="H10">
-        <v>87937.30360780339</v>
+        <v>87816.63062149502</v>
       </c>
       <c r="I10">
-        <v>61389.7435180019</v>
+        <v>61734.90088564544</v>
       </c>
       <c r="J10">
-        <v>1491313.27023998</v>
+        <v>1316486.55924948</v>
       </c>
       <c r="K10">
-        <v>28004.15165663134</v>
+        <v>28003.95098747459</v>
       </c>
       <c r="L10">
-        <v>38531</v>
+        <v>38648</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3200.116912993694</v>
+        <v>3159.029208132736</v>
       </c>
       <c r="B11">
-        <v>7502.259552422142</v>
+        <v>7144.46635197139</v>
       </c>
       <c r="C11">
-        <v>10702.37646541583</v>
+        <v>10303.49556010413</v>
       </c>
       <c r="D11">
-        <v>232201.7159509654</v>
+        <v>238087.7557206749</v>
       </c>
       <c r="E11">
-        <v>296637.3150640173</v>
+        <v>306517.7538291981</v>
       </c>
       <c r="F11">
-        <v>78623.99568888861</v>
+        <v>79518.6106531893</v>
       </c>
       <c r="G11">
-        <v>153577.7202620768</v>
+        <v>158569.1450674856</v>
       </c>
       <c r="H11">
-        <v>175289.2872378932</v>
+        <v>180501.3771726559</v>
       </c>
       <c r="I11">
-        <v>121348.027826124</v>
+        <v>126016.3766565422</v>
       </c>
       <c r="J11">
-        <v>3082223.917028733</v>
+        <v>2699254.539840264</v>
       </c>
       <c r="K11">
-        <v>57877.12643798182</v>
+        <v>57876.73359312426</v>
       </c>
       <c r="L11">
-        <v>79664</v>
+        <v>79814</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4212.776540979814</v>
+        <v>4475.030068388385</v>
       </c>
       <c r="B12">
-        <v>9634.422735794918</v>
+        <v>10270.02749624397</v>
       </c>
       <c r="C12">
-        <v>13847.19927677473</v>
+        <v>14745.05756463235</v>
       </c>
       <c r="D12">
-        <v>322541.6328924011</v>
+        <v>322993.0726206586</v>
       </c>
       <c r="E12">
-        <v>413829.5366885897</v>
+        <v>408935.2390160498</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>322541.6328924011</v>
+        <v>322993.0726206586</v>
       </c>
       <c r="H12">
-        <v>244317.8594782054</v>
+        <v>241335.7887762341</v>
       </c>
       <c r="I12">
-        <v>169511.6772103843</v>
+        <v>167599.4502398157</v>
       </c>
       <c r="J12">
-        <v>4189840.437662444</v>
+        <v>3674147.032232949</v>
       </c>
       <c r="K12">
-        <v>78645.79032953577</v>
+        <v>78645.6566051378</v>
       </c>
       <c r="L12">
-        <v>111878</v>
+        <v>111991</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1929.544680943962</v>
+        <v>1956.457132584013</v>
       </c>
       <c r="B13">
-        <v>4367.372824815598</v>
+        <v>4607.91713973672</v>
       </c>
       <c r="C13">
-        <v>6296.91750575956</v>
+        <v>6564.374272320733</v>
       </c>
       <c r="D13">
-        <v>141228.1046949216</v>
+        <v>142614.7239047191</v>
       </c>
       <c r="E13">
-        <v>178031.9833307482</v>
+        <v>184666.7638573056</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>141228.1046949216</v>
+        <v>142614.7239047191</v>
       </c>
       <c r="H13">
-        <v>104397.1094703879</v>
+        <v>108886.0249108172</v>
       </c>
       <c r="I13">
-        <v>73634.8738603603</v>
+        <v>75780.73894648837</v>
       </c>
       <c r="J13">
-        <v>1846364.139586911</v>
+        <v>1620648.121615055</v>
       </c>
       <c r="K13">
-        <v>34683.97904588531</v>
+        <v>34683.89647355783</v>
       </c>
       <c r="L13">
-        <v>49286</v>
+        <v>49392</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>7299.039563245657</v>
+        <v>7681.45096439504</v>
       </c>
       <c r="C14">
-        <v>7299.039563245657</v>
+        <v>7681.45096439504</v>
       </c>
       <c r="D14">
-        <v>175631.1878958143</v>
+        <v>179345.2380790423</v>
       </c>
       <c r="E14">
-        <v>221444.2718542642</v>
+        <v>226270.3324169737</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>175631.1878958143</v>
+        <v>179345.2380790423</v>
       </c>
       <c r="H14">
-        <v>130313.3723406022</v>
+        <v>132978.2132164876</v>
       </c>
       <c r="I14">
-        <v>91130.89951366198</v>
+        <v>93292.11920048612</v>
       </c>
       <c r="J14">
-        <v>2285534.715225957</v>
+        <v>2006528.066340657</v>
       </c>
       <c r="K14">
-        <v>42869.26243720428</v>
+        <v>42868.67814041838</v>
       </c>
       <c r="L14">
-        <v>61248</v>
+        <v>61345</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7842.314055729346</v>
+        <v>7543.412097759534</v>
       </c>
       <c r="C15">
-        <v>7842.314055729346</v>
+        <v>7543.412097759534</v>
       </c>
       <c r="D15">
-        <v>171550.5303737652</v>
+        <v>172441.2041658678</v>
       </c>
       <c r="E15">
-        <v>218665.5864976511</v>
+        <v>223133.780263775</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>171550.5303737652</v>
+        <v>172441.2041658678</v>
       </c>
       <c r="H15">
-        <v>128694.7633989619</v>
+        <v>131596.0710891521</v>
       </c>
       <c r="I15">
-        <v>89970.82309868919</v>
+        <v>91537.70917462288</v>
       </c>
       <c r="J15">
-        <v>2227870.260067831</v>
+        <v>1979648.013354211</v>
       </c>
       <c r="K15">
-        <v>41813.71569457051</v>
+        <v>41814.33082416804</v>
       </c>
       <c r="L15">
-        <v>59740</v>
+        <v>59887</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5828.270286443947</v>
+        <v>5411.442494955159</v>
       </c>
       <c r="C16">
-        <v>5828.270286443947</v>
+        <v>5411.442494955159</v>
       </c>
       <c r="D16">
-        <v>125698.0280393162</v>
+        <v>126707.5985071197</v>
       </c>
       <c r="E16">
-        <v>161800.9339470647</v>
+        <v>158626.5157632947</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>125698.0280393162</v>
+        <v>126707.5985071197</v>
       </c>
       <c r="H16">
-        <v>95430.18843616938</v>
+        <v>93335.98522561591</v>
       </c>
       <c r="I16">
-        <v>66370.74551089527</v>
+        <v>65290.53053767875</v>
       </c>
       <c r="J16">
-        <v>1654851.38119405</v>
+        <v>1445964.901966368</v>
       </c>
       <c r="K16">
-        <v>31077.32236445721</v>
+        <v>31077.29725428071</v>
       </c>
       <c r="L16">
-        <v>44405</v>
+        <v>44460</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1995.243127010937</v>
+        <v>2008.042164770754</v>
       </c>
       <c r="C17">
-        <v>1995.243127010937</v>
+        <v>2008.042164770754</v>
       </c>
       <c r="D17">
-        <v>12098.514569009</v>
+        <v>12088.50752500051</v>
       </c>
       <c r="E17">
-        <v>17530.02839228709</v>
+        <v>17570.21242158392</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12098.514569009</v>
+        <v>12088.50752500051</v>
       </c>
       <c r="H17">
-        <v>9974.227814153721</v>
+        <v>10020.93386192615</v>
       </c>
       <c r="I17">
-        <v>7555.800578133372</v>
+        <v>7549.27855965778</v>
       </c>
       <c r="J17">
-        <v>136173.991277652</v>
+        <v>123867.0351735428</v>
       </c>
       <c r="K17">
-        <v>4914.782847066701</v>
+        <v>4914.719338277045</v>
       </c>
       <c r="L17">
-        <v>6779</v>
+        <v>6718</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2703.982885577237</v>
+        <v>2733.024414318247</v>
       </c>
       <c r="C18">
-        <v>2703.982885577237</v>
+        <v>2733.024414318247</v>
       </c>
       <c r="D18">
-        <v>16872.61389885054</v>
+        <v>17051.26383479453</v>
       </c>
       <c r="E18">
-        <v>24542.64576926209</v>
+        <v>25277.52530037541</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16872.61389885054</v>
+        <v>17051.26383479453</v>
       </c>
       <c r="H18">
-        <v>14014.82145483992</v>
+        <v>14460.70623853576</v>
       </c>
       <c r="I18">
-        <v>10527.82431442217</v>
+        <v>10816.81906183965</v>
       </c>
       <c r="J18">
-        <v>194182.4103074633</v>
+        <v>174908.7809559312</v>
       </c>
       <c r="K18">
-        <v>7010.146970887246</v>
+        <v>7010.048233774665</v>
       </c>
       <c r="L18">
-        <v>9670</v>
+        <v>9582</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>566.7315024858792</v>
+        <v>572.2251248768356</v>
       </c>
       <c r="B19">
-        <v>6024.826962046128</v>
+        <v>5764.876653708022</v>
       </c>
       <c r="C19">
-        <v>6591.558464532007</v>
+        <v>6337.101778584857</v>
       </c>
       <c r="D19">
-        <v>40768.88917508494</v>
+        <v>40076.75711275085</v>
       </c>
       <c r="E19">
-        <v>57492.62806443294</v>
+        <v>57667.21467884065</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40768.88917508494</v>
+        <v>40076.75711275085</v>
       </c>
       <c r="H19">
-        <v>32866.12005209253</v>
+        <v>32817.49436010992</v>
       </c>
       <c r="I19">
-        <v>24626.50801234042</v>
+        <v>24849.72031873072</v>
       </c>
       <c r="J19">
-        <v>449403.061650932</v>
+        <v>408455.63400398</v>
       </c>
       <c r="K19">
-        <v>16218.81292972363</v>
+        <v>16219.225954893</v>
       </c>
       <c r="L19">
-        <v>22306</v>
+        <v>22122</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1329.473962893696</v>
+        <v>1406.970975741607</v>
       </c>
       <c r="B20">
-        <v>13638.31794174424</v>
+        <v>13909.57524865189</v>
       </c>
       <c r="C20">
-        <v>14967.79190463793</v>
+        <v>15316.5462243935</v>
       </c>
       <c r="D20">
-        <v>92949.76601641139</v>
+        <v>92961.63861428127</v>
       </c>
       <c r="E20">
-        <v>132054.1357375964</v>
+        <v>132162.2733142608</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>92949.76601641139</v>
+        <v>92961.63861428127</v>
       </c>
       <c r="H20">
-        <v>75307.13070092577</v>
+        <v>75183.33853218381</v>
       </c>
       <c r="I20">
-        <v>56747.00503667064</v>
+        <v>56978.93478207703</v>
       </c>
       <c r="J20">
-        <v>1033963.958621704</v>
+        <v>943455.1983639371</v>
       </c>
       <c r="K20">
-        <v>37313.75097885104</v>
+        <v>37314.13561684467</v>
       </c>
       <c r="L20">
-        <v>51289</v>
+        <v>50822</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3503.411491086992</v>
+        <v>3192.741371428173</v>
       </c>
       <c r="B21">
-        <v>33461.40437040226</v>
+        <v>31189.58892694931</v>
       </c>
       <c r="C21">
-        <v>36964.81586148925</v>
+        <v>34382.33029837748</v>
       </c>
       <c r="D21">
-        <v>221483.7396809547</v>
+        <v>223126.3686462127</v>
       </c>
       <c r="E21">
-        <v>330680.6212942894</v>
+        <v>327826.4328843257</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>221483.7396809547</v>
+        <v>223126.3686462127</v>
       </c>
       <c r="H21">
-        <v>187971.8177712157</v>
+        <v>187466.7501427386</v>
       </c>
       <c r="I21">
-        <v>142708.8035230737</v>
+        <v>140359.6827415871</v>
       </c>
       <c r="J21">
-        <v>2515344.584175836</v>
+        <v>2297950.890837427</v>
       </c>
       <c r="K21">
-        <v>90794.18135866521</v>
+        <v>90793.99916534715</v>
       </c>
       <c r="L21">
-        <v>124726</v>
+        <v>123713</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3796.042016617532</v>
+        <v>3920.964242861759</v>
       </c>
       <c r="B22">
-        <v>37786.2188538634</v>
+        <v>37490.8539422942</v>
       </c>
       <c r="C22">
-        <v>41582.26087048093</v>
+        <v>41411.81818515595</v>
       </c>
       <c r="D22">
-        <v>269005.8777912098</v>
+        <v>269622.9993594905</v>
       </c>
       <c r="E22">
-        <v>381624.6919786634</v>
+        <v>378236.5700767843</v>
       </c>
       <c r="F22">
-        <v>43295.09618146154</v>
+        <v>43915.8158935309</v>
       </c>
       <c r="G22">
-        <v>225710.7816097482</v>
+        <v>225707.1834659596</v>
       </c>
       <c r="H22">
-        <v>217587.5927647035</v>
+        <v>216103.5580017776</v>
       </c>
       <c r="I22">
-        <v>164037.0992139599</v>
+        <v>162133.0120750067</v>
       </c>
       <c r="J22">
-        <v>2993740.408035955</v>
+        <v>2740397.108886017</v>
       </c>
       <c r="K22">
-        <v>108044.9638632226</v>
+        <v>108044.6620835078</v>
       </c>
       <c r="L22">
-        <v>146778</v>
+        <v>145572</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4171.09145309753</v>
+        <v>4322.110305731896</v>
       </c>
       <c r="B23">
-        <v>42453.58584246235</v>
+        <v>43336.30460900442</v>
       </c>
       <c r="C23">
-        <v>46624.67729555988</v>
+        <v>47658.41491473632</v>
       </c>
       <c r="D23">
-        <v>282085.8657750259</v>
+        <v>289392.5208978124</v>
       </c>
       <c r="E23">
-        <v>414996.6532441133</v>
+        <v>408953.4759451826</v>
       </c>
       <c r="F23">
-        <v>45739.00486997531</v>
+        <v>46070.678898158</v>
       </c>
       <c r="G23">
-        <v>236346.8609050506</v>
+        <v>243321.8419996544</v>
       </c>
       <c r="H23">
-        <v>237371.3108356695</v>
+        <v>231408.220091182</v>
       </c>
       <c r="I23">
-        <v>177625.3424084438</v>
+        <v>177545.2558540006</v>
       </c>
       <c r="J23">
-        <v>3234056.25290148</v>
+        <v>2946219.814667447</v>
       </c>
       <c r="K23">
-        <v>116725.6876000695</v>
+        <v>116726.2216478226</v>
       </c>
       <c r="L23">
-        <v>158673</v>
+        <v>157213</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>6761.364712804077</v>
+        <v>7418.620088642559</v>
       </c>
       <c r="B24">
-        <v>67937.0171322767</v>
+        <v>71719.95420954694</v>
       </c>
       <c r="C24">
-        <v>74698.38184508077</v>
+        <v>79138.5742981895</v>
       </c>
       <c r="D24">
-        <v>475515.9592998261</v>
+        <v>467067.6243269061</v>
       </c>
       <c r="E24">
-        <v>677518.0213506634</v>
+        <v>691647.6973069749</v>
       </c>
       <c r="F24">
-        <v>76306.77895429841</v>
+        <v>76157.84580253049</v>
       </c>
       <c r="G24">
-        <v>399209.1803455277</v>
+        <v>390909.7785243756</v>
       </c>
       <c r="H24">
-        <v>387040.0920474022</v>
+        <v>392695.8299633773</v>
       </c>
       <c r="I24">
-        <v>290477.9293032612</v>
+        <v>298951.8673435976</v>
       </c>
       <c r="J24">
-        <v>5353122.143359604</v>
+        <v>4876693.39718015</v>
       </c>
       <c r="K24">
-        <v>193190.1282879376</v>
+        <v>193190.3107867878</v>
       </c>
       <c r="L24">
-        <v>262533</v>
+        <v>260308</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6083.044126115409</v>
+        <v>5894.39622681962</v>
       </c>
       <c r="B25">
-        <v>62029.68599474323</v>
+        <v>64516.42707736346</v>
       </c>
       <c r="C25">
-        <v>68112.73012085864</v>
+        <v>70410.82330418307</v>
       </c>
       <c r="D25">
-        <v>413067.2044072779</v>
+        <v>413217.1868803345</v>
       </c>
       <c r="E25">
-        <v>588227.6907875781</v>
+        <v>593308.6364002434</v>
       </c>
       <c r="F25">
-        <v>66753.11404523716</v>
+        <v>67101.33112856779</v>
       </c>
       <c r="G25">
-        <v>346314.0903620407</v>
+        <v>346115.8557517666</v>
       </c>
       <c r="H25">
-        <v>336058.1334197436</v>
+        <v>338337.0419432616</v>
       </c>
       <c r="I25">
-        <v>252169.5573678345</v>
+        <v>254971.5944569818</v>
       </c>
       <c r="J25">
-        <v>4647780.173808425</v>
+        <v>4188979.692206965</v>
       </c>
       <c r="K25">
-        <v>167765.9791434261</v>
+        <v>167765.6687767668</v>
       </c>
       <c r="L25">
-        <v>227702</v>
+        <v>225734</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4146.167316099036</v>
+        <v>4464.685044002328</v>
       </c>
       <c r="B26">
-        <v>43503.3460114332</v>
+        <v>44671.06131359836</v>
       </c>
       <c r="C26">
-        <v>47649.51332753223</v>
+        <v>49135.74635760068</v>
       </c>
       <c r="D26">
-        <v>288093.3268534163</v>
+        <v>297803.5201128618</v>
       </c>
       <c r="E26">
-        <v>414973.7593621218</v>
+        <v>419337.0509671455</v>
       </c>
       <c r="F26">
-        <v>46172.58076151564</v>
+        <v>48643.85405413996</v>
       </c>
       <c r="G26">
-        <v>241920.7460919007</v>
+        <v>249159.6660587218</v>
       </c>
       <c r="H26">
-        <v>236436.0384861044</v>
+        <v>237272.8255540494</v>
       </c>
       <c r="I26">
-        <v>178537.7208760174</v>
+        <v>182064.2254130961</v>
       </c>
       <c r="J26">
-        <v>3243020.34718355</v>
+        <v>2955240.899884257</v>
       </c>
       <c r="K26">
-        <v>117051.0732581367</v>
+        <v>117050.7004292479</v>
       </c>
       <c r="L26">
-        <v>158882</v>
+        <v>157492</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5497.714308586276</v>
+        <v>5189.93371684652</v>
       </c>
       <c r="B27">
-        <v>55108.8191745594</v>
+        <v>53096.77358560619</v>
       </c>
       <c r="C27">
-        <v>60606.53348314568</v>
+        <v>58286.70730245271</v>
       </c>
       <c r="D27">
-        <v>366804.5049736432</v>
+        <v>368850.029908683</v>
       </c>
       <c r="E27">
-        <v>525092.9994788886</v>
+        <v>512208.374079105</v>
       </c>
       <c r="F27">
-        <v>68544.02089447703</v>
+        <v>68048.94639597539</v>
       </c>
       <c r="G27">
-        <v>298260.4840791661</v>
+        <v>300801.0835127076</v>
       </c>
       <c r="H27">
-        <v>300513.7392571892</v>
+        <v>292309.8085259089</v>
       </c>
       <c r="I27">
-        <v>224579.2602216994</v>
+        <v>219898.5655531962</v>
       </c>
       <c r="J27">
-        <v>4069253.004780055</v>
+        <v>3675189.583370568</v>
       </c>
       <c r="K27">
-        <v>146864.795292177</v>
+        <v>146865.0709240992</v>
       </c>
       <c r="L27">
-        <v>198904</v>
+        <v>197660</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6444.644346574061</v>
+        <v>6271.067458515401</v>
       </c>
       <c r="B28">
-        <v>64917.79896820647</v>
+        <v>64140.42632573639</v>
       </c>
       <c r="C28">
-        <v>71362.44331478054</v>
+        <v>70411.49378425178</v>
       </c>
       <c r="D28">
-        <v>426427.5970169688</v>
+        <v>429821.2763487584</v>
       </c>
       <c r="E28">
-        <v>596525.7866148102</v>
+        <v>613085.310896077</v>
       </c>
       <c r="F28">
-        <v>78336.89409481017</v>
+        <v>79369.61211494083</v>
       </c>
       <c r="G28">
-        <v>348090.7029221586</v>
+        <v>350451.6642338175</v>
       </c>
       <c r="H28">
-        <v>339799.7014502956</v>
+        <v>349157.7637552631</v>
       </c>
       <c r="I28">
-        <v>256726.0851645146</v>
+        <v>263927.5471408138</v>
       </c>
       <c r="J28">
-        <v>4742640.730316618</v>
+        <v>4289813.781277482</v>
       </c>
       <c r="K28">
-        <v>171178.8231795369</v>
+        <v>171179.098757402</v>
       </c>
       <c r="L28">
-        <v>232432</v>
+        <v>230030</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>3723.000075477768</v>
+        <v>4015.038221915786</v>
       </c>
       <c r="B29">
-        <v>37115.47823481043</v>
+        <v>37830.67022416216</v>
       </c>
       <c r="C29">
-        <v>40838.4783102882</v>
+        <v>41845.70844607795</v>
       </c>
       <c r="D29">
-        <v>253786.0691459027</v>
+        <v>254186.6221211599</v>
       </c>
       <c r="E29">
-        <v>365388.2273046203</v>
+        <v>374169.5653813924</v>
       </c>
       <c r="F29">
-        <v>47407.19314042537</v>
+        <v>47375.57793158605</v>
       </c>
       <c r="G29">
-        <v>206378.8760054774</v>
+        <v>206811.0441895738</v>
       </c>
       <c r="H29">
-        <v>208066.2819434391</v>
+        <v>213181.83093878</v>
       </c>
       <c r="I29">
-        <v>157321.9453611811</v>
+        <v>160987.7344426124</v>
       </c>
       <c r="J29">
-        <v>2898539.634960481</v>
+        <v>2630388.932203104</v>
       </c>
       <c r="K29">
-        <v>104633.7529755667</v>
+        <v>104634.2404563452</v>
       </c>
       <c r="L29">
-        <v>142064</v>
+        <v>140717</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1924.114506148005</v>
+        <v>2053.858089163388</v>
       </c>
       <c r="B30">
-        <v>19401.91048775758</v>
+        <v>18798.90045763741</v>
       </c>
       <c r="C30">
-        <v>21326.02499390559</v>
+        <v>20852.7585468008</v>
       </c>
       <c r="D30">
-        <v>128552.4150280822</v>
+        <v>127056.9726618902</v>
       </c>
       <c r="E30">
-        <v>188099.9793508685</v>
+        <v>184178.3114256415</v>
       </c>
       <c r="F30">
-        <v>24001.10424332624</v>
+        <v>23857.53818366486</v>
       </c>
       <c r="G30">
-        <v>104551.310784756</v>
+        <v>103199.4344782254</v>
       </c>
       <c r="H30">
-        <v>107259.1788643852</v>
+        <v>105026.0184729902</v>
       </c>
       <c r="I30">
-        <v>80840.80048648325</v>
+        <v>79152.29295265132</v>
       </c>
       <c r="J30">
-        <v>1442768.645373872</v>
+        <v>1313119.520499784</v>
       </c>
       <c r="K30">
-        <v>52080.99295181609</v>
+        <v>52080.86787653696</v>
       </c>
       <c r="L30">
-        <v>70696</v>
+        <v>70052</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1418.291791027818</v>
+        <v>1279.16062910085</v>
       </c>
       <c r="B31">
-        <v>14175.82217491045</v>
+        <v>13776.39766148704</v>
       </c>
       <c r="C31">
-        <v>15594.11396593827</v>
+        <v>15055.55829058789</v>
       </c>
       <c r="D31">
-        <v>93126.22571575946</v>
+        <v>94831.2056914008</v>
       </c>
       <c r="E31">
-        <v>129497.280676234</v>
+        <v>136833.6074221099</v>
       </c>
       <c r="F31">
-        <v>17455.87564288883</v>
+        <v>17547.93234157141</v>
       </c>
       <c r="G31">
-        <v>75670.35007287063</v>
+        <v>77283.2733498294</v>
       </c>
       <c r="H31">
-        <v>73500.63611331033</v>
+        <v>78179.95726940337</v>
       </c>
       <c r="I31">
-        <v>55996.64456292366</v>
+        <v>58653.65015270654</v>
       </c>
       <c r="J31">
-        <v>1057980.215211267</v>
+        <v>961520.5244621726</v>
       </c>
       <c r="K31">
-        <v>38181.18149760626</v>
+        <v>38181.08245058513</v>
       </c>
       <c r="L31">
-        <v>51847</v>
+        <v>51355</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>185.6121343549218</v>
+        <v>185.2453167284442</v>
       </c>
       <c r="B32">
-        <v>839.6595673856516</v>
+        <v>835.9880870712741</v>
       </c>
       <c r="C32">
-        <v>1025.271701740573</v>
+        <v>1021.233403799718</v>
       </c>
       <c r="D32">
-        <v>5831.917085265755</v>
+        <v>5907.445890994059</v>
       </c>
       <c r="E32">
-        <v>6903.740504518015</v>
+        <v>6781.952784390264</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5831.917085265755</v>
+        <v>5907.445890994059</v>
       </c>
       <c r="H32">
-        <v>3531.34861542809</v>
+        <v>3437.059866547488</v>
       </c>
       <c r="I32">
-        <v>3372.391889089925</v>
+        <v>3344.892917842777</v>
       </c>
       <c r="J32">
-        <v>74639.5255686681</v>
+        <v>72406.21060990306</v>
       </c>
       <c r="K32">
-        <v>2024.189292435861</v>
+        <v>2024.201141125</v>
       </c>
       <c r="L32">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1698.286920912087</v>
+        <v>1732.893281289896</v>
       </c>
       <c r="B33">
-        <v>7613.397414521444</v>
+        <v>7591.9664487041</v>
       </c>
       <c r="C33">
-        <v>9311.684335433531</v>
+        <v>9324.859729993997</v>
       </c>
       <c r="D33">
-        <v>54592.56214963846</v>
+        <v>52989.26133044325</v>
       </c>
       <c r="E33">
-        <v>62945.06676017037</v>
+        <v>61929.40361150043</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>54592.56214963846</v>
+        <v>52989.26133044325</v>
       </c>
       <c r="H33">
-        <v>32129.05175301275</v>
+        <v>31530.70018434716</v>
       </c>
       <c r="I33">
-        <v>30816.01500715761</v>
+        <v>30398.70342715327</v>
       </c>
       <c r="J33">
-        <v>683085.5415141614</v>
+        <v>659294.2447098304</v>
       </c>
       <c r="K33">
-        <v>18523.20928604931</v>
+        <v>18523.17429681778</v>
       </c>
       <c r="L33">
-        <v>25630</v>
+        <v>25639</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5547.69067985281</v>
+        <v>5894.395927541124</v>
       </c>
       <c r="B34">
-        <v>25475.63385552613</v>
+        <v>25512.9759151036</v>
       </c>
       <c r="C34">
-        <v>31023.32453537894</v>
+        <v>31407.37184264472</v>
       </c>
       <c r="D34">
-        <v>180032.6292194203</v>
+        <v>181831.6622199136</v>
       </c>
       <c r="E34">
-        <v>205393.682000475</v>
+        <v>209452.3133059889</v>
       </c>
       <c r="F34">
-        <v>31804.36550443638</v>
+        <v>32016.16972578797</v>
       </c>
       <c r="G34">
-        <v>148228.2637149839</v>
+        <v>149815.4924941256</v>
       </c>
       <c r="H34">
-        <v>104833.1680985866</v>
+        <v>105556.7872358375</v>
       </c>
       <c r="I34">
-        <v>100560.5139018884</v>
+        <v>103895.5260701514</v>
       </c>
       <c r="J34">
-        <v>2268206.183359677</v>
+        <v>2193234.124449471</v>
       </c>
       <c r="K34">
-        <v>61494.19086015116</v>
+        <v>61494.31796225726</v>
       </c>
       <c r="L34">
-        <v>84019</v>
+        <v>83799</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>15119.97241467562</v>
+        <v>14198.94162476176</v>
       </c>
       <c r="B35">
-        <v>65556.6392751111</v>
+        <v>65510.9096566743</v>
       </c>
       <c r="C35">
-        <v>80676.61168978672</v>
+        <v>79709.85128143606</v>
       </c>
       <c r="D35">
-        <v>447276.4178160744</v>
+        <v>453455.4530124462</v>
       </c>
       <c r="E35">
-        <v>520110.1583930427</v>
+        <v>520712.161546926</v>
       </c>
       <c r="F35">
-        <v>78063.72436117931</v>
+        <v>79752.52143131393</v>
       </c>
       <c r="G35">
-        <v>369212.6934548952</v>
+        <v>373702.9315811322</v>
       </c>
       <c r="H35">
-        <v>265224.6249479132</v>
+        <v>264889.5100342928</v>
       </c>
       <c r="I35">
-        <v>254885.5334451296</v>
+        <v>255822.6515126332</v>
       </c>
       <c r="J35">
-        <v>5726631.382147936</v>
+        <v>5523009.786319892</v>
       </c>
       <c r="K35">
-        <v>155264.7893625587</v>
+        <v>155265.1987424425</v>
       </c>
       <c r="L35">
-        <v>212012</v>
+        <v>211759</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>22474.47534116164</v>
+        <v>22660.06406679289</v>
       </c>
       <c r="B36">
-        <v>98338.52852829998</v>
+        <v>102847.7827348158</v>
       </c>
       <c r="C36">
-        <v>120813.0038694616</v>
+        <v>125507.8468016087</v>
       </c>
       <c r="D36">
-        <v>693963.9321115478</v>
+        <v>693205.512418814</v>
       </c>
       <c r="E36">
-        <v>805743.6446100248</v>
+        <v>793456.8117336272</v>
       </c>
       <c r="F36">
-        <v>120575.1337676748</v>
+        <v>121491.8465896399</v>
       </c>
       <c r="G36">
-        <v>573388.798343873</v>
+        <v>571713.6658291741</v>
       </c>
       <c r="H36">
-        <v>409377.8527557268</v>
+        <v>407817.4619831571</v>
       </c>
       <c r="I36">
-        <v>396365.791854298</v>
+        <v>385639.3497504701</v>
       </c>
       <c r="J36">
-        <v>8790784.811568448</v>
+        <v>8523271.921221424</v>
       </c>
       <c r="K36">
-        <v>238366.9467806862</v>
+        <v>238367.0957590085</v>
       </c>
       <c r="L36">
-        <v>325483</v>
+        <v>325099</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5950.08018577278</v>
+        <v>5940.881081290853</v>
       </c>
       <c r="B37">
-        <v>26745.30215179483</v>
+        <v>27463.29516924631</v>
       </c>
       <c r="C37">
-        <v>32695.3823375676</v>
+        <v>33404.17625053717</v>
       </c>
       <c r="D37">
-        <v>191345.6938292958</v>
+        <v>187970.1597401536</v>
       </c>
       <c r="E37">
-        <v>214531.8058963495</v>
+        <v>214096.1233263915</v>
       </c>
       <c r="F37">
-        <v>32992.33116960563</v>
+        <v>33217.63174213363</v>
       </c>
       <c r="G37">
-        <v>158353.3626596901</v>
+        <v>154752.5279980199</v>
       </c>
       <c r="H37">
-        <v>109362.4580193439</v>
+        <v>108933.9472412181</v>
       </c>
       <c r="I37">
-        <v>105169.3478770056</v>
+        <v>105162.1760851733</v>
       </c>
       <c r="J37">
-        <v>2352628.562658394</v>
+        <v>2279944.715771695</v>
       </c>
       <c r="K37">
-        <v>63838.15695000386</v>
+        <v>63837.91164605393</v>
       </c>
       <c r="L37">
-        <v>87130</v>
+        <v>87051</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>15744.20688682497</v>
+        <v>16032.65418285344</v>
       </c>
       <c r="B38">
-        <v>70087.50719921406</v>
+        <v>73461.77677576245</v>
       </c>
       <c r="C38">
-        <v>85831.71408603904</v>
+        <v>89494.43095861589</v>
       </c>
       <c r="D38">
-        <v>492067.4623682782</v>
+        <v>500454.2909698704</v>
       </c>
       <c r="E38">
-        <v>566855.629847968</v>
+        <v>571934.9633412444</v>
       </c>
       <c r="F38">
-        <v>85361.57625148239</v>
+        <v>85482.84721393316</v>
       </c>
       <c r="G38">
-        <v>406705.8861167958</v>
+        <v>414971.4437559372</v>
       </c>
       <c r="H38">
-        <v>290083.8667142253</v>
+        <v>292526.7009697685</v>
       </c>
       <c r="I38">
-        <v>276771.7631337426</v>
+        <v>279408.2623714759</v>
       </c>
       <c r="J38">
-        <v>6235443.703841105</v>
+        <v>6025315.573953891</v>
       </c>
       <c r="K38">
-        <v>169120.2108354646</v>
+        <v>169119.9028435243</v>
       </c>
       <c r="L38">
-        <v>230715</v>
+        <v>230593</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>20335.2036388414</v>
+        <v>19020.80093022942</v>
       </c>
       <c r="B39">
-        <v>88784.22255028962</v>
+        <v>87097.6433217789</v>
       </c>
       <c r="C39">
-        <v>109119.426189131</v>
+        <v>106118.4442520083</v>
       </c>
       <c r="D39">
-        <v>603601.4807531281</v>
+        <v>604212.8144992528</v>
       </c>
       <c r="E39">
-        <v>693771.1728425028</v>
+        <v>690896.7404941093</v>
       </c>
       <c r="F39">
-        <v>105177.5767426928</v>
+        <v>104567.5326673371</v>
       </c>
       <c r="G39">
-        <v>498423.9040104353</v>
+        <v>499645.2818319157</v>
       </c>
       <c r="H39">
-        <v>350012.5061275022</v>
+        <v>352178.3489835955</v>
       </c>
       <c r="I39">
-        <v>343758.6667150006</v>
+        <v>338718.3915105139</v>
       </c>
       <c r="J39">
-        <v>7602295.765185694</v>
+        <v>7384935.591372574</v>
       </c>
       <c r="K39">
-        <v>206140.3247257854</v>
+        <v>206140.192543951</v>
       </c>
       <c r="L39">
-        <v>281040</v>
+        <v>281235</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9410.845952835956</v>
+        <v>9235.564195304652</v>
       </c>
       <c r="B40">
-        <v>39706.29885088178</v>
+        <v>41252.14965023247</v>
       </c>
       <c r="C40">
-        <v>49117.14480371774</v>
+        <v>50487.71384553712</v>
       </c>
       <c r="D40">
-        <v>286000.3187076718</v>
+        <v>285648.8147416086</v>
       </c>
       <c r="E40">
-        <v>328969.8509565252</v>
+        <v>340466.6040463466</v>
       </c>
       <c r="F40">
-        <v>49372.0728515097</v>
+        <v>49933.15331792057</v>
       </c>
       <c r="G40">
-        <v>236628.2458561621</v>
+        <v>235715.6614236881</v>
       </c>
       <c r="H40">
-        <v>167441.7374552454</v>
+        <v>172447.039231699</v>
       </c>
       <c r="I40">
-        <v>161528.1135012799</v>
+        <v>168019.5648146475</v>
       </c>
       <c r="J40">
-        <v>3605778.406175209</v>
+        <v>3491502.209452626</v>
       </c>
       <c r="K40">
-        <v>97789.14834097645</v>
+        <v>97789.11410396016</v>
       </c>
       <c r="L40">
-        <v>133530</v>
+        <v>133329</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>18902.62057169478</v>
+        <v>18700.4892486428</v>
       </c>
       <c r="B41">
-        <v>84281.22124290177</v>
+        <v>84714.3576283673</v>
       </c>
       <c r="C41">
-        <v>103183.8418145966</v>
+        <v>103414.8468770101</v>
       </c>
       <c r="D41">
-        <v>590321.5415946945</v>
+        <v>577036.569916722</v>
       </c>
       <c r="E41">
-        <v>672004.9072884659</v>
+        <v>671679.9524685723</v>
       </c>
       <c r="F41">
-        <v>103659.1620554916</v>
+        <v>100361.09314813</v>
       </c>
       <c r="G41">
-        <v>486662.3795392028</v>
+        <v>476675.476768592</v>
       </c>
       <c r="H41">
-        <v>340167.6672040542</v>
+        <v>342559.3078102758</v>
       </c>
       <c r="I41">
-        <v>331837.2400844116</v>
+        <v>329120.6446582965</v>
       </c>
       <c r="J41">
-        <v>7290423.192955703</v>
+        <v>7045449.755348617</v>
       </c>
       <c r="K41">
-        <v>197752.825885629</v>
+        <v>197752.744336436</v>
       </c>
       <c r="L41">
-        <v>269444</v>
+        <v>269682</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10841.76253227595</v>
+        <v>10322.63180062743</v>
       </c>
       <c r="B42">
-        <v>48250.55192064428</v>
+        <v>48187.24386996048</v>
       </c>
       <c r="C42">
-        <v>59092.31445292023</v>
+        <v>58509.87567058791</v>
       </c>
       <c r="D42">
-        <v>328736.7402460517</v>
+        <v>329135.709928353</v>
       </c>
       <c r="E42">
-        <v>383378.4796000207</v>
+        <v>376949.4527369655</v>
       </c>
       <c r="F42">
-        <v>57916.17291155929</v>
+        <v>57854.0160247739</v>
       </c>
       <c r="G42">
-        <v>270820.5673344924</v>
+        <v>271281.6939035791</v>
       </c>
       <c r="H42">
-        <v>195585.7099766447</v>
+        <v>192491.4854045941</v>
       </c>
       <c r="I42">
-        <v>187792.769623376</v>
+        <v>184457.9673323714</v>
       </c>
       <c r="J42">
-        <v>4140228.718614828</v>
+        <v>4007770.172058591</v>
       </c>
       <c r="K42">
-        <v>112253.0193853386</v>
+        <v>112252.9675309281</v>
       </c>
       <c r="L42">
-        <v>153172</v>
+        <v>152885</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>77828.79576653699</v>
+        <v>80397.71567075701</v>
       </c>
       <c r="C43">
-        <v>77828.79576653699</v>
+        <v>80397.71567075701</v>
       </c>
       <c r="D43">
-        <v>451142.3270913696</v>
+        <v>458007.3273566771</v>
       </c>
       <c r="E43">
-        <v>535334.0704137449</v>
+        <v>531140.9578546429</v>
       </c>
       <c r="F43">
-        <v>79474.89995621711</v>
+        <v>79549.73866650061</v>
       </c>
       <c r="G43">
-        <v>371667.4271351525</v>
+        <v>378457.5886901765</v>
       </c>
       <c r="H43">
-        <v>273425.1322918208</v>
+        <v>269706.5607798538</v>
       </c>
       <c r="I43">
-        <v>261908.9381219241</v>
+        <v>261434.3970747891</v>
       </c>
       <c r="J43">
-        <v>5770017.181629896</v>
+        <v>5584905.223630181</v>
       </c>
       <c r="K43">
-        <v>156449.8536845718</v>
+        <v>156449.8500204397</v>
       </c>
       <c r="L43">
-        <v>215213</v>
+        <v>215142</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>48121.33492428796</v>
+        <v>49221.33806982608</v>
       </c>
       <c r="C44">
-        <v>48121.33492428796</v>
+        <v>49221.33806982608</v>
       </c>
       <c r="D44">
-        <v>290988.751874934</v>
+        <v>285626.5057210881</v>
       </c>
       <c r="E44">
-        <v>329482.0739761732</v>
+        <v>332795.9712110488</v>
       </c>
       <c r="F44">
-        <v>51834.55980372287</v>
+        <v>49142.35919337173</v>
       </c>
       <c r="G44">
-        <v>239154.1920712111</v>
+        <v>236484.1465277164</v>
       </c>
       <c r="H44">
-        <v>168444.2495844564</v>
+        <v>170138.2296176867</v>
       </c>
       <c r="I44">
-        <v>161037.8243917169</v>
+        <v>162657.7415933621</v>
       </c>
       <c r="J44">
-        <v>3653321.301621473</v>
+        <v>3537442.235060524</v>
       </c>
       <c r="K44">
-        <v>99099.11287881955</v>
+        <v>99099.00816686293</v>
       </c>
       <c r="L44">
-        <v>136410</v>
+        <v>136248</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>37638.86764739735</v>
+        <v>38390.50080806558</v>
       </c>
       <c r="C45">
-        <v>37638.86764739735</v>
+        <v>38390.50080806558</v>
       </c>
       <c r="D45">
-        <v>215444.2883514555</v>
+        <v>217760.8140271867</v>
       </c>
       <c r="E45">
-        <v>251642.1358666861</v>
+        <v>247521.9112484768</v>
       </c>
       <c r="F45">
-        <v>37313.27200946684</v>
+        <v>38283.65253349484</v>
       </c>
       <c r="G45">
-        <v>178131.0163419886</v>
+        <v>179477.1614936918</v>
       </c>
       <c r="H45">
-        <v>128222.0412119589</v>
+        <v>126406.8535890304</v>
       </c>
       <c r="I45">
-        <v>123420.0946547273</v>
+        <v>121115.0576594463</v>
       </c>
       <c r="J45">
-        <v>2733737.475661515</v>
+        <v>2651887.515159809</v>
       </c>
       <c r="K45">
-        <v>74157.68258532963</v>
+        <v>74158.29988705747</v>
       </c>
       <c r="L45">
-        <v>102143</v>
+        <v>101992</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,34 +2820,34 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2811.096507735482</v>
+        <v>2658.760744664383</v>
       </c>
       <c r="C46">
-        <v>2811.096507735482</v>
+        <v>2658.760744664383</v>
       </c>
       <c r="D46">
-        <v>15444.69781584244</v>
+        <v>15042.36575212105</v>
       </c>
       <c r="E46">
-        <v>17533.87264503886</v>
+        <v>17476.68454229508</v>
       </c>
       <c r="F46">
-        <v>2699.338939321554</v>
+        <v>2626.202724947907</v>
       </c>
       <c r="G46">
-        <v>12745.35887652088</v>
+        <v>12416.16302717314</v>
       </c>
       <c r="H46">
-        <v>8953.672663410538</v>
+        <v>8904.234087971057</v>
       </c>
       <c r="I46">
-        <v>8580.199981628322</v>
+        <v>8572.450454324022</v>
       </c>
       <c r="J46">
-        <v>192752.582547516</v>
+        <v>186855.1572949229</v>
       </c>
       <c r="K46">
-        <v>5227.030540279437</v>
+        <v>5227.042340323851</v>
       </c>
       <c r="L46">
         <v>7193</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>174057.2216753812</v>
+        <v>174688.1846246043</v>
       </c>
       <c r="C47">
-        <v>174057.2216753812</v>
+        <v>174688.1846246043</v>
       </c>
       <c r="D47">
-        <v>298243.9429808929</v>
+        <v>303064.8944102679</v>
       </c>
       <c r="E47">
-        <v>400234.7395932662</v>
+        <v>405461.5826159179</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>298243.9429808929</v>
+        <v>303064.8944102679</v>
       </c>
       <c r="H47">
-        <v>239820.6331613339</v>
+        <v>245762.6934609007</v>
       </c>
       <c r="I47">
-        <v>160414.1064319323</v>
+        <v>159698.8891550172</v>
       </c>
       <c r="J47">
-        <v>6683645.934431964</v>
+        <v>8138839.351306831</v>
       </c>
       <c r="K47">
-        <v>165879.1087916045</v>
+        <v>165878.8688396319</v>
       </c>
       <c r="L47">
-        <v>233679</v>
+        <v>240128</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>9619.662356479614</v>
+        <v>9506.827646895514</v>
       </c>
       <c r="B48">
-        <v>118985.3075665867</v>
+        <v>118861.7825932722</v>
       </c>
       <c r="C48">
-        <v>128604.9699230663</v>
+        <v>128368.6102401677</v>
       </c>
       <c r="D48">
-        <v>217693.4616496745</v>
+        <v>222753.3711032854</v>
       </c>
       <c r="E48">
-        <v>290719.0400440964</v>
+        <v>299047.8843107111</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>217693.4616496745</v>
+        <v>222753.3711032854</v>
       </c>
       <c r="H48">
-        <v>176532.3834671793</v>
+        <v>179868.8303045552</v>
       </c>
       <c r="I48">
-        <v>114186.6565769171</v>
+        <v>119179.0540061559</v>
       </c>
       <c r="J48">
-        <v>4877195.665679976</v>
+        <v>5983024.458456494</v>
       </c>
       <c r="K48">
-        <v>121111.8256329534</v>
+        <v>121112.2530296231</v>
       </c>
       <c r="L48">
-        <v>168977</v>
+        <v>173779</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>26683.07575685968</v>
+        <v>23792.33915197767</v>
       </c>
       <c r="B49">
-        <v>324583.032349641</v>
+        <v>318999.1822041108</v>
       </c>
       <c r="C49">
-        <v>351266.1081065007</v>
+        <v>342791.5213560885</v>
       </c>
       <c r="D49">
-        <v>575935.0848415421</v>
+        <v>577000.959376391</v>
       </c>
       <c r="E49">
-        <v>770925.6623483005</v>
+        <v>796250.1849362482</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>575935.0848415421</v>
+        <v>577000.959376391</v>
       </c>
       <c r="H49">
-        <v>465892.5308070582</v>
+        <v>480136.982830399</v>
       </c>
       <c r="I49">
-        <v>305033.1315412422</v>
+        <v>316113.2021058492</v>
       </c>
       <c r="J49">
-        <v>13123073.70533219</v>
+        <v>16024943.74819474</v>
       </c>
       <c r="K49">
-        <v>325760.6588759603</v>
+        <v>325760.8420895845</v>
       </c>
       <c r="L49">
-        <v>454638</v>
+        <v>468327</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>26768.80517015906</v>
+        <v>26612.09443990182</v>
       </c>
       <c r="B50">
-        <v>329589.5037009124</v>
+        <v>324829.5208151237</v>
       </c>
       <c r="C50">
-        <v>356358.3088710714</v>
+        <v>351441.6152550255</v>
       </c>
       <c r="D50">
-        <v>592252.5674292268</v>
+        <v>579075.9600113392</v>
       </c>
       <c r="E50">
-        <v>797726.827490126</v>
+        <v>806739.863271181</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>592252.5674292268</v>
+        <v>579075.9600113392</v>
       </c>
       <c r="H50">
-        <v>481424.4684293523</v>
+        <v>484992.3323832802</v>
       </c>
       <c r="I50">
-        <v>316302.3590607737</v>
+        <v>321747.5308879009</v>
       </c>
       <c r="J50">
-        <v>13242661.2299924</v>
+        <v>16026182.54719236</v>
       </c>
       <c r="K50">
-        <v>328834.1549338004</v>
+        <v>328834.0676408655</v>
       </c>
       <c r="L50">
-        <v>459298</v>
+        <v>471696</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>34298.29934297907</v>
+        <v>29327.15218118213</v>
       </c>
       <c r="B51">
-        <v>411941.7567063427</v>
+        <v>384980.7648580858</v>
       </c>
       <c r="C51">
-        <v>446240.0560493218</v>
+        <v>414307.917039268</v>
       </c>
       <c r="D51">
-        <v>695296.6009757965</v>
+        <v>694473.4290067476</v>
       </c>
       <c r="E51">
-        <v>941669.6879427106</v>
+        <v>979143.4864415316</v>
       </c>
       <c r="F51">
-        <v>88633.64783898141</v>
+        <v>88691.07474150708</v>
       </c>
       <c r="G51">
-        <v>606662.9531368151</v>
+        <v>605782.3542652405</v>
       </c>
       <c r="H51">
-        <v>563210.7667062405</v>
+        <v>586867.8266991044</v>
       </c>
       <c r="I51">
-        <v>378458.9212364701</v>
+        <v>392275.6597424273</v>
       </c>
       <c r="J51">
-        <v>15795722.02178518</v>
+        <v>19300410.55436932</v>
       </c>
       <c r="K51">
-        <v>392265.0081609664</v>
+        <v>392265.2148047555</v>
       </c>
       <c r="L51">
-        <v>543071</v>
+        <v>557595</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>23633.89483621867</v>
+        <v>23549.27509324587</v>
       </c>
       <c r="B52">
-        <v>288090.0331893335</v>
+        <v>290440.8741927192</v>
       </c>
       <c r="C52">
-        <v>311723.9280255521</v>
+        <v>313990.149285965</v>
       </c>
       <c r="D52">
-        <v>516953.8493167831</v>
+        <v>518052.5256774202</v>
       </c>
       <c r="E52">
-        <v>695712.407966139</v>
+        <v>688487.3209416881</v>
       </c>
       <c r="F52">
-        <v>65696.16898662325</v>
+        <v>65896.67880968157</v>
       </c>
       <c r="G52">
-        <v>451257.6803301598</v>
+        <v>452155.8468677386</v>
       </c>
       <c r="H52">
-        <v>424091.8172975708</v>
+        <v>414641.075034158</v>
       </c>
       <c r="I52">
-        <v>271620.5906685682</v>
+        <v>273846.2459075301</v>
       </c>
       <c r="J52">
-        <v>11347182.06276703</v>
+        <v>13780423.46162128</v>
       </c>
       <c r="K52">
-        <v>281795.7366980832</v>
+        <v>281795.8665776556</v>
       </c>
       <c r="L52">
-        <v>389747</v>
+        <v>400385</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>25066.07948208314</v>
+        <v>24640.62090053528</v>
       </c>
       <c r="B53">
-        <v>312546.3084794345</v>
+        <v>305628.4323264033</v>
       </c>
       <c r="C53">
-        <v>337612.3879615176</v>
+        <v>330269.0532269385</v>
       </c>
       <c r="D53">
-        <v>569676.3258535364</v>
+        <v>551846.4657386034</v>
       </c>
       <c r="E53">
-        <v>738336.6409220044</v>
+        <v>751170.6213023925</v>
       </c>
       <c r="F53">
-        <v>72671.45289556017</v>
+        <v>71617.28674371613</v>
       </c>
       <c r="G53">
-        <v>497004.8729579762</v>
+        <v>480229.1789948873</v>
       </c>
       <c r="H53">
-        <v>443424.4534286379</v>
+        <v>452451.9021659992</v>
       </c>
       <c r="I53">
-        <v>294912.1874933665</v>
+        <v>298718.7191363933</v>
       </c>
       <c r="J53">
-        <v>12506876.32566094</v>
+        <v>15156115.01101201</v>
       </c>
       <c r="K53">
-        <v>310511.2451513718</v>
+        <v>310510.8050377236</v>
       </c>
       <c r="L53">
-        <v>429750</v>
+        <v>441854</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>47700.23664537994</v>
+        <v>48122.43310768773</v>
       </c>
       <c r="B54">
-        <v>587782.884325224</v>
+        <v>568079.0718607783</v>
       </c>
       <c r="C54">
-        <v>635483.1209706039</v>
+        <v>616201.504968466</v>
       </c>
       <c r="D54">
-        <v>1018893.530966425</v>
+        <v>995221.9868866282</v>
       </c>
       <c r="E54">
-        <v>1398972.851611488</v>
+        <v>1390738.133898454</v>
       </c>
       <c r="F54">
-        <v>133294.1160452169</v>
+        <v>128703.2602695478</v>
       </c>
       <c r="G54">
-        <v>885599.4149212078</v>
+        <v>866518.7266170804</v>
       </c>
       <c r="H54">
-        <v>842411.9573455116</v>
+        <v>836730.9694747376</v>
       </c>
       <c r="I54">
-        <v>556560.8942659762</v>
+        <v>554007.1644237161</v>
       </c>
       <c r="J54">
-        <v>22987131.23801792</v>
+        <v>28142307.30639975</v>
       </c>
       <c r="K54">
-        <v>570648.9670611576</v>
+        <v>570649.0374612293</v>
       </c>
       <c r="L54">
-        <v>790098</v>
+        <v>812042</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>51932.84849333716</v>
+        <v>52528.88038996496</v>
       </c>
       <c r="B55">
-        <v>624965.1652673858</v>
+        <v>638726.4760956618</v>
       </c>
       <c r="C55">
-        <v>676898.0137607229</v>
+        <v>691255.3564856267</v>
       </c>
       <c r="D55">
-        <v>1151402.664317772</v>
+        <v>1161167.358063393</v>
       </c>
       <c r="E55">
-        <v>1590198.377763725</v>
+        <v>1534893.756853</v>
       </c>
       <c r="F55">
-        <v>146628.6215558278</v>
+        <v>145016.4525812567</v>
       </c>
       <c r="G55">
-        <v>1004774.042761945</v>
+        <v>1016150.905482136</v>
       </c>
       <c r="H55">
-        <v>963016.2615202194</v>
+        <v>927346.5353049533</v>
       </c>
       <c r="I55">
-        <v>627182.1162435053</v>
+        <v>607547.2215480473</v>
       </c>
       <c r="J55">
-        <v>25746111.95811895</v>
+        <v>31405376.79108562</v>
       </c>
       <c r="K55">
-        <v>638665.9311833029</v>
+        <v>638665.7023562873</v>
       </c>
       <c r="L55">
-        <v>884343</v>
+        <v>909371</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>33627.30660532656</v>
+        <v>33957.51866375206</v>
       </c>
       <c r="B56">
-        <v>412932.9201957845</v>
+        <v>411918.1106220748</v>
       </c>
       <c r="C56">
-        <v>446560.2268011111</v>
+        <v>445875.6292858269</v>
       </c>
       <c r="D56">
-        <v>759139.0676402107</v>
+        <v>759178.6817084448</v>
       </c>
       <c r="E56">
-        <v>1010302.321403634</v>
+        <v>996874.6198014505</v>
       </c>
       <c r="F56">
-        <v>109415.964806989</v>
+        <v>110377.9537497802</v>
       </c>
       <c r="G56">
-        <v>649723.1028332218</v>
+        <v>648800.7279586646</v>
       </c>
       <c r="H56">
-        <v>610299.9573730264</v>
+        <v>603199.1539845723</v>
       </c>
       <c r="I56">
-        <v>400002.3640306077</v>
+        <v>393675.4658168783</v>
       </c>
       <c r="J56">
-        <v>16598850.49259596</v>
+        <v>20210633.36061033</v>
       </c>
       <c r="K56">
-        <v>412477.9802320249</v>
+        <v>412477.6864685778</v>
       </c>
       <c r="L56">
-        <v>571266</v>
+        <v>586576</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>50191.45826470528</v>
+        <v>49525.36238101256</v>
       </c>
       <c r="B57">
-        <v>629225.9726695484</v>
+        <v>626288.5936335372</v>
       </c>
       <c r="C57">
-        <v>679417.4309342536</v>
+        <v>675813.9560145498</v>
       </c>
       <c r="D57">
-        <v>1114500.241415882</v>
+        <v>1114811.571894354</v>
       </c>
       <c r="E57">
-        <v>1528148.617692448</v>
+        <v>1520576.383130016</v>
       </c>
       <c r="F57">
-        <v>160601.3115123289</v>
+        <v>159967.2371608313</v>
       </c>
       <c r="G57">
-        <v>953898.9299035536</v>
+        <v>954844.3347335232</v>
       </c>
       <c r="H57">
-        <v>921613.0969970835</v>
+        <v>915183.6278646386</v>
       </c>
       <c r="I57">
-        <v>606535.5206953648</v>
+        <v>605392.7552653771</v>
       </c>
       <c r="J57">
-        <v>24943440.07395596</v>
+        <v>30381053.15893194</v>
       </c>
       <c r="K57">
-        <v>619089.8244816549</v>
+        <v>619089.9528940509</v>
       </c>
       <c r="L57">
-        <v>856685</v>
+        <v>882440</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>215525.1684820213</v>
+        <v>216236.554408828</v>
       </c>
       <c r="C58">
-        <v>215525.1684820213</v>
+        <v>216236.554408828</v>
       </c>
       <c r="D58">
-        <v>368405.6322467287</v>
+        <v>371398.7027033701</v>
       </c>
       <c r="E58">
-        <v>480932.5193603063</v>
+        <v>498674.8162982721</v>
       </c>
       <c r="F58">
-        <v>54413.94043130455</v>
+        <v>53370.70052224309</v>
       </c>
       <c r="G58">
-        <v>313991.6918154241</v>
+        <v>318028.002181127</v>
       </c>
       <c r="H58">
-        <v>291366.2489070768</v>
+        <v>300224.6985101374</v>
       </c>
       <c r="I58">
-        <v>189566.2704532296</v>
+        <v>198450.1177881348</v>
       </c>
       <c r="J58">
-        <v>8029715.836023335</v>
+        <v>9768318.897473989</v>
       </c>
       <c r="K58">
-        <v>199388.1949810064</v>
+        <v>199388.0753238274</v>
       </c>
       <c r="L58">
-        <v>278191</v>
+        <v>285405</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>127258.0829188092</v>
+        <v>124398.5345370673</v>
       </c>
       <c r="C59">
-        <v>127258.0829188092</v>
+        <v>124398.5345370673</v>
       </c>
       <c r="D59">
-        <v>207414.9036457094</v>
+        <v>205729.3990452983</v>
       </c>
       <c r="E59">
-        <v>277648.2550844732</v>
+        <v>280274.1549828993</v>
       </c>
       <c r="F59">
-        <v>29879.84759847136</v>
+        <v>29972.50528746792</v>
       </c>
       <c r="G59">
-        <v>177535.0560472381</v>
+        <v>175756.8937578304</v>
       </c>
       <c r="H59">
-        <v>167933.5197696435</v>
+        <v>169965.8865903478</v>
       </c>
       <c r="I59">
-        <v>109714.7353148297</v>
+        <v>110308.2683925514</v>
       </c>
       <c r="J59">
-        <v>4563147.68216338</v>
+        <v>5573296.762075863</v>
       </c>
       <c r="K59">
-        <v>113272.8474965658</v>
+        <v>113273.0669844771</v>
       </c>
       <c r="L59">
-        <v>158116</v>
+        <v>162359</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>179689.1517850659</v>
+        <v>187731.6768712929</v>
       </c>
       <c r="C60">
-        <v>179689.1517850659</v>
+        <v>187731.6768712929</v>
       </c>
       <c r="D60">
-        <v>310369.1497623313</v>
+        <v>316337.120994304</v>
       </c>
       <c r="E60">
-        <v>421958.8064150689</v>
+        <v>430584.16849256</v>
       </c>
       <c r="F60">
-        <v>44721.15922726967</v>
+        <v>45031.16308885587</v>
       </c>
       <c r="G60">
-        <v>265647.9905350616</v>
+        <v>271305.957905448</v>
       </c>
       <c r="H60">
-        <v>253293.3090891621</v>
+        <v>259981.8407672312</v>
       </c>
       <c r="I60">
-        <v>168665.4973259068</v>
+        <v>170602.3277253288</v>
       </c>
       <c r="J60">
-        <v>7086187.360520934</v>
+        <v>8621905.292762553</v>
       </c>
       <c r="K60">
-        <v>175786.0683271856</v>
+        <v>175786.2014947428</v>
       </c>
       <c r="L60">
-        <v>245568</v>
+        <v>252312</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>97032.00883015277</v>
+        <v>89394.87759254266</v>
       </c>
       <c r="C61">
-        <v>97032.00883015277</v>
+        <v>89394.87759254266</v>
       </c>
       <c r="D61">
-        <v>156155.6885725634</v>
+        <v>152311.4152402071</v>
       </c>
       <c r="E61">
-        <v>215911.5260498454</v>
+        <v>205941.280694198</v>
       </c>
       <c r="F61">
-        <v>22679.14682652719</v>
+        <v>22121.58873857072</v>
       </c>
       <c r="G61">
-        <v>133476.5417460362</v>
+        <v>130189.8265016364</v>
       </c>
       <c r="H61">
-        <v>129551.0284773319</v>
+        <v>124010.6401316428</v>
       </c>
       <c r="I61">
-        <v>86360.49757251352</v>
+        <v>81930.64056255527</v>
       </c>
       <c r="J61">
-        <v>3500011.348536015</v>
+        <v>4296405.488378807</v>
       </c>
       <c r="K61">
-        <v>86887.26254565787</v>
+        <v>86887.18003019461</v>
       </c>
       <c r="L61">
-        <v>121263</v>
+        <v>124829</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6973.953838310465</v>
+        <v>6761.080198943166</v>
       </c>
       <c r="C62">
-        <v>6973.953838310465</v>
+        <v>6761.080198943166</v>
       </c>
       <c r="D62">
-        <v>11100.39464268279</v>
+        <v>10692.91790099351</v>
       </c>
       <c r="E62">
-        <v>14703.63871713791</v>
+        <v>14963.87653828647</v>
       </c>
       <c r="F62">
-        <v>1592.661239703007</v>
+        <v>1501.42779549733</v>
       </c>
       <c r="G62">
-        <v>9507.733402979782</v>
+        <v>9191.490105496183</v>
       </c>
       <c r="H62">
-        <v>8844.605925970765</v>
+        <v>8936.973742536975</v>
       </c>
       <c r="I62">
-        <v>5859.032791167141</v>
+        <v>6026.902795749495</v>
       </c>
       <c r="J62">
-        <v>249873.4159954966</v>
+        <v>302998.1446029039</v>
       </c>
       <c r="K62">
-        <v>6203.764441239703</v>
+        <v>6203.971072540498</v>
       </c>
       <c r="L62">
-        <v>8663</v>
+        <v>8895</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2803.808621696738</v>
+        <v>2697.309299278601</v>
       </c>
       <c r="C63">
-        <v>2803.808621696738</v>
+        <v>2697.309299278601</v>
       </c>
       <c r="D63">
-        <v>4530.205069418692</v>
+        <v>4496.596167855185</v>
       </c>
       <c r="E63">
-        <v>6249.586118982877</v>
+        <v>6168.046690415449</v>
       </c>
       <c r="F63">
-        <v>662.0886207408734</v>
+        <v>648.0002250686741</v>
       </c>
       <c r="G63">
-        <v>3868.116448677818</v>
+        <v>3848.59594278651</v>
       </c>
       <c r="H63">
-        <v>3752.507805970876</v>
+        <v>3732.917301085449</v>
       </c>
       <c r="I63">
-        <v>2497.078313012001</v>
+        <v>2435.12938933</v>
       </c>
       <c r="J63">
-        <v>100925.961188807</v>
+        <v>123111.1069761343</v>
       </c>
       <c r="K63">
-        <v>2505.64799580509</v>
+        <v>2505.993406924159</v>
       </c>
       <c r="L63">
-        <v>3499</v>
+        <v>3597</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4634.993936330956</v>
+        <v>4729.03610131853</v>
       </c>
       <c r="C64">
-        <v>4634.993936330956</v>
+        <v>4729.03610131853</v>
       </c>
       <c r="D64">
-        <v>3327.538759605692</v>
+        <v>3373.47804072582</v>
       </c>
       <c r="E64">
-        <v>96.1282632621931</v>
+        <v>158.7685874732586</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3327.538759605692</v>
+        <v>3373.47804072582</v>
       </c>
       <c r="H64">
-        <v>45.50078395565725</v>
+        <v>79.81844075414374</v>
       </c>
       <c r="I64">
-        <v>50.62747930653585</v>
+        <v>78.95014671911488</v>
       </c>
       <c r="J64">
-        <v>82595.34277730425</v>
+        <v>90295.22938560024</v>
       </c>
       <c r="K64">
-        <v>1879.270864181246</v>
+        <v>1879.197940847729</v>
       </c>
       <c r="L64">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>48588.13124327186</v>
+        <v>49418.6072750106</v>
       </c>
       <c r="C65">
-        <v>48588.13124327186</v>
+        <v>49418.6072750106</v>
       </c>
       <c r="D65">
-        <v>34664.64264781317</v>
+        <v>35594.64190106258</v>
       </c>
       <c r="E65">
-        <v>1334.950967458383</v>
+        <v>1511.007190849442</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>34664.64264781317</v>
+        <v>35594.64190106258</v>
       </c>
       <c r="H65">
-        <v>651.6183265601082</v>
+        <v>719.4448500571946</v>
       </c>
       <c r="I65">
-        <v>683.3326408982743</v>
+        <v>791.5623407922473</v>
       </c>
       <c r="J65">
-        <v>865119.4295134213</v>
+        <v>957457.887028811</v>
       </c>
       <c r="K65">
-        <v>19681.71894330778</v>
+        <v>19681.86569489138</v>
       </c>
       <c r="L65">
-        <v>28352</v>
+        <v>28403</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>53646.03059926489</v>
+        <v>52916.27320818267</v>
       </c>
       <c r="C66">
-        <v>53646.03059926489</v>
+        <v>52916.27320818267</v>
       </c>
       <c r="D66">
-        <v>36648.19053381175</v>
+        <v>37608.1018536605</v>
       </c>
       <c r="E66">
-        <v>1147.760661602403</v>
+        <v>1409.766122736917</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>36648.19053381175</v>
+        <v>37608.1018536605</v>
       </c>
       <c r="H66">
-        <v>556.4484148604377</v>
+        <v>666.1114922691895</v>
       </c>
       <c r="I66">
-        <v>591.3122467419655</v>
+        <v>743.6546304677274</v>
       </c>
       <c r="J66">
-        <v>933175.9744362768</v>
+        <v>1025001.722534324</v>
       </c>
       <c r="K66">
-        <v>21219.27198424688</v>
+        <v>21218.71716203121</v>
       </c>
       <c r="L66">
-        <v>30543</v>
+        <v>30602</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>90334.91391561077</v>
+        <v>89413.06289379142</v>
       </c>
       <c r="B67">
-        <v>631720.3770141035</v>
+        <v>593128.2387272386</v>
       </c>
       <c r="C67">
-        <v>722055.2909297142</v>
+        <v>682541.3016210301</v>
       </c>
       <c r="D67">
-        <v>500991.4786563852</v>
+        <v>509470.7848745628</v>
       </c>
       <c r="E67">
-        <v>18682.626220877</v>
+        <v>19245.39660755413</v>
       </c>
       <c r="F67">
-        <v>186621.3964029628</v>
+        <v>188369.5924328051</v>
       </c>
       <c r="G67">
-        <v>314370.0822534224</v>
+        <v>321101.1924417578</v>
       </c>
       <c r="H67">
-        <v>9579.063562874198</v>
+        <v>9038.706677881955</v>
       </c>
       <c r="I67">
-        <v>9103.562658002804</v>
+        <v>10206.68992967217</v>
       </c>
       <c r="J67">
-        <v>12279746.30114106</v>
+        <v>13692012.37473541</v>
       </c>
       <c r="K67">
-        <v>279227.9414381672</v>
+        <v>279227.7611205978</v>
       </c>
       <c r="L67">
-        <v>385124</v>
+        <v>384916</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>96164.5465393482</v>
+        <v>94228.24247812417</v>
       </c>
       <c r="B68">
-        <v>665165.7694498051</v>
+        <v>657378.3583159633</v>
       </c>
       <c r="C68">
-        <v>761330.3159891533</v>
+        <v>751606.6007940875</v>
       </c>
       <c r="D68">
-        <v>539819.2440800373</v>
+        <v>547913.9125268632</v>
       </c>
       <c r="E68">
-        <v>21889.4475359632</v>
+        <v>16883.60779982156</v>
       </c>
       <c r="F68">
-        <v>197381.9331583892</v>
+        <v>202304.979911527</v>
       </c>
       <c r="G68">
-        <v>342437.3109216482</v>
+        <v>345608.9326153361</v>
       </c>
       <c r="H68">
-        <v>10386.52906822012</v>
+        <v>7738.011292608902</v>
       </c>
       <c r="I68">
-        <v>11502.91846774308</v>
+        <v>9145.596507212655</v>
       </c>
       <c r="J68">
-        <v>13178783.22398083</v>
+        <v>14563248.30355569</v>
       </c>
       <c r="K68">
-        <v>299791.6781876413</v>
+        <v>299791.7156483433</v>
       </c>
       <c r="L68">
-        <v>413849</v>
+        <v>413622</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>211732.8489974582</v>
+        <v>204799.1343633738</v>
       </c>
       <c r="B69">
-        <v>1480182.25261042</v>
+        <v>1426054.847886227</v>
       </c>
       <c r="C69">
-        <v>1691915.101607878</v>
+        <v>1630853.982249601</v>
       </c>
       <c r="D69">
-        <v>1156367.41410368</v>
+        <v>1199489.345221443</v>
       </c>
       <c r="E69">
-        <v>38533.50469865025</v>
+        <v>46893.34318723676</v>
       </c>
       <c r="F69">
-        <v>426584.6324102235</v>
+        <v>442685.822771835</v>
       </c>
       <c r="G69">
-        <v>729782.7816934562</v>
+        <v>756803.5224496083</v>
       </c>
       <c r="H69">
-        <v>17852.89829101014</v>
+        <v>22314.33241002015</v>
       </c>
       <c r="I69">
-        <v>20680.60640764012</v>
+        <v>24579.01077721661</v>
       </c>
       <c r="J69">
-        <v>29242287.85801786</v>
+        <v>32100820.82648221</v>
       </c>
       <c r="K69">
-        <v>665261.7728538709</v>
+        <v>665262.2842574688</v>
       </c>
       <c r="L69">
-        <v>917572</v>
+        <v>918456</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>188201.5412624107</v>
+        <v>184247.9046074994</v>
       </c>
       <c r="B70">
-        <v>1254002.593455149</v>
+        <v>1237071.285100104</v>
       </c>
       <c r="C70">
-        <v>1442204.13471756</v>
+        <v>1421319.189707604</v>
       </c>
       <c r="D70">
-        <v>1011251.43460358</v>
+        <v>1054216.403518396</v>
       </c>
       <c r="E70">
-        <v>33080.76254098817</v>
+        <v>42668.61257185138</v>
       </c>
       <c r="F70">
-        <v>184439.3718166894</v>
+        <v>185972.6341895328</v>
       </c>
       <c r="G70">
-        <v>826812.0627868905</v>
+        <v>868243.7693288629</v>
       </c>
       <c r="H70">
-        <v>15590.3498548554</v>
+        <v>21324.98012720095</v>
       </c>
       <c r="I70">
-        <v>17490.41268613278</v>
+        <v>21343.63244465043</v>
       </c>
       <c r="J70">
-        <v>25159783.55197976</v>
+        <v>28110161.074998</v>
       </c>
       <c r="K70">
-        <v>572384.8340556902</v>
+        <v>572384.8807352865</v>
       </c>
       <c r="L70">
-        <v>791062</v>
+        <v>791006</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>267220.879004957</v>
+        <v>261581.2437764823</v>
       </c>
       <c r="B71">
-        <v>1822799.47957338</v>
+        <v>1813158.186849618</v>
       </c>
       <c r="C71">
-        <v>2090020.358578337</v>
+        <v>2074739.4306261</v>
       </c>
       <c r="D71">
-        <v>1489381.571808481</v>
+        <v>1408624.020268152</v>
       </c>
       <c r="E71">
-        <v>62861.9289465783</v>
+        <v>49220.68740874732</v>
       </c>
       <c r="F71">
-        <v>263111.6590647973</v>
+        <v>258779.6044405217</v>
       </c>
       <c r="G71">
-        <v>1226269.912743684</v>
+        <v>1149844.41582763</v>
       </c>
       <c r="H71">
-        <v>30431.04034232429</v>
+        <v>23600.07096525071</v>
       </c>
       <c r="I71">
-        <v>32430.88860425401</v>
+        <v>25620.61644349661</v>
       </c>
       <c r="J71">
-        <v>36621850.19694195</v>
+        <v>40292741.53541122</v>
       </c>
       <c r="K71">
-        <v>833640.7060005768</v>
+        <v>833640.7700870117</v>
       </c>
       <c r="L71">
-        <v>1153251</v>
+        <v>1151868</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>219343.2538298295</v>
+        <v>215807.0333564186</v>
       </c>
       <c r="B72">
-        <v>1480401.060271447</v>
+        <v>1486518.264175925</v>
       </c>
       <c r="C72">
-        <v>1699744.314101276</v>
+        <v>1702325.297532343</v>
       </c>
       <c r="D72">
-        <v>1216946.977304709</v>
+        <v>1204700.811852141</v>
       </c>
       <c r="E72">
-        <v>44132.673898859</v>
+        <v>39299.80374277315</v>
       </c>
       <c r="F72">
-        <v>219344.7552433145</v>
+        <v>216944.4184270017</v>
       </c>
       <c r="G72">
-        <v>997602.2220613945</v>
+        <v>987756.393425139</v>
       </c>
       <c r="H72">
-        <v>21513.36402460974</v>
+        <v>18555.5466911188</v>
       </c>
       <c r="I72">
-        <v>22619.30987424926</v>
+        <v>20744.25705165435</v>
       </c>
       <c r="J72">
-        <v>29866240.03920441</v>
+        <v>33160983.0494343</v>
       </c>
       <c r="K72">
-        <v>679393.0381764148</v>
+        <v>679392.9977188649</v>
       </c>
       <c r="L72">
-        <v>938677</v>
+        <v>939431</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>125770.8620279243</v>
+        <v>123762.5163447953</v>
       </c>
       <c r="B73">
-        <v>872906.5288175779</v>
+        <v>852956.1248209522</v>
       </c>
       <c r="C73">
-        <v>998677.3908455023</v>
+        <v>976718.6411657475</v>
       </c>
       <c r="D73">
-        <v>696682.4328262124</v>
+        <v>704602.306007675</v>
       </c>
       <c r="E73">
-        <v>26026.27053837208</v>
+        <v>22891.38688616391</v>
       </c>
       <c r="F73">
-        <v>125336.4846770857</v>
+        <v>125814.2900836567</v>
       </c>
       <c r="G73">
-        <v>571345.9481491267</v>
+        <v>578788.0159240182</v>
       </c>
       <c r="H73">
-        <v>12239.73537457156</v>
+        <v>11315.000461626</v>
       </c>
       <c r="I73">
-        <v>13786.53516380052</v>
+        <v>11576.38642453791</v>
       </c>
       <c r="J73">
-        <v>17109206.31615788</v>
+        <v>18948264.72165077</v>
       </c>
       <c r="K73">
-        <v>389253.0530189707</v>
+        <v>389253.1879233462</v>
       </c>
       <c r="L73">
-        <v>538342</v>
+        <v>538645</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>176187.5172841672</v>
+        <v>174371.0491523742</v>
       </c>
       <c r="B74">
-        <v>1189621.971624915</v>
+        <v>1181483.531926882</v>
       </c>
       <c r="C74">
-        <v>1365809.488909082</v>
+        <v>1355854.581079256</v>
       </c>
       <c r="D74">
-        <v>973886.6661985969</v>
+        <v>984947.1691647894</v>
       </c>
       <c r="E74">
-        <v>43829.36424577315</v>
+        <v>41898.93208023232</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>973886.6661985969</v>
+        <v>984947.1691647894</v>
       </c>
       <c r="H74">
-        <v>21631.37227227257</v>
+        <v>20215.77518599271</v>
       </c>
       <c r="I74">
-        <v>22197.99197350058</v>
+        <v>21683.15689423961</v>
       </c>
       <c r="J74">
-        <v>23823006.41127631</v>
+        <v>26407628.51252493</v>
       </c>
       <c r="K74">
-        <v>542235.0533774825</v>
+        <v>542234.6754446838</v>
       </c>
       <c r="L74">
-        <v>757423</v>
+        <v>757148</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>543073.4152977979</v>
+        <v>547320.6585115248</v>
       </c>
       <c r="C75">
-        <v>543073.4152977979</v>
+        <v>547320.6585115248</v>
       </c>
       <c r="D75">
-        <v>380075.3429367236</v>
+        <v>384429.6091619768</v>
       </c>
       <c r="E75">
-        <v>13532.60613234915</v>
+        <v>12742.63924846608</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>380075.3429367236</v>
+        <v>384429.6091619768</v>
       </c>
       <c r="H75">
-        <v>6441.053268160677</v>
+        <v>5910.501797540347</v>
       </c>
       <c r="I75">
-        <v>7091.552864188475</v>
+        <v>6832.137450925731</v>
       </c>
       <c r="J75">
-        <v>9520403.049649443</v>
+        <v>10585799.80468539</v>
       </c>
       <c r="K75">
-        <v>216447.0300366392</v>
+        <v>216447.1614779489</v>
       </c>
       <c r="L75">
-        <v>311809</v>
+        <v>312534</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>440415.5392466504</v>
+        <v>436860.9969668957</v>
       </c>
       <c r="C76">
-        <v>440415.5392466504</v>
+        <v>436860.9969668957</v>
       </c>
       <c r="D76">
-        <v>310392.1285979966</v>
+        <v>318079.6575956096</v>
       </c>
       <c r="E76">
-        <v>11078.56194816197</v>
+        <v>13656.40660418136</v>
       </c>
       <c r="F76">
-        <v>112752.2964595895</v>
+        <v>115607.8641818646</v>
       </c>
       <c r="G76">
-        <v>197639.8321384071</v>
+        <v>202471.793413745</v>
       </c>
       <c r="H76">
-        <v>5486.88777220048</v>
+        <v>6408.859665916346</v>
       </c>
       <c r="I76">
-        <v>5591.674175961492</v>
+        <v>7247.546938265019</v>
       </c>
       <c r="J76">
-        <v>7753389.431032918</v>
+        <v>8603718.578240195</v>
       </c>
       <c r="K76">
-        <v>176526.2963556736</v>
+        <v>176526.3242338565</v>
       </c>
       <c r="L76">
-        <v>250303</v>
+        <v>251185</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>233968.7002674704</v>
+        <v>235709.5304558468</v>
       </c>
       <c r="C77">
-        <v>233968.7002674704</v>
+        <v>235709.5304558468</v>
       </c>
       <c r="D77">
-        <v>168472.8791297544</v>
+        <v>175449.9396070089</v>
       </c>
       <c r="E77">
-        <v>4971.926075686855</v>
+        <v>6119.34387309713</v>
       </c>
       <c r="F77">
-        <v>63548.66221828894</v>
+        <v>64903.00171223602</v>
       </c>
       <c r="G77">
-        <v>104924.2169114655</v>
+        <v>110546.9378947729</v>
       </c>
       <c r="H77">
-        <v>2543.005183131784</v>
+        <v>3065.800172794553</v>
       </c>
       <c r="I77">
-        <v>2428.920892555071</v>
+        <v>3053.543700302577</v>
       </c>
       <c r="J77">
-        <v>4167856.794300152</v>
+        <v>4609451.196038884</v>
       </c>
       <c r="K77">
-        <v>94798.12693689694</v>
+        <v>94798.20512075636</v>
       </c>
       <c r="L77">
-        <v>134567</v>
+        <v>134707</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>422176.4116602921</v>
+        <v>421470.1312638526</v>
       </c>
       <c r="C78">
-        <v>422176.4116602921</v>
+        <v>421470.1312638526</v>
       </c>
       <c r="D78">
-        <v>297185.7554877016</v>
+        <v>304179.6637559236</v>
       </c>
       <c r="E78">
-        <v>11123.7657569391</v>
+        <v>11194.13247031979</v>
       </c>
       <c r="F78">
-        <v>117284.3484945463</v>
+        <v>120797.2787110527</v>
       </c>
       <c r="G78">
-        <v>179901.4069931553</v>
+        <v>183382.3850448709</v>
       </c>
       <c r="H78">
-        <v>5519.487128588021</v>
+        <v>5462.057565750432</v>
       </c>
       <c r="I78">
-        <v>5604.278628351083</v>
+        <v>5732.074904569357</v>
       </c>
       <c r="J78">
-        <v>7422753.697002036</v>
+        <v>8283053.018248038</v>
       </c>
       <c r="K78">
-        <v>168934.6911039772</v>
+        <v>168934.7702133039</v>
       </c>
       <c r="L78">
-        <v>239731</v>
+        <v>239910</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>43266.99225669034</v>
+        <v>43202.25610184854</v>
       </c>
       <c r="C79">
-        <v>43266.99225669034</v>
+        <v>43202.25610184854</v>
       </c>
       <c r="D79">
-        <v>31873.64466294493</v>
+        <v>30974.38160857784</v>
       </c>
       <c r="E79">
-        <v>945.4418289695737</v>
+        <v>1134.900031364174</v>
       </c>
       <c r="F79">
-        <v>12384.05646461176</v>
+        <v>12195.94631234249</v>
       </c>
       <c r="G79">
-        <v>19489.58819833317</v>
+        <v>18778.43529623535</v>
       </c>
       <c r="H79">
-        <v>469.2410028494323</v>
+        <v>546.9876960664924</v>
       </c>
       <c r="I79">
-        <v>476.2008261201415</v>
+        <v>587.9123352976814</v>
       </c>
       <c r="J79">
-        <v>763803.0040616973</v>
+        <v>845635.1832406678</v>
       </c>
       <c r="K79">
-        <v>17369.11917567538</v>
+        <v>17369.12935793362</v>
       </c>
       <c r="L79">
-        <v>24642</v>
+        <v>24669</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6438.411454394984</v>
+        <v>6480.070896903037</v>
       </c>
       <c r="C80">
-        <v>6438.411454394984</v>
+        <v>6480.070896903037</v>
       </c>
       <c r="D80">
-        <v>4899.779002016416</v>
+        <v>4579.095654917309</v>
       </c>
       <c r="E80">
-        <v>199.7065385619969</v>
+        <v>168.6013774426481</v>
       </c>
       <c r="F80">
-        <v>1924.238877777012</v>
+        <v>1786.306248533124</v>
       </c>
       <c r="G80">
-        <v>2975.540124239404</v>
+        <v>2792.789406384185</v>
       </c>
       <c r="H80">
-        <v>98.89931814421249</v>
+        <v>78.45277767542812</v>
       </c>
       <c r="I80">
-        <v>100.8072204177844</v>
+        <v>90.14859976722001</v>
       </c>
       <c r="J80">
-        <v>115658.7967105667</v>
+        <v>127205.5827431847</v>
       </c>
       <c r="K80">
-        <v>2630.915913272198</v>
+        <v>2630.823480543942</v>
       </c>
       <c r="L80">
-        <v>3731</v>
+        <v>3738</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13961.59362042193</v>
+        <v>13819.92035726688</v>
       </c>
       <c r="C81">
-        <v>13961.59362042193</v>
+        <v>13819.92035726688</v>
       </c>
       <c r="D81">
-        <v>10305.10347193396</v>
+        <v>9978.783038955566</v>
       </c>
       <c r="E81">
-        <v>371.7511073603689</v>
+        <v>275.5093908760254</v>
       </c>
       <c r="F81">
-        <v>4083.883954478236</v>
+        <v>3901.680676620419</v>
       </c>
       <c r="G81">
-        <v>6221.219517455718</v>
+        <v>6077.102362335147</v>
       </c>
       <c r="H81">
-        <v>180.4662591260081</v>
+        <v>126.0013066010835</v>
       </c>
       <c r="I81">
-        <v>191.2848482343607</v>
+        <v>149.5080842749419</v>
       </c>
       <c r="J81">
-        <v>247990.4969275582</v>
+        <v>274065.3248967201</v>
       </c>
       <c r="K81">
-        <v>5644.015772525917</v>
+        <v>5643.758410998523</v>
       </c>
       <c r="L81">
-        <v>8006</v>
+        <v>8029</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>928.5937006003084</v>
+        <v>950.0512490892571</v>
       </c>
       <c r="B82">
-        <v>3896.460367445443</v>
+        <v>3931.745608906925</v>
       </c>
       <c r="C82">
-        <v>4825.054068045751</v>
+        <v>4881.796857996182</v>
       </c>
       <c r="D82">
-        <v>12647.37798102086</v>
+        <v>12645.990573544</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12647.37798102086</v>
+        <v>12645.990573544</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>300891.6401296213</v>
+        <v>307449.9054077055</v>
       </c>
       <c r="K82">
-        <v>5950.918879144726</v>
+        <v>5951.252738247045</v>
       </c>
       <c r="L82">
-        <v>8366</v>
+        <v>8488</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1623.642768449674</v>
+        <v>1561.701159229718</v>
       </c>
       <c r="B83">
-        <v>6574.231562965606</v>
+        <v>6499.057553734013</v>
       </c>
       <c r="C83">
-        <v>8197.87433141528</v>
+        <v>8060.758712963731</v>
       </c>
       <c r="D83">
-        <v>20535.38652605947</v>
+        <v>20611.12491954027</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20535.38652605947</v>
+        <v>20611.12491954027</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>502964.6288476175</v>
+        <v>514333.7670620834</v>
       </c>
       <c r="K83">
-        <v>9946.826603242269</v>
+        <v>9946.795793618829</v>
       </c>
       <c r="L83">
-        <v>13953</v>
+        <v>14180</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9943.496233755224</v>
+        <v>9556.559440910081</v>
       </c>
       <c r="B84">
-        <v>39582.42119768582</v>
+        <v>39879.72445504197</v>
       </c>
       <c r="C84">
-        <v>49525.91743144104</v>
+        <v>49436.28389595205</v>
       </c>
       <c r="D84">
-        <v>125975.6552803214</v>
+        <v>128038.1182367089</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>33919.80502684753</v>
+        <v>34865.58732643261</v>
       </c>
       <c r="G84">
-        <v>92055.85025347385</v>
+        <v>93172.5309102763</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3079087.700237366</v>
+        <v>3141540.697458023</v>
       </c>
       <c r="K84">
-        <v>60896.01122865916</v>
+        <v>60895.88759113938</v>
       </c>
       <c r="L84">
-        <v>84362</v>
+        <v>85430</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6221.141484729619</v>
+        <v>6328.921859971727</v>
       </c>
       <c r="B85">
-        <v>24514.29540383587</v>
+        <v>25024.71151618973</v>
       </c>
       <c r="C85">
-        <v>30735.43688856549</v>
+        <v>31353.63337616146</v>
       </c>
       <c r="D85">
-        <v>79246.50348430751</v>
+        <v>78407.1000956098</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21646.88041336564</v>
+        <v>21179.38982891065</v>
       </c>
       <c r="G85">
-        <v>57599.62307094188</v>
+        <v>57227.71026669916</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1923164.064984574</v>
+        <v>1969670.486441997</v>
       </c>
       <c r="K85">
-        <v>38034.34806697549</v>
+        <v>38033.69870572176</v>
       </c>
       <c r="L85">
-        <v>52790</v>
+        <v>53311</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>17894.57992505965</v>
+        <v>17756.37777970848</v>
       </c>
       <c r="B86">
-        <v>69930.69541592074</v>
+        <v>71827.40621283888</v>
       </c>
       <c r="C86">
-        <v>87825.2753409804</v>
+        <v>89583.78399254735</v>
       </c>
       <c r="D86">
-        <v>236051.2314155719</v>
+        <v>237308.2194581379</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>63399.78114275176</v>
+        <v>63381.79583926546</v>
       </c>
       <c r="G86">
-        <v>172651.4502728201</v>
+        <v>173926.4236188725</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5655501.909258914</v>
+        <v>5797406.689199492</v>
       </c>
       <c r="K86">
-        <v>111846.8546607451</v>
+        <v>111846.8321743611</v>
       </c>
       <c r="L86">
-        <v>154793</v>
+        <v>156845</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10439.21930114926</v>
+        <v>11002.61848556554</v>
       </c>
       <c r="B87">
-        <v>42008.23758595825</v>
+        <v>43642.1226839536</v>
       </c>
       <c r="C87">
-        <v>52447.4568871075</v>
+        <v>54644.74116951914</v>
       </c>
       <c r="D87">
-        <v>137311.4192504161</v>
+        <v>139415.0671404444</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>36713.48432454156</v>
+        <v>37765.5120413176</v>
       </c>
       <c r="G87">
-        <v>100597.9349258745</v>
+        <v>101649.5550991268</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>3385563.105929609</v>
+        <v>3478032.395741787</v>
       </c>
       <c r="K87">
-        <v>66952.83836902828</v>
+        <v>66953.07177815028</v>
       </c>
       <c r="L87">
-        <v>92767</v>
+        <v>93965</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>14212.88739294187</v>
+        <v>13832.79566105225</v>
       </c>
       <c r="B88">
-        <v>56030.03985139578</v>
+        <v>57306.95969060932</v>
       </c>
       <c r="C88">
-        <v>70242.92724433765</v>
+        <v>71139.75535166157</v>
       </c>
       <c r="D88">
-        <v>179175.1909701068</v>
+        <v>184528.4732629965</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>48764.10021084652</v>
+        <v>49847.16725016259</v>
       </c>
       <c r="G88">
-        <v>130411.0907592603</v>
+        <v>134681.3060128339</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>4416332.887409559</v>
+        <v>4501687.10736779</v>
       </c>
       <c r="K88">
-        <v>87332.09251411601</v>
+        <v>87332.09762065498</v>
       </c>
       <c r="L88">
-        <v>120929</v>
+        <v>122567</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>11010.1933753275</v>
+        <v>10839.84941836258</v>
       </c>
       <c r="B89">
-        <v>42649.03719978211</v>
+        <v>42845.40915742764</v>
       </c>
       <c r="C89">
-        <v>53659.2305751096</v>
+        <v>53685.25857579022</v>
       </c>
       <c r="D89">
-        <v>138834.52972376</v>
+        <v>139111.0493972256</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>37070.01189800593</v>
+        <v>37746.39081973246</v>
       </c>
       <c r="G89">
-        <v>101764.517825754</v>
+        <v>101364.6585774932</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3342607.328226091</v>
+        <v>3424243.439541142</v>
       </c>
       <c r="K89">
-        <v>66111.02772464258</v>
+        <v>66111.21206789992</v>
       </c>
       <c r="L89">
-        <v>91702</v>
+        <v>92688</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7721.668895181642</v>
+        <v>7301.381110944588</v>
       </c>
       <c r="B90">
-        <v>30937.66276678554</v>
+        <v>30941.36047541643</v>
       </c>
       <c r="C90">
-        <v>38659.33166196718</v>
+        <v>38242.74158636101</v>
       </c>
       <c r="D90">
-        <v>101796.2191768023</v>
+        <v>102679.8524341214</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>27948.26655205119</v>
+        <v>27544.7666648315</v>
       </c>
       <c r="G90">
-        <v>73847.95262475108</v>
+        <v>75135.0857692899</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2439198.488343992</v>
+        <v>2501793.792923777</v>
       </c>
       <c r="K90">
-        <v>48243.68752678786</v>
+        <v>48243.80114180448</v>
       </c>
       <c r="L90">
-        <v>66791</v>
+        <v>67816</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8148.571604625899</v>
+        <v>8083.056497885941</v>
       </c>
       <c r="B91">
-        <v>33771.14612903702</v>
+        <v>33148.23629625906</v>
       </c>
       <c r="C91">
-        <v>41919.71773366292</v>
+        <v>41231.292794145</v>
       </c>
       <c r="D91">
-        <v>108763.5032014682</v>
+        <v>110336.1299661375</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29360.7789033523</v>
+        <v>29742.51706561154</v>
       </c>
       <c r="G91">
-        <v>79402.72429811588</v>
+        <v>80593.61290052596</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>2648848.079145471</v>
+        <v>2713298.026112522</v>
       </c>
       <c r="K91">
-        <v>52389.01645779439</v>
+        <v>52389.09601316196</v>
       </c>
       <c r="L91">
-        <v>72427</v>
+        <v>73609</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6209.60283324887</v>
+        <v>6070.302681606843</v>
       </c>
       <c r="B92">
-        <v>24743.4533952517</v>
+        <v>25253.76896060277</v>
       </c>
       <c r="C92">
-        <v>30953.05622850057</v>
+        <v>31324.07164220961</v>
       </c>
       <c r="D92">
-        <v>80569.351662214</v>
+        <v>81775.28538238929</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>21958.38435847166</v>
+        <v>22033.85726403819</v>
       </c>
       <c r="G92">
-        <v>58610.96730374234</v>
+        <v>59741.42811835112</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1985142.028185391</v>
+        <v>2034361.666431843</v>
       </c>
       <c r="K92">
-        <v>39256.32266639176</v>
+        <v>39255.67934895905</v>
       </c>
       <c r="L92">
-        <v>54421</v>
+        <v>55172</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3827.597032835222</v>
+        <v>3882.59041008204</v>
       </c>
       <c r="B93">
-        <v>14952.52565015558</v>
+        <v>15518.35332089529</v>
       </c>
       <c r="C93">
-        <v>18780.1226829908</v>
+        <v>19400.94373097733</v>
       </c>
       <c r="D93">
-        <v>48818.27063987096</v>
+        <v>47878.00354349981</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>48818.27063987096</v>
+        <v>47878.00354349981</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1186279.56709381</v>
+        <v>1213699.41037497</v>
       </c>
       <c r="K93">
-        <v>23460.88256266991</v>
+        <v>23461.0074678527</v>
       </c>
       <c r="L93">
-        <v>32931</v>
+        <v>33396</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1654.445079610225</v>
+        <v>1641.722542929966</v>
       </c>
       <c r="B94">
-        <v>6635.95753300326</v>
+        <v>6655.373317491268</v>
       </c>
       <c r="C94">
-        <v>8290.402612613485</v>
+        <v>8297.095860421234</v>
       </c>
       <c r="D94">
-        <v>20793.33908390698</v>
+        <v>20524.26753036275</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5566.048928090828</v>
+        <v>5369.38254830246</v>
       </c>
       <c r="G94">
-        <v>15227.29015581615</v>
+        <v>15154.88498206029</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>510324.6150192153</v>
+        <v>524481.4037567875</v>
       </c>
       <c r="K94">
-        <v>10092.3355690411</v>
+        <v>10092.22393679996</v>
       </c>
       <c r="L94">
-        <v>13979</v>
+        <v>14139</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1365.477411518438</v>
+        <v>1398.809067127619</v>
       </c>
       <c r="B95">
-        <v>5672.974687835714</v>
+        <v>5613.763318352636</v>
       </c>
       <c r="C95">
-        <v>7038.452099354152</v>
+        <v>7012.572385480255</v>
       </c>
       <c r="D95">
-        <v>18117.39602297164</v>
+        <v>18338.14438246314</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4894.633741354942</v>
+        <v>4910.50013009725</v>
       </c>
       <c r="G95">
-        <v>13222.76228161669</v>
+        <v>13427.64425236588</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>442204.5420278465</v>
+        <v>454309.3306673212</v>
       </c>
       <c r="K95">
-        <v>8745.041004903502</v>
+        <v>8745.028231647751</v>
       </c>
       <c r="L95">
-        <v>12119</v>
+        <v>12269</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1648.986928195801</v>
+        <v>1577.731922821811</v>
       </c>
       <c r="B96">
-        <v>6588.140248572377</v>
+        <v>6351.395613943138</v>
       </c>
       <c r="C96">
-        <v>8237.127176768177</v>
+        <v>7929.127536764949</v>
       </c>
       <c r="D96">
-        <v>22010.87146546741</v>
+        <v>21272.10415698069</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5897.412581303963</v>
+        <v>5693.251081940031</v>
       </c>
       <c r="G96">
-        <v>16113.45888416345</v>
+        <v>15578.85307504066</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>511048.9014264666</v>
+        <v>524675.8430369148</v>
       </c>
       <c r="K96">
-        <v>10106.68004095101</v>
+        <v>10107.09688758209</v>
       </c>
       <c r="L96">
-        <v>14015</v>
+        <v>14176</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1008.579863255801</v>
+        <v>1053.036706826589</v>
       </c>
       <c r="B97">
-        <v>4028.904536171</v>
+        <v>4192.839270750402</v>
       </c>
       <c r="C97">
-        <v>5037.484399426801</v>
+        <v>5245.875977576991</v>
       </c>
       <c r="D97">
-        <v>13397.42306742587</v>
+        <v>12349.31322804981</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3611.655254667052</v>
+        <v>3387.384101328606</v>
       </c>
       <c r="G97">
-        <v>9785.767812758821</v>
+        <v>8961.929126721205</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>313464.460114111</v>
+        <v>321003.23926194</v>
       </c>
       <c r="K97">
-        <v>6198.883063176339</v>
+        <v>6199.118859013903</v>
       </c>
       <c r="L97">
-        <v>8577</v>
+        <v>8693</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>541.90714310893</v>
+        <v>525.4013523067662</v>
       </c>
       <c r="B98">
-        <v>3781.459710622722</v>
+        <v>3911.745448568223</v>
       </c>
       <c r="C98">
-        <v>4323.366853731653</v>
+        <v>4437.146800874989</v>
       </c>
       <c r="D98">
-        <v>28824.03527418803</v>
+        <v>28636.25241269877</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>28824.03527418803</v>
+        <v>28636.25241269877</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>279533.1269241634</v>
+        <v>270983.3800919228</v>
       </c>
       <c r="K98">
-        <v>6606.827487167158</v>
+        <v>6606.718652923709</v>
       </c>
       <c r="L98">
-        <v>9167</v>
+        <v>9248</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>748.0897807026419</v>
+        <v>727.8493811043705</v>
       </c>
       <c r="B99">
-        <v>5291.153755905167</v>
+        <v>5455.869740849965</v>
       </c>
       <c r="C99">
-        <v>6039.243536607809</v>
+        <v>6183.719121954336</v>
       </c>
       <c r="D99">
-        <v>41513.13465008557</v>
+        <v>41327.23091976858</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>41513.13465008557</v>
+        <v>41327.23091976858</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>397225.9005420883</v>
+        <v>387169.9180777007</v>
       </c>
       <c r="K99">
-        <v>9384.928287024919</v>
+        <v>9384.665817412908</v>
       </c>
       <c r="L99">
-        <v>13012</v>
+        <v>13127</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5476.655830601396</v>
+        <v>5435.767216109305</v>
       </c>
       <c r="B100">
-        <v>38766.49626376086</v>
+        <v>38782.15491655587</v>
       </c>
       <c r="C100">
-        <v>44243.15209436226</v>
+        <v>44217.92213266518</v>
       </c>
       <c r="D100">
-        <v>304691.9420034958</v>
+        <v>304297.8016928549</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>304691.9420034958</v>
+        <v>304297.8016928549</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2905744.354790874</v>
+        <v>2834298.395850409</v>
       </c>
       <c r="K100">
-        <v>68687.20203485758</v>
+        <v>68686.73826507092</v>
       </c>
       <c r="L100">
-        <v>95322</v>
+        <v>95877</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>155.5995846538829</v>
+        <v>154.320513325998</v>
       </c>
       <c r="B101">
-        <v>1161.517676469009</v>
+        <v>1138.64535378532</v>
       </c>
       <c r="C101">
-        <v>1317.117261122892</v>
+        <v>1292.965867111318</v>
       </c>
       <c r="D101">
-        <v>8903.003872886937</v>
+        <v>8995.117026294098</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8903.003872886937</v>
+        <v>8995.117026294098</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>85628.93502988889</v>
+        <v>83337.68159461101</v>
       </c>
       <c r="K101">
-        <v>2023.957798931614</v>
+        <v>2023.745299448844</v>
       </c>
       <c r="L101">
-        <v>2810</v>
+        <v>2834</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1908.779309898269</v>
+        <v>1918.905625639698</v>
       </c>
       <c r="B102">
-        <v>13922.98784841201</v>
+        <v>14268.72142022189</v>
       </c>
       <c r="C102">
-        <v>15831.76715831027</v>
+        <v>16187.62704586159</v>
       </c>
       <c r="D102">
-        <v>110207.2176402769</v>
+        <v>107644.2190480708</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6858.05682254602</v>
+        <v>6530.464485183295</v>
       </c>
       <c r="G102">
-        <v>103349.1608177309</v>
+        <v>101113.7545628875</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1046150.275266217</v>
+        <v>1009923.552952148</v>
       </c>
       <c r="K102">
-        <v>24733.84610644189</v>
+        <v>24734.2977154051</v>
       </c>
       <c r="L102">
-        <v>33977</v>
+        <v>34283</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1490.207440267312</v>
+        <v>1453.516229115081</v>
       </c>
       <c r="B103">
-        <v>10543.08428147907</v>
+        <v>10690.87150838059</v>
       </c>
       <c r="C103">
-        <v>12033.29172174638</v>
+        <v>12144.38773749567</v>
       </c>
       <c r="D103">
-        <v>79453.7995506545</v>
+        <v>81419.30274626715</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>4824.647780965273</v>
+        <v>5051.982704874701</v>
       </c>
       <c r="G103">
-        <v>74629.15176968923</v>
+        <v>76367.32004139244</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>781501.4827918522</v>
+        <v>756866.1362412365</v>
       </c>
       <c r="K103">
-        <v>18475.0024492455</v>
+        <v>18475.1816449964</v>
       </c>
       <c r="L103">
-        <v>25387</v>
+        <v>25594</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4652.563975181435</v>
+        <v>4786.183974708823</v>
       </c>
       <c r="B104">
-        <v>34598.05739496585</v>
+        <v>35069.23236525258</v>
       </c>
       <c r="C104">
-        <v>39250.62137014729</v>
+        <v>39855.4163399614</v>
       </c>
       <c r="D104">
-        <v>257056.3418146633</v>
+        <v>253018.0480891637</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>16022.6155130674</v>
+        <v>15671.24228778594</v>
       </c>
       <c r="G104">
-        <v>241033.7263015959</v>
+        <v>237346.8058013777</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2476892.899949363</v>
+        <v>2416471.448576606</v>
       </c>
       <c r="K104">
-        <v>58535.73594347661</v>
+        <v>58536.36008392053</v>
       </c>
       <c r="L104">
-        <v>80582</v>
+        <v>81139</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>8225.473958007022</v>
+        <v>7892.090180630368</v>
       </c>
       <c r="B105">
-        <v>58164.94127603219</v>
+        <v>58435.27636976783</v>
       </c>
       <c r="C105">
-        <v>66390.41523403922</v>
+        <v>66327.3665503982</v>
       </c>
       <c r="D105">
-        <v>462680.5243122999</v>
+        <v>452185.887926564</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>27467.01441261968</v>
+        <v>27839.90725335772</v>
       </c>
       <c r="G105">
-        <v>435213.5098996802</v>
+        <v>424345.9806732063</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4356004.577298852</v>
+        <v>4229664.777187836</v>
       </c>
       <c r="K105">
-        <v>102960.1031164312</v>
+        <v>102959.8014634736</v>
       </c>
       <c r="L105">
-        <v>141502</v>
+        <v>142796</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6855.464220755047</v>
+        <v>6659.453273849535</v>
       </c>
       <c r="B106">
-        <v>49087.77646704516</v>
+        <v>49407.20926004993</v>
       </c>
       <c r="C106">
-        <v>55943.2406878002</v>
+        <v>56066.66253389946</v>
       </c>
       <c r="D106">
-        <v>363629.8835634012</v>
+        <v>365076.7745036859</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>22804.90646094216</v>
+        <v>22350.37882835051</v>
       </c>
       <c r="G106">
-        <v>340824.977102459</v>
+        <v>342726.3956753354</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3632009.647478022</v>
+        <v>3523639.150704917</v>
       </c>
       <c r="K106">
-        <v>85833.75873172909</v>
+        <v>85834.24612850277</v>
       </c>
       <c r="L106">
-        <v>118073</v>
+        <v>118949</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7236.670964387625</v>
+        <v>7105.03165052553</v>
       </c>
       <c r="B107">
-        <v>52155.22759627219</v>
+        <v>50937.62331442939</v>
       </c>
       <c r="C107">
-        <v>59391.89856065981</v>
+        <v>58042.65496495493</v>
       </c>
       <c r="D107">
-        <v>396030.9273496944</v>
+        <v>388256.4307320559</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24618.52943120913</v>
+        <v>24270.58662861643</v>
       </c>
       <c r="G107">
-        <v>371412.3979184853</v>
+        <v>363985.8441034394</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3803109.247304941</v>
+        <v>3694694.045710581</v>
       </c>
       <c r="K107">
-        <v>89899.97815406509</v>
+        <v>89900.23658356494</v>
       </c>
       <c r="L107">
-        <v>123534</v>
+        <v>124657</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3378.824333409264</v>
+        <v>3364.043468240684</v>
       </c>
       <c r="B108">
-        <v>23988.89803485131</v>
+        <v>25545.72600921262</v>
       </c>
       <c r="C108">
-        <v>27367.72236826057</v>
+        <v>28909.7694774533</v>
       </c>
       <c r="D108">
-        <v>188731.434006301</v>
+        <v>185737.145588776</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>12181.99923839475</v>
+        <v>11491.82391836473</v>
       </c>
       <c r="G108">
-        <v>176549.4347679063</v>
+        <v>174245.3216704112</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1801784.08176169</v>
+        <v>1745660.436030793</v>
       </c>
       <c r="K108">
-        <v>42604.23354680958</v>
+        <v>42603.94470745759</v>
       </c>
       <c r="L108">
-        <v>58579</v>
+        <v>59131</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5216.231522503127</v>
+        <v>5132.257990073545</v>
       </c>
       <c r="B109">
-        <v>38107.41076621533</v>
+        <v>37906.57288719968</v>
       </c>
       <c r="C109">
-        <v>43323.64228871846</v>
+        <v>43038.83087727322</v>
       </c>
       <c r="D109">
-        <v>295613.3988833436</v>
+        <v>286897.1494850894</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>18569.37457944583</v>
+        <v>17827.36032270069</v>
       </c>
       <c r="G109">
-        <v>277044.0243038977</v>
+        <v>269069.7891623887</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2807013.243081531</v>
+        <v>2733679.385782745</v>
       </c>
       <c r="K109">
-        <v>66365.36250196726</v>
+        <v>66364.79447759365</v>
       </c>
       <c r="L109">
-        <v>91228</v>
+        <v>91992</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5173.933842531196</v>
+        <v>5034.006203595704</v>
       </c>
       <c r="B110">
-        <v>37348.1824122197</v>
+        <v>36935.08633171573</v>
       </c>
       <c r="C110">
-        <v>42522.11625475089</v>
+        <v>41969.09253531143</v>
       </c>
       <c r="D110">
-        <v>276813.4458628343</v>
+        <v>284708.6382748826</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17175.18517547409</v>
+        <v>17951.76314661344</v>
       </c>
       <c r="G110">
-        <v>259638.2606873602</v>
+        <v>266756.8751282692</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2699825.532229387</v>
+        <v>2616359.048361461</v>
       </c>
       <c r="K110">
-        <v>63795.8703237033</v>
+        <v>63795.8226794989</v>
       </c>
       <c r="L110">
-        <v>87762</v>
+        <v>88419</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>16225.45372666705</v>
+        <v>17111.2263694728</v>
       </c>
       <c r="B111">
-        <v>122223.0330011163</v>
+        <v>123437.5956778767</v>
       </c>
       <c r="C111">
-        <v>138448.4867277833</v>
+        <v>140548.8220473495</v>
       </c>
       <c r="D111">
-        <v>927695.6709298324</v>
+        <v>937850.3134792021</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>58317.75283789932</v>
+        <v>59012.6235209422</v>
       </c>
       <c r="G111">
-        <v>869377.918091933</v>
+        <v>878837.6899582599</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>9068238.37431333</v>
+        <v>8809606.703715023</v>
       </c>
       <c r="K111">
-        <v>214313.3054862709</v>
+        <v>214312.8116805451</v>
       </c>
       <c r="L111">
-        <v>294728</v>
+        <v>296873</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>550.1745129691003</v>
+        <v>559.0126602894338</v>
       </c>
       <c r="B112">
-        <v>3972.354123378062</v>
+        <v>4104.543897393429</v>
       </c>
       <c r="C112">
-        <v>4522.528636347163</v>
+        <v>4663.556557682862</v>
       </c>
       <c r="D112">
-        <v>31202.38363828881</v>
+        <v>31109.23065331706</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1913.42003422894</v>
+        <v>1961.215489816117</v>
       </c>
       <c r="G112">
-        <v>29288.96360405987</v>
+        <v>29148.01516350094</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>296272.1982324218</v>
+        <v>288353.9595330551</v>
       </c>
       <c r="K112">
-        <v>7005.908286622288</v>
+        <v>7005.918677005716</v>
       </c>
       <c r="L112">
-        <v>9630</v>
+        <v>9716</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>140.153668469759</v>
+        <v>132.8628186923778</v>
       </c>
       <c r="B113">
-        <v>1009.122006735263</v>
+        <v>975.2211998192453</v>
       </c>
       <c r="C113">
-        <v>1149.275675205022</v>
+        <v>1108.084018511623</v>
       </c>
       <c r="D113">
-        <v>7563.69117385763</v>
+        <v>7442.45713397464</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>456.412287239047</v>
+        <v>465.3654675848799</v>
       </c>
       <c r="G113">
-        <v>7107.278886618583</v>
+        <v>6977.09166638976</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>72745.8114120465</v>
+        <v>70318.19994057545</v>
       </c>
       <c r="K113">
-        <v>1719.318440357362</v>
+        <v>1718.972013097806</v>
       </c>
       <c r="L113">
-        <v>2365</v>
+        <v>2383</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1134.649115546732</v>
+        <v>1137.889764421058</v>
       </c>
       <c r="B114">
-        <v>8543.118530107133</v>
+        <v>8488.444998117733</v>
       </c>
       <c r="C114">
-        <v>9677.767645653865</v>
+        <v>9626.334762538791</v>
       </c>
       <c r="D114">
-        <v>66510.95165873446</v>
+        <v>66352.0241927703</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4229.222180375597</v>
+        <v>4147.752736098274</v>
       </c>
       <c r="G114">
-        <v>62281.72947835886</v>
+        <v>62204.27145667203</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>635042.3113169371</v>
+        <v>613181.5102535995</v>
       </c>
       <c r="K114">
-        <v>15018.87341332716</v>
+        <v>15018.81091438644</v>
       </c>
       <c r="L114">
-        <v>20674</v>
+        <v>20832</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>106.2112688778025</v>
+        <v>106.6226084462135</v>
       </c>
       <c r="B115">
-        <v>785.1110683706013</v>
+        <v>792.8220439051966</v>
       </c>
       <c r="C115">
-        <v>891.3223372484039</v>
+        <v>899.4446523514101</v>
       </c>
       <c r="D115">
-        <v>6020.148502085834</v>
+        <v>6080.500026014634</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>375.9879300884977</v>
+        <v>392.7634557927861</v>
       </c>
       <c r="G115">
-        <v>5644.160571997337</v>
+        <v>5687.736570221849</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>58500.10301332166</v>
+        <v>56799.22609458337</v>
       </c>
       <c r="K115">
-        <v>1383.139643801956</v>
+        <v>1382.682399112851</v>
       </c>
       <c r="L115">
-        <v>1903</v>
+        <v>1916</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1468.181286664022</v>
+        <v>1520.836742473766</v>
       </c>
       <c r="B116">
-        <v>8697.45745698527</v>
+        <v>8794.356067997865</v>
       </c>
       <c r="C116">
-        <v>10165.63874364929</v>
+        <v>10315.19281047163</v>
       </c>
       <c r="D116">
-        <v>21521.57991163172</v>
+        <v>21452.98669795987</v>
       </c>
       <c r="E116">
-        <v>1036.648802576554</v>
+        <v>1169.68563977473</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>21521.57991163172</v>
+        <v>21452.98669795987</v>
       </c>
       <c r="H116">
-        <v>820.7374294724565</v>
+        <v>922.2923129790424</v>
       </c>
       <c r="I116">
-        <v>215.9113731040979</v>
+        <v>247.3933267956872</v>
       </c>
       <c r="J116">
-        <v>415186.6060302157</v>
+        <v>417624.5056547109</v>
       </c>
       <c r="K116">
-        <v>10098.05806519694</v>
+        <v>10098.28851174212</v>
       </c>
       <c r="L116">
-        <v>14109</v>
+        <v>14134</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>894.8220619083635</v>
+        <v>927.916822461578</v>
       </c>
       <c r="B117">
-        <v>5161.678755614381</v>
+        <v>5339.264905128853</v>
       </c>
       <c r="C117">
-        <v>6056.500817522744</v>
+        <v>6267.18172759043</v>
       </c>
       <c r="D117">
-        <v>13481.04114680571</v>
+        <v>13111.43996161511</v>
       </c>
       <c r="E117">
-        <v>649.0918643822978</v>
+        <v>620.0125361388826</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>13481.04114680571</v>
+        <v>13111.43996161511</v>
       </c>
       <c r="H117">
-        <v>513.1067085971724</v>
+        <v>486.4739520456783</v>
       </c>
       <c r="I117">
-        <v>135.9851557851253</v>
+        <v>133.5385840932042</v>
       </c>
       <c r="J117">
-        <v>252623.5672960506</v>
+        <v>255263.6983863337</v>
       </c>
       <c r="K117">
-        <v>6148.210648291566</v>
+        <v>6148.202382248911</v>
       </c>
       <c r="L117">
-        <v>8590</v>
+        <v>8614</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2136.287554099466</v>
+        <v>2232.430311077733</v>
       </c>
       <c r="B118">
-        <v>13010.93003153768</v>
+        <v>12762.69018510385</v>
       </c>
       <c r="C118">
-        <v>15147.21758563715</v>
+        <v>14995.12049618158</v>
       </c>
       <c r="D118">
-        <v>32337.80214268657</v>
+        <v>32063.22277007656</v>
       </c>
       <c r="E118">
-        <v>1677.458821125902</v>
+        <v>1508.414469131902</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>32337.80214268657</v>
+        <v>32063.22277007656</v>
       </c>
       <c r="H118">
-        <v>1333.894538634371</v>
+        <v>1209.247541571424</v>
       </c>
       <c r="I118">
-        <v>343.5642824915311</v>
+        <v>299.1669275604772</v>
       </c>
       <c r="J118">
-        <v>617693.1496280993</v>
+        <v>624009.6996798575</v>
       </c>
       <c r="K118">
-        <v>15020.87648744905</v>
+        <v>15020.70696543545</v>
       </c>
       <c r="L118">
-        <v>21003</v>
+        <v>21007</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>7675.54932674679</v>
+        <v>7768.418777879931</v>
       </c>
       <c r="B119">
-        <v>46225.60627115242</v>
+        <v>46020.31765700534</v>
       </c>
       <c r="C119">
-        <v>53901.15559789921</v>
+        <v>53788.73643488527</v>
       </c>
       <c r="D119">
-        <v>115709.3078081413</v>
+        <v>119842.1396475328</v>
       </c>
       <c r="E119">
-        <v>5572.156039765687</v>
+        <v>6077.93559851597</v>
       </c>
       <c r="F119">
-        <v>17130.59980845234</v>
+        <v>17097.80623417517</v>
       </c>
       <c r="G119">
-        <v>98578.70799968898</v>
+        <v>102744.3334133576</v>
       </c>
       <c r="H119">
-        <v>4404.477521926928</v>
+        <v>4763.79769066742</v>
       </c>
       <c r="I119">
-        <v>1167.678517838759</v>
+        <v>1314.13790784855</v>
       </c>
       <c r="J119">
-        <v>2255024.906173582</v>
+        <v>2280495.528171476</v>
       </c>
       <c r="K119">
-        <v>54873.85580139931</v>
+        <v>54873.74063645455</v>
       </c>
       <c r="L119">
-        <v>76037</v>
+        <v>76204</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12512.9381173084</v>
+        <v>12642.67436992385</v>
       </c>
       <c r="B120">
-        <v>71626.92984901073</v>
+        <v>72284.72901336731</v>
       </c>
       <c r="C120">
-        <v>84139.86796631913</v>
+        <v>84927.40338329117</v>
       </c>
       <c r="D120">
-        <v>180858.1190810389</v>
+        <v>183723.3046313235</v>
       </c>
       <c r="E120">
-        <v>9258.7850169946</v>
+        <v>9429.746116438162</v>
       </c>
       <c r="F120">
-        <v>27079.1174037135</v>
+        <v>26572.41092682891</v>
       </c>
       <c r="G120">
-        <v>153779.0016773254</v>
+        <v>157150.8937044946</v>
       </c>
       <c r="H120">
-        <v>7375.358009932608</v>
+        <v>7433.843581892443</v>
       </c>
       <c r="I120">
-        <v>1883.427007061993</v>
+        <v>1995.90253454572</v>
       </c>
       <c r="J120">
-        <v>3471279.9278957</v>
+        <v>3468876.343484012</v>
       </c>
       <c r="K120">
-        <v>84457.87677119111</v>
+        <v>84457.80057630414</v>
       </c>
       <c r="L120">
-        <v>116926</v>
+        <v>117276</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7525.052164653507</v>
+        <v>7198.314072657375</v>
       </c>
       <c r="B121">
-        <v>41956.96191206962</v>
+        <v>42522.44888237718</v>
       </c>
       <c r="C121">
-        <v>49482.01407672314</v>
+        <v>49720.76295503455</v>
       </c>
       <c r="D121">
-        <v>110149.169170574</v>
+        <v>108632.0805170506</v>
       </c>
       <c r="E121">
-        <v>5062.788118134574</v>
+        <v>5238.142802367908</v>
       </c>
       <c r="F121">
-        <v>16010.6016532321</v>
+        <v>15651.2063723279</v>
       </c>
       <c r="G121">
-        <v>94138.56751734184</v>
+        <v>92980.87414472268</v>
       </c>
       <c r="H121">
-        <v>3951.521305602576</v>
+        <v>4208.111335122437</v>
       </c>
       <c r="I121">
-        <v>1111.266812531998</v>
+        <v>1030.031467245472</v>
       </c>
       <c r="J121">
-        <v>2058092.19323273</v>
+        <v>2086163.77173976</v>
       </c>
       <c r="K121">
-        <v>50093.02895162043</v>
+        <v>50092.9673288889</v>
       </c>
       <c r="L121">
-        <v>69426</v>
+        <v>69587</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>19205.92472616769</v>
+        <v>19251.00775796976</v>
       </c>
       <c r="B122">
-        <v>113802.6855306941</v>
+        <v>112868.8050147986</v>
       </c>
       <c r="C122">
-        <v>133008.6102568618</v>
+        <v>132119.8127727683</v>
       </c>
       <c r="D122">
-        <v>276239.5940282922</v>
+        <v>280077.6767262383</v>
       </c>
       <c r="E122">
-        <v>13113.00691217623</v>
+        <v>14453.19603549224</v>
       </c>
       <c r="F122">
-        <v>40164.68937944735</v>
+        <v>40383.29550320087</v>
       </c>
       <c r="G122">
-        <v>236074.9046488449</v>
+        <v>239694.3812230375</v>
       </c>
       <c r="H122">
-        <v>10481.91455836578</v>
+        <v>11395.79010148454</v>
       </c>
       <c r="I122">
-        <v>2631.092353810451</v>
+        <v>3057.405934007701</v>
       </c>
       <c r="J122">
-        <v>5383332.828770802</v>
+        <v>5434445.332054345</v>
       </c>
       <c r="K122">
-        <v>131015.7845506912</v>
+        <v>131015.7305705747</v>
       </c>
       <c r="L122">
-        <v>181647</v>
+        <v>181830</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>33754.22325417159</v>
+        <v>34913.29650068205</v>
       </c>
       <c r="B123">
-        <v>199028.9636802668</v>
+        <v>206521.4115942536</v>
       </c>
       <c r="C123">
-        <v>232783.1869344384</v>
+        <v>241434.7080949356</v>
       </c>
       <c r="D123">
-        <v>508189.0366038191</v>
+        <v>503331.3363285552</v>
       </c>
       <c r="E123">
-        <v>25821.91587743997</v>
+        <v>24711.91799062223</v>
       </c>
       <c r="F123">
-        <v>72911.27555830918</v>
+        <v>73439.09773856007</v>
       </c>
       <c r="G123">
-        <v>435277.7610455099</v>
+        <v>429892.2385899952</v>
       </c>
       <c r="H123">
-        <v>20352.51095131371</v>
+        <v>19298.10584836181</v>
       </c>
       <c r="I123">
-        <v>5469.404926126258</v>
+        <v>5413.812142260419</v>
       </c>
       <c r="J123">
-        <v>9800482.302929845</v>
+        <v>9855567.237442035</v>
       </c>
       <c r="K123">
-        <v>238430.7001607291</v>
+        <v>238431.3285185135</v>
       </c>
       <c r="L123">
-        <v>330078</v>
+        <v>330818</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>25077.0920331241</v>
+        <v>23899.79778485393</v>
       </c>
       <c r="B124">
-        <v>145085.6725074619</v>
+        <v>141110.4117531094</v>
       </c>
       <c r="C124">
-        <v>170162.764540586</v>
+        <v>165010.2095379634</v>
       </c>
       <c r="D124">
-        <v>368569.7845795961</v>
+        <v>370015.1402180183</v>
       </c>
       <c r="E124">
-        <v>15339.11170122168</v>
+        <v>17804.84210752359</v>
       </c>
       <c r="F124">
-        <v>53355.23654861495</v>
+        <v>55287.82255326268</v>
       </c>
       <c r="G124">
-        <v>315214.5480309812</v>
+        <v>314727.3176647556</v>
       </c>
       <c r="H124">
-        <v>12414.69460295554</v>
+        <v>14099.33056089707</v>
       </c>
       <c r="I124">
-        <v>2924.417098266148</v>
+        <v>3705.51154662652</v>
       </c>
       <c r="J124">
-        <v>6881805.87819162</v>
+        <v>6955356.331231493</v>
       </c>
       <c r="K124">
-        <v>167395.7990639403</v>
+        <v>167395.6462910073</v>
       </c>
       <c r="L124">
-        <v>231320</v>
+        <v>232867</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13604.09697490469</v>
+        <v>13455.78358084344</v>
       </c>
       <c r="B125">
-        <v>79457.43848872265</v>
+        <v>78691.25908784241</v>
       </c>
       <c r="C125">
-        <v>93061.53546362734</v>
+        <v>92147.04266868584</v>
       </c>
       <c r="D125">
-        <v>201755.3113266561</v>
+        <v>197087.591847312</v>
       </c>
       <c r="E125">
-        <v>9953.287225092783</v>
+        <v>9996.965565283695</v>
       </c>
       <c r="F125">
-        <v>29652.00093765928</v>
+        <v>28801.26315934676</v>
       </c>
       <c r="G125">
-        <v>172103.3103889968</v>
+        <v>168286.3286879653</v>
       </c>
       <c r="H125">
-        <v>7909.112285073043</v>
+        <v>7804.539228837957</v>
       </c>
       <c r="I125">
-        <v>2044.17494001974</v>
+        <v>2192.426336445739</v>
       </c>
       <c r="J125">
-        <v>3837399.21369088</v>
+        <v>3871171.393997597</v>
       </c>
       <c r="K125">
-        <v>93371.67599674348</v>
+        <v>93371.67780668772</v>
       </c>
       <c r="L125">
-        <v>129237</v>
+        <v>129650</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10655.18350788952</v>
+        <v>10929.76652955773</v>
       </c>
       <c r="B126">
-        <v>62241.14446835234</v>
+        <v>63676.19205442756</v>
       </c>
       <c r="C126">
-        <v>72896.32797624187</v>
+        <v>74605.9585839853</v>
       </c>
       <c r="D126">
-        <v>155492.2167921341</v>
+        <v>149341.3320353696</v>
       </c>
       <c r="E126">
-        <v>7383.092723410231</v>
+        <v>6630.480911842302</v>
       </c>
       <c r="F126">
-        <v>22289.31557541381</v>
+        <v>21378.77817172965</v>
       </c>
       <c r="G126">
-        <v>133202.9012167203</v>
+        <v>127962.5538636399</v>
       </c>
       <c r="H126">
-        <v>5853.089300433119</v>
+        <v>5144.761184615104</v>
       </c>
       <c r="I126">
-        <v>1530.003422977111</v>
+        <v>1485.719727227197</v>
       </c>
       <c r="J126">
-        <v>3010688.051781225</v>
+        <v>3039186.467501589</v>
       </c>
       <c r="K126">
-        <v>73290.19656284504</v>
+        <v>73289.7235425863</v>
       </c>
       <c r="L126">
-        <v>101563</v>
+        <v>101768</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>19088.97736919368</v>
+        <v>18764.70871321371</v>
       </c>
       <c r="B127">
-        <v>110250.3664916925</v>
+        <v>113411.2374346469</v>
       </c>
       <c r="C127">
-        <v>129339.3438608862</v>
+        <v>132175.9461478606</v>
       </c>
       <c r="D127">
-        <v>269828.5104498925</v>
+        <v>273071.4580313052</v>
       </c>
       <c r="E127">
-        <v>14024.00700832942</v>
+        <v>14009.8553478215</v>
       </c>
       <c r="F127">
-        <v>39384.59891847322</v>
+        <v>39592.81185324603</v>
       </c>
       <c r="G127">
-        <v>230443.9115314193</v>
+        <v>233478.6461780591</v>
       </c>
       <c r="H127">
-        <v>11109.26196127751</v>
+        <v>10987.75419901415</v>
       </c>
       <c r="I127">
-        <v>2914.745047051912</v>
+        <v>3022.101148807344</v>
       </c>
       <c r="J127">
-        <v>5287824.274460813</v>
+        <v>5305139.910679051</v>
       </c>
       <c r="K127">
-        <v>128689.8694951575</v>
+        <v>128689.9206579325</v>
       </c>
       <c r="L127">
-        <v>178219</v>
+        <v>178546</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>35890.51520078858</v>
+        <v>36151.0183333595</v>
       </c>
       <c r="B128">
-        <v>211799.6521601007</v>
+        <v>211171.1615711001</v>
       </c>
       <c r="C128">
-        <v>247690.1673608892</v>
+        <v>247322.1799044596</v>
       </c>
       <c r="D128">
-        <v>550378.170192318</v>
+        <v>532524.7384599026</v>
       </c>
       <c r="E128">
-        <v>26868.8994607565</v>
+        <v>26717.56724574432</v>
       </c>
       <c r="F128">
-        <v>81027.94926281257</v>
+        <v>76450.20694042453</v>
       </c>
       <c r="G128">
-        <v>469350.2209295054</v>
+        <v>456074.5315194781</v>
       </c>
       <c r="H128">
-        <v>21194.68842404661</v>
+        <v>21130.47877986197</v>
       </c>
       <c r="I128">
-        <v>5674.211036709889</v>
+        <v>5587.08846588235</v>
       </c>
       <c r="J128">
-        <v>10227679.87806717</v>
+        <v>10321364.37682945</v>
       </c>
       <c r="K128">
-        <v>248822.0920998158</v>
+        <v>248822.319459805</v>
       </c>
       <c r="L128">
-        <v>344407</v>
+        <v>345704</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14338.93980442915</v>
+        <v>14516.31896421295</v>
       </c>
       <c r="B129">
-        <v>85595.42215433685</v>
+        <v>83202.75386304955</v>
       </c>
       <c r="C129">
-        <v>99934.36195876599</v>
+        <v>97719.07282726251</v>
       </c>
       <c r="D129">
-        <v>205900.6864098379</v>
+        <v>209134.6676892581</v>
       </c>
       <c r="E129">
-        <v>10461.73623013406</v>
+        <v>10121.4792549448</v>
       </c>
       <c r="F129">
-        <v>29538.173134604</v>
+        <v>30189.15535268609</v>
       </c>
       <c r="G129">
-        <v>176362.5132752339</v>
+        <v>178945.5123365721</v>
       </c>
       <c r="H129">
-        <v>8343.080160330604</v>
+        <v>7936.289631583733</v>
       </c>
       <c r="I129">
-        <v>2118.656069803457</v>
+        <v>2185.189623361071</v>
       </c>
       <c r="J129">
-        <v>4039032.686848736</v>
+        <v>4073616.957542124</v>
       </c>
       <c r="K129">
-        <v>98283.33529395153</v>
+        <v>98282.77058694419</v>
       </c>
       <c r="L129">
-        <v>136249</v>
+        <v>136450</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18779.93092761424</v>
+        <v>17975.14854422295</v>
       </c>
       <c r="B130">
-        <v>108003.1000499198</v>
+        <v>108319.2415889621</v>
       </c>
       <c r="C130">
-        <v>126783.0309775341</v>
+        <v>126294.3901331851</v>
       </c>
       <c r="D130">
-        <v>264933.29501933</v>
+        <v>277006.4334656743</v>
       </c>
       <c r="E130">
-        <v>13966.67065057078</v>
+        <v>12905.36874332233</v>
       </c>
       <c r="F130">
-        <v>39065.22888003987</v>
+        <v>40616.06115083487</v>
       </c>
       <c r="G130">
-        <v>225868.0661392902</v>
+        <v>236390.3723148395</v>
       </c>
       <c r="H130">
-        <v>11121.26829316451</v>
+        <v>10321.08379894738</v>
       </c>
       <c r="I130">
-        <v>2845.402357406274</v>
+        <v>2584.284944374953</v>
       </c>
       <c r="J130">
-        <v>5228443.97409984</v>
+        <v>5250373.29368177</v>
       </c>
       <c r="K130">
-        <v>127198.9021679712</v>
+        <v>127199.0725102532</v>
       </c>
       <c r="L130">
-        <v>176349</v>
+        <v>176648</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>133.7484316672145</v>
+        <v>126.7984085949987</v>
       </c>
       <c r="B131">
-        <v>776.0230371411873</v>
+        <v>761.6934864823796</v>
       </c>
       <c r="C131">
-        <v>909.7714688084018</v>
+        <v>888.4918950773782</v>
       </c>
       <c r="D131">
-        <v>1947.235723370396</v>
+        <v>2026.841295547515</v>
       </c>
       <c r="E131">
-        <v>95.35832832653156</v>
+        <v>97.42042579466302</v>
       </c>
       <c r="F131">
-        <v>284.6894122456022</v>
+        <v>293.0148980750128</v>
       </c>
       <c r="G131">
-        <v>1662.546311124794</v>
+        <v>1733.826397472502</v>
       </c>
       <c r="H131">
-        <v>75.00605535343247</v>
+        <v>78.73427666055892</v>
       </c>
       <c r="I131">
-        <v>20.35227297309909</v>
+        <v>18.6861491341041</v>
       </c>
       <c r="J131">
-        <v>36231.98339184346</v>
+        <v>36758.52175837784</v>
       </c>
       <c r="K131">
-        <v>881.1192734775724</v>
+        <v>881.0381675642199</v>
       </c>
       <c r="L131">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>698.4468340250759</v>
+        <v>707.2322395044678</v>
       </c>
       <c r="B132">
-        <v>3960.831024627958</v>
+        <v>4034.928862939546</v>
       </c>
       <c r="C132">
-        <v>4659.277858653034</v>
+        <v>4742.161102444014</v>
       </c>
       <c r="D132">
-        <v>9980.680575328388</v>
+        <v>9979.216066319623</v>
       </c>
       <c r="E132">
-        <v>487.0001111206669</v>
+        <v>517.1783235978887</v>
       </c>
       <c r="F132">
-        <v>1442.855759011442</v>
+        <v>1444.794069427762</v>
       </c>
       <c r="G132">
-        <v>8537.824816316946</v>
+        <v>8534.421996891861</v>
       </c>
       <c r="H132">
-        <v>389.4360229312554</v>
+        <v>411.8437094025477</v>
       </c>
       <c r="I132">
-        <v>97.56408818941154</v>
+        <v>105.334614195341</v>
       </c>
       <c r="J132">
-        <v>191128.5654406695</v>
+        <v>191793.2563124133</v>
       </c>
       <c r="K132">
-        <v>4647.878702280806</v>
+        <v>4648.019670997816</v>
       </c>
       <c r="L132">
-        <v>6432</v>
+        <v>6442</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>34.99127697535002</v>
+        <v>38.33611696429941</v>
       </c>
       <c r="C133">
-        <v>34.99127697535002</v>
+        <v>38.33611696429941</v>
       </c>
       <c r="D133">
-        <v>6192.795313642525</v>
+        <v>6153.917935262708</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6192.795313642525</v>
+        <v>6153.917935262708</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>174529.650074504</v>
+        <v>121401.695501024</v>
       </c>
       <c r="K133">
-        <v>1857.801952752257</v>
+        <v>1858.049021861357</v>
       </c>
       <c r="L133">
-        <v>2940</v>
+        <v>2805</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>147.8244903355347</v>
+        <v>144.5921571076767</v>
       </c>
       <c r="C134">
-        <v>147.8244903355347</v>
+        <v>144.5921571076767</v>
       </c>
       <c r="D134">
-        <v>20709.11626776632</v>
+        <v>20778.72670575079</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20709.11626776632</v>
+        <v>20778.72670575079</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>588824.0554546501</v>
+        <v>403915.5983183638</v>
       </c>
       <c r="K134">
-        <v>6268.105111970423</v>
+        <v>6268.082914475465</v>
       </c>
       <c r="L134">
-        <v>9921</v>
+        <v>9438</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>16.35259046380311</v>
+        <v>15.76665784648722</v>
       </c>
       <c r="C135">
-        <v>16.35259046380311</v>
+        <v>15.76665784648722</v>
       </c>
       <c r="D135">
-        <v>2532.169278391773</v>
+        <v>2600.817356710288</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>82.53048866928715</v>
+        <v>83.89410867896891</v>
       </c>
       <c r="G135">
-        <v>2449.638789722486</v>
+        <v>2516.923248031319</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>71753.67738243827</v>
+        <v>49650.09101679202</v>
       </c>
       <c r="K135">
-        <v>763.8885274683316</v>
+        <v>763.8903147638189</v>
       </c>
       <c r="L135">
-        <v>1202</v>
+        <v>1147</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>138.3339257070708</v>
+        <v>158.2855363838306</v>
       </c>
       <c r="C136">
-        <v>138.3339257070708</v>
+        <v>158.2855363838306</v>
       </c>
       <c r="D136">
-        <v>23560.52719873477</v>
+        <v>23368.17787345799</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>796.5904542031727</v>
+        <v>773.9583936302048</v>
       </c>
       <c r="G136">
-        <v>22763.9367445316</v>
+        <v>22594.21947982779</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>655186.5440586065</v>
+        <v>455305.1190350949</v>
       </c>
       <c r="K136">
-        <v>6971.799021415526</v>
+        <v>6971.942808095073</v>
       </c>
       <c r="L136">
-        <v>10972</v>
+        <v>10455</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>368.9538555117931</v>
+        <v>317.9563745498886</v>
       </c>
       <c r="C137">
-        <v>368.9538555117931</v>
+        <v>317.9563745498886</v>
       </c>
       <c r="D137">
-        <v>52637.95921921086</v>
+        <v>53012.58065872737</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>52637.95921921086</v>
+        <v>53012.58065872737</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1496652.692220158</v>
+        <v>1023712.150535242</v>
       </c>
       <c r="K137">
-        <v>15929.91609940512</v>
+        <v>15930.31451239544</v>
       </c>
       <c r="L137">
-        <v>25213</v>
+        <v>24000</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>118.8395863706746</v>
+        <v>121.5168050684743</v>
       </c>
       <c r="C138">
-        <v>118.8395863706746</v>
+        <v>121.5168050684743</v>
       </c>
       <c r="D138">
-        <v>19363.61496720248</v>
+        <v>19174.78990993443</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19363.61496720248</v>
+        <v>19174.78990993443</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>540629.4781324412</v>
+        <v>375406.7241556701</v>
       </c>
       <c r="K138">
-        <v>5752.931046743208</v>
+        <v>5753.12968256552</v>
       </c>
       <c r="L138">
-        <v>9104</v>
+        <v>8678</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>798.831708649185</v>
+        <v>868.830069388285</v>
       </c>
       <c r="C139">
-        <v>798.831708649185</v>
+        <v>868.830069388285</v>
       </c>
       <c r="D139">
-        <v>129315.6611444086</v>
+        <v>128506.6143285686</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>129315.6611444086</v>
+        <v>128506.6143285686</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>3624122.101285523</v>
+        <v>2496883.117013477</v>
       </c>
       <c r="K139">
-        <v>38561.09831074786</v>
+        <v>38561.21863574885</v>
       </c>
       <c r="L139">
-        <v>61026</v>
+        <v>58120</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>433.9624615480619</v>
+        <v>409.7666713705403</v>
       </c>
       <c r="C140">
-        <v>433.9624615480619</v>
+        <v>409.7666713705403</v>
       </c>
       <c r="D140">
-        <v>69593.29212096246</v>
+        <v>69946.53057244822</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>69593.29212096246</v>
+        <v>69946.53057244822</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1946297.36730796</v>
+        <v>1351641.168158697</v>
       </c>
       <c r="K140">
-        <v>20709.01201874731</v>
+        <v>20708.89821427339</v>
       </c>
       <c r="L140">
-        <v>32774</v>
+        <v>31265</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>238.0635673148433</v>
+        <v>218.8994007374932</v>
       </c>
       <c r="C141">
-        <v>238.0635673148433</v>
+        <v>218.8994007374932</v>
       </c>
       <c r="D141">
-        <v>35844.17889633599</v>
+        <v>36576.97516817625</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>35844.17889633599</v>
+        <v>36576.97516817625</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>1026453.451683737</v>
+        <v>705138.1529329629</v>
       </c>
       <c r="K141">
-        <v>10926.91176192839</v>
+        <v>10927.30357774387</v>
       </c>
       <c r="L141">
-        <v>17294</v>
+        <v>16466</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1129.268052663707</v>
+        <v>1098.377746877038</v>
       </c>
       <c r="C142">
-        <v>1129.268052663707</v>
+        <v>1098.377746877038</v>
       </c>
       <c r="D142">
-        <v>193705.0618130859</v>
+        <v>194289.7595301044</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6209.3455491149</v>
+        <v>6443.976917045771</v>
       </c>
       <c r="G142">
-        <v>187495.716263971</v>
+        <v>187845.7826130587</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>5454704.962161245</v>
+        <v>3775984.645250942</v>
       </c>
       <c r="K142">
-        <v>58071.89373839826</v>
+        <v>58072.31330143709</v>
       </c>
       <c r="L142">
-        <v>91366</v>
+        <v>87031</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>448.7518980034757</v>
+        <v>491.3061929663838</v>
       </c>
       <c r="C143">
-        <v>448.7518980034757</v>
+        <v>491.3061929663838</v>
       </c>
       <c r="D143">
-        <v>73894.27967997917</v>
+        <v>74480.89063188412</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2340.181249223629</v>
+        <v>2432.163653897148</v>
       </c>
       <c r="G143">
-        <v>71554.09843075555</v>
+        <v>72048.72697798697</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>2096057.675772463</v>
+        <v>1452522.242602199</v>
       </c>
       <c r="K143">
-        <v>22312.26361001427</v>
+        <v>22312.24504388738</v>
       </c>
       <c r="L143">
-        <v>35105</v>
+        <v>33486</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>503.1834051047281</v>
+        <v>616.676771268852</v>
       </c>
       <c r="C144">
-        <v>503.1834051047281</v>
+        <v>616.676771268852</v>
       </c>
       <c r="D144">
-        <v>86556.85504370375</v>
+        <v>85406.3786383415</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2800.310836636572</v>
+        <v>2733.816738196295</v>
       </c>
       <c r="G144">
-        <v>83756.54420706717</v>
+        <v>82672.56190014521</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>2405099.036502582</v>
+        <v>1666365.79797351</v>
       </c>
       <c r="K144">
-        <v>25591.07954256504</v>
+        <v>25591.02540306265</v>
       </c>
       <c r="L144">
-        <v>40250</v>
+        <v>38450</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1111.400128048291</v>
+        <v>1096.146430315054</v>
       </c>
       <c r="C145">
-        <v>1111.400128048291</v>
+        <v>1096.146430315054</v>
       </c>
       <c r="D145">
-        <v>174688.4905570412</v>
+        <v>174093.8884403976</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5757.74937640607</v>
+        <v>5704.611771265025</v>
       </c>
       <c r="G145">
-        <v>168930.7411806351</v>
+        <v>168389.2766691325</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>4893826.191523889</v>
+        <v>3368856.628931224</v>
       </c>
       <c r="K145">
-        <v>52069.1407965021</v>
+        <v>52068.88356656627</v>
       </c>
       <c r="L145">
-        <v>81944</v>
+        <v>78079</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1406.988107841973</v>
+        <v>1409.848967450728</v>
       </c>
       <c r="C146">
-        <v>1406.988107841973</v>
+        <v>1409.848967450728</v>
       </c>
       <c r="D146">
-        <v>212366.0285742072</v>
+        <v>214968.2523926748</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7001.78967726411</v>
+        <v>6989.33521242705</v>
       </c>
       <c r="G146">
-        <v>205364.2388969431</v>
+        <v>207978.9171802478</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>5995676.627972318</v>
+        <v>4116422.203707078</v>
       </c>
       <c r="K146">
-        <v>63820.25739264641</v>
+        <v>63819.92036878042</v>
       </c>
       <c r="L146">
-        <v>100435</v>
+        <v>95674</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1171.824421297099</v>
+        <v>1273.727981886608</v>
       </c>
       <c r="C147">
-        <v>1171.824421297099</v>
+        <v>1273.727981886608</v>
       </c>
       <c r="D147">
-        <v>185803.4886949018</v>
+        <v>184395.1241737674</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>5902.470039667959</v>
+        <v>5921.637359059505</v>
       </c>
       <c r="G147">
-        <v>179901.0186552338</v>
+        <v>178473.4868147079</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>5201270.818483081</v>
+        <v>3584347.440800891</v>
       </c>
       <c r="K147">
-        <v>55341.10542077676</v>
+        <v>55341.15684126951</v>
       </c>
       <c r="L147">
-        <v>87064</v>
+        <v>82952</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1338.539856026198</v>
+        <v>1410.538829757313</v>
       </c>
       <c r="C148">
-        <v>1338.539856026198</v>
+        <v>1410.538829757313</v>
       </c>
       <c r="D148">
-        <v>209349.04958595</v>
+        <v>212113.9967185267</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6776.508624258239</v>
+        <v>6962.386596923022</v>
       </c>
       <c r="G148">
-        <v>202572.5409616917</v>
+        <v>205151.6101216037</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>5928445.903029527</v>
+        <v>4071993.36758896</v>
       </c>
       <c r="K148">
-        <v>63093.6921130082</v>
+        <v>63094.15662474147</v>
       </c>
       <c r="L148">
-        <v>99296</v>
+        <v>94661</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1358.365461151475</v>
+        <v>1263.067542999778</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1358.365461151475</v>
+        <v>1263.067542999778</v>
       </c>
       <c r="D149">
-        <v>201081.139475297</v>
+        <v>198158.1088465033</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6690.448824072631</v>
+        <v>6690.168901470885</v>
       </c>
       <c r="G149">
-        <v>194390.6906512244</v>
+        <v>191467.9399450324</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>5619265.251165273</v>
+        <v>3913858.923318003</v>
       </c>
       <c r="K149">
-        <v>59773.81164730641</v>
+        <v>59774.15992234639</v>
       </c>
       <c r="L149">
-        <v>93824</v>
+        <v>89553</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>680.0035693789276</v>
+        <v>605.6119016527099</v>
       </c>
       <c r="C150">
-        <v>680.0035693789276</v>
+        <v>605.6119016527099</v>
       </c>
       <c r="D150">
-        <v>111722.1968648272</v>
+        <v>111526.5050130568</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3822.780712372368</v>
+        <v>3784.118810978617</v>
       </c>
       <c r="G150">
-        <v>107899.4161524548</v>
+        <v>107742.3862020782</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>3117887.690752182</v>
+        <v>2155087.892098012</v>
       </c>
       <c r="K150">
-        <v>33174.70454464515</v>
+        <v>33175.13316382674</v>
       </c>
       <c r="L150">
-        <v>52190</v>
+        <v>49763</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>796.1684809756434</v>
+        <v>739.9343646112204</v>
       </c>
       <c r="C151">
-        <v>796.1684809756434</v>
+        <v>739.9343646112204</v>
       </c>
       <c r="D151">
-        <v>117993.175566194</v>
+        <v>115845.3536666911</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3819.363346052541</v>
+        <v>3895.062098243901</v>
       </c>
       <c r="G151">
-        <v>114173.8122201415</v>
+        <v>111950.2915684472</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>3259115.778695803</v>
+        <v>2257390.720829034</v>
       </c>
       <c r="K151">
-        <v>34695.11335830705</v>
+        <v>34695.32879597513</v>
       </c>
       <c r="L151">
-        <v>54571</v>
+        <v>52000</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>589.6592526246578</v>
+        <v>562.7778536147666</v>
       </c>
       <c r="C152">
-        <v>589.6592526246578</v>
+        <v>562.7778536147666</v>
       </c>
       <c r="D152">
-        <v>100996.257003535</v>
+        <v>100055.3825943558</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3391.462979921773</v>
+        <v>3307.336627313124</v>
       </c>
       <c r="G152">
-        <v>97604.79402361326</v>
+        <v>96748.04596704272</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2803122.729814788</v>
+        <v>1927092.228045003</v>
       </c>
       <c r="K152">
-        <v>29845.17553381573</v>
+        <v>29845.26443864053</v>
       </c>
       <c r="L152">
-        <v>46936</v>
+        <v>44680</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>666.0913308428854</v>
+        <v>698.9991342646201</v>
       </c>
       <c r="C153">
-        <v>666.0913308428854</v>
+        <v>698.9991342646201</v>
       </c>
       <c r="D153">
-        <v>102664.984433667</v>
+        <v>103149.7868056916</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3385.620337371172</v>
+        <v>3371.51049196846</v>
       </c>
       <c r="G153">
-        <v>99279.36409629585</v>
+        <v>99778.27631372312</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2900747.305696868</v>
+        <v>1999134.863546552</v>
       </c>
       <c r="K153">
-        <v>30868.23913531625</v>
+        <v>30868.19987819708</v>
       </c>
       <c r="L153">
-        <v>48570</v>
+        <v>46302</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>166.6077654780688</v>
+        <v>165.0965282980756</v>
       </c>
       <c r="C154">
-        <v>166.6077654780688</v>
+        <v>165.0965282980756</v>
       </c>
       <c r="D154">
-        <v>28267.37716687819</v>
+        <v>28590.69600496037</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>933.2210146839066</v>
+        <v>962.7351274383326</v>
       </c>
       <c r="G154">
-        <v>27334.15615219428</v>
+        <v>27627.96087752203</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>798643.4281603862</v>
+        <v>554642.8827284238</v>
       </c>
       <c r="K154">
-        <v>8498.717737795138</v>
+        <v>8498.914935668894</v>
       </c>
       <c r="L154">
-        <v>13375</v>
+        <v>12750</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>218.1032691034229</v>
+        <v>201.7295561251678</v>
       </c>
       <c r="C155">
-        <v>218.1032691034229</v>
+        <v>201.7295561251678</v>
       </c>
       <c r="D155">
-        <v>33151.38124278215</v>
+        <v>33521.97770358065</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>33151.38124278215</v>
+        <v>33521.97770358065</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>939807.8206068362</v>
+        <v>650169.8647897983</v>
       </c>
       <c r="K155">
-        <v>10006.12900299736</v>
+        <v>10005.99223993156</v>
       </c>
       <c r="L155">
-        <v>15834</v>
+        <v>15084</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>80.08000623469408</v>
+        <v>111.6732290578483</v>
       </c>
       <c r="C156">
-        <v>80.08000623469408</v>
+        <v>111.6732290578483</v>
       </c>
       <c r="D156">
-        <v>15241.66271354506</v>
+        <v>15000.74657398313</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15241.66271354506</v>
+        <v>15000.74657398313</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>426000.8209545344</v>
+        <v>294533.2576518971</v>
       </c>
       <c r="K156">
-        <v>4533.040818307161</v>
+        <v>4532.998714635344</v>
       </c>
       <c r="L156">
-        <v>7175</v>
+        <v>6831</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9077.192616254508</v>
+        <v>9184.155505252955</v>
       </c>
       <c r="C2">
-        <v>9077.192616254508</v>
+        <v>9184.155505252955</v>
       </c>
       <c r="D2">
-        <v>210069.7433750755</v>
+        <v>218494.6801478853</v>
       </c>
       <c r="E2">
-        <v>266691.4074357431</v>
+        <v>275083.5706705255</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>210069.7433750755</v>
+        <v>218494.6801478853</v>
       </c>
       <c r="H2">
-        <v>157854.8892139299</v>
+        <v>161650.9273749832</v>
       </c>
       <c r="I2">
-        <v>108836.5182218132</v>
+        <v>113432.6432955423</v>
       </c>
       <c r="J2">
-        <v>2436033.165249832</v>
+        <v>2442545.579827261</v>
       </c>
       <c r="K2">
-        <v>51893.18015917793</v>
+        <v>51892.6853024264</v>
       </c>
       <c r="L2">
-        <v>74245</v>
+        <v>74129</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4377.033080426426</v>
+        <v>4329.525126731392</v>
       </c>
       <c r="C3">
-        <v>4377.033080426426</v>
+        <v>4329.525126731392</v>
       </c>
       <c r="D3">
-        <v>100222.5846411468</v>
+        <v>102485.1082146101</v>
       </c>
       <c r="E3">
-        <v>126528.4677077013</v>
+        <v>129917.8000469932</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100222.5846411468</v>
+        <v>102485.1082146101</v>
       </c>
       <c r="H3">
-        <v>74711.25478990034</v>
+        <v>76314.08596083565</v>
       </c>
       <c r="I3">
-        <v>51817.21291780099</v>
+        <v>53603.71408615751</v>
       </c>
       <c r="J3">
-        <v>1140759.942370499</v>
+        <v>1142123.724816374</v>
       </c>
       <c r="K3">
-        <v>24443.15724412906</v>
+        <v>24442.80750341463</v>
       </c>
       <c r="L3">
-        <v>34985</v>
+        <v>34886</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4499.535521887247</v>
+        <v>4184.047078246434</v>
       </c>
       <c r="B4">
-        <v>9834.796538483179</v>
+        <v>9553.690873666599</v>
       </c>
       <c r="C4">
-        <v>14334.33206037043</v>
+        <v>13737.73795191304</v>
       </c>
       <c r="D4">
-        <v>309627.5467626982</v>
+        <v>316799.7360878919</v>
       </c>
       <c r="E4">
-        <v>400729.7850756897</v>
+        <v>397544.3097227348</v>
       </c>
       <c r="F4">
-        <v>104235.6404718005</v>
+        <v>104605.9643517973</v>
       </c>
       <c r="G4">
-        <v>205391.9062908976</v>
+        <v>212193.7717360946</v>
       </c>
       <c r="H4">
-        <v>237327.7416066356</v>
+        <v>234598.557048222</v>
       </c>
       <c r="I4">
-        <v>163402.0434690541</v>
+        <v>162945.7526745128</v>
       </c>
       <c r="J4">
-        <v>3557645.691115658</v>
+        <v>3583519.33868916</v>
       </c>
       <c r="K4">
-        <v>76598.15154625278</v>
+        <v>76597.67260573631</v>
       </c>
       <c r="L4">
-        <v>105470</v>
+        <v>105459</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>13308.35155943828</v>
+        <v>12079.52411055419</v>
       </c>
       <c r="B5">
-        <v>29973.11726946901</v>
+        <v>30438.20151024287</v>
       </c>
       <c r="C5">
-        <v>43281.46882890729</v>
+        <v>42517.72562079706</v>
       </c>
       <c r="D5">
-        <v>983752.6819183348</v>
+        <v>990395.2582539262</v>
       </c>
       <c r="E5">
-        <v>1264441.814011484</v>
+        <v>1271571.191547476</v>
       </c>
       <c r="F5">
-        <v>323719.3581552457</v>
+        <v>327900.7043538184</v>
       </c>
       <c r="G5">
-        <v>660033.3237630891</v>
+        <v>662494.5539001077</v>
       </c>
       <c r="H5">
-        <v>744164.5175437784</v>
+        <v>747178.552340848</v>
       </c>
       <c r="I5">
-        <v>520277.2964677053</v>
+        <v>524392.6392066285</v>
       </c>
       <c r="J5">
-        <v>11267626.41541815</v>
+        <v>11264027.27892294</v>
       </c>
       <c r="K5">
-        <v>240461.2466012154</v>
+        <v>240460.8879614751</v>
       </c>
       <c r="L5">
-        <v>331790</v>
+        <v>331019</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4558.768890437425</v>
+        <v>4551.520492923865</v>
       </c>
       <c r="B6">
-        <v>11596.84284447747</v>
+        <v>11425.10810161603</v>
       </c>
       <c r="C6">
-        <v>16155.6117349149</v>
+        <v>15976.6285945399</v>
       </c>
       <c r="D6">
-        <v>363822.709977581</v>
+        <v>360088.1165584546</v>
       </c>
       <c r="E6">
-        <v>471305.882686238</v>
+        <v>462756.2719240473</v>
       </c>
       <c r="F6">
-        <v>119995.3574195354</v>
+        <v>119367.1531323583</v>
       </c>
       <c r="G6">
-        <v>243827.3525580456</v>
+        <v>240720.9634260964</v>
       </c>
       <c r="H6">
-        <v>278727.793088276</v>
+        <v>272642.5649245618</v>
       </c>
       <c r="I6">
-        <v>192578.089597962</v>
+        <v>190113.7069994854</v>
       </c>
       <c r="J6">
-        <v>4140525.090759995</v>
+        <v>4120625.114488913</v>
       </c>
       <c r="K6">
-        <v>88279.66082841578</v>
+        <v>88279.83335363351</v>
       </c>
       <c r="L6">
-        <v>121999</v>
+        <v>121496</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2576.6368101936</v>
+        <v>2551.147644099029</v>
       </c>
       <c r="B7">
-        <v>6147.92236196162</v>
+        <v>5791.185471027474</v>
       </c>
       <c r="C7">
-        <v>8724.559172155221</v>
+        <v>8342.333115126503</v>
       </c>
       <c r="D7">
-        <v>190576.6468376482</v>
+        <v>190159.0327684162</v>
       </c>
       <c r="E7">
-        <v>243335.8333442997</v>
+        <v>243663.1479794645</v>
       </c>
       <c r="F7">
-        <v>63498.67219866064</v>
+        <v>63865.7311528815</v>
       </c>
       <c r="G7">
-        <v>127077.9746389876</v>
+        <v>126293.3016155347</v>
       </c>
       <c r="H7">
-        <v>143259.0519506596</v>
+        <v>144055.7824267644</v>
       </c>
       <c r="I7">
-        <v>100076.7813936401</v>
+        <v>99607.36555270004</v>
       </c>
       <c r="J7">
-        <v>2213859.373857796</v>
+        <v>2196947.008153128</v>
       </c>
       <c r="K7">
-        <v>47022.64846791415</v>
+        <v>47022.64042740424</v>
       </c>
       <c r="L7">
-        <v>64911</v>
+        <v>64715.99999999999</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14064.31185086415</v>
+        <v>14349.52085320851</v>
       </c>
       <c r="B8">
-        <v>35219.42245729193</v>
+        <v>35558.62047229605</v>
       </c>
       <c r="C8">
-        <v>49283.73430815608</v>
+        <v>49908.14132550456</v>
       </c>
       <c r="D8">
-        <v>1071879.12812168</v>
+        <v>1086728.315143235</v>
       </c>
       <c r="E8">
-        <v>1361026.237585188</v>
+        <v>1377640.321141863</v>
       </c>
       <c r="F8">
-        <v>364795.4741246616</v>
+        <v>360463.9677015264</v>
       </c>
       <c r="G8">
-        <v>707083.6539970186</v>
+        <v>726264.3474417086</v>
       </c>
       <c r="H8">
-        <v>803944.9574436317</v>
+        <v>810959.7954218306</v>
       </c>
       <c r="I8">
-        <v>557081.2801415561</v>
+        <v>566680.5257200329</v>
       </c>
       <c r="J8">
-        <v>12365526.72891769</v>
+        <v>12344582.32385302</v>
       </c>
       <c r="K8">
-        <v>264640.6565211591</v>
+        <v>264640.819677109</v>
       </c>
       <c r="L8">
-        <v>364906</v>
+        <v>364502</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3944.365171289555</v>
+        <v>3898.882450657837</v>
       </c>
       <c r="B9">
-        <v>9272.468561843423</v>
+        <v>9470.550875771511</v>
       </c>
       <c r="C9">
-        <v>13216.83373313298</v>
+        <v>13369.43332642935</v>
       </c>
       <c r="D9">
-        <v>300726.4663841616</v>
+        <v>291628.2376801079</v>
       </c>
       <c r="E9">
-        <v>376723.5619284556</v>
+        <v>378273.5278152267</v>
       </c>
       <c r="F9">
-        <v>99854.81968090223</v>
+        <v>95869.91856557476</v>
       </c>
       <c r="G9">
-        <v>200871.6467032594</v>
+        <v>195758.3191145331</v>
       </c>
       <c r="H9">
-        <v>222159.1553032957</v>
+        <v>222489.1606967874</v>
       </c>
       <c r="I9">
-        <v>154564.4066251599</v>
+        <v>155784.3671184393</v>
       </c>
       <c r="J9">
-        <v>3349793.024835892</v>
+        <v>3331999.562022828</v>
       </c>
       <c r="K9">
-        <v>71447.69421993145</v>
+        <v>71447.80242592719</v>
       </c>
       <c r="L9">
-        <v>98638</v>
+        <v>98313</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1493.70712422214</v>
+        <v>1547.232928111283</v>
       </c>
       <c r="B10">
-        <v>3511.679399836617</v>
+        <v>3586.907272408857</v>
       </c>
       <c r="C10">
-        <v>5005.386524058757</v>
+        <v>5134.14020052014</v>
       </c>
       <c r="D10">
-        <v>114340.5478238223</v>
+        <v>115945.321245128</v>
       </c>
       <c r="E10">
-        <v>149551.5315071405</v>
+        <v>150453.48446731</v>
       </c>
       <c r="F10">
-        <v>38130.00114679204</v>
+        <v>38404.10737305976</v>
       </c>
       <c r="G10">
-        <v>76210.54667703027</v>
+        <v>77541.2138720682</v>
       </c>
       <c r="H10">
-        <v>87816.63062149502</v>
+        <v>88723.50491348688</v>
       </c>
       <c r="I10">
-        <v>61734.90088564544</v>
+        <v>61729.97955382312</v>
       </c>
       <c r="J10">
-        <v>1316486.55924948</v>
+        <v>1315444.362057538</v>
       </c>
       <c r="K10">
-        <v>28003.95098747459</v>
+        <v>28003.73604151324</v>
       </c>
       <c r="L10">
-        <v>38648</v>
+        <v>38551</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3159.029208132736</v>
+        <v>3030.006577061439</v>
       </c>
       <c r="B11">
-        <v>7144.46635197139</v>
+        <v>6746.462705934136</v>
       </c>
       <c r="C11">
-        <v>10303.49556010413</v>
+        <v>9776.469282995575</v>
       </c>
       <c r="D11">
-        <v>238087.7557206749</v>
+        <v>237157.0872121282</v>
       </c>
       <c r="E11">
-        <v>306517.7538291981</v>
+        <v>309567.2741116445</v>
       </c>
       <c r="F11">
-        <v>79518.6106531893</v>
+        <v>78139.76805665824</v>
       </c>
       <c r="G11">
-        <v>158569.1450674856</v>
+        <v>159017.3191554699</v>
       </c>
       <c r="H11">
-        <v>180501.3771726559</v>
+        <v>182064.4605031802</v>
       </c>
       <c r="I11">
-        <v>126016.3766565422</v>
+        <v>127502.8136084643</v>
       </c>
       <c r="J11">
-        <v>2699254.539840264</v>
+        <v>2714809.436678717</v>
       </c>
       <c r="K11">
-        <v>57876.73359312426</v>
+        <v>57876.80197501408</v>
       </c>
       <c r="L11">
-        <v>79814</v>
+        <v>79702</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4475.030068388385</v>
+        <v>4656.037771944783</v>
       </c>
       <c r="B12">
-        <v>10270.02749624397</v>
+        <v>9802.649763109261</v>
       </c>
       <c r="C12">
-        <v>14745.05756463235</v>
+        <v>14458.68753505404</v>
       </c>
       <c r="D12">
-        <v>322993.0726206586</v>
+        <v>325359.0322124546</v>
       </c>
       <c r="E12">
-        <v>408935.2390160498</v>
+        <v>417532.0596154506</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>322993.0726206586</v>
+        <v>325359.0322124546</v>
       </c>
       <c r="H12">
-        <v>241335.7887762341</v>
+        <v>245533.1789835595</v>
       </c>
       <c r="I12">
-        <v>167599.4502398157</v>
+        <v>171998.8806318911</v>
       </c>
       <c r="J12">
-        <v>3674147.032232949</v>
+        <v>3681530.077767126</v>
       </c>
       <c r="K12">
-        <v>78645.6566051378</v>
+        <v>78645.93467459823</v>
       </c>
       <c r="L12">
-        <v>111991</v>
+        <v>111688</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1956.457132584013</v>
+        <v>1815.547729984874</v>
       </c>
       <c r="B13">
-        <v>4607.91713973672</v>
+        <v>4198.062783834284</v>
       </c>
       <c r="C13">
-        <v>6564.374272320733</v>
+        <v>6013.610513819159</v>
       </c>
       <c r="D13">
-        <v>142614.7239047191</v>
+        <v>140856.2051693228</v>
       </c>
       <c r="E13">
-        <v>184666.7638573056</v>
+        <v>182553.0082755196</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>142614.7239047191</v>
+        <v>140856.2051693228</v>
       </c>
       <c r="H13">
-        <v>108886.0249108172</v>
+        <v>108296.2330101238</v>
       </c>
       <c r="I13">
-        <v>75780.73894648837</v>
+        <v>74256.77526539577</v>
       </c>
       <c r="J13">
-        <v>1620648.121615055</v>
+        <v>1616459.942064939</v>
       </c>
       <c r="K13">
-        <v>34683.89647355783</v>
+        <v>34683.77556705027</v>
       </c>
       <c r="L13">
-        <v>49392</v>
+        <v>49303</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>7681.45096439504</v>
+        <v>7634.780754789074</v>
       </c>
       <c r="C14">
-        <v>7681.45096439504</v>
+        <v>7634.780754789074</v>
       </c>
       <c r="D14">
-        <v>179345.2380790423</v>
+        <v>179285.5017296217</v>
       </c>
       <c r="E14">
-        <v>226270.3324169737</v>
+        <v>228653.1301870565</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>179345.2380790423</v>
+        <v>179285.5017296217</v>
       </c>
       <c r="H14">
-        <v>132978.2132164876</v>
+        <v>134178.9965863308</v>
       </c>
       <c r="I14">
-        <v>93292.11920048612</v>
+        <v>94474.13360072569</v>
       </c>
       <c r="J14">
-        <v>2006528.066340657</v>
+        <v>2020248.902743347</v>
       </c>
       <c r="K14">
-        <v>42868.67814041838</v>
+        <v>42869.0089731097</v>
       </c>
       <c r="L14">
-        <v>61345</v>
+        <v>61197</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7543.412097759534</v>
+        <v>7698.946695323544</v>
       </c>
       <c r="C15">
-        <v>7543.412097759534</v>
+        <v>7698.946695323544</v>
       </c>
       <c r="D15">
-        <v>172441.2041658678</v>
+        <v>172399.1066738683</v>
       </c>
       <c r="E15">
-        <v>223133.780263775</v>
+        <v>219364.4524224964</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>172441.2041658678</v>
+        <v>172399.1066738683</v>
       </c>
       <c r="H15">
-        <v>131596.0710891521</v>
+        <v>129121.9865284229</v>
       </c>
       <c r="I15">
-        <v>91537.70917462288</v>
+        <v>90242.46589407347</v>
       </c>
       <c r="J15">
-        <v>1979648.013354211</v>
+        <v>1950564.615832899</v>
       </c>
       <c r="K15">
-        <v>41814.33082416804</v>
+        <v>41813.90784969581</v>
       </c>
       <c r="L15">
-        <v>59887</v>
+        <v>59694</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5411.442494955159</v>
+        <v>5888.123177076241</v>
       </c>
       <c r="C16">
-        <v>5411.442494955159</v>
+        <v>5888.123177076241</v>
       </c>
       <c r="D16">
-        <v>126707.5985071197</v>
+        <v>129269.5184148104</v>
       </c>
       <c r="E16">
-        <v>158626.5157632947</v>
+        <v>167121.1685719039</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>126707.5985071197</v>
+        <v>129269.5184148104</v>
       </c>
       <c r="H16">
-        <v>93335.98522561591</v>
+        <v>98633.07111020311</v>
       </c>
       <c r="I16">
-        <v>65290.53053767875</v>
+        <v>68488.09746170076</v>
       </c>
       <c r="J16">
-        <v>1445964.901966368</v>
+        <v>1443946.495564282</v>
       </c>
       <c r="K16">
-        <v>31077.29725428071</v>
+        <v>31077.03708486374</v>
       </c>
       <c r="L16">
-        <v>44460</v>
+        <v>44343</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>2008.042164770754</v>
+        <v>2071.244363178294</v>
       </c>
       <c r="C17">
-        <v>2008.042164770754</v>
+        <v>2071.244363178294</v>
       </c>
       <c r="D17">
-        <v>12088.50752500051</v>
+        <v>12166.52604965626</v>
       </c>
       <c r="E17">
-        <v>17570.21242158392</v>
+        <v>17326.66356408187</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12088.50752500051</v>
+        <v>12166.52604965626</v>
       </c>
       <c r="H17">
-        <v>10020.93386192615</v>
+        <v>9877.790867933498</v>
       </c>
       <c r="I17">
-        <v>7549.27855965778</v>
+        <v>7448.87269614837</v>
       </c>
       <c r="J17">
-        <v>123867.0351735428</v>
+        <v>122300.3765102694</v>
       </c>
       <c r="K17">
-        <v>4914.719338277045</v>
+        <v>4915.063399043943</v>
       </c>
       <c r="L17">
-        <v>6718</v>
+        <v>6706</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2733.024414318247</v>
+        <v>2757.190188152091</v>
       </c>
       <c r="C18">
-        <v>2733.024414318247</v>
+        <v>2757.190188152091</v>
       </c>
       <c r="D18">
-        <v>17051.26383479453</v>
+        <v>17108.17178244776</v>
       </c>
       <c r="E18">
-        <v>25277.52530037541</v>
+        <v>24866.31363583116</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17051.26383479453</v>
+        <v>17108.17178244776</v>
       </c>
       <c r="H18">
-        <v>14460.70623853576</v>
+        <v>14184.26536523817</v>
       </c>
       <c r="I18">
-        <v>10816.81906183965</v>
+        <v>10682.04827059299</v>
       </c>
       <c r="J18">
-        <v>174908.7809559312</v>
+        <v>173983.3662921966</v>
       </c>
       <c r="K18">
-        <v>7010.048233774665</v>
+        <v>7009.820276093539</v>
       </c>
       <c r="L18">
-        <v>9582</v>
+        <v>9565</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>572.2251248768356</v>
+        <v>596.6385886408805</v>
       </c>
       <c r="B19">
-        <v>5764.876653708022</v>
+        <v>6076.407013129992</v>
       </c>
       <c r="C19">
-        <v>6337.101778584857</v>
+        <v>6673.045601770873</v>
       </c>
       <c r="D19">
-        <v>40076.75711275085</v>
+        <v>39939.57390119851</v>
       </c>
       <c r="E19">
-        <v>57667.21467884065</v>
+        <v>56438.20252474273</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40076.75711275085</v>
+        <v>39939.57390119851</v>
       </c>
       <c r="H19">
-        <v>32817.49436010992</v>
+        <v>32254.63003871567</v>
       </c>
       <c r="I19">
-        <v>24849.72031873072</v>
+        <v>24183.57248602706</v>
       </c>
       <c r="J19">
-        <v>408455.63400398</v>
+        <v>405793.2241477176</v>
       </c>
       <c r="K19">
-        <v>16219.225954893</v>
+        <v>16218.77917063084</v>
       </c>
       <c r="L19">
-        <v>22122</v>
+        <v>22061</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1406.970975741607</v>
+        <v>1405.375780855141</v>
       </c>
       <c r="B20">
-        <v>13909.57524865189</v>
+        <v>13861.54085986568</v>
       </c>
       <c r="C20">
-        <v>15316.5462243935</v>
+        <v>15266.91664072082</v>
       </c>
       <c r="D20">
-        <v>92961.63861428127</v>
+        <v>93592.24213150678</v>
       </c>
       <c r="E20">
-        <v>132162.2733142608</v>
+        <v>131206.3829314082</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>92961.63861428127</v>
+        <v>93592.24213150678</v>
       </c>
       <c r="H20">
-        <v>75183.33853218381</v>
+        <v>75082.17703319294</v>
       </c>
       <c r="I20">
-        <v>56978.93478207703</v>
+        <v>56124.20589821526</v>
       </c>
       <c r="J20">
-        <v>943455.1983639371</v>
+        <v>934684.0231697523</v>
       </c>
       <c r="K20">
-        <v>37314.13561684467</v>
+        <v>37314.31897155567</v>
       </c>
       <c r="L20">
-        <v>50822</v>
+        <v>50743</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3192.741371428173</v>
+        <v>3473.979123910482</v>
       </c>
       <c r="B21">
-        <v>31189.58892694931</v>
+        <v>34444.98095409365</v>
       </c>
       <c r="C21">
-        <v>34382.33029837748</v>
+        <v>37918.96007800414</v>
       </c>
       <c r="D21">
-        <v>223126.3686462127</v>
+        <v>228402.7919100554</v>
       </c>
       <c r="E21">
-        <v>327826.4328843257</v>
+        <v>329930.2232064845</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>223126.3686462127</v>
+        <v>228402.7919100554</v>
       </c>
       <c r="H21">
-        <v>187466.7501427386</v>
+        <v>189399.3727362471</v>
       </c>
       <c r="I21">
-        <v>140359.6827415871</v>
+        <v>140530.8504702374</v>
       </c>
       <c r="J21">
-        <v>2297950.890837427</v>
+        <v>2296639.708008164</v>
       </c>
       <c r="K21">
-        <v>90793.99916534715</v>
+        <v>90793.96794434368</v>
       </c>
       <c r="L21">
-        <v>123713</v>
+        <v>123599</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3920.964242861759</v>
+        <v>4023.113402659857</v>
       </c>
       <c r="B22">
-        <v>37490.8539422942</v>
+        <v>39821.3353078135</v>
       </c>
       <c r="C22">
-        <v>41411.81818515595</v>
+        <v>43844.44871047336</v>
       </c>
       <c r="D22">
-        <v>269622.9993594905</v>
+        <v>257707.0853072044</v>
       </c>
       <c r="E22">
-        <v>378236.5700767843</v>
+        <v>382364.2711536336</v>
       </c>
       <c r="F22">
-        <v>43915.8158935309</v>
+        <v>42242.98421035503</v>
       </c>
       <c r="G22">
-        <v>225707.1834659596</v>
+        <v>215464.1010968494</v>
       </c>
       <c r="H22">
-        <v>216103.5580017776</v>
+        <v>217333.0193680685</v>
       </c>
       <c r="I22">
-        <v>162133.0120750067</v>
+        <v>165031.2517855651</v>
       </c>
       <c r="J22">
-        <v>2740397.108886017</v>
+        <v>2719114.680248509</v>
       </c>
       <c r="K22">
-        <v>108044.6620835078</v>
+        <v>108044.8508951704</v>
       </c>
       <c r="L22">
-        <v>145572</v>
+        <v>145304</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4322.110305731896</v>
+        <v>4375.714809935479</v>
       </c>
       <c r="B23">
-        <v>43336.30460900442</v>
+        <v>43197.50158702752</v>
       </c>
       <c r="C23">
-        <v>47658.41491473632</v>
+        <v>47573.21639696299</v>
       </c>
       <c r="D23">
-        <v>289392.5208978124</v>
+        <v>293586.6645350238</v>
       </c>
       <c r="E23">
-        <v>408953.4759451826</v>
+        <v>420105.889386074</v>
       </c>
       <c r="F23">
-        <v>46070.678898158</v>
+        <v>47284.3012219275</v>
       </c>
       <c r="G23">
-        <v>243321.8419996544</v>
+        <v>246302.3633130963</v>
       </c>
       <c r="H23">
-        <v>231408.220091182</v>
+        <v>240780.7997489288</v>
       </c>
       <c r="I23">
-        <v>177545.2558540006</v>
+        <v>179325.0896371453</v>
       </c>
       <c r="J23">
-        <v>2946219.814667447</v>
+        <v>2947221.221026768</v>
       </c>
       <c r="K23">
-        <v>116726.2216478226</v>
+        <v>116725.793227294</v>
       </c>
       <c r="L23">
-        <v>157213</v>
+        <v>156839</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7418.620088642559</v>
+        <v>7608.30734124455</v>
       </c>
       <c r="B24">
-        <v>71719.95420954694</v>
+        <v>71632.36053259972</v>
       </c>
       <c r="C24">
-        <v>79138.5742981895</v>
+        <v>79240.66787384427</v>
       </c>
       <c r="D24">
-        <v>467067.6243269061</v>
+        <v>479491.2032494511</v>
       </c>
       <c r="E24">
-        <v>691647.6973069749</v>
+        <v>685544.9737895961</v>
       </c>
       <c r="F24">
-        <v>76157.84580253049</v>
+        <v>77991.48826151859</v>
       </c>
       <c r="G24">
-        <v>390909.7785243756</v>
+        <v>401499.7149879326</v>
       </c>
       <c r="H24">
-        <v>392695.8299633773</v>
+        <v>391627.1447293709</v>
       </c>
       <c r="I24">
-        <v>298951.8673435976</v>
+        <v>293917.8290602252</v>
       </c>
       <c r="J24">
-        <v>4876693.39718015</v>
+        <v>4818228.900563451</v>
       </c>
       <c r="K24">
-        <v>193190.3107867878</v>
+        <v>193189.8252357688</v>
       </c>
       <c r="L24">
-        <v>260308</v>
+        <v>259490</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>5894.39622681962</v>
+        <v>6205.092159873252</v>
       </c>
       <c r="B25">
-        <v>64516.42707736346</v>
+        <v>61009.73081644544</v>
       </c>
       <c r="C25">
-        <v>70410.82330418307</v>
+        <v>67214.82297631868</v>
       </c>
       <c r="D25">
-        <v>413217.1868803345</v>
+        <v>425135.6318753098</v>
       </c>
       <c r="E25">
-        <v>593308.6364002434</v>
+        <v>599267.2786560354</v>
       </c>
       <c r="F25">
-        <v>67101.33112856779</v>
+        <v>68318.96913969501</v>
       </c>
       <c r="G25">
-        <v>346115.8557517666</v>
+        <v>356816.6627356148</v>
       </c>
       <c r="H25">
-        <v>338337.0419432616</v>
+        <v>341678.0646928936</v>
       </c>
       <c r="I25">
-        <v>254971.5944569818</v>
+        <v>257589.2139631418</v>
       </c>
       <c r="J25">
-        <v>4188979.692206965</v>
+        <v>4243251.009618587</v>
       </c>
       <c r="K25">
-        <v>167765.6687767668</v>
+        <v>167765.9403351643</v>
       </c>
       <c r="L25">
-        <v>225734</v>
+        <v>225644</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4464.685044002328</v>
+        <v>3901.391065002762</v>
       </c>
       <c r="B26">
-        <v>44671.06131359836</v>
+        <v>42241.52314349406</v>
       </c>
       <c r="C26">
-        <v>49135.74635760068</v>
+        <v>46142.91420849682</v>
       </c>
       <c r="D26">
-        <v>297803.5201128618</v>
+        <v>292657.9712415418</v>
       </c>
       <c r="E26">
-        <v>419337.0509671455</v>
+        <v>415962.2777659164</v>
       </c>
       <c r="F26">
-        <v>48643.85405413996</v>
+        <v>47894.72354703124</v>
       </c>
       <c r="G26">
-        <v>249159.6660587218</v>
+        <v>244763.2476945106</v>
       </c>
       <c r="H26">
-        <v>237272.8255540494</v>
+        <v>238602.1970912277</v>
       </c>
       <c r="I26">
-        <v>182064.2254130961</v>
+        <v>177360.0806746887</v>
       </c>
       <c r="J26">
-        <v>2955240.899884257</v>
+        <v>2924574.507930619</v>
       </c>
       <c r="K26">
-        <v>117050.7004292479</v>
+        <v>117051.2059993229</v>
       </c>
       <c r="L26">
-        <v>157492</v>
+        <v>157345</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5189.93371684652</v>
+        <v>5323.282877613135</v>
       </c>
       <c r="B27">
-        <v>53096.77358560619</v>
+        <v>54956.89799432563</v>
       </c>
       <c r="C27">
-        <v>58286.70730245271</v>
+        <v>60280.18087193877</v>
       </c>
       <c r="D27">
-        <v>368850.029908683</v>
+        <v>370153.5302934726</v>
       </c>
       <c r="E27">
-        <v>512208.374079105</v>
+        <v>528948.7404658266</v>
       </c>
       <c r="F27">
-        <v>68048.94639597539</v>
+        <v>66768.65781537206</v>
       </c>
       <c r="G27">
-        <v>300801.0835127076</v>
+        <v>303384.8724781006</v>
       </c>
       <c r="H27">
-        <v>292309.8085259089</v>
+        <v>302699.1637692556</v>
       </c>
       <c r="I27">
-        <v>219898.5655531962</v>
+        <v>226249.576696571</v>
       </c>
       <c r="J27">
-        <v>3675189.583370568</v>
+        <v>3692077.820604015</v>
       </c>
       <c r="K27">
-        <v>146865.0709240992</v>
+        <v>146865.3113941353</v>
       </c>
       <c r="L27">
-        <v>197660</v>
+        <v>197200</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6271.067458515401</v>
+        <v>6383.670772302033</v>
       </c>
       <c r="B28">
-        <v>64140.42632573639</v>
+        <v>64425.89636793541</v>
       </c>
       <c r="C28">
-        <v>70411.49378425178</v>
+        <v>70809.56714023744</v>
       </c>
       <c r="D28">
-        <v>429821.2763487584</v>
+        <v>418016.1713268068</v>
       </c>
       <c r="E28">
-        <v>613085.310896077</v>
+        <v>603959.4538189897</v>
       </c>
       <c r="F28">
-        <v>79369.61211494083</v>
+        <v>77658.26877977054</v>
       </c>
       <c r="G28">
-        <v>350451.6642338175</v>
+        <v>340357.9025470362</v>
       </c>
       <c r="H28">
-        <v>349157.7637552631</v>
+        <v>344234.9623145401</v>
       </c>
       <c r="I28">
-        <v>263927.5471408138</v>
+        <v>259724.4915044496</v>
       </c>
       <c r="J28">
-        <v>4289813.781277482</v>
+        <v>4293056.358915176</v>
       </c>
       <c r="K28">
-        <v>171179.098757402</v>
+        <v>171179.2918711519</v>
       </c>
       <c r="L28">
-        <v>230030</v>
+        <v>229842</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>4015.038221915786</v>
+        <v>4142.126552229393</v>
       </c>
       <c r="B29">
-        <v>37830.67022416216</v>
+        <v>37915.61723834648</v>
       </c>
       <c r="C29">
-        <v>41845.70844607795</v>
+        <v>42057.74379057587</v>
       </c>
       <c r="D29">
-        <v>254186.6221211599</v>
+        <v>256360.8664515757</v>
       </c>
       <c r="E29">
-        <v>374169.5653813924</v>
+        <v>367770.1806009125</v>
       </c>
       <c r="F29">
-        <v>47375.57793158605</v>
+        <v>48660.41457905965</v>
       </c>
       <c r="G29">
-        <v>206811.0441895738</v>
+        <v>207700.451872516</v>
       </c>
       <c r="H29">
-        <v>213181.83093878</v>
+        <v>209737.2099403463</v>
       </c>
       <c r="I29">
-        <v>160987.7344426124</v>
+        <v>158032.9706605662</v>
       </c>
       <c r="J29">
-        <v>2630388.932203104</v>
+        <v>2638047.617549808</v>
       </c>
       <c r="K29">
-        <v>104634.2404563452</v>
+        <v>104634.218217855</v>
       </c>
       <c r="L29">
-        <v>140717</v>
+        <v>140429</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>2053.858089163388</v>
+        <v>1896.373283061761</v>
       </c>
       <c r="B30">
-        <v>18798.90045763741</v>
+        <v>18111.69564474011</v>
       </c>
       <c r="C30">
-        <v>20852.7585468008</v>
+        <v>20008.06892780188</v>
       </c>
       <c r="D30">
-        <v>127056.9726618902</v>
+        <v>126348.1017521641</v>
       </c>
       <c r="E30">
-        <v>184178.3114256415</v>
+        <v>184193.1621907526</v>
       </c>
       <c r="F30">
-        <v>23857.53818366486</v>
+        <v>23225.11533513773</v>
       </c>
       <c r="G30">
-        <v>103199.4344782254</v>
+        <v>103122.9864170263</v>
       </c>
       <c r="H30">
-        <v>105026.0184729902</v>
+        <v>105078.8025229188</v>
       </c>
       <c r="I30">
-        <v>79152.29295265132</v>
+        <v>79114.35966783376</v>
       </c>
       <c r="J30">
-        <v>1313119.520499784</v>
+        <v>1302125.551498698</v>
       </c>
       <c r="K30">
-        <v>52080.86787653696</v>
+        <v>52080.69602065584</v>
       </c>
       <c r="L30">
-        <v>70052</v>
+        <v>69949</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1279.16062910085</v>
+        <v>1374.08419476482</v>
       </c>
       <c r="B31">
-        <v>13776.39766148704</v>
+        <v>14178.76556351811</v>
       </c>
       <c r="C31">
-        <v>15055.55829058789</v>
+        <v>15552.84975828293</v>
       </c>
       <c r="D31">
-        <v>94831.2056914008</v>
+        <v>93280.95988316313</v>
       </c>
       <c r="E31">
-        <v>136833.6074221099</v>
+        <v>134270.0164383262</v>
       </c>
       <c r="F31">
-        <v>17547.93234157141</v>
+        <v>17088.35994538768</v>
       </c>
       <c r="G31">
-        <v>77283.2733498294</v>
+        <v>76192.59993777546</v>
       </c>
       <c r="H31">
-        <v>78179.95726940337</v>
+        <v>75980.14216349083</v>
       </c>
       <c r="I31">
-        <v>58653.65015270654</v>
+        <v>58289.87427483533</v>
       </c>
       <c r="J31">
-        <v>961520.5244621726</v>
+        <v>957808.0246468248</v>
       </c>
       <c r="K31">
-        <v>38181.08245058513</v>
+        <v>38180.96018114156</v>
       </c>
       <c r="L31">
-        <v>51355</v>
+        <v>51326</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>185.2453167284442</v>
+        <v>193.8011460736929</v>
       </c>
       <c r="B32">
-        <v>835.9880870712741</v>
+        <v>869.4652713032461</v>
       </c>
       <c r="C32">
-        <v>1021.233403799718</v>
+        <v>1063.266417376939</v>
       </c>
       <c r="D32">
-        <v>5907.445890994059</v>
+        <v>5963.715646998099</v>
       </c>
       <c r="E32">
-        <v>6781.952784390264</v>
+        <v>6856.865799344448</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5907.445890994059</v>
+        <v>5963.715646998099</v>
       </c>
       <c r="H32">
-        <v>3437.059866547488</v>
+        <v>3492.305495910409</v>
       </c>
       <c r="I32">
-        <v>3344.892917842777</v>
+        <v>3364.560303434039</v>
       </c>
       <c r="J32">
-        <v>72406.21060990306</v>
+        <v>72598.58891863769</v>
       </c>
       <c r="K32">
-        <v>2024.201141125</v>
+        <v>2024.09433320905</v>
       </c>
       <c r="L32">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1732.893281289896</v>
+        <v>1740.464310653619</v>
       </c>
       <c r="B33">
-        <v>7591.9664487041</v>
+        <v>7881.097635842678</v>
       </c>
       <c r="C33">
-        <v>9324.859729993997</v>
+        <v>9621.561946496297</v>
       </c>
       <c r="D33">
-        <v>52989.26133044325</v>
+        <v>53739.88019135813</v>
       </c>
       <c r="E33">
-        <v>61929.40361150043</v>
+        <v>61798.74151612758</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>52989.26133044325</v>
+        <v>53739.88019135813</v>
       </c>
       <c r="H33">
-        <v>31530.70018434716</v>
+        <v>31338.81501561371</v>
       </c>
       <c r="I33">
-        <v>30398.70342715327</v>
+        <v>30459.92650051387</v>
       </c>
       <c r="J33">
-        <v>659294.2447098304</v>
+        <v>664358.6892479894</v>
       </c>
       <c r="K33">
-        <v>18523.17429681778</v>
+        <v>18522.88970576918</v>
       </c>
       <c r="L33">
-        <v>25639</v>
+        <v>25714</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5894.395927541124</v>
+        <v>5745.884610387943</v>
       </c>
       <c r="B34">
-        <v>25512.9759151036</v>
+        <v>25555.41819340971</v>
       </c>
       <c r="C34">
-        <v>31407.37184264472</v>
+        <v>31301.30280379765</v>
       </c>
       <c r="D34">
-        <v>181831.6622199136</v>
+        <v>179554.0149630952</v>
       </c>
       <c r="E34">
-        <v>209452.3133059889</v>
+        <v>206135.207303861</v>
       </c>
       <c r="F34">
-        <v>32016.16972578797</v>
+        <v>31383.31576278987</v>
       </c>
       <c r="G34">
-        <v>149815.4924941256</v>
+        <v>148170.6992003053</v>
       </c>
       <c r="H34">
-        <v>105556.7872358375</v>
+        <v>104992.8858529142</v>
       </c>
       <c r="I34">
-        <v>103895.5260701514</v>
+        <v>101142.3214509468</v>
       </c>
       <c r="J34">
-        <v>2193234.124449471</v>
+        <v>2201771.392242085</v>
       </c>
       <c r="K34">
-        <v>61494.31796225726</v>
+        <v>61494.24991520968</v>
       </c>
       <c r="L34">
-        <v>83799</v>
+        <v>83953</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>14198.94162476176</v>
+        <v>13776.7426618223</v>
       </c>
       <c r="B35">
-        <v>65510.9096566743</v>
+        <v>63929.98225422944</v>
       </c>
       <c r="C35">
-        <v>79709.85128143606</v>
+        <v>77706.72491605174</v>
       </c>
       <c r="D35">
-        <v>453455.4530124462</v>
+        <v>457787.4849880582</v>
       </c>
       <c r="E35">
-        <v>520712.161546926</v>
+        <v>522651.264054729</v>
       </c>
       <c r="F35">
-        <v>79752.52143131393</v>
+        <v>80373.61230894869</v>
       </c>
       <c r="G35">
-        <v>373702.9315811322</v>
+        <v>377413.8726791096</v>
       </c>
       <c r="H35">
-        <v>264889.5100342928</v>
+        <v>267327.480478269</v>
       </c>
       <c r="I35">
-        <v>255822.6515126332</v>
+        <v>255323.78357646</v>
       </c>
       <c r="J35">
-        <v>5523009.786319892</v>
+        <v>5550189.087657942</v>
       </c>
       <c r="K35">
-        <v>155265.1987424425</v>
+        <v>155264.927920183</v>
       </c>
       <c r="L35">
-        <v>211759</v>
+        <v>212400</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>22660.06406679289</v>
+        <v>22608.41455763216</v>
       </c>
       <c r="B36">
-        <v>102847.7827348158</v>
+        <v>97184.36011875464</v>
       </c>
       <c r="C36">
-        <v>125507.8468016087</v>
+        <v>119792.7746763868</v>
       </c>
       <c r="D36">
-        <v>693205.512418814</v>
+        <v>696931.9036998117</v>
       </c>
       <c r="E36">
-        <v>793456.8117336272</v>
+        <v>809367.7541630749</v>
       </c>
       <c r="F36">
-        <v>121491.8465896399</v>
+        <v>122291.3606023116</v>
       </c>
       <c r="G36">
-        <v>571713.6658291741</v>
+        <v>574640.5430975001</v>
       </c>
       <c r="H36">
-        <v>407817.4619831571</v>
+        <v>411559.4714187259</v>
       </c>
       <c r="I36">
-        <v>385639.3497504701</v>
+        <v>397808.282744349</v>
       </c>
       <c r="J36">
-        <v>8523271.921221424</v>
+        <v>8517182.266914994</v>
       </c>
       <c r="K36">
-        <v>238367.0957590085</v>
+        <v>238366.6978263251</v>
       </c>
       <c r="L36">
-        <v>325099</v>
+        <v>325827</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5940.881081290853</v>
+        <v>6123.948199635815</v>
       </c>
       <c r="B37">
-        <v>27463.29516924631</v>
+        <v>26497.46179980913</v>
       </c>
       <c r="C37">
-        <v>33404.17625053717</v>
+        <v>32621.40999944495</v>
       </c>
       <c r="D37">
-        <v>187970.1597401536</v>
+        <v>184036.8646958041</v>
       </c>
       <c r="E37">
-        <v>214096.1233263915</v>
+        <v>216504.0768494412</v>
       </c>
       <c r="F37">
-        <v>33217.63174213363</v>
+        <v>32002.44674233271</v>
       </c>
       <c r="G37">
-        <v>154752.5279980199</v>
+        <v>152034.4179534714</v>
       </c>
       <c r="H37">
-        <v>108933.9472412181</v>
+        <v>109697.0175097519</v>
       </c>
       <c r="I37">
-        <v>105162.1760851733</v>
+        <v>106807.0593396893</v>
       </c>
       <c r="J37">
-        <v>2279944.715771695</v>
+        <v>2286975.486355251</v>
       </c>
       <c r="K37">
-        <v>63837.91164605393</v>
+        <v>63837.68114538166</v>
       </c>
       <c r="L37">
-        <v>87051</v>
+        <v>87287</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>16032.65418285344</v>
+        <v>15817.20017315973</v>
       </c>
       <c r="B38">
-        <v>73461.77677576245</v>
+        <v>70738.17079132918</v>
       </c>
       <c r="C38">
-        <v>89494.43095861589</v>
+        <v>86555.37096448892</v>
       </c>
       <c r="D38">
-        <v>500454.2909698704</v>
+        <v>488602.769885918</v>
       </c>
       <c r="E38">
-        <v>571934.9633412444</v>
+        <v>580898.6803695707</v>
       </c>
       <c r="F38">
-        <v>85482.84721393316</v>
+        <v>85433.08835038457</v>
       </c>
       <c r="G38">
-        <v>414971.4437559372</v>
+        <v>403169.6815355335</v>
       </c>
       <c r="H38">
-        <v>292526.7009697685</v>
+        <v>296710.852390293</v>
       </c>
       <c r="I38">
-        <v>279408.2623714759</v>
+        <v>284187.8279792778</v>
       </c>
       <c r="J38">
-        <v>6025315.573953891</v>
+        <v>6063836.505624017</v>
       </c>
       <c r="K38">
-        <v>169119.9028435243</v>
+        <v>169119.8790030587</v>
       </c>
       <c r="L38">
-        <v>230593</v>
+        <v>231172</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>19020.80093022942</v>
+        <v>19507.62653097898</v>
       </c>
       <c r="B39">
-        <v>87097.6433217789</v>
+        <v>89162.09127521202</v>
       </c>
       <c r="C39">
-        <v>106118.4442520083</v>
+        <v>108669.717806191</v>
       </c>
       <c r="D39">
-        <v>604212.8144992528</v>
+        <v>613415.1246617527</v>
       </c>
       <c r="E39">
-        <v>690896.7404941093</v>
+        <v>702251.6916514961</v>
       </c>
       <c r="F39">
-        <v>104567.5326673371</v>
+        <v>104765.0235417719</v>
       </c>
       <c r="G39">
-        <v>499645.2818319157</v>
+        <v>508650.1011199809</v>
       </c>
       <c r="H39">
-        <v>352178.3489835955</v>
+        <v>357437.2016489842</v>
       </c>
       <c r="I39">
-        <v>338718.3915105139</v>
+        <v>344814.4900025119</v>
       </c>
       <c r="J39">
-        <v>7384935.591372574</v>
+        <v>7357020.793148526</v>
       </c>
       <c r="K39">
-        <v>206140.192543951</v>
+        <v>206140.2219271202</v>
       </c>
       <c r="L39">
-        <v>281235</v>
+        <v>281760</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9235.564195304652</v>
+        <v>9395.402144627296</v>
       </c>
       <c r="B40">
-        <v>41252.14965023247</v>
+        <v>41361.12925541849</v>
       </c>
       <c r="C40">
-        <v>50487.71384553712</v>
+        <v>50756.53140004578</v>
       </c>
       <c r="D40">
-        <v>285648.8147416086</v>
+        <v>285729.7421699753</v>
       </c>
       <c r="E40">
-        <v>340466.6040463466</v>
+        <v>330180.4976481111</v>
       </c>
       <c r="F40">
-        <v>49933.15331792057</v>
+        <v>49759.19310850119</v>
       </c>
       <c r="G40">
-        <v>235715.6614236881</v>
+        <v>235970.5490614741</v>
       </c>
       <c r="H40">
-        <v>172447.039231699</v>
+        <v>168045.3161219121</v>
       </c>
       <c r="I40">
-        <v>168019.5648146475</v>
+        <v>162135.1815261991</v>
       </c>
       <c r="J40">
-        <v>3491502.209452626</v>
+        <v>3515429.767827001</v>
       </c>
       <c r="K40">
-        <v>97789.11410396016</v>
+        <v>97788.96069796568</v>
       </c>
       <c r="L40">
-        <v>133329</v>
+        <v>133787</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>18700.4892486428</v>
+        <v>19237.9316281858</v>
       </c>
       <c r="B41">
-        <v>84714.3576283673</v>
+        <v>86335.81906540769</v>
       </c>
       <c r="C41">
-        <v>103414.8468770101</v>
+        <v>105573.7506935935</v>
       </c>
       <c r="D41">
-        <v>577036.569916722</v>
+        <v>578004.0350981368</v>
       </c>
       <c r="E41">
-        <v>671679.9524685723</v>
+        <v>658908.4154157559</v>
       </c>
       <c r="F41">
-        <v>100361.09314813</v>
+        <v>100251.9036547848</v>
       </c>
       <c r="G41">
-        <v>476675.476768592</v>
+        <v>477752.131443352</v>
       </c>
       <c r="H41">
-        <v>342559.3078102758</v>
+        <v>337091.4354620817</v>
       </c>
       <c r="I41">
-        <v>329120.6446582965</v>
+        <v>321816.9799536742</v>
       </c>
       <c r="J41">
-        <v>7045449.755348617</v>
+        <v>7075214.645860904</v>
       </c>
       <c r="K41">
-        <v>197752.744336436</v>
+        <v>197752.9330215742</v>
       </c>
       <c r="L41">
-        <v>269682</v>
+        <v>270402</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10322.63180062743</v>
+        <v>10099.79648181189</v>
       </c>
       <c r="B42">
-        <v>48187.24386996048</v>
+        <v>45417.20812135662</v>
       </c>
       <c r="C42">
-        <v>58509.87567058791</v>
+        <v>55517.00460316851</v>
       </c>
       <c r="D42">
-        <v>329135.709928353</v>
+        <v>327576.4458932886</v>
       </c>
       <c r="E42">
-        <v>376949.4527369655</v>
+        <v>372897.2463109736</v>
       </c>
       <c r="F42">
-        <v>57854.0160247739</v>
+        <v>56902.54331409623</v>
       </c>
       <c r="G42">
-        <v>271281.6939035791</v>
+        <v>270673.9025791924</v>
       </c>
       <c r="H42">
-        <v>192491.4854045941</v>
+        <v>190359.0509293341</v>
       </c>
       <c r="I42">
-        <v>184457.9673323714</v>
+        <v>182538.1953816396</v>
       </c>
       <c r="J42">
-        <v>4007770.172058591</v>
+        <v>4022519.714840764</v>
       </c>
       <c r="K42">
-        <v>112252.9675309281</v>
+        <v>112253.3519454497</v>
       </c>
       <c r="L42">
-        <v>152885</v>
+        <v>153290</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>80397.71567075701</v>
+        <v>77555.35135626451</v>
       </c>
       <c r="C43">
-        <v>80397.71567075701</v>
+        <v>77555.35135626451</v>
       </c>
       <c r="D43">
-        <v>458007.3273566771</v>
+        <v>458184.5978078013</v>
       </c>
       <c r="E43">
-        <v>531140.9578546429</v>
+        <v>526425.1531365576</v>
       </c>
       <c r="F43">
-        <v>79549.73866650061</v>
+        <v>80273.48377329274</v>
       </c>
       <c r="G43">
-        <v>378457.5886901765</v>
+        <v>377911.1140345086</v>
       </c>
       <c r="H43">
-        <v>269706.5607798538</v>
+        <v>266452.2325022545</v>
       </c>
       <c r="I43">
-        <v>261434.3970747891</v>
+        <v>259972.920634303</v>
       </c>
       <c r="J43">
-        <v>5584905.223630181</v>
+        <v>5605728.420586135</v>
       </c>
       <c r="K43">
-        <v>156449.8500204397</v>
+        <v>156449.9603086867</v>
       </c>
       <c r="L43">
-        <v>215142</v>
+        <v>215696</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>49221.33806982608</v>
+        <v>50841.20754754891</v>
       </c>
       <c r="C44">
-        <v>49221.33806982608</v>
+        <v>50841.20754754891</v>
       </c>
       <c r="D44">
-        <v>285626.5057210881</v>
+        <v>287296.2365843028</v>
       </c>
       <c r="E44">
-        <v>332795.9712110488</v>
+        <v>330338.8457769297</v>
       </c>
       <c r="F44">
-        <v>49142.35919337173</v>
+        <v>50511.6525541681</v>
       </c>
       <c r="G44">
-        <v>236484.1465277164</v>
+        <v>236784.5840301347</v>
       </c>
       <c r="H44">
-        <v>170138.2296176867</v>
+        <v>169465.3777769985</v>
       </c>
       <c r="I44">
-        <v>162657.7415933621</v>
+        <v>160873.4679999312</v>
       </c>
       <c r="J44">
-        <v>3537442.235060524</v>
+        <v>3558996.019658071</v>
       </c>
       <c r="K44">
-        <v>99099.00816686293</v>
+        <v>99098.93814531692</v>
       </c>
       <c r="L44">
-        <v>136248</v>
+        <v>136672</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>38390.50080806558</v>
+        <v>38325.11533777109</v>
       </c>
       <c r="C45">
-        <v>38390.50080806558</v>
+        <v>38325.11533777109</v>
       </c>
       <c r="D45">
-        <v>217760.8140271867</v>
+        <v>213866.108615635</v>
       </c>
       <c r="E45">
-        <v>247521.9112484768</v>
+        <v>245466.2253567119</v>
       </c>
       <c r="F45">
-        <v>38283.65253349484</v>
+        <v>37596.53845421792</v>
       </c>
       <c r="G45">
-        <v>179477.1614936918</v>
+        <v>176269.5701614171</v>
       </c>
       <c r="H45">
-        <v>126406.8535890304</v>
+        <v>124660.5264723217</v>
       </c>
       <c r="I45">
-        <v>121115.0576594463</v>
+        <v>120805.6988843902</v>
       </c>
       <c r="J45">
-        <v>2651887.515159809</v>
+        <v>2655149.668738209</v>
       </c>
       <c r="K45">
-        <v>74158.29988705747</v>
+        <v>74157.95612732957</v>
       </c>
       <c r="L45">
-        <v>101992</v>
+        <v>102296</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2658.760744664383</v>
+        <v>2707.000622610085</v>
       </c>
       <c r="C46">
-        <v>2658.760744664383</v>
+        <v>2707.000622610085</v>
       </c>
       <c r="D46">
-        <v>15042.36575212105</v>
+        <v>15135.10086946179</v>
       </c>
       <c r="E46">
-        <v>17476.68454229508</v>
+        <v>17479.85990790222</v>
       </c>
       <c r="F46">
-        <v>2626.202724947907</v>
+        <v>2635.368475687335</v>
       </c>
       <c r="G46">
-        <v>12416.16302717314</v>
+        <v>12499.73239377446</v>
       </c>
       <c r="H46">
-        <v>8904.234087971057</v>
+        <v>8895.48930448074</v>
       </c>
       <c r="I46">
-        <v>8572.450454324022</v>
+        <v>8584.370603421476</v>
       </c>
       <c r="J46">
-        <v>186855.1572949229</v>
+        <v>186224.3664436858</v>
       </c>
       <c r="K46">
-        <v>5227.042340323851</v>
+        <v>5227.123597407967</v>
       </c>
       <c r="L46">
-        <v>7193</v>
+        <v>7203</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>174688.1846246043</v>
+        <v>184704.8202986962</v>
       </c>
       <c r="C47">
-        <v>174688.1846246043</v>
+        <v>184704.8202986962</v>
       </c>
       <c r="D47">
-        <v>303064.8944102679</v>
+        <v>298847.7627076718</v>
       </c>
       <c r="E47">
-        <v>405461.5826159179</v>
+        <v>403297.5858889882</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>303064.8944102679</v>
+        <v>298847.7627076718</v>
       </c>
       <c r="H47">
-        <v>245762.6934609007</v>
+        <v>243441.3536345695</v>
       </c>
       <c r="I47">
-        <v>159698.8891550172</v>
+        <v>159856.2322544187</v>
       </c>
       <c r="J47">
-        <v>8138839.351306831</v>
+        <v>8074663.814485881</v>
       </c>
       <c r="K47">
-        <v>165878.8688396319</v>
+        <v>165878.7468564576</v>
       </c>
       <c r="L47">
-        <v>240128</v>
+        <v>239489</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>9506.827646895514</v>
+        <v>9782.835549040403</v>
       </c>
       <c r="B48">
-        <v>118861.7825932722</v>
+        <v>121536.0944358719</v>
       </c>
       <c r="C48">
-        <v>128368.6102401677</v>
+        <v>131318.9299849123</v>
       </c>
       <c r="D48">
-        <v>222753.3711032854</v>
+        <v>216837.4949251448</v>
       </c>
       <c r="E48">
-        <v>299047.8843107111</v>
+        <v>287377.331004182</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>222753.3711032854</v>
+        <v>216837.4949251448</v>
       </c>
       <c r="H48">
-        <v>179868.8303045552</v>
+        <v>174365.4966422553</v>
       </c>
       <c r="I48">
-        <v>119179.0540061559</v>
+        <v>113011.8343619267</v>
       </c>
       <c r="J48">
-        <v>5983024.458456494</v>
+        <v>5927193.987657796</v>
       </c>
       <c r="K48">
-        <v>121112.2530296231</v>
+        <v>121111.6910282894</v>
       </c>
       <c r="L48">
-        <v>173779</v>
+        <v>173695</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>23792.33915197767</v>
+        <v>25671.82079061461</v>
       </c>
       <c r="B49">
-        <v>318999.1822041108</v>
+        <v>335215.0905726545</v>
       </c>
       <c r="C49">
-        <v>342791.5213560885</v>
+        <v>360886.9113632691</v>
       </c>
       <c r="D49">
-        <v>577000.959376391</v>
+        <v>590594.8997931735</v>
       </c>
       <c r="E49">
-        <v>796250.1849362482</v>
+        <v>782383.7861894454</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>577000.959376391</v>
+        <v>590594.8997931735</v>
       </c>
       <c r="H49">
-        <v>480136.982830399</v>
+        <v>469135.5469528096</v>
       </c>
       <c r="I49">
-        <v>316113.2021058492</v>
+        <v>313248.2392366359</v>
       </c>
       <c r="J49">
-        <v>16024943.74819474</v>
+        <v>16038064.8969848</v>
       </c>
       <c r="K49">
-        <v>325760.8420895845</v>
+        <v>325761.3320108459</v>
       </c>
       <c r="L49">
-        <v>468327</v>
+        <v>467108</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>26612.09443990182</v>
+        <v>28697.3087340693</v>
       </c>
       <c r="B50">
-        <v>324829.5208151237</v>
+        <v>343170.2933895682</v>
       </c>
       <c r="C50">
-        <v>351441.6152550255</v>
+        <v>371867.6021236376</v>
       </c>
       <c r="D50">
-        <v>579075.9600113392</v>
+        <v>589739.5931794008</v>
       </c>
       <c r="E50">
-        <v>806739.863271181</v>
+        <v>809080.9886928209</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>579075.9600113392</v>
+        <v>589739.5931794008</v>
       </c>
       <c r="H50">
-        <v>484992.3323832802</v>
+        <v>487452.5055172832</v>
       </c>
       <c r="I50">
-        <v>321747.5308879009</v>
+        <v>321628.4831755377</v>
       </c>
       <c r="J50">
-        <v>16026182.54719236</v>
+        <v>16070347.29207496</v>
       </c>
       <c r="K50">
-        <v>328834.0676408655</v>
+        <v>328834.3492678895</v>
       </c>
       <c r="L50">
-        <v>471696</v>
+        <v>470364</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>29327.15218118213</v>
+        <v>33626.43180272603</v>
       </c>
       <c r="B51">
-        <v>384980.7648580858</v>
+        <v>405835.2031204291</v>
       </c>
       <c r="C51">
-        <v>414307.917039268</v>
+        <v>439461.6349231551</v>
       </c>
       <c r="D51">
-        <v>694473.4290067476</v>
+        <v>702122.1426282763</v>
       </c>
       <c r="E51">
-        <v>979143.4864415316</v>
+        <v>943286.5999274444</v>
       </c>
       <c r="F51">
-        <v>88691.07474150708</v>
+        <v>91443.28176022702</v>
       </c>
       <c r="G51">
-        <v>605782.3542652405</v>
+        <v>610678.8608680492</v>
       </c>
       <c r="H51">
-        <v>586867.8266991044</v>
+        <v>564840.8982462616</v>
       </c>
       <c r="I51">
-        <v>392275.6597424273</v>
+        <v>378445.7016811827</v>
       </c>
       <c r="J51">
-        <v>19300410.55436932</v>
+        <v>19191549.30389414</v>
       </c>
       <c r="K51">
-        <v>392265.2148047555</v>
+        <v>392265.0880501599</v>
       </c>
       <c r="L51">
-        <v>557595</v>
+        <v>557821</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>23549.27509324587</v>
+        <v>22594.6170655043</v>
       </c>
       <c r="B52">
-        <v>290440.8741927192</v>
+        <v>292295.1961026132</v>
       </c>
       <c r="C52">
-        <v>313990.149285965</v>
+        <v>314889.8131681175</v>
       </c>
       <c r="D52">
-        <v>518052.5256774202</v>
+        <v>512983.9480888137</v>
       </c>
       <c r="E52">
-        <v>688487.3209416881</v>
+        <v>688501.3185109564</v>
       </c>
       <c r="F52">
-        <v>65896.67880968157</v>
+        <v>66712.26233166277</v>
       </c>
       <c r="G52">
-        <v>452155.8468677386</v>
+        <v>446271.6857571509</v>
       </c>
       <c r="H52">
-        <v>414641.075034158</v>
+        <v>415265.5138650205</v>
       </c>
       <c r="I52">
-        <v>273846.2459075301</v>
+        <v>273235.8046459358</v>
       </c>
       <c r="J52">
-        <v>13780423.46162128</v>
+        <v>13734143.41324771</v>
       </c>
       <c r="K52">
-        <v>281795.8665776556</v>
+        <v>281796.0401540478</v>
       </c>
       <c r="L52">
-        <v>400385</v>
+        <v>399816</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>24640.62090053528</v>
+        <v>24520.43146336233</v>
       </c>
       <c r="B53">
-        <v>305628.4323264033</v>
+        <v>303985.0822993457</v>
       </c>
       <c r="C53">
-        <v>330269.0532269385</v>
+        <v>328505.5137627081</v>
       </c>
       <c r="D53">
-        <v>551846.4657386034</v>
+        <v>538037.9796820598</v>
       </c>
       <c r="E53">
-        <v>751170.6213023925</v>
+        <v>730362.6886847562</v>
       </c>
       <c r="F53">
-        <v>71617.28674371613</v>
+        <v>67998.49230100693</v>
       </c>
       <c r="G53">
-        <v>480229.1789948873</v>
+        <v>470039.4873810529</v>
       </c>
       <c r="H53">
-        <v>452451.9021659992</v>
+        <v>439487.5096614413</v>
       </c>
       <c r="I53">
-        <v>298718.7191363933</v>
+        <v>290875.1790233148</v>
       </c>
       <c r="J53">
-        <v>15156115.01101201</v>
+        <v>15283861.60608344</v>
       </c>
       <c r="K53">
-        <v>310510.8050377236</v>
+        <v>310511.2208694117</v>
       </c>
       <c r="L53">
-        <v>441854</v>
+        <v>441690</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>48122.43310768773</v>
+        <v>47325.16123345102</v>
       </c>
       <c r="B54">
-        <v>568079.0718607783</v>
+        <v>568200.9445967968</v>
       </c>
       <c r="C54">
-        <v>616201.504968466</v>
+        <v>615526.1058302477</v>
       </c>
       <c r="D54">
-        <v>995221.9868866282</v>
+        <v>1027611.611869206</v>
       </c>
       <c r="E54">
-        <v>1390738.133898454</v>
+        <v>1348974.075782224</v>
       </c>
       <c r="F54">
-        <v>128703.2602695478</v>
+        <v>131664.1066266816</v>
       </c>
       <c r="G54">
-        <v>866518.7266170804</v>
+        <v>895947.5052425241</v>
       </c>
       <c r="H54">
-        <v>836730.9694747376</v>
+        <v>818099.7590022276</v>
       </c>
       <c r="I54">
-        <v>554007.1644237161</v>
+        <v>530874.316779996</v>
       </c>
       <c r="J54">
-        <v>28142307.30639975</v>
+        <v>28013792.71429519</v>
       </c>
       <c r="K54">
-        <v>570649.0374612293</v>
+        <v>570649.2715178831</v>
       </c>
       <c r="L54">
-        <v>812042</v>
+        <v>812680</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>52528.88038996496</v>
+        <v>51547.93595432705</v>
       </c>
       <c r="B55">
-        <v>638726.4760956618</v>
+        <v>636194.854815676</v>
       </c>
       <c r="C55">
-        <v>691255.3564856267</v>
+        <v>687742.7907700031</v>
       </c>
       <c r="D55">
-        <v>1161167.358063393</v>
+        <v>1124239.073209306</v>
       </c>
       <c r="E55">
-        <v>1534893.756853</v>
+        <v>1515571.732383247</v>
       </c>
       <c r="F55">
-        <v>145016.4525812567</v>
+        <v>145758.6442513971</v>
       </c>
       <c r="G55">
-        <v>1016150.905482136</v>
+        <v>978480.4289579088</v>
       </c>
       <c r="H55">
-        <v>927346.5353049533</v>
+        <v>912994.8436591208</v>
       </c>
       <c r="I55">
-        <v>607547.2215480473</v>
+        <v>602576.8887241259</v>
       </c>
       <c r="J55">
-        <v>31405376.79108562</v>
+        <v>31290303.0994438</v>
       </c>
       <c r="K55">
-        <v>638665.7023562873</v>
+        <v>638666.1281895601</v>
       </c>
       <c r="L55">
-        <v>909371</v>
+        <v>906607</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>33957.51866375206</v>
+        <v>34891.30291718465</v>
       </c>
       <c r="B56">
-        <v>411918.1106220748</v>
+        <v>416010.3116608642</v>
       </c>
       <c r="C56">
-        <v>445875.6292858269</v>
+        <v>450901.6145780489</v>
       </c>
       <c r="D56">
-        <v>759178.6817084448</v>
+        <v>739871.4327701745</v>
       </c>
       <c r="E56">
-        <v>996874.6198014505</v>
+        <v>1008501.809393647</v>
       </c>
       <c r="F56">
-        <v>110377.9537497802</v>
+        <v>105341.8610704619</v>
       </c>
       <c r="G56">
-        <v>648800.7279586646</v>
+        <v>634529.5716997125</v>
       </c>
       <c r="H56">
-        <v>603199.1539845723</v>
+        <v>609322.039674217</v>
       </c>
       <c r="I56">
-        <v>393675.4658168783</v>
+        <v>399179.76971943</v>
       </c>
       <c r="J56">
-        <v>20210633.36061033</v>
+        <v>20293977.19041806</v>
       </c>
       <c r="K56">
-        <v>412477.6864685778</v>
+        <v>412477.9987823464</v>
       </c>
       <c r="L56">
-        <v>586576</v>
+        <v>585611</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>49525.36238101256</v>
+        <v>52165.77810991672</v>
       </c>
       <c r="B57">
-        <v>626288.5936335372</v>
+        <v>647572.8321382503</v>
       </c>
       <c r="C57">
-        <v>675813.9560145498</v>
+        <v>699738.6102481671</v>
       </c>
       <c r="D57">
-        <v>1114811.571894354</v>
+        <v>1099177.580148036</v>
       </c>
       <c r="E57">
-        <v>1520576.383130016</v>
+        <v>1519960.727519263</v>
       </c>
       <c r="F57">
-        <v>159967.2371608313</v>
+        <v>158176.3886292635</v>
       </c>
       <c r="G57">
-        <v>954844.3347335232</v>
+        <v>941001.1915187727</v>
       </c>
       <c r="H57">
-        <v>915183.6278646386</v>
+        <v>910916.9528779166</v>
       </c>
       <c r="I57">
-        <v>605392.7552653771</v>
+        <v>609043.7746413461</v>
       </c>
       <c r="J57">
-        <v>30381053.15893194</v>
+        <v>30238849.28222</v>
       </c>
       <c r="K57">
-        <v>619089.9528940509</v>
+        <v>619089.7643933077</v>
       </c>
       <c r="L57">
-        <v>882440</v>
+        <v>878349</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>216236.554408828</v>
+        <v>214560.6901480384</v>
       </c>
       <c r="C58">
-        <v>216236.554408828</v>
+        <v>214560.6901480384</v>
       </c>
       <c r="D58">
-        <v>371398.7027033701</v>
+        <v>353378.7401779437</v>
       </c>
       <c r="E58">
-        <v>498674.8162982721</v>
+        <v>497753.0722272138</v>
       </c>
       <c r="F58">
-        <v>53370.70052224309</v>
+        <v>49234.85217154843</v>
       </c>
       <c r="G58">
-        <v>318028.002181127</v>
+        <v>304143.8880063953</v>
       </c>
       <c r="H58">
-        <v>300224.6985101374</v>
+        <v>298807.5253944777</v>
       </c>
       <c r="I58">
-        <v>198450.1177881348</v>
+        <v>198945.5468327361</v>
       </c>
       <c r="J58">
-        <v>9768318.897473989</v>
+        <v>9761521.203281881</v>
       </c>
       <c r="K58">
-        <v>199388.0753238274</v>
+        <v>199388.2078718236</v>
       </c>
       <c r="L58">
-        <v>285405</v>
+        <v>285580</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>124398.5345370673</v>
+        <v>122541.6675782637</v>
       </c>
       <c r="C59">
-        <v>124398.5345370673</v>
+        <v>122541.6675782637</v>
       </c>
       <c r="D59">
-        <v>205729.3990452983</v>
+        <v>200862.6614073705</v>
       </c>
       <c r="E59">
-        <v>280274.1549828993</v>
+        <v>282727.3792524886</v>
       </c>
       <c r="F59">
-        <v>29972.50528746792</v>
+        <v>28471.1779567904</v>
       </c>
       <c r="G59">
-        <v>175756.8937578304</v>
+        <v>172391.4834505801</v>
       </c>
       <c r="H59">
-        <v>169965.8865903478</v>
+        <v>169323.2673891018</v>
       </c>
       <c r="I59">
-        <v>110308.2683925514</v>
+        <v>113404.1118633868</v>
       </c>
       <c r="J59">
-        <v>5573296.762075863</v>
+        <v>5565580.465857097</v>
       </c>
       <c r="K59">
-        <v>113273.0669844771</v>
+        <v>113273.3274396352</v>
       </c>
       <c r="L59">
-        <v>162359</v>
+        <v>162382</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>187731.6768712929</v>
+        <v>193786.6767267543</v>
       </c>
       <c r="C60">
-        <v>187731.6768712929</v>
+        <v>193786.6767267543</v>
       </c>
       <c r="D60">
-        <v>316337.120994304</v>
+        <v>320181.2213945545</v>
       </c>
       <c r="E60">
-        <v>430584.16849256</v>
+        <v>417998.0758523126</v>
       </c>
       <c r="F60">
-        <v>45031.16308885587</v>
+        <v>46322.52811076216</v>
       </c>
       <c r="G60">
-        <v>271305.957905448</v>
+        <v>273858.6932837923</v>
       </c>
       <c r="H60">
-        <v>259981.8407672312</v>
+        <v>252209.1026060203</v>
       </c>
       <c r="I60">
-        <v>170602.3277253288</v>
+        <v>165788.9732462923</v>
       </c>
       <c r="J60">
-        <v>8621905.292762553</v>
+        <v>8595311.396182291</v>
       </c>
       <c r="K60">
-        <v>175786.2014947428</v>
+        <v>175785.8654964182</v>
       </c>
       <c r="L60">
-        <v>252312</v>
+        <v>251693</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>89394.87759254266</v>
+        <v>93069.2145363897</v>
       </c>
       <c r="C61">
-        <v>89394.87759254266</v>
+        <v>93069.2145363897</v>
       </c>
       <c r="D61">
-        <v>152311.4152402071</v>
+        <v>157494.1252633532</v>
       </c>
       <c r="E61">
-        <v>205941.280694198</v>
+        <v>213777.1657993465</v>
       </c>
       <c r="F61">
-        <v>22121.58873857072</v>
+        <v>22720.47518124653</v>
       </c>
       <c r="G61">
-        <v>130189.8265016364</v>
+        <v>134773.6500821066</v>
       </c>
       <c r="H61">
-        <v>124010.6401316428</v>
+        <v>127076.9116620107</v>
       </c>
       <c r="I61">
-        <v>81930.64056255527</v>
+        <v>86700.25413733581</v>
       </c>
       <c r="J61">
-        <v>4296405.488378807</v>
+        <v>4287282.054515596</v>
       </c>
       <c r="K61">
-        <v>86887.18003019461</v>
+        <v>86887.34783371167</v>
       </c>
       <c r="L61">
-        <v>124829</v>
+        <v>124447</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6761.080198943166</v>
+        <v>6646.868115368478</v>
       </c>
       <c r="C62">
-        <v>6761.080198943166</v>
+        <v>6646.868115368478</v>
       </c>
       <c r="D62">
-        <v>10692.91790099351</v>
+        <v>11081.06621697109</v>
       </c>
       <c r="E62">
-        <v>14963.87653828647</v>
+        <v>14861.19716072017</v>
       </c>
       <c r="F62">
-        <v>1501.42779549733</v>
+        <v>1620.325455402884</v>
       </c>
       <c r="G62">
-        <v>9191.490105496183</v>
+        <v>9460.740761568202</v>
       </c>
       <c r="H62">
-        <v>8936.973742536975</v>
+        <v>8960.503352248163</v>
       </c>
       <c r="I62">
-        <v>6026.902795749495</v>
+        <v>5900.69380847201</v>
       </c>
       <c r="J62">
-        <v>302998.1446029039</v>
+        <v>304404.3976917912</v>
       </c>
       <c r="K62">
-        <v>6203.971072540498</v>
+        <v>6204.053451006506</v>
       </c>
       <c r="L62">
-        <v>8895</v>
+        <v>8896</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2697.309299278601</v>
+        <v>2730.803529643622</v>
       </c>
       <c r="C63">
-        <v>2697.309299278601</v>
+        <v>2730.803529643622</v>
       </c>
       <c r="D63">
-        <v>4496.596167855185</v>
+        <v>4417.660079273555</v>
       </c>
       <c r="E63">
-        <v>6168.046690415449</v>
+        <v>6105.013405283378</v>
       </c>
       <c r="F63">
-        <v>648.0002250686741</v>
+        <v>649.2524671428718</v>
       </c>
       <c r="G63">
-        <v>3848.59594278651</v>
+        <v>3768.407612130683</v>
       </c>
       <c r="H63">
-        <v>3732.917301085449</v>
+        <v>3702.589582563476</v>
       </c>
       <c r="I63">
-        <v>2435.12938933</v>
+        <v>2402.423822719903</v>
       </c>
       <c r="J63">
-        <v>123111.1069761343</v>
+        <v>123807.7618792032</v>
       </c>
       <c r="K63">
-        <v>2505.993406924159</v>
+        <v>2506.101197960989</v>
       </c>
       <c r="L63">
-        <v>3597</v>
+        <v>3594</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4729.03610131853</v>
+        <v>4671.415780445144</v>
       </c>
       <c r="C64">
-        <v>4729.03610131853</v>
+        <v>4671.415780445144</v>
       </c>
       <c r="D64">
-        <v>3373.47804072582</v>
+        <v>3335.068473530795</v>
       </c>
       <c r="E64">
-        <v>158.7685874732586</v>
+        <v>119.8600876786318</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3373.47804072582</v>
+        <v>3335.068473530795</v>
       </c>
       <c r="H64">
-        <v>79.81844075414374</v>
+        <v>61.87354552574548</v>
       </c>
       <c r="I64">
-        <v>78.95014671911488</v>
+        <v>57.98654215288628</v>
       </c>
       <c r="J64">
-        <v>90295.22938560024</v>
+        <v>90490.04191041829</v>
       </c>
       <c r="K64">
-        <v>1879.197940847729</v>
+        <v>1879.079376501274</v>
       </c>
       <c r="L64">
-        <v>2709</v>
+        <v>2718</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>49418.6072750106</v>
+        <v>48827.49289801166</v>
       </c>
       <c r="C65">
-        <v>49418.6072750106</v>
+        <v>48827.49289801166</v>
       </c>
       <c r="D65">
-        <v>35594.64190106258</v>
+        <v>34919.80153974074</v>
       </c>
       <c r="E65">
-        <v>1511.007190849442</v>
+        <v>1253.77781815877</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>35594.64190106258</v>
+        <v>34919.80153974074</v>
       </c>
       <c r="H65">
-        <v>719.4448500571946</v>
+        <v>595.631989777406</v>
       </c>
       <c r="I65">
-        <v>791.5623407922473</v>
+        <v>658.1458283813638</v>
       </c>
       <c r="J65">
-        <v>957457.887028811</v>
+        <v>957469.6754208618</v>
       </c>
       <c r="K65">
-        <v>19681.86569489138</v>
+        <v>19681.67639159461</v>
       </c>
       <c r="L65">
-        <v>28403</v>
+        <v>28498</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>52916.27320818267</v>
+        <v>51952.5391512728</v>
       </c>
       <c r="C66">
-        <v>52916.27320818267</v>
+        <v>51952.5391512728</v>
       </c>
       <c r="D66">
-        <v>37608.1018536605</v>
+        <v>38011.97357775388</v>
       </c>
       <c r="E66">
-        <v>1409.766122736917</v>
+        <v>1153.986763714734</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>37608.1018536605</v>
+        <v>38011.97357775388</v>
       </c>
       <c r="H66">
-        <v>666.1114922691895</v>
+        <v>554.3374425156055</v>
       </c>
       <c r="I66">
-        <v>743.6546304677274</v>
+        <v>599.6493211991286</v>
       </c>
       <c r="J66">
-        <v>1025001.722534324</v>
+        <v>1031775.65109883</v>
       </c>
       <c r="K66">
-        <v>21218.71716203121</v>
+        <v>21218.95329317724</v>
       </c>
       <c r="L66">
-        <v>30602</v>
+        <v>30728</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>89413.06289379142</v>
+        <v>88737.46795848677</v>
       </c>
       <c r="B67">
-        <v>593128.2387272386</v>
+        <v>605426.5533996221</v>
       </c>
       <c r="C67">
-        <v>682541.3016210301</v>
+        <v>694164.0213581088</v>
       </c>
       <c r="D67">
-        <v>509470.7848745628</v>
+        <v>485171.3305177592</v>
       </c>
       <c r="E67">
-        <v>19245.39660755413</v>
+        <v>16570.5180083004</v>
       </c>
       <c r="F67">
-        <v>188369.5924328051</v>
+        <v>178599.5107457328</v>
       </c>
       <c r="G67">
-        <v>321101.1924417578</v>
+        <v>306571.8197720264</v>
       </c>
       <c r="H67">
-        <v>9038.706677881955</v>
+        <v>7611.121132346801</v>
       </c>
       <c r="I67">
-        <v>10206.68992967217</v>
+        <v>8959.3968759536</v>
       </c>
       <c r="J67">
-        <v>13692012.37473541</v>
+        <v>13476349.99308798</v>
       </c>
       <c r="K67">
-        <v>279227.7611205978</v>
+        <v>279228.1670376147</v>
       </c>
       <c r="L67">
-        <v>384916</v>
+        <v>386807</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>94228.24247812417</v>
+        <v>98395.40586420195</v>
       </c>
       <c r="B68">
-        <v>657378.3583159633</v>
+        <v>661773.5131896158</v>
       </c>
       <c r="C68">
-        <v>751606.6007940875</v>
+        <v>760168.9190538177</v>
       </c>
       <c r="D68">
-        <v>547913.9125268632</v>
+        <v>541436.2542311968</v>
       </c>
       <c r="E68">
-        <v>16883.60779982156</v>
+        <v>20934.38782153001</v>
       </c>
       <c r="F68">
-        <v>202304.979911527</v>
+        <v>196841.7909989168</v>
       </c>
       <c r="G68">
-        <v>345608.9326153361</v>
+        <v>344594.46323228</v>
       </c>
       <c r="H68">
-        <v>7738.011292608902</v>
+        <v>10054.60543799386</v>
       </c>
       <c r="I68">
-        <v>9145.596507212655</v>
+        <v>10879.78238353615</v>
       </c>
       <c r="J68">
-        <v>14563248.30355569</v>
+        <v>14487223.32453752</v>
       </c>
       <c r="K68">
-        <v>299791.7156483433</v>
+        <v>299791.9065051209</v>
       </c>
       <c r="L68">
-        <v>413622</v>
+        <v>415531</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>204799.1343633738</v>
+        <v>218023.0734209872</v>
       </c>
       <c r="B69">
-        <v>1426054.847886227</v>
+        <v>1485109.8025215</v>
       </c>
       <c r="C69">
-        <v>1630853.982249601</v>
+        <v>1703132.875942488</v>
       </c>
       <c r="D69">
-        <v>1199489.345221443</v>
+        <v>1191568.783280786</v>
       </c>
       <c r="E69">
-        <v>46893.34318723676</v>
+        <v>40762.32040537315</v>
       </c>
       <c r="F69">
-        <v>442685.822771835</v>
+        <v>443433.646989574</v>
       </c>
       <c r="G69">
-        <v>756803.5224496083</v>
+        <v>748135.1362912121</v>
       </c>
       <c r="H69">
-        <v>22314.33241002015</v>
+        <v>19640.13360898589</v>
       </c>
       <c r="I69">
-        <v>24579.01077721661</v>
+        <v>21122.18679638725</v>
       </c>
       <c r="J69">
-        <v>32100820.82648221</v>
+        <v>32290904.10078267</v>
       </c>
       <c r="K69">
-        <v>665262.2842574688</v>
+        <v>665261.7226522746</v>
       </c>
       <c r="L69">
-        <v>918456</v>
+        <v>920027</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>184247.9046074994</v>
+        <v>181008.0011486825</v>
       </c>
       <c r="B70">
-        <v>1237071.285100104</v>
+        <v>1240653.354347659</v>
       </c>
       <c r="C70">
-        <v>1421319.189707604</v>
+        <v>1421661.355496342</v>
       </c>
       <c r="D70">
-        <v>1054216.403518396</v>
+        <v>1054728.235728632</v>
       </c>
       <c r="E70">
-        <v>42668.61257185138</v>
+        <v>36741.4236389501</v>
       </c>
       <c r="F70">
-        <v>185972.6341895328</v>
+        <v>184791.3457076431</v>
       </c>
       <c r="G70">
-        <v>868243.7693288629</v>
+        <v>869936.890020989</v>
       </c>
       <c r="H70">
-        <v>21324.98012720095</v>
+        <v>17923.27102539032</v>
       </c>
       <c r="I70">
-        <v>21343.63244465043</v>
+        <v>18818.15261355977</v>
       </c>
       <c r="J70">
-        <v>28110161.074998</v>
+        <v>27785363.91815083</v>
       </c>
       <c r="K70">
-        <v>572384.8807352865</v>
+        <v>572384.6723914024</v>
       </c>
       <c r="L70">
-        <v>791006</v>
+        <v>797111</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>261581.2437764823</v>
+        <v>269395.1820160602</v>
       </c>
       <c r="B71">
-        <v>1813158.186849618</v>
+        <v>1836046.620900343</v>
       </c>
       <c r="C71">
-        <v>2074739.4306261</v>
+        <v>2105441.802916403</v>
       </c>
       <c r="D71">
-        <v>1408624.020268152</v>
+        <v>1529796.508380055</v>
       </c>
       <c r="E71">
-        <v>49220.68740874732</v>
+        <v>54619.72477008437</v>
       </c>
       <c r="F71">
-        <v>258779.6044405217</v>
+        <v>272174.0955054877</v>
       </c>
       <c r="G71">
-        <v>1149844.41582763</v>
+        <v>1257622.412874567</v>
       </c>
       <c r="H71">
-        <v>23600.07096525071</v>
+        <v>26126.1057227107</v>
       </c>
       <c r="I71">
-        <v>25620.61644349661</v>
+        <v>28493.61904737367</v>
       </c>
       <c r="J71">
-        <v>40292741.53541122</v>
+        <v>40608981.52981041</v>
       </c>
       <c r="K71">
-        <v>833640.7700870117</v>
+        <v>833641.1380590337</v>
       </c>
       <c r="L71">
-        <v>1151868</v>
+        <v>1157000</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>215807.0333564186</v>
+        <v>216209.973235106</v>
       </c>
       <c r="B72">
-        <v>1486518.264175925</v>
+        <v>1485023.859644875</v>
       </c>
       <c r="C72">
-        <v>1702325.297532343</v>
+        <v>1701233.832879981</v>
       </c>
       <c r="D72">
-        <v>1204700.811852141</v>
+        <v>1211200.625238103</v>
       </c>
       <c r="E72">
-        <v>39299.80374277315</v>
+        <v>48142.43697011809</v>
       </c>
       <c r="F72">
-        <v>216944.4184270017</v>
+        <v>220444.1260659054</v>
       </c>
       <c r="G72">
-        <v>987756.393425139</v>
+        <v>990756.4991721979</v>
       </c>
       <c r="H72">
-        <v>18555.5466911188</v>
+        <v>23307.44530300498</v>
       </c>
       <c r="I72">
-        <v>20744.25705165435</v>
+        <v>24834.99166711311</v>
       </c>
       <c r="J72">
-        <v>33160983.0494343</v>
+        <v>33162829.70944293</v>
       </c>
       <c r="K72">
-        <v>679392.9977188649</v>
+        <v>679393.114728198</v>
       </c>
       <c r="L72">
-        <v>939431</v>
+        <v>944554</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>123762.5163447953</v>
+        <v>124265.4398497032</v>
       </c>
       <c r="B73">
-        <v>852956.1248209522</v>
+        <v>863254.9175705049</v>
       </c>
       <c r="C73">
-        <v>976718.6411657475</v>
+        <v>987520.357420208</v>
       </c>
       <c r="D73">
-        <v>704602.306007675</v>
+        <v>672281.1820058984</v>
       </c>
       <c r="E73">
-        <v>22891.38688616391</v>
+        <v>23167.66083921057</v>
       </c>
       <c r="F73">
-        <v>125814.2900836567</v>
+        <v>123973.1130610592</v>
       </c>
       <c r="G73">
-        <v>578788.0159240182</v>
+        <v>548308.0689448392</v>
       </c>
       <c r="H73">
-        <v>11315.000461626</v>
+        <v>10426.72175614349</v>
       </c>
       <c r="I73">
-        <v>11576.38642453791</v>
+        <v>12740.93908306708</v>
       </c>
       <c r="J73">
-        <v>18948264.72165077</v>
+        <v>18867165.11763959</v>
       </c>
       <c r="K73">
-        <v>389253.1879233462</v>
+        <v>389253.2998827411</v>
       </c>
       <c r="L73">
-        <v>538645</v>
+        <v>542288</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>174371.0491523742</v>
+        <v>171835.9481264849</v>
       </c>
       <c r="B74">
-        <v>1181483.531926882</v>
+        <v>1183377.415164302</v>
       </c>
       <c r="C74">
-        <v>1355854.581079256</v>
+        <v>1355213.363290787</v>
       </c>
       <c r="D74">
-        <v>984947.1691647894</v>
+        <v>967022.8619041021</v>
       </c>
       <c r="E74">
-        <v>41898.93208023232</v>
+        <v>34631.13553944635</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>984947.1691647894</v>
+        <v>967022.8619041021</v>
       </c>
       <c r="H74">
-        <v>20215.77518599271</v>
+        <v>16807.9571654762</v>
       </c>
       <c r="I74">
-        <v>21683.15689423961</v>
+        <v>17823.17837397015</v>
       </c>
       <c r="J74">
-        <v>26407628.51252493</v>
+        <v>26259341.20235883</v>
       </c>
       <c r="K74">
-        <v>542234.6754446838</v>
+        <v>542235.0129320795</v>
       </c>
       <c r="L74">
-        <v>757148</v>
+        <v>761928</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>547320.6585115248</v>
+        <v>539549.2925190753</v>
       </c>
       <c r="C75">
-        <v>547320.6585115248</v>
+        <v>539549.2925190753</v>
       </c>
       <c r="D75">
-        <v>384429.6091619768</v>
+        <v>388322.0980424305</v>
       </c>
       <c r="E75">
-        <v>12742.63924846608</v>
+        <v>12768.10115500403</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>384429.6091619768</v>
+        <v>388322.0980424305</v>
       </c>
       <c r="H75">
-        <v>5910.501797540347</v>
+        <v>6060.553811733062</v>
       </c>
       <c r="I75">
-        <v>6832.137450925731</v>
+        <v>6707.547343270968</v>
       </c>
       <c r="J75">
-        <v>10585799.80468539</v>
+        <v>10580145.72739164</v>
       </c>
       <c r="K75">
-        <v>216447.1614779489</v>
+        <v>216446.9482799051</v>
       </c>
       <c r="L75">
-        <v>312534</v>
+        <v>313482</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>436860.9969668957</v>
+        <v>443768.8070068177</v>
       </c>
       <c r="C76">
-        <v>436860.9969668957</v>
+        <v>443768.8070068177</v>
       </c>
       <c r="D76">
-        <v>318079.6575956096</v>
+        <v>324121.0247242755</v>
       </c>
       <c r="E76">
-        <v>13656.40660418136</v>
+        <v>11513.82642251198</v>
       </c>
       <c r="F76">
-        <v>115607.8641818646</v>
+        <v>117916.1486682382</v>
       </c>
       <c r="G76">
-        <v>202471.793413745</v>
+        <v>206204.8760560373</v>
       </c>
       <c r="H76">
-        <v>6408.859665916346</v>
+        <v>5546.357829860436</v>
       </c>
       <c r="I76">
-        <v>7247.546938265019</v>
+        <v>5967.468592651549</v>
       </c>
       <c r="J76">
-        <v>8603718.578240195</v>
+        <v>8564323.096617786</v>
       </c>
       <c r="K76">
-        <v>176526.3242338565</v>
+        <v>176525.7509591447</v>
       </c>
       <c r="L76">
-        <v>251185</v>
+        <v>251814</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>235709.5304558468</v>
+        <v>236044.331307675</v>
       </c>
       <c r="C77">
-        <v>235709.5304558468</v>
+        <v>236044.331307675</v>
       </c>
       <c r="D77">
-        <v>175449.9396070089</v>
+        <v>168552.5694050529</v>
       </c>
       <c r="E77">
-        <v>6119.34387309713</v>
+        <v>5669.068971091647</v>
       </c>
       <c r="F77">
-        <v>64903.00171223602</v>
+        <v>62831.55035780288</v>
       </c>
       <c r="G77">
-        <v>110546.9378947729</v>
+        <v>105721.01904725</v>
       </c>
       <c r="H77">
-        <v>3065.800172794553</v>
+        <v>2571.399442004458</v>
       </c>
       <c r="I77">
-        <v>3053.543700302577</v>
+        <v>3097.669529087188</v>
       </c>
       <c r="J77">
-        <v>4609451.196038884</v>
+        <v>4615820.750190455</v>
       </c>
       <c r="K77">
-        <v>94798.20512075636</v>
+        <v>94797.74093439979</v>
       </c>
       <c r="L77">
-        <v>134707</v>
+        <v>135207</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>421470.1312638526</v>
+        <v>418330.5240318834</v>
       </c>
       <c r="C78">
-        <v>421470.1312638526</v>
+        <v>418330.5240318834</v>
       </c>
       <c r="D78">
-        <v>304179.6637559236</v>
+        <v>308128.4586857843</v>
       </c>
       <c r="E78">
-        <v>11194.13247031979</v>
+        <v>9959.827338222594</v>
       </c>
       <c r="F78">
-        <v>120797.2787110527</v>
+        <v>120238.6266755951</v>
       </c>
       <c r="G78">
-        <v>183382.3850448709</v>
+        <v>187889.8320101892</v>
       </c>
       <c r="H78">
-        <v>5462.057565750432</v>
+        <v>4793.660188161727</v>
       </c>
       <c r="I78">
-        <v>5732.074904569357</v>
+        <v>5166.167150060867</v>
       </c>
       <c r="J78">
-        <v>8283053.018248038</v>
+        <v>8217592.358747995</v>
       </c>
       <c r="K78">
-        <v>168934.7702133039</v>
+        <v>168934.8242551939</v>
       </c>
       <c r="L78">
-        <v>239910</v>
+        <v>240780</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>43202.25610184854</v>
+        <v>44232.502543049</v>
       </c>
       <c r="C79">
-        <v>43202.25610184854</v>
+        <v>44232.502543049</v>
       </c>
       <c r="D79">
-        <v>30974.38160857784</v>
+        <v>30579.81654265981</v>
       </c>
       <c r="E79">
-        <v>1134.900031364174</v>
+        <v>1191.66334736652</v>
       </c>
       <c r="F79">
-        <v>12195.94631234249</v>
+        <v>11886.30511032488</v>
       </c>
       <c r="G79">
-        <v>18778.43529623535</v>
+        <v>18693.51143233493</v>
       </c>
       <c r="H79">
-        <v>546.9876960664924</v>
+        <v>595.8807296193232</v>
       </c>
       <c r="I79">
-        <v>587.9123352976814</v>
+        <v>595.7826177471965</v>
       </c>
       <c r="J79">
-        <v>845635.1832406678</v>
+        <v>838254.3027972702</v>
       </c>
       <c r="K79">
-        <v>17369.12935793362</v>
+        <v>17369.06879927072</v>
       </c>
       <c r="L79">
-        <v>24669</v>
+        <v>24769</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6480.070896903037</v>
+        <v>6663.237222722548</v>
       </c>
       <c r="C80">
-        <v>6480.070896903037</v>
+        <v>6663.237222722548</v>
       </c>
       <c r="D80">
-        <v>4579.095654917309</v>
+        <v>4563.611922936873</v>
       </c>
       <c r="E80">
-        <v>168.6013774426481</v>
+        <v>142.2344064458056</v>
       </c>
       <c r="F80">
-        <v>1786.306248533124</v>
+        <v>1777.31199119022</v>
       </c>
       <c r="G80">
-        <v>2792.789406384185</v>
+        <v>2786.299931746653</v>
       </c>
       <c r="H80">
-        <v>78.45277767542812</v>
+        <v>70.49904964077497</v>
       </c>
       <c r="I80">
-        <v>90.14859976722001</v>
+        <v>71.73535680503063</v>
       </c>
       <c r="J80">
-        <v>127205.5827431847</v>
+        <v>128102.5304667642</v>
       </c>
       <c r="K80">
-        <v>2630.823480543942</v>
+        <v>2631.289395930108</v>
       </c>
       <c r="L80">
-        <v>3738</v>
+        <v>3749</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13819.92035726688</v>
+        <v>13930.71918825035</v>
       </c>
       <c r="C81">
-        <v>13819.92035726688</v>
+        <v>13930.71918825035</v>
       </c>
       <c r="D81">
-        <v>9978.783038955566</v>
+        <v>10234.49953208452</v>
       </c>
       <c r="E81">
-        <v>275.5093908760254</v>
+        <v>418.799215063397</v>
       </c>
       <c r="F81">
-        <v>3901.680676620419</v>
+        <v>3959.525632886919</v>
       </c>
       <c r="G81">
-        <v>6077.102362335147</v>
+        <v>6274.973899197596</v>
       </c>
       <c r="H81">
-        <v>126.0013066010835</v>
+        <v>208.0058275968474</v>
       </c>
       <c r="I81">
-        <v>149.5080842749419</v>
+        <v>210.7933874665496</v>
       </c>
       <c r="J81">
-        <v>274065.3248967201</v>
+        <v>276179.1565624555</v>
       </c>
       <c r="K81">
-        <v>5643.758410998523</v>
+        <v>5644.248408079516</v>
       </c>
       <c r="L81">
-        <v>8029</v>
+        <v>8044.000000000001</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>950.0512490892571</v>
+        <v>997.0640387056285</v>
       </c>
       <c r="B82">
-        <v>3931.745608906925</v>
+        <v>3979.9654425787</v>
       </c>
       <c r="C82">
-        <v>4881.796857996182</v>
+        <v>4977.029481284329</v>
       </c>
       <c r="D82">
-        <v>12645.990573544</v>
+        <v>12360.81103536867</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12645.990573544</v>
+        <v>12360.81103536867</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>307449.9054077055</v>
+        <v>308274.6169690666</v>
       </c>
       <c r="K82">
-        <v>5951.252738247045</v>
+        <v>5950.825949900352</v>
       </c>
       <c r="L82">
-        <v>8488</v>
+        <v>8505</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1561.701159229718</v>
+        <v>1612.165252897065</v>
       </c>
       <c r="B83">
-        <v>6499.057553734013</v>
+        <v>6410.639370074081</v>
       </c>
       <c r="C83">
-        <v>8060.758712963731</v>
+        <v>8022.804622971146</v>
       </c>
       <c r="D83">
-        <v>20611.12491954027</v>
+        <v>20728.71399183659</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20611.12491954027</v>
+        <v>20728.71399183659</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>514333.7670620834</v>
+        <v>516437.4498660247</v>
       </c>
       <c r="K83">
-        <v>9946.795793618829</v>
+        <v>9947.011136354171</v>
       </c>
       <c r="L83">
-        <v>14180</v>
+        <v>14223</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9556.559440910081</v>
+        <v>10048.95471626366</v>
       </c>
       <c r="B84">
-        <v>39879.72445504197</v>
+        <v>39636.25101773529</v>
       </c>
       <c r="C84">
-        <v>49436.28389595205</v>
+        <v>49685.20573399896</v>
       </c>
       <c r="D84">
-        <v>128038.1182367089</v>
+        <v>125968.7938708328</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>34865.58732643261</v>
+        <v>33606.97293081944</v>
       </c>
       <c r="G84">
-        <v>93172.5309102763</v>
+        <v>92361.82094001336</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3141540.697458023</v>
+        <v>3153783.504143724</v>
       </c>
       <c r="K84">
-        <v>60895.88759113938</v>
+        <v>60895.65891856133</v>
       </c>
       <c r="L84">
-        <v>85430</v>
+        <v>85850</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6328.921859971727</v>
+        <v>6152.283917148213</v>
       </c>
       <c r="B85">
-        <v>25024.71151618973</v>
+        <v>24318.00893724598</v>
       </c>
       <c r="C85">
-        <v>31353.63337616146</v>
+        <v>30470.29285439419</v>
       </c>
       <c r="D85">
-        <v>78407.1000956098</v>
+        <v>78724.0609429297</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21179.38982891065</v>
+        <v>21224.67190120593</v>
       </c>
       <c r="G85">
-        <v>57227.71026669916</v>
+        <v>57499.38904172378</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1969670.486441997</v>
+        <v>1968419.449086398</v>
       </c>
       <c r="K85">
-        <v>38033.69870572176</v>
+        <v>38034.11350636646</v>
       </c>
       <c r="L85">
-        <v>53311</v>
+        <v>53662</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>17756.37777970848</v>
+        <v>17563.84287616421</v>
       </c>
       <c r="B86">
-        <v>71827.40621283888</v>
+        <v>71033.59325961552</v>
       </c>
       <c r="C86">
-        <v>89583.78399254735</v>
+        <v>88597.43613577973</v>
       </c>
       <c r="D86">
-        <v>237308.2194581379</v>
+        <v>236089.5537447345</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>63381.79583926546</v>
+        <v>63952.55351923038</v>
       </c>
       <c r="G86">
-        <v>173926.4236188725</v>
+        <v>172137.0002255041</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5797406.689199492</v>
+        <v>5783568.136643119</v>
       </c>
       <c r="K86">
-        <v>111846.8321743611</v>
+        <v>111847.2502974514</v>
       </c>
       <c r="L86">
-        <v>156845</v>
+        <v>157755</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>11002.61848556554</v>
+        <v>10840.62937432333</v>
       </c>
       <c r="B87">
-        <v>43642.1226839536</v>
+        <v>42496.47069581172</v>
       </c>
       <c r="C87">
-        <v>54644.74116951914</v>
+        <v>53337.10007013504</v>
       </c>
       <c r="D87">
-        <v>139415.0671404444</v>
+        <v>142539.0574115845</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>37765.5120413176</v>
+        <v>38382.00163982628</v>
       </c>
       <c r="G87">
-        <v>101649.5550991268</v>
+        <v>104157.0557717582</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>3478032.395741787</v>
+        <v>3461378.829217261</v>
       </c>
       <c r="K87">
-        <v>66953.07177815028</v>
+        <v>66953.01212018967</v>
       </c>
       <c r="L87">
-        <v>93965</v>
+        <v>94303</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>13832.79566105225</v>
+        <v>13934.91861639043</v>
       </c>
       <c r="B88">
-        <v>57306.95969060932</v>
+        <v>55855.0559081724</v>
       </c>
       <c r="C88">
-        <v>71139.75535166157</v>
+        <v>69789.97452456283</v>
       </c>
       <c r="D88">
-        <v>184528.4732629965</v>
+        <v>184284.8289058909</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>49847.16725016259</v>
+        <v>50380.32299308514</v>
       </c>
       <c r="G88">
-        <v>134681.3060128339</v>
+        <v>133904.5059128057</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>4501687.10736779</v>
+        <v>4505527.218466849</v>
       </c>
       <c r="K88">
-        <v>87332.09762065498</v>
+        <v>87332.03819727674</v>
       </c>
       <c r="L88">
-        <v>122567</v>
+        <v>123156</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10839.84941836258</v>
+        <v>10639.13920166253</v>
       </c>
       <c r="B89">
-        <v>42845.40915742764</v>
+        <v>43331.15810880925</v>
       </c>
       <c r="C89">
-        <v>53685.25857579022</v>
+        <v>53970.29731047178</v>
       </c>
       <c r="D89">
-        <v>139111.0493972256</v>
+        <v>136976.5159805083</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>37746.39081973246</v>
+        <v>37259.64164950925</v>
       </c>
       <c r="G89">
-        <v>101364.6585774932</v>
+        <v>99716.87433099901</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3424243.439541142</v>
+        <v>3421008.456344935</v>
       </c>
       <c r="K89">
-        <v>66111.21206789992</v>
+        <v>66110.7167266437</v>
       </c>
       <c r="L89">
-        <v>92688</v>
+        <v>93236</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7301.381110944588</v>
+        <v>7715.159822805572</v>
       </c>
       <c r="B90">
-        <v>30941.36047541643</v>
+        <v>31323.54064386533</v>
       </c>
       <c r="C90">
-        <v>38242.74158636101</v>
+        <v>39038.7004666709</v>
       </c>
       <c r="D90">
-        <v>102679.8524341214</v>
+        <v>99618.85929054888</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>27544.7666648315</v>
+        <v>26754.77779707384</v>
       </c>
       <c r="G90">
-        <v>75135.0857692899</v>
+        <v>72864.08149347504</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2501793.792923777</v>
+        <v>2500237.322279691</v>
       </c>
       <c r="K90">
-        <v>48243.80114180448</v>
+        <v>48243.72376348657</v>
       </c>
       <c r="L90">
-        <v>67816</v>
+        <v>68103</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8083.056497885941</v>
+        <v>8503.231993137746</v>
       </c>
       <c r="B91">
-        <v>33148.23629625906</v>
+        <v>33224.46549784862</v>
       </c>
       <c r="C91">
-        <v>41231.292794145</v>
+        <v>41727.69749098637</v>
       </c>
       <c r="D91">
-        <v>110336.1299661375</v>
+        <v>108799.8712996102</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29742.51706561154</v>
+        <v>29371.24239984605</v>
       </c>
       <c r="G91">
-        <v>80593.61290052596</v>
+        <v>79428.62889976409</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>2713298.026112522</v>
+        <v>2717484.100056187</v>
       </c>
       <c r="K91">
-        <v>52389.09601316196</v>
+        <v>52388.98467618841</v>
       </c>
       <c r="L91">
-        <v>73609</v>
+        <v>73994</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6070.302681606843</v>
+        <v>6276.192161825465</v>
       </c>
       <c r="B92">
-        <v>25253.76896060277</v>
+        <v>25118.74120982335</v>
       </c>
       <c r="C92">
-        <v>31324.07164220961</v>
+        <v>31394.93337164881</v>
       </c>
       <c r="D92">
-        <v>81775.28538238929</v>
+        <v>85563.03279836749</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22033.85726403819</v>
+        <v>22520.35946852577</v>
       </c>
       <c r="G92">
-        <v>59741.42811835112</v>
+        <v>63042.67332984171</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2034361.666431843</v>
+        <v>2041613.949410617</v>
       </c>
       <c r="K92">
-        <v>39255.67934895905</v>
+        <v>39255.76899973908</v>
       </c>
       <c r="L92">
-        <v>55172</v>
+        <v>55411</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3882.59041008204</v>
+        <v>3855.263304757563</v>
       </c>
       <c r="B93">
-        <v>15518.35332089529</v>
+        <v>15036.12389394487</v>
       </c>
       <c r="C93">
-        <v>19400.94373097733</v>
+        <v>18891.38719870243</v>
       </c>
       <c r="D93">
-        <v>47878.00354349981</v>
+        <v>47739.59296875941</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>47878.00354349981</v>
+        <v>47739.59296875941</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1213699.41037497</v>
+        <v>1215457.279316025</v>
       </c>
       <c r="K93">
-        <v>23461.0074678527</v>
+        <v>23460.739867812</v>
       </c>
       <c r="L93">
-        <v>33396</v>
+        <v>33521</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1641.722542929966</v>
+        <v>1654.726522475828</v>
       </c>
       <c r="B94">
-        <v>6655.373317491268</v>
+        <v>6541.570706792931</v>
       </c>
       <c r="C94">
-        <v>8297.095860421234</v>
+        <v>8196.297229268759</v>
       </c>
       <c r="D94">
-        <v>20524.26753036275</v>
+        <v>21057.22246258898</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5369.38254830246</v>
+        <v>5620.822983946892</v>
       </c>
       <c r="G94">
-        <v>15154.88498206029</v>
+        <v>15436.39947864209</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>524481.4037567875</v>
+        <v>524281.2404862201</v>
       </c>
       <c r="K94">
-        <v>10092.22393679996</v>
+        <v>10092.26332333454</v>
       </c>
       <c r="L94">
-        <v>14139</v>
+        <v>14258</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1398.809067127619</v>
+        <v>1427.589536704585</v>
       </c>
       <c r="B95">
-        <v>5613.763318352636</v>
+        <v>5749.854720710274</v>
       </c>
       <c r="C95">
-        <v>7012.572385480255</v>
+        <v>7177.44425741486</v>
       </c>
       <c r="D95">
-        <v>18338.14438246314</v>
+        <v>18771.67367497917</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4910.50013009725</v>
+        <v>5043.375822083769</v>
       </c>
       <c r="G95">
-        <v>13427.64425236588</v>
+        <v>13728.2978528954</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>454309.3306673212</v>
+        <v>452054.9013174365</v>
       </c>
       <c r="K95">
-        <v>8745.028231647751</v>
+        <v>8744.813728581603</v>
       </c>
       <c r="L95">
-        <v>12269</v>
+        <v>12334</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1577.731922821811</v>
+        <v>1633.267893919951</v>
       </c>
       <c r="B96">
-        <v>6351.395613943138</v>
+        <v>6555.690800836077</v>
       </c>
       <c r="C96">
-        <v>7929.127536764949</v>
+        <v>8188.958694756028</v>
       </c>
       <c r="D96">
-        <v>21272.10415698069</v>
+        <v>21300.6587806341</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5693.251081940031</v>
+        <v>5730.06438155823</v>
       </c>
       <c r="G96">
-        <v>15578.85307504066</v>
+        <v>15570.59439907587</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>524675.8430369148</v>
+        <v>525455.1635966668</v>
       </c>
       <c r="K96">
-        <v>10107.09688758209</v>
+        <v>10106.6654780994</v>
       </c>
       <c r="L96">
-        <v>14176</v>
+        <v>14288</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1053.036706826589</v>
+        <v>982.0133017518538</v>
       </c>
       <c r="B97">
-        <v>4192.839270750402</v>
+        <v>3948.528668241924</v>
       </c>
       <c r="C97">
-        <v>5245.875977576991</v>
+        <v>4930.541969993778</v>
       </c>
       <c r="D97">
-        <v>12349.31322804981</v>
+        <v>12947.81229984265</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3387.384101328606</v>
+        <v>3516.113701972683</v>
       </c>
       <c r="G97">
-        <v>8961.929126721205</v>
+        <v>9431.698597869965</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>321003.23926194</v>
+        <v>320619.3786943671</v>
       </c>
       <c r="K97">
-        <v>6199.118859013903</v>
+        <v>6199.124862361771</v>
       </c>
       <c r="L97">
-        <v>8693</v>
+        <v>8725</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>525.4013523067662</v>
+        <v>523.4183391661346</v>
       </c>
       <c r="B98">
-        <v>3911.745448568223</v>
+        <v>3775.277800851833</v>
       </c>
       <c r="C98">
-        <v>4437.146800874989</v>
+        <v>4298.696140017968</v>
       </c>
       <c r="D98">
-        <v>28636.25241269877</v>
+        <v>29128.88397735337</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>28636.25241269877</v>
+        <v>29128.88397735337</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>270983.3800919228</v>
+        <v>272415.5481343904</v>
       </c>
       <c r="K98">
-        <v>6606.718652923709</v>
+        <v>6606.702657710567</v>
       </c>
       <c r="L98">
-        <v>9248</v>
+        <v>9267</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>727.8493811043705</v>
+        <v>737.4861366339458</v>
       </c>
       <c r="B99">
-        <v>5455.869740849965</v>
+        <v>5476.112296745043</v>
       </c>
       <c r="C99">
-        <v>6183.719121954336</v>
+        <v>6213.598433378989</v>
       </c>
       <c r="D99">
-        <v>41327.23091976858</v>
+        <v>42063.30911264166</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>41327.23091976858</v>
+        <v>42063.30911264166</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>387169.9180777007</v>
+        <v>383082.4914263896</v>
       </c>
       <c r="K99">
-        <v>9384.665817412908</v>
+        <v>9385.124126483825</v>
       </c>
       <c r="L99">
-        <v>13127</v>
+        <v>13163</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5435.767216109305</v>
+        <v>5607.701853335805</v>
       </c>
       <c r="B100">
-        <v>38782.15491655587</v>
+        <v>39382.26585719595</v>
       </c>
       <c r="C100">
-        <v>44217.92213266518</v>
+        <v>44989.96771053176</v>
       </c>
       <c r="D100">
-        <v>304297.8016928549</v>
+        <v>303943.587664454</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>304297.8016928549</v>
+        <v>303943.587664454</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2834298.395850409</v>
+        <v>2827537.535427673</v>
       </c>
       <c r="K100">
-        <v>68686.73826507092</v>
+        <v>68687.07212992056</v>
       </c>
       <c r="L100">
-        <v>95877</v>
+        <v>96449</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>154.320513325998</v>
+        <v>153.6764333868173</v>
       </c>
       <c r="B101">
-        <v>1138.64535378532</v>
+        <v>1159.240543608276</v>
       </c>
       <c r="C101">
-        <v>1292.965867111318</v>
+        <v>1312.916976995094</v>
       </c>
       <c r="D101">
-        <v>8995.117026294098</v>
+        <v>9010.011485541851</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8995.117026294098</v>
+        <v>9010.011485541851</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>83337.68159461101</v>
+        <v>83201.887345857</v>
       </c>
       <c r="K101">
-        <v>2023.745299448844</v>
+        <v>2023.823884549792</v>
       </c>
       <c r="L101">
-        <v>2834</v>
+        <v>2844</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1918.905625639698</v>
+        <v>2029.351035535146</v>
       </c>
       <c r="B102">
-        <v>14268.72142022189</v>
+        <v>14464.3664680672</v>
       </c>
       <c r="C102">
-        <v>16187.62704586159</v>
+        <v>16493.71750360234</v>
       </c>
       <c r="D102">
-        <v>107644.2190480708</v>
+        <v>108368.1783854134</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6530.464485183295</v>
+        <v>6735.107805457095</v>
       </c>
       <c r="G102">
-        <v>101113.7545628875</v>
+        <v>101633.0705799563</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1009923.552952148</v>
+        <v>1014734.669283177</v>
       </c>
       <c r="K102">
-        <v>24734.2977154051</v>
+        <v>24734.3411964227</v>
       </c>
       <c r="L102">
-        <v>34283</v>
+        <v>34348</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1453.516229115081</v>
+        <v>1424.067141421838</v>
       </c>
       <c r="B103">
-        <v>10690.87150838059</v>
+        <v>10816.3891219148</v>
       </c>
       <c r="C103">
-        <v>12144.38773749567</v>
+        <v>12240.45626333664</v>
       </c>
       <c r="D103">
-        <v>81419.30274626715</v>
+        <v>81557.53906295504</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5051.982704874701</v>
+        <v>5212.35000774211</v>
       </c>
       <c r="G103">
-        <v>76367.32004139244</v>
+        <v>76345.18905521292</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>756866.1362412365</v>
+        <v>759641.8851047127</v>
       </c>
       <c r="K103">
-        <v>18475.1816449964</v>
+        <v>18475.01445119366</v>
       </c>
       <c r="L103">
-        <v>25594</v>
+        <v>25659</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4786.183974708823</v>
+        <v>4582.557395288955</v>
       </c>
       <c r="B104">
-        <v>35069.23236525258</v>
+        <v>32753.92851991768</v>
       </c>
       <c r="C104">
-        <v>39855.4163399614</v>
+        <v>37336.48591520664</v>
       </c>
       <c r="D104">
-        <v>253018.0480891637</v>
+        <v>255008.0528507167</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15671.24228778594</v>
+        <v>15738.71614961744</v>
       </c>
       <c r="G104">
-        <v>237346.8058013777</v>
+        <v>239269.3367010992</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2416471.448576606</v>
+        <v>2398617.785377881</v>
       </c>
       <c r="K104">
-        <v>58536.36008392053</v>
+        <v>58535.7923776851</v>
       </c>
       <c r="L104">
-        <v>81139</v>
+        <v>81335</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>7892.090180630368</v>
+        <v>7754.501132904158</v>
       </c>
       <c r="B105">
-        <v>58435.27636976783</v>
+        <v>57822.63604281656</v>
       </c>
       <c r="C105">
-        <v>66327.3665503982</v>
+        <v>65577.13717572072</v>
       </c>
       <c r="D105">
-        <v>452185.887926564</v>
+        <v>468470.9001191685</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>27839.90725335772</v>
+        <v>28838.61005287009</v>
       </c>
       <c r="G105">
-        <v>424345.9806732063</v>
+        <v>439632.2900662984</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4229664.777187836</v>
+        <v>4233711.025850885</v>
       </c>
       <c r="K105">
-        <v>102959.8014634736</v>
+        <v>102959.8398590714</v>
       </c>
       <c r="L105">
-        <v>142796</v>
+        <v>143169</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6659.453273849535</v>
+        <v>6433.013171737885</v>
       </c>
       <c r="B106">
-        <v>49407.20926004993</v>
+        <v>49175.79230393027</v>
       </c>
       <c r="C106">
-        <v>56066.66253389946</v>
+        <v>55608.80547566815</v>
       </c>
       <c r="D106">
-        <v>365076.7745036859</v>
+        <v>377522.9989910951</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>22350.37882835051</v>
+        <v>23693.66594423352</v>
       </c>
       <c r="G106">
-        <v>342726.3956753354</v>
+        <v>353829.3330468616</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3523639.150704917</v>
+        <v>3501832.147561451</v>
       </c>
       <c r="K106">
-        <v>85834.24612850277</v>
+        <v>85834.18947329307</v>
       </c>
       <c r="L106">
-        <v>118949</v>
+        <v>119070</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7105.03165052553</v>
+        <v>7378.599759048853</v>
       </c>
       <c r="B107">
-        <v>50937.62331442939</v>
+        <v>52491.64728992174</v>
       </c>
       <c r="C107">
-        <v>58042.65496495493</v>
+        <v>59870.24704897059</v>
       </c>
       <c r="D107">
-        <v>388256.4307320559</v>
+        <v>402511.0591134228</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24270.58662861643</v>
+        <v>24972.15295258728</v>
       </c>
       <c r="G107">
-        <v>363985.8441034394</v>
+        <v>377538.9061608356</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3694694.045710581</v>
+        <v>3679125.398211588</v>
       </c>
       <c r="K107">
-        <v>89900.23658356494</v>
+        <v>89899.86083423161</v>
       </c>
       <c r="L107">
-        <v>124657</v>
+        <v>124844</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3364.043468240684</v>
+        <v>3422.522822808957</v>
       </c>
       <c r="B108">
-        <v>25545.72600921262</v>
+        <v>24587.12429056628</v>
       </c>
       <c r="C108">
-        <v>28909.7694774533</v>
+        <v>28009.64711337524</v>
       </c>
       <c r="D108">
-        <v>185737.145588776</v>
+        <v>187005.5730920122</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11491.82391836473</v>
+        <v>11597.91501528748</v>
       </c>
       <c r="G108">
-        <v>174245.3216704112</v>
+        <v>175407.6580767247</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1745660.436030793</v>
+        <v>1751496.794217846</v>
       </c>
       <c r="K108">
-        <v>42603.94470745759</v>
+        <v>42603.99371454677</v>
       </c>
       <c r="L108">
-        <v>59131</v>
+        <v>59253</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5132.257990073545</v>
+        <v>5073.561026996931</v>
       </c>
       <c r="B109">
-        <v>37906.57288719968</v>
+        <v>37418.53163382488</v>
       </c>
       <c r="C109">
-        <v>43038.83087727322</v>
+        <v>42492.09266082181</v>
       </c>
       <c r="D109">
-        <v>286897.1494850894</v>
+        <v>287364.3142387196</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17827.36032270069</v>
+        <v>17792.79289321523</v>
       </c>
       <c r="G109">
-        <v>269069.7891623887</v>
+        <v>269571.5213455043</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2733679.385782745</v>
+        <v>2716885.396671493</v>
       </c>
       <c r="K109">
-        <v>66364.79447759365</v>
+        <v>66364.99684291017</v>
       </c>
       <c r="L109">
-        <v>91992</v>
+        <v>92209</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5034.006203595704</v>
+        <v>4900.592124287777</v>
       </c>
       <c r="B110">
-        <v>36935.08633171573</v>
+        <v>35891.86147321173</v>
       </c>
       <c r="C110">
-        <v>41969.09253531143</v>
+        <v>40792.45359749951</v>
       </c>
       <c r="D110">
-        <v>284708.6382748826</v>
+        <v>278415.6974721944</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17951.76314661344</v>
+        <v>17379.21489184551</v>
       </c>
       <c r="G110">
-        <v>266756.8751282692</v>
+        <v>261036.4825803489</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2616359.048361461</v>
+        <v>2629167.973850402</v>
       </c>
       <c r="K110">
-        <v>63795.8226794989</v>
+        <v>63795.64428953979</v>
       </c>
       <c r="L110">
-        <v>88419</v>
+        <v>88724</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17111.2263694728</v>
+        <v>17169.94251534248</v>
       </c>
       <c r="B111">
-        <v>123437.5956778767</v>
+        <v>123169.5151446058</v>
       </c>
       <c r="C111">
-        <v>140548.8220473495</v>
+        <v>140339.4576599483</v>
       </c>
       <c r="D111">
-        <v>937850.3134792021</v>
+        <v>964109.8908347079</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>59012.6235209422</v>
+        <v>59186.80301050449</v>
       </c>
       <c r="G111">
-        <v>878837.6899582599</v>
+        <v>904923.0878242034</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>8809606.703715023</v>
+        <v>8765490.719822451</v>
       </c>
       <c r="K111">
-        <v>214312.8116805451</v>
+        <v>214312.9627631677</v>
       </c>
       <c r="L111">
-        <v>296873</v>
+        <v>297635</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>559.0126602894338</v>
+        <v>574.0402899561144</v>
       </c>
       <c r="B112">
-        <v>4104.543897393429</v>
+        <v>4068.363515351105</v>
       </c>
       <c r="C112">
-        <v>4663.556557682862</v>
+        <v>4642.403805307219</v>
       </c>
       <c r="D112">
-        <v>31109.23065331706</v>
+        <v>29999.16217525409</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1961.215489816117</v>
+        <v>1882.655062546845</v>
       </c>
       <c r="G112">
-        <v>29148.01516350094</v>
+        <v>28116.50711270724</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>288353.9595330551</v>
+        <v>288298.8677897802</v>
       </c>
       <c r="K112">
-        <v>7005.918677005716</v>
+        <v>7006.103653574409</v>
       </c>
       <c r="L112">
-        <v>9716</v>
+        <v>9744</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>132.8628186923778</v>
+        <v>133.7270517598745</v>
       </c>
       <c r="B113">
-        <v>975.2211998192453</v>
+        <v>1038.941691951829</v>
       </c>
       <c r="C113">
-        <v>1108.084018511623</v>
+        <v>1172.668743711703</v>
       </c>
       <c r="D113">
-        <v>7442.45713397464</v>
+        <v>7527.410992975241</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>465.3654675848799</v>
+        <v>465.1084528623805</v>
       </c>
       <c r="G113">
-        <v>6977.09166638976</v>
+        <v>7062.302540112861</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>70318.19994057545</v>
+        <v>70725.94004139365</v>
       </c>
       <c r="K113">
-        <v>1718.972013097806</v>
+        <v>1718.896504966527</v>
       </c>
       <c r="L113">
-        <v>2383</v>
+        <v>2389</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1137.889764421058</v>
+        <v>1252.019827630273</v>
       </c>
       <c r="B114">
-        <v>8488.444998117733</v>
+        <v>8693.775410730828</v>
       </c>
       <c r="C114">
-        <v>9626.334762538791</v>
+        <v>9945.795238361101</v>
       </c>
       <c r="D114">
-        <v>66352.0241927703</v>
+        <v>65813.58671667383</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4147.752736098274</v>
+        <v>4171.913691121967</v>
       </c>
       <c r="G114">
-        <v>62204.27145667203</v>
+        <v>61641.67302555187</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>613181.5102535995</v>
+        <v>616012.9526291429</v>
       </c>
       <c r="K114">
-        <v>15018.81091438644</v>
+        <v>15018.97635928077</v>
       </c>
       <c r="L114">
-        <v>20832</v>
+        <v>20872</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>106.6226084462135</v>
+        <v>103.0395080578334</v>
       </c>
       <c r="B115">
-        <v>792.8220439051966</v>
+        <v>789.4773956214146</v>
       </c>
       <c r="C115">
-        <v>899.4446523514101</v>
+        <v>892.516903679248</v>
       </c>
       <c r="D115">
-        <v>6080.500026014634</v>
+        <v>5958.791225381972</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>392.7634557927861</v>
+        <v>367.6827611367497</v>
       </c>
       <c r="G115">
-        <v>5687.736570221849</v>
+        <v>5591.108464245222</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>56799.22609458337</v>
+        <v>56763.44980895468</v>
       </c>
       <c r="K115">
-        <v>1382.682399112851</v>
+        <v>1382.85648749021</v>
       </c>
       <c r="L115">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1520.836742473766</v>
+        <v>1490.383910051298</v>
       </c>
       <c r="B116">
-        <v>8794.356067997865</v>
+        <v>8832.830102428079</v>
       </c>
       <c r="C116">
-        <v>10315.19281047163</v>
+        <v>10323.21401247938</v>
       </c>
       <c r="D116">
-        <v>21452.98669795987</v>
+        <v>22108.56888230118</v>
       </c>
       <c r="E116">
-        <v>1169.68563977473</v>
+        <v>1040.883292578745</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>21452.98669795987</v>
+        <v>22108.56888230118</v>
       </c>
       <c r="H116">
-        <v>922.2923129790424</v>
+        <v>834.905261079231</v>
       </c>
       <c r="I116">
-        <v>247.3933267956872</v>
+        <v>205.9780314995142</v>
       </c>
       <c r="J116">
-        <v>417624.5056547109</v>
+        <v>418899.0628073565</v>
       </c>
       <c r="K116">
-        <v>10098.28851174212</v>
+        <v>10098.25959738105</v>
       </c>
       <c r="L116">
-        <v>14134</v>
+        <v>14099</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>927.916822461578</v>
+        <v>892.5392159277361</v>
       </c>
       <c r="B117">
-        <v>5339.264905128853</v>
+        <v>5119.262502556619</v>
       </c>
       <c r="C117">
-        <v>6267.18172759043</v>
+        <v>6011.801718484355</v>
       </c>
       <c r="D117">
-        <v>13111.43996161511</v>
+        <v>12853.68781623442</v>
       </c>
       <c r="E117">
-        <v>620.0125361388826</v>
+        <v>600.8211802477449</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>13111.43996161511</v>
+        <v>12853.68781623442</v>
       </c>
       <c r="H117">
-        <v>486.4739520456783</v>
+        <v>482.4728312928796</v>
       </c>
       <c r="I117">
-        <v>133.5385840932042</v>
+        <v>118.3483489548653</v>
       </c>
       <c r="J117">
-        <v>255263.6983863337</v>
+        <v>254367.3306268866</v>
       </c>
       <c r="K117">
-        <v>6148.202382248911</v>
+        <v>6147.661405745498</v>
       </c>
       <c r="L117">
-        <v>8614</v>
+        <v>8582</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2232.430311077733</v>
+        <v>2278.601205754597</v>
       </c>
       <c r="B118">
-        <v>12762.69018510385</v>
+        <v>13274.52890821168</v>
       </c>
       <c r="C118">
-        <v>14995.12049618158</v>
+        <v>15553.13011396627</v>
       </c>
       <c r="D118">
-        <v>32063.22277007656</v>
+        <v>31833.6560046503</v>
       </c>
       <c r="E118">
-        <v>1508.414469131902</v>
+        <v>1504.488824037891</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>32063.22277007656</v>
+        <v>31833.6560046503</v>
       </c>
       <c r="H118">
-        <v>1209.247541571424</v>
+        <v>1209.592211337952</v>
       </c>
       <c r="I118">
-        <v>299.1669275604772</v>
+        <v>294.8966126999396</v>
       </c>
       <c r="J118">
-        <v>624009.6996798575</v>
+        <v>623070.591721604</v>
       </c>
       <c r="K118">
-        <v>15020.70696543545</v>
+        <v>15021.12696119921</v>
       </c>
       <c r="L118">
-        <v>21007</v>
+        <v>20956</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>7768.418777879931</v>
+        <v>8197.254709787798</v>
       </c>
       <c r="B119">
-        <v>46020.31765700534</v>
+        <v>46853.75652842213</v>
       </c>
       <c r="C119">
-        <v>53788.73643488527</v>
+        <v>55051.01123820993</v>
       </c>
       <c r="D119">
-        <v>119842.1396475328</v>
+        <v>118377.6888707347</v>
       </c>
       <c r="E119">
-        <v>6077.93559851597</v>
+        <v>5512.909994399259</v>
       </c>
       <c r="F119">
-        <v>17097.80623417517</v>
+        <v>17395.79281848226</v>
       </c>
       <c r="G119">
-        <v>102744.3334133576</v>
+        <v>100981.8960522525</v>
       </c>
       <c r="H119">
-        <v>4763.79769066742</v>
+        <v>4315.716335063351</v>
       </c>
       <c r="I119">
-        <v>1314.13790784855</v>
+        <v>1197.193659335908</v>
       </c>
       <c r="J119">
-        <v>2280495.528171476</v>
+        <v>2279091.851277994</v>
       </c>
       <c r="K119">
-        <v>54873.74063645455</v>
+        <v>54874.30678502745</v>
       </c>
       <c r="L119">
-        <v>76204</v>
+        <v>75876</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12642.67436992385</v>
+        <v>12629.75341099713</v>
       </c>
       <c r="B120">
-        <v>72284.72901336731</v>
+        <v>71794.35986625557</v>
       </c>
       <c r="C120">
-        <v>84927.40338329117</v>
+        <v>84424.11327725271</v>
       </c>
       <c r="D120">
-        <v>183723.3046313235</v>
+        <v>184345.6127235641</v>
       </c>
       <c r="E120">
-        <v>9429.746116438162</v>
+        <v>8885.622555698494</v>
       </c>
       <c r="F120">
-        <v>26572.41092682891</v>
+        <v>26743.85184605558</v>
       </c>
       <c r="G120">
-        <v>157150.8937044946</v>
+        <v>157601.7608775085</v>
       </c>
       <c r="H120">
-        <v>7433.843581892443</v>
+        <v>7065.211280794701</v>
       </c>
       <c r="I120">
-        <v>1995.90253454572</v>
+        <v>1820.411274903791</v>
       </c>
       <c r="J120">
-        <v>3468876.343484012</v>
+        <v>3497086.747071838</v>
       </c>
       <c r="K120">
-        <v>84457.80057630414</v>
+        <v>84457.68337230511</v>
       </c>
       <c r="L120">
-        <v>117276</v>
+        <v>116563</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7198.314072657375</v>
+        <v>7148.913528810609</v>
       </c>
       <c r="B121">
-        <v>42522.44888237718</v>
+        <v>42401.59535125782</v>
       </c>
       <c r="C121">
-        <v>49720.76295503455</v>
+        <v>49550.50888006842</v>
       </c>
       <c r="D121">
-        <v>108632.0805170506</v>
+        <v>106807.677126986</v>
       </c>
       <c r="E121">
-        <v>5238.142802367908</v>
+        <v>5501.773577138487</v>
       </c>
       <c r="F121">
-        <v>15651.2063723279</v>
+        <v>15723.56810046095</v>
       </c>
       <c r="G121">
-        <v>92980.87414472268</v>
+        <v>91084.10902652505</v>
       </c>
       <c r="H121">
-        <v>4208.111335122437</v>
+        <v>4420.614972524531</v>
       </c>
       <c r="I121">
-        <v>1030.031467245472</v>
+        <v>1081.158604613956</v>
       </c>
       <c r="J121">
-        <v>2086163.77173976</v>
+        <v>2073532.098229919</v>
       </c>
       <c r="K121">
-        <v>50092.9673288889</v>
+        <v>50092.69182694589</v>
       </c>
       <c r="L121">
-        <v>69587</v>
+        <v>69218</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>19251.00775796976</v>
+        <v>18979.58513245614</v>
       </c>
       <c r="B122">
-        <v>112868.8050147986</v>
+        <v>112406.5709867184</v>
       </c>
       <c r="C122">
-        <v>132119.8127727683</v>
+        <v>131386.1561191746</v>
       </c>
       <c r="D122">
-        <v>280077.6767262383</v>
+        <v>283845.509066815</v>
       </c>
       <c r="E122">
-        <v>14453.19603549224</v>
+        <v>13333.51741910968</v>
       </c>
       <c r="F122">
-        <v>40383.29550320087</v>
+        <v>41443.00854314458</v>
       </c>
       <c r="G122">
-        <v>239694.3812230375</v>
+        <v>242402.5005236704</v>
       </c>
       <c r="H122">
-        <v>11395.79010148454</v>
+        <v>10562.3720920647</v>
       </c>
       <c r="I122">
-        <v>3057.405934007701</v>
+        <v>2771.14532704498</v>
       </c>
       <c r="J122">
-        <v>5434445.332054345</v>
+        <v>5426274.475903288</v>
       </c>
       <c r="K122">
-        <v>131015.7305705747</v>
+        <v>131015.7129111455</v>
       </c>
       <c r="L122">
-        <v>181830</v>
+        <v>180961</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>34913.29650068205</v>
+        <v>35864.6450087201</v>
       </c>
       <c r="B123">
-        <v>206521.4115942536</v>
+        <v>211507.8815673239</v>
       </c>
       <c r="C123">
-        <v>241434.7080949356</v>
+        <v>247372.526576044</v>
       </c>
       <c r="D123">
-        <v>503331.3363285552</v>
+        <v>505108.7285714725</v>
       </c>
       <c r="E123">
-        <v>24711.91799062223</v>
+        <v>25597.45391810329</v>
       </c>
       <c r="F123">
-        <v>73439.09773856007</v>
+        <v>75266.48657470488</v>
       </c>
       <c r="G123">
-        <v>429892.2385899952</v>
+        <v>429842.2419967676</v>
       </c>
       <c r="H123">
-        <v>19298.10584836181</v>
+        <v>20365.9276930487</v>
       </c>
       <c r="I123">
-        <v>5413.812142260419</v>
+        <v>5231.526225054585</v>
       </c>
       <c r="J123">
-        <v>9855567.237442035</v>
+        <v>9900917.780677248</v>
       </c>
       <c r="K123">
-        <v>238431.3285185135</v>
+        <v>238431.0743157396</v>
       </c>
       <c r="L123">
-        <v>330818</v>
+        <v>329949</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>23899.79778485393</v>
+        <v>24590.57358725257</v>
       </c>
       <c r="B124">
-        <v>141110.4117531094</v>
+        <v>141131.4513254851</v>
       </c>
       <c r="C124">
-        <v>165010.2095379634</v>
+        <v>165722.0249127377</v>
       </c>
       <c r="D124">
-        <v>370015.1402180183</v>
+        <v>367535.5689283852</v>
       </c>
       <c r="E124">
-        <v>17804.84210752359</v>
+        <v>17578.4688552623</v>
       </c>
       <c r="F124">
-        <v>55287.82255326268</v>
+        <v>53191.65412413998</v>
       </c>
       <c r="G124">
-        <v>314727.3176647556</v>
+        <v>314343.9148042452</v>
       </c>
       <c r="H124">
-        <v>14099.33056089707</v>
+        <v>13929.26664026617</v>
       </c>
       <c r="I124">
-        <v>3705.51154662652</v>
+        <v>3649.20221499613</v>
       </c>
       <c r="J124">
-        <v>6955356.331231493</v>
+        <v>6919306.74160163</v>
       </c>
       <c r="K124">
-        <v>167395.6462910073</v>
+        <v>167396.326161283</v>
       </c>
       <c r="L124">
-        <v>232867</v>
+        <v>231679</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13455.78358084344</v>
+        <v>13878.49959831482</v>
       </c>
       <c r="B125">
-        <v>78691.25908784241</v>
+        <v>80319.35608896175</v>
       </c>
       <c r="C125">
-        <v>92147.04266868584</v>
+        <v>94197.85568727658</v>
       </c>
       <c r="D125">
-        <v>197087.591847312</v>
+        <v>207472.6013693667</v>
       </c>
       <c r="E125">
-        <v>9996.965565283695</v>
+        <v>10431.11612560255</v>
       </c>
       <c r="F125">
-        <v>28801.26315934676</v>
+        <v>30150.86778837625</v>
       </c>
       <c r="G125">
-        <v>168286.3286879653</v>
+        <v>177321.7335809905</v>
       </c>
       <c r="H125">
-        <v>7804.539228837957</v>
+        <v>8336.176553026587</v>
       </c>
       <c r="I125">
-        <v>2192.426336445739</v>
+        <v>2094.939572575964</v>
       </c>
       <c r="J125">
-        <v>3871171.393997597</v>
+        <v>3867912.270054105</v>
       </c>
       <c r="K125">
-        <v>93371.67780668772</v>
+        <v>93371.78897587257</v>
       </c>
       <c r="L125">
-        <v>129650</v>
+        <v>128984</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10929.76652955773</v>
+        <v>9909.620727972524</v>
       </c>
       <c r="B126">
-        <v>63676.19205442756</v>
+        <v>60548.95801286586</v>
       </c>
       <c r="C126">
-        <v>74605.9585839853</v>
+        <v>70458.57874083839</v>
       </c>
       <c r="D126">
-        <v>149341.3320353696</v>
+        <v>157729.5269908747</v>
       </c>
       <c r="E126">
-        <v>6630.480911842302</v>
+        <v>7908.749998857378</v>
       </c>
       <c r="F126">
-        <v>21378.77817172965</v>
+        <v>23254.1328452013</v>
       </c>
       <c r="G126">
-        <v>127962.5538636399</v>
+        <v>134475.3941456734</v>
       </c>
       <c r="H126">
-        <v>5144.761184615104</v>
+        <v>6181.202849526077</v>
       </c>
       <c r="I126">
-        <v>1485.719727227197</v>
+        <v>1727.547149331302</v>
       </c>
       <c r="J126">
-        <v>3039186.467501589</v>
+        <v>3044312.350637105</v>
       </c>
       <c r="K126">
-        <v>73289.7235425863</v>
+        <v>73290.17377603403</v>
       </c>
       <c r="L126">
-        <v>101768</v>
+        <v>101427</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18764.70871321371</v>
+        <v>18308.23530274416</v>
       </c>
       <c r="B127">
-        <v>113411.2374346469</v>
+        <v>108973.2026006435</v>
       </c>
       <c r="C127">
-        <v>132175.9461478606</v>
+        <v>127281.4379033877</v>
       </c>
       <c r="D127">
-        <v>273071.4580313052</v>
+        <v>286559.8095769128</v>
       </c>
       <c r="E127">
-        <v>14009.8553478215</v>
+        <v>12971.37733580098</v>
       </c>
       <c r="F127">
-        <v>39592.81185324603</v>
+        <v>41360.69543415483</v>
       </c>
       <c r="G127">
-        <v>233478.6461780591</v>
+        <v>245199.114142758</v>
       </c>
       <c r="H127">
-        <v>10987.75419901415</v>
+        <v>10340.6119386122</v>
       </c>
       <c r="I127">
-        <v>3022.101148807344</v>
+        <v>2630.765397188776</v>
       </c>
       <c r="J127">
-        <v>5305139.910679051</v>
+        <v>5335343.054109654</v>
       </c>
       <c r="K127">
-        <v>128689.9206579325</v>
+        <v>128690.1471158011</v>
       </c>
       <c r="L127">
-        <v>178546</v>
+        <v>178089</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>36151.0183333595</v>
+        <v>35959.28320065879</v>
       </c>
       <c r="B128">
-        <v>211171.1615711001</v>
+        <v>212021.2020751066</v>
       </c>
       <c r="C128">
-        <v>247322.1799044596</v>
+        <v>247980.4852757654</v>
       </c>
       <c r="D128">
-        <v>532524.7384599026</v>
+        <v>530328.3555106933</v>
       </c>
       <c r="E128">
-        <v>26717.56724574432</v>
+        <v>27181.34074925292</v>
       </c>
       <c r="F128">
-        <v>76450.20694042453</v>
+        <v>78243.2399552179</v>
       </c>
       <c r="G128">
-        <v>456074.5315194781</v>
+        <v>452085.1155554753</v>
       </c>
       <c r="H128">
-        <v>21130.47877986197</v>
+        <v>21184.57889270336</v>
       </c>
       <c r="I128">
-        <v>5587.08846588235</v>
+        <v>5996.761856549564</v>
       </c>
       <c r="J128">
-        <v>10321364.37682945</v>
+        <v>10323379.36172804</v>
       </c>
       <c r="K128">
-        <v>248822.319459805</v>
+        <v>248822.2116987174</v>
       </c>
       <c r="L128">
-        <v>345704</v>
+        <v>344680</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14516.31896421295</v>
+        <v>14326.51789537673</v>
       </c>
       <c r="B129">
-        <v>83202.75386304955</v>
+        <v>81849.25537875843</v>
       </c>
       <c r="C129">
-        <v>97719.07282726251</v>
+        <v>96175.77327413516</v>
       </c>
       <c r="D129">
-        <v>209134.6676892581</v>
+        <v>209773.2670916868</v>
       </c>
       <c r="E129">
-        <v>10121.4792549448</v>
+        <v>10125.02468581977</v>
       </c>
       <c r="F129">
-        <v>30189.15535268609</v>
+        <v>30757.06734144758</v>
       </c>
       <c r="G129">
-        <v>178945.5123365721</v>
+        <v>179016.1997502392</v>
       </c>
       <c r="H129">
-        <v>7936.289631583733</v>
+        <v>7904.362948145859</v>
       </c>
       <c r="I129">
-        <v>2185.189623361071</v>
+        <v>2220.661737673907</v>
       </c>
       <c r="J129">
-        <v>4073616.957542124</v>
+        <v>4057777.062842615</v>
       </c>
       <c r="K129">
-        <v>98282.77058694419</v>
+        <v>98283.15259259478</v>
       </c>
       <c r="L129">
-        <v>136450</v>
+        <v>135911</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>17975.14854422295</v>
+        <v>18818.42372624077</v>
       </c>
       <c r="B130">
-        <v>108319.2415889621</v>
+        <v>112181.3847353911</v>
       </c>
       <c r="C130">
-        <v>126294.3901331851</v>
+        <v>130999.8084616319</v>
       </c>
       <c r="D130">
-        <v>277006.4334656743</v>
+        <v>274111.6929900763</v>
       </c>
       <c r="E130">
-        <v>12905.36874332233</v>
+        <v>13180.68150995042</v>
       </c>
       <c r="F130">
-        <v>40616.06115083487</v>
+        <v>40498.10128656423</v>
       </c>
       <c r="G130">
-        <v>236390.3723148395</v>
+        <v>233613.5917035121</v>
       </c>
       <c r="H130">
-        <v>10321.08379894738</v>
+        <v>10393.20223599895</v>
       </c>
       <c r="I130">
-        <v>2584.284944374953</v>
+        <v>2787.47927395147</v>
       </c>
       <c r="J130">
-        <v>5250373.29368177</v>
+        <v>5310017.244162344</v>
       </c>
       <c r="K130">
-        <v>127199.0725102532</v>
+        <v>127199.0687335141</v>
       </c>
       <c r="L130">
-        <v>176648</v>
+        <v>176234</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>126.7984085949987</v>
+        <v>127.7681096403639</v>
       </c>
       <c r="B131">
-        <v>761.6934864823796</v>
+        <v>741.4163705957612</v>
       </c>
       <c r="C131">
-        <v>888.4918950773782</v>
+        <v>869.1844802361251</v>
       </c>
       <c r="D131">
-        <v>2026.841295547515</v>
+        <v>1895.704930224489</v>
       </c>
       <c r="E131">
-        <v>97.42042579466302</v>
+        <v>99.83744444189188</v>
       </c>
       <c r="F131">
-        <v>293.0148980750128</v>
+        <v>280.1126487555424</v>
       </c>
       <c r="G131">
-        <v>1733.826397472502</v>
+        <v>1615.592281468946</v>
       </c>
       <c r="H131">
-        <v>78.73427666055892</v>
+        <v>78.74833426171018</v>
       </c>
       <c r="I131">
-        <v>18.6861491341041</v>
+        <v>21.08911018018168</v>
       </c>
       <c r="J131">
-        <v>36758.52175837784</v>
+        <v>36516.90801022768</v>
       </c>
       <c r="K131">
-        <v>881.0381675642199</v>
+        <v>881.0819059139184</v>
       </c>
       <c r="L131">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>707.2322395044678</v>
+        <v>689.1640998616207</v>
       </c>
       <c r="B132">
-        <v>4034.928862939546</v>
+        <v>4096.149470582756</v>
       </c>
       <c r="C132">
-        <v>4742.161102444014</v>
+        <v>4785.313570444377</v>
       </c>
       <c r="D132">
-        <v>9979.216066319623</v>
+        <v>9880.588731989274</v>
       </c>
       <c r="E132">
-        <v>517.1783235978887</v>
+        <v>483.5195785281644</v>
       </c>
       <c r="F132">
-        <v>1444.794069427762</v>
+        <v>1443.906583786764</v>
       </c>
       <c r="G132">
-        <v>8534.421996891861</v>
+        <v>8436.68214820251</v>
       </c>
       <c r="H132">
-        <v>411.8437094025477</v>
+        <v>382.4378149598859</v>
       </c>
       <c r="I132">
-        <v>105.334614195341</v>
+        <v>101.0817635682785</v>
       </c>
       <c r="J132">
-        <v>191793.2563124133</v>
+        <v>192710.9565460636</v>
       </c>
       <c r="K132">
-        <v>4648.019670997816</v>
+        <v>4647.874753380212</v>
       </c>
       <c r="L132">
-        <v>6442</v>
+        <v>6428</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>38.33611696429941</v>
+        <v>38.64703224707647</v>
       </c>
       <c r="C133">
-        <v>38.33611696429941</v>
+        <v>38.64703224707647</v>
       </c>
       <c r="D133">
-        <v>6153.917935262708</v>
+        <v>6098.000944988986</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6153.917935262708</v>
+        <v>6098.000944988986</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>121401.695501024</v>
+        <v>120582.8169166631</v>
       </c>
       <c r="K133">
-        <v>1858.049021861357</v>
+        <v>1857.762128999348</v>
       </c>
       <c r="L133">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>144.5921571076767</v>
+        <v>124.5506160546406</v>
       </c>
       <c r="C134">
-        <v>144.5921571076767</v>
+        <v>124.5506160546406</v>
       </c>
       <c r="D134">
-        <v>20778.72670575079</v>
+        <v>20911.04397366846</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20778.72670575079</v>
+        <v>20911.04397366846</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>403915.5983183638</v>
+        <v>412742.1666736761</v>
       </c>
       <c r="K134">
-        <v>6268.082914475465</v>
+        <v>6267.81907907083</v>
       </c>
       <c r="L134">
-        <v>9438</v>
+        <v>9513</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>15.76665784648722</v>
+        <v>15.40096576258902</v>
       </c>
       <c r="C135">
-        <v>15.76665784648722</v>
+        <v>15.40096576258902</v>
       </c>
       <c r="D135">
-        <v>2600.817356710288</v>
+        <v>2523.421713533324</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>83.89410867896891</v>
+        <v>80.7714562620275</v>
       </c>
       <c r="G135">
-        <v>2516.923248031319</v>
+        <v>2442.650257271297</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>49650.09101679202</v>
+        <v>49484.44275348371</v>
       </c>
       <c r="K135">
-        <v>763.8903147638189</v>
+        <v>763.9433546749534</v>
       </c>
       <c r="L135">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>158.2855363838306</v>
+        <v>148.1440367543654</v>
       </c>
       <c r="C136">
-        <v>158.2855363838306</v>
+        <v>148.1440367543654</v>
       </c>
       <c r="D136">
-        <v>23368.17787345799</v>
+        <v>23378.62503695059</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>773.9583936302048</v>
+        <v>779.6714656561726</v>
       </c>
       <c r="G136">
-        <v>22594.21947982779</v>
+        <v>22598.95357129442</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>455305.1190350949</v>
+        <v>453627.0683375356</v>
       </c>
       <c r="K136">
-        <v>6971.942808095073</v>
+        <v>6971.879394186719</v>
       </c>
       <c r="L136">
-        <v>10455</v>
+        <v>10496</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>317.9563745498886</v>
+        <v>301.1454470755665</v>
       </c>
       <c r="C137">
-        <v>317.9563745498886</v>
+        <v>301.1454470755665</v>
       </c>
       <c r="D137">
-        <v>53012.58065872737</v>
+        <v>53564.30016255842</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53012.58065872737</v>
+        <v>53564.30016255842</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1023712.150535242</v>
+        <v>1025317.367758081</v>
       </c>
       <c r="K137">
-        <v>15930.31451239544</v>
+        <v>15929.71910735656</v>
       </c>
       <c r="L137">
-        <v>24000</v>
+        <v>24087</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>121.5168050684743</v>
+        <v>133.0078304914796</v>
       </c>
       <c r="C138">
-        <v>121.5168050684743</v>
+        <v>133.0078304914796</v>
       </c>
       <c r="D138">
-        <v>19174.78990993443</v>
+        <v>19051.05508360944</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19174.78990993443</v>
+        <v>19051.05508360944</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>375406.7241556701</v>
+        <v>374190.2863231414</v>
       </c>
       <c r="K138">
-        <v>5753.12968256552</v>
+        <v>5753.082005769351</v>
       </c>
       <c r="L138">
-        <v>8678</v>
+        <v>8707</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>868.830069388285</v>
+        <v>828.036851837706</v>
       </c>
       <c r="C139">
-        <v>868.830069388285</v>
+        <v>828.036851837706</v>
       </c>
       <c r="D139">
-        <v>128506.6143285686</v>
+        <v>129784.8241086376</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>128506.6143285686</v>
+        <v>129784.8241086376</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>2496883.117013477</v>
+        <v>2503202.282874459</v>
       </c>
       <c r="K139">
-        <v>38561.21863574885</v>
+        <v>38560.92078169965</v>
       </c>
       <c r="L139">
-        <v>58120</v>
+        <v>58300</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>409.7666713705403</v>
+        <v>465.3690502252584</v>
       </c>
       <c r="C140">
-        <v>409.7666713705403</v>
+        <v>465.3690502252584</v>
       </c>
       <c r="D140">
-        <v>69946.53057244822</v>
+        <v>69123.33109870965</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>69946.53057244822</v>
+        <v>69123.33109870965</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1351641.168158697</v>
+        <v>1346089.820228258</v>
       </c>
       <c r="K140">
-        <v>20708.89821427339</v>
+        <v>20708.84874707122</v>
       </c>
       <c r="L140">
-        <v>31265</v>
+        <v>31363</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>218.8994007374932</v>
+        <v>241.4236663929982</v>
       </c>
       <c r="C141">
-        <v>218.8994007374932</v>
+        <v>241.4236663929982</v>
       </c>
       <c r="D141">
-        <v>36576.97516817625</v>
+        <v>36203.19478099115</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36576.97516817625</v>
+        <v>36203.19478099115</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>705138.1529329629</v>
+        <v>713309.3941021039</v>
       </c>
       <c r="K141">
-        <v>10927.30357774387</v>
+        <v>10926.75601269908</v>
       </c>
       <c r="L141">
-        <v>16466</v>
+        <v>16526</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1098.377746877038</v>
+        <v>1284.96561548001</v>
       </c>
       <c r="C142">
-        <v>1098.377746877038</v>
+        <v>1284.96561548001</v>
       </c>
       <c r="D142">
-        <v>194289.7595301044</v>
+        <v>191463.3477591612</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6443.976917045771</v>
+        <v>6457.761933915442</v>
       </c>
       <c r="G142">
-        <v>187845.7826130587</v>
+        <v>185005.5858252458</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>3775984.645250942</v>
+        <v>3746843.885890601</v>
       </c>
       <c r="K142">
-        <v>58072.31330143709</v>
+        <v>58071.72424388339</v>
       </c>
       <c r="L142">
-        <v>87031</v>
+        <v>87292</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>491.3061929663838</v>
+        <v>476.2613167653709</v>
       </c>
       <c r="C143">
-        <v>491.3061929663838</v>
+        <v>476.2613167653709</v>
       </c>
       <c r="D143">
-        <v>74480.89063188412</v>
+        <v>75311.85292175907</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2432.163653897148</v>
+        <v>2514.41330385324</v>
       </c>
       <c r="G143">
-        <v>72048.72697798697</v>
+        <v>72797.43961790582</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1452522.242602199</v>
+        <v>1456726.095381046</v>
       </c>
       <c r="K143">
-        <v>22312.24504388738</v>
+        <v>22311.93844488332</v>
       </c>
       <c r="L143">
-        <v>33486</v>
+        <v>33589</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>616.676771268852</v>
+        <v>512.7532342131318</v>
       </c>
       <c r="C144">
-        <v>616.676771268852</v>
+        <v>512.7532342131318</v>
       </c>
       <c r="D144">
-        <v>85406.3786383415</v>
+        <v>85785.40415978841</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2733.816738196295</v>
+        <v>2845.165976632682</v>
       </c>
       <c r="G144">
-        <v>82672.56190014521</v>
+        <v>82940.23818315573</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1666365.79797351</v>
+        <v>1667213.032452339</v>
       </c>
       <c r="K144">
-        <v>25591.02540306265</v>
+        <v>25591.24269753058</v>
       </c>
       <c r="L144">
-        <v>38450</v>
+        <v>38547</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1096.146430315054</v>
+        <v>1018.555675976575</v>
       </c>
       <c r="C145">
-        <v>1096.146430315054</v>
+        <v>1018.555675976575</v>
       </c>
       <c r="D145">
-        <v>174093.8884403976</v>
+        <v>172706.7988080833</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5704.611771265025</v>
+        <v>5643.771909423709</v>
       </c>
       <c r="G145">
-        <v>168389.2766691325</v>
+        <v>167063.0268986596</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>3368856.628931224</v>
+        <v>3402362.491464121</v>
       </c>
       <c r="K145">
-        <v>52068.88356656627</v>
+        <v>52069.22833003803</v>
       </c>
       <c r="L145">
-        <v>78079</v>
+        <v>78461</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1409.848967450728</v>
+        <v>1329.293712941816</v>
       </c>
       <c r="C146">
-        <v>1409.848967450728</v>
+        <v>1329.293712941816</v>
       </c>
       <c r="D146">
-        <v>214968.2523926748</v>
+        <v>211100.1141376505</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>6989.33521242705</v>
+        <v>6961.329423615239</v>
       </c>
       <c r="G146">
-        <v>207978.9171802478</v>
+        <v>204138.7847140352</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>4116422.203707078</v>
+        <v>4185485.364395721</v>
       </c>
       <c r="K146">
-        <v>63819.92036878042</v>
+        <v>63820.30075568536</v>
       </c>
       <c r="L146">
-        <v>95674</v>
+        <v>96148</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1273.727981886608</v>
+        <v>1308.984355565231</v>
       </c>
       <c r="C147">
-        <v>1273.727981886608</v>
+        <v>1308.984355565231</v>
       </c>
       <c r="D147">
-        <v>184395.1241737674</v>
+        <v>182859.3677537494</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>5921.637359059505</v>
+        <v>5813.226443321666</v>
       </c>
       <c r="G147">
-        <v>178473.4868147079</v>
+        <v>177046.1413104277</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>3584347.440800891</v>
+        <v>3591222.432152426</v>
       </c>
       <c r="K147">
-        <v>55341.15684126951</v>
+        <v>55340.9665454022</v>
       </c>
       <c r="L147">
-        <v>82952</v>
+        <v>83225</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1410.538829757313</v>
+        <v>1394.072995230119</v>
       </c>
       <c r="C148">
-        <v>1410.538829757313</v>
+        <v>1394.072995230119</v>
       </c>
       <c r="D148">
-        <v>212113.9967185267</v>
+        <v>211488.5290546976</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6962.386596923022</v>
+        <v>6934.59089567839</v>
       </c>
       <c r="G148">
-        <v>205151.6101216037</v>
+        <v>204553.9381590192</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>4071993.36758896</v>
+        <v>4070022.408773937</v>
       </c>
       <c r="K148">
-        <v>63094.15662474147</v>
+        <v>63093.72227174648</v>
       </c>
       <c r="L148">
-        <v>94661</v>
+        <v>94842</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1263.067542999778</v>
+        <v>1354.510482323608</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1263.067542999778</v>
+        <v>1354.510482323608</v>
       </c>
       <c r="D149">
-        <v>198158.1088465033</v>
+        <v>197435.5499584176</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6690.168901470885</v>
+        <v>6594.654480018839</v>
       </c>
       <c r="G149">
-        <v>191467.9399450324</v>
+        <v>190840.8954783988</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>3913858.923318003</v>
+        <v>3879236.806806449</v>
       </c>
       <c r="K149">
-        <v>59774.15992234639</v>
+        <v>59773.79787369716</v>
       </c>
       <c r="L149">
-        <v>89553</v>
+        <v>89547</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>605.6119016527099</v>
+        <v>752.6752581650608</v>
       </c>
       <c r="C150">
-        <v>605.6119016527099</v>
+        <v>752.6752581650608</v>
       </c>
       <c r="D150">
-        <v>111526.5050130568</v>
+        <v>109697.1936862745</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3784.118810978617</v>
+        <v>3571.861529858673</v>
       </c>
       <c r="G150">
-        <v>107742.3862020782</v>
+        <v>106125.3321564159</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2155087.892098012</v>
+        <v>2154568.223963471</v>
       </c>
       <c r="K150">
-        <v>33175.13316382674</v>
+        <v>33175.06912332644</v>
       </c>
       <c r="L150">
-        <v>49763</v>
+        <v>49954</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>739.9343646112204</v>
+        <v>778.06886611734</v>
       </c>
       <c r="C151">
-        <v>739.9343646112204</v>
+        <v>778.06886611734</v>
       </c>
       <c r="D151">
-        <v>115845.3536666911</v>
+        <v>114357.0252247274</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3895.062098243901</v>
+        <v>3825.207684990295</v>
       </c>
       <c r="G151">
-        <v>111950.2915684472</v>
+        <v>110531.8175397372</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2257390.720829034</v>
+        <v>2256030.197079833</v>
       </c>
       <c r="K151">
-        <v>34695.32879597513</v>
+        <v>34695.12133021206</v>
       </c>
       <c r="L151">
-        <v>52000</v>
+        <v>52259</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>562.7778536147666</v>
+        <v>671.1454309061412</v>
       </c>
       <c r="C152">
-        <v>562.7778536147666</v>
+        <v>671.1454309061412</v>
       </c>
       <c r="D152">
-        <v>100055.3825943558</v>
+        <v>98678.90899871901</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3307.336627313124</v>
+        <v>3254.402256094842</v>
       </c>
       <c r="G152">
-        <v>96748.04596704272</v>
+        <v>95424.50674262417</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1927092.228045003</v>
+        <v>1942889.668555221</v>
       </c>
       <c r="K152">
-        <v>29845.26443864053</v>
+        <v>29844.90871409721</v>
       </c>
       <c r="L152">
-        <v>44680</v>
+        <v>44933</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>698.9991342646201</v>
+        <v>535.7297582572407</v>
       </c>
       <c r="C153">
-        <v>698.9991342646201</v>
+        <v>535.7297582572407</v>
       </c>
       <c r="D153">
-        <v>103149.7868056916</v>
+        <v>102517.8830978634</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3371.51049196846</v>
+        <v>3313.080580684452</v>
       </c>
       <c r="G153">
-        <v>99778.27631372312</v>
+        <v>99204.80251717896</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1999134.863546552</v>
+        <v>2014776.982474936</v>
       </c>
       <c r="K153">
-        <v>30868.19987819708</v>
+        <v>30868.30114110969</v>
       </c>
       <c r="L153">
-        <v>46302</v>
+        <v>46495</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>165.0965282980756</v>
+        <v>182.8616190419987</v>
       </c>
       <c r="C154">
-        <v>165.0965282980756</v>
+        <v>182.8616190419987</v>
       </c>
       <c r="D154">
-        <v>28590.69600496037</v>
+        <v>28448.52226601661</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>962.7351274383326</v>
+        <v>958.7161868897705</v>
       </c>
       <c r="G154">
-        <v>27627.96087752203</v>
+        <v>27489.80607912684</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>554642.8827284238</v>
+        <v>557416.078136076</v>
       </c>
       <c r="K154">
-        <v>8498.914935668894</v>
+        <v>8498.885348582469</v>
       </c>
       <c r="L154">
-        <v>12750</v>
+        <v>12794</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>201.7295561251678</v>
+        <v>204.4246232148404</v>
       </c>
       <c r="C155">
-        <v>201.7295561251678</v>
+        <v>204.4246232148404</v>
       </c>
       <c r="D155">
-        <v>33521.97770358065</v>
+        <v>33837.85322871149</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>33521.97770358065</v>
+        <v>33837.85322871149</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>650169.8647897983</v>
+        <v>653815.3889971337</v>
       </c>
       <c r="K155">
-        <v>10005.99223993156</v>
+        <v>10005.78367298795</v>
       </c>
       <c r="L155">
-        <v>15084</v>
+        <v>15156</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>111.6732290578483</v>
+        <v>106.4086656929927</v>
       </c>
       <c r="C156">
-        <v>111.6732290578483</v>
+        <v>106.4086656929927</v>
       </c>
       <c r="D156">
-        <v>15000.74657398313</v>
+        <v>15085.70589099941</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15000.74657398313</v>
+        <v>15085.70589099941</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>294533.2576518971</v>
+        <v>295782.8642293059</v>
       </c>
       <c r="K156">
-        <v>4532.998714635344</v>
+        <v>4532.840768819791</v>
       </c>
       <c r="L156">
-        <v>6831</v>
+        <v>6867</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9184.155505252955</v>
+        <v>9539.413659635811</v>
       </c>
       <c r="C2">
-        <v>9184.155505252955</v>
+        <v>9539.413659635811</v>
       </c>
       <c r="D2">
-        <v>218494.6801478853</v>
+        <v>212800.1111310789</v>
       </c>
       <c r="E2">
-        <v>275083.5706705255</v>
+        <v>267948.2160999737</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>218494.6801478853</v>
+        <v>212800.1111310789</v>
       </c>
       <c r="H2">
-        <v>161650.9273749832</v>
+        <v>157256.7535665363</v>
       </c>
       <c r="I2">
-        <v>113432.6432955423</v>
+        <v>110691.4625334374</v>
       </c>
       <c r="J2">
-        <v>2442545.579827261</v>
+        <v>2833796.220317605</v>
       </c>
       <c r="K2">
-        <v>51892.6853024264</v>
+        <v>51893.05506619181</v>
       </c>
       <c r="L2">
-        <v>74129</v>
+        <v>74673</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4329.525126731392</v>
+        <v>4579.862664493889</v>
       </c>
       <c r="C3">
-        <v>4329.525126731392</v>
+        <v>4579.862664493889</v>
       </c>
       <c r="D3">
-        <v>102485.1082146101</v>
+        <v>98266.98674455336</v>
       </c>
       <c r="E3">
-        <v>129917.8000469932</v>
+        <v>126685.3831308301</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>102485.1082146101</v>
+        <v>98266.98674455336</v>
       </c>
       <c r="H3">
-        <v>76314.08596083565</v>
+        <v>75028.50126327362</v>
       </c>
       <c r="I3">
-        <v>53603.71408615751</v>
+        <v>51656.88186755649</v>
       </c>
       <c r="J3">
-        <v>1142123.724816374</v>
+        <v>1330929.096180297</v>
       </c>
       <c r="K3">
-        <v>24442.80750341463</v>
+        <v>24442.81011620129</v>
       </c>
       <c r="L3">
-        <v>34886</v>
+        <v>35150</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4184.047078246434</v>
+        <v>4056.34767841147</v>
       </c>
       <c r="B4">
-        <v>9553.690873666599</v>
+        <v>9574.994150879735</v>
       </c>
       <c r="C4">
-        <v>13737.73795191304</v>
+        <v>13631.3418292912</v>
       </c>
       <c r="D4">
-        <v>316799.7360878919</v>
+        <v>319976.678018129</v>
       </c>
       <c r="E4">
-        <v>397544.3097227348</v>
+        <v>405322.121644499</v>
       </c>
       <c r="F4">
-        <v>104605.9643517973</v>
+        <v>106320.4565849773</v>
       </c>
       <c r="G4">
-        <v>212193.7717360946</v>
+        <v>213656.2214331516</v>
       </c>
       <c r="H4">
-        <v>234598.557048222</v>
+        <v>239494.2139277968</v>
       </c>
       <c r="I4">
-        <v>162945.7526745128</v>
+        <v>165827.9077167022</v>
       </c>
       <c r="J4">
-        <v>3583519.33868916</v>
+        <v>4156222.344229566</v>
       </c>
       <c r="K4">
-        <v>76597.67260573631</v>
+        <v>76597.9463115602</v>
       </c>
       <c r="L4">
-        <v>105459</v>
+        <v>106205</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>12079.52411055419</v>
+        <v>13056.15976682637</v>
       </c>
       <c r="B5">
-        <v>30438.20151024287</v>
+        <v>29821.70458133259</v>
       </c>
       <c r="C5">
-        <v>42517.72562079706</v>
+        <v>42877.86434815897</v>
       </c>
       <c r="D5">
-        <v>990395.2582539262</v>
+        <v>981905.2484251925</v>
       </c>
       <c r="E5">
-        <v>1271571.191547476</v>
+        <v>1244830.889617895</v>
       </c>
       <c r="F5">
-        <v>327900.7043538184</v>
+        <v>325856.7320367037</v>
       </c>
       <c r="G5">
-        <v>662494.5539001077</v>
+        <v>656048.5163884889</v>
       </c>
       <c r="H5">
-        <v>747178.552340848</v>
+        <v>734290.8868068415</v>
       </c>
       <c r="I5">
-        <v>524392.6392066285</v>
+        <v>510540.0028110532</v>
       </c>
       <c r="J5">
-        <v>11264027.27892294</v>
+        <v>12986654.06514806</v>
       </c>
       <c r="K5">
-        <v>240460.8879614751</v>
+        <v>240460.9885607004</v>
       </c>
       <c r="L5">
-        <v>331019</v>
+        <v>333181</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4551.520492923865</v>
+        <v>4677.202374425508</v>
       </c>
       <c r="B6">
-        <v>11425.10810161603</v>
+        <v>11132.97436979503</v>
       </c>
       <c r="C6">
-        <v>15976.6285945399</v>
+        <v>15810.17674422054</v>
       </c>
       <c r="D6">
-        <v>360088.1165584546</v>
+        <v>364520.4551573873</v>
       </c>
       <c r="E6">
-        <v>462756.2719240473</v>
+        <v>465068.0429525977</v>
       </c>
       <c r="F6">
-        <v>119367.1531323583</v>
+        <v>119518.7879431744</v>
       </c>
       <c r="G6">
-        <v>240720.9634260964</v>
+        <v>245001.6672142129</v>
       </c>
       <c r="H6">
-        <v>272642.5649245618</v>
+        <v>275526.298044666</v>
       </c>
       <c r="I6">
-        <v>190113.7069994854</v>
+        <v>189541.7449079317</v>
       </c>
       <c r="J6">
-        <v>4120625.114488913</v>
+        <v>4786724.28264301</v>
       </c>
       <c r="K6">
-        <v>88279.83335363351</v>
+        <v>88279.98462656939</v>
       </c>
       <c r="L6">
-        <v>121496</v>
+        <v>122225</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2551.147644099029</v>
+        <v>2650.201729116106</v>
       </c>
       <c r="B7">
-        <v>5791.185471027474</v>
+        <v>6073.970600998143</v>
       </c>
       <c r="C7">
-        <v>8342.333115126503</v>
+        <v>8724.172330114248</v>
       </c>
       <c r="D7">
-        <v>190159.0327684162</v>
+        <v>188994.1941090604</v>
       </c>
       <c r="E7">
-        <v>243663.1479794645</v>
+        <v>240423.4552474962</v>
       </c>
       <c r="F7">
-        <v>63865.7311528815</v>
+        <v>63880.26051223941</v>
       </c>
       <c r="G7">
-        <v>126293.3016155347</v>
+        <v>125113.933596821</v>
       </c>
       <c r="H7">
-        <v>144055.7824267644</v>
+        <v>141849.2071507749</v>
       </c>
       <c r="I7">
-        <v>99607.36555270004</v>
+        <v>98574.24809672123</v>
       </c>
       <c r="J7">
-        <v>2196947.008153128</v>
+        <v>2564168.540434405</v>
       </c>
       <c r="K7">
-        <v>47022.64042740424</v>
+        <v>47023.03115029597</v>
       </c>
       <c r="L7">
-        <v>64715.99999999999</v>
+        <v>65206</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14349.52085320851</v>
+        <v>15008.01944585477</v>
       </c>
       <c r="B8">
-        <v>35558.62047229605</v>
+        <v>33612.40257476531</v>
       </c>
       <c r="C8">
-        <v>49908.14132550456</v>
+        <v>48620.42202062008</v>
       </c>
       <c r="D8">
-        <v>1086728.315143235</v>
+        <v>1069591.194905716</v>
       </c>
       <c r="E8">
-        <v>1377640.321141863</v>
+        <v>1359363.552229501</v>
       </c>
       <c r="F8">
-        <v>360463.9677015264</v>
+        <v>360530.1171161499</v>
       </c>
       <c r="G8">
-        <v>726264.3474417086</v>
+        <v>709061.0777895661</v>
       </c>
       <c r="H8">
-        <v>810959.7954218306</v>
+        <v>803887.4624319342</v>
       </c>
       <c r="I8">
-        <v>566680.5257200329</v>
+        <v>555476.0897975665</v>
       </c>
       <c r="J8">
-        <v>12344582.32385302</v>
+        <v>14344572.81220075</v>
       </c>
       <c r="K8">
-        <v>264640.819677109</v>
+        <v>264640.827886339</v>
       </c>
       <c r="L8">
-        <v>364502</v>
+        <v>366852</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3898.882450657837</v>
+        <v>3743.39017133113</v>
       </c>
       <c r="B9">
-        <v>9470.550875771511</v>
+        <v>8661.39830636023</v>
       </c>
       <c r="C9">
-        <v>13369.43332642935</v>
+        <v>12404.78847769136</v>
       </c>
       <c r="D9">
-        <v>291628.2376801079</v>
+        <v>289110.5489275985</v>
       </c>
       <c r="E9">
-        <v>378273.5278152267</v>
+        <v>367945.9697577863</v>
       </c>
       <c r="F9">
-        <v>95869.91856557476</v>
+        <v>95984.182799242</v>
       </c>
       <c r="G9">
-        <v>195758.3191145331</v>
+        <v>193126.3661283565</v>
       </c>
       <c r="H9">
-        <v>222489.1606967874</v>
+        <v>217015.753806175</v>
       </c>
       <c r="I9">
-        <v>155784.3671184393</v>
+        <v>150930.2159516112</v>
       </c>
       <c r="J9">
-        <v>3331999.562022828</v>
+        <v>3859093.622086037</v>
       </c>
       <c r="K9">
-        <v>71447.80242592719</v>
+        <v>71448.28065245683</v>
       </c>
       <c r="L9">
-        <v>98313</v>
+        <v>99186</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1547.232928111283</v>
+        <v>1526.108690059678</v>
       </c>
       <c r="B10">
-        <v>3586.907272408857</v>
+        <v>3757.729951512893</v>
       </c>
       <c r="C10">
-        <v>5134.14020052014</v>
+        <v>5283.838641572571</v>
       </c>
       <c r="D10">
-        <v>115945.321245128</v>
+        <v>114972.8218862838</v>
       </c>
       <c r="E10">
-        <v>150453.48446731</v>
+        <v>145048.4106073898</v>
       </c>
       <c r="F10">
-        <v>38404.10737305976</v>
+        <v>38042.26138996505</v>
       </c>
       <c r="G10">
-        <v>77541.2138720682</v>
+        <v>76930.56049631872</v>
       </c>
       <c r="H10">
-        <v>88723.50491348688</v>
+        <v>85637.52174915263</v>
       </c>
       <c r="I10">
-        <v>61729.97955382312</v>
+        <v>59410.88885823716</v>
       </c>
       <c r="J10">
-        <v>1315444.362057538</v>
+        <v>1520036.262045147</v>
       </c>
       <c r="K10">
-        <v>28003.73604151324</v>
+        <v>28004.07179479815</v>
       </c>
       <c r="L10">
-        <v>38551</v>
+        <v>38822</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3030.006577061439</v>
+        <v>2904.376596573931</v>
       </c>
       <c r="B11">
-        <v>6746.462705934136</v>
+        <v>7454.131578605587</v>
       </c>
       <c r="C11">
-        <v>9776.469282995575</v>
+        <v>10358.50817517952</v>
       </c>
       <c r="D11">
-        <v>237157.0872121282</v>
+        <v>241608.3058273406</v>
       </c>
       <c r="E11">
-        <v>309567.2741116445</v>
+        <v>299564.8460251528</v>
       </c>
       <c r="F11">
-        <v>78139.76805665824</v>
+        <v>79649.00070056565</v>
       </c>
       <c r="G11">
-        <v>159017.3191554699</v>
+        <v>161959.305126775</v>
       </c>
       <c r="H11">
-        <v>182064.4605031802</v>
+        <v>176186.0029019007</v>
       </c>
       <c r="I11">
-        <v>127502.8136084643</v>
+        <v>123378.8431232521</v>
       </c>
       <c r="J11">
-        <v>2714809.436678717</v>
+        <v>3124709.812950369</v>
       </c>
       <c r="K11">
-        <v>57876.80197501408</v>
+        <v>57876.8050728184</v>
       </c>
       <c r="L11">
-        <v>79702</v>
+        <v>80189</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4656.037771944783</v>
+        <v>4312.627731178904</v>
       </c>
       <c r="B12">
-        <v>9802.649763109261</v>
+        <v>9748.014685341413</v>
       </c>
       <c r="C12">
-        <v>14458.68753505404</v>
+        <v>14060.64241652032</v>
       </c>
       <c r="D12">
-        <v>325359.0322124546</v>
+        <v>328459.0076096415</v>
       </c>
       <c r="E12">
-        <v>417532.0596154506</v>
+        <v>429541.2691189297</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>325359.0322124546</v>
+        <v>328459.0076096415</v>
       </c>
       <c r="H12">
-        <v>245533.1789835595</v>
+        <v>252490.62186111</v>
       </c>
       <c r="I12">
-        <v>171998.8806318911</v>
+        <v>177050.6472578197</v>
       </c>
       <c r="J12">
-        <v>3681530.077767126</v>
+        <v>4262176.630657469</v>
       </c>
       <c r="K12">
-        <v>78645.93467459823</v>
+        <v>78646.24504558864</v>
       </c>
       <c r="L12">
-        <v>111688</v>
+        <v>112289</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1815.547729984874</v>
+        <v>1879.038684997618</v>
       </c>
       <c r="B13">
-        <v>4198.062783834284</v>
+        <v>4163.235099781798</v>
       </c>
       <c r="C13">
-        <v>6013.610513819159</v>
+        <v>6042.273784779416</v>
       </c>
       <c r="D13">
-        <v>140856.2051693228</v>
+        <v>142264.8776705658</v>
       </c>
       <c r="E13">
-        <v>182553.0082755196</v>
+        <v>183693.7472543251</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>140856.2051693228</v>
+        <v>142264.8776705658</v>
       </c>
       <c r="H13">
-        <v>108296.2330101238</v>
+        <v>108280.5097241483</v>
       </c>
       <c r="I13">
-        <v>74256.77526539577</v>
+        <v>75413.23753017689</v>
       </c>
       <c r="J13">
-        <v>1616459.942064939</v>
+        <v>1889380.576829083</v>
       </c>
       <c r="K13">
-        <v>34683.77556705027</v>
+        <v>34684.2794848277</v>
       </c>
       <c r="L13">
-        <v>49303</v>
+        <v>49568</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>7634.780754789074</v>
+        <v>8362.748060136075</v>
       </c>
       <c r="C14">
-        <v>7634.780754789074</v>
+        <v>8362.748060136075</v>
       </c>
       <c r="D14">
-        <v>179285.5017296217</v>
+        <v>177864.2503106523</v>
       </c>
       <c r="E14">
-        <v>228653.1301870565</v>
+        <v>227400.4782122709</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>179285.5017296217</v>
+        <v>177864.2503106523</v>
       </c>
       <c r="H14">
-        <v>134178.9965863308</v>
+        <v>134085.5608316968</v>
       </c>
       <c r="I14">
-        <v>94474.13360072569</v>
+        <v>93314.9173805742</v>
       </c>
       <c r="J14">
-        <v>2020248.902743347</v>
+        <v>2330887.614591957</v>
       </c>
       <c r="K14">
-        <v>42869.0089731097</v>
+        <v>42869.01528276866</v>
       </c>
       <c r="L14">
-        <v>61197</v>
+        <v>61677</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7698.946695323544</v>
+        <v>7612.19603953045</v>
       </c>
       <c r="C15">
-        <v>7698.946695323544</v>
+        <v>7612.19603953045</v>
       </c>
       <c r="D15">
-        <v>172399.1066738683</v>
+        <v>172069.4826777311</v>
       </c>
       <c r="E15">
-        <v>219364.4524224964</v>
+        <v>222396.2545779611</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>172399.1066738683</v>
+        <v>172069.4826777311</v>
       </c>
       <c r="H15">
-        <v>129121.9865284229</v>
+        <v>130695.9815117831</v>
       </c>
       <c r="I15">
-        <v>90242.46589407347</v>
+        <v>91700.27306617799</v>
       </c>
       <c r="J15">
-        <v>1950564.615832899</v>
+        <v>2264406.156977447</v>
       </c>
       <c r="K15">
-        <v>41813.90784969581</v>
+        <v>41814.27277007253</v>
       </c>
       <c r="L15">
-        <v>59694</v>
+        <v>60103</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5888.123177076241</v>
+        <v>5660.675353660351</v>
       </c>
       <c r="C16">
-        <v>5888.123177076241</v>
+        <v>5660.675353660351</v>
       </c>
       <c r="D16">
-        <v>129269.5184148104</v>
+        <v>127709.5243889869</v>
       </c>
       <c r="E16">
-        <v>167121.1685719039</v>
+        <v>162753.1494433896</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>129269.5184148104</v>
+        <v>127709.5243889869</v>
       </c>
       <c r="H16">
-        <v>98633.07111020311</v>
+        <v>96163.37210367812</v>
       </c>
       <c r="I16">
-        <v>68488.09746170076</v>
+        <v>66589.77733971148</v>
       </c>
       <c r="J16">
-        <v>1443946.495564282</v>
+        <v>1694584.832290671</v>
       </c>
       <c r="K16">
-        <v>31077.03708486374</v>
+        <v>31076.80129646835</v>
       </c>
       <c r="L16">
-        <v>44343</v>
+        <v>44697</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>2071.244363178294</v>
+        <v>1958.426816443807</v>
       </c>
       <c r="C17">
-        <v>2071.244363178294</v>
+        <v>1958.426816443807</v>
       </c>
       <c r="D17">
-        <v>12166.52604965626</v>
+        <v>12059.8535867744</v>
       </c>
       <c r="E17">
-        <v>17326.66356408187</v>
+        <v>17357.25615631322</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12166.52604965626</v>
+        <v>12059.8535867744</v>
       </c>
       <c r="H17">
-        <v>9877.790867933498</v>
+        <v>9928.414913727765</v>
       </c>
       <c r="I17">
-        <v>7448.87269614837</v>
+        <v>7428.841242585457</v>
       </c>
       <c r="J17">
-        <v>122300.3765102694</v>
+        <v>143611.6978283376</v>
       </c>
       <c r="K17">
-        <v>4915.063399043943</v>
+        <v>4915.315122976545</v>
       </c>
       <c r="L17">
-        <v>6706</v>
+        <v>6858</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2757.190188152091</v>
+        <v>2888.440426452438</v>
       </c>
       <c r="C18">
-        <v>2757.190188152091</v>
+        <v>2888.440426452438</v>
       </c>
       <c r="D18">
-        <v>17108.17178244776</v>
+        <v>17767.93095291672</v>
       </c>
       <c r="E18">
-        <v>24866.31363583116</v>
+        <v>25160.58086693582</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17108.17178244776</v>
+        <v>17767.93095291672</v>
       </c>
       <c r="H18">
-        <v>14184.26536523817</v>
+        <v>14312.61692801303</v>
       </c>
       <c r="I18">
-        <v>10682.04827059299</v>
+        <v>10847.96393892279</v>
       </c>
       <c r="J18">
-        <v>173983.3662921966</v>
+        <v>203253.7651057527</v>
       </c>
       <c r="K18">
-        <v>7009.820276093539</v>
+        <v>7009.745622248188</v>
       </c>
       <c r="L18">
-        <v>9565</v>
+        <v>9777</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>596.6385886408805</v>
+        <v>566.428233350485</v>
       </c>
       <c r="B19">
-        <v>6076.407013129992</v>
+        <v>6107.308438598378</v>
       </c>
       <c r="C19">
-        <v>6673.045601770873</v>
+        <v>6673.736671948863</v>
       </c>
       <c r="D19">
-        <v>39939.57390119851</v>
+        <v>39215.67458823424</v>
       </c>
       <c r="E19">
-        <v>56438.20252474273</v>
+        <v>56626.86160314785</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39939.57390119851</v>
+        <v>39215.67458823424</v>
       </c>
       <c r="H19">
-        <v>32254.63003871567</v>
+        <v>32228.18489982297</v>
       </c>
       <c r="I19">
-        <v>24183.57248602706</v>
+        <v>24398.67670332487</v>
       </c>
       <c r="J19">
-        <v>405793.2241477176</v>
+        <v>471074.071921484</v>
       </c>
       <c r="K19">
-        <v>16218.77917063084</v>
+        <v>16218.73521464365</v>
       </c>
       <c r="L19">
-        <v>22061</v>
+        <v>22537</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1405.375780855141</v>
+        <v>1282.305108626327</v>
       </c>
       <c r="B20">
-        <v>13861.54085986568</v>
+        <v>13837.18421188734</v>
       </c>
       <c r="C20">
-        <v>15266.91664072082</v>
+        <v>15119.48932051367</v>
       </c>
       <c r="D20">
-        <v>93592.24213150678</v>
+        <v>91954.14575986823</v>
       </c>
       <c r="E20">
-        <v>131206.3829314082</v>
+        <v>133868.2040866194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>93592.24213150678</v>
+        <v>91954.14575986823</v>
       </c>
       <c r="H20">
-        <v>75082.17703319294</v>
+        <v>76900.21888417412</v>
       </c>
       <c r="I20">
-        <v>56124.20589821526</v>
+        <v>56967.98520244528</v>
       </c>
       <c r="J20">
-        <v>934684.0231697523</v>
+        <v>1090732.203851936</v>
       </c>
       <c r="K20">
-        <v>37314.31897155567</v>
+        <v>37313.94172052527</v>
       </c>
       <c r="L20">
-        <v>50743</v>
+        <v>51876</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3473.979123910482</v>
+        <v>3410.69228209776</v>
       </c>
       <c r="B21">
-        <v>34444.98095409365</v>
+        <v>34329.93361231647</v>
       </c>
       <c r="C21">
-        <v>37918.96007800414</v>
+        <v>37740.62589441423</v>
       </c>
       <c r="D21">
-        <v>228402.7919100554</v>
+        <v>218038.3879595616</v>
       </c>
       <c r="E21">
-        <v>329930.2232064845</v>
+        <v>316717.3415968117</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>228402.7919100554</v>
+        <v>218038.3879595616</v>
       </c>
       <c r="H21">
-        <v>189399.3727362471</v>
+        <v>180204.2787433204</v>
       </c>
       <c r="I21">
-        <v>140530.8504702374</v>
+        <v>136513.0628534913</v>
       </c>
       <c r="J21">
-        <v>2296639.708008164</v>
+        <v>2644137.44349318</v>
       </c>
       <c r="K21">
-        <v>90793.96794434368</v>
+        <v>90793.82075081616</v>
       </c>
       <c r="L21">
-        <v>123599</v>
+        <v>126196</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>4023.113402659857</v>
+        <v>3768.239190203123</v>
       </c>
       <c r="B22">
-        <v>39821.3353078135</v>
+        <v>38069.12424177895</v>
       </c>
       <c r="C22">
-        <v>43844.44871047336</v>
+        <v>41837.36343198208</v>
       </c>
       <c r="D22">
-        <v>257707.0853072044</v>
+        <v>273016.8635944956</v>
       </c>
       <c r="E22">
-        <v>382364.2711536336</v>
+        <v>374797.6025862523</v>
       </c>
       <c r="F22">
-        <v>42242.98421035503</v>
+        <v>45017.49993448712</v>
       </c>
       <c r="G22">
-        <v>215464.1010968494</v>
+        <v>227999.3636600084</v>
       </c>
       <c r="H22">
-        <v>217333.0193680685</v>
+        <v>212739.7706291991</v>
       </c>
       <c r="I22">
-        <v>165031.2517855651</v>
+        <v>162057.8319570532</v>
       </c>
       <c r="J22">
-        <v>2719114.680248509</v>
+        <v>3149231.388101533</v>
       </c>
       <c r="K22">
-        <v>108044.8508951704</v>
+        <v>108045.0917645584</v>
       </c>
       <c r="L22">
-        <v>145304</v>
+        <v>148098</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4375.714809935479</v>
+        <v>4173.358293508939</v>
       </c>
       <c r="B23">
-        <v>43197.50158702752</v>
+        <v>41296.48117690456</v>
       </c>
       <c r="C23">
-        <v>47573.21639696299</v>
+        <v>45469.8394704135</v>
       </c>
       <c r="D23">
-        <v>293586.6645350238</v>
+        <v>283259.6969319576</v>
       </c>
       <c r="E23">
-        <v>420105.889386074</v>
+        <v>411288.8625226645</v>
       </c>
       <c r="F23">
-        <v>47284.3012219275</v>
+        <v>45883.73164373607</v>
       </c>
       <c r="G23">
-        <v>246302.3633130963</v>
+        <v>237375.9652882215</v>
       </c>
       <c r="H23">
-        <v>240780.7997489288</v>
+        <v>234224.6957695518</v>
       </c>
       <c r="I23">
-        <v>179325.0896371453</v>
+        <v>177064.1667531127</v>
       </c>
       <c r="J23">
-        <v>2947221.221026768</v>
+        <v>3390433.261350982</v>
       </c>
       <c r="K23">
-        <v>116725.793227294</v>
+        <v>116726.0199953358</v>
       </c>
       <c r="L23">
-        <v>156839</v>
+        <v>160135</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7608.30734124455</v>
+        <v>6812.519821533568</v>
       </c>
       <c r="B24">
-        <v>71632.36053259972</v>
+        <v>67066.72953107601</v>
       </c>
       <c r="C24">
-        <v>79240.66787384427</v>
+        <v>73879.24935260958</v>
       </c>
       <c r="D24">
-        <v>479491.2032494511</v>
+        <v>473140.4985412079</v>
       </c>
       <c r="E24">
-        <v>685544.9737895961</v>
+        <v>677854.2652690863</v>
       </c>
       <c r="F24">
-        <v>77991.48826151859</v>
+        <v>78108.94823197879</v>
       </c>
       <c r="G24">
-        <v>401499.7149879326</v>
+        <v>395031.5503092291</v>
       </c>
       <c r="H24">
-        <v>391627.1447293709</v>
+        <v>383757.9328859</v>
       </c>
       <c r="I24">
-        <v>293917.8290602252</v>
+        <v>294096.3323831863</v>
       </c>
       <c r="J24">
-        <v>4818228.900563451</v>
+        <v>5632730.835237739</v>
       </c>
       <c r="K24">
-        <v>193189.8252357688</v>
+        <v>193189.8117919111</v>
       </c>
       <c r="L24">
-        <v>259490</v>
+        <v>265136</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6205.092159873252</v>
+        <v>5989.698119252226</v>
       </c>
       <c r="B25">
-        <v>61009.73081644544</v>
+        <v>60948.644848076</v>
       </c>
       <c r="C25">
-        <v>67214.82297631868</v>
+        <v>66938.34296732822</v>
       </c>
       <c r="D25">
-        <v>425135.6318753098</v>
+        <v>417566.7510476121</v>
       </c>
       <c r="E25">
-        <v>599267.2786560354</v>
+        <v>591866.1855475908</v>
       </c>
       <c r="F25">
-        <v>68318.96913969501</v>
+        <v>68447.86374963602</v>
       </c>
       <c r="G25">
-        <v>356816.6627356148</v>
+        <v>349118.8872979761</v>
       </c>
       <c r="H25">
-        <v>341678.0646928936</v>
+        <v>337405.3274371222</v>
       </c>
       <c r="I25">
-        <v>257589.2139631418</v>
+        <v>254460.8581104685</v>
       </c>
       <c r="J25">
-        <v>4243251.009618587</v>
+        <v>4880381.534211387</v>
       </c>
       <c r="K25">
-        <v>167765.9403351643</v>
+        <v>167766.0698942455</v>
       </c>
       <c r="L25">
-        <v>225644</v>
+        <v>229895</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3901.391065002762</v>
+        <v>3854.174940295223</v>
       </c>
       <c r="B26">
-        <v>42241.52314349406</v>
+        <v>39088.53589849935</v>
       </c>
       <c r="C26">
-        <v>46142.91420849682</v>
+        <v>42942.71083879458</v>
       </c>
       <c r="D26">
-        <v>292657.9712415418</v>
+        <v>285413.4496674677</v>
       </c>
       <c r="E26">
-        <v>415962.2777659164</v>
+        <v>415443.3118276195</v>
       </c>
       <c r="F26">
-        <v>47894.72354703124</v>
+        <v>45054.20440071263</v>
       </c>
       <c r="G26">
-        <v>244763.2476945106</v>
+        <v>240359.2452667551</v>
       </c>
       <c r="H26">
-        <v>238602.1970912277</v>
+        <v>235824.8657550311</v>
       </c>
       <c r="I26">
-        <v>177360.0806746887</v>
+        <v>179618.4460725884</v>
       </c>
       <c r="J26">
-        <v>2924574.507930619</v>
+        <v>3433604.09866002</v>
       </c>
       <c r="K26">
-        <v>117051.2059993229</v>
+        <v>117051.2606166464</v>
       </c>
       <c r="L26">
-        <v>157345</v>
+        <v>160810</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5323.282877613135</v>
+        <v>4835.451645057359</v>
       </c>
       <c r="B27">
-        <v>54956.89799432563</v>
+        <v>50357.45585276475</v>
       </c>
       <c r="C27">
-        <v>60280.18087193877</v>
+        <v>55192.90749782212</v>
       </c>
       <c r="D27">
-        <v>370153.5302934726</v>
+        <v>366570.5009724051</v>
       </c>
       <c r="E27">
-        <v>528948.7404658266</v>
+        <v>522624.3672952115</v>
       </c>
       <c r="F27">
-        <v>66768.65781537206</v>
+        <v>67862.00218657887</v>
       </c>
       <c r="G27">
-        <v>303384.8724781006</v>
+        <v>298708.4987858263</v>
       </c>
       <c r="H27">
-        <v>302699.1637692556</v>
+        <v>297132.1772296667</v>
       </c>
       <c r="I27">
-        <v>226249.576696571</v>
+        <v>225492.1900655448</v>
       </c>
       <c r="J27">
-        <v>3692077.820604015</v>
+        <v>4289484.771013869</v>
       </c>
       <c r="K27">
-        <v>146865.3113941353</v>
+        <v>146865.0756573713</v>
       </c>
       <c r="L27">
-        <v>197200</v>
+        <v>201380</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>6383.670772302033</v>
+        <v>5920.394655084123</v>
       </c>
       <c r="B28">
-        <v>64425.89636793541</v>
+        <v>58091.95693544316</v>
       </c>
       <c r="C28">
-        <v>70809.56714023744</v>
+        <v>64012.35159052728</v>
       </c>
       <c r="D28">
-        <v>418016.1713268068</v>
+        <v>433937.2940194473</v>
       </c>
       <c r="E28">
-        <v>603959.4538189897</v>
+        <v>610942.0434552308</v>
       </c>
       <c r="F28">
-        <v>77658.26877977054</v>
+        <v>81397.04224606053</v>
       </c>
       <c r="G28">
-        <v>340357.9025470362</v>
+        <v>352540.2517733867</v>
       </c>
       <c r="H28">
-        <v>344234.9623145401</v>
+        <v>349743.922602871</v>
       </c>
       <c r="I28">
-        <v>259724.4915044496</v>
+        <v>261198.1208523598</v>
       </c>
       <c r="J28">
-        <v>4293056.358915176</v>
+        <v>4978643.751263711</v>
       </c>
       <c r="K28">
-        <v>171179.2918711519</v>
+        <v>171178.940379125</v>
       </c>
       <c r="L28">
-        <v>229842</v>
+        <v>234737</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>4142.126552229393</v>
+        <v>3536.832322293899</v>
       </c>
       <c r="B29">
-        <v>37915.61723834648</v>
+        <v>37555.91337329749</v>
       </c>
       <c r="C29">
-        <v>42057.74379057587</v>
+        <v>41092.74569559139</v>
       </c>
       <c r="D29">
-        <v>256360.8664515757</v>
+        <v>262674.0789919388</v>
       </c>
       <c r="E29">
-        <v>367770.1806009125</v>
+        <v>374866.7403015174</v>
       </c>
       <c r="F29">
-        <v>48660.41457905965</v>
+        <v>48940.26466343256</v>
       </c>
       <c r="G29">
-        <v>207700.451872516</v>
+        <v>213733.8143285062</v>
       </c>
       <c r="H29">
-        <v>209737.2099403463</v>
+        <v>214476.3504967712</v>
       </c>
       <c r="I29">
-        <v>158032.9706605662</v>
+        <v>160390.3898047463</v>
       </c>
       <c r="J29">
-        <v>2638047.617549808</v>
+        <v>3026549.366090467</v>
       </c>
       <c r="K29">
-        <v>104634.218217855</v>
+        <v>104633.685602884</v>
       </c>
       <c r="L29">
-        <v>140429</v>
+        <v>143456</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1896.373283061761</v>
+        <v>1764.819082881161</v>
       </c>
       <c r="B30">
-        <v>18111.69564474011</v>
+        <v>18871.35224611028</v>
       </c>
       <c r="C30">
-        <v>20008.06892780188</v>
+        <v>20636.17132899144</v>
       </c>
       <c r="D30">
-        <v>126348.1017521641</v>
+        <v>131655.9576742315</v>
       </c>
       <c r="E30">
-        <v>184193.1621907526</v>
+        <v>180899.5572095565</v>
       </c>
       <c r="F30">
-        <v>23225.11533513773</v>
+        <v>24375.96242587134</v>
       </c>
       <c r="G30">
-        <v>103122.9864170263</v>
+        <v>107279.9952483601</v>
       </c>
       <c r="H30">
-        <v>105078.8025229188</v>
+        <v>103140.3768925211</v>
       </c>
       <c r="I30">
-        <v>79114.35966783376</v>
+        <v>77759.1803170354</v>
       </c>
       <c r="J30">
-        <v>1302125.551498698</v>
+        <v>1514862.164692222</v>
       </c>
       <c r="K30">
-        <v>52080.69602065584</v>
+        <v>52080.75694165226</v>
       </c>
       <c r="L30">
-        <v>69949</v>
+        <v>71419</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1374.08419476482</v>
+        <v>1341.201660547646</v>
       </c>
       <c r="B31">
-        <v>14178.76556351811</v>
+        <v>13741.07311428858</v>
       </c>
       <c r="C31">
-        <v>15552.84975828293</v>
+        <v>15082.27477483622</v>
       </c>
       <c r="D31">
-        <v>93280.95988316313</v>
+        <v>95514.79147158467</v>
       </c>
       <c r="E31">
-        <v>134270.0164383262</v>
+        <v>134517.7810623278</v>
       </c>
       <c r="F31">
-        <v>17088.35994538768</v>
+        <v>17663.90966661296</v>
       </c>
       <c r="G31">
-        <v>76192.59993777546</v>
+        <v>77850.88180497172</v>
       </c>
       <c r="H31">
-        <v>75980.14216349083</v>
+        <v>76636.51592393861</v>
       </c>
       <c r="I31">
-        <v>58289.87427483533</v>
+        <v>57881.26513838925</v>
       </c>
       <c r="J31">
-        <v>957808.0246468248</v>
+        <v>1113839.227376649</v>
       </c>
       <c r="K31">
-        <v>38180.96018114156</v>
+        <v>38180.874308622</v>
       </c>
       <c r="L31">
-        <v>51326</v>
+        <v>52368</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>193.8011460736929</v>
+        <v>182.7261558223668</v>
       </c>
       <c r="B32">
-        <v>869.4652713032461</v>
+        <v>848.3190267853907</v>
       </c>
       <c r="C32">
-        <v>1063.266417376939</v>
+        <v>1031.045182607757</v>
       </c>
       <c r="D32">
-        <v>5963.715646998099</v>
+        <v>5910.323565238086</v>
       </c>
       <c r="E32">
-        <v>6856.865799344448</v>
+        <v>6807.159086435329</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5963.715646998099</v>
+        <v>5910.323565238086</v>
       </c>
       <c r="H32">
-        <v>3492.305495910409</v>
+        <v>3487.933548144713</v>
       </c>
       <c r="I32">
-        <v>3364.560303434039</v>
+        <v>3319.225538290617</v>
       </c>
       <c r="J32">
-        <v>72598.58891863769</v>
+        <v>83500.13609168663</v>
       </c>
       <c r="K32">
-        <v>2024.09433320905</v>
+        <v>2024.128391874415</v>
       </c>
       <c r="L32">
-        <v>2807</v>
+        <v>2832</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1740.464310653619</v>
+        <v>1770.835762501349</v>
       </c>
       <c r="B33">
-        <v>7881.097635842678</v>
+        <v>7964.579958045571</v>
       </c>
       <c r="C33">
-        <v>9621.561946496297</v>
+        <v>9735.41572054692</v>
       </c>
       <c r="D33">
-        <v>53739.88019135813</v>
+        <v>53505.37726236038</v>
       </c>
       <c r="E33">
-        <v>61798.74151612758</v>
+        <v>62095.91049974112</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>53739.88019135813</v>
+        <v>53505.37726236038</v>
       </c>
       <c r="H33">
-        <v>31338.81501561371</v>
+        <v>31619.6653546345</v>
       </c>
       <c r="I33">
-        <v>30459.92650051387</v>
+        <v>30476.24514510662</v>
       </c>
       <c r="J33">
-        <v>664358.6892479894</v>
+        <v>765516.1538034885</v>
       </c>
       <c r="K33">
-        <v>18522.88970576918</v>
+        <v>18523.12791973137</v>
       </c>
       <c r="L33">
-        <v>25714</v>
+        <v>25929</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5745.884610387943</v>
+        <v>5533.096476376856</v>
       </c>
       <c r="B34">
-        <v>25555.41819340971</v>
+        <v>25609.48837555814</v>
       </c>
       <c r="C34">
-        <v>31301.30280379765</v>
+        <v>31142.58485193499</v>
       </c>
       <c r="D34">
-        <v>179554.0149630952</v>
+        <v>180670.8007112851</v>
       </c>
       <c r="E34">
-        <v>206135.207303861</v>
+        <v>207835.4058809071</v>
       </c>
       <c r="F34">
-        <v>31383.31576278987</v>
+        <v>31287.1279259662</v>
       </c>
       <c r="G34">
-        <v>148170.6992003053</v>
+        <v>149383.6727853189</v>
       </c>
       <c r="H34">
-        <v>104992.8858529142</v>
+        <v>105337.3385069709</v>
       </c>
       <c r="I34">
-        <v>101142.3214509468</v>
+        <v>102498.0673739361</v>
       </c>
       <c r="J34">
-        <v>2201771.392242085</v>
+        <v>2548279.730944979</v>
       </c>
       <c r="K34">
-        <v>61494.24991520968</v>
+        <v>61493.91469509326</v>
       </c>
       <c r="L34">
-        <v>83953</v>
+        <v>84878</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>13776.7426618223</v>
+        <v>14068.93559793076</v>
       </c>
       <c r="B35">
-        <v>63929.98225422944</v>
+        <v>66355.182769062</v>
       </c>
       <c r="C35">
-        <v>77706.72491605174</v>
+        <v>80424.11836699276</v>
       </c>
       <c r="D35">
-        <v>457787.4849880582</v>
+        <v>446008.6297459324</v>
       </c>
       <c r="E35">
-        <v>522651.264054729</v>
+        <v>517524.66651374</v>
       </c>
       <c r="F35">
-        <v>80373.61230894869</v>
+        <v>78029.7053923846</v>
       </c>
       <c r="G35">
-        <v>377413.8726791096</v>
+        <v>367978.9243535478</v>
       </c>
       <c r="H35">
-        <v>267327.480478269</v>
+        <v>264574.134576292</v>
       </c>
       <c r="I35">
-        <v>255323.78357646</v>
+        <v>252950.531937448</v>
       </c>
       <c r="J35">
-        <v>5550189.087657942</v>
+        <v>6416640.656608025</v>
       </c>
       <c r="K35">
-        <v>155264.927920183</v>
+        <v>155264.9984790202</v>
       </c>
       <c r="L35">
-        <v>212400</v>
+        <v>214199</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>22608.41455763216</v>
+        <v>22220.35071815815</v>
       </c>
       <c r="B36">
-        <v>97184.36011875464</v>
+        <v>99913.34373877902</v>
       </c>
       <c r="C36">
-        <v>119792.7746763868</v>
+        <v>122133.6944569372</v>
       </c>
       <c r="D36">
-        <v>696931.9036998117</v>
+        <v>696164.1908378364</v>
       </c>
       <c r="E36">
-        <v>809367.7541630749</v>
+        <v>798433.8624639455</v>
       </c>
       <c r="F36">
-        <v>122291.3606023116</v>
+        <v>121263.9414177095</v>
       </c>
       <c r="G36">
-        <v>574640.5430975001</v>
+        <v>574900.2494201269</v>
       </c>
       <c r="H36">
-        <v>411559.4714187259</v>
+        <v>405271.5691327956</v>
       </c>
       <c r="I36">
-        <v>397808.282744349</v>
+        <v>393162.29333115</v>
       </c>
       <c r="J36">
-        <v>8517182.266914994</v>
+        <v>9888220.775623346</v>
       </c>
       <c r="K36">
-        <v>238366.6978263251</v>
+        <v>238367.303636415</v>
       </c>
       <c r="L36">
-        <v>325827</v>
+        <v>328926</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>6123.948199635815</v>
+        <v>5891.965054961134</v>
       </c>
       <c r="B37">
-        <v>26497.46179980913</v>
+        <v>25746.64893548258</v>
       </c>
       <c r="C37">
-        <v>32621.40999944495</v>
+        <v>31638.61399044372</v>
       </c>
       <c r="D37">
-        <v>184036.8646958041</v>
+        <v>188079.8208459769</v>
       </c>
       <c r="E37">
-        <v>216504.0768494412</v>
+        <v>221004.6195668121</v>
       </c>
       <c r="F37">
-        <v>32002.44674233271</v>
+        <v>33396.71504958981</v>
       </c>
       <c r="G37">
-        <v>152034.4179534714</v>
+        <v>154683.1057963871</v>
       </c>
       <c r="H37">
-        <v>109697.0175097519</v>
+        <v>112870.1229024166</v>
       </c>
       <c r="I37">
-        <v>106807.0593396893</v>
+        <v>108134.4966643955</v>
       </c>
       <c r="J37">
-        <v>2286975.486355251</v>
+        <v>2654907.89607801</v>
       </c>
       <c r="K37">
-        <v>63837.68114538166</v>
+        <v>63838.00202130983</v>
       </c>
       <c r="L37">
-        <v>87287</v>
+        <v>88139</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>15817.20017315973</v>
+        <v>15661.15405399957</v>
       </c>
       <c r="B38">
-        <v>70738.17079132918</v>
+        <v>70694.82444354369</v>
       </c>
       <c r="C38">
-        <v>86555.37096448892</v>
+        <v>86355.97849754327</v>
       </c>
       <c r="D38">
-        <v>488602.769885918</v>
+        <v>485555.7536423801</v>
       </c>
       <c r="E38">
-        <v>580898.6803695707</v>
+        <v>571848.0868325728</v>
       </c>
       <c r="F38">
-        <v>85433.08835038457</v>
+        <v>83817.84983030218</v>
       </c>
       <c r="G38">
-        <v>403169.6815355335</v>
+        <v>401737.9038120779</v>
       </c>
       <c r="H38">
-        <v>296710.852390293</v>
+        <v>292096.1545171542</v>
       </c>
       <c r="I38">
-        <v>284187.8279792778</v>
+        <v>279751.9323154187</v>
       </c>
       <c r="J38">
-        <v>6063836.505624017</v>
+        <v>6989462.395026204</v>
       </c>
       <c r="K38">
-        <v>169119.8790030587</v>
+        <v>169120.1289072185</v>
       </c>
       <c r="L38">
-        <v>231172</v>
+        <v>233722</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>19507.62653097898</v>
+        <v>19169.51749962309</v>
       </c>
       <c r="B39">
-        <v>89162.09127521202</v>
+        <v>86824.73174121733</v>
       </c>
       <c r="C39">
-        <v>108669.717806191</v>
+        <v>105994.2492408404</v>
       </c>
       <c r="D39">
-        <v>613415.1246617527</v>
+        <v>596836.0572825088</v>
       </c>
       <c r="E39">
-        <v>702251.6916514961</v>
+        <v>687310.6588773807</v>
       </c>
       <c r="F39">
-        <v>104765.0235417719</v>
+        <v>104055.7880920056</v>
       </c>
       <c r="G39">
-        <v>508650.1011199809</v>
+        <v>492780.2691905032</v>
       </c>
       <c r="H39">
-        <v>357437.2016489842</v>
+        <v>352400.3321579335</v>
       </c>
       <c r="I39">
-        <v>344814.4900025119</v>
+        <v>334910.3267194471</v>
       </c>
       <c r="J39">
-        <v>7357020.793148526</v>
+        <v>8599274.039518548</v>
       </c>
       <c r="K39">
-        <v>206140.2219271202</v>
+        <v>206139.6892273794</v>
       </c>
       <c r="L39">
-        <v>281760</v>
+        <v>284522</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9395.402144627296</v>
+        <v>9191.423159702586</v>
       </c>
       <c r="B40">
-        <v>41361.12925541849</v>
+        <v>40876.96945661409</v>
       </c>
       <c r="C40">
-        <v>50756.53140004578</v>
+        <v>50068.39261631668</v>
       </c>
       <c r="D40">
-        <v>285729.7421699753</v>
+        <v>287258.6605054537</v>
       </c>
       <c r="E40">
-        <v>330180.4976481111</v>
+        <v>324181.524565719</v>
       </c>
       <c r="F40">
-        <v>49759.19310850119</v>
+        <v>50116.15437891586</v>
       </c>
       <c r="G40">
-        <v>235970.5490614741</v>
+        <v>237142.5061265378</v>
       </c>
       <c r="H40">
-        <v>168045.3161219121</v>
+        <v>165459.211540602</v>
       </c>
       <c r="I40">
-        <v>162135.1815261991</v>
+        <v>158722.313025117</v>
       </c>
       <c r="J40">
-        <v>3515429.767827001</v>
+        <v>4014108.007250196</v>
       </c>
       <c r="K40">
-        <v>97788.96069796568</v>
+        <v>97788.95631740541</v>
       </c>
       <c r="L40">
-        <v>133787</v>
+        <v>134755</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>19237.9316281858</v>
+        <v>19135.05177218995</v>
       </c>
       <c r="B41">
-        <v>86335.81906540769</v>
+        <v>84580.62915703424</v>
       </c>
       <c r="C41">
-        <v>105573.7506935935</v>
+        <v>103715.6809292242</v>
       </c>
       <c r="D41">
-        <v>578004.0350981368</v>
+        <v>591975.9787941677</v>
       </c>
       <c r="E41">
-        <v>658908.4154157559</v>
+        <v>668876.0310079518</v>
       </c>
       <c r="F41">
-        <v>100251.9036547848</v>
+        <v>101965.3754330402</v>
       </c>
       <c r="G41">
-        <v>477752.131443352</v>
+        <v>490010.6033611275</v>
       </c>
       <c r="H41">
-        <v>337091.4354620817</v>
+        <v>339439.4693037522</v>
       </c>
       <c r="I41">
-        <v>321816.9799536742</v>
+        <v>329436.5617041996</v>
       </c>
       <c r="J41">
-        <v>7075214.645860904</v>
+        <v>8202817.651496796</v>
       </c>
       <c r="K41">
-        <v>197752.9330215742</v>
+        <v>197753.2976335009</v>
       </c>
       <c r="L41">
-        <v>270402</v>
+        <v>273038</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10099.79648181189</v>
+        <v>10441.90547207859</v>
       </c>
       <c r="B42">
-        <v>45417.20812135662</v>
+        <v>47860.69093286527</v>
       </c>
       <c r="C42">
-        <v>55517.00460316851</v>
+        <v>58302.59640494386</v>
       </c>
       <c r="D42">
-        <v>327576.4458932886</v>
+        <v>326881.4765778525</v>
       </c>
       <c r="E42">
-        <v>372897.2463109736</v>
+        <v>376588.0462543033</v>
       </c>
       <c r="F42">
-        <v>56902.54331409623</v>
+        <v>57202.0485523474</v>
       </c>
       <c r="G42">
-        <v>270673.9025791924</v>
+        <v>269679.4280255051</v>
       </c>
       <c r="H42">
-        <v>190359.0509293341</v>
+        <v>191305.6836015199</v>
       </c>
       <c r="I42">
-        <v>182538.1953816396</v>
+        <v>185282.3626527834</v>
       </c>
       <c r="J42">
-        <v>4022519.714840764</v>
+        <v>4659544.98228083</v>
       </c>
       <c r="K42">
-        <v>112253.3519454497</v>
+        <v>112252.9067368</v>
       </c>
       <c r="L42">
-        <v>153290</v>
+        <v>154695</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>77555.35135626451</v>
+        <v>80228.87527480653</v>
       </c>
       <c r="C43">
-        <v>77555.35135626451</v>
+        <v>80228.87527480653</v>
       </c>
       <c r="D43">
-        <v>458184.5978078013</v>
+        <v>455881.5306903064</v>
       </c>
       <c r="E43">
-        <v>526425.1531365576</v>
+        <v>523925.8673350819</v>
       </c>
       <c r="F43">
-        <v>80273.48377329274</v>
+        <v>79197.62009333837</v>
       </c>
       <c r="G43">
-        <v>377911.1140345086</v>
+        <v>376683.910596968</v>
       </c>
       <c r="H43">
-        <v>266452.2325022545</v>
+        <v>267446.9694851151</v>
       </c>
       <c r="I43">
-        <v>259972.920634303</v>
+        <v>256478.8978499667</v>
       </c>
       <c r="J43">
-        <v>5605728.420586135</v>
+        <v>6501337.837063446</v>
       </c>
       <c r="K43">
-        <v>156449.9603086867</v>
+        <v>156449.7296201</v>
       </c>
       <c r="L43">
-        <v>215696</v>
+        <v>217780</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>50841.20754754891</v>
+        <v>52946.94957364434</v>
       </c>
       <c r="C44">
-        <v>50841.20754754891</v>
+        <v>52946.94957364434</v>
       </c>
       <c r="D44">
-        <v>287296.2365843028</v>
+        <v>292089.9518467804</v>
       </c>
       <c r="E44">
-        <v>330338.8457769297</v>
+        <v>340569.0585628519</v>
       </c>
       <c r="F44">
-        <v>50511.6525541681</v>
+        <v>51037.81836972358</v>
       </c>
       <c r="G44">
-        <v>236784.5840301347</v>
+        <v>241052.1334770568</v>
       </c>
       <c r="H44">
-        <v>169465.3777769985</v>
+        <v>174328.5391616838</v>
       </c>
       <c r="I44">
-        <v>160873.4679999312</v>
+        <v>166240.5194011681</v>
       </c>
       <c r="J44">
-        <v>3558996.019658071</v>
+        <v>4122036.85068489</v>
       </c>
       <c r="K44">
-        <v>99098.93814531692</v>
+        <v>99099.22335219255</v>
       </c>
       <c r="L44">
-        <v>136672</v>
+        <v>137882</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>38325.11533777109</v>
+        <v>38760.62282555551</v>
       </c>
       <c r="C45">
-        <v>38325.11533777109</v>
+        <v>38760.62282555551</v>
       </c>
       <c r="D45">
-        <v>213866.108615635</v>
+        <v>212665.9406658744</v>
       </c>
       <c r="E45">
-        <v>245466.2253567119</v>
+        <v>249598.5075139883</v>
       </c>
       <c r="F45">
-        <v>37596.53845421792</v>
+        <v>36435.06212181254</v>
       </c>
       <c r="G45">
-        <v>176269.5701614171</v>
+        <v>176230.8785440619</v>
       </c>
       <c r="H45">
-        <v>124660.5264723217</v>
+        <v>127230.8625636044</v>
       </c>
       <c r="I45">
-        <v>120805.6988843902</v>
+        <v>122367.6449503839</v>
       </c>
       <c r="J45">
-        <v>2655149.668738209</v>
+        <v>3055651.620798493</v>
       </c>
       <c r="K45">
-        <v>74157.95612732957</v>
+        <v>74157.89647971264</v>
       </c>
       <c r="L45">
-        <v>102296</v>
+        <v>103265</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2707.000622610085</v>
+        <v>2596.121040673658</v>
       </c>
       <c r="C46">
-        <v>2707.000622610085</v>
+        <v>2596.121040673658</v>
       </c>
       <c r="D46">
-        <v>15135.10086946179</v>
+        <v>15008.28457858934</v>
       </c>
       <c r="E46">
-        <v>17479.85990790222</v>
+        <v>17278.47043319484</v>
       </c>
       <c r="F46">
-        <v>2635.368475687335</v>
+        <v>2616.941199686737</v>
       </c>
       <c r="G46">
-        <v>12499.73239377446</v>
+        <v>12391.3433789026</v>
       </c>
       <c r="H46">
-        <v>8895.48930448074</v>
+        <v>8823.000499917162</v>
       </c>
       <c r="I46">
-        <v>8584.370603421476</v>
+        <v>8455.469933277676</v>
       </c>
       <c r="J46">
-        <v>186224.3664436858</v>
+        <v>217242.9764589302</v>
       </c>
       <c r="K46">
-        <v>5227.123597407967</v>
+        <v>5226.772136371216</v>
       </c>
       <c r="L46">
-        <v>7203</v>
+        <v>7279</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>184704.8202986962</v>
+        <v>181506.4466806354</v>
       </c>
       <c r="C47">
-        <v>184704.8202986962</v>
+        <v>181506.4466806354</v>
       </c>
       <c r="D47">
-        <v>298847.7627076718</v>
+        <v>290500.1920754188</v>
       </c>
       <c r="E47">
-        <v>403297.5858889882</v>
+        <v>413996.0090383071</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>298847.7627076718</v>
+        <v>290500.1920754188</v>
       </c>
       <c r="H47">
-        <v>243441.3536345695</v>
+        <v>250857.4189138551</v>
       </c>
       <c r="I47">
-        <v>159856.2322544187</v>
+        <v>163138.590124452</v>
       </c>
       <c r="J47">
-        <v>8074663.814485881</v>
+        <v>9389420.694054518</v>
       </c>
       <c r="K47">
-        <v>165878.7468564576</v>
+        <v>165878.9900680181</v>
       </c>
       <c r="L47">
-        <v>239489</v>
+        <v>245103</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>9782.835549040403</v>
+        <v>10032.092284964</v>
       </c>
       <c r="B48">
-        <v>121536.0944358719</v>
+        <v>120675.5132390376</v>
       </c>
       <c r="C48">
-        <v>131318.9299849123</v>
+        <v>130707.6055240016</v>
       </c>
       <c r="D48">
-        <v>216837.4949251448</v>
+        <v>222905.0916518674</v>
       </c>
       <c r="E48">
-        <v>287377.331004182</v>
+        <v>292864.4888484029</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>216837.4949251448</v>
+        <v>222905.0916518674</v>
       </c>
       <c r="H48">
-        <v>174365.4966422553</v>
+        <v>175095.4031197324</v>
       </c>
       <c r="I48">
-        <v>113011.8343619267</v>
+        <v>117769.0857286705</v>
       </c>
       <c r="J48">
-        <v>5927193.987657796</v>
+        <v>6855378.835810666</v>
       </c>
       <c r="K48">
-        <v>121111.6910282894</v>
+        <v>121111.9794242337</v>
       </c>
       <c r="L48">
-        <v>173695</v>
+        <v>177163</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>25671.82079061461</v>
+        <v>26545.25782756653</v>
       </c>
       <c r="B49">
-        <v>335215.0905726545</v>
+        <v>326522.6791430357</v>
       </c>
       <c r="C49">
-        <v>360886.9113632691</v>
+        <v>353067.9369706022</v>
       </c>
       <c r="D49">
-        <v>590594.8997931735</v>
+        <v>587312.9586719746</v>
       </c>
       <c r="E49">
-        <v>782383.7861894454</v>
+        <v>786234.6815904699</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>590594.8997931735</v>
+        <v>587312.9586719746</v>
       </c>
       <c r="H49">
-        <v>469135.5469528096</v>
+        <v>474335.4868990091</v>
       </c>
       <c r="I49">
-        <v>313248.2392366359</v>
+        <v>311899.1946914608</v>
       </c>
       <c r="J49">
-        <v>16038064.8969848</v>
+        <v>18411495.17953369</v>
       </c>
       <c r="K49">
-        <v>325761.3320108459</v>
+        <v>325760.7310908029</v>
       </c>
       <c r="L49">
-        <v>467108</v>
+        <v>477453</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>28697.3087340693</v>
+        <v>26867.38726851547</v>
       </c>
       <c r="B50">
-        <v>343170.2933895682</v>
+        <v>339761.2515191131</v>
       </c>
       <c r="C50">
-        <v>371867.6021236376</v>
+        <v>366628.6387876286</v>
       </c>
       <c r="D50">
-        <v>589739.5931794008</v>
+        <v>596171.8247887273</v>
       </c>
       <c r="E50">
-        <v>809080.9886928209</v>
+        <v>789743.8783601561</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>589739.5931794008</v>
+        <v>596171.8247887273</v>
       </c>
       <c r="H50">
-        <v>487452.5055172832</v>
+        <v>475987.9910324039</v>
       </c>
       <c r="I50">
-        <v>321628.4831755377</v>
+        <v>313755.8873277523</v>
       </c>
       <c r="J50">
-        <v>16070347.29207496</v>
+        <v>18629310.36020796</v>
       </c>
       <c r="K50">
-        <v>328834.3492678895</v>
+        <v>328833.6998536307</v>
       </c>
       <c r="L50">
-        <v>470364</v>
+        <v>481205</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>33626.43180272603</v>
+        <v>31258.72358463922</v>
       </c>
       <c r="B51">
-        <v>405835.2031204291</v>
+        <v>393343.5401041023</v>
       </c>
       <c r="C51">
-        <v>439461.6349231551</v>
+        <v>424602.2636887415</v>
       </c>
       <c r="D51">
-        <v>702122.1426282763</v>
+        <v>724085.4867303472</v>
       </c>
       <c r="E51">
-        <v>943286.5999274444</v>
+        <v>969453.6507153224</v>
       </c>
       <c r="F51">
-        <v>91443.28176022702</v>
+        <v>90019.77302698979</v>
       </c>
       <c r="G51">
-        <v>610678.8608680492</v>
+        <v>634065.7137033574</v>
       </c>
       <c r="H51">
-        <v>564840.8982462616</v>
+        <v>584980.7290292105</v>
       </c>
       <c r="I51">
-        <v>378445.7016811827</v>
+        <v>384472.9216861117</v>
       </c>
       <c r="J51">
-        <v>19191549.30389414</v>
+        <v>22220723.35731319</v>
       </c>
       <c r="K51">
-        <v>392265.0880501599</v>
+        <v>392265.1303784467</v>
       </c>
       <c r="L51">
-        <v>557821</v>
+        <v>568985</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>22594.6170655043</v>
+        <v>22582.25505159403</v>
       </c>
       <c r="B52">
-        <v>292295.1961026132</v>
+        <v>291918.6699247118</v>
       </c>
       <c r="C52">
-        <v>314889.8131681175</v>
+        <v>314500.9249763059</v>
       </c>
       <c r="D52">
-        <v>512983.9480888137</v>
+        <v>510731.7180067171</v>
       </c>
       <c r="E52">
-        <v>688501.3185109564</v>
+        <v>663443.812830504</v>
       </c>
       <c r="F52">
-        <v>66712.26233166277</v>
+        <v>64391.72908044492</v>
       </c>
       <c r="G52">
-        <v>446271.6857571509</v>
+        <v>446339.9889262721</v>
       </c>
       <c r="H52">
-        <v>415265.5138650205</v>
+        <v>400696.7737865809</v>
       </c>
       <c r="I52">
-        <v>273235.8046459358</v>
+        <v>262747.0390439232</v>
       </c>
       <c r="J52">
-        <v>13734143.41324771</v>
+        <v>15883797.42085865</v>
       </c>
       <c r="K52">
-        <v>281796.0401540478</v>
+        <v>281795.7268189031</v>
       </c>
       <c r="L52">
-        <v>399816</v>
+        <v>408706</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>24520.43146336233</v>
+        <v>25290.25656495282</v>
       </c>
       <c r="B53">
-        <v>303985.0822993457</v>
+        <v>317717.0472998383</v>
       </c>
       <c r="C53">
-        <v>328505.5137627081</v>
+        <v>343007.3038647912</v>
       </c>
       <c r="D53">
-        <v>538037.9796820598</v>
+        <v>552894.8016014899</v>
       </c>
       <c r="E53">
-        <v>730362.6886847562</v>
+        <v>736937.3529682267</v>
       </c>
       <c r="F53">
-        <v>67998.49230100693</v>
+        <v>70909.17232954297</v>
       </c>
       <c r="G53">
-        <v>470039.4873810529</v>
+        <v>481985.6292719469</v>
       </c>
       <c r="H53">
-        <v>439487.5096614413</v>
+        <v>444291.6154511231</v>
       </c>
       <c r="I53">
-        <v>290875.1790233148</v>
+        <v>292645.7375171036</v>
       </c>
       <c r="J53">
-        <v>15283861.60608344</v>
+        <v>17754238.13837216</v>
       </c>
       <c r="K53">
-        <v>310511.2208694117</v>
+        <v>310511.092331712</v>
       </c>
       <c r="L53">
-        <v>441690</v>
+        <v>451660</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>47325.16123345102</v>
+        <v>48230.02449837765</v>
       </c>
       <c r="B54">
-        <v>568200.9445967968</v>
+        <v>585901.9080983383</v>
       </c>
       <c r="C54">
-        <v>615526.1058302477</v>
+        <v>634131.932596716</v>
       </c>
       <c r="D54">
-        <v>1027611.611869206</v>
+        <v>1037719.332762142</v>
       </c>
       <c r="E54">
-        <v>1348974.075782224</v>
+        <v>1415208.554812588</v>
       </c>
       <c r="F54">
-        <v>131664.1066266816</v>
+        <v>133956.0426220091</v>
       </c>
       <c r="G54">
-        <v>895947.5052425241</v>
+        <v>903763.2901401327</v>
       </c>
       <c r="H54">
-        <v>818099.7590022276</v>
+        <v>853611.8916990672</v>
       </c>
       <c r="I54">
-        <v>530874.316779996</v>
+        <v>561596.6631135204</v>
       </c>
       <c r="J54">
-        <v>28013792.71429519</v>
+        <v>32272255.70633464</v>
       </c>
       <c r="K54">
-        <v>570649.2715178831</v>
+        <v>570648.788948491</v>
       </c>
       <c r="L54">
-        <v>812680</v>
+        <v>827712</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>51547.93595432705</v>
+        <v>50046.91912470134</v>
       </c>
       <c r="B55">
-        <v>636194.854815676</v>
+        <v>648660.8332976685</v>
       </c>
       <c r="C55">
-        <v>687742.7907700031</v>
+        <v>698707.7524223699</v>
       </c>
       <c r="D55">
-        <v>1124239.073209306</v>
+        <v>1164853.451060885</v>
       </c>
       <c r="E55">
-        <v>1515571.732383247</v>
+        <v>1545322.653290733</v>
       </c>
       <c r="F55">
-        <v>145758.6442513971</v>
+        <v>148978.078617634</v>
       </c>
       <c r="G55">
-        <v>978480.4289579088</v>
+        <v>1015875.372443251</v>
       </c>
       <c r="H55">
-        <v>912994.8436591208</v>
+        <v>930050.9397990182</v>
       </c>
       <c r="I55">
-        <v>602576.8887241259</v>
+        <v>615271.7134917146</v>
       </c>
       <c r="J55">
-        <v>31290303.0994438</v>
+        <v>36426427.09339508</v>
       </c>
       <c r="K55">
-        <v>638666.1281895601</v>
+        <v>638665.6656819911</v>
       </c>
       <c r="L55">
-        <v>906607</v>
+        <v>928722</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>34891.30291718465</v>
+        <v>32131.19271915247</v>
       </c>
       <c r="B56">
-        <v>416010.3116608642</v>
+        <v>408769.4698316167</v>
       </c>
       <c r="C56">
-        <v>450901.6145780489</v>
+        <v>440900.6625507692</v>
       </c>
       <c r="D56">
-        <v>739871.4327701745</v>
+        <v>722010.0373466265</v>
       </c>
       <c r="E56">
-        <v>1008501.809393647</v>
+        <v>999818.9868867429</v>
       </c>
       <c r="F56">
-        <v>105341.8610704619</v>
+        <v>105761.0543939619</v>
       </c>
       <c r="G56">
-        <v>634529.5716997125</v>
+        <v>616248.9829526647</v>
       </c>
       <c r="H56">
-        <v>609322.039674217</v>
+        <v>603523.1224503494</v>
       </c>
       <c r="I56">
-        <v>399179.76971943</v>
+        <v>396295.8644363935</v>
       </c>
       <c r="J56">
-        <v>20293977.19041806</v>
+        <v>23371218.3488175</v>
       </c>
       <c r="K56">
-        <v>412477.9987823464</v>
+        <v>412477.9658616901</v>
       </c>
       <c r="L56">
-        <v>585611</v>
+        <v>598648</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>52165.77810991672</v>
+        <v>48792.35194814666</v>
       </c>
       <c r="B57">
-        <v>647572.8321382503</v>
+        <v>609221.6471646192</v>
       </c>
       <c r="C57">
-        <v>699738.6102481671</v>
+        <v>658013.9991127659</v>
       </c>
       <c r="D57">
-        <v>1099177.580148036</v>
+        <v>1163199.988902417</v>
       </c>
       <c r="E57">
-        <v>1519960.727519263</v>
+        <v>1478894.031509589</v>
       </c>
       <c r="F57">
-        <v>158176.3886292635</v>
+        <v>165726.7885965422</v>
       </c>
       <c r="G57">
-        <v>941001.1915187727</v>
+        <v>997473.2003058754</v>
       </c>
       <c r="H57">
-        <v>910916.9528779166</v>
+        <v>896999.6514537543</v>
       </c>
       <c r="I57">
-        <v>609043.7746413461</v>
+        <v>581894.3800558343</v>
       </c>
       <c r="J57">
-        <v>30238849.28222</v>
+        <v>34880265.319212</v>
       </c>
       <c r="K57">
-        <v>619089.7643933077</v>
+        <v>619090.2943601047</v>
       </c>
       <c r="L57">
-        <v>878349</v>
+        <v>899215</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>214560.6901480384</v>
+        <v>215459.1015706914</v>
       </c>
       <c r="C58">
-        <v>214560.6901480384</v>
+        <v>215459.1015706914</v>
       </c>
       <c r="D58">
-        <v>353378.7401779437</v>
+        <v>348333.9671665104</v>
       </c>
       <c r="E58">
-        <v>497753.0722272138</v>
+        <v>482013.570369163</v>
       </c>
       <c r="F58">
-        <v>49234.85217154843</v>
+        <v>49828.46904667016</v>
       </c>
       <c r="G58">
-        <v>304143.8880063953</v>
+        <v>298505.4981198402</v>
       </c>
       <c r="H58">
-        <v>298807.5253944777</v>
+        <v>290617.2333084352</v>
       </c>
       <c r="I58">
-        <v>198945.5468327361</v>
+        <v>191396.3370607278</v>
       </c>
       <c r="J58">
-        <v>9761521.203281881</v>
+        <v>11413245.8074036</v>
       </c>
       <c r="K58">
-        <v>199388.2078718236</v>
+        <v>199388.2262062575</v>
       </c>
       <c r="L58">
-        <v>285580</v>
+        <v>292008</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>122541.6675782637</v>
+        <v>119076.4489557322</v>
       </c>
       <c r="C59">
-        <v>122541.6675782637</v>
+        <v>119076.4489557322</v>
       </c>
       <c r="D59">
-        <v>200862.6614073705</v>
+        <v>201783.2871565845</v>
       </c>
       <c r="E59">
-        <v>282727.3792524886</v>
+        <v>278717.9464942723</v>
       </c>
       <c r="F59">
-        <v>28471.1779567904</v>
+        <v>28918.34537651825</v>
       </c>
       <c r="G59">
-        <v>172391.4834505801</v>
+        <v>172864.9417800663</v>
       </c>
       <c r="H59">
-        <v>169323.2673891018</v>
+        <v>168232.2958579155</v>
       </c>
       <c r="I59">
-        <v>113404.1118633868</v>
+        <v>110485.6506363568</v>
       </c>
       <c r="J59">
-        <v>5565580.465857097</v>
+        <v>6450393.448836398</v>
       </c>
       <c r="K59">
-        <v>113273.3274396352</v>
+        <v>113273.2892789492</v>
       </c>
       <c r="L59">
-        <v>162382</v>
+        <v>165929</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>193786.6767267543</v>
+        <v>186634.5220867879</v>
       </c>
       <c r="C60">
-        <v>193786.6767267543</v>
+        <v>186634.5220867879</v>
       </c>
       <c r="D60">
-        <v>320181.2213945545</v>
+        <v>323925.2096030876</v>
       </c>
       <c r="E60">
-        <v>417998.0758523126</v>
+        <v>418011.346454115</v>
       </c>
       <c r="F60">
-        <v>46322.52811076216</v>
+        <v>46413.35412061491</v>
       </c>
       <c r="G60">
-        <v>273858.6932837923</v>
+        <v>277511.8554824727</v>
       </c>
       <c r="H60">
-        <v>252209.1026060203</v>
+        <v>250978.4796796456</v>
       </c>
       <c r="I60">
-        <v>165788.9732462923</v>
+        <v>167032.8667744694</v>
       </c>
       <c r="J60">
-        <v>8595311.396182291</v>
+        <v>9954389.157652196</v>
       </c>
       <c r="K60">
-        <v>175785.8654964182</v>
+        <v>175785.8446954546</v>
       </c>
       <c r="L60">
-        <v>251693</v>
+        <v>257523</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>93069.2145363897</v>
+        <v>96701.63854305074</v>
       </c>
       <c r="C61">
-        <v>93069.2145363897</v>
+        <v>96701.63854305074</v>
       </c>
       <c r="D61">
-        <v>157494.1252633532</v>
+        <v>155560.9612359914</v>
       </c>
       <c r="E61">
-        <v>213777.1657993465</v>
+        <v>208572.3274449288</v>
       </c>
       <c r="F61">
-        <v>22720.47518124653</v>
+        <v>22059.37596070559</v>
       </c>
       <c r="G61">
-        <v>134773.6500821066</v>
+        <v>133501.5852752858</v>
       </c>
       <c r="H61">
-        <v>127076.9116620107</v>
+        <v>125761.8878004536</v>
       </c>
       <c r="I61">
-        <v>86700.25413733581</v>
+        <v>82810.43964447525</v>
       </c>
       <c r="J61">
-        <v>4287282.054515596</v>
+        <v>4908870.461557509</v>
       </c>
       <c r="K61">
-        <v>86887.34783371167</v>
+        <v>86886.74522110511</v>
       </c>
       <c r="L61">
-        <v>124447</v>
+        <v>127014</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6646.868115368478</v>
+        <v>6678.417180734326</v>
       </c>
       <c r="C62">
-        <v>6646.868115368478</v>
+        <v>6678.417180734326</v>
       </c>
       <c r="D62">
-        <v>11081.06621697109</v>
+        <v>11445.98307998731</v>
       </c>
       <c r="E62">
-        <v>14861.19716072017</v>
+        <v>15290.93990145033</v>
       </c>
       <c r="F62">
-        <v>1620.325455402884</v>
+        <v>1625.352832473365</v>
       </c>
       <c r="G62">
-        <v>9460.740761568202</v>
+        <v>9820.630247513946</v>
       </c>
       <c r="H62">
-        <v>8960.503352248163</v>
+        <v>9282.556750150598</v>
       </c>
       <c r="I62">
-        <v>5900.69380847201</v>
+        <v>6008.383151299737</v>
       </c>
       <c r="J62">
-        <v>304404.3976917912</v>
+        <v>354202.623331062</v>
       </c>
       <c r="K62">
-        <v>6204.053451006506</v>
+        <v>6204.067478568066</v>
       </c>
       <c r="L62">
-        <v>8896</v>
+        <v>9097</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2730.803529643622</v>
+        <v>2799.700142528852</v>
       </c>
       <c r="C63">
-        <v>2730.803529643622</v>
+        <v>2799.700142528852</v>
       </c>
       <c r="D63">
-        <v>4417.660079273555</v>
+        <v>4585.649876449388</v>
       </c>
       <c r="E63">
-        <v>6105.013405283378</v>
+        <v>6058.507152247829</v>
       </c>
       <c r="F63">
-        <v>649.2524671428718</v>
+        <v>673.5471149582302</v>
       </c>
       <c r="G63">
-        <v>3768.407612130683</v>
+        <v>3912.102761491158</v>
       </c>
       <c r="H63">
-        <v>3702.589582563476</v>
+        <v>3639.607952488361</v>
       </c>
       <c r="I63">
-        <v>2402.423822719903</v>
+        <v>2418.899199759469</v>
       </c>
       <c r="J63">
-        <v>123807.7618792032</v>
+        <v>143558.735380559</v>
       </c>
       <c r="K63">
-        <v>2506.101197960989</v>
+        <v>2506.141226698304</v>
       </c>
       <c r="L63">
-        <v>3594</v>
+        <v>3672</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4671.415780445144</v>
+        <v>4522.26808138404</v>
       </c>
       <c r="C64">
-        <v>4671.415780445144</v>
+        <v>4522.26808138404</v>
       </c>
       <c r="D64">
-        <v>3335.068473530795</v>
+        <v>3416.530613170188</v>
       </c>
       <c r="E64">
-        <v>119.8600876786318</v>
+        <v>162.674256029114</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3335.068473530795</v>
+        <v>3416.530613170188</v>
       </c>
       <c r="H64">
-        <v>61.87354552574548</v>
+        <v>77.29181796442943</v>
       </c>
       <c r="I64">
-        <v>57.98654215288628</v>
+        <v>85.38243806468454</v>
       </c>
       <c r="J64">
-        <v>90490.04191041829</v>
+        <v>106213.2707879481</v>
       </c>
       <c r="K64">
-        <v>1879.079376501274</v>
+        <v>1878.962193845118</v>
       </c>
       <c r="L64">
-        <v>2718</v>
+        <v>2755</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>48827.49289801166</v>
+        <v>48736.6965505232</v>
       </c>
       <c r="C65">
-        <v>48827.49289801166</v>
+        <v>48736.6965505232</v>
       </c>
       <c r="D65">
-        <v>34919.80153974074</v>
+        <v>35306.51922878059</v>
       </c>
       <c r="E65">
-        <v>1253.77781815877</v>
+        <v>1113.043194010003</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>34919.80153974074</v>
+        <v>35306.51922878059</v>
       </c>
       <c r="H65">
-        <v>595.631989777406</v>
+        <v>585.2732391570087</v>
       </c>
       <c r="I65">
-        <v>658.1458283813638</v>
+        <v>527.769954852994</v>
       </c>
       <c r="J65">
-        <v>957469.6754208618</v>
+        <v>1103748.536632351</v>
       </c>
       <c r="K65">
-        <v>19681.67639159461</v>
+        <v>19682.23381957425</v>
       </c>
       <c r="L65">
-        <v>28498</v>
+        <v>28846</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>51952.5391512728</v>
+        <v>53639.82513446531</v>
       </c>
       <c r="C66">
-        <v>51952.5391512728</v>
+        <v>53639.82513446531</v>
       </c>
       <c r="D66">
-        <v>38011.97357775388</v>
+        <v>38128.42915722548</v>
       </c>
       <c r="E66">
-        <v>1153.986763714734</v>
+        <v>1151.255264139655</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>38011.97357775388</v>
+        <v>38128.42915722548</v>
       </c>
       <c r="H66">
-        <v>554.3374425156055</v>
+        <v>535.6107881465376</v>
       </c>
       <c r="I66">
-        <v>599.6493211991286</v>
+        <v>615.6444759931177</v>
       </c>
       <c r="J66">
-        <v>1031775.65109883</v>
+        <v>1202346.997556893</v>
       </c>
       <c r="K66">
-        <v>21218.95329317724</v>
+        <v>21218.86640285792</v>
       </c>
       <c r="L66">
-        <v>30728</v>
+        <v>31120</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>88737.46795848677</v>
+        <v>89968.18816117304</v>
       </c>
       <c r="B67">
-        <v>605426.5533996221</v>
+        <v>606344.9221913087</v>
       </c>
       <c r="C67">
-        <v>694164.0213581088</v>
+        <v>696313.1103524817</v>
       </c>
       <c r="D67">
-        <v>485171.3305177592</v>
+        <v>505951.9780172119</v>
       </c>
       <c r="E67">
-        <v>16570.5180083004</v>
+        <v>17224.39055292103</v>
       </c>
       <c r="F67">
-        <v>178599.5107457328</v>
+        <v>186871.3898910055</v>
       </c>
       <c r="G67">
-        <v>306571.8197720264</v>
+        <v>319080.5881262065</v>
       </c>
       <c r="H67">
-        <v>7611.121132346801</v>
+        <v>8407.508319061957</v>
       </c>
       <c r="I67">
-        <v>8959.3968759536</v>
+        <v>8816.882233859071</v>
       </c>
       <c r="J67">
-        <v>13476349.99308798</v>
+        <v>15768927.79887228</v>
       </c>
       <c r="K67">
-        <v>279228.1670376147</v>
+        <v>279227.9617623471</v>
       </c>
       <c r="L67">
-        <v>386807</v>
+        <v>392518</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>98395.40586420195</v>
+        <v>96662.44325120843</v>
       </c>
       <c r="B68">
-        <v>661773.5131896158</v>
+        <v>661557.5504520932</v>
       </c>
       <c r="C68">
-        <v>760168.9190538177</v>
+        <v>758219.9937033016</v>
       </c>
       <c r="D68">
-        <v>541436.2542311968</v>
+        <v>536342.4708432481</v>
       </c>
       <c r="E68">
-        <v>20934.38782153001</v>
+        <v>22523.22859128586</v>
       </c>
       <c r="F68">
-        <v>196841.7909989168</v>
+        <v>199143.2642304059</v>
       </c>
       <c r="G68">
-        <v>344594.46323228</v>
+        <v>337199.2066128422</v>
       </c>
       <c r="H68">
-        <v>10054.60543799386</v>
+        <v>10752.4603660896</v>
       </c>
       <c r="I68">
-        <v>10879.78238353615</v>
+        <v>11770.76822519626</v>
       </c>
       <c r="J68">
-        <v>14487223.32453752</v>
+        <v>16926350.48754835</v>
       </c>
       <c r="K68">
-        <v>299791.9065051209</v>
+        <v>299792.2918265261</v>
       </c>
       <c r="L68">
-        <v>415531</v>
+        <v>419674</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>218023.0734209872</v>
+        <v>206028.905628933</v>
       </c>
       <c r="B69">
-        <v>1485109.8025215</v>
+        <v>1434678.96266793</v>
       </c>
       <c r="C69">
-        <v>1703132.875942488</v>
+        <v>1640707.868296863</v>
       </c>
       <c r="D69">
-        <v>1191568.783280786</v>
+        <v>1174770.221783966</v>
       </c>
       <c r="E69">
-        <v>40762.32040537315</v>
+        <v>44706.67252122694</v>
       </c>
       <c r="F69">
-        <v>443433.646989574</v>
+        <v>426491.5592340069</v>
       </c>
       <c r="G69">
-        <v>748135.1362912121</v>
+        <v>748278.6625499587</v>
       </c>
       <c r="H69">
-        <v>19640.13360898589</v>
+        <v>20582.31776513113</v>
       </c>
       <c r="I69">
-        <v>21122.18679638725</v>
+        <v>24124.35475609581</v>
       </c>
       <c r="J69">
-        <v>32290904.10078267</v>
+        <v>37310462.53429858</v>
       </c>
       <c r="K69">
-        <v>665261.7226522746</v>
+        <v>665262.1373139905</v>
       </c>
       <c r="L69">
-        <v>920027</v>
+        <v>934166</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>181008.0011486825</v>
+        <v>178659.3774158211</v>
       </c>
       <c r="B70">
-        <v>1240653.354347659</v>
+        <v>1222258.680765358</v>
       </c>
       <c r="C70">
-        <v>1421661.355496342</v>
+        <v>1400918.058181179</v>
       </c>
       <c r="D70">
-        <v>1054728.235728632</v>
+        <v>1021398.95180531</v>
       </c>
       <c r="E70">
-        <v>36741.4236389501</v>
+        <v>45799.45277376433</v>
       </c>
       <c r="F70">
-        <v>184791.3457076431</v>
+        <v>181897.4053422239</v>
       </c>
       <c r="G70">
-        <v>869936.890020989</v>
+        <v>839501.5464630863</v>
       </c>
       <c r="H70">
-        <v>17923.27102539032</v>
+        <v>21508.87768143087</v>
       </c>
       <c r="I70">
-        <v>18818.15261355977</v>
+        <v>24290.57509233346</v>
       </c>
       <c r="J70">
-        <v>27785363.91815083</v>
+        <v>32067675.90844336</v>
       </c>
       <c r="K70">
-        <v>572384.6723914024</v>
+        <v>572384.8410246187</v>
       </c>
       <c r="L70">
-        <v>797111</v>
+        <v>805412</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>269395.1820160602</v>
+        <v>269108.3642899773</v>
       </c>
       <c r="B71">
-        <v>1836046.620900343</v>
+        <v>1831733.594590109</v>
       </c>
       <c r="C71">
-        <v>2105441.802916403</v>
+        <v>2100841.958880086</v>
       </c>
       <c r="D71">
-        <v>1529796.508380055</v>
+        <v>1542290.673926798</v>
       </c>
       <c r="E71">
-        <v>54619.72477008437</v>
+        <v>48820.35086412607</v>
       </c>
       <c r="F71">
-        <v>272174.0955054877</v>
+        <v>275550.2876511675</v>
       </c>
       <c r="G71">
-        <v>1257622.412874567</v>
+        <v>1266740.386275631</v>
       </c>
       <c r="H71">
-        <v>26126.1057227107</v>
+        <v>23662.33491491662</v>
       </c>
       <c r="I71">
-        <v>28493.61904737367</v>
+        <v>25158.01594920945</v>
       </c>
       <c r="J71">
-        <v>40608981.52981041</v>
+        <v>47324040.64724104</v>
       </c>
       <c r="K71">
-        <v>833641.1380590337</v>
+        <v>833641.023678995</v>
       </c>
       <c r="L71">
-        <v>1157000</v>
+        <v>1173015</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>216209.973235106</v>
+        <v>213778.0227006151</v>
       </c>
       <c r="B72">
-        <v>1485023.859644875</v>
+        <v>1445695.377537921</v>
       </c>
       <c r="C72">
-        <v>1701233.832879981</v>
+        <v>1659473.400238537</v>
       </c>
       <c r="D72">
-        <v>1211200.625238103</v>
+        <v>1209809.96714841</v>
       </c>
       <c r="E72">
-        <v>48142.43697011809</v>
+        <v>39551.18481803566</v>
       </c>
       <c r="F72">
-        <v>220444.1260659054</v>
+        <v>219384.0933094539</v>
       </c>
       <c r="G72">
-        <v>990756.4991721979</v>
+        <v>990425.8738389558</v>
       </c>
       <c r="H72">
-        <v>23307.44530300498</v>
+        <v>18521.77945440979</v>
       </c>
       <c r="I72">
-        <v>24834.99166711311</v>
+        <v>21029.40536362586</v>
       </c>
       <c r="J72">
-        <v>33162829.70944293</v>
+        <v>37917716.0828329</v>
       </c>
       <c r="K72">
-        <v>679393.114728198</v>
+        <v>679392.9679336462</v>
       </c>
       <c r="L72">
-        <v>944554</v>
+        <v>955927</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>124265.4398497032</v>
+        <v>126438.9684469973</v>
       </c>
       <c r="B73">
-        <v>863254.9175705049</v>
+        <v>870748.6634590103</v>
       </c>
       <c r="C73">
-        <v>987520.357420208</v>
+        <v>997187.6319060075</v>
       </c>
       <c r="D73">
-        <v>672281.1820058984</v>
+        <v>680590.4566389949</v>
       </c>
       <c r="E73">
-        <v>23167.66083921057</v>
+        <v>25158.06633454301</v>
       </c>
       <c r="F73">
-        <v>123973.1130610592</v>
+        <v>123587.3525572622</v>
       </c>
       <c r="G73">
-        <v>548308.0689448392</v>
+        <v>557003.1040817328</v>
       </c>
       <c r="H73">
-        <v>10426.72175614349</v>
+        <v>12720.53095615522</v>
       </c>
       <c r="I73">
-        <v>12740.93908306708</v>
+        <v>12437.53537838779</v>
       </c>
       <c r="J73">
-        <v>18867165.11763959</v>
+        <v>21978655.09387879</v>
       </c>
       <c r="K73">
-        <v>389253.2998827411</v>
+        <v>389253.1494922691</v>
       </c>
       <c r="L73">
-        <v>542288</v>
+        <v>547736</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>171835.9481264849</v>
+        <v>174957.4134176878</v>
       </c>
       <c r="B74">
-        <v>1183377.415164302</v>
+        <v>1169763.999796016</v>
       </c>
       <c r="C74">
-        <v>1355213.363290787</v>
+        <v>1344721.413213704</v>
       </c>
       <c r="D74">
-        <v>967022.8619041021</v>
+        <v>945576.5674562152</v>
       </c>
       <c r="E74">
-        <v>34631.13553944635</v>
+        <v>29545.46959987011</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>967022.8619041021</v>
+        <v>945576.5674562152</v>
       </c>
       <c r="H74">
-        <v>16807.9571654762</v>
+        <v>14397.92809863342</v>
       </c>
       <c r="I74">
-        <v>17823.17837397015</v>
+        <v>15147.54150123668</v>
       </c>
       <c r="J74">
-        <v>26259341.20235883</v>
+        <v>30536112.297251</v>
       </c>
       <c r="K74">
-        <v>542235.0129320795</v>
+        <v>542234.8879863656</v>
       </c>
       <c r="L74">
-        <v>761928</v>
+        <v>771070</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>539549.2925190753</v>
+        <v>540265.0270245932</v>
       </c>
       <c r="C75">
-        <v>539549.2925190753</v>
+        <v>540265.0270245932</v>
       </c>
       <c r="D75">
-        <v>388322.0980424305</v>
+        <v>366985.5644697226</v>
       </c>
       <c r="E75">
-        <v>12768.10115500403</v>
+        <v>14729.91284091402</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>388322.0980424305</v>
+        <v>366985.5644697226</v>
       </c>
       <c r="H75">
-        <v>6060.553811733062</v>
+        <v>7128.055890928269</v>
       </c>
       <c r="I75">
-        <v>6707.547343270968</v>
+        <v>7601.856949985749</v>
       </c>
       <c r="J75">
-        <v>10580145.72739164</v>
+        <v>12199909.82235114</v>
       </c>
       <c r="K75">
-        <v>216446.9482799051</v>
+        <v>216447.3083510022</v>
       </c>
       <c r="L75">
-        <v>313482</v>
+        <v>317448</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>443768.8070068177</v>
+        <v>429889.7130455601</v>
       </c>
       <c r="C76">
-        <v>443768.8070068177</v>
+        <v>429889.7130455601</v>
       </c>
       <c r="D76">
-        <v>324121.0247242755</v>
+        <v>326567.2491122085</v>
       </c>
       <c r="E76">
-        <v>11513.82642251198</v>
+        <v>11545.08239871795</v>
       </c>
       <c r="F76">
-        <v>117916.1486682382</v>
+        <v>118952.1501340748</v>
       </c>
       <c r="G76">
-        <v>206204.8760560373</v>
+        <v>207615.0989781338</v>
       </c>
       <c r="H76">
-        <v>5546.357829860436</v>
+        <v>5416.478770404359</v>
       </c>
       <c r="I76">
-        <v>5967.468592651549</v>
+        <v>6128.603628313588</v>
       </c>
       <c r="J76">
-        <v>8564323.096617786</v>
+        <v>10030841.99331835</v>
       </c>
       <c r="K76">
-        <v>176525.7509591447</v>
+        <v>176525.6967929828</v>
       </c>
       <c r="L76">
-        <v>251814</v>
+        <v>254756</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>236044.331307675</v>
+        <v>236582.8544822856</v>
       </c>
       <c r="C77">
-        <v>236044.331307675</v>
+        <v>236582.8544822856</v>
       </c>
       <c r="D77">
-        <v>168552.5694050529</v>
+        <v>174164.4217421163</v>
       </c>
       <c r="E77">
-        <v>5669.068971091647</v>
+        <v>6797.292156348714</v>
       </c>
       <c r="F77">
-        <v>62831.55035780288</v>
+        <v>64634.60753142541</v>
       </c>
       <c r="G77">
-        <v>105721.01904725</v>
+        <v>109529.8142106909</v>
       </c>
       <c r="H77">
-        <v>2571.399442004458</v>
+        <v>3085.030378657784</v>
       </c>
       <c r="I77">
-        <v>3097.669529087188</v>
+        <v>3712.261777690931</v>
       </c>
       <c r="J77">
-        <v>4615820.750190455</v>
+        <v>5327828.67687487</v>
       </c>
       <c r="K77">
-        <v>94797.74093439979</v>
+        <v>94797.71652428979</v>
       </c>
       <c r="L77">
-        <v>135207</v>
+        <v>136663</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>418330.5240318834</v>
+        <v>422842.432162873</v>
       </c>
       <c r="C78">
-        <v>418330.5240318834</v>
+        <v>422842.432162873</v>
       </c>
       <c r="D78">
-        <v>308128.4586857843</v>
+        <v>296583.139316932</v>
       </c>
       <c r="E78">
-        <v>9959.827338222594</v>
+        <v>10098.08542342601</v>
       </c>
       <c r="F78">
-        <v>120238.6266755951</v>
+        <v>117774.4898295004</v>
       </c>
       <c r="G78">
-        <v>187889.8320101892</v>
+        <v>178808.6494874316</v>
       </c>
       <c r="H78">
-        <v>4793.660188161727</v>
+        <v>4899.93823425296</v>
       </c>
       <c r="I78">
-        <v>5166.167150060867</v>
+        <v>5198.147189173051</v>
       </c>
       <c r="J78">
-        <v>8217592.358747995</v>
+        <v>9545354.60789861</v>
       </c>
       <c r="K78">
-        <v>168934.8242551939</v>
+        <v>168934.8768749663</v>
       </c>
       <c r="L78">
-        <v>240780</v>
+        <v>243496</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>44232.502543049</v>
+        <v>43670.07472978471</v>
       </c>
       <c r="C79">
-        <v>44232.502543049</v>
+        <v>43670.07472978471</v>
       </c>
       <c r="D79">
-        <v>30579.81654265981</v>
+        <v>31131.91058286019</v>
       </c>
       <c r="E79">
-        <v>1191.66334736652</v>
+        <v>1227.990612575996</v>
       </c>
       <c r="F79">
-        <v>11886.30511032488</v>
+        <v>12237.94464107254</v>
       </c>
       <c r="G79">
-        <v>18693.51143233493</v>
+        <v>18893.96594178765</v>
       </c>
       <c r="H79">
-        <v>595.8807296193232</v>
+        <v>606.2963953378436</v>
       </c>
       <c r="I79">
-        <v>595.7826177471965</v>
+        <v>621.6942172381526</v>
       </c>
       <c r="J79">
-        <v>838254.3027972702</v>
+        <v>979052.2272754208</v>
       </c>
       <c r="K79">
-        <v>17369.06879927072</v>
+        <v>17369.22859618509</v>
       </c>
       <c r="L79">
-        <v>24769</v>
+        <v>25027</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6663.237222722548</v>
+        <v>6633.679298797147</v>
       </c>
       <c r="C80">
-        <v>6663.237222722548</v>
+        <v>6633.679298797147</v>
       </c>
       <c r="D80">
-        <v>4563.611922936873</v>
+        <v>4803.72658013036</v>
       </c>
       <c r="E80">
-        <v>142.2344064458056</v>
+        <v>161.8286766424868</v>
       </c>
       <c r="F80">
-        <v>1777.31199119022</v>
+        <v>1868.710684118862</v>
       </c>
       <c r="G80">
-        <v>2786.299931746653</v>
+        <v>2935.015896011499</v>
       </c>
       <c r="H80">
-        <v>70.49904964077497</v>
+        <v>74.15733132471705</v>
       </c>
       <c r="I80">
-        <v>71.73535680503063</v>
+        <v>87.67134531776969</v>
       </c>
       <c r="J80">
-        <v>128102.5304667642</v>
+        <v>147416.1282371495</v>
       </c>
       <c r="K80">
-        <v>2631.289395930108</v>
+        <v>2630.811233403577</v>
       </c>
       <c r="L80">
-        <v>3749</v>
+        <v>3788</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13930.71918825035</v>
+        <v>14558.46396291443</v>
       </c>
       <c r="C81">
-        <v>13930.71918825035</v>
+        <v>14558.46396291443</v>
       </c>
       <c r="D81">
-        <v>10234.49953208452</v>
+        <v>10218.04269854555</v>
       </c>
       <c r="E81">
-        <v>418.799215063397</v>
+        <v>382.2851757912856</v>
       </c>
       <c r="F81">
-        <v>3959.525632886919</v>
+        <v>4003.747566563204</v>
       </c>
       <c r="G81">
-        <v>6274.973899197596</v>
+        <v>6214.29513198235</v>
       </c>
       <c r="H81">
-        <v>208.0058275968474</v>
+        <v>184.5249392684307</v>
       </c>
       <c r="I81">
-        <v>210.7933874665496</v>
+        <v>197.7602365228549</v>
       </c>
       <c r="J81">
-        <v>276179.1565624555</v>
+        <v>317326.2746371152</v>
       </c>
       <c r="K81">
-        <v>5644.248408079516</v>
+        <v>5644.186489149708</v>
       </c>
       <c r="L81">
-        <v>8044.000000000001</v>
+        <v>8140.000000000001</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>997.0640387056285</v>
+        <v>962.3477336696559</v>
       </c>
       <c r="B82">
-        <v>3979.9654425787</v>
+        <v>3857.896567859529</v>
       </c>
       <c r="C82">
-        <v>4977.029481284329</v>
+        <v>4820.244301529185</v>
       </c>
       <c r="D82">
-        <v>12360.81103536867</v>
+        <v>12468.37199155589</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12360.81103536867</v>
+        <v>12468.37199155589</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>308274.6169690666</v>
+        <v>356623.7532569187</v>
       </c>
       <c r="K82">
-        <v>5950.825949900352</v>
+        <v>5951.166048119409</v>
       </c>
       <c r="L82">
-        <v>8505</v>
+        <v>8786</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1612.165252897065</v>
+        <v>1610.779790245139</v>
       </c>
       <c r="B83">
-        <v>6410.639370074081</v>
+        <v>6452.898989366621</v>
       </c>
       <c r="C83">
-        <v>8022.804622971146</v>
+        <v>8063.67877961176</v>
       </c>
       <c r="D83">
-        <v>20728.71399183659</v>
+        <v>20520.19131836249</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20728.71399183659</v>
+        <v>20520.19131836249</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>516437.4498660247</v>
+        <v>597299.958794251</v>
       </c>
       <c r="K83">
-        <v>9947.011136354171</v>
+        <v>9946.888668109712</v>
       </c>
       <c r="L83">
-        <v>14223</v>
+        <v>14679</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>10048.95471626366</v>
+        <v>9884.254432138874</v>
       </c>
       <c r="B84">
-        <v>39636.25101773529</v>
+        <v>39125.93293122353</v>
       </c>
       <c r="C84">
-        <v>49685.20573399896</v>
+        <v>49010.18736336241</v>
       </c>
       <c r="D84">
-        <v>125968.7938708328</v>
+        <v>127547.2023343751</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>33606.97293081944</v>
+        <v>35034.03237257162</v>
       </c>
       <c r="G84">
-        <v>92361.82094001336</v>
+        <v>92513.16996180351</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3153783.504143724</v>
+        <v>3661066.494509971</v>
       </c>
       <c r="K84">
-        <v>60895.65891856133</v>
+        <v>60895.67967819838</v>
       </c>
       <c r="L84">
-        <v>85850</v>
+        <v>88591</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6152.283917148213</v>
+        <v>6303.337953789708</v>
       </c>
       <c r="B85">
-        <v>24318.00893724598</v>
+        <v>24635.75069241583</v>
       </c>
       <c r="C85">
-        <v>30470.29285439419</v>
+        <v>30939.08864620554</v>
       </c>
       <c r="D85">
-        <v>78724.0609429297</v>
+        <v>78665.0721680026</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21224.67190120593</v>
+        <v>21321.53410120156</v>
       </c>
       <c r="G85">
-        <v>57499.38904172378</v>
+        <v>57343.53806680105</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1968419.449086398</v>
+        <v>2277447.52416558</v>
       </c>
       <c r="K85">
-        <v>38034.11350636646</v>
+        <v>38034.18868800264</v>
       </c>
       <c r="L85">
-        <v>53662</v>
+        <v>55258</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>17563.84287616421</v>
+        <v>18596.27794351892</v>
       </c>
       <c r="B86">
-        <v>71033.59325961552</v>
+        <v>74294.51991395633</v>
       </c>
       <c r="C86">
-        <v>88597.43613577973</v>
+        <v>92890.79785747525</v>
       </c>
       <c r="D86">
-        <v>236089.5537447345</v>
+        <v>237741.3387064484</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>63952.55351923038</v>
+        <v>63757.46246751648</v>
       </c>
       <c r="G86">
-        <v>172137.0002255041</v>
+        <v>173983.876238932</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>5783568.136643119</v>
+        <v>6714621.924850838</v>
       </c>
       <c r="K86">
-        <v>111847.2502974514</v>
+        <v>111847.0543063415</v>
       </c>
       <c r="L86">
-        <v>157755</v>
+        <v>162768</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10840.62937432333</v>
+        <v>10553.74463987466</v>
       </c>
       <c r="B87">
-        <v>42496.47069581172</v>
+        <v>42322.03255860342</v>
       </c>
       <c r="C87">
-        <v>53337.10007013504</v>
+        <v>52875.77719847808</v>
       </c>
       <c r="D87">
-        <v>142539.0574115845</v>
+        <v>138398.7611778857</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>38382.00163982628</v>
+        <v>37591.33129239072</v>
       </c>
       <c r="G87">
-        <v>104157.0557717582</v>
+        <v>100807.429885495</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>3461378.829217261</v>
+        <v>4000627.577886432</v>
       </c>
       <c r="K87">
-        <v>66953.01212018967</v>
+        <v>66952.66102388149</v>
       </c>
       <c r="L87">
-        <v>94303</v>
+        <v>97456</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>13934.91861639043</v>
+        <v>14194.19661955291</v>
       </c>
       <c r="B88">
-        <v>55855.0559081724</v>
+        <v>55800.80522081442</v>
       </c>
       <c r="C88">
-        <v>69789.97452456283</v>
+        <v>69995.00184036733</v>
       </c>
       <c r="D88">
-        <v>184284.8289058909</v>
+        <v>187514.8003830243</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>50380.32299308514</v>
+        <v>49441.81054285137</v>
       </c>
       <c r="G88">
-        <v>133904.5059128057</v>
+        <v>138072.9898401729</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>4505527.218466849</v>
+        <v>5243528.990310166</v>
       </c>
       <c r="K88">
-        <v>87332.03819727674</v>
+        <v>87332.16571435602</v>
       </c>
       <c r="L88">
-        <v>123156</v>
+        <v>127222</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10639.13920166253</v>
+        <v>10843.45925899701</v>
       </c>
       <c r="B89">
-        <v>43331.15810880925</v>
+        <v>43756.40841946936</v>
       </c>
       <c r="C89">
-        <v>53970.29731047178</v>
+        <v>54599.86767846638</v>
       </c>
       <c r="D89">
-        <v>136976.5159805083</v>
+        <v>137490.8021614556</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>37259.64164950925</v>
+        <v>36791.47027993025</v>
       </c>
       <c r="G89">
-        <v>99716.87433099901</v>
+        <v>100699.3318815254</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3421008.456344935</v>
+        <v>3972747.69066219</v>
       </c>
       <c r="K89">
-        <v>66110.7167266437</v>
+        <v>66111.33794462071</v>
       </c>
       <c r="L89">
-        <v>93236</v>
+        <v>96313</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7715.159822805572</v>
+        <v>7984.283156344298</v>
       </c>
       <c r="B90">
-        <v>31323.54064386533</v>
+        <v>31532.7471929964</v>
       </c>
       <c r="C90">
-        <v>39038.7004666709</v>
+        <v>39517.0303493407</v>
       </c>
       <c r="D90">
-        <v>99618.85929054888</v>
+        <v>100824.6506513549</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>26754.77779707384</v>
+        <v>27367.74877106906</v>
       </c>
       <c r="G90">
-        <v>72864.08149347504</v>
+        <v>73456.90188028582</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2500237.322279691</v>
+        <v>2893629.133138322</v>
       </c>
       <c r="K90">
-        <v>48243.72376348657</v>
+        <v>48243.69299544348</v>
       </c>
       <c r="L90">
-        <v>68103</v>
+        <v>70091</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8503.231993137746</v>
+        <v>8545.981580405747</v>
       </c>
       <c r="B91">
-        <v>33224.46549784862</v>
+        <v>34077.22169314692</v>
       </c>
       <c r="C91">
-        <v>41727.69749098637</v>
+        <v>42623.20327355267</v>
       </c>
       <c r="D91">
-        <v>108799.8712996102</v>
+        <v>109377.1016518227</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29371.24239984605</v>
+        <v>29845.44915598476</v>
       </c>
       <c r="G91">
-        <v>79428.62889976409</v>
+        <v>79531.65249583793</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>2717484.100056187</v>
+        <v>3141866.647071871</v>
       </c>
       <c r="K91">
-        <v>52388.98467618841</v>
+        <v>52389.18116704021</v>
       </c>
       <c r="L91">
-        <v>73994</v>
+        <v>76202</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6276.192161825465</v>
+        <v>6362.602504415509</v>
       </c>
       <c r="B92">
-        <v>25118.74120982335</v>
+        <v>25339.00261184477</v>
       </c>
       <c r="C92">
-        <v>31394.93337164881</v>
+        <v>31701.60511626028</v>
       </c>
       <c r="D92">
-        <v>85563.03279836749</v>
+        <v>82906.10049474309</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22520.35946852577</v>
+        <v>22377.70483631043</v>
       </c>
       <c r="G92">
-        <v>63042.67332984171</v>
+        <v>60528.39565843267</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2041613.949410617</v>
+        <v>2355816.982202787</v>
       </c>
       <c r="K92">
-        <v>39255.76899973908</v>
+        <v>39255.9142411184</v>
       </c>
       <c r="L92">
-        <v>55411</v>
+        <v>57057</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3855.263304757563</v>
+        <v>3855.123592607791</v>
       </c>
       <c r="B93">
-        <v>15036.12389394487</v>
+        <v>15118.85416225861</v>
       </c>
       <c r="C93">
-        <v>18891.38719870243</v>
+        <v>18973.97775486641</v>
       </c>
       <c r="D93">
-        <v>47739.59296875941</v>
+        <v>47965.04198305774</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>47739.59296875941</v>
+        <v>47965.04198305774</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1215457.279316025</v>
+        <v>1410928.757146558</v>
       </c>
       <c r="K93">
-        <v>23460.739867812</v>
+        <v>23460.89032996371</v>
       </c>
       <c r="L93">
-        <v>33521</v>
+        <v>34623</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1654.726522475828</v>
+        <v>1617.282876505048</v>
       </c>
       <c r="B94">
-        <v>6541.570706792931</v>
+        <v>6637.053284639283</v>
       </c>
       <c r="C94">
-        <v>8196.297229268759</v>
+        <v>8254.336161144331</v>
       </c>
       <c r="D94">
-        <v>21057.22246258898</v>
+        <v>21042.43332248372</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5620.822983946892</v>
+        <v>5688.704192451325</v>
       </c>
       <c r="G94">
-        <v>15436.39947864209</v>
+        <v>15353.7291300324</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>524281.2404862201</v>
+        <v>606687.3172248341</v>
       </c>
       <c r="K94">
-        <v>10092.26332333454</v>
+        <v>10092.24120893422</v>
       </c>
       <c r="L94">
-        <v>14258</v>
+        <v>14652</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1427.589536704585</v>
+        <v>1459.973088992073</v>
       </c>
       <c r="B95">
-        <v>5749.854720710274</v>
+        <v>5825.041002718767</v>
       </c>
       <c r="C95">
-        <v>7177.44425741486</v>
+        <v>7285.01409171084</v>
       </c>
       <c r="D95">
-        <v>18771.67367497917</v>
+        <v>18385.37239819692</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>5043.375822083769</v>
+        <v>4945.291115036638</v>
       </c>
       <c r="G95">
-        <v>13728.2978528954</v>
+        <v>13440.08128316028</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>452054.9013174365</v>
+        <v>525988.2831502522</v>
       </c>
       <c r="K95">
-        <v>8744.813728581603</v>
+        <v>8744.702798472466</v>
       </c>
       <c r="L95">
-        <v>12334</v>
+        <v>12709</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1633.267893919951</v>
+        <v>1705.252416641086</v>
       </c>
       <c r="B96">
-        <v>6555.690800836077</v>
+        <v>6683.739210174055</v>
       </c>
       <c r="C96">
-        <v>8188.958694756028</v>
+        <v>8388.991626815141</v>
       </c>
       <c r="D96">
-        <v>21300.6587806341</v>
+        <v>21167.48255201977</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5730.06438155823</v>
+        <v>5718.798781934028</v>
       </c>
       <c r="G96">
-        <v>15570.59439907587</v>
+        <v>15448.68377008574</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>525455.1635966668</v>
+        <v>606895.3915517048</v>
       </c>
       <c r="K96">
-        <v>10106.6654780994</v>
+        <v>10107.05649693572</v>
       </c>
       <c r="L96">
-        <v>14288</v>
+        <v>14699</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>982.0133017518538</v>
+        <v>966.0440164218068</v>
       </c>
       <c r="B97">
-        <v>3948.528668241924</v>
+        <v>4018.761701544254</v>
       </c>
       <c r="C97">
-        <v>4930.541969993778</v>
+        <v>4984.805717966061</v>
       </c>
       <c r="D97">
-        <v>12947.81229984265</v>
+        <v>12930.29403723332</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3516.113701972683</v>
+        <v>3505.586371613058</v>
       </c>
       <c r="G97">
-        <v>9431.698597869965</v>
+        <v>9424.707665620259</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>320619.3786943671</v>
+        <v>371784.0612385736</v>
       </c>
       <c r="K97">
-        <v>6199.124862361771</v>
+        <v>6198.741161146079</v>
       </c>
       <c r="L97">
-        <v>8725</v>
+        <v>9003</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>523.4183391661346</v>
+        <v>534.8226911214138</v>
       </c>
       <c r="B98">
-        <v>3775.277800851833</v>
+        <v>3791.732491255737</v>
       </c>
       <c r="C98">
-        <v>4298.696140017968</v>
+        <v>4326.55518237715</v>
       </c>
       <c r="D98">
-        <v>29128.88397735337</v>
+        <v>28604.47625767324</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>29128.88397735337</v>
+        <v>28604.47625767324</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>272415.5481343904</v>
+        <v>313206.0643031425</v>
       </c>
       <c r="K98">
-        <v>6606.702657710567</v>
+        <v>6607.204744908556</v>
       </c>
       <c r="L98">
-        <v>9267</v>
+        <v>9341</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>737.4861366339458</v>
+        <v>728.873810218278</v>
       </c>
       <c r="B99">
-        <v>5476.112296745043</v>
+        <v>5414.605224652109</v>
       </c>
       <c r="C99">
-        <v>6213.598433378989</v>
+        <v>6143.479034870386</v>
       </c>
       <c r="D99">
-        <v>42063.30911264166</v>
+        <v>40312.17630560524</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>42063.30911264166</v>
+        <v>40312.17630560524</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>383082.4914263896</v>
+        <v>446625.7301285804</v>
       </c>
       <c r="K99">
-        <v>9385.124126483825</v>
+        <v>9384.742396112584</v>
       </c>
       <c r="L99">
-        <v>13163</v>
+        <v>13282</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5607.701853335805</v>
+        <v>5107.010523270184</v>
       </c>
       <c r="B100">
-        <v>39382.26585719595</v>
+        <v>40056.19682978156</v>
       </c>
       <c r="C100">
-        <v>44989.96771053176</v>
+        <v>45163.20735305174</v>
       </c>
       <c r="D100">
-        <v>303943.587664454</v>
+        <v>299946.2283879078</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>303943.587664454</v>
+        <v>299946.2283879078</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2827537.535427673</v>
+        <v>3264219.702128602</v>
       </c>
       <c r="K100">
-        <v>68687.07212992056</v>
+        <v>68686.70679983507</v>
       </c>
       <c r="L100">
-        <v>96449</v>
+        <v>97242</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>153.6764333868173</v>
+        <v>154.205130895885</v>
       </c>
       <c r="B101">
-        <v>1159.240543608276</v>
+        <v>1113.82018756712</v>
       </c>
       <c r="C101">
-        <v>1312.916976995094</v>
+        <v>1268.025318463005</v>
       </c>
       <c r="D101">
-        <v>9010.011485541851</v>
+        <v>8956.88936107128</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>9010.011485541851</v>
+        <v>8956.88936107128</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>83201.887345857</v>
+        <v>96387.68913988388</v>
       </c>
       <c r="K101">
-        <v>2023.823884549792</v>
+        <v>2023.672493395688</v>
       </c>
       <c r="L101">
-        <v>2844</v>
+        <v>2866</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>2029.351035535146</v>
+        <v>1939.454695892255</v>
       </c>
       <c r="B102">
-        <v>14464.3664680672</v>
+        <v>14287.65549354127</v>
       </c>
       <c r="C102">
-        <v>16493.71750360234</v>
+        <v>16227.11018943352</v>
       </c>
       <c r="D102">
-        <v>108368.1783854134</v>
+        <v>109692.223311724</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6735.107805457095</v>
+        <v>6932.634644651515</v>
       </c>
       <c r="G102">
-        <v>101633.0705799563</v>
+        <v>102759.5886670725</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1014734.669283177</v>
+        <v>1184633.307625598</v>
       </c>
       <c r="K102">
-        <v>24734.3411964227</v>
+        <v>24734.07803768076</v>
       </c>
       <c r="L102">
-        <v>34348</v>
+        <v>34662</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1424.067141421838</v>
+        <v>1452.346944235049</v>
       </c>
       <c r="B103">
-        <v>10816.3891219148</v>
+        <v>10332.45647910624</v>
       </c>
       <c r="C103">
-        <v>12240.45626333664</v>
+        <v>11784.80342334129</v>
       </c>
       <c r="D103">
-        <v>81557.53906295504</v>
+        <v>81512.7210977691</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5212.35000774211</v>
+        <v>5131.75512603889</v>
       </c>
       <c r="G103">
-        <v>76345.18905521292</v>
+        <v>76380.96597173021</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>759641.8851047127</v>
+        <v>883120.9118335575</v>
       </c>
       <c r="K103">
-        <v>18475.01445119366</v>
+        <v>18475.30505692216</v>
       </c>
       <c r="L103">
-        <v>25659</v>
+        <v>25871</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4582.557395288955</v>
+        <v>4774.898416831377</v>
       </c>
       <c r="B104">
-        <v>32753.92851991768</v>
+        <v>33946.82831978623</v>
       </c>
       <c r="C104">
-        <v>37336.48591520664</v>
+        <v>38721.72673661761</v>
       </c>
       <c r="D104">
-        <v>255008.0528507167</v>
+        <v>261731.9120886276</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15738.71614961744</v>
+        <v>15921.13250766552</v>
       </c>
       <c r="G104">
-        <v>239269.3367010992</v>
+        <v>245810.7795809621</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2398617.785377881</v>
+        <v>2785738.452572551</v>
       </c>
       <c r="K104">
-        <v>58535.7923776851</v>
+        <v>58535.67156150441</v>
       </c>
       <c r="L104">
-        <v>81335</v>
+        <v>81993</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>7754.501132904158</v>
+        <v>8544.708602884959</v>
       </c>
       <c r="B105">
-        <v>57822.63604281656</v>
+        <v>57676.89247237171</v>
       </c>
       <c r="C105">
-        <v>65577.13717572072</v>
+        <v>66221.60107525667</v>
       </c>
       <c r="D105">
-        <v>468470.9001191685</v>
+        <v>454909.080963005</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>28838.61005287009</v>
+        <v>28364.43677283603</v>
       </c>
       <c r="G105">
-        <v>439632.2900662984</v>
+        <v>426544.644190169</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4233711.025850885</v>
+        <v>4900926.264527891</v>
       </c>
       <c r="K105">
-        <v>102959.8398590714</v>
+        <v>102960.0652112166</v>
       </c>
       <c r="L105">
-        <v>143169</v>
+        <v>144176</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6433.013171737885</v>
+        <v>6693.908391271868</v>
       </c>
       <c r="B106">
-        <v>49175.79230393027</v>
+        <v>48541.27485823161</v>
       </c>
       <c r="C106">
-        <v>55608.80547566815</v>
+        <v>55235.18324950348</v>
       </c>
       <c r="D106">
-        <v>377522.9989910951</v>
+        <v>380255.809260572</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23693.66594423352</v>
+        <v>23566.13902637943</v>
       </c>
       <c r="G106">
-        <v>353829.3330468616</v>
+        <v>356689.6702341926</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>3501832.147561451</v>
+        <v>4065548.41512016</v>
       </c>
       <c r="K106">
-        <v>85834.18947329307</v>
+        <v>85833.99577683769</v>
       </c>
       <c r="L106">
-        <v>119070</v>
+        <v>120200</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7378.599759048853</v>
+        <v>7426.91783449882</v>
       </c>
       <c r="B107">
-        <v>52491.64728992174</v>
+        <v>51954.95673299808</v>
       </c>
       <c r="C107">
-        <v>59870.24704897059</v>
+        <v>59381.8745674969</v>
       </c>
       <c r="D107">
-        <v>402511.0591134228</v>
+        <v>391621.296653298</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24972.15295258728</v>
+        <v>24527.8784441062</v>
       </c>
       <c r="G107">
-        <v>377538.9061608356</v>
+        <v>367093.4182091918</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>3679125.398211588</v>
+        <v>4287851.237351822</v>
       </c>
       <c r="K107">
-        <v>89899.86083423161</v>
+        <v>89900.11799821397</v>
       </c>
       <c r="L107">
-        <v>124844</v>
+        <v>125996</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3422.522822808957</v>
+        <v>3405.365165506556</v>
       </c>
       <c r="B108">
-        <v>24587.12429056628</v>
+        <v>24684.06573517525</v>
       </c>
       <c r="C108">
-        <v>28009.64711337524</v>
+        <v>28089.4309006818</v>
       </c>
       <c r="D108">
-        <v>187005.5730920122</v>
+        <v>184259.6000651624</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11597.91501528748</v>
+        <v>11318.17849177307</v>
       </c>
       <c r="G108">
-        <v>175407.6580767247</v>
+        <v>172941.4215733894</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1751496.794217846</v>
+        <v>2041397.445871621</v>
       </c>
       <c r="K108">
-        <v>42603.99371454677</v>
+        <v>42604.25342373295</v>
       </c>
       <c r="L108">
-        <v>59253</v>
+        <v>59758</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5073.561026996931</v>
+        <v>5203.374976382443</v>
       </c>
       <c r="B109">
-        <v>37418.53163382488</v>
+        <v>38603.95898055665</v>
       </c>
       <c r="C109">
-        <v>42492.09266082181</v>
+        <v>43807.3339569391</v>
       </c>
       <c r="D109">
-        <v>287364.3142387196</v>
+        <v>283728.0925694443</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17792.79289321523</v>
+        <v>17525.63657761018</v>
       </c>
       <c r="G109">
-        <v>269571.5213455043</v>
+        <v>266202.4559918341</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>2716885.396671493</v>
+        <v>3171015.024219745</v>
       </c>
       <c r="K109">
-        <v>66364.99684291017</v>
+        <v>66364.7440284138</v>
       </c>
       <c r="L109">
-        <v>92209</v>
+        <v>93091</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>4900.592124287777</v>
+        <v>5039.090161433262</v>
       </c>
       <c r="B110">
-        <v>35891.86147321173</v>
+        <v>36200.28919092494</v>
       </c>
       <c r="C110">
-        <v>40792.45359749951</v>
+        <v>41239.3793523582</v>
       </c>
       <c r="D110">
-        <v>278415.6974721944</v>
+        <v>277672.6479108064</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17379.21489184551</v>
+        <v>17143.3254781633</v>
       </c>
       <c r="G110">
-        <v>261036.4825803489</v>
+        <v>260529.3224326431</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2629167.973850402</v>
+        <v>3029866.293181323</v>
       </c>
       <c r="K110">
-        <v>63795.64428953979</v>
+        <v>63795.976474454</v>
       </c>
       <c r="L110">
-        <v>88724</v>
+        <v>89300</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17169.94251534248</v>
+        <v>16672.35559779138</v>
       </c>
       <c r="B111">
-        <v>123169.5151446058</v>
+        <v>124175.048551485</v>
       </c>
       <c r="C111">
-        <v>140339.4576599483</v>
+        <v>140847.4041492764</v>
       </c>
       <c r="D111">
-        <v>964109.8908347079</v>
+        <v>958455.8945635372</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>59186.80301050449</v>
+        <v>60873.8088612553</v>
       </c>
       <c r="G111">
-        <v>904923.0878242034</v>
+        <v>897582.0857022819</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>8765490.719822451</v>
+        <v>10226090.44598583</v>
       </c>
       <c r="K111">
-        <v>214312.9627631677</v>
+        <v>214313.0397320306</v>
       </c>
       <c r="L111">
-        <v>297635</v>
+        <v>299721</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>574.0402899561144</v>
+        <v>567.2380667097441</v>
       </c>
       <c r="B112">
-        <v>4068.363515351105</v>
+        <v>4041.874938318217</v>
       </c>
       <c r="C112">
-        <v>4642.403805307219</v>
+        <v>4609.113005027961</v>
       </c>
       <c r="D112">
-        <v>29999.16217525409</v>
+        <v>30783.19471661724</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1882.655062546845</v>
+        <v>1910.45448855856</v>
       </c>
       <c r="G112">
-        <v>28116.50711270724</v>
+        <v>28872.74022805868</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>288298.8677897802</v>
+        <v>334419.405473861</v>
       </c>
       <c r="K112">
-        <v>7006.103653574409</v>
+        <v>7005.737327362001</v>
       </c>
       <c r="L112">
-        <v>9744</v>
+        <v>9808</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>133.7270517598745</v>
+        <v>133.2062863114003</v>
       </c>
       <c r="B113">
-        <v>1038.941691951829</v>
+        <v>982.7054932887728</v>
       </c>
       <c r="C113">
-        <v>1172.668743711703</v>
+        <v>1115.911779600173</v>
       </c>
       <c r="D113">
-        <v>7527.410992975241</v>
+        <v>7604.888275909267</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>465.1084528623805</v>
+        <v>461.842104944456</v>
       </c>
       <c r="G113">
-        <v>7062.302540112861</v>
+        <v>7143.046170964811</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>70725.94004139365</v>
+        <v>81974.03833451217</v>
       </c>
       <c r="K113">
-        <v>1718.896504966527</v>
+        <v>1718.676307748383</v>
       </c>
       <c r="L113">
-        <v>2389</v>
+        <v>2407</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1252.019827630273</v>
+        <v>1293.011567053625</v>
       </c>
       <c r="B114">
-        <v>8693.775410730828</v>
+        <v>8781.135525249372</v>
       </c>
       <c r="C114">
-        <v>9945.795238361101</v>
+        <v>10074.147092303</v>
       </c>
       <c r="D114">
-        <v>65813.58671667383</v>
+        <v>66501.08362337541</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4171.913691121967</v>
+        <v>4148.148635416885</v>
       </c>
       <c r="G114">
-        <v>61641.67302555187</v>
+        <v>62352.93498795853</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>616012.9526291429</v>
+        <v>713825.1047659994</v>
       </c>
       <c r="K114">
-        <v>15018.97635928077</v>
+        <v>15018.72651741575</v>
       </c>
       <c r="L114">
-        <v>20872</v>
+        <v>20997</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>103.0395080578334</v>
+        <v>111.9681019400335</v>
       </c>
       <c r="B115">
-        <v>789.4773956214146</v>
+        <v>802.9471439152579</v>
       </c>
       <c r="C115">
-        <v>892.516903679248</v>
+        <v>914.9152458552915</v>
       </c>
       <c r="D115">
-        <v>5958.791225381972</v>
+        <v>6000.955319666025</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>367.6827611367497</v>
+        <v>371.4439351338855</v>
       </c>
       <c r="G115">
-        <v>5591.108464245222</v>
+        <v>5629.511384532139</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>56763.44980895468</v>
+        <v>66238.16913598264</v>
       </c>
       <c r="K115">
-        <v>1382.85648749021</v>
+        <v>1383.089959449453</v>
       </c>
       <c r="L115">
-        <v>1924</v>
+        <v>1940</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1490.383910051298</v>
+        <v>1481.53036040062</v>
       </c>
       <c r="B116">
-        <v>8832.830102428079</v>
+        <v>8616.758681337085</v>
       </c>
       <c r="C116">
-        <v>10323.21401247938</v>
+        <v>10098.28904173771</v>
       </c>
       <c r="D116">
-        <v>22108.56888230118</v>
+        <v>21729.29133248606</v>
       </c>
       <c r="E116">
-        <v>1040.883292578745</v>
+        <v>1080.431108501059</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>22108.56888230118</v>
+        <v>21729.29133248606</v>
       </c>
       <c r="H116">
-        <v>834.905261079231</v>
+        <v>830.5244062778208</v>
       </c>
       <c r="I116">
-        <v>205.9780314995142</v>
+        <v>249.9067022232387</v>
       </c>
       <c r="J116">
-        <v>418899.0628073565</v>
+        <v>484087.6214088639</v>
       </c>
       <c r="K116">
-        <v>10098.25959738105</v>
+        <v>10097.82277275436</v>
       </c>
       <c r="L116">
-        <v>14099</v>
+        <v>14469</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>892.5392159277361</v>
+        <v>904.560131734745</v>
       </c>
       <c r="B117">
-        <v>5119.262502556619</v>
+        <v>5345.376011093133</v>
       </c>
       <c r="C117">
-        <v>6011.801718484355</v>
+        <v>6249.936142827878</v>
       </c>
       <c r="D117">
-        <v>12853.68781623442</v>
+        <v>13054.72382604393</v>
       </c>
       <c r="E117">
-        <v>600.8211802477449</v>
+        <v>661.0061352914915</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>12853.68781623442</v>
+        <v>13054.72382604393</v>
       </c>
       <c r="H117">
-        <v>482.4728312928796</v>
+        <v>506.278383550821</v>
       </c>
       <c r="I117">
-        <v>118.3483489548653</v>
+        <v>154.7277517406705</v>
       </c>
       <c r="J117">
-        <v>254367.3306268866</v>
+        <v>296578.0483389475</v>
       </c>
       <c r="K117">
-        <v>6147.661405745498</v>
+        <v>6147.981212527123</v>
       </c>
       <c r="L117">
-        <v>8582</v>
+        <v>8803</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2278.601205754597</v>
+        <v>2154.950812822058</v>
       </c>
       <c r="B118">
-        <v>13274.52890821168</v>
+        <v>12536.00433046902</v>
       </c>
       <c r="C118">
-        <v>15553.13011396627</v>
+        <v>14690.95514329108</v>
       </c>
       <c r="D118">
-        <v>31833.6560046503</v>
+        <v>32193.21286921487</v>
       </c>
       <c r="E118">
-        <v>1504.488824037891</v>
+        <v>1560.573176208896</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>31833.6560046503</v>
+        <v>32193.21286921487</v>
       </c>
       <c r="H118">
-        <v>1209.592211337952</v>
+        <v>1234.824623758867</v>
       </c>
       <c r="I118">
-        <v>294.8966126999396</v>
+        <v>325.748552450029</v>
       </c>
       <c r="J118">
-        <v>623070.591721604</v>
+        <v>724238.5675890503</v>
       </c>
       <c r="K118">
-        <v>15021.12696119921</v>
+        <v>15021.24300486031</v>
       </c>
       <c r="L118">
-        <v>20956</v>
+        <v>21567</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>8197.254709787798</v>
+        <v>7793.156707253724</v>
       </c>
       <c r="B119">
-        <v>46853.75652842213</v>
+        <v>46518.33527544975</v>
       </c>
       <c r="C119">
-        <v>55051.01123820993</v>
+        <v>54311.49198270348</v>
       </c>
       <c r="D119">
-        <v>118377.6888707347</v>
+        <v>114033.2094658989</v>
       </c>
       <c r="E119">
-        <v>5512.909994399259</v>
+        <v>5760.696840943458</v>
       </c>
       <c r="F119">
-        <v>17395.79281848226</v>
+        <v>16242.46949730271</v>
       </c>
       <c r="G119">
-        <v>100981.8960522525</v>
+        <v>97790.73996859623</v>
       </c>
       <c r="H119">
-        <v>4315.716335063351</v>
+        <v>4515.170486446495</v>
       </c>
       <c r="I119">
-        <v>1197.193659335908</v>
+        <v>1245.526354496964</v>
       </c>
       <c r="J119">
-        <v>2279091.851277994</v>
+        <v>2641950.045778427</v>
       </c>
       <c r="K119">
-        <v>54874.30678502745</v>
+        <v>54873.9655310071</v>
       </c>
       <c r="L119">
-        <v>75876</v>
+        <v>77828</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12629.75341099713</v>
+        <v>12384.49399807161</v>
       </c>
       <c r="B120">
-        <v>71794.35986625557</v>
+        <v>71985.54315085748</v>
       </c>
       <c r="C120">
-        <v>84424.11327725271</v>
+        <v>84370.03714892908</v>
       </c>
       <c r="D120">
-        <v>184345.6127235641</v>
+        <v>186382.5168319027</v>
       </c>
       <c r="E120">
-        <v>8885.622555698494</v>
+        <v>9250.711946351366</v>
       </c>
       <c r="F120">
-        <v>26743.85184605558</v>
+        <v>27002.7552577748</v>
       </c>
       <c r="G120">
-        <v>157601.7608775085</v>
+        <v>159379.7615741279</v>
       </c>
       <c r="H120">
-        <v>7065.211280794701</v>
+        <v>7330.456782600994</v>
       </c>
       <c r="I120">
-        <v>1820.411274903791</v>
+        <v>1920.255163750372</v>
       </c>
       <c r="J120">
-        <v>3497086.747071838</v>
+        <v>4072982.674774884</v>
       </c>
       <c r="K120">
-        <v>84457.68337230511</v>
+        <v>84457.70111925264</v>
       </c>
       <c r="L120">
-        <v>116563</v>
+        <v>119840</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7148.913528810609</v>
+        <v>7572.446740499527</v>
       </c>
       <c r="B121">
-        <v>42401.59535125782</v>
+        <v>43775.23993269889</v>
       </c>
       <c r="C121">
-        <v>49550.50888006842</v>
+        <v>51347.68667319842</v>
       </c>
       <c r="D121">
-        <v>106807.677126986</v>
+        <v>107080.3729644643</v>
       </c>
       <c r="E121">
-        <v>5501.773577138487</v>
+        <v>5338.328613633811</v>
       </c>
       <c r="F121">
-        <v>15723.56810046095</v>
+        <v>15676.86187241867</v>
       </c>
       <c r="G121">
-        <v>91084.10902652505</v>
+        <v>91403.51109204561</v>
       </c>
       <c r="H121">
-        <v>4420.614972524531</v>
+        <v>4145.097211994317</v>
       </c>
       <c r="I121">
-        <v>1081.158604613956</v>
+        <v>1193.231401639494</v>
       </c>
       <c r="J121">
-        <v>2073532.098229919</v>
+        <v>2407529.237395641</v>
       </c>
       <c r="K121">
-        <v>50092.69182694589</v>
+        <v>50092.75632718945</v>
       </c>
       <c r="L121">
-        <v>69218</v>
+        <v>71044</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>18979.58513245614</v>
+        <v>19274.01858273531</v>
       </c>
       <c r="B122">
-        <v>112406.5709867184</v>
+        <v>114974.4488826137</v>
       </c>
       <c r="C122">
-        <v>131386.1561191746</v>
+        <v>134248.467465349</v>
       </c>
       <c r="D122">
-        <v>283845.509066815</v>
+        <v>286787.9721358168</v>
       </c>
       <c r="E122">
-        <v>13333.51741910968</v>
+        <v>13119.79019621021</v>
       </c>
       <c r="F122">
-        <v>41443.00854314458</v>
+        <v>41856.3792295392</v>
       </c>
       <c r="G122">
-        <v>242402.5005236704</v>
+        <v>244931.5929062776</v>
       </c>
       <c r="H122">
-        <v>10562.3720920647</v>
+        <v>10662.44235604356</v>
       </c>
       <c r="I122">
-        <v>2771.14532704498</v>
+        <v>2457.347840166652</v>
       </c>
       <c r="J122">
-        <v>5426274.475903288</v>
+        <v>6289964.875431093</v>
       </c>
       <c r="K122">
-        <v>131015.7129111455</v>
+        <v>131015.7164824744</v>
       </c>
       <c r="L122">
-        <v>180961</v>
+        <v>185489</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>35864.6450087201</v>
+        <v>36277.60095635462</v>
       </c>
       <c r="B123">
-        <v>211507.8815673239</v>
+        <v>202472.3961704853</v>
       </c>
       <c r="C123">
-        <v>247372.526576044</v>
+        <v>238749.99712684</v>
       </c>
       <c r="D123">
-        <v>505108.7285714725</v>
+        <v>500072.327282931</v>
       </c>
       <c r="E123">
-        <v>25597.45391810329</v>
+        <v>25640.80653492528</v>
       </c>
       <c r="F123">
-        <v>75266.48657470488</v>
+        <v>71622.96476169246</v>
       </c>
       <c r="G123">
-        <v>429842.2419967676</v>
+        <v>428449.3625212386</v>
       </c>
       <c r="H123">
-        <v>20365.9276930487</v>
+        <v>20160.42250283548</v>
       </c>
       <c r="I123">
-        <v>5231.526225054585</v>
+        <v>5480.384032089795</v>
       </c>
       <c r="J123">
-        <v>9900917.780677248</v>
+        <v>11460903.08568151</v>
       </c>
       <c r="K123">
-        <v>238431.0743157396</v>
+        <v>238431.0558919188</v>
       </c>
       <c r="L123">
-        <v>329949</v>
+        <v>338330</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>24590.57358725257</v>
+        <v>24780.93219952741</v>
       </c>
       <c r="B124">
-        <v>141131.4513254851</v>
+        <v>142597.1203989257</v>
       </c>
       <c r="C124">
-        <v>165722.0249127377</v>
+        <v>167378.0525984531</v>
       </c>
       <c r="D124">
-        <v>367535.5689283852</v>
+        <v>362664.2225825257</v>
       </c>
       <c r="E124">
-        <v>17578.4688552623</v>
+        <v>17131.91821274178</v>
       </c>
       <c r="F124">
-        <v>53191.65412413998</v>
+        <v>52422.9302968222</v>
       </c>
       <c r="G124">
-        <v>314343.9148042452</v>
+        <v>310241.2922857035</v>
       </c>
       <c r="H124">
-        <v>13929.26664026617</v>
+        <v>13299.29763478956</v>
       </c>
       <c r="I124">
-        <v>3649.20221499613</v>
+        <v>3832.620577952226</v>
       </c>
       <c r="J124">
-        <v>6919306.74160163</v>
+        <v>7966053.526332657</v>
       </c>
       <c r="K124">
-        <v>167396.326161283</v>
+        <v>167396.2010295801</v>
       </c>
       <c r="L124">
-        <v>231679</v>
+        <v>237315</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13878.49959831482</v>
+        <v>13896.6110846393</v>
       </c>
       <c r="B125">
-        <v>80319.35608896175</v>
+        <v>79825.56600397066</v>
       </c>
       <c r="C125">
-        <v>94197.85568727658</v>
+        <v>93722.17708860997</v>
       </c>
       <c r="D125">
-        <v>207472.6013693667</v>
+        <v>194203.0406535261</v>
       </c>
       <c r="E125">
-        <v>10431.11612560255</v>
+        <v>9114.085674992397</v>
       </c>
       <c r="F125">
-        <v>30150.86778837625</v>
+        <v>27535.88805767547</v>
       </c>
       <c r="G125">
-        <v>177321.7335809905</v>
+        <v>166667.1525958506</v>
       </c>
       <c r="H125">
-        <v>8336.176553026587</v>
+        <v>7279.402455862181</v>
       </c>
       <c r="I125">
-        <v>2094.939572575964</v>
+        <v>1834.683219130215</v>
       </c>
       <c r="J125">
-        <v>3867912.270054105</v>
+        <v>4472193.646230127</v>
       </c>
       <c r="K125">
-        <v>93371.78897587257</v>
+        <v>93372.20755975814</v>
       </c>
       <c r="L125">
-        <v>128984</v>
+        <v>132301</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>9909.620727972524</v>
+        <v>10473.54330409087</v>
       </c>
       <c r="B126">
-        <v>60548.95801286586</v>
+        <v>61160.53604725558</v>
       </c>
       <c r="C126">
-        <v>70458.57874083839</v>
+        <v>71634.07935134645</v>
       </c>
       <c r="D126">
-        <v>157729.5269908747</v>
+        <v>158549.0529526454</v>
       </c>
       <c r="E126">
-        <v>7908.749998857378</v>
+        <v>7226.132149217562</v>
       </c>
       <c r="F126">
-        <v>23254.1328452013</v>
+        <v>22905.93105368754</v>
       </c>
       <c r="G126">
-        <v>134475.3941456734</v>
+        <v>135643.1218989579</v>
       </c>
       <c r="H126">
-        <v>6181.202849526077</v>
+        <v>5886.578355081042</v>
       </c>
       <c r="I126">
-        <v>1727.547149331302</v>
+        <v>1339.55379413652</v>
       </c>
       <c r="J126">
-        <v>3044312.350637105</v>
+        <v>3521936.33211008</v>
       </c>
       <c r="K126">
-        <v>73290.17377603403</v>
+        <v>73290.08298532925</v>
       </c>
       <c r="L126">
-        <v>101427</v>
+        <v>103992</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18308.23530274416</v>
+        <v>18636.79804870846</v>
       </c>
       <c r="B127">
-        <v>108973.2026006435</v>
+        <v>111398.1591674411</v>
       </c>
       <c r="C127">
-        <v>127281.4379033877</v>
+        <v>130034.9572161495</v>
       </c>
       <c r="D127">
-        <v>286559.8095769128</v>
+        <v>274340.3847698726</v>
       </c>
       <c r="E127">
-        <v>12971.37733580098</v>
+        <v>14908.48920929409</v>
       </c>
       <c r="F127">
-        <v>41360.69543415483</v>
+        <v>38885.47790661906</v>
       </c>
       <c r="G127">
-        <v>245199.114142758</v>
+        <v>235454.9068632536</v>
       </c>
       <c r="H127">
-        <v>10340.6119386122</v>
+        <v>11596.29176560374</v>
       </c>
       <c r="I127">
-        <v>2630.765397188776</v>
+        <v>3312.197443690354</v>
       </c>
       <c r="J127">
-        <v>5335343.054109654</v>
+        <v>6170439.145725653</v>
       </c>
       <c r="K127">
-        <v>128690.1471158011</v>
+        <v>128689.9473380157</v>
       </c>
       <c r="L127">
-        <v>178089</v>
+        <v>182679</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>35959.28320065879</v>
+        <v>35641.83099678624</v>
       </c>
       <c r="B128">
-        <v>212021.2020751066</v>
+        <v>214012.0378222467</v>
       </c>
       <c r="C128">
-        <v>247980.4852757654</v>
+        <v>249653.8688190329</v>
       </c>
       <c r="D128">
-        <v>530328.3555106933</v>
+        <v>525613.3839511272</v>
       </c>
       <c r="E128">
-        <v>27181.34074925292</v>
+        <v>27135.44105333217</v>
       </c>
       <c r="F128">
-        <v>78243.2399552179</v>
+        <v>77223.11180842426</v>
       </c>
       <c r="G128">
-        <v>452085.1155554753</v>
+        <v>448390.2721427029</v>
       </c>
       <c r="H128">
-        <v>21184.57889270336</v>
+        <v>21431.41140588787</v>
       </c>
       <c r="I128">
-        <v>5996.761856549564</v>
+        <v>5704.029647444306</v>
       </c>
       <c r="J128">
-        <v>10323379.36172804</v>
+        <v>11931073.80051645</v>
       </c>
       <c r="K128">
-        <v>248822.2116987174</v>
+        <v>248821.8663812276</v>
       </c>
       <c r="L128">
-        <v>344680</v>
+        <v>353194</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14326.51789537673</v>
+        <v>13909.12512723897</v>
       </c>
       <c r="B129">
-        <v>81849.25537875843</v>
+        <v>83331.11424044438</v>
       </c>
       <c r="C129">
-        <v>96175.77327413516</v>
+        <v>97240.23936768336</v>
       </c>
       <c r="D129">
-        <v>209773.2670916868</v>
+        <v>208658.7347297073</v>
       </c>
       <c r="E129">
-        <v>10125.02468581977</v>
+        <v>10292.84618395397</v>
       </c>
       <c r="F129">
-        <v>30757.06734144758</v>
+        <v>30760.73792972726</v>
       </c>
       <c r="G129">
-        <v>179016.1997502392</v>
+        <v>177897.9967999801</v>
       </c>
       <c r="H129">
-        <v>7904.362948145859</v>
+        <v>8170.121462666057</v>
       </c>
       <c r="I129">
-        <v>2220.661737673907</v>
+        <v>2122.72472128791</v>
       </c>
       <c r="J129">
-        <v>4057777.062842615</v>
+        <v>4756173.888392423</v>
       </c>
       <c r="K129">
-        <v>98283.15259259478</v>
+        <v>98283.08561407549</v>
       </c>
       <c r="L129">
-        <v>135911</v>
+        <v>139721</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18818.42372624077</v>
+        <v>18813.73431164382</v>
       </c>
       <c r="B130">
-        <v>112181.3847353911</v>
+        <v>110284.0298587065</v>
       </c>
       <c r="C130">
-        <v>130999.8084616319</v>
+        <v>129097.7641703503</v>
       </c>
       <c r="D130">
-        <v>274111.6929900763</v>
+        <v>267104.8752838785</v>
       </c>
       <c r="E130">
-        <v>13180.68150995042</v>
+        <v>12796.64067512405</v>
       </c>
       <c r="F130">
-        <v>40498.10128656423</v>
+        <v>38809.05276498875</v>
       </c>
       <c r="G130">
-        <v>233613.5917035121</v>
+        <v>228295.8225188897</v>
       </c>
       <c r="H130">
-        <v>10393.20223599895</v>
+        <v>10258.15135217002</v>
       </c>
       <c r="I130">
-        <v>2787.47927395147</v>
+        <v>2538.489322954032</v>
       </c>
       <c r="J130">
-        <v>5310017.244162344</v>
+        <v>6063679.284013561</v>
       </c>
       <c r="K130">
-        <v>127199.0687335141</v>
+        <v>127199.2369342351</v>
       </c>
       <c r="L130">
-        <v>176234</v>
+        <v>180385</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>127.7681096403639</v>
+        <v>128.3054552200011</v>
       </c>
       <c r="B131">
-        <v>741.4163705957612</v>
+        <v>745.780897928427</v>
       </c>
       <c r="C131">
-        <v>869.1844802361251</v>
+        <v>874.0863531484281</v>
       </c>
       <c r="D131">
-        <v>1895.704930224489</v>
+        <v>1875.545524541344</v>
       </c>
       <c r="E131">
-        <v>99.83744444189188</v>
+        <v>91.97263193945709</v>
       </c>
       <c r="F131">
-        <v>280.1126487555424</v>
+        <v>275.271434778482</v>
       </c>
       <c r="G131">
-        <v>1615.592281468946</v>
+        <v>1600.274089762862</v>
       </c>
       <c r="H131">
-        <v>78.74833426171018</v>
+        <v>73.07913104314298</v>
       </c>
       <c r="I131">
-        <v>21.08911018018168</v>
+        <v>18.89350089631411</v>
       </c>
       <c r="J131">
-        <v>36516.90801022768</v>
+        <v>42496.18373204555</v>
       </c>
       <c r="K131">
-        <v>881.0819059139184</v>
+        <v>880.8677428545185</v>
       </c>
       <c r="L131">
-        <v>1219</v>
+        <v>1249</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>689.1640998616207</v>
+        <v>688.0703551622154</v>
       </c>
       <c r="B132">
-        <v>4096.149470582756</v>
+        <v>4008.751207747719</v>
       </c>
       <c r="C132">
-        <v>4785.313570444377</v>
+        <v>4696.821562909935</v>
       </c>
       <c r="D132">
-        <v>9880.588731989274</v>
+        <v>10235.75723267815</v>
       </c>
       <c r="E132">
-        <v>483.5195785281644</v>
+        <v>520.1062251303518</v>
       </c>
       <c r="F132">
-        <v>1443.906583786764</v>
+        <v>1491.674548180488</v>
       </c>
       <c r="G132">
-        <v>8436.68214820251</v>
+        <v>8744.082684497662</v>
       </c>
       <c r="H132">
-        <v>382.4378149598859</v>
+        <v>415.619134059272</v>
       </c>
       <c r="I132">
-        <v>101.0817635682785</v>
+        <v>104.4870910710799</v>
       </c>
       <c r="J132">
-        <v>192710.9565460636</v>
+        <v>223377.2579221502</v>
       </c>
       <c r="K132">
-        <v>4647.874753380212</v>
+        <v>4648.144703063515</v>
       </c>
       <c r="L132">
-        <v>6428</v>
+        <v>6594</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>38.64703224707647</v>
+        <v>42.03105610585255</v>
       </c>
       <c r="C133">
-        <v>38.64703224707647</v>
+        <v>42.03105610585255</v>
       </c>
       <c r="D133">
-        <v>6098.000944988986</v>
+        <v>6175.642130570301</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6098.000944988986</v>
+        <v>6175.642130570301</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>120582.8169166631</v>
+        <v>139456.5470962773</v>
       </c>
       <c r="K133">
-        <v>1857.762128999348</v>
+        <v>1858.190002403772</v>
       </c>
       <c r="L133">
-        <v>2811</v>
+        <v>2837</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>124.5506160546406</v>
+        <v>146.5397617935401</v>
       </c>
       <c r="C134">
-        <v>124.5506160546406</v>
+        <v>146.5397617935401</v>
       </c>
       <c r="D134">
-        <v>20911.04397366846</v>
+        <v>20820.72674193413</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20911.04397366846</v>
+        <v>20820.72674193413</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>412742.1666736761</v>
+        <v>472607.6404516101</v>
       </c>
       <c r="K134">
-        <v>6267.81907907083</v>
+        <v>6268.145671115721</v>
       </c>
       <c r="L134">
-        <v>9513</v>
+        <v>9569</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>15.40096576258902</v>
+        <v>17.77753870566875</v>
       </c>
       <c r="C135">
-        <v>15.40096576258902</v>
+        <v>17.77753870566875</v>
       </c>
       <c r="D135">
-        <v>2523.421713533324</v>
+        <v>2510.334021825223</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>80.7714562620275</v>
+        <v>84.52849203686604</v>
       </c>
       <c r="G135">
-        <v>2442.650257271297</v>
+        <v>2425.805529788357</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>49484.44275348371</v>
+        <v>57662.7835973745</v>
       </c>
       <c r="K135">
-        <v>763.9433546749534</v>
+        <v>764.1397646432886</v>
       </c>
       <c r="L135">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>148.1440367543654</v>
+        <v>138.1426939803287</v>
       </c>
       <c r="C136">
-        <v>148.1440367543654</v>
+        <v>138.1426939803287</v>
       </c>
       <c r="D136">
-        <v>23378.62503695059</v>
+        <v>23654.97378545925</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>779.6714656561726</v>
+        <v>790.4763403371654</v>
       </c>
       <c r="G136">
-        <v>22598.95357129442</v>
+        <v>22864.49744512209</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>453627.0683375356</v>
+        <v>525475.4354562517</v>
       </c>
       <c r="K136">
-        <v>6971.879394186719</v>
+        <v>6971.969758653374</v>
       </c>
       <c r="L136">
-        <v>10496</v>
+        <v>10593</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>301.1454470755665</v>
+        <v>348.0997442283441</v>
       </c>
       <c r="C137">
-        <v>301.1454470755665</v>
+        <v>348.0997442283441</v>
       </c>
       <c r="D137">
-        <v>53564.30016255842</v>
+        <v>53701.12640012198</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53564.30016255842</v>
+        <v>53701.12640012198</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1025317.367758081</v>
+        <v>1198707.557533906</v>
       </c>
       <c r="K137">
-        <v>15929.71910735656</v>
+        <v>15930.0014210811</v>
       </c>
       <c r="L137">
-        <v>24087</v>
+        <v>24311</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>133.0078304914796</v>
+        <v>121.4799380412294</v>
       </c>
       <c r="C138">
-        <v>133.0078304914796</v>
+        <v>121.4799380412294</v>
       </c>
       <c r="D138">
-        <v>19051.05508360944</v>
+        <v>19235.64927853419</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19051.05508360944</v>
+        <v>19235.64927853419</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>374190.2863231414</v>
+        <v>432597.6125688748</v>
       </c>
       <c r="K138">
-        <v>5753.082005769351</v>
+        <v>5752.851068347924</v>
       </c>
       <c r="L138">
-        <v>8707</v>
+        <v>8785</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>828.036851837706</v>
+        <v>888.5346347711699</v>
       </c>
       <c r="C139">
-        <v>828.036851837706</v>
+        <v>888.5346347711699</v>
       </c>
       <c r="D139">
-        <v>129784.8241086376</v>
+        <v>128642.7246083517</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>129784.8241086376</v>
+        <v>128642.7246083517</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>2503202.282874459</v>
+        <v>2922667.350310223</v>
       </c>
       <c r="K139">
-        <v>38560.92078169965</v>
+        <v>38560.94417979428</v>
       </c>
       <c r="L139">
-        <v>58300</v>
+        <v>58929</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>465.3690502252584</v>
+        <v>439.1666019762123</v>
       </c>
       <c r="C140">
-        <v>465.3690502252584</v>
+        <v>439.1666019762123</v>
       </c>
       <c r="D140">
-        <v>69123.33109870965</v>
+        <v>69231.27880819277</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>69123.33109870965</v>
+        <v>69231.27880819277</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1346089.820228258</v>
+        <v>1551687.364573826</v>
       </c>
       <c r="K140">
-        <v>20708.84874707122</v>
+        <v>20708.96196117351</v>
       </c>
       <c r="L140">
-        <v>31363</v>
+        <v>31599</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>241.4236663929982</v>
+        <v>234.6821013268522</v>
       </c>
       <c r="C141">
-        <v>241.4236663929982</v>
+        <v>234.6821013268522</v>
       </c>
       <c r="D141">
-        <v>36203.19478099115</v>
+        <v>36485.33642811218</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36203.19478099115</v>
+        <v>36485.33642811218</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>713309.3941021039</v>
+        <v>823964.2308439905</v>
       </c>
       <c r="K141">
-        <v>10926.75601269908</v>
+        <v>10927.32303141027</v>
       </c>
       <c r="L141">
-        <v>16526</v>
+        <v>16660</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1284.96561548001</v>
+        <v>1186.647027730207</v>
       </c>
       <c r="C142">
-        <v>1284.96561548001</v>
+        <v>1186.647027730207</v>
       </c>
       <c r="D142">
-        <v>191463.3477591612</v>
+        <v>192035.2136708625</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6457.761933915442</v>
+        <v>6382.859365613488</v>
       </c>
       <c r="G142">
-        <v>185005.5858252458</v>
+        <v>185652.354305249</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>3746843.885890601</v>
+        <v>4383795.531388032</v>
       </c>
       <c r="K142">
-        <v>58071.72424388339</v>
+        <v>58072.30942491425</v>
       </c>
       <c r="L142">
-        <v>87292</v>
+        <v>88184</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>476.2613167653709</v>
+        <v>481.3828821410393</v>
       </c>
       <c r="C143">
-        <v>476.2613167653709</v>
+        <v>481.3828821410393</v>
       </c>
       <c r="D143">
-        <v>75311.85292175907</v>
+        <v>72803.5605611955</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2514.41330385324</v>
+        <v>2433.462656611342</v>
       </c>
       <c r="G143">
-        <v>72797.43961790582</v>
+        <v>70370.09790458415</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1456726.095381046</v>
+        <v>1687090.499916866</v>
       </c>
       <c r="K143">
-        <v>22311.93844488332</v>
+        <v>22312.21777555061</v>
       </c>
       <c r="L143">
-        <v>33589</v>
+        <v>33912</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>512.7532342131318</v>
+        <v>610.2101987512503</v>
       </c>
       <c r="C144">
-        <v>512.7532342131318</v>
+        <v>610.2101987512503</v>
       </c>
       <c r="D144">
-        <v>85785.40415978841</v>
+        <v>85272.69823083756</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2845.165976632682</v>
+        <v>2682.321843655843</v>
       </c>
       <c r="G144">
-        <v>82940.23818315573</v>
+        <v>82590.37638718171</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1667213.032452339</v>
+        <v>1927137.230542257</v>
       </c>
       <c r="K144">
-        <v>25591.24269753058</v>
+        <v>25590.96420158174</v>
       </c>
       <c r="L144">
-        <v>38547</v>
+        <v>38887</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1018.555675976575</v>
+        <v>1069.227786226373</v>
       </c>
       <c r="C145">
-        <v>1018.555675976575</v>
+        <v>1069.227786226373</v>
       </c>
       <c r="D145">
-        <v>172706.7988080833</v>
+        <v>174988.8972391556</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5643.771909423709</v>
+        <v>5842.777359576092</v>
       </c>
       <c r="G145">
-        <v>167063.0268986596</v>
+        <v>169146.1198795795</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>3402362.491464121</v>
+        <v>3941255.786911632</v>
       </c>
       <c r="K145">
-        <v>52069.22833003803</v>
+        <v>52069.00713750022</v>
       </c>
       <c r="L145">
-        <v>78461</v>
+        <v>79152</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1329.293712941816</v>
+        <v>1260.842584310287</v>
       </c>
       <c r="C146">
-        <v>1329.293712941816</v>
+        <v>1260.842584310287</v>
       </c>
       <c r="D146">
-        <v>211100.1141376505</v>
+        <v>212769.589454076</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>6961.329423615239</v>
+        <v>6834.305343433675</v>
       </c>
       <c r="G146">
-        <v>204138.7847140352</v>
+        <v>205935.2841106423</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>4185485.364395721</v>
+        <v>4810398.553152898</v>
       </c>
       <c r="K146">
-        <v>63820.30075568536</v>
+        <v>63820.01527809673</v>
       </c>
       <c r="L146">
-        <v>96148</v>
+        <v>97027</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1308.984355565231</v>
+        <v>1177.81028252178</v>
       </c>
       <c r="C147">
-        <v>1308.984355565231</v>
+        <v>1177.81028252178</v>
       </c>
       <c r="D147">
-        <v>182859.3677537494</v>
+        <v>183652.8276372594</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>5813.226443321666</v>
+        <v>6212.668591256046</v>
       </c>
       <c r="G147">
-        <v>177046.1413104277</v>
+        <v>177440.1590460034</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>3591222.432152426</v>
+        <v>4201852.628605117</v>
       </c>
       <c r="K147">
-        <v>55340.9665454022</v>
+        <v>55340.82969612673</v>
       </c>
       <c r="L147">
-        <v>83225</v>
+        <v>84194</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1394.072995230119</v>
+        <v>1359.620056100839</v>
       </c>
       <c r="C148">
-        <v>1394.072995230119</v>
+        <v>1359.620056100839</v>
       </c>
       <c r="D148">
-        <v>211488.5290546976</v>
+        <v>209994.5495545187</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6934.59089567839</v>
+        <v>6752.115231867668</v>
       </c>
       <c r="G148">
-        <v>204553.9381590192</v>
+        <v>203242.434322651</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>4070022.408773937</v>
+        <v>4768152.651340744</v>
       </c>
       <c r="K148">
-        <v>63093.72227174648</v>
+        <v>63093.93420741788</v>
       </c>
       <c r="L148">
-        <v>94842</v>
+        <v>95755</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1354.510482323608</v>
+        <v>1211.581625839014</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1354.510482323608</v>
+        <v>1211.581625839014</v>
       </c>
       <c r="D149">
-        <v>197435.5499584176</v>
+        <v>201719.1507067104</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6594.654480018839</v>
+        <v>6914.414429490015</v>
       </c>
       <c r="G149">
-        <v>190840.8954783988</v>
+        <v>194804.7362772204</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>3879236.806806449</v>
+        <v>4508062.002046471</v>
       </c>
       <c r="K149">
-        <v>59773.79787369716</v>
+        <v>59774.04849170482</v>
       </c>
       <c r="L149">
-        <v>89547</v>
+        <v>90621</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>752.6752581650608</v>
+        <v>628.1307277778509</v>
       </c>
       <c r="C150">
-        <v>752.6752581650608</v>
+        <v>628.1307277778509</v>
       </c>
       <c r="D150">
-        <v>109697.1936862745</v>
+        <v>109247.4903652061</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3571.861529858673</v>
+        <v>3636.68284245918</v>
       </c>
       <c r="G150">
-        <v>106125.3321564159</v>
+        <v>105610.8075227469</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2154568.223963471</v>
+        <v>2500690.019104341</v>
       </c>
       <c r="K150">
-        <v>33175.06912332644</v>
+        <v>33175.18499042847</v>
       </c>
       <c r="L150">
-        <v>49954</v>
+        <v>50346</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>778.06886611734</v>
+        <v>746.8875991229385</v>
       </c>
       <c r="C151">
-        <v>778.06886611734</v>
+        <v>746.8875991229385</v>
       </c>
       <c r="D151">
-        <v>114357.0252247274</v>
+        <v>115094.9273124716</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3825.207684990295</v>
+        <v>3833.55783501691</v>
       </c>
       <c r="G151">
-        <v>110531.8175397372</v>
+        <v>111261.3694774547</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2256030.197079833</v>
+        <v>2614440.098701494</v>
       </c>
       <c r="K151">
-        <v>34695.12133021206</v>
+        <v>34695.18743513677</v>
       </c>
       <c r="L151">
-        <v>52259</v>
+        <v>52723</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>671.1454309061412</v>
+        <v>585.3006237670419</v>
       </c>
       <c r="C152">
-        <v>671.1454309061412</v>
+        <v>585.3006237670419</v>
       </c>
       <c r="D152">
-        <v>98678.90899871901</v>
+        <v>99724.96899409867</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3254.402256094842</v>
+        <v>3355.148671353685</v>
       </c>
       <c r="G152">
-        <v>95424.50674262417</v>
+        <v>96369.82032274498</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1942889.668555221</v>
+        <v>2233063.5789322</v>
       </c>
       <c r="K152">
-        <v>29844.90871409721</v>
+        <v>29844.94524730891</v>
       </c>
       <c r="L152">
-        <v>44933</v>
+        <v>45258</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>535.7297582572407</v>
+        <v>612.1163133927553</v>
       </c>
       <c r="C153">
-        <v>535.7297582572407</v>
+        <v>612.1163133927553</v>
       </c>
       <c r="D153">
-        <v>102517.8830978634</v>
+        <v>104461.0174684354</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3313.080580684452</v>
+        <v>3448.980106459864</v>
       </c>
       <c r="G153">
-        <v>99204.80251717896</v>
+        <v>101012.0373619755</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2014776.982474936</v>
+        <v>2336966.038277706</v>
       </c>
       <c r="K153">
-        <v>30868.30114110969</v>
+        <v>30867.91537406725</v>
       </c>
       <c r="L153">
-        <v>46495</v>
+        <v>46967</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>182.8616190419987</v>
+        <v>172.3002860905378</v>
       </c>
       <c r="C154">
-        <v>182.8616190419987</v>
+        <v>172.3002860905378</v>
       </c>
       <c r="D154">
-        <v>28448.52226601661</v>
+        <v>28509.33210784641</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>958.7161868897705</v>
+        <v>947.5873006792779</v>
       </c>
       <c r="G154">
-        <v>27489.80607912684</v>
+        <v>27561.74480716713</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>557416.078136076</v>
+        <v>641899.2909379306</v>
       </c>
       <c r="K154">
-        <v>8498.885348582469</v>
+        <v>8498.951098165502</v>
       </c>
       <c r="L154">
-        <v>12794</v>
+        <v>12926</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>204.4246232148404</v>
+        <v>206.2649898940673</v>
       </c>
       <c r="C155">
-        <v>204.4246232148404</v>
+        <v>206.2649898940673</v>
       </c>
       <c r="D155">
-        <v>33837.85322871149</v>
+        <v>33665.61943416617</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>33837.85322871149</v>
+        <v>33665.61943416617</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>653815.3889971337</v>
+        <v>753143.8489738082</v>
       </c>
       <c r="K155">
-        <v>10005.78367298795</v>
+        <v>10005.85081145528</v>
       </c>
       <c r="L155">
-        <v>15156</v>
+        <v>15306</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>106.4086656929927</v>
+        <v>99.31827379316765</v>
       </c>
       <c r="C156">
-        <v>106.4086656929927</v>
+        <v>99.31827379316765</v>
       </c>
       <c r="D156">
-        <v>15085.70589099941</v>
+        <v>15138.72854681691</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15085.70589099941</v>
+        <v>15138.72854681691</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>295782.8642293059</v>
+        <v>341241.7337307966</v>
       </c>
       <c r="K156">
-        <v>4532.840768819791</v>
+        <v>4533.086285613409</v>
       </c>
       <c r="L156">
-        <v>6867</v>
+        <v>6922</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9539.413659635811</v>
+        <v>10535.42331640362</v>
       </c>
       <c r="C2">
-        <v>9539.413659635811</v>
+        <v>10535.42331640362</v>
       </c>
       <c r="D2">
-        <v>212800.1111310789</v>
+        <v>208854.4380305846</v>
       </c>
       <c r="E2">
-        <v>267948.2160999737</v>
+        <v>280263.1117559479</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>212800.1111310789</v>
+        <v>208854.4380305846</v>
       </c>
       <c r="H2">
-        <v>157256.7535665363</v>
+        <v>165135.7768455003</v>
       </c>
       <c r="I2">
-        <v>110691.4625334374</v>
+        <v>115127.3349104476</v>
       </c>
       <c r="J2">
-        <v>2833796.220317605</v>
+        <v>2818102.388642696</v>
       </c>
       <c r="K2">
-        <v>51893.05506619181</v>
+        <v>51892.76573138437</v>
       </c>
       <c r="L2">
-        <v>74673</v>
+        <v>73851</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4579.862664493889</v>
+        <v>5160.861399627096</v>
       </c>
       <c r="C3">
-        <v>4579.862664493889</v>
+        <v>5160.861399627096</v>
       </c>
       <c r="D3">
-        <v>98266.98674455336</v>
+        <v>101105.5804365722</v>
       </c>
       <c r="E3">
-        <v>126685.3831308301</v>
+        <v>130824.5263071151</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>98266.98674455336</v>
+        <v>101105.5804365722</v>
       </c>
       <c r="H3">
-        <v>75028.50126327362</v>
+        <v>77253.04675382932</v>
       </c>
       <c r="I3">
-        <v>51656.88186755649</v>
+        <v>53571.47955328579</v>
       </c>
       <c r="J3">
-        <v>1330929.096180297</v>
+        <v>1314929.12611949</v>
       </c>
       <c r="K3">
-        <v>24442.81011620129</v>
+        <v>24442.91325033434</v>
       </c>
       <c r="L3">
-        <v>35150</v>
+        <v>34747</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4056.34767841147</v>
+        <v>5104.701697054479</v>
       </c>
       <c r="B4">
-        <v>9574.994150879735</v>
+        <v>12914.54222509804</v>
       </c>
       <c r="C4">
-        <v>13631.3418292912</v>
+        <v>18019.24392215252</v>
       </c>
       <c r="D4">
-        <v>319976.678018129</v>
+        <v>312548.5087231019</v>
       </c>
       <c r="E4">
-        <v>405322.121644499</v>
+        <v>409374.9984965511</v>
       </c>
       <c r="F4">
-        <v>106320.4565849773</v>
+        <v>103024.7558885947</v>
       </c>
       <c r="G4">
-        <v>213656.2214331516</v>
+        <v>209523.7528345072</v>
       </c>
       <c r="H4">
-        <v>239494.2139277968</v>
+        <v>241808.3269971811</v>
       </c>
       <c r="I4">
-        <v>165827.9077167022</v>
+        <v>167566.6714993701</v>
       </c>
       <c r="J4">
-        <v>4156222.344229566</v>
+        <v>4147729.437887819</v>
       </c>
       <c r="K4">
-        <v>76597.9463115602</v>
+        <v>76597.66930342221</v>
       </c>
       <c r="L4">
-        <v>106205</v>
+        <v>105112</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>13056.15976682637</v>
+        <v>15303.1043766959</v>
       </c>
       <c r="B5">
-        <v>29821.70458133259</v>
+        <v>35879.62327133252</v>
       </c>
       <c r="C5">
-        <v>42877.86434815897</v>
+        <v>51182.72764802842</v>
       </c>
       <c r="D5">
-        <v>981905.2484251925</v>
+        <v>1009991.051788674</v>
       </c>
       <c r="E5">
-        <v>1244830.889617895</v>
+        <v>1323582.06621211</v>
       </c>
       <c r="F5">
-        <v>325856.7320367037</v>
+        <v>332529.5617343159</v>
       </c>
       <c r="G5">
-        <v>656048.5163884889</v>
+        <v>677461.4900543577</v>
       </c>
       <c r="H5">
-        <v>734290.8868068415</v>
+        <v>778724.3324417281</v>
       </c>
       <c r="I5">
-        <v>510540.0028110532</v>
+        <v>544857.7337703813</v>
       </c>
       <c r="J5">
-        <v>12986654.06514806</v>
+        <v>13066212.84433937</v>
       </c>
       <c r="K5">
-        <v>240460.9885607004</v>
+        <v>240461.2275032412</v>
       </c>
       <c r="L5">
-        <v>333181</v>
+        <v>329710</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>4677.202374425508</v>
+        <v>5291.036158244802</v>
       </c>
       <c r="B6">
-        <v>11132.97436979503</v>
+        <v>12369.89214966445</v>
       </c>
       <c r="C6">
-        <v>15810.17674422054</v>
+        <v>17660.92830790926</v>
       </c>
       <c r="D6">
-        <v>364520.4551573873</v>
+        <v>371558.9249356902</v>
       </c>
       <c r="E6">
-        <v>465068.0429525977</v>
+        <v>469951.8910804715</v>
       </c>
       <c r="F6">
-        <v>119518.7879431744</v>
+        <v>122767.3963210561</v>
       </c>
       <c r="G6">
-        <v>245001.6672142129</v>
+        <v>248791.528614634</v>
       </c>
       <c r="H6">
-        <v>275526.298044666</v>
+        <v>277395.2483616186</v>
       </c>
       <c r="I6">
-        <v>189541.7449079317</v>
+        <v>192556.6427188529</v>
       </c>
       <c r="J6">
-        <v>4786724.28264301</v>
+        <v>4799367.312358188</v>
       </c>
       <c r="K6">
-        <v>88279.98462656939</v>
+        <v>88279.8314767566</v>
       </c>
       <c r="L6">
-        <v>122225</v>
+        <v>121090</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2650.201729116106</v>
+        <v>3239.620341282729</v>
       </c>
       <c r="B7">
-        <v>6073.970600998143</v>
+        <v>7864.990771326349</v>
       </c>
       <c r="C7">
-        <v>8724.172330114248</v>
+        <v>11104.61111260908</v>
       </c>
       <c r="D7">
-        <v>188994.1941090604</v>
+        <v>189033.7402809037</v>
       </c>
       <c r="E7">
-        <v>240423.4552474962</v>
+        <v>248808.8447519467</v>
       </c>
       <c r="F7">
-        <v>63880.26051223941</v>
+        <v>64145.0327330061</v>
       </c>
       <c r="G7">
-        <v>125113.933596821</v>
+        <v>124888.7075478976</v>
       </c>
       <c r="H7">
-        <v>141849.2071507749</v>
+        <v>147323.5882244961</v>
       </c>
       <c r="I7">
-        <v>98574.24809672123</v>
+        <v>101485.2565274505</v>
       </c>
       <c r="J7">
-        <v>2564168.540434405</v>
+        <v>2562148.566397334</v>
       </c>
       <c r="K7">
-        <v>47023.03115029597</v>
+        <v>47022.98149248662</v>
       </c>
       <c r="L7">
-        <v>65206</v>
+        <v>64510.00000000001</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>15008.01944585477</v>
+        <v>15927.53831578488</v>
       </c>
       <c r="B8">
-        <v>33612.40257476531</v>
+        <v>36935.35772863942</v>
       </c>
       <c r="C8">
-        <v>48620.42202062008</v>
+        <v>52862.89604442431</v>
       </c>
       <c r="D8">
-        <v>1069591.194905716</v>
+        <v>1090317.789886793</v>
       </c>
       <c r="E8">
-        <v>1359363.552229501</v>
+        <v>1462896.968033858</v>
       </c>
       <c r="F8">
-        <v>360530.1171161499</v>
+        <v>356419.3756551114</v>
       </c>
       <c r="G8">
-        <v>709061.0777895661</v>
+        <v>733898.4142316815</v>
       </c>
       <c r="H8">
-        <v>803887.4624319342</v>
+        <v>859668.9991635242</v>
       </c>
       <c r="I8">
-        <v>555476.0897975665</v>
+        <v>603227.9688703339</v>
       </c>
       <c r="J8">
-        <v>14344572.81220075</v>
+        <v>14326769.48183466</v>
       </c>
       <c r="K8">
-        <v>264640.827886339</v>
+        <v>264640.7962581586</v>
       </c>
       <c r="L8">
-        <v>366852</v>
+        <v>363460</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>3743.39017133113</v>
+        <v>4439.557425151527</v>
       </c>
       <c r="B9">
-        <v>8661.39830636023</v>
+        <v>10824.19298858049</v>
       </c>
       <c r="C9">
-        <v>12404.78847769136</v>
+        <v>15263.75041373201</v>
       </c>
       <c r="D9">
-        <v>289110.5489275985</v>
+        <v>290730.7322275303</v>
       </c>
       <c r="E9">
-        <v>367945.9697577863</v>
+        <v>372871.4816073517</v>
       </c>
       <c r="F9">
-        <v>95984.182799242</v>
+        <v>96326.81786483046</v>
       </c>
       <c r="G9">
-        <v>193126.3661283565</v>
+        <v>194403.9143626998</v>
       </c>
       <c r="H9">
-        <v>217015.753806175</v>
+        <v>221646.0395041435</v>
       </c>
       <c r="I9">
-        <v>150930.2159516112</v>
+        <v>151225.4421032082</v>
       </c>
       <c r="J9">
-        <v>3859093.622086037</v>
+        <v>3878309.461359651</v>
       </c>
       <c r="K9">
-        <v>71448.28065245683</v>
+        <v>71448.36170447306</v>
       </c>
       <c r="L9">
-        <v>99186</v>
+        <v>97994</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1526.108690059678</v>
+        <v>1711.372323584304</v>
       </c>
       <c r="B10">
-        <v>3757.729951512893</v>
+        <v>4235.500770367978</v>
       </c>
       <c r="C10">
-        <v>5283.838641572571</v>
+        <v>5946.873093952282</v>
       </c>
       <c r="D10">
-        <v>114972.8218862838</v>
+        <v>117894.0535804754</v>
       </c>
       <c r="E10">
-        <v>145048.4106073898</v>
+        <v>153209.732008828</v>
       </c>
       <c r="F10">
-        <v>38042.26138996505</v>
+        <v>38516.19421364873</v>
       </c>
       <c r="G10">
-        <v>76930.56049631872</v>
+        <v>79377.85936682673</v>
       </c>
       <c r="H10">
-        <v>85637.52174915263</v>
+        <v>90623.38964711085</v>
       </c>
       <c r="I10">
-        <v>59410.88885823716</v>
+        <v>62586.34236171712</v>
       </c>
       <c r="J10">
-        <v>1520036.262045147</v>
+        <v>1519016.399744933</v>
       </c>
       <c r="K10">
-        <v>28004.07179479815</v>
+        <v>28003.95381328925</v>
       </c>
       <c r="L10">
-        <v>38822</v>
+        <v>38404</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2904.376596573931</v>
+        <v>3284.079127215682</v>
       </c>
       <c r="B11">
-        <v>7454.131578605587</v>
+        <v>8460.063822963082</v>
       </c>
       <c r="C11">
-        <v>10358.50817517952</v>
+        <v>11744.14295017876</v>
       </c>
       <c r="D11">
-        <v>241608.3058273406</v>
+        <v>231168.941408066</v>
       </c>
       <c r="E11">
-        <v>299564.8460251528</v>
+        <v>305574.1643071155</v>
       </c>
       <c r="F11">
-        <v>79649.00070056565</v>
+        <v>77013.39263015124</v>
       </c>
       <c r="G11">
-        <v>161959.305126775</v>
+        <v>154155.5487779147</v>
       </c>
       <c r="H11">
-        <v>176186.0029019007</v>
+        <v>182023.5294494319</v>
       </c>
       <c r="I11">
-        <v>123378.8431232521</v>
+        <v>123550.6348576836</v>
       </c>
       <c r="J11">
-        <v>3124709.812950369</v>
+        <v>3117675.944181571</v>
       </c>
       <c r="K11">
-        <v>57876.8050728184</v>
+        <v>57877.06732686347</v>
       </c>
       <c r="L11">
-        <v>80189</v>
+        <v>79417</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4312.627731178904</v>
+        <v>4968.457316018926</v>
       </c>
       <c r="B12">
-        <v>9748.014685341413</v>
+        <v>12614.43386935022</v>
       </c>
       <c r="C12">
-        <v>14060.64241652032</v>
+        <v>17582.89118536914</v>
       </c>
       <c r="D12">
-        <v>328459.0076096415</v>
+        <v>322305.2710491277</v>
       </c>
       <c r="E12">
-        <v>429541.2691189297</v>
+        <v>409209.9982262014</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>328459.0076096415</v>
+        <v>322305.2710491277</v>
       </c>
       <c r="H12">
-        <v>252490.62186111</v>
+        <v>242319.563503849</v>
       </c>
       <c r="I12">
-        <v>177050.6472578197</v>
+        <v>166890.4347223524</v>
       </c>
       <c r="J12">
-        <v>4262176.630657469</v>
+        <v>4302315.804608604</v>
       </c>
       <c r="K12">
-        <v>78646.24504558864</v>
+        <v>78645.97100390519</v>
       </c>
       <c r="L12">
-        <v>112289</v>
+        <v>111518</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1879.038684997618</v>
+        <v>2383.359130607751</v>
       </c>
       <c r="B13">
-        <v>4163.235099781798</v>
+        <v>5478.383370480907</v>
       </c>
       <c r="C13">
-        <v>6042.273784779416</v>
+        <v>7861.742501088658</v>
       </c>
       <c r="D13">
-        <v>142264.8776705658</v>
+        <v>141536.5049857784</v>
       </c>
       <c r="E13">
-        <v>183693.7472543251</v>
+        <v>189369.0311117608</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>142264.8776705658</v>
+        <v>141536.5049857784</v>
       </c>
       <c r="H13">
-        <v>108280.5097241483</v>
+        <v>111316.024589755</v>
       </c>
       <c r="I13">
-        <v>75413.23753017689</v>
+        <v>78053.00652200577</v>
       </c>
       <c r="J13">
-        <v>1889380.576829083</v>
+        <v>1869450.106711455</v>
       </c>
       <c r="K13">
-        <v>34684.2794848277</v>
+        <v>34684.18293588579</v>
       </c>
       <c r="L13">
-        <v>49568</v>
+        <v>48983</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>8362.748060136075</v>
+        <v>8871.144200143808</v>
       </c>
       <c r="C14">
-        <v>8362.748060136075</v>
+        <v>8871.144200143808</v>
       </c>
       <c r="D14">
-        <v>177864.2503106523</v>
+        <v>176744.4023315418</v>
       </c>
       <c r="E14">
-        <v>227400.4782122709</v>
+        <v>228949.3905840378</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>177864.2503106523</v>
+        <v>176744.4023315418</v>
       </c>
       <c r="H14">
-        <v>134085.5608316968</v>
+        <v>134169.8395011755</v>
       </c>
       <c r="I14">
-        <v>93314.9173805742</v>
+        <v>94779.55108286229</v>
       </c>
       <c r="J14">
-        <v>2330887.614591957</v>
+        <v>2332227.248973288</v>
       </c>
       <c r="K14">
-        <v>42869.01528276866</v>
+        <v>42868.96604926194</v>
       </c>
       <c r="L14">
-        <v>61677</v>
+        <v>61018</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7612.19603953045</v>
+        <v>8312.572666074242</v>
       </c>
       <c r="C15">
-        <v>7612.19603953045</v>
+        <v>8312.572666074242</v>
       </c>
       <c r="D15">
-        <v>172069.4826777311</v>
+        <v>170423.5811802364</v>
       </c>
       <c r="E15">
-        <v>222396.2545779611</v>
+        <v>222433.4977285187</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>172069.4826777311</v>
+        <v>170423.5811802364</v>
       </c>
       <c r="H15">
-        <v>130695.9815117831</v>
+        <v>131422.61787876</v>
       </c>
       <c r="I15">
-        <v>91700.27306617799</v>
+        <v>91010.87984975862</v>
       </c>
       <c r="J15">
-        <v>2264406.156977447</v>
+        <v>2263335.239040247</v>
       </c>
       <c r="K15">
-        <v>41814.27277007253</v>
+        <v>41814.07355777825</v>
       </c>
       <c r="L15">
-        <v>60103</v>
+        <v>59433</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>5660.675353660351</v>
+        <v>6767.011951691727</v>
       </c>
       <c r="C16">
-        <v>5660.675353660351</v>
+        <v>6767.011951691727</v>
       </c>
       <c r="D16">
-        <v>127709.5243889869</v>
+        <v>126412.1604014367</v>
       </c>
       <c r="E16">
-        <v>162753.1494433896</v>
+        <v>163319.0343041371</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>127709.5243889869</v>
+        <v>126412.1604014367</v>
       </c>
       <c r="H16">
-        <v>96163.37210367812</v>
+        <v>98008.59585410655</v>
       </c>
       <c r="I16">
-        <v>66589.77733971148</v>
+        <v>65310.43845003055</v>
       </c>
       <c r="J16">
-        <v>1694584.832290671</v>
+        <v>1683302.013408523</v>
       </c>
       <c r="K16">
-        <v>31076.80129646835</v>
+        <v>31076.69611573492</v>
       </c>
       <c r="L16">
-        <v>44697</v>
+        <v>44221</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1958.426816443807</v>
+        <v>2036.377720244071</v>
       </c>
       <c r="C17">
-        <v>1958.426816443807</v>
+        <v>2036.377720244071</v>
       </c>
       <c r="D17">
-        <v>12059.8535867744</v>
+        <v>11929.67718395385</v>
       </c>
       <c r="E17">
-        <v>17357.25615631322</v>
+        <v>17233.07432241158</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12059.8535867744</v>
+        <v>11929.67718395385</v>
       </c>
       <c r="H17">
-        <v>9928.414913727765</v>
+        <v>9814.569411376626</v>
       </c>
       <c r="I17">
-        <v>7428.841242585457</v>
+        <v>7418.504911034953</v>
       </c>
       <c r="J17">
-        <v>143611.6978283376</v>
+        <v>144541.5523646136</v>
       </c>
       <c r="K17">
-        <v>4915.315122976545</v>
+        <v>4914.917116210908</v>
       </c>
       <c r="L17">
-        <v>6858</v>
+        <v>6661</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2888.440426452438</v>
+        <v>2649.15914674584</v>
       </c>
       <c r="C18">
-        <v>2888.440426452438</v>
+        <v>2649.15914674584</v>
       </c>
       <c r="D18">
-        <v>17767.93095291672</v>
+        <v>16792.39458254372</v>
       </c>
       <c r="E18">
-        <v>25160.58086693582</v>
+        <v>24813.67420118214</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17767.93095291672</v>
+        <v>16792.39458254372</v>
       </c>
       <c r="H18">
-        <v>14312.61692801303</v>
+        <v>14274.24275302031</v>
       </c>
       <c r="I18">
-        <v>10847.96393892279</v>
+        <v>10539.43144816183</v>
       </c>
       <c r="J18">
-        <v>203253.7651057527</v>
+        <v>201669.0569962286</v>
       </c>
       <c r="K18">
-        <v>7009.745622248188</v>
+        <v>7009.772604700202</v>
       </c>
       <c r="L18">
-        <v>9777</v>
+        <v>9496</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>566.428233350485</v>
+        <v>609.8809607390955</v>
       </c>
       <c r="B19">
-        <v>6107.308438598378</v>
+        <v>5928.948787803884</v>
       </c>
       <c r="C19">
-        <v>6673.736671948863</v>
+        <v>6538.829748542979</v>
       </c>
       <c r="D19">
-        <v>39215.67458823424</v>
+        <v>38155.22558586776</v>
       </c>
       <c r="E19">
-        <v>56626.86160314785</v>
+        <v>57938.85184026791</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>39215.67458823424</v>
+        <v>38155.22558586776</v>
       </c>
       <c r="H19">
-        <v>32228.18489982297</v>
+        <v>32893.80286400795</v>
       </c>
       <c r="I19">
-        <v>24398.67670332487</v>
+        <v>25045.04897625996</v>
       </c>
       <c r="J19">
-        <v>471074.071921484</v>
+        <v>467597.5493282651</v>
       </c>
       <c r="K19">
-        <v>16218.73521464365</v>
+        <v>16219.36763966478</v>
       </c>
       <c r="L19">
-        <v>22537</v>
+        <v>21862</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1282.305108626327</v>
+        <v>1336.004320531449</v>
       </c>
       <c r="B20">
-        <v>13837.18421188734</v>
+        <v>12965.32719285603</v>
       </c>
       <c r="C20">
-        <v>15119.48932051367</v>
+        <v>14301.33151338748</v>
       </c>
       <c r="D20">
-        <v>91954.14575986823</v>
+        <v>93420.83392984761</v>
       </c>
       <c r="E20">
-        <v>133868.2040866194</v>
+        <v>134271.7264660715</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>91954.14575986823</v>
+        <v>93420.83392984761</v>
       </c>
       <c r="H20">
-        <v>76900.21888417412</v>
+        <v>76057.38546903616</v>
       </c>
       <c r="I20">
-        <v>56967.98520244528</v>
+        <v>58214.34099703537</v>
       </c>
       <c r="J20">
-        <v>1090732.203851936</v>
+        <v>1072314.911275543</v>
       </c>
       <c r="K20">
-        <v>37313.94172052527</v>
+        <v>37313.87565379032</v>
       </c>
       <c r="L20">
-        <v>51876</v>
+        <v>50433</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3410.69228209776</v>
+        <v>2809.849877132393</v>
       </c>
       <c r="B21">
-        <v>34329.93361231647</v>
+        <v>32411.42408500811</v>
       </c>
       <c r="C21">
-        <v>37740.62589441423</v>
+        <v>35221.27396214051</v>
       </c>
       <c r="D21">
-        <v>218038.3879595616</v>
+        <v>223356.2315849937</v>
       </c>
       <c r="E21">
-        <v>316717.3415968117</v>
+        <v>326782.0489934204</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>218038.3879595616</v>
+        <v>223356.2315849937</v>
       </c>
       <c r="H21">
-        <v>180204.2787433204</v>
+        <v>185908.895340313</v>
       </c>
       <c r="I21">
-        <v>136513.0628534913</v>
+        <v>140873.1536531074</v>
       </c>
       <c r="J21">
-        <v>2644137.44349318</v>
+        <v>2654059.076364531</v>
       </c>
       <c r="K21">
-        <v>90793.82075081616</v>
+        <v>90793.81349941465</v>
       </c>
       <c r="L21">
-        <v>126196</v>
+        <v>122799</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3768.239190203123</v>
+        <v>4197.95297507671</v>
       </c>
       <c r="B22">
-        <v>38069.12424177895</v>
+        <v>42201.84266220764</v>
       </c>
       <c r="C22">
-        <v>41837.36343198208</v>
+        <v>46399.79563728435</v>
       </c>
       <c r="D22">
-        <v>273016.8635944956</v>
+        <v>256160.6969187017</v>
       </c>
       <c r="E22">
-        <v>374797.6025862523</v>
+        <v>392703.4635118272</v>
       </c>
       <c r="F22">
-        <v>45017.49993448712</v>
+        <v>41584.38198964137</v>
       </c>
       <c r="G22">
-        <v>227999.3636600084</v>
+        <v>214576.3149290603</v>
       </c>
       <c r="H22">
-        <v>212739.7706291991</v>
+        <v>224593.7635124232</v>
       </c>
       <c r="I22">
-        <v>162057.8319570532</v>
+        <v>168109.6999994041</v>
       </c>
       <c r="J22">
-        <v>3149231.388101533</v>
+        <v>3174254.509045283</v>
       </c>
       <c r="K22">
-        <v>108045.0917645584</v>
+        <v>108045.0551543518</v>
       </c>
       <c r="L22">
-        <v>148098</v>
+        <v>144449</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>4173.358293508939</v>
+        <v>3675.676001271046</v>
       </c>
       <c r="B23">
-        <v>41296.48117690456</v>
+        <v>39913.25511243156</v>
       </c>
       <c r="C23">
-        <v>45469.8394704135</v>
+        <v>43588.93111370261</v>
       </c>
       <c r="D23">
-        <v>283259.6969319576</v>
+        <v>283601.529754575</v>
       </c>
       <c r="E23">
-        <v>411288.8625226645</v>
+        <v>418777.9847354708</v>
       </c>
       <c r="F23">
-        <v>45883.73164373607</v>
+        <v>44461.99579086987</v>
       </c>
       <c r="G23">
-        <v>237375.9652882215</v>
+        <v>239139.5339637052</v>
       </c>
       <c r="H23">
-        <v>234224.6957695518</v>
+        <v>238888.669871595</v>
       </c>
       <c r="I23">
-        <v>177064.1667531127</v>
+        <v>179889.3148638757</v>
       </c>
       <c r="J23">
-        <v>3390433.261350982</v>
+        <v>3420332.000544513</v>
       </c>
       <c r="K23">
-        <v>116726.0199953358</v>
+        <v>116725.8293517607</v>
       </c>
       <c r="L23">
-        <v>160135</v>
+        <v>155987</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>6812.519821533568</v>
+        <v>7708.322683681043</v>
       </c>
       <c r="B24">
-        <v>67066.72953107601</v>
+        <v>72456.48085290531</v>
       </c>
       <c r="C24">
-        <v>73879.24935260958</v>
+        <v>80164.80353658636</v>
       </c>
       <c r="D24">
-        <v>473140.4985412079</v>
+        <v>463905.0437478024</v>
       </c>
       <c r="E24">
-        <v>677854.2652690863</v>
+        <v>697899.4475335834</v>
       </c>
       <c r="F24">
-        <v>78108.94823197879</v>
+        <v>75658.32653584557</v>
       </c>
       <c r="G24">
-        <v>395031.5503092291</v>
+        <v>388246.7172119569</v>
       </c>
       <c r="H24">
-        <v>383757.9328859</v>
+        <v>397406.5342149896</v>
       </c>
       <c r="I24">
-        <v>294096.3323831863</v>
+        <v>300492.9133185938</v>
       </c>
       <c r="J24">
-        <v>5632730.835237739</v>
+        <v>5575235.63414818</v>
       </c>
       <c r="K24">
-        <v>193189.8117919111</v>
+        <v>193190.0937378391</v>
       </c>
       <c r="L24">
-        <v>265136</v>
+        <v>258165</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>5989.698119252226</v>
+        <v>6253.123520114856</v>
       </c>
       <c r="B25">
-        <v>60948.644848076</v>
+        <v>59944.19627209938</v>
       </c>
       <c r="C25">
-        <v>66938.34296732822</v>
+        <v>66197.31979221423</v>
       </c>
       <c r="D25">
-        <v>417566.7510476121</v>
+        <v>410018.8199954789</v>
       </c>
       <c r="E25">
-        <v>591866.1855475908</v>
+        <v>609521.8110609988</v>
       </c>
       <c r="F25">
-        <v>68447.86374963602</v>
+        <v>65927.44595152736</v>
       </c>
       <c r="G25">
-        <v>349118.8872979761</v>
+        <v>344091.3740439515</v>
       </c>
       <c r="H25">
-        <v>337405.3274371222</v>
+        <v>346946.7578740506</v>
       </c>
       <c r="I25">
-        <v>254460.8581104685</v>
+        <v>262575.0531869482</v>
       </c>
       <c r="J25">
-        <v>4880381.534211387</v>
+        <v>4915317.124156529</v>
       </c>
       <c r="K25">
-        <v>167766.0698942455</v>
+        <v>167766.0990059668</v>
       </c>
       <c r="L25">
-        <v>229895</v>
+        <v>224354</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>3854.174940295223</v>
+        <v>4609.893913683927</v>
       </c>
       <c r="B26">
-        <v>39088.53589849935</v>
+        <v>44020.33388071758</v>
       </c>
       <c r="C26">
-        <v>42942.71083879458</v>
+        <v>48630.2277944015</v>
       </c>
       <c r="D26">
-        <v>285413.4496674677</v>
+        <v>284891.7614869481</v>
       </c>
       <c r="E26">
-        <v>415443.3118276195</v>
+        <v>433509.0976339041</v>
       </c>
       <c r="F26">
-        <v>45054.20440071263</v>
+        <v>45260.29255838269</v>
       </c>
       <c r="G26">
-        <v>240359.2452667551</v>
+        <v>239631.4689285654</v>
       </c>
       <c r="H26">
-        <v>235824.8657550311</v>
+        <v>247076.8270999851</v>
       </c>
       <c r="I26">
-        <v>179618.4460725884</v>
+        <v>186432.2705339191</v>
       </c>
       <c r="J26">
-        <v>3433604.09866002</v>
+        <v>3405233.52139974</v>
       </c>
       <c r="K26">
-        <v>117051.2606166464</v>
+        <v>117051.3494826219</v>
       </c>
       <c r="L26">
-        <v>160810</v>
+        <v>156173</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4835.451645057359</v>
+        <v>4707.110182552485</v>
       </c>
       <c r="B27">
-        <v>50357.45585276475</v>
+        <v>47321.09518725896</v>
       </c>
       <c r="C27">
-        <v>55192.90749782212</v>
+        <v>52028.20536981145</v>
       </c>
       <c r="D27">
-        <v>366570.5009724051</v>
+        <v>347649.3604329582</v>
       </c>
       <c r="E27">
-        <v>522624.3672952115</v>
+        <v>533777.2735693003</v>
       </c>
       <c r="F27">
-        <v>67862.00218657887</v>
+        <v>63499.74593638368</v>
       </c>
       <c r="G27">
-        <v>298708.4987858263</v>
+        <v>284149.6144965745</v>
       </c>
       <c r="H27">
-        <v>297132.1772296667</v>
+        <v>303890.7779755396</v>
       </c>
       <c r="I27">
-        <v>225492.1900655448</v>
+        <v>229886.4955937608</v>
       </c>
       <c r="J27">
-        <v>4289484.771013869</v>
+        <v>4276583.351881478</v>
       </c>
       <c r="K27">
-        <v>146865.0756573713</v>
+        <v>146864.9801130463</v>
       </c>
       <c r="L27">
-        <v>201380</v>
+        <v>196192</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>5920.394655084123</v>
+        <v>5453.794657310302</v>
       </c>
       <c r="B28">
-        <v>58091.95693544316</v>
+        <v>59399.68589559822</v>
       </c>
       <c r="C28">
-        <v>64012.35159052728</v>
+        <v>64853.48055290853</v>
       </c>
       <c r="D28">
-        <v>433937.2940194473</v>
+        <v>406416.6784132963</v>
       </c>
       <c r="E28">
-        <v>610942.0434552308</v>
+        <v>604967.3966432936</v>
       </c>
       <c r="F28">
-        <v>81397.04224606053</v>
+        <v>75700.54831617061</v>
       </c>
       <c r="G28">
-        <v>352540.2517733867</v>
+        <v>330716.1300971257</v>
       </c>
       <c r="H28">
-        <v>349743.922602871</v>
+        <v>347850.7120607037</v>
       </c>
       <c r="I28">
-        <v>261198.1208523598</v>
+        <v>257116.6845825899</v>
       </c>
       <c r="J28">
-        <v>4978643.751263711</v>
+        <v>4963940.846895392</v>
       </c>
       <c r="K28">
-        <v>171178.940379125</v>
+        <v>171179.2678339413</v>
       </c>
       <c r="L28">
-        <v>234737</v>
+        <v>228751</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>3536.832322293899</v>
+        <v>3342.740324172964</v>
       </c>
       <c r="B29">
-        <v>37555.91337329749</v>
+        <v>36812.11256210764</v>
       </c>
       <c r="C29">
-        <v>41092.74569559139</v>
+        <v>40154.8528862806</v>
       </c>
       <c r="D29">
-        <v>262674.0789919388</v>
+        <v>251466.8844112642</v>
       </c>
       <c r="E29">
-        <v>374866.7403015174</v>
+        <v>380836.1689741109</v>
       </c>
       <c r="F29">
-        <v>48940.26466343256</v>
+        <v>46164.50479299113</v>
       </c>
       <c r="G29">
-        <v>213733.8143285062</v>
+        <v>205302.379618273</v>
       </c>
       <c r="H29">
-        <v>214476.3504967712</v>
+        <v>218628.1146183774</v>
       </c>
       <c r="I29">
-        <v>160390.3898047463</v>
+        <v>162208.0543557335</v>
       </c>
       <c r="J29">
-        <v>3026549.366090467</v>
+        <v>3039942.050395857</v>
       </c>
       <c r="K29">
-        <v>104633.685602884</v>
+        <v>104633.6703950779</v>
       </c>
       <c r="L29">
-        <v>143456</v>
+        <v>139840</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1764.819082881161</v>
+        <v>1766.997835073449</v>
       </c>
       <c r="B30">
-        <v>18871.35224611028</v>
+        <v>18997.36354379999</v>
       </c>
       <c r="C30">
-        <v>20636.17132899144</v>
+        <v>20764.36137887344</v>
       </c>
       <c r="D30">
-        <v>131655.9576742315</v>
+        <v>125960.843290916</v>
       </c>
       <c r="E30">
-        <v>180899.5572095565</v>
+        <v>184310.0800180784</v>
       </c>
       <c r="F30">
-        <v>24375.96242587134</v>
+        <v>23113.980125807</v>
       </c>
       <c r="G30">
-        <v>107279.9952483601</v>
+        <v>102846.863165109</v>
       </c>
       <c r="H30">
-        <v>103140.3768925211</v>
+        <v>105133.5645748216</v>
       </c>
       <c r="I30">
-        <v>77759.1803170354</v>
+        <v>79176.51544325688</v>
       </c>
       <c r="J30">
-        <v>1514862.164692222</v>
+        <v>1514400.266733244</v>
       </c>
       <c r="K30">
-        <v>52080.75694165226</v>
+        <v>52080.73831223442</v>
       </c>
       <c r="L30">
-        <v>71419</v>
+        <v>69567</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1341.201660547646</v>
+        <v>1273.049893856147</v>
       </c>
       <c r="B31">
-        <v>13741.07311428858</v>
+        <v>13597.03494026486</v>
       </c>
       <c r="C31">
-        <v>15082.27477483622</v>
+        <v>14870.08483412101</v>
       </c>
       <c r="D31">
-        <v>95514.79147158467</v>
+        <v>94110.08847516704</v>
       </c>
       <c r="E31">
-        <v>134517.7810623278</v>
+        <v>135012.3853797503</v>
       </c>
       <c r="F31">
-        <v>17663.90966661296</v>
+        <v>17956.32506048167</v>
       </c>
       <c r="G31">
-        <v>77850.88180497172</v>
+        <v>76153.76341468537</v>
       </c>
       <c r="H31">
-        <v>76636.51592393861</v>
+        <v>77154.90333628115</v>
       </c>
       <c r="I31">
-        <v>57881.26513838925</v>
+        <v>57857.48204346918</v>
       </c>
       <c r="J31">
-        <v>1113839.227376649</v>
+        <v>1112554.377296277</v>
       </c>
       <c r="K31">
-        <v>38180.874308622</v>
+        <v>38180.79680549011</v>
       </c>
       <c r="L31">
-        <v>52368</v>
+        <v>50995</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2061,40 +2061,40 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>182.7261558223668</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>848.3190267853907</v>
+        <v>951.6785607793562</v>
       </c>
       <c r="C32">
-        <v>1031.045182607757</v>
+        <v>951.6785607793562</v>
       </c>
       <c r="D32">
-        <v>5910.323565238086</v>
+        <v>5656.995143641542</v>
       </c>
       <c r="E32">
-        <v>6807.159086435329</v>
+        <v>7026.215144555957</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5910.323565238086</v>
+        <v>5656.995143641542</v>
       </c>
       <c r="H32">
-        <v>3487.933548144713</v>
+        <v>3599.355304150181</v>
       </c>
       <c r="I32">
-        <v>3319.225538290617</v>
+        <v>3426.859840405776</v>
       </c>
       <c r="J32">
-        <v>83500.13609168663</v>
+        <v>84653.24061178537</v>
       </c>
       <c r="K32">
-        <v>2024.128391874415</v>
+        <v>2024.002329360438</v>
       </c>
       <c r="L32">
-        <v>2832</v>
+        <v>2863</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1770.835762501349</v>
+        <v>1590.836272761185</v>
       </c>
       <c r="B33">
-        <v>7964.579958045571</v>
+        <v>7543.987224010326</v>
       </c>
       <c r="C33">
-        <v>9735.41572054692</v>
+        <v>9134.823496771511</v>
       </c>
       <c r="D33">
-        <v>53505.37726236038</v>
+        <v>54275.1463369762</v>
       </c>
       <c r="E33">
-        <v>62095.91049974112</v>
+        <v>63340.24590364638</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>53505.37726236038</v>
+        <v>54275.1463369762</v>
       </c>
       <c r="H33">
-        <v>31619.6653546345</v>
+        <v>32425.81398348213</v>
       </c>
       <c r="I33">
-        <v>30476.24514510662</v>
+        <v>30914.43192016426</v>
       </c>
       <c r="J33">
-        <v>765516.1538034885</v>
+        <v>766974.5769526535</v>
       </c>
       <c r="K33">
-        <v>18523.12791973137</v>
+        <v>18522.80290132631</v>
       </c>
       <c r="L33">
-        <v>25929</v>
+        <v>25945</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5533.096476376856</v>
+        <v>5380.473924292802</v>
       </c>
       <c r="B34">
-        <v>25609.48837555814</v>
+        <v>25023.05326243677</v>
       </c>
       <c r="C34">
-        <v>31142.58485193499</v>
+        <v>30403.52718672958</v>
       </c>
       <c r="D34">
-        <v>180670.8007112851</v>
+        <v>174530.5636234514</v>
       </c>
       <c r="E34">
-        <v>207835.4058809071</v>
+        <v>211969.800096881</v>
       </c>
       <c r="F34">
-        <v>31287.1279259662</v>
+        <v>31248.60124804293</v>
       </c>
       <c r="G34">
-        <v>149383.6727853189</v>
+        <v>143281.9623754084</v>
       </c>
       <c r="H34">
-        <v>105337.3385069709</v>
+        <v>107918.2506385333</v>
       </c>
       <c r="I34">
-        <v>102498.0673739361</v>
+        <v>104051.5494583477</v>
       </c>
       <c r="J34">
-        <v>2548279.730944979</v>
+        <v>2547829.484045307</v>
       </c>
       <c r="K34">
-        <v>61493.91469509326</v>
+        <v>61494.23389706734</v>
       </c>
       <c r="L34">
-        <v>84878</v>
+        <v>85001</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>14068.93559793076</v>
+        <v>13661.05778195302</v>
       </c>
       <c r="B35">
-        <v>66355.182769062</v>
+        <v>62033.76157124366</v>
       </c>
       <c r="C35">
-        <v>80424.11836699276</v>
+        <v>75694.81935319668</v>
       </c>
       <c r="D35">
-        <v>446008.6297459324</v>
+        <v>452404.2363801742</v>
       </c>
       <c r="E35">
-        <v>517524.66651374</v>
+        <v>547812.2059574232</v>
       </c>
       <c r="F35">
-        <v>78029.7053923846</v>
+        <v>77741.27082337062</v>
       </c>
       <c r="G35">
-        <v>367978.9243535478</v>
+        <v>374662.9655568035</v>
       </c>
       <c r="H35">
-        <v>264574.134576292</v>
+        <v>277141.3272327557</v>
       </c>
       <c r="I35">
-        <v>252950.531937448</v>
+        <v>270670.8787246675</v>
       </c>
       <c r="J35">
-        <v>6416640.656608025</v>
+        <v>6443784.397104521</v>
       </c>
       <c r="K35">
-        <v>155264.9984790202</v>
+        <v>155265.3177310182</v>
       </c>
       <c r="L35">
-        <v>214199</v>
+        <v>213972</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>22220.35071815815</v>
+        <v>21903.43994492363</v>
       </c>
       <c r="B36">
-        <v>99913.34373877902</v>
+        <v>94977.61922462177</v>
       </c>
       <c r="C36">
-        <v>122133.6944569372</v>
+        <v>116881.0591695454</v>
       </c>
       <c r="D36">
-        <v>696164.1908378364</v>
+        <v>691337.9145686362</v>
       </c>
       <c r="E36">
-        <v>798433.8624639455</v>
+        <v>822211.5550314214</v>
       </c>
       <c r="F36">
-        <v>121263.9414177095</v>
+        <v>120925.1630426756</v>
       </c>
       <c r="G36">
-        <v>574900.2494201269</v>
+        <v>570412.7515259606</v>
       </c>
       <c r="H36">
-        <v>405271.5691327956</v>
+        <v>422543.5365814884</v>
       </c>
       <c r="I36">
-        <v>393162.29333115</v>
+        <v>399668.018449933</v>
       </c>
       <c r="J36">
-        <v>9888220.775623346</v>
+        <v>9950498.023451788</v>
       </c>
       <c r="K36">
-        <v>238367.303636415</v>
+        <v>238366.723051878</v>
       </c>
       <c r="L36">
-        <v>328926</v>
+        <v>327894</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5891.965054961134</v>
+        <v>5852.165043493371</v>
       </c>
       <c r="B37">
-        <v>25746.64893548258</v>
+        <v>24710.24614408204</v>
       </c>
       <c r="C37">
-        <v>31638.61399044372</v>
+        <v>30562.41118757541</v>
       </c>
       <c r="D37">
-        <v>188079.8208459769</v>
+        <v>185235.1911115007</v>
       </c>
       <c r="E37">
-        <v>221004.6195668121</v>
+        <v>213537.3422860563</v>
       </c>
       <c r="F37">
-        <v>33396.71504958981</v>
+        <v>31842.33056477151</v>
       </c>
       <c r="G37">
-        <v>154683.1057963871</v>
+        <v>153392.8605467292</v>
       </c>
       <c r="H37">
-        <v>112870.1229024166</v>
+        <v>108343.2665555915</v>
       </c>
       <c r="I37">
-        <v>108134.4966643955</v>
+        <v>105194.0757304648</v>
       </c>
       <c r="J37">
-        <v>2654907.89607801</v>
+        <v>2637449.965817699</v>
       </c>
       <c r="K37">
-        <v>63838.00202130983</v>
+        <v>63838.18297476326</v>
       </c>
       <c r="L37">
-        <v>88139</v>
+        <v>87940</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>15661.15405399957</v>
+        <v>14454.43762485785</v>
       </c>
       <c r="B38">
-        <v>70694.82444354369</v>
+        <v>66893.01975406962</v>
       </c>
       <c r="C38">
-        <v>86355.97849754327</v>
+        <v>81347.45737892747</v>
       </c>
       <c r="D38">
-        <v>485555.7536423801</v>
+        <v>493215.2497959312</v>
       </c>
       <c r="E38">
-        <v>571848.0868325728</v>
+        <v>587598.8804345648</v>
       </c>
       <c r="F38">
-        <v>83817.84983030218</v>
+        <v>87941.22288497903</v>
       </c>
       <c r="G38">
-        <v>401737.9038120779</v>
+        <v>405274.0269109522</v>
       </c>
       <c r="H38">
-        <v>292096.1545171542</v>
+        <v>297993.2855049661</v>
       </c>
       <c r="I38">
-        <v>279751.9323154187</v>
+        <v>289605.5949295986</v>
       </c>
       <c r="J38">
-        <v>6989462.395026204</v>
+        <v>6972524.585119211</v>
       </c>
       <c r="K38">
-        <v>169120.1289072185</v>
+        <v>169119.9716852585</v>
       </c>
       <c r="L38">
-        <v>233722</v>
+        <v>233304</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>19169.51749962309</v>
+        <v>17371.93627741836</v>
       </c>
       <c r="B39">
-        <v>86824.73174121733</v>
+        <v>79074.47322673969</v>
       </c>
       <c r="C39">
-        <v>105994.2492408404</v>
+        <v>96446.40950415806</v>
       </c>
       <c r="D39">
-        <v>596836.0572825088</v>
+        <v>583376.8752746591</v>
       </c>
       <c r="E39">
-        <v>687310.6588773807</v>
+        <v>710118.9388732801</v>
       </c>
       <c r="F39">
-        <v>104055.7880920056</v>
+        <v>101792.932932898</v>
       </c>
       <c r="G39">
-        <v>492780.2691905032</v>
+        <v>481583.9423417611</v>
       </c>
       <c r="H39">
-        <v>352400.3321579335</v>
+        <v>364761.32395314</v>
       </c>
       <c r="I39">
-        <v>334910.3267194471</v>
+        <v>345357.6149201401</v>
       </c>
       <c r="J39">
-        <v>8599274.039518548</v>
+        <v>8617330.344847769</v>
       </c>
       <c r="K39">
-        <v>206139.6892273794</v>
+        <v>206140.1727197739</v>
       </c>
       <c r="L39">
-        <v>284522</v>
+        <v>284551</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9191.423159702586</v>
+        <v>8746.395654616324</v>
       </c>
       <c r="B40">
-        <v>40876.96945661409</v>
+        <v>37516.97663984827</v>
       </c>
       <c r="C40">
-        <v>50068.39261631668</v>
+        <v>46263.37229446459</v>
       </c>
       <c r="D40">
-        <v>287258.6605054537</v>
+        <v>282426.1130337023</v>
       </c>
       <c r="E40">
-        <v>324181.524565719</v>
+        <v>335736.5087066622</v>
       </c>
       <c r="F40">
-        <v>50116.15437891586</v>
+        <v>48766.45314368214</v>
       </c>
       <c r="G40">
-        <v>237142.5061265378</v>
+        <v>233659.6598900202</v>
       </c>
       <c r="H40">
-        <v>165459.211540602</v>
+        <v>170458.655001831</v>
       </c>
       <c r="I40">
-        <v>158722.313025117</v>
+        <v>165277.8537048311</v>
       </c>
       <c r="J40">
-        <v>4014108.007250196</v>
+        <v>4064329.489961355</v>
       </c>
       <c r="K40">
-        <v>97788.95631740541</v>
+        <v>97788.67374133007</v>
       </c>
       <c r="L40">
-        <v>134755</v>
+        <v>134677</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>19135.05177218995</v>
+        <v>17822.47928131609</v>
       </c>
       <c r="B41">
-        <v>84580.62915703424</v>
+        <v>83654.37123108584</v>
       </c>
       <c r="C41">
-        <v>103715.6809292242</v>
+        <v>101476.8505124019</v>
       </c>
       <c r="D41">
-        <v>591975.9787941677</v>
+        <v>573218.9274655926</v>
       </c>
       <c r="E41">
-        <v>668876.0310079518</v>
+        <v>696455.5372079307</v>
       </c>
       <c r="F41">
-        <v>101965.3754330402</v>
+        <v>100960.767997801</v>
       </c>
       <c r="G41">
-        <v>490010.6033611275</v>
+        <v>472258.1594677916</v>
       </c>
       <c r="H41">
-        <v>339439.4693037522</v>
+        <v>354558.8078504788</v>
       </c>
       <c r="I41">
-        <v>329436.5617041996</v>
+        <v>341896.7293574519</v>
       </c>
       <c r="J41">
-        <v>8202817.651496796</v>
+        <v>8212664.10575924</v>
       </c>
       <c r="K41">
-        <v>197753.2976335009</v>
+        <v>197752.8332618791</v>
       </c>
       <c r="L41">
-        <v>273038</v>
+        <v>272580</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10441.90547207859</v>
+        <v>10278.13288301258</v>
       </c>
       <c r="B42">
-        <v>47860.69093286527</v>
+        <v>46642.2041209692</v>
       </c>
       <c r="C42">
-        <v>58302.59640494386</v>
+        <v>56920.33700398178</v>
       </c>
       <c r="D42">
-        <v>326881.4765778525</v>
+        <v>329333.2374187961</v>
       </c>
       <c r="E42">
-        <v>376588.0462543033</v>
+        <v>390149.8490808537</v>
       </c>
       <c r="F42">
-        <v>57202.0485523474</v>
+        <v>57607.69425067022</v>
       </c>
       <c r="G42">
-        <v>269679.4280255051</v>
+        <v>271725.5431681258</v>
       </c>
       <c r="H42">
-        <v>191305.6836015199</v>
+        <v>200722.4871480992</v>
       </c>
       <c r="I42">
-        <v>185282.3626527834</v>
+        <v>189427.3619327546</v>
       </c>
       <c r="J42">
-        <v>4659544.98228083</v>
+        <v>4677000.552496874</v>
       </c>
       <c r="K42">
-        <v>112252.9067368</v>
+        <v>112253.100619965</v>
       </c>
       <c r="L42">
-        <v>154695</v>
+        <v>154934</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>80228.87527480653</v>
+        <v>75618.62320096427</v>
       </c>
       <c r="C43">
-        <v>80228.87527480653</v>
+        <v>75618.62320096427</v>
       </c>
       <c r="D43">
-        <v>455881.5306903064</v>
+        <v>461034.3316642379</v>
       </c>
       <c r="E43">
-        <v>523925.8673350819</v>
+        <v>543573.9558834962</v>
       </c>
       <c r="F43">
-        <v>79197.62009333837</v>
+        <v>79659.371138934</v>
       </c>
       <c r="G43">
-        <v>376683.910596968</v>
+        <v>381374.9605253039</v>
       </c>
       <c r="H43">
-        <v>267446.9694851151</v>
+        <v>275844.032451666</v>
       </c>
       <c r="I43">
-        <v>256478.8978499667</v>
+        <v>267729.9234318301</v>
       </c>
       <c r="J43">
-        <v>6501337.837063446</v>
+        <v>6474767.909022438</v>
       </c>
       <c r="K43">
-        <v>156449.7296201</v>
+        <v>156449.6943599494</v>
       </c>
       <c r="L43">
-        <v>217780</v>
+        <v>217469</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>52946.94957364434</v>
+        <v>45985.18014081775</v>
       </c>
       <c r="C44">
-        <v>52946.94957364434</v>
+        <v>45985.18014081775</v>
       </c>
       <c r="D44">
-        <v>292089.9518467804</v>
+        <v>291410.4536980881</v>
       </c>
       <c r="E44">
-        <v>340569.0585628519</v>
+        <v>343663.9169914753</v>
       </c>
       <c r="F44">
-        <v>51037.81836972358</v>
+        <v>50708.79524123002</v>
       </c>
       <c r="G44">
-        <v>241052.1334770568</v>
+        <v>240701.658456858</v>
       </c>
       <c r="H44">
-        <v>174328.5391616838</v>
+        <v>174798.3243109119</v>
       </c>
       <c r="I44">
-        <v>166240.5194011681</v>
+        <v>168865.5926805635</v>
       </c>
       <c r="J44">
-        <v>4122036.85068489</v>
+        <v>4104145.898127154</v>
       </c>
       <c r="K44">
-        <v>99099.22335219255</v>
+        <v>99098.66602700771</v>
       </c>
       <c r="L44">
-        <v>137882</v>
+        <v>137711</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>38760.62282555551</v>
+        <v>34274.76989533323</v>
       </c>
       <c r="C45">
-        <v>38760.62282555551</v>
+        <v>34274.76989533323</v>
       </c>
       <c r="D45">
-        <v>212665.9406658744</v>
+        <v>210706.0904183689</v>
       </c>
       <c r="E45">
-        <v>249598.5075139883</v>
+        <v>260485.2842769151</v>
       </c>
       <c r="F45">
-        <v>36435.06212181254</v>
+        <v>36984.7926864469</v>
       </c>
       <c r="G45">
-        <v>176230.8785440619</v>
+        <v>173721.297731922</v>
       </c>
       <c r="H45">
-        <v>127230.8625636044</v>
+        <v>131269.1900874376</v>
       </c>
       <c r="I45">
-        <v>122367.6449503839</v>
+        <v>129216.0941894775</v>
       </c>
       <c r="J45">
-        <v>3055651.620798493</v>
+        <v>3073294.076717014</v>
       </c>
       <c r="K45">
-        <v>74157.89647971264</v>
+        <v>74157.85019538502</v>
       </c>
       <c r="L45">
-        <v>103265</v>
+        <v>103164</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2596.121040673658</v>
+        <v>2638.075171403617</v>
       </c>
       <c r="C46">
-        <v>2596.121040673658</v>
+        <v>2638.075171403617</v>
       </c>
       <c r="D46">
-        <v>15008.28457858934</v>
+        <v>15308.05649346442</v>
       </c>
       <c r="E46">
-        <v>17278.47043319484</v>
+        <v>18197.37671432708</v>
       </c>
       <c r="F46">
-        <v>2616.941199686737</v>
+        <v>2713.124303149299</v>
       </c>
       <c r="G46">
-        <v>12391.3433789026</v>
+        <v>12594.93219031512</v>
       </c>
       <c r="H46">
-        <v>8823.000499917162</v>
+        <v>9236.073832849683</v>
       </c>
       <c r="I46">
-        <v>8455.469933277676</v>
+        <v>8961.302881477395</v>
       </c>
       <c r="J46">
-        <v>217242.9764589302</v>
+        <v>216541.8426145311</v>
       </c>
       <c r="K46">
-        <v>5226.772136371216</v>
+        <v>5226.761168247699</v>
       </c>
       <c r="L46">
-        <v>7279</v>
+        <v>7269</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>181506.4466806354</v>
+        <v>189430.4873328942</v>
       </c>
       <c r="C47">
-        <v>181506.4466806354</v>
+        <v>189430.4873328942</v>
       </c>
       <c r="D47">
-        <v>290500.1920754188</v>
+        <v>290544.5096227597</v>
       </c>
       <c r="E47">
-        <v>413996.0090383071</v>
+        <v>404907.9518096247</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>290500.1920754188</v>
+        <v>290544.5096227597</v>
       </c>
       <c r="H47">
-        <v>250857.4189138551</v>
+        <v>245925.0719535094</v>
       </c>
       <c r="I47">
-        <v>163138.590124452</v>
+        <v>158982.8798561152</v>
       </c>
       <c r="J47">
-        <v>9389420.694054518</v>
+        <v>9494882.512766883</v>
       </c>
       <c r="K47">
-        <v>165878.9900680181</v>
+        <v>165878.7922306113</v>
       </c>
       <c r="L47">
-        <v>245103</v>
+        <v>243205</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>10032.092284964</v>
+        <v>10432.14487189471</v>
       </c>
       <c r="B48">
-        <v>120675.5132390376</v>
+        <v>124950.2159118742</v>
       </c>
       <c r="C48">
-        <v>130707.6055240016</v>
+        <v>135382.3607837689</v>
       </c>
       <c r="D48">
-        <v>222905.0916518674</v>
+        <v>204951.2149125628</v>
       </c>
       <c r="E48">
-        <v>292864.4888484029</v>
+        <v>281513.177805925</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>222905.0916518674</v>
+        <v>204951.2149125628</v>
       </c>
       <c r="H48">
-        <v>175095.4031197324</v>
+        <v>167555.2243763676</v>
       </c>
       <c r="I48">
-        <v>117769.0857286705</v>
+        <v>113957.9534295574</v>
       </c>
       <c r="J48">
-        <v>6855378.835810666</v>
+        <v>6869387.056163545</v>
       </c>
       <c r="K48">
-        <v>121111.9794242337</v>
+        <v>121111.7500870378</v>
       </c>
       <c r="L48">
-        <v>177163</v>
+        <v>176044</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>26545.25782756653</v>
+        <v>27645.13700693328</v>
       </c>
       <c r="B49">
-        <v>326522.6791430357</v>
+        <v>327425.2238289675</v>
       </c>
       <c r="C49">
-        <v>353067.9369706022</v>
+        <v>355070.3608359008</v>
       </c>
       <c r="D49">
-        <v>587312.9586719746</v>
+        <v>558715.4915373444</v>
       </c>
       <c r="E49">
-        <v>786234.6815904699</v>
+        <v>761162.1568750471</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>587312.9586719746</v>
+        <v>558715.4915373444</v>
       </c>
       <c r="H49">
-        <v>474335.4868990091</v>
+        <v>459371.7447641778</v>
       </c>
       <c r="I49">
-        <v>311899.1946914608</v>
+        <v>301790.4121108693</v>
       </c>
       <c r="J49">
-        <v>18411495.17953369</v>
+        <v>18433658.34209418</v>
       </c>
       <c r="K49">
-        <v>325760.7310908029</v>
+        <v>325760.8155294545</v>
       </c>
       <c r="L49">
-        <v>477453</v>
+        <v>473155</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>26867.38726851547</v>
+        <v>27324.06771687009</v>
       </c>
       <c r="B50">
-        <v>339761.2515191131</v>
+        <v>339778.0491471445</v>
       </c>
       <c r="C50">
-        <v>366628.6387876286</v>
+        <v>367102.1168640146</v>
       </c>
       <c r="D50">
-        <v>596171.8247887273</v>
+        <v>558274.3672947567</v>
       </c>
       <c r="E50">
-        <v>789743.8783601561</v>
+        <v>797008.9348515468</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>596171.8247887273</v>
+        <v>558274.3672947567</v>
       </c>
       <c r="H50">
-        <v>475987.9910324039</v>
+        <v>478355.5703986037</v>
       </c>
       <c r="I50">
-        <v>313755.8873277523</v>
+        <v>318653.3644529431</v>
       </c>
       <c r="J50">
-        <v>18629310.36020796</v>
+        <v>18606456.20049358</v>
       </c>
       <c r="K50">
-        <v>328833.6998536307</v>
+        <v>328834.076674045</v>
       </c>
       <c r="L50">
-        <v>481205</v>
+        <v>477777</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>31258.72358463922</v>
+        <v>33226.04597858474</v>
       </c>
       <c r="B51">
-        <v>393343.5401041023</v>
+        <v>408116.4906458915</v>
       </c>
       <c r="C51">
-        <v>424602.2636887415</v>
+        <v>441342.5366244762</v>
       </c>
       <c r="D51">
-        <v>724085.4867303472</v>
+        <v>725066.1984990701</v>
       </c>
       <c r="E51">
-        <v>969453.6507153224</v>
+        <v>924408.6868658115</v>
       </c>
       <c r="F51">
-        <v>90019.77302698979</v>
+        <v>91985.94625512895</v>
       </c>
       <c r="G51">
-        <v>634065.7137033574</v>
+        <v>633080.2522439412</v>
       </c>
       <c r="H51">
-        <v>584980.7290292105</v>
+        <v>557412.0137037446</v>
       </c>
       <c r="I51">
-        <v>384472.9216861117</v>
+        <v>366996.6731620669</v>
       </c>
       <c r="J51">
-        <v>22220723.35731319</v>
+        <v>22504226.28270859</v>
       </c>
       <c r="K51">
-        <v>392265.1303784467</v>
+        <v>392265.3087800683</v>
       </c>
       <c r="L51">
-        <v>568985</v>
+        <v>565975</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>22582.25505159403</v>
+        <v>25017.25047517816</v>
       </c>
       <c r="B52">
-        <v>291918.6699247118</v>
+        <v>295442.800539861</v>
       </c>
       <c r="C52">
-        <v>314500.9249763059</v>
+        <v>320460.0510150391</v>
       </c>
       <c r="D52">
-        <v>510731.7180067171</v>
+        <v>521776.3185196532</v>
       </c>
       <c r="E52">
-        <v>663443.812830504</v>
+        <v>692435.7859444121</v>
       </c>
       <c r="F52">
-        <v>64391.72908044492</v>
+        <v>67566.51239599116</v>
       </c>
       <c r="G52">
-        <v>446339.9889262721</v>
+        <v>454209.806123662</v>
       </c>
       <c r="H52">
-        <v>400696.7737865809</v>
+        <v>409217.1298497908</v>
       </c>
       <c r="I52">
-        <v>262747.0390439232</v>
+        <v>283218.6560946212</v>
       </c>
       <c r="J52">
-        <v>15883797.42085865</v>
+        <v>16058674.10814833</v>
       </c>
       <c r="K52">
-        <v>281795.7268189031</v>
+        <v>281795.7237609364</v>
       </c>
       <c r="L52">
-        <v>408706</v>
+        <v>407024</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>25290.25656495282</v>
+        <v>26167.13603702042</v>
       </c>
       <c r="B53">
-        <v>317717.0472998383</v>
+        <v>325099.2502656016</v>
       </c>
       <c r="C53">
-        <v>343007.3038647912</v>
+        <v>351266.386302622</v>
       </c>
       <c r="D53">
-        <v>552894.8016014899</v>
+        <v>579392.5154674881</v>
       </c>
       <c r="E53">
-        <v>736937.3529682267</v>
+        <v>738981.3054458214</v>
       </c>
       <c r="F53">
-        <v>70909.17232954297</v>
+        <v>73018.76060327383</v>
       </c>
       <c r="G53">
-        <v>481985.6292719469</v>
+        <v>506373.7548642142</v>
       </c>
       <c r="H53">
-        <v>444291.6154511231</v>
+        <v>445307.4830612743</v>
       </c>
       <c r="I53">
-        <v>292645.7375171036</v>
+        <v>293673.8223845471</v>
       </c>
       <c r="J53">
-        <v>17754238.13837216</v>
+        <v>17856422.27867446</v>
       </c>
       <c r="K53">
-        <v>310511.092331712</v>
+        <v>310510.9848069422</v>
       </c>
       <c r="L53">
-        <v>451660</v>
+        <v>448782</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>48230.02449837765</v>
+        <v>48539.04086461842</v>
       </c>
       <c r="B54">
-        <v>585901.9080983383</v>
+        <v>582812.8008770896</v>
       </c>
       <c r="C54">
-        <v>634131.932596716</v>
+        <v>631351.841741708</v>
       </c>
       <c r="D54">
-        <v>1037719.332762142</v>
+        <v>1012837.321718302</v>
       </c>
       <c r="E54">
-        <v>1415208.554812588</v>
+        <v>1404733.84635485</v>
       </c>
       <c r="F54">
-        <v>133956.0426220091</v>
+        <v>134439.3890072068</v>
       </c>
       <c r="G54">
-        <v>903763.2901401327</v>
+        <v>878397.9327110952</v>
       </c>
       <c r="H54">
-        <v>853611.8916990672</v>
+        <v>840747.3640344574</v>
       </c>
       <c r="I54">
-        <v>561596.6631135204</v>
+        <v>563986.4823203927</v>
       </c>
       <c r="J54">
-        <v>32272255.70633464</v>
+        <v>32608225.07763005</v>
       </c>
       <c r="K54">
-        <v>570648.788948491</v>
+        <v>570648.8633946073</v>
       </c>
       <c r="L54">
-        <v>827712</v>
+        <v>821778</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>50046.91912470134</v>
+        <v>49038.66700224586</v>
       </c>
       <c r="B55">
-        <v>648660.8332976685</v>
+        <v>648449.2198915168</v>
       </c>
       <c r="C55">
-        <v>698707.7524223699</v>
+        <v>697487.8868937626</v>
       </c>
       <c r="D55">
-        <v>1164853.451060885</v>
+        <v>1135550.041244653</v>
       </c>
       <c r="E55">
-        <v>1545322.653290733</v>
+        <v>1501638.13345772</v>
       </c>
       <c r="F55">
-        <v>148978.078617634</v>
+        <v>150940.2606065099</v>
       </c>
       <c r="G55">
-        <v>1015875.372443251</v>
+        <v>984609.7806381432</v>
       </c>
       <c r="H55">
-        <v>930050.9397990182</v>
+        <v>901901.2103243</v>
       </c>
       <c r="I55">
-        <v>615271.7134917146</v>
+        <v>599736.9231334199</v>
       </c>
       <c r="J55">
-        <v>36426427.09339508</v>
+        <v>35619189.48930364</v>
       </c>
       <c r="K55">
-        <v>638665.6656819911</v>
+        <v>638665.8194333718</v>
       </c>
       <c r="L55">
-        <v>928722</v>
+        <v>918880</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>32131.19271915247</v>
+        <v>33649.65670167381</v>
       </c>
       <c r="B56">
-        <v>408769.4698316167</v>
+        <v>430403.9463494722</v>
       </c>
       <c r="C56">
-        <v>440900.6625507692</v>
+        <v>464053.603051146</v>
       </c>
       <c r="D56">
-        <v>722010.0373466265</v>
+        <v>753661.2681642624</v>
       </c>
       <c r="E56">
-        <v>999818.9868867429</v>
+        <v>1003834.032009056</v>
       </c>
       <c r="F56">
-        <v>105761.0543939619</v>
+        <v>107566.837584498</v>
       </c>
       <c r="G56">
-        <v>616248.9829526647</v>
+        <v>646094.4305797644</v>
       </c>
       <c r="H56">
-        <v>603523.1224503494</v>
+        <v>596154.1754817679</v>
       </c>
       <c r="I56">
-        <v>396295.8644363935</v>
+        <v>407679.8565272877</v>
       </c>
       <c r="J56">
-        <v>23371218.3488175</v>
+        <v>23397023.09168959</v>
       </c>
       <c r="K56">
-        <v>412477.9658616901</v>
+        <v>412477.8812716247</v>
       </c>
       <c r="L56">
-        <v>598648</v>
+        <v>594244</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>48792.35194814666</v>
+        <v>49385.56197315274</v>
       </c>
       <c r="B57">
-        <v>609221.6471646192</v>
+        <v>645255.8540701056</v>
       </c>
       <c r="C57">
-        <v>658013.9991127659</v>
+        <v>694641.4160432583</v>
       </c>
       <c r="D57">
-        <v>1163199.988902417</v>
+        <v>1110904.489583411</v>
       </c>
       <c r="E57">
-        <v>1478894.031509589</v>
+        <v>1510695.4971134</v>
       </c>
       <c r="F57">
-        <v>165726.7885965422</v>
+        <v>160268.4415323863</v>
       </c>
       <c r="G57">
-        <v>997473.2003058754</v>
+        <v>950636.0480510251</v>
       </c>
       <c r="H57">
-        <v>896999.6514537543</v>
+        <v>898737.1889608057</v>
       </c>
       <c r="I57">
-        <v>581894.3800558343</v>
+        <v>611958.308152594</v>
       </c>
       <c r="J57">
-        <v>34880265.319212</v>
+        <v>35214370.26926891</v>
       </c>
       <c r="K57">
-        <v>619090.2943601047</v>
+        <v>619090.2760155731</v>
       </c>
       <c r="L57">
-        <v>899215</v>
+        <v>891377</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>215459.1015706914</v>
+        <v>233167.6652856233</v>
       </c>
       <c r="C58">
-        <v>215459.1015706914</v>
+        <v>233167.6652856233</v>
       </c>
       <c r="D58">
-        <v>348333.9671665104</v>
+        <v>355019.6866572227</v>
       </c>
       <c r="E58">
-        <v>482013.570369163</v>
+        <v>488404.572951117</v>
       </c>
       <c r="F58">
-        <v>49828.46904667016</v>
+        <v>51268.38845399961</v>
       </c>
       <c r="G58">
-        <v>298505.4981198402</v>
+        <v>303751.2982032232</v>
       </c>
       <c r="H58">
-        <v>290617.2333084352</v>
+        <v>293547.5990877404</v>
       </c>
       <c r="I58">
-        <v>191396.3370607278</v>
+        <v>194856.9738633766</v>
       </c>
       <c r="J58">
-        <v>11413245.8074036</v>
+        <v>11284586.69624831</v>
       </c>
       <c r="K58">
-        <v>199388.2262062575</v>
+        <v>199388.2680267862</v>
       </c>
       <c r="L58">
-        <v>292008</v>
+        <v>289122</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>119076.4489557322</v>
+        <v>124685.379271115</v>
       </c>
       <c r="C59">
-        <v>119076.4489557322</v>
+        <v>124685.379271115</v>
       </c>
       <c r="D59">
-        <v>201783.2871565845</v>
+        <v>202534.6411172897</v>
       </c>
       <c r="E59">
-        <v>278717.9464942723</v>
+        <v>260857.2854445394</v>
       </c>
       <c r="F59">
-        <v>28918.34537651825</v>
+        <v>29346.02327561558</v>
       </c>
       <c r="G59">
-        <v>172864.9417800663</v>
+        <v>173188.6178416741</v>
       </c>
       <c r="H59">
-        <v>168232.2958579155</v>
+        <v>155347.8996290727</v>
       </c>
       <c r="I59">
-        <v>110485.6506363568</v>
+        <v>105509.3858154668</v>
       </c>
       <c r="J59">
-        <v>6450393.448836398</v>
+        <v>6423038.188506326</v>
       </c>
       <c r="K59">
-        <v>113273.2892789492</v>
+        <v>113272.9014983102</v>
       </c>
       <c r="L59">
-        <v>165929</v>
+        <v>164611</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>186634.5220867879</v>
+        <v>200952.5544388876</v>
       </c>
       <c r="C60">
-        <v>186634.5220867879</v>
+        <v>200952.5544388876</v>
       </c>
       <c r="D60">
-        <v>323925.2096030876</v>
+        <v>316755.2282980141</v>
       </c>
       <c r="E60">
-        <v>418011.346454115</v>
+        <v>424180.4697723041</v>
       </c>
       <c r="F60">
-        <v>46413.35412061491</v>
+        <v>44706.42508632085</v>
       </c>
       <c r="G60">
-        <v>277511.8554824727</v>
+        <v>272048.8032116933</v>
       </c>
       <c r="H60">
-        <v>250978.4796796456</v>
+        <v>252322.0146994281</v>
       </c>
       <c r="I60">
-        <v>167032.8667744694</v>
+        <v>171858.455072876</v>
       </c>
       <c r="J60">
-        <v>9954389.157652196</v>
+        <v>9954128.821486454</v>
       </c>
       <c r="K60">
-        <v>175785.8446954546</v>
+        <v>175786.2556877953</v>
       </c>
       <c r="L60">
-        <v>257523</v>
+        <v>254922</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>96701.63854305074</v>
+        <v>104965.4362424566</v>
       </c>
       <c r="C61">
-        <v>96701.63854305074</v>
+        <v>104965.4362424566</v>
       </c>
       <c r="D61">
-        <v>155560.9612359914</v>
+        <v>156576.8521417861</v>
       </c>
       <c r="E61">
-        <v>208572.3274449288</v>
+        <v>205860.7777621341</v>
       </c>
       <c r="F61">
-        <v>22059.37596070559</v>
+        <v>21759.8636646085</v>
       </c>
       <c r="G61">
-        <v>133501.5852752858</v>
+        <v>134816.9884771776</v>
       </c>
       <c r="H61">
-        <v>125761.8878004536</v>
+        <v>123527.1321885847</v>
       </c>
       <c r="I61">
-        <v>82810.43964447525</v>
+        <v>82333.64557354935</v>
       </c>
       <c r="J61">
-        <v>4908870.461557509</v>
+        <v>4980019.358318056</v>
       </c>
       <c r="K61">
-        <v>86886.74522110511</v>
+        <v>86886.76151953651</v>
       </c>
       <c r="L61">
-        <v>127014</v>
+        <v>126220</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6678.417180734326</v>
+        <v>6775.349191781568</v>
       </c>
       <c r="C62">
-        <v>6678.417180734326</v>
+        <v>6775.349191781568</v>
       </c>
       <c r="D62">
-        <v>11445.98307998731</v>
+        <v>10855.89040015082</v>
       </c>
       <c r="E62">
-        <v>15290.93990145033</v>
+        <v>15071.44712117204</v>
       </c>
       <c r="F62">
-        <v>1625.352832473365</v>
+        <v>1537.563384517143</v>
       </c>
       <c r="G62">
-        <v>9820.630247513946</v>
+        <v>9318.327015633678</v>
       </c>
       <c r="H62">
-        <v>9282.556750150598</v>
+        <v>9059.193249769236</v>
       </c>
       <c r="I62">
-        <v>6008.383151299737</v>
+        <v>6012.253871402807</v>
       </c>
       <c r="J62">
-        <v>354202.623331062</v>
+        <v>350811.1058989688</v>
       </c>
       <c r="K62">
-        <v>6204.067478568066</v>
+        <v>6203.738129940775</v>
       </c>
       <c r="L62">
-        <v>9097</v>
+        <v>9015</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2799.700142528852</v>
+        <v>2831.224959895017</v>
       </c>
       <c r="C63">
-        <v>2799.700142528852</v>
+        <v>2831.224959895017</v>
       </c>
       <c r="D63">
-        <v>4585.649876449388</v>
+        <v>4227.972065594051</v>
       </c>
       <c r="E63">
-        <v>6058.507152247829</v>
+        <v>5728.659476505953</v>
       </c>
       <c r="F63">
-        <v>673.5471149582302</v>
+        <v>609.4960326983091</v>
       </c>
       <c r="G63">
-        <v>3912.102761491158</v>
+        <v>3618.476032895741</v>
       </c>
       <c r="H63">
-        <v>3639.607952488361</v>
+        <v>3392.821730437796</v>
       </c>
       <c r="I63">
-        <v>2418.899199759469</v>
+        <v>2335.837746068156</v>
       </c>
       <c r="J63">
-        <v>143558.735380559</v>
+        <v>141970.7934865894</v>
       </c>
       <c r="K63">
-        <v>2506.141226698304</v>
+        <v>2506.273860687691</v>
       </c>
       <c r="L63">
-        <v>3672</v>
+        <v>3639</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4522.26808138404</v>
+        <v>4834.166432900625</v>
       </c>
       <c r="C64">
-        <v>4522.26808138404</v>
+        <v>4834.166432900625</v>
       </c>
       <c r="D64">
-        <v>3416.530613170188</v>
+        <v>3689.262778076935</v>
       </c>
       <c r="E64">
-        <v>162.674256029114</v>
+        <v>89.87941257567287</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3416.530613170188</v>
+        <v>3689.262778076935</v>
       </c>
       <c r="H64">
-        <v>77.29181796442943</v>
+        <v>44.91646242228279</v>
       </c>
       <c r="I64">
-        <v>85.38243806468454</v>
+        <v>44.96295015339009</v>
       </c>
       <c r="J64">
-        <v>106213.2707879481</v>
+        <v>106444.0793641881</v>
       </c>
       <c r="K64">
-        <v>1878.962193845118</v>
+        <v>1879.057755583952</v>
       </c>
       <c r="L64">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>48736.6965505232</v>
+        <v>49152.38357584937</v>
       </c>
       <c r="C65">
-        <v>48736.6965505232</v>
+        <v>49152.38357584937</v>
       </c>
       <c r="D65">
-        <v>35306.51922878059</v>
+        <v>37058.92318572517</v>
       </c>
       <c r="E65">
-        <v>1113.043194010003</v>
+        <v>1033.798338955415</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>35306.51922878059</v>
+        <v>37058.92318572517</v>
       </c>
       <c r="H65">
-        <v>585.2732391570087</v>
+        <v>451.071783028916</v>
       </c>
       <c r="I65">
-        <v>527.769954852994</v>
+        <v>582.7265559264993</v>
       </c>
       <c r="J65">
-        <v>1103748.536632351</v>
+        <v>1115451.177432683</v>
       </c>
       <c r="K65">
-        <v>19682.23381957425</v>
+        <v>19681.73148537484</v>
       </c>
       <c r="L65">
-        <v>28846</v>
+        <v>28793</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>53639.82513446531</v>
+        <v>51290.7744908307</v>
       </c>
       <c r="C66">
-        <v>53639.82513446531</v>
+        <v>51290.7744908307</v>
       </c>
       <c r="D66">
-        <v>38128.42915722548</v>
+        <v>40431.07461660234</v>
       </c>
       <c r="E66">
-        <v>1151.255264139655</v>
+        <v>783.7917678757245</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>38128.42915722548</v>
+        <v>40431.07461660234</v>
       </c>
       <c r="H66">
-        <v>535.6107881465376</v>
+        <v>390.8303101104044</v>
       </c>
       <c r="I66">
-        <v>615.6444759931177</v>
+        <v>392.9614577653201</v>
       </c>
       <c r="J66">
-        <v>1202346.997556893</v>
+        <v>1213331.383134059</v>
       </c>
       <c r="K66">
-        <v>21218.86640285792</v>
+        <v>21219.31997124381</v>
       </c>
       <c r="L66">
-        <v>31120</v>
+        <v>31047</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>89968.18816117304</v>
+        <v>86820.2190715006</v>
       </c>
       <c r="B67">
-        <v>606344.9221913087</v>
+        <v>618430.4033719634</v>
       </c>
       <c r="C67">
-        <v>696313.1103524817</v>
+        <v>705250.622443464</v>
       </c>
       <c r="D67">
-        <v>505951.9780172119</v>
+        <v>538517.5629213798</v>
       </c>
       <c r="E67">
-        <v>17224.39055292103</v>
+        <v>11646.11829971177</v>
       </c>
       <c r="F67">
-        <v>186871.3898910055</v>
+        <v>194572.7107541005</v>
       </c>
       <c r="G67">
-        <v>319080.5881262065</v>
+        <v>343944.8521672794</v>
       </c>
       <c r="H67">
-        <v>8407.508319061957</v>
+        <v>5713.195996739079</v>
       </c>
       <c r="I67">
-        <v>8816.882233859071</v>
+        <v>5932.92230297269</v>
       </c>
       <c r="J67">
-        <v>15768927.79887228</v>
+        <v>15556579.99536693</v>
       </c>
       <c r="K67">
-        <v>279227.9617623471</v>
+        <v>279228.2736136247</v>
       </c>
       <c r="L67">
-        <v>392518</v>
+        <v>388889</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>96662.44325120843</v>
+        <v>93749.54453858598</v>
       </c>
       <c r="B68">
-        <v>661557.5504520932</v>
+        <v>635592.8424902002</v>
       </c>
       <c r="C68">
-        <v>758219.9937033016</v>
+        <v>729342.3870287861</v>
       </c>
       <c r="D68">
-        <v>536342.4708432481</v>
+        <v>596745.3532139299</v>
       </c>
       <c r="E68">
-        <v>22523.22859128586</v>
+        <v>17195.03752676765</v>
       </c>
       <c r="F68">
-        <v>199143.2642304059</v>
+        <v>216453.9485223661</v>
       </c>
       <c r="G68">
-        <v>337199.2066128422</v>
+        <v>380291.4046915638</v>
       </c>
       <c r="H68">
-        <v>10752.4603660896</v>
+        <v>8062.808092629729</v>
       </c>
       <c r="I68">
-        <v>11770.76822519626</v>
+        <v>9132.229434137917</v>
       </c>
       <c r="J68">
-        <v>16926350.48754835</v>
+        <v>17115829.46639357</v>
       </c>
       <c r="K68">
-        <v>299792.2918265261</v>
+        <v>299791.6447637008</v>
       </c>
       <c r="L68">
-        <v>419674</v>
+        <v>418135</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>206028.905628933</v>
+        <v>201874.4082796844</v>
       </c>
       <c r="B69">
-        <v>1434678.96266793</v>
+        <v>1442472.735824537</v>
       </c>
       <c r="C69">
-        <v>1640707.868296863</v>
+        <v>1644347.144104221</v>
       </c>
       <c r="D69">
-        <v>1174770.221783966</v>
+        <v>1288492.305503652</v>
       </c>
       <c r="E69">
-        <v>44706.67252122694</v>
+        <v>51208.4184050141</v>
       </c>
       <c r="F69">
-        <v>426491.5592340069</v>
+        <v>470382.9882781448</v>
       </c>
       <c r="G69">
-        <v>748278.6625499587</v>
+        <v>818109.3172255075</v>
       </c>
       <c r="H69">
-        <v>20582.31776513113</v>
+        <v>24085.36265386371</v>
       </c>
       <c r="I69">
-        <v>24124.35475609581</v>
+        <v>27123.0557511504</v>
       </c>
       <c r="J69">
-        <v>37310462.53429858</v>
+        <v>37498799.21007225</v>
       </c>
       <c r="K69">
-        <v>665262.1373139905</v>
+        <v>665262.2034033429</v>
       </c>
       <c r="L69">
-        <v>934166</v>
+        <v>925110</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>178659.3774158211</v>
+        <v>184953.8386040737</v>
       </c>
       <c r="B70">
-        <v>1222258.680765358</v>
+        <v>1307067.256715969</v>
       </c>
       <c r="C70">
-        <v>1400918.058181179</v>
+        <v>1492021.095320042</v>
       </c>
       <c r="D70">
-        <v>1021398.95180531</v>
+        <v>1018223.638644423</v>
       </c>
       <c r="E70">
-        <v>45799.45277376433</v>
+        <v>27238.31476965304</v>
       </c>
       <c r="F70">
-        <v>181897.4053422239</v>
+        <v>188830.1740510587</v>
       </c>
       <c r="G70">
-        <v>839501.5464630863</v>
+        <v>829393.464593364</v>
       </c>
       <c r="H70">
-        <v>21508.87768143087</v>
+        <v>13995.44518883124</v>
       </c>
       <c r="I70">
-        <v>24290.57509233346</v>
+        <v>13242.86958082179</v>
       </c>
       <c r="J70">
-        <v>32067675.90844336</v>
+        <v>32230717.22487441</v>
       </c>
       <c r="K70">
-        <v>572384.8410246187</v>
+        <v>572385.2958582243</v>
       </c>
       <c r="L70">
-        <v>805412</v>
+        <v>799388</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>269108.3642899773</v>
+        <v>266706.5730148744</v>
       </c>
       <c r="B71">
-        <v>1831733.594590109</v>
+        <v>1861977.814676767</v>
       </c>
       <c r="C71">
-        <v>2100841.958880086</v>
+        <v>2128684.387691641</v>
       </c>
       <c r="D71">
-        <v>1542290.673926798</v>
+        <v>1552872.075928421</v>
       </c>
       <c r="E71">
-        <v>48820.35086412607</v>
+        <v>41139.57903776703</v>
       </c>
       <c r="F71">
-        <v>275550.2876511675</v>
+        <v>274002.0117792116</v>
       </c>
       <c r="G71">
-        <v>1266740.386275631</v>
+        <v>1278870.064149209</v>
       </c>
       <c r="H71">
-        <v>23662.33491491662</v>
+        <v>19085.19773161248</v>
       </c>
       <c r="I71">
-        <v>25158.01594920945</v>
+        <v>22054.38130615456</v>
       </c>
       <c r="J71">
-        <v>47324040.64724104</v>
+        <v>46774504.1105635</v>
       </c>
       <c r="K71">
-        <v>833641.023678995</v>
+        <v>833640.9632232774</v>
       </c>
       <c r="L71">
-        <v>1173015</v>
+        <v>1166934</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>213778.0227006151</v>
+        <v>218303.3046916776</v>
       </c>
       <c r="B72">
-        <v>1445695.377537921</v>
+        <v>1498564.438216407</v>
       </c>
       <c r="C72">
-        <v>1659473.400238537</v>
+        <v>1716867.742908085</v>
       </c>
       <c r="D72">
-        <v>1209809.96714841</v>
+        <v>1230788.128326643</v>
       </c>
       <c r="E72">
-        <v>39551.18481803566</v>
+        <v>26409.50365540807</v>
       </c>
       <c r="F72">
-        <v>219384.0933094539</v>
+        <v>225335.4232797461</v>
       </c>
       <c r="G72">
-        <v>990425.8738389558</v>
+        <v>1005452.705046897</v>
       </c>
       <c r="H72">
-        <v>18521.77945440979</v>
+        <v>13418.33671888829</v>
       </c>
       <c r="I72">
-        <v>21029.40536362586</v>
+        <v>12991.16693651978</v>
       </c>
       <c r="J72">
-        <v>37917716.0828329</v>
+        <v>38216321.94111899</v>
       </c>
       <c r="K72">
-        <v>679392.9679336462</v>
+        <v>679393.1460355222</v>
       </c>
       <c r="L72">
-        <v>955927</v>
+        <v>949528</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>126438.9684469973</v>
+        <v>127894.8240990668</v>
       </c>
       <c r="B73">
-        <v>870748.6634590103</v>
+        <v>882589.7437653351</v>
       </c>
       <c r="C73">
-        <v>997187.6319060075</v>
+        <v>1010484.567864402</v>
       </c>
       <c r="D73">
-        <v>680590.4566389949</v>
+        <v>728749.8756178007</v>
       </c>
       <c r="E73">
-        <v>25158.06633454301</v>
+        <v>18705.02650139652</v>
       </c>
       <c r="F73">
-        <v>123587.3525572622</v>
+        <v>128998.6478280196</v>
       </c>
       <c r="G73">
-        <v>557003.1040817328</v>
+        <v>599751.2277897812</v>
       </c>
       <c r="H73">
-        <v>12720.53095615522</v>
+        <v>9008.455835063436</v>
       </c>
       <c r="I73">
-        <v>12437.53537838779</v>
+        <v>9696.570666333086</v>
       </c>
       <c r="J73">
-        <v>21978655.09387879</v>
+        <v>22164684.40423775</v>
       </c>
       <c r="K73">
-        <v>389253.1494922691</v>
+        <v>389252.8816814419</v>
       </c>
       <c r="L73">
-        <v>547736</v>
+        <v>544610</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>174957.4134176878</v>
+        <v>176255.6379268822</v>
       </c>
       <c r="B74">
-        <v>1169763.999796016</v>
+        <v>1210970.229895902</v>
       </c>
       <c r="C74">
-        <v>1344721.413213704</v>
+        <v>1387225.867822784</v>
       </c>
       <c r="D74">
-        <v>945576.5674562152</v>
+        <v>1077763.068604109</v>
       </c>
       <c r="E74">
-        <v>29545.46959987011</v>
+        <v>24917.88405502015</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>945576.5674562152</v>
+        <v>1077763.068604109</v>
       </c>
       <c r="H74">
-        <v>14397.92809863342</v>
+        <v>12199.19543008022</v>
       </c>
       <c r="I74">
-        <v>15147.54150123668</v>
+        <v>12718.68862493993</v>
       </c>
       <c r="J74">
-        <v>30536112.297251</v>
+        <v>30498219.70948431</v>
       </c>
       <c r="K74">
-        <v>542234.8879863656</v>
+        <v>542235.168739603</v>
       </c>
       <c r="L74">
-        <v>771070</v>
+        <v>768885</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>540265.0270245932</v>
+        <v>529196.6994285044</v>
       </c>
       <c r="C75">
-        <v>540265.0270245932</v>
+        <v>529196.6994285044</v>
       </c>
       <c r="D75">
-        <v>366985.5644697226</v>
+        <v>420548.3155564789</v>
       </c>
       <c r="E75">
-        <v>14729.91284091402</v>
+        <v>11678.69880342289</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>366985.5644697226</v>
+        <v>420548.3155564789</v>
       </c>
       <c r="H75">
-        <v>7128.055890928269</v>
+        <v>5180.156835334547</v>
       </c>
       <c r="I75">
-        <v>7601.856949985749</v>
+        <v>6498.541968088346</v>
       </c>
       <c r="J75">
-        <v>12199909.82235114</v>
+        <v>12143623.90227325</v>
       </c>
       <c r="K75">
-        <v>216447.3083510022</v>
+        <v>216447.0975663764</v>
       </c>
       <c r="L75">
-        <v>317448</v>
+        <v>316542</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>429889.7130455601</v>
+        <v>435545.4467487021</v>
       </c>
       <c r="C76">
-        <v>429889.7130455601</v>
+        <v>435545.4467487021</v>
       </c>
       <c r="D76">
-        <v>326567.2491122085</v>
+        <v>334005.7901536832</v>
       </c>
       <c r="E76">
-        <v>11545.08239871795</v>
+        <v>14210.04250880018</v>
       </c>
       <c r="F76">
-        <v>118952.1501340748</v>
+        <v>119842.1726895324</v>
       </c>
       <c r="G76">
-        <v>207615.0989781338</v>
+        <v>214163.6174641508</v>
       </c>
       <c r="H76">
-        <v>5416.478770404359</v>
+        <v>7045.118791777832</v>
       </c>
       <c r="I76">
-        <v>6128.603628313588</v>
+        <v>7164.92371702235</v>
       </c>
       <c r="J76">
-        <v>10030841.99331835</v>
+        <v>10039479.9639454</v>
       </c>
       <c r="K76">
-        <v>176525.6967929828</v>
+        <v>176525.9981129036</v>
       </c>
       <c r="L76">
-        <v>254756</v>
+        <v>254075</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>236582.8544822856</v>
+        <v>243637.7738046218</v>
       </c>
       <c r="C77">
-        <v>236582.8544822856</v>
+        <v>243637.7738046218</v>
       </c>
       <c r="D77">
-        <v>174164.4217421163</v>
+        <v>181864.1637886302</v>
       </c>
       <c r="E77">
-        <v>6797.292156348714</v>
+        <v>5624.727038395782</v>
       </c>
       <c r="F77">
-        <v>64634.60753142541</v>
+        <v>65586.84238975483</v>
       </c>
       <c r="G77">
-        <v>109529.8142106909</v>
+        <v>116277.3213988753</v>
       </c>
       <c r="H77">
-        <v>3085.030378657784</v>
+        <v>2579.552342402366</v>
       </c>
       <c r="I77">
-        <v>3712.261777690931</v>
+        <v>3045.174695993416</v>
       </c>
       <c r="J77">
-        <v>5327828.67687487</v>
+        <v>5307720.33046196</v>
       </c>
       <c r="K77">
-        <v>94797.71652428979</v>
+        <v>94798.28959866104</v>
       </c>
       <c r="L77">
-        <v>136663</v>
+        <v>136249</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>422842.432162873</v>
+        <v>406072.0613296727</v>
       </c>
       <c r="C78">
-        <v>422842.432162873</v>
+        <v>406072.0613296727</v>
       </c>
       <c r="D78">
-        <v>296583.139316932</v>
+        <v>328213.8470135656</v>
       </c>
       <c r="E78">
-        <v>10098.08542342601</v>
+        <v>9580.983828158085</v>
       </c>
       <c r="F78">
-        <v>117774.4898295004</v>
+        <v>126015.272250553</v>
       </c>
       <c r="G78">
-        <v>178808.6494874316</v>
+        <v>202198.5747630127</v>
       </c>
       <c r="H78">
-        <v>4899.93823425296</v>
+        <v>4599.888981174686</v>
       </c>
       <c r="I78">
-        <v>5198.147189173051</v>
+        <v>4981.0948469834</v>
       </c>
       <c r="J78">
-        <v>9545354.60789861</v>
+        <v>9450298.805810908</v>
       </c>
       <c r="K78">
-        <v>168934.8768749663</v>
+        <v>168935.2012631431</v>
       </c>
       <c r="L78">
-        <v>243496</v>
+        <v>242451</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>43670.07472978471</v>
+        <v>42226.34661862571</v>
       </c>
       <c r="C79">
-        <v>43670.07472978471</v>
+        <v>42226.34661862571</v>
       </c>
       <c r="D79">
-        <v>31131.91058286019</v>
+        <v>34922.9190279953</v>
       </c>
       <c r="E79">
-        <v>1227.990612575996</v>
+        <v>999.9839648616486</v>
       </c>
       <c r="F79">
-        <v>12237.94464107254</v>
+        <v>13466.72172909027</v>
       </c>
       <c r="G79">
-        <v>18893.96594178765</v>
+        <v>21456.19729890503</v>
       </c>
       <c r="H79">
-        <v>606.2963953378436</v>
+        <v>466.6411352428473</v>
       </c>
       <c r="I79">
-        <v>621.6942172381526</v>
+        <v>533.3428296188014</v>
       </c>
       <c r="J79">
-        <v>979052.2272754208</v>
+        <v>984224.4091738077</v>
       </c>
       <c r="K79">
-        <v>17369.22859618509</v>
+        <v>17369.26918176689</v>
       </c>
       <c r="L79">
-        <v>25027</v>
+        <v>24916</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6633.679298797147</v>
+        <v>6490.2438893798</v>
       </c>
       <c r="C80">
-        <v>6633.679298797147</v>
+        <v>6490.2438893798</v>
       </c>
       <c r="D80">
-        <v>4803.72658013036</v>
+        <v>4995.117514630898</v>
       </c>
       <c r="E80">
-        <v>161.8286766424868</v>
+        <v>162.6869789112509</v>
       </c>
       <c r="F80">
-        <v>1868.710684118862</v>
+        <v>1964.842388743676</v>
       </c>
       <c r="G80">
-        <v>2935.015896011499</v>
+        <v>3030.275125887222</v>
       </c>
       <c r="H80">
-        <v>74.15733132471705</v>
+        <v>80.48551118230131</v>
       </c>
       <c r="I80">
-        <v>87.67134531776969</v>
+        <v>82.20146772894961</v>
       </c>
       <c r="J80">
-        <v>147416.1282371495</v>
+        <v>148689.7784154699</v>
       </c>
       <c r="K80">
-        <v>2630.811233403577</v>
+        <v>2630.86030832063</v>
       </c>
       <c r="L80">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,37 +4710,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>14558.46396291443</v>
+        <v>13730.70852902878</v>
       </c>
       <c r="C81">
-        <v>14558.46396291443</v>
+        <v>13730.70852902878</v>
       </c>
       <c r="D81">
-        <v>10218.04269854555</v>
+        <v>10296.96353469812</v>
       </c>
       <c r="E81">
-        <v>382.2851757912856</v>
+        <v>206.548482995099</v>
       </c>
       <c r="F81">
-        <v>4003.747566563204</v>
+        <v>3891.497966281194</v>
       </c>
       <c r="G81">
-        <v>6214.29513198235</v>
+        <v>6405.465568416923</v>
       </c>
       <c r="H81">
-        <v>184.5249392684307</v>
+        <v>101.2590581169402</v>
       </c>
       <c r="I81">
-        <v>197.7602365228549</v>
+        <v>105.2894248781588</v>
       </c>
       <c r="J81">
-        <v>317326.2746371152</v>
+        <v>319116.7285203948</v>
       </c>
       <c r="K81">
-        <v>5644.186489149708</v>
+        <v>5643.804544983595</v>
       </c>
       <c r="L81">
-        <v>8140.000000000001</v>
+        <v>8109</v>
       </c>
       <c r="M81">
         <v>1</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>962.3477336696559</v>
+        <v>962.9369824893372</v>
       </c>
       <c r="B82">
-        <v>3857.896567859529</v>
+        <v>3810.361959066764</v>
       </c>
       <c r="C82">
-        <v>4820.244301529185</v>
+        <v>4773.298941556101</v>
       </c>
       <c r="D82">
-        <v>12468.37199155589</v>
+        <v>12410.45271419008</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12468.37199155589</v>
+        <v>12410.45271419008</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>356623.7532569187</v>
+        <v>357278.2491253453</v>
       </c>
       <c r="K82">
-        <v>5951.166048119409</v>
+        <v>5950.760057906872</v>
       </c>
       <c r="L82">
-        <v>8786</v>
+        <v>8762</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1610.779790245139</v>
+        <v>1652.653889163427</v>
       </c>
       <c r="B83">
-        <v>6452.898989366621</v>
+        <v>6489.551001492947</v>
       </c>
       <c r="C83">
-        <v>8063.67877961176</v>
+        <v>8142.204890656374</v>
       </c>
       <c r="D83">
-        <v>20520.19131836249</v>
+        <v>20969.53403899373</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20520.19131836249</v>
+        <v>20969.53403899373</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>597299.958794251</v>
+        <v>599513.607886535</v>
       </c>
       <c r="K83">
-        <v>9946.888668109712</v>
+        <v>9946.921467019767</v>
       </c>
       <c r="L83">
-        <v>14679</v>
+        <v>14602</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9884.254432138874</v>
+        <v>9852.927871148497</v>
       </c>
       <c r="B84">
-        <v>39125.93293122353</v>
+        <v>36991.39743735005</v>
       </c>
       <c r="C84">
-        <v>49010.18736336241</v>
+        <v>46844.32530849854</v>
       </c>
       <c r="D84">
-        <v>127547.2023343751</v>
+        <v>124158.3896782648</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>35034.03237257162</v>
+        <v>33797.14924675864</v>
       </c>
       <c r="G84">
-        <v>92513.16996180351</v>
+        <v>90361.2404315062</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3661066.494509971</v>
+        <v>3652134.804907648</v>
       </c>
       <c r="K84">
-        <v>60895.67967819838</v>
+        <v>60895.73621615162</v>
       </c>
       <c r="L84">
-        <v>88591</v>
+        <v>88277</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6303.337953789708</v>
+        <v>6145.802131102168</v>
       </c>
       <c r="B85">
-        <v>24635.75069241583</v>
+        <v>24773.52908250992</v>
       </c>
       <c r="C85">
-        <v>30939.08864620554</v>
+        <v>30919.33121361209</v>
       </c>
       <c r="D85">
-        <v>78665.0721680026</v>
+        <v>77054.31171376904</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21321.53410120156</v>
+        <v>20715.64862187718</v>
       </c>
       <c r="G85">
-        <v>57343.53806680105</v>
+        <v>56338.66309189186</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2277447.52416558</v>
+        <v>2291140.775813203</v>
       </c>
       <c r="K85">
-        <v>38034.18868800264</v>
+        <v>38034.03068039018</v>
       </c>
       <c r="L85">
-        <v>55258</v>
+        <v>55084</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>18596.27794351892</v>
+        <v>18189.42950242605</v>
       </c>
       <c r="B86">
-        <v>74294.51991395633</v>
+        <v>69265.08050794726</v>
       </c>
       <c r="C86">
-        <v>92890.79785747525</v>
+        <v>87454.51001037331</v>
       </c>
       <c r="D86">
-        <v>237741.3387064484</v>
+        <v>231179.1918973019</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>63757.46246751648</v>
+        <v>62923.79632938191</v>
       </c>
       <c r="G86">
-        <v>173983.876238932</v>
+        <v>168255.39556792</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>6714621.924850838</v>
+        <v>6712065.383201133</v>
       </c>
       <c r="K86">
-        <v>111847.0543063415</v>
+        <v>111846.7709083272</v>
       </c>
       <c r="L86">
-        <v>162768</v>
+        <v>162447</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10553.74463987466</v>
+        <v>10805.36192212542</v>
       </c>
       <c r="B87">
-        <v>42322.03255860342</v>
+        <v>43767.15627220808</v>
       </c>
       <c r="C87">
-        <v>52875.77719847808</v>
+        <v>54572.5181943335</v>
       </c>
       <c r="D87">
-        <v>138398.7611778857</v>
+        <v>135778.6531143778</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>37591.33129239072</v>
+        <v>36996.10609657237</v>
       </c>
       <c r="G87">
-        <v>100807.429885495</v>
+        <v>98782.54701780539</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>4000627.577886432</v>
+        <v>4008802.902917834</v>
       </c>
       <c r="K87">
-        <v>66952.66102388149</v>
+        <v>66952.67771887516</v>
       </c>
       <c r="L87">
-        <v>97456</v>
+        <v>97264</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>14194.19661955291</v>
+        <v>13642.11345030095</v>
       </c>
       <c r="B88">
-        <v>55800.80522081442</v>
+        <v>55691.39777561188</v>
       </c>
       <c r="C88">
-        <v>69995.00184036733</v>
+        <v>69333.51122591284</v>
       </c>
       <c r="D88">
-        <v>187514.8003830243</v>
+        <v>185023.5851284243</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>49441.81054285137</v>
+        <v>49885.67417035893</v>
       </c>
       <c r="G88">
-        <v>138072.9898401729</v>
+        <v>135137.9109580654</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>5243528.990310166</v>
+        <v>5225008.968562159</v>
       </c>
       <c r="K88">
-        <v>87332.16571435602</v>
+        <v>87331.92193245726</v>
       </c>
       <c r="L88">
-        <v>127222</v>
+        <v>126753</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10843.45925899701</v>
+        <v>10459.15450590511</v>
       </c>
       <c r="B89">
-        <v>43756.40841946936</v>
+        <v>40985.90688267746</v>
       </c>
       <c r="C89">
-        <v>54599.86767846638</v>
+        <v>51445.06138858257</v>
       </c>
       <c r="D89">
-        <v>137490.8021614556</v>
+        <v>136313.0427970705</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>36791.47027993025</v>
+        <v>36104.24442076328</v>
       </c>
       <c r="G89">
-        <v>100699.3318815254</v>
+        <v>100208.7983763072</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3972747.69066219</v>
+        <v>3954916.986862973</v>
       </c>
       <c r="K89">
-        <v>66111.33794462071</v>
+        <v>66110.90390892615</v>
       </c>
       <c r="L89">
-        <v>96313</v>
+        <v>95816</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7984.283156344298</v>
+        <v>7502.374242711602</v>
       </c>
       <c r="B90">
-        <v>31532.7471929964</v>
+        <v>31177.17407748126</v>
       </c>
       <c r="C90">
-        <v>39517.0303493407</v>
+        <v>38679.54832019287</v>
       </c>
       <c r="D90">
-        <v>100824.6506513549</v>
+        <v>96355.86707733503</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>27367.74877106906</v>
+        <v>25909.88277057755</v>
       </c>
       <c r="G90">
-        <v>73456.90188028582</v>
+        <v>70445.98430675747</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2893629.133138322</v>
+        <v>2888780.325791141</v>
       </c>
       <c r="K90">
-        <v>48243.69299544348</v>
+        <v>48243.78505094395</v>
       </c>
       <c r="L90">
-        <v>70091</v>
+        <v>70165</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8545.981580405747</v>
+        <v>8264.991830450541</v>
       </c>
       <c r="B91">
-        <v>34077.22169314692</v>
+        <v>33565.5927838219</v>
       </c>
       <c r="C91">
-        <v>42623.20327355267</v>
+        <v>41830.58461427244</v>
       </c>
       <c r="D91">
-        <v>109377.1016518227</v>
+        <v>101713.4264352328</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29845.44915598476</v>
+        <v>27302.70815437793</v>
       </c>
       <c r="G91">
-        <v>79531.65249583793</v>
+        <v>74410.71828085485</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>3141866.647071871</v>
+        <v>3133612.127159801</v>
       </c>
       <c r="K91">
-        <v>52389.18116704021</v>
+        <v>52389.0225561582</v>
       </c>
       <c r="L91">
-        <v>76202</v>
+        <v>75879</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6362.602504415509</v>
+        <v>6214.015126421519</v>
       </c>
       <c r="B92">
-        <v>25339.00261184477</v>
+        <v>25525.40705003523</v>
       </c>
       <c r="C92">
-        <v>31701.60511626028</v>
+        <v>31739.42217645675</v>
       </c>
       <c r="D92">
-        <v>82906.10049474309</v>
+        <v>84773.95294851501</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22377.70483631043</v>
+        <v>22834.48613938403</v>
       </c>
       <c r="G92">
-        <v>60528.39565843267</v>
+        <v>61939.46680913099</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2355816.982202787</v>
+        <v>2368801.795517056</v>
       </c>
       <c r="K92">
-        <v>39255.9142411184</v>
+        <v>39256.30462309293</v>
       </c>
       <c r="L92">
-        <v>57057</v>
+        <v>56968</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3855.123592607791</v>
+        <v>3659.434081474903</v>
       </c>
       <c r="B93">
-        <v>15118.85416225861</v>
+        <v>15162.40794541581</v>
       </c>
       <c r="C93">
-        <v>18973.97775486641</v>
+        <v>18821.84202689072</v>
       </c>
       <c r="D93">
-        <v>47965.04198305774</v>
+        <v>48426.74529650131</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>47965.04198305774</v>
+        <v>48426.74529650131</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1410928.757146558</v>
+        <v>1400202.339342763</v>
       </c>
       <c r="K93">
-        <v>23460.89032996371</v>
+        <v>23461.10603054822</v>
       </c>
       <c r="L93">
-        <v>34623</v>
+        <v>34520</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1617.282876505048</v>
+        <v>1575.043882230875</v>
       </c>
       <c r="B94">
-        <v>6637.053284639283</v>
+        <v>6271.718452458282</v>
       </c>
       <c r="C94">
-        <v>8254.336161144331</v>
+        <v>7846.762334689157</v>
       </c>
       <c r="D94">
-        <v>21042.43332248372</v>
+        <v>20274.68870741165</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5688.704192451325</v>
+        <v>5435.14303146964</v>
       </c>
       <c r="G94">
-        <v>15353.7291300324</v>
+        <v>14839.54567594201</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>606687.3172248341</v>
+        <v>606197.6491378954</v>
       </c>
       <c r="K94">
-        <v>10092.24120893422</v>
+        <v>10092.20194617282</v>
       </c>
       <c r="L94">
-        <v>14652</v>
+        <v>14661</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1459.973088992073</v>
+        <v>1396.307645715664</v>
       </c>
       <c r="B95">
-        <v>5825.041002718767</v>
+        <v>5494.85398036366</v>
       </c>
       <c r="C95">
-        <v>7285.01409171084</v>
+        <v>6891.161626079324</v>
       </c>
       <c r="D95">
-        <v>18385.37239819692</v>
+        <v>18238.18481007219</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4945.291115036638</v>
+        <v>4804.860714025041</v>
       </c>
       <c r="G95">
-        <v>13440.08128316028</v>
+        <v>13433.32409604715</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>525988.2831502522</v>
+        <v>525160.792035038</v>
       </c>
       <c r="K95">
-        <v>8744.702798472466</v>
+        <v>8744.901050046292</v>
       </c>
       <c r="L95">
-        <v>12709</v>
+        <v>12689</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1705.252416641086</v>
+        <v>1605.922602540634</v>
       </c>
       <c r="B96">
-        <v>6683.739210174055</v>
+        <v>6460.719260573174</v>
       </c>
       <c r="C96">
-        <v>8388.991626815141</v>
+        <v>8066.641863113809</v>
       </c>
       <c r="D96">
-        <v>21167.48255201977</v>
+        <v>21099.16867007842</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5718.798781934028</v>
+        <v>5698.217624098656</v>
       </c>
       <c r="G96">
-        <v>15448.68377008574</v>
+        <v>15400.95104597977</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>606895.3915517048</v>
+        <v>605971.1966481371</v>
       </c>
       <c r="K96">
-        <v>10107.05649693572</v>
+        <v>10106.83681289114</v>
       </c>
       <c r="L96">
-        <v>14699</v>
+        <v>14638</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>966.0440164218068</v>
+        <v>947.1610153128225</v>
       </c>
       <c r="B97">
-        <v>4018.761701544254</v>
+        <v>4025.471809967945</v>
       </c>
       <c r="C97">
-        <v>4984.805717966061</v>
+        <v>4972.632825280767</v>
       </c>
       <c r="D97">
-        <v>12930.29403723332</v>
+        <v>12639.83244114196</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3505.586371613058</v>
+        <v>3455.333576590947</v>
       </c>
       <c r="G97">
-        <v>9424.707665620259</v>
+        <v>9184.498864551017</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>371784.0612385736</v>
+        <v>373319.053323314</v>
       </c>
       <c r="K97">
-        <v>6198.741161146079</v>
+        <v>6198.831155178561</v>
       </c>
       <c r="L97">
-        <v>9003</v>
+        <v>8999</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>534.8226911214138</v>
+        <v>556.8304104302281</v>
       </c>
       <c r="B98">
-        <v>3791.732491255737</v>
+        <v>3892.990780917026</v>
       </c>
       <c r="C98">
-        <v>4326.55518237715</v>
+        <v>4449.821191347254</v>
       </c>
       <c r="D98">
-        <v>28604.47625767324</v>
+        <v>27993.48592237635</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>28604.47625767324</v>
+        <v>27993.48592237635</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>313206.0643031425</v>
+        <v>313547.5261510218</v>
       </c>
       <c r="K98">
-        <v>6607.204744908556</v>
+        <v>6606.956331107161</v>
       </c>
       <c r="L98">
-        <v>9341</v>
+        <v>9285</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>728.873810218278</v>
+        <v>762.8320376746552</v>
       </c>
       <c r="B99">
-        <v>5414.605224652109</v>
+        <v>5605.458879007141</v>
       </c>
       <c r="C99">
-        <v>6143.479034870386</v>
+        <v>6368.290916681796</v>
       </c>
       <c r="D99">
-        <v>40312.17630560524</v>
+        <v>40145.84689377054</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>40312.17630560524</v>
+        <v>40145.84689377054</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>446625.7301285804</v>
+        <v>442984.4514499189</v>
       </c>
       <c r="K99">
-        <v>9384.742396112584</v>
+        <v>9384.817426101681</v>
       </c>
       <c r="L99">
-        <v>13282</v>
+        <v>13204</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5107.010523270184</v>
+        <v>5498.416685647996</v>
       </c>
       <c r="B100">
-        <v>40056.19682978156</v>
+        <v>42128.16652965833</v>
       </c>
       <c r="C100">
-        <v>45163.20735305174</v>
+        <v>47626.58321530633</v>
       </c>
       <c r="D100">
-        <v>299946.2283879078</v>
+        <v>295265.9726783664</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>299946.2283879078</v>
+        <v>295265.9726783664</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>3264219.702128602</v>
+        <v>3309631.68339756</v>
       </c>
       <c r="K100">
-        <v>68686.70679983507</v>
+        <v>68687.27990063631</v>
       </c>
       <c r="L100">
-        <v>97242</v>
+        <v>96661</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>154.205130895885</v>
+        <v>153.078582129413</v>
       </c>
       <c r="B101">
-        <v>1113.82018756712</v>
+        <v>1176.34028271211</v>
       </c>
       <c r="C101">
-        <v>1268.025318463005</v>
+        <v>1329.418864841523</v>
       </c>
       <c r="D101">
-        <v>8956.88936107128</v>
+        <v>8874.877194626977</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8956.88936107128</v>
+        <v>8874.877194626977</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>96387.68913988388</v>
+        <v>95552.1899789115</v>
       </c>
       <c r="K101">
-        <v>2023.672493395688</v>
+        <v>2023.667525296961</v>
       </c>
       <c r="L101">
-        <v>2866</v>
+        <v>2848</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1939.454695892255</v>
+        <v>2100.762098363867</v>
       </c>
       <c r="B102">
-        <v>14287.65549354127</v>
+        <v>14647.71692078059</v>
       </c>
       <c r="C102">
-        <v>16227.11018943352</v>
+        <v>16748.47901914446</v>
       </c>
       <c r="D102">
-        <v>109692.223311724</v>
+        <v>107940.3674355931</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6932.634644651515</v>
+        <v>6663.332598215826</v>
       </c>
       <c r="G102">
-        <v>102759.5886670725</v>
+        <v>101277.0348373773</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1184633.307625598</v>
+        <v>1174384.107882561</v>
       </c>
       <c r="K102">
-        <v>24734.07803768076</v>
+        <v>24733.90482848934</v>
       </c>
       <c r="L102">
-        <v>34662</v>
+        <v>34395</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1452.346944235049</v>
+        <v>1451.875897013729</v>
       </c>
       <c r="B103">
-        <v>10332.45647910624</v>
+        <v>10511.79753883524</v>
       </c>
       <c r="C103">
-        <v>11784.80342334129</v>
+        <v>11963.67343584896</v>
       </c>
       <c r="D103">
-        <v>81512.7210977691</v>
+        <v>80539.17797770647</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5131.75512603889</v>
+        <v>5045.827200862599</v>
       </c>
       <c r="G103">
-        <v>76380.96597173021</v>
+        <v>75493.35077684387</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>883120.9118335575</v>
+        <v>872742.0245538894</v>
       </c>
       <c r="K103">
-        <v>18475.30505692216</v>
+        <v>18474.7629604644</v>
       </c>
       <c r="L103">
-        <v>25871</v>
+        <v>25732</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4774.898416831377</v>
+        <v>4529.328330773039</v>
       </c>
       <c r="B104">
-        <v>33946.82831978623</v>
+        <v>33065.22225342916</v>
       </c>
       <c r="C104">
-        <v>38721.72673661761</v>
+        <v>37594.5505842022</v>
       </c>
       <c r="D104">
-        <v>261731.9120886276</v>
+        <v>251322.2218404963</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15921.13250766552</v>
+        <v>15683.01832651205</v>
       </c>
       <c r="G104">
-        <v>245810.7795809621</v>
+        <v>235639.2035139842</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2785738.452572551</v>
+        <v>2775218.458006741</v>
       </c>
       <c r="K104">
-        <v>58535.67156150441</v>
+        <v>58536.0011665872</v>
       </c>
       <c r="L104">
-        <v>81993</v>
+        <v>81540</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>8544.708602884959</v>
+        <v>8829.155766936659</v>
       </c>
       <c r="B105">
-        <v>57676.89247237171</v>
+        <v>63974.18414067317</v>
       </c>
       <c r="C105">
-        <v>66221.60107525667</v>
+        <v>72803.33990760983</v>
       </c>
       <c r="D105">
-        <v>454909.080963005</v>
+        <v>445757.3306985914</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>28364.43677283603</v>
+        <v>27977.22732655235</v>
       </c>
       <c r="G105">
-        <v>426544.644190169</v>
+        <v>417780.1033720391</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4900926.264527891</v>
+        <v>4908473.142827179</v>
       </c>
       <c r="K105">
-        <v>102960.0652112166</v>
+        <v>102959.9524802891</v>
       </c>
       <c r="L105">
-        <v>144176</v>
+        <v>143346</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6693.908391271868</v>
+        <v>6786.81670469159</v>
       </c>
       <c r="B106">
-        <v>48541.27485823161</v>
+        <v>48918.9630139944</v>
       </c>
       <c r="C106">
-        <v>55235.18324950348</v>
+        <v>55705.77971868599</v>
       </c>
       <c r="D106">
-        <v>380255.809260572</v>
+        <v>379881.7837562936</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23566.13902637943</v>
+        <v>23834.3083460182</v>
       </c>
       <c r="G106">
-        <v>356689.6702341926</v>
+        <v>356047.4754102755</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4065548.41512016</v>
+        <v>4095797.684566877</v>
       </c>
       <c r="K106">
-        <v>85833.99577683769</v>
+        <v>85833.85311673841</v>
       </c>
       <c r="L106">
-        <v>120200</v>
+        <v>119448</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7426.91783449882</v>
+        <v>6610.49450475598</v>
       </c>
       <c r="B107">
-        <v>51954.95673299808</v>
+        <v>50942.08954230385</v>
       </c>
       <c r="C107">
-        <v>59381.8745674969</v>
+        <v>57552.58404705983</v>
       </c>
       <c r="D107">
-        <v>391621.296653298</v>
+        <v>387543.4076379096</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24527.8784441062</v>
+        <v>24539.06237122044</v>
       </c>
       <c r="G107">
-        <v>367093.4182091918</v>
+        <v>363004.3452666892</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4287851.237351822</v>
+        <v>4281860.262517394</v>
       </c>
       <c r="K107">
-        <v>89900.11799821397</v>
+        <v>89899.9853564658</v>
       </c>
       <c r="L107">
-        <v>125996</v>
+        <v>125322</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3405.365165506556</v>
+        <v>3573.187421199048</v>
       </c>
       <c r="B108">
-        <v>24684.06573517525</v>
+        <v>26065.72753927129</v>
       </c>
       <c r="C108">
-        <v>28089.4309006818</v>
+        <v>29638.91496047034</v>
       </c>
       <c r="D108">
-        <v>184259.6000651624</v>
+        <v>183276.1904045211</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11318.17849177307</v>
+        <v>11550.18540348685</v>
       </c>
       <c r="G108">
-        <v>172941.4215733894</v>
+        <v>171726.0050010343</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>2041397.445871621</v>
+        <v>2022310.976619639</v>
       </c>
       <c r="K108">
-        <v>42604.25342373295</v>
+        <v>42603.72087799754</v>
       </c>
       <c r="L108">
-        <v>59758</v>
+        <v>59272</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5203.374976382443</v>
+        <v>5133.218864982171</v>
       </c>
       <c r="B109">
-        <v>38603.95898055665</v>
+        <v>36649.3688683888</v>
       </c>
       <c r="C109">
-        <v>43807.3339569391</v>
+        <v>41782.58773337096</v>
       </c>
       <c r="D109">
-        <v>283728.0925694443</v>
+        <v>281933.6639246811</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17525.63657761018</v>
+        <v>17419.61975707542</v>
       </c>
       <c r="G109">
-        <v>266202.4559918341</v>
+        <v>264514.0441676056</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3171015.024219745</v>
+        <v>3139939.352407497</v>
       </c>
       <c r="K109">
-        <v>66364.7440284138</v>
+        <v>66365.04352732237</v>
       </c>
       <c r="L109">
-        <v>93091</v>
+        <v>92785</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5039.090161433262</v>
+        <v>5319.07393179567</v>
       </c>
       <c r="B110">
-        <v>36200.28919092494</v>
+        <v>36616.28537178851</v>
       </c>
       <c r="C110">
-        <v>41239.3793523582</v>
+        <v>41935.35930358418</v>
       </c>
       <c r="D110">
-        <v>277672.6479108064</v>
+        <v>284188.1930024282</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17143.3254781633</v>
+        <v>17362.04121592784</v>
       </c>
       <c r="G110">
-        <v>260529.3224326431</v>
+        <v>266826.1517865004</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3029866.293181323</v>
+        <v>3058681.9408532</v>
       </c>
       <c r="K110">
-        <v>63795.976474454</v>
+        <v>63796.0302845275</v>
       </c>
       <c r="L110">
-        <v>89300</v>
+        <v>88784</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>16672.35559779138</v>
+        <v>17614.89403011286</v>
       </c>
       <c r="B111">
-        <v>124175.048551485</v>
+        <v>127863.2545415028</v>
       </c>
       <c r="C111">
-        <v>140847.4041492764</v>
+        <v>145478.1485716157</v>
       </c>
       <c r="D111">
-        <v>958455.8945635372</v>
+        <v>929968.6048657278</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>60873.8088612553</v>
+        <v>57653.71637790305</v>
       </c>
       <c r="G111">
-        <v>897582.0857022819</v>
+        <v>872314.8884878247</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>10226090.44598583</v>
+        <v>10235776.5092676</v>
       </c>
       <c r="K111">
-        <v>214313.0397320306</v>
+        <v>214313.0686849213</v>
       </c>
       <c r="L111">
-        <v>299721</v>
+        <v>298522</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>567.2380667097441</v>
+        <v>584.2584205899994</v>
       </c>
       <c r="B112">
-        <v>4041.874938318217</v>
+        <v>4473.744523054728</v>
       </c>
       <c r="C112">
-        <v>4609.113005027961</v>
+        <v>5058.002943644728</v>
       </c>
       <c r="D112">
-        <v>30783.19471661724</v>
+        <v>30516.98996035667</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1910.45448855856</v>
+        <v>1965.03378445289</v>
       </c>
       <c r="G112">
-        <v>28872.74022805868</v>
+        <v>28551.95617590378</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>334419.405473861</v>
+        <v>330493.4657808582</v>
       </c>
       <c r="K112">
-        <v>7005.737327362001</v>
+        <v>7005.665086127235</v>
       </c>
       <c r="L112">
-        <v>9808</v>
+        <v>9742</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>133.2062863114003</v>
+        <v>127.3510087381567</v>
       </c>
       <c r="B113">
-        <v>982.7054932887728</v>
+        <v>950.3494265241158</v>
       </c>
       <c r="C113">
-        <v>1115.911779600173</v>
+        <v>1077.700435262273</v>
       </c>
       <c r="D113">
-        <v>7604.888275909267</v>
+        <v>7601.367884246845</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>461.842104944456</v>
+        <v>465.5053325150816</v>
       </c>
       <c r="G113">
-        <v>7143.046170964811</v>
+        <v>7135.862551731764</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>81974.03833451217</v>
+        <v>81796.58660599375</v>
       </c>
       <c r="K113">
-        <v>1718.676307748383</v>
+        <v>1718.747880608878</v>
       </c>
       <c r="L113">
-        <v>2407</v>
+        <v>2396</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1293.011567053625</v>
+        <v>1167.316036716747</v>
       </c>
       <c r="B114">
-        <v>8781.135525249372</v>
+        <v>8494.843850122412</v>
       </c>
       <c r="C114">
-        <v>10074.147092303</v>
+        <v>9662.159886839157</v>
       </c>
       <c r="D114">
-        <v>66501.08362337541</v>
+        <v>65788.49680136119</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4148.148635416885</v>
+        <v>4121.244454733359</v>
       </c>
       <c r="G114">
-        <v>62352.93498795853</v>
+        <v>61667.25234662784</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>713825.1047659994</v>
+        <v>717298.2763590834</v>
       </c>
       <c r="K114">
-        <v>15018.72651741575</v>
+        <v>15018.9917738392</v>
       </c>
       <c r="L114">
-        <v>20997</v>
+        <v>20945</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>111.9681019400335</v>
+        <v>114.7016628343605</v>
       </c>
       <c r="B115">
-        <v>802.9471439152579</v>
+        <v>843.2702965771933</v>
       </c>
       <c r="C115">
-        <v>914.9152458552915</v>
+        <v>957.9719594115538</v>
       </c>
       <c r="D115">
-        <v>6000.955319666025</v>
+        <v>6000.895928865557</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>371.4439351338855</v>
+        <v>371.6134846692818</v>
       </c>
       <c r="G115">
-        <v>5629.511384532139</v>
+        <v>5629.282444196275</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>66238.16913598264</v>
+        <v>66443.96011036227</v>
       </c>
       <c r="K115">
-        <v>1383.089959449453</v>
+        <v>1383.020832442535</v>
       </c>
       <c r="L115">
-        <v>1940</v>
+        <v>1925</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1481.53036040062</v>
+        <v>1507.375757399769</v>
       </c>
       <c r="B116">
-        <v>8616.758681337085</v>
+        <v>8676.484057850799</v>
       </c>
       <c r="C116">
-        <v>10098.28904173771</v>
+        <v>10183.85981525057</v>
       </c>
       <c r="D116">
-        <v>21729.29133248606</v>
+        <v>20199.78544487723</v>
       </c>
       <c r="E116">
-        <v>1080.431108501059</v>
+        <v>936.910016234914</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>21729.29133248606</v>
+        <v>20199.78544487723</v>
       </c>
       <c r="H116">
-        <v>830.5244062778208</v>
+        <v>751.232824429681</v>
       </c>
       <c r="I116">
-        <v>249.9067022232387</v>
+        <v>185.677191805233</v>
       </c>
       <c r="J116">
-        <v>484087.6214088639</v>
+        <v>482933.3171306817</v>
       </c>
       <c r="K116">
-        <v>10097.82277275436</v>
+        <v>10097.84667025518</v>
       </c>
       <c r="L116">
-        <v>14469</v>
+        <v>14336</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>904.560131734745</v>
+        <v>931.8300281022823</v>
       </c>
       <c r="B117">
-        <v>5345.376011093133</v>
+        <v>5151.309148399995</v>
       </c>
       <c r="C117">
-        <v>6249.936142827878</v>
+        <v>6083.139176502277</v>
       </c>
       <c r="D117">
-        <v>13054.72382604393</v>
+        <v>12355.06444459525</v>
       </c>
       <c r="E117">
-        <v>661.0061352914915</v>
+        <v>758.7714500672778</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>13054.72382604393</v>
+        <v>12355.06444459525</v>
       </c>
       <c r="H117">
-        <v>506.278383550821</v>
+        <v>600.0503240815406</v>
       </c>
       <c r="I117">
-        <v>154.7277517406705</v>
+        <v>158.7211259857372</v>
       </c>
       <c r="J117">
-        <v>296578.0483389475</v>
+        <v>295483.9235455397</v>
       </c>
       <c r="K117">
-        <v>6147.981212527123</v>
+        <v>6147.803715408354</v>
       </c>
       <c r="L117">
-        <v>8803</v>
+        <v>8745</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2154.950812822058</v>
+        <v>2249.689932620066</v>
       </c>
       <c r="B118">
-        <v>12536.00433046902</v>
+        <v>13070.2334460419</v>
       </c>
       <c r="C118">
-        <v>14690.95514329108</v>
+        <v>15319.92337866197</v>
       </c>
       <c r="D118">
-        <v>32193.21286921487</v>
+        <v>29701.40861605019</v>
       </c>
       <c r="E118">
-        <v>1560.573176208896</v>
+        <v>1678.288991414079</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>32193.21286921487</v>
+        <v>29701.40861605019</v>
       </c>
       <c r="H118">
-        <v>1234.824623758867</v>
+        <v>1310.954452097072</v>
       </c>
       <c r="I118">
-        <v>325.748552450029</v>
+        <v>367.3345393170075</v>
       </c>
       <c r="J118">
-        <v>724238.5675890503</v>
+        <v>722601.4186264233</v>
       </c>
       <c r="K118">
-        <v>15021.24300486031</v>
+        <v>15021.26796415471</v>
       </c>
       <c r="L118">
-        <v>21567</v>
+        <v>21335</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>7793.156707253724</v>
+        <v>8108.64356843308</v>
       </c>
       <c r="B119">
-        <v>46518.33527544975</v>
+        <v>47111.34304852258</v>
       </c>
       <c r="C119">
-        <v>54311.49198270348</v>
+        <v>55219.98661695566</v>
       </c>
       <c r="D119">
-        <v>114033.2094658989</v>
+        <v>107679.5614361708</v>
       </c>
       <c r="E119">
-        <v>5760.696840943458</v>
+        <v>6568.398983658811</v>
       </c>
       <c r="F119">
-        <v>16242.46949730271</v>
+        <v>15528.34908459036</v>
       </c>
       <c r="G119">
-        <v>97790.73996859623</v>
+        <v>92151.21235158044</v>
       </c>
       <c r="H119">
-        <v>4515.170486446495</v>
+        <v>5237.600091689135</v>
       </c>
       <c r="I119">
-        <v>1245.526354496964</v>
+        <v>1330.798891969675</v>
       </c>
       <c r="J119">
-        <v>2641950.045778427</v>
+        <v>2632831.467230969</v>
       </c>
       <c r="K119">
-        <v>54873.9655310071</v>
+        <v>54874.07642642445</v>
       </c>
       <c r="L119">
-        <v>77828</v>
+        <v>77229</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12384.49399807161</v>
+        <v>12205.55595823647</v>
       </c>
       <c r="B120">
-        <v>71985.54315085748</v>
+        <v>73697.47959672076</v>
       </c>
       <c r="C120">
-        <v>84370.03714892908</v>
+        <v>85903.03555495723</v>
       </c>
       <c r="D120">
-        <v>186382.5168319027</v>
+        <v>169253.1309498707</v>
       </c>
       <c r="E120">
-        <v>9250.711946351366</v>
+        <v>9188.131984374182</v>
       </c>
       <c r="F120">
-        <v>27002.7552577748</v>
+        <v>24308.23085483133</v>
       </c>
       <c r="G120">
-        <v>159379.7615741279</v>
+        <v>144944.9000950394</v>
       </c>
       <c r="H120">
-        <v>7330.456782600994</v>
+        <v>7337.055353124828</v>
       </c>
       <c r="I120">
-        <v>1920.255163750372</v>
+        <v>1851.076631249355</v>
       </c>
       <c r="J120">
-        <v>4072982.674774884</v>
+        <v>4082766.541717206</v>
       </c>
       <c r="K120">
-        <v>84457.70111925264</v>
+        <v>84458.00958435412</v>
       </c>
       <c r="L120">
-        <v>119840</v>
+        <v>119382</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7572.446740499527</v>
+        <v>7688.428332246362</v>
       </c>
       <c r="B121">
-        <v>43775.23993269889</v>
+        <v>44503.77978977335</v>
       </c>
       <c r="C121">
-        <v>51347.68667319842</v>
+        <v>52192.20812201971</v>
       </c>
       <c r="D121">
-        <v>107080.3729644643</v>
+        <v>97889.90315070869</v>
       </c>
       <c r="E121">
-        <v>5338.328613633811</v>
+        <v>5854.68315744165</v>
       </c>
       <c r="F121">
-        <v>15676.86187241867</v>
+        <v>13654.02776061477</v>
       </c>
       <c r="G121">
-        <v>91403.51109204561</v>
+        <v>84235.87539009393</v>
       </c>
       <c r="H121">
-        <v>4145.097211994317</v>
+        <v>4552.041547213239</v>
       </c>
       <c r="I121">
-        <v>1193.231401639494</v>
+        <v>1302.641610228411</v>
       </c>
       <c r="J121">
-        <v>2407529.237395641</v>
+        <v>2420906.494808749</v>
       </c>
       <c r="K121">
-        <v>50092.75632718945</v>
+        <v>50093.01314756941</v>
       </c>
       <c r="L121">
-        <v>71044</v>
+        <v>70675</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>19274.01858273531</v>
+        <v>20600.57007659198</v>
       </c>
       <c r="B122">
-        <v>114974.4488826137</v>
+        <v>112143.7396838802</v>
       </c>
       <c r="C122">
-        <v>134248.467465349</v>
+        <v>132744.3097604722</v>
       </c>
       <c r="D122">
-        <v>286787.9721358168</v>
+        <v>257943.3244375956</v>
       </c>
       <c r="E122">
-        <v>13119.79019621021</v>
+        <v>13507.57275917292</v>
       </c>
       <c r="F122">
-        <v>41856.3792295392</v>
+        <v>36322.7954857165</v>
       </c>
       <c r="G122">
-        <v>244931.5929062776</v>
+        <v>221620.5289518791</v>
       </c>
       <c r="H122">
-        <v>10662.44235604356</v>
+        <v>10537.48601451273</v>
       </c>
       <c r="I122">
-        <v>2457.347840166652</v>
+        <v>2970.086744660196</v>
       </c>
       <c r="J122">
-        <v>6289964.875431093</v>
+        <v>6270045.995078481</v>
       </c>
       <c r="K122">
-        <v>131015.7164824744</v>
+        <v>131016.3208785624</v>
       </c>
       <c r="L122">
-        <v>185489</v>
+        <v>184813</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>36277.60095635462</v>
+        <v>34673.13449467017</v>
       </c>
       <c r="B123">
-        <v>202472.3961704853</v>
+        <v>201211.2191053144</v>
       </c>
       <c r="C123">
-        <v>238749.99712684</v>
+        <v>235884.3535999846</v>
       </c>
       <c r="D123">
-        <v>500072.327282931</v>
+        <v>490921.9768059813</v>
       </c>
       <c r="E123">
-        <v>25640.80653492528</v>
+        <v>26570.26749806782</v>
       </c>
       <c r="F123">
-        <v>71622.96476169246</v>
+        <v>70654.54666390739</v>
       </c>
       <c r="G123">
-        <v>428449.3625212386</v>
+        <v>420267.4301420739</v>
       </c>
       <c r="H123">
-        <v>20160.42250283548</v>
+        <v>20620.26626149916</v>
       </c>
       <c r="I123">
-        <v>5480.384032089795</v>
+        <v>5950.001236568653</v>
       </c>
       <c r="J123">
-        <v>11460903.08568151</v>
+        <v>11378076.99616551</v>
       </c>
       <c r="K123">
-        <v>238431.0558919188</v>
+        <v>238430.6808259817</v>
       </c>
       <c r="L123">
-        <v>338330</v>
+        <v>335729</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>24780.93219952741</v>
+        <v>24299.50247318641</v>
       </c>
       <c r="B124">
-        <v>142597.1203989257</v>
+        <v>139591.47883359</v>
       </c>
       <c r="C124">
-        <v>167378.0525984531</v>
+        <v>163890.9813067764</v>
       </c>
       <c r="D124">
-        <v>362664.2225825257</v>
+        <v>338358.9830130821</v>
       </c>
       <c r="E124">
-        <v>17131.91821274178</v>
+        <v>15527.08903771242</v>
       </c>
       <c r="F124">
-        <v>52422.9302968222</v>
+        <v>49492.23224961963</v>
       </c>
       <c r="G124">
-        <v>310241.2922857035</v>
+        <v>288866.7507634624</v>
       </c>
       <c r="H124">
-        <v>13299.29763478956</v>
+        <v>11950.50836268918</v>
       </c>
       <c r="I124">
-        <v>3832.620577952226</v>
+        <v>3576.580675023242</v>
       </c>
       <c r="J124">
-        <v>7966053.526332657</v>
+        <v>8059275.731356491</v>
       </c>
       <c r="K124">
-        <v>167396.2010295801</v>
+        <v>167395.9151936474</v>
       </c>
       <c r="L124">
-        <v>237315</v>
+        <v>235135</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13896.6110846393</v>
+        <v>13812.20258948235</v>
       </c>
       <c r="B125">
-        <v>79825.56600397066</v>
+        <v>78092.19682907934</v>
       </c>
       <c r="C125">
-        <v>93722.17708860997</v>
+        <v>91904.39941856169</v>
       </c>
       <c r="D125">
-        <v>194203.0406535261</v>
+        <v>187333.3946812406</v>
       </c>
       <c r="E125">
-        <v>9114.085674992397</v>
+        <v>10418.51391822361</v>
       </c>
       <c r="F125">
-        <v>27535.88805767547</v>
+        <v>26778.21995362243</v>
       </c>
       <c r="G125">
-        <v>166667.1525958506</v>
+        <v>160555.1747276182</v>
       </c>
       <c r="H125">
-        <v>7279.402455862181</v>
+        <v>8299.095968527437</v>
       </c>
       <c r="I125">
-        <v>1834.683219130215</v>
+        <v>2119.417949696174</v>
       </c>
       <c r="J125">
-        <v>4472193.646230127</v>
+        <v>4474842.364446509</v>
       </c>
       <c r="K125">
-        <v>93372.20755975814</v>
+        <v>93372.04394360415</v>
       </c>
       <c r="L125">
-        <v>132301</v>
+        <v>131464</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10473.54330409087</v>
+        <v>10629.81748283927</v>
       </c>
       <c r="B126">
-        <v>61160.53604725558</v>
+        <v>64219.91785420687</v>
       </c>
       <c r="C126">
-        <v>71634.07935134645</v>
+        <v>74849.73533704614</v>
       </c>
       <c r="D126">
-        <v>158549.0529526454</v>
+        <v>153268.7443633609</v>
       </c>
       <c r="E126">
-        <v>7226.132149217562</v>
+        <v>7503.396861875794</v>
       </c>
       <c r="F126">
-        <v>22905.93105368754</v>
+        <v>22791.81098112348</v>
       </c>
       <c r="G126">
-        <v>135643.1218989579</v>
+        <v>130476.9333822374</v>
       </c>
       <c r="H126">
-        <v>5886.578355081042</v>
+        <v>5949.755266459726</v>
       </c>
       <c r="I126">
-        <v>1339.55379413652</v>
+        <v>1553.641595416068</v>
       </c>
       <c r="J126">
-        <v>3521936.33211008</v>
+        <v>3559350.89620749</v>
       </c>
       <c r="K126">
-        <v>73290.08298532925</v>
+        <v>73289.98132018972</v>
       </c>
       <c r="L126">
-        <v>103992</v>
+        <v>103285</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18636.79804870846</v>
+        <v>17716.69209661537</v>
       </c>
       <c r="B127">
-        <v>111398.1591674411</v>
+        <v>109062.4386225936</v>
       </c>
       <c r="C127">
-        <v>130034.9572161495</v>
+        <v>126779.130719209</v>
       </c>
       <c r="D127">
-        <v>274340.3847698726</v>
+        <v>245105.009346853</v>
       </c>
       <c r="E127">
-        <v>14908.48920929409</v>
+        <v>14400.9336432703</v>
       </c>
       <c r="F127">
-        <v>38885.47790661906</v>
+        <v>36961.10174632954</v>
       </c>
       <c r="G127">
-        <v>235454.9068632536</v>
+        <v>208143.9076005235</v>
       </c>
       <c r="H127">
-        <v>11596.29176560374</v>
+        <v>11833.53027122737</v>
       </c>
       <c r="I127">
-        <v>3312.197443690354</v>
+        <v>2567.403372042927</v>
       </c>
       <c r="J127">
-        <v>6170439.145725653</v>
+        <v>6256831.501573438</v>
       </c>
       <c r="K127">
-        <v>128689.9473380157</v>
+        <v>128689.8653156412</v>
       </c>
       <c r="L127">
-        <v>182679</v>
+        <v>181640</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>35641.83099678624</v>
+        <v>37651.9590809109</v>
       </c>
       <c r="B128">
-        <v>214012.0378222467</v>
+        <v>220942.845341819</v>
       </c>
       <c r="C128">
-        <v>249653.8688190329</v>
+        <v>258594.80442273</v>
       </c>
       <c r="D128">
-        <v>525613.3839511272</v>
+        <v>507144.9247976911</v>
       </c>
       <c r="E128">
-        <v>27135.44105333217</v>
+        <v>27537.96578418068</v>
       </c>
       <c r="F128">
-        <v>77223.11180842426</v>
+        <v>72105.08313660155</v>
       </c>
       <c r="G128">
-        <v>448390.2721427029</v>
+        <v>435039.8416610896</v>
       </c>
       <c r="H128">
-        <v>21431.41140588787</v>
+        <v>21343.78522850307</v>
       </c>
       <c r="I128">
-        <v>5704.029647444306</v>
+        <v>6194.180555677612</v>
       </c>
       <c r="J128">
-        <v>11931073.80051645</v>
+        <v>12036445.6187917</v>
       </c>
       <c r="K128">
-        <v>248821.8663812276</v>
+        <v>248822.0870917086</v>
       </c>
       <c r="L128">
-        <v>353194</v>
+        <v>350562</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>13909.12512723897</v>
+        <v>14683.24634040176</v>
       </c>
       <c r="B129">
-        <v>83331.11424044438</v>
+        <v>84340.53338190814</v>
       </c>
       <c r="C129">
-        <v>97240.23936768336</v>
+        <v>99023.7797223099</v>
       </c>
       <c r="D129">
-        <v>208658.7347297073</v>
+        <v>199288.6982580535</v>
       </c>
       <c r="E129">
-        <v>10292.84618395397</v>
+        <v>10404.76926950242</v>
       </c>
       <c r="F129">
-        <v>30760.73792972726</v>
+        <v>29400.39067382782</v>
       </c>
       <c r="G129">
-        <v>177897.9967999801</v>
+        <v>169888.3075842257</v>
       </c>
       <c r="H129">
-        <v>8170.121462666057</v>
+        <v>8399.695413297346</v>
       </c>
       <c r="I129">
-        <v>2122.72472128791</v>
+        <v>2005.073856205076</v>
       </c>
       <c r="J129">
-        <v>4756173.888392423</v>
+        <v>4710763.78824906</v>
       </c>
       <c r="K129">
-        <v>98283.08561407549</v>
+        <v>98283.30327087044</v>
       </c>
       <c r="L129">
-        <v>139721</v>
+        <v>138475</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18813.73431164382</v>
+        <v>18770.23183751279</v>
       </c>
       <c r="B130">
-        <v>110284.0298587065</v>
+        <v>109262.2849813576</v>
       </c>
       <c r="C130">
-        <v>129097.7641703503</v>
+        <v>128032.5168188704</v>
       </c>
       <c r="D130">
-        <v>267104.8752838785</v>
+        <v>249864.4462792123</v>
       </c>
       <c r="E130">
-        <v>12796.64067512405</v>
+        <v>13921.93807747481</v>
       </c>
       <c r="F130">
-        <v>38809.05276498875</v>
+        <v>36763.76308691753</v>
       </c>
       <c r="G130">
-        <v>228295.8225188897</v>
+        <v>213100.6831922947</v>
       </c>
       <c r="H130">
-        <v>10258.15135217002</v>
+        <v>11482.5695208258</v>
       </c>
       <c r="I130">
-        <v>2538.489322954032</v>
+        <v>2439.368556649012</v>
       </c>
       <c r="J130">
-        <v>6063679.284013561</v>
+        <v>6044349.361195083</v>
       </c>
       <c r="K130">
-        <v>127199.2369342351</v>
+        <v>127198.8361946709</v>
       </c>
       <c r="L130">
-        <v>180385</v>
+        <v>178699</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>128.3054552200011</v>
+        <v>131.1507227674413</v>
       </c>
       <c r="B131">
-        <v>745.780897928427</v>
+        <v>760.089259811291</v>
       </c>
       <c r="C131">
-        <v>874.0863531484281</v>
+        <v>891.2399825787322</v>
       </c>
       <c r="D131">
-        <v>1875.545524541344</v>
+        <v>1713.069060273486</v>
       </c>
       <c r="E131">
-        <v>91.97263193945709</v>
+        <v>94.40538488895238</v>
       </c>
       <c r="F131">
-        <v>275.271434778482</v>
+        <v>254.9211461051564</v>
       </c>
       <c r="G131">
-        <v>1600.274089762862</v>
+        <v>1458.14791416833</v>
       </c>
       <c r="H131">
-        <v>73.07913104314298</v>
+        <v>77.21287435575215</v>
       </c>
       <c r="I131">
-        <v>18.89350089631411</v>
+        <v>17.19251053320023</v>
       </c>
       <c r="J131">
-        <v>42496.18373204555</v>
+        <v>42078.53349148658</v>
       </c>
       <c r="K131">
-        <v>880.8677428545185</v>
+        <v>880.9034098952258</v>
       </c>
       <c r="L131">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>688.0703551622154</v>
+        <v>705.9860349763708</v>
       </c>
       <c r="B132">
-        <v>4008.751207747719</v>
+        <v>3998.173104323609</v>
       </c>
       <c r="C132">
-        <v>4696.821562909935</v>
+        <v>4704.15913929998</v>
       </c>
       <c r="D132">
-        <v>10235.75723267815</v>
+        <v>9487.126360314729</v>
       </c>
       <c r="E132">
-        <v>520.1062251303518</v>
+        <v>502.5545561297477</v>
       </c>
       <c r="F132">
-        <v>1491.674548180488</v>
+        <v>1399.882452106096</v>
       </c>
       <c r="G132">
-        <v>8744.082684497662</v>
+        <v>8087.243908208632</v>
       </c>
       <c r="H132">
-        <v>415.619134059272</v>
+        <v>398.3344752427814</v>
       </c>
       <c r="I132">
-        <v>104.4870910710799</v>
+        <v>104.2200808869663</v>
       </c>
       <c r="J132">
-        <v>223377.2579221502</v>
+        <v>225029.2869322584</v>
       </c>
       <c r="K132">
-        <v>4648.144703063515</v>
+        <v>4647.87982065205</v>
       </c>
       <c r="L132">
-        <v>6594</v>
+        <v>6553</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>42.03105610585255</v>
+        <v>34.8644963082422</v>
       </c>
       <c r="C133">
-        <v>42.03105610585255</v>
+        <v>34.8644963082422</v>
       </c>
       <c r="D133">
-        <v>6175.642130570301</v>
+        <v>6259.21865723649</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6175.642130570301</v>
+        <v>6259.21865723649</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>139456.5470962773</v>
+        <v>140482.7332726265</v>
       </c>
       <c r="K133">
-        <v>1858.190002403772</v>
+        <v>1858.184798649025</v>
       </c>
       <c r="L133">
-        <v>2837</v>
+        <v>2796</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>146.5397617935401</v>
+        <v>134.4874070603387</v>
       </c>
       <c r="C134">
-        <v>146.5397617935401</v>
+        <v>134.4874070603387</v>
       </c>
       <c r="D134">
-        <v>20820.72674193413</v>
+        <v>20545.67580297688</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20820.72674193413</v>
+        <v>20545.67580297688</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>472607.6404516101</v>
+        <v>471683.8330047404</v>
       </c>
       <c r="K134">
-        <v>6268.145671115721</v>
+        <v>6268.051995694203</v>
       </c>
       <c r="L134">
-        <v>9569</v>
+        <v>9427</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>17.77753870566875</v>
+        <v>16.79857027825534</v>
       </c>
       <c r="C135">
-        <v>17.77753870566875</v>
+        <v>16.79857027825534</v>
       </c>
       <c r="D135">
-        <v>2510.334021825223</v>
+        <v>2597.909082088716</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>84.52849203686604</v>
+        <v>90.19904687999082</v>
       </c>
       <c r="G135">
-        <v>2425.805529788357</v>
+        <v>2507.710035208725</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>57662.7835973745</v>
+        <v>57535.35071931396</v>
       </c>
       <c r="K135">
-        <v>764.1397646432886</v>
+        <v>763.9261092813847</v>
       </c>
       <c r="L135">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>138.1426939803287</v>
+        <v>134.857329487979</v>
       </c>
       <c r="C136">
-        <v>138.1426939803287</v>
+        <v>134.857329487979</v>
       </c>
       <c r="D136">
-        <v>23654.97378545925</v>
+        <v>23107.90382439396</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>790.4763403371654</v>
+        <v>802.611773219674</v>
       </c>
       <c r="G136">
-        <v>22864.49744512209</v>
+        <v>22305.29205117429</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>525475.4354562517</v>
+        <v>525601.9756362839</v>
       </c>
       <c r="K136">
-        <v>6971.969758653374</v>
+        <v>6971.789076466086</v>
       </c>
       <c r="L136">
-        <v>10593</v>
+        <v>10407</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>348.0997442283441</v>
+        <v>311.9147184021846</v>
       </c>
       <c r="C137">
-        <v>348.0997442283441</v>
+        <v>311.9147184021846</v>
       </c>
       <c r="D137">
-        <v>53701.12640012198</v>
+        <v>53896.24009050657</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53701.12640012198</v>
+        <v>53896.24009050657</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1198707.557533906</v>
+        <v>1197405.841391297</v>
       </c>
       <c r="K137">
-        <v>15930.0014210811</v>
+        <v>15929.73462319957</v>
       </c>
       <c r="L137">
-        <v>24311</v>
+        <v>23932</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>121.4799380412294</v>
+        <v>139.2664445133943</v>
       </c>
       <c r="C138">
-        <v>121.4799380412294</v>
+        <v>139.2664445133943</v>
       </c>
       <c r="D138">
-        <v>19235.64927853419</v>
+        <v>19519.20373961236</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19235.64927853419</v>
+        <v>19519.20373961236</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>432597.6125688748</v>
+        <v>432234.2810493373</v>
       </c>
       <c r="K138">
-        <v>5752.851068347924</v>
+        <v>5753.326522010258</v>
       </c>
       <c r="L138">
-        <v>8785</v>
+        <v>8625</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>888.5346347711699</v>
+        <v>724.0876526086332</v>
       </c>
       <c r="C139">
-        <v>888.5346347711699</v>
+        <v>724.0876526086332</v>
       </c>
       <c r="D139">
-        <v>128642.7246083517</v>
+        <v>130830.3843745632</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>128642.7246083517</v>
+        <v>130830.3843745632</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>2922667.350310223</v>
+        <v>2887454.468470836</v>
       </c>
       <c r="K139">
-        <v>38560.94417979428</v>
+        <v>38560.86576499513</v>
       </c>
       <c r="L139">
-        <v>58929</v>
+        <v>57785</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>439.1666019762123</v>
+        <v>418.1497088069848</v>
       </c>
       <c r="C140">
-        <v>439.1666019762123</v>
+        <v>418.1497088069848</v>
       </c>
       <c r="D140">
-        <v>69231.27880819277</v>
+        <v>67938.01280289059</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>69231.27880819277</v>
+        <v>67938.01280289059</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1551687.364573826</v>
+        <v>1572641.726774283</v>
       </c>
       <c r="K140">
-        <v>20708.96196117351</v>
+        <v>20709.29766678165</v>
       </c>
       <c r="L140">
-        <v>31599</v>
+        <v>31139</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>234.6821013268522</v>
+        <v>226.3614420455043</v>
       </c>
       <c r="C141">
-        <v>234.6821013268522</v>
+        <v>226.3614420455043</v>
       </c>
       <c r="D141">
-        <v>36485.33642811218</v>
+        <v>36504.15313510351</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36485.33642811218</v>
+        <v>36504.15313510351</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>823964.2308439905</v>
+        <v>824574.362028171</v>
       </c>
       <c r="K141">
-        <v>10927.32303141027</v>
+        <v>10926.82764781481</v>
       </c>
       <c r="L141">
-        <v>16660</v>
+        <v>16456</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1186.647027730207</v>
+        <v>1396.305247463704</v>
       </c>
       <c r="C142">
-        <v>1186.647027730207</v>
+        <v>1396.305247463704</v>
       </c>
       <c r="D142">
-        <v>192035.2136708625</v>
+        <v>194730.7113197391</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6382.859365613488</v>
+        <v>6328.573246825226</v>
       </c>
       <c r="G142">
-        <v>185652.354305249</v>
+        <v>188402.1380729139</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>4383795.531388032</v>
+        <v>4414629.221317424</v>
       </c>
       <c r="K142">
-        <v>58072.30942491425</v>
+        <v>58072.01048633456</v>
       </c>
       <c r="L142">
-        <v>88184</v>
+        <v>87090</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>481.3828821410393</v>
+        <v>393.4337764819704</v>
       </c>
       <c r="C143">
-        <v>481.3828821410393</v>
+        <v>393.4337764819704</v>
       </c>
       <c r="D143">
-        <v>72803.5605611955</v>
+        <v>74910.16522725944</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2433.462656611342</v>
+        <v>2554.456578110855</v>
       </c>
       <c r="G143">
-        <v>70370.09790458415</v>
+        <v>72355.70864914858</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1687090.499916866</v>
+        <v>1678001.684082704</v>
       </c>
       <c r="K143">
-        <v>22312.21777555061</v>
+        <v>22312.32310221816</v>
       </c>
       <c r="L143">
-        <v>33912</v>
+        <v>33359</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>610.2101987512503</v>
+        <v>463.6683511159841</v>
       </c>
       <c r="C144">
-        <v>610.2101987512503</v>
+        <v>463.6683511159841</v>
       </c>
       <c r="D144">
-        <v>85272.69823083756</v>
+        <v>84620.5565524353</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2682.321843655843</v>
+        <v>2851.740349470512</v>
       </c>
       <c r="G144">
-        <v>82590.37638718171</v>
+        <v>81768.81620296479</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1927137.230542257</v>
+        <v>1908572.999573888</v>
       </c>
       <c r="K144">
-        <v>25590.96420158174</v>
+        <v>25590.82598889589</v>
       </c>
       <c r="L144">
-        <v>38887</v>
+        <v>38165</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1069.227786226373</v>
+        <v>1130.624615048633</v>
       </c>
       <c r="C145">
-        <v>1069.227786226373</v>
+        <v>1130.624615048633</v>
       </c>
       <c r="D145">
-        <v>174988.8972391556</v>
+        <v>175337.6368536956</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5842.777359576092</v>
+        <v>5851.724164997661</v>
       </c>
       <c r="G145">
-        <v>169146.1198795795</v>
+        <v>169485.912688698</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>3941255.786911632</v>
+        <v>3908351.88317075</v>
       </c>
       <c r="K145">
-        <v>52069.00713750022</v>
+        <v>52068.97406905241</v>
       </c>
       <c r="L145">
-        <v>79152</v>
+        <v>77571</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1260.842584310287</v>
+        <v>1151.430589210011</v>
       </c>
       <c r="C146">
-        <v>1260.842584310287</v>
+        <v>1151.430589210011</v>
       </c>
       <c r="D146">
-        <v>212769.589454076</v>
+        <v>222512.5737672034</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>6834.305343433675</v>
+        <v>7339.285918719382</v>
       </c>
       <c r="G146">
-        <v>205935.2841106423</v>
+        <v>215173.287848484</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>4810398.553152898</v>
+        <v>4784182.128506994</v>
       </c>
       <c r="K146">
-        <v>63820.01527809673</v>
+        <v>63819.75966314051</v>
       </c>
       <c r="L146">
-        <v>97027</v>
+        <v>95271</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1177.81028252178</v>
+        <v>1020.329920953473</v>
       </c>
       <c r="C147">
-        <v>1177.81028252178</v>
+        <v>1020.329920953473</v>
       </c>
       <c r="D147">
-        <v>183652.8276372594</v>
+        <v>185163.3154170882</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>6212.668591256046</v>
+        <v>6245.047210711909</v>
       </c>
       <c r="G147">
-        <v>177440.1590460034</v>
+        <v>178918.2682063762</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>4201852.628605117</v>
+        <v>4183241.091228188</v>
       </c>
       <c r="K147">
-        <v>55340.82969612673</v>
+        <v>55341.27404621168</v>
       </c>
       <c r="L147">
-        <v>84194</v>
+        <v>82784</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1359.620056100839</v>
+        <v>1247.976083245001</v>
       </c>
       <c r="C148">
-        <v>1359.620056100839</v>
+        <v>1247.976083245001</v>
       </c>
       <c r="D148">
-        <v>209994.5495545187</v>
+        <v>208145.6328384425</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6752.115231867668</v>
+        <v>7106.157750600916</v>
       </c>
       <c r="G148">
-        <v>203242.434322651</v>
+        <v>201039.4750878415</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>4768152.651340744</v>
+        <v>4834773.30960733</v>
       </c>
       <c r="K148">
-        <v>63093.93420741788</v>
+        <v>63093.76532502319</v>
       </c>
       <c r="L148">
-        <v>95755</v>
+        <v>94716</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1211.581625839014</v>
+        <v>1415.584662683608</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1211.581625839014</v>
+        <v>1415.584662683608</v>
       </c>
       <c r="D149">
-        <v>201719.1507067104</v>
+        <v>202003.8933104789</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>6914.414429490015</v>
+        <v>7016.297647516392</v>
       </c>
       <c r="G149">
-        <v>194804.7362772204</v>
+        <v>194987.5956629625</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>4508062.002046471</v>
+        <v>4467571.212275327</v>
       </c>
       <c r="K149">
-        <v>59774.04849170482</v>
+        <v>59773.92503404074</v>
       </c>
       <c r="L149">
-        <v>90621</v>
+        <v>88968</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>628.1307277778509</v>
+        <v>738.2189762861478</v>
       </c>
       <c r="C150">
-        <v>628.1307277778509</v>
+        <v>738.2189762861478</v>
       </c>
       <c r="D150">
-        <v>109247.4903652061</v>
+        <v>110601.9401558697</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3636.68284245918</v>
+        <v>3739.314621973111</v>
       </c>
       <c r="G150">
-        <v>105610.8075227469</v>
+        <v>106862.6255338966</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2500690.019104341</v>
+        <v>2496752.983119423</v>
       </c>
       <c r="K150">
-        <v>33175.18499042847</v>
+        <v>33174.96406602552</v>
       </c>
       <c r="L150">
-        <v>50346</v>
+        <v>49510</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>746.8875991229385</v>
+        <v>651.4190235618574</v>
       </c>
       <c r="C151">
-        <v>746.8875991229385</v>
+        <v>651.4190235618574</v>
       </c>
       <c r="D151">
-        <v>115094.9273124716</v>
+        <v>115102.7694360787</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3833.55783501691</v>
+        <v>3738.406399049775</v>
       </c>
       <c r="G151">
-        <v>111261.3694774547</v>
+        <v>111364.363037029</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2614440.098701494</v>
+        <v>2637279.031204151</v>
       </c>
       <c r="K151">
-        <v>34695.18743513677</v>
+        <v>34695.03642507594</v>
       </c>
       <c r="L151">
-        <v>52723</v>
+        <v>51896</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>585.3006237670419</v>
+        <v>518.9998410537077</v>
       </c>
       <c r="C152">
-        <v>585.3006237670419</v>
+        <v>518.9998410537077</v>
       </c>
       <c r="D152">
-        <v>99724.96899409867</v>
+        <v>100008.925358451</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3355.148671353685</v>
+        <v>3395.514564450561</v>
       </c>
       <c r="G152">
-        <v>96369.82032274498</v>
+        <v>96613.41079400045</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2233063.5789322</v>
+        <v>2232475.234544738</v>
       </c>
       <c r="K152">
-        <v>29844.94524730891</v>
+        <v>29844.81602346429</v>
       </c>
       <c r="L152">
-        <v>45258</v>
+        <v>44568</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>612.1163133927553</v>
+        <v>621.4314100140735</v>
       </c>
       <c r="C153">
-        <v>612.1163133927553</v>
+        <v>621.4314100140735</v>
       </c>
       <c r="D153">
-        <v>104461.0174684354</v>
+        <v>104507.4882357879</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3448.980106459864</v>
+        <v>3514.476800184693</v>
       </c>
       <c r="G153">
-        <v>101012.0373619755</v>
+        <v>100993.0114356032</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2336966.038277706</v>
+        <v>2349514.099184708</v>
       </c>
       <c r="K153">
-        <v>30867.91537406725</v>
+        <v>30867.97083534306</v>
       </c>
       <c r="L153">
-        <v>46967</v>
+        <v>46164</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>172.3002860905378</v>
+        <v>141.5640786740775</v>
       </c>
       <c r="C154">
-        <v>172.3002860905378</v>
+        <v>141.5640786740775</v>
       </c>
       <c r="D154">
-        <v>28509.33210784641</v>
+        <v>28389.38317937155</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>947.5873006792779</v>
+        <v>927.8747310246448</v>
       </c>
       <c r="G154">
-        <v>27561.74480716713</v>
+        <v>27461.50844834691</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>641899.2909379306</v>
+        <v>649761.7474039152</v>
       </c>
       <c r="K154">
-        <v>8498.951098165502</v>
+        <v>8498.693275649019</v>
       </c>
       <c r="L154">
-        <v>12926</v>
+        <v>12718</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>206.2649898940673</v>
+        <v>176.5563187978884</v>
       </c>
       <c r="C155">
-        <v>206.2649898940673</v>
+        <v>176.5563187978884</v>
       </c>
       <c r="D155">
-        <v>33665.61943416617</v>
+        <v>34187.74166191632</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>33665.61943416617</v>
+        <v>34187.74166191632</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>753143.8489738082</v>
+        <v>759636.4479028193</v>
       </c>
       <c r="K155">
-        <v>10005.85081145528</v>
+        <v>10005.97522126851</v>
       </c>
       <c r="L155">
-        <v>15306</v>
+        <v>15019</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>99.31827379316765</v>
+        <v>87.92650910771354</v>
       </c>
       <c r="C156">
-        <v>99.31827379316765</v>
+        <v>87.92650910771354</v>
       </c>
       <c r="D156">
-        <v>15138.72854681691</v>
+        <v>15404.68691994643</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15138.72854681691</v>
+        <v>15404.68691994643</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>341241.7337307966</v>
+        <v>343980.2780680383</v>
       </c>
       <c r="K156">
-        <v>4533.086285613409</v>
+        <v>4532.897651261803</v>
       </c>
       <c r="L156">
-        <v>6922</v>
+        <v>6823</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10535.42331640362</v>
+        <v>10250.67130821539</v>
       </c>
       <c r="C2">
-        <v>10535.42331640362</v>
+        <v>10250.67130821539</v>
       </c>
       <c r="D2">
-        <v>208854.4380305846</v>
+        <v>210189.7543898636</v>
       </c>
       <c r="E2">
-        <v>280263.1117559479</v>
+        <v>272979.9856562392</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>208854.4380305846</v>
+        <v>210189.7543898636</v>
       </c>
       <c r="H2">
-        <v>165135.7768455003</v>
+        <v>161793.6027023436</v>
       </c>
       <c r="I2">
-        <v>115127.3349104476</v>
+        <v>111186.3829538956</v>
       </c>
       <c r="J2">
-        <v>2818102.388642696</v>
+        <v>2811966.532940927</v>
       </c>
       <c r="K2">
-        <v>51892.76573138437</v>
+        <v>51893.32072176921</v>
       </c>
       <c r="L2">
-        <v>73851</v>
+        <v>75442</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5160.861399627096</v>
+        <v>5245.432864608783</v>
       </c>
       <c r="C3">
-        <v>5160.861399627096</v>
+        <v>5245.432864608783</v>
       </c>
       <c r="D3">
-        <v>101105.5804365722</v>
+        <v>97924.48342624775</v>
       </c>
       <c r="E3">
-        <v>130824.5263071151</v>
+        <v>125854.5798477549</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>101105.5804365722</v>
+        <v>97924.48342624775</v>
       </c>
       <c r="H3">
-        <v>77253.04675382932</v>
+        <v>74820.08181630813</v>
       </c>
       <c r="I3">
-        <v>53571.47955328579</v>
+        <v>51034.49803144678</v>
       </c>
       <c r="J3">
-        <v>1314929.12611949</v>
+        <v>1317430.964049871</v>
       </c>
       <c r="K3">
-        <v>24442.91325033434</v>
+        <v>24443.25862583987</v>
       </c>
       <c r="L3">
-        <v>34747</v>
+        <v>35506</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>5104.701697054479</v>
+        <v>4828.738821723761</v>
       </c>
       <c r="B4">
-        <v>12914.54222509804</v>
+        <v>11106.68453957398</v>
       </c>
       <c r="C4">
-        <v>18019.24392215252</v>
+        <v>15935.42336129774</v>
       </c>
       <c r="D4">
-        <v>312548.5087231019</v>
+        <v>308382.5152006763</v>
       </c>
       <c r="E4">
-        <v>409374.9984965511</v>
+        <v>417376.813558989</v>
       </c>
       <c r="F4">
-        <v>103024.7558885947</v>
+        <v>103477.7337005185</v>
       </c>
       <c r="G4">
-        <v>209523.7528345072</v>
+        <v>204904.7815001578</v>
       </c>
       <c r="H4">
-        <v>241808.3269971811</v>
+        <v>247014.4365925058</v>
       </c>
       <c r="I4">
-        <v>167566.6714993701</v>
+        <v>170362.3769664832</v>
       </c>
       <c r="J4">
-        <v>4147729.437887819</v>
+        <v>4187378.188630427</v>
       </c>
       <c r="K4">
-        <v>76597.66930342221</v>
+        <v>76598.02474858428</v>
       </c>
       <c r="L4">
-        <v>105112</v>
+        <v>107179</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>15303.1043766959</v>
+        <v>14511.63433247839</v>
       </c>
       <c r="B5">
-        <v>35879.62327133252</v>
+        <v>35419.76944175301</v>
       </c>
       <c r="C5">
-        <v>51182.72764802842</v>
+        <v>49931.4037742314</v>
       </c>
       <c r="D5">
-        <v>1009991.051788674</v>
+        <v>963097.0504805058</v>
       </c>
       <c r="E5">
-        <v>1323582.06621211</v>
+        <v>1239756.23806767</v>
       </c>
       <c r="F5">
-        <v>332529.5617343159</v>
+        <v>327591.8000430513</v>
       </c>
       <c r="G5">
-        <v>677461.4900543577</v>
+        <v>635505.2504374544</v>
       </c>
       <c r="H5">
-        <v>778724.3324417281</v>
+        <v>733647.7999663007</v>
       </c>
       <c r="I5">
-        <v>544857.7337703813</v>
+        <v>506108.4381013691</v>
       </c>
       <c r="J5">
-        <v>13066212.84433937</v>
+        <v>13128456.29323099</v>
       </c>
       <c r="K5">
-        <v>240461.2275032412</v>
+        <v>240460.742836406</v>
       </c>
       <c r="L5">
-        <v>329710</v>
+        <v>336031</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5291.036158244802</v>
+        <v>5320.352268070696</v>
       </c>
       <c r="B6">
-        <v>12369.89214966445</v>
+        <v>13045.89139030824</v>
       </c>
       <c r="C6">
-        <v>17660.92830790926</v>
+        <v>18366.24365837893</v>
       </c>
       <c r="D6">
-        <v>371558.9249356902</v>
+        <v>351287.8976484577</v>
       </c>
       <c r="E6">
-        <v>469951.8910804715</v>
+        <v>450102.0722523737</v>
       </c>
       <c r="F6">
-        <v>122767.3963210561</v>
+        <v>119987.6592511799</v>
       </c>
       <c r="G6">
-        <v>248791.528614634</v>
+        <v>231300.2383972779</v>
       </c>
       <c r="H6">
-        <v>277395.2483616186</v>
+        <v>268423.4859033687</v>
       </c>
       <c r="I6">
-        <v>192556.6427188529</v>
+        <v>181678.586349005</v>
       </c>
       <c r="J6">
-        <v>4799367.312358188</v>
+        <v>4759560.298927001</v>
       </c>
       <c r="K6">
-        <v>88279.8314767566</v>
+        <v>88279.74074106535</v>
       </c>
       <c r="L6">
-        <v>121090</v>
+        <v>123608</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>3239.620341282729</v>
+        <v>2494.148442364527</v>
       </c>
       <c r="B7">
-        <v>7864.990771326349</v>
+        <v>6242.454362022129</v>
       </c>
       <c r="C7">
-        <v>11104.61111260908</v>
+        <v>8736.602804386657</v>
       </c>
       <c r="D7">
-        <v>189033.7402809037</v>
+        <v>186734.3793582226</v>
       </c>
       <c r="E7">
-        <v>248808.8447519467</v>
+        <v>245027.5230117188</v>
       </c>
       <c r="F7">
-        <v>64145.0327330061</v>
+        <v>63959.75828129004</v>
       </c>
       <c r="G7">
-        <v>124888.7075478976</v>
+        <v>122774.6210769325</v>
       </c>
       <c r="H7">
-        <v>147323.5882244961</v>
+        <v>145051.5217429752</v>
       </c>
       <c r="I7">
-        <v>101485.2565274505</v>
+        <v>99976.00126874361</v>
       </c>
       <c r="J7">
-        <v>2562148.566397334</v>
+        <v>2567122.621504386</v>
       </c>
       <c r="K7">
-        <v>47022.98149248662</v>
+        <v>47023.07972076061</v>
       </c>
       <c r="L7">
-        <v>64510.00000000001</v>
+        <v>65736</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>15927.53831578488</v>
+        <v>16612.68957412878</v>
       </c>
       <c r="B8">
-        <v>36935.35772863942</v>
+        <v>41025.12877222517</v>
       </c>
       <c r="C8">
-        <v>52862.89604442431</v>
+        <v>57637.81834635395</v>
       </c>
       <c r="D8">
-        <v>1090317.789886793</v>
+        <v>1083027.205794214</v>
       </c>
       <c r="E8">
-        <v>1462896.968033858</v>
+        <v>1417454.428427082</v>
       </c>
       <c r="F8">
-        <v>356419.3756551114</v>
+        <v>355959.7132744621</v>
       </c>
       <c r="G8">
-        <v>733898.4142316815</v>
+        <v>727067.4925197514</v>
       </c>
       <c r="H8">
-        <v>859668.9991635242</v>
+        <v>835165.2650336504</v>
       </c>
       <c r="I8">
-        <v>603227.9688703339</v>
+        <v>582289.1633934317</v>
       </c>
       <c r="J8">
-        <v>14326769.48183466</v>
+        <v>14399841.68804001</v>
       </c>
       <c r="K8">
-        <v>264640.7962581586</v>
+        <v>264640.6502956624</v>
       </c>
       <c r="L8">
-        <v>363460</v>
+        <v>369422</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>4439.557425151527</v>
+        <v>4297.361577402213</v>
       </c>
       <c r="B9">
-        <v>10824.19298858049</v>
+        <v>11125.82116591491</v>
       </c>
       <c r="C9">
-        <v>15263.75041373201</v>
+        <v>15423.18274331712</v>
       </c>
       <c r="D9">
-        <v>290730.7322275303</v>
+        <v>287757.5060557579</v>
       </c>
       <c r="E9">
-        <v>372871.4816073517</v>
+        <v>372430.8728254018</v>
       </c>
       <c r="F9">
-        <v>96326.81786483046</v>
+        <v>96750.894849169</v>
       </c>
       <c r="G9">
-        <v>194403.9143626998</v>
+        <v>191006.6112065889</v>
       </c>
       <c r="H9">
-        <v>221646.0395041435</v>
+        <v>221974.3594081137</v>
       </c>
       <c r="I9">
-        <v>151225.4421032082</v>
+        <v>150456.513417288</v>
       </c>
       <c r="J9">
-        <v>3878309.461359651</v>
+        <v>3870871.529667796</v>
       </c>
       <c r="K9">
-        <v>71448.36170447306</v>
+        <v>71448.29822637502</v>
       </c>
       <c r="L9">
-        <v>97994</v>
+        <v>99859</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1711.372323584304</v>
+        <v>1770.355531725931</v>
       </c>
       <c r="B10">
-        <v>4235.500770367978</v>
+        <v>4116.120887903809</v>
       </c>
       <c r="C10">
-        <v>5946.873093952282</v>
+        <v>5886.47641962974</v>
       </c>
       <c r="D10">
-        <v>117894.0535804754</v>
+        <v>111057.8009072245</v>
       </c>
       <c r="E10">
-        <v>153209.732008828</v>
+        <v>149032.5907822074</v>
       </c>
       <c r="F10">
-        <v>38516.19421364873</v>
+        <v>37799.98794175082</v>
       </c>
       <c r="G10">
-        <v>79377.85936682673</v>
+        <v>73257.8129654737</v>
       </c>
       <c r="H10">
-        <v>90623.38964711085</v>
+        <v>88442.28054904938</v>
       </c>
       <c r="I10">
-        <v>62586.34236171712</v>
+        <v>60590.31023315799</v>
       </c>
       <c r="J10">
-        <v>1519016.399744933</v>
+        <v>1510979.443294786</v>
       </c>
       <c r="K10">
-        <v>28003.95381328925</v>
+        <v>28003.6600586075</v>
       </c>
       <c r="L10">
-        <v>38404</v>
+        <v>39169</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3284.079127215682</v>
+        <v>3869.895662581467</v>
       </c>
       <c r="B11">
-        <v>8460.063822963082</v>
+        <v>8355.082005402313</v>
       </c>
       <c r="C11">
-        <v>11744.14295017876</v>
+        <v>12224.97766798378</v>
       </c>
       <c r="D11">
-        <v>231168.941408066</v>
+        <v>237512.9129211208</v>
       </c>
       <c r="E11">
-        <v>305574.1643071155</v>
+        <v>309817.41219647</v>
       </c>
       <c r="F11">
-        <v>77013.39263015124</v>
+        <v>79681.94635883039</v>
       </c>
       <c r="G11">
-        <v>154155.5487779147</v>
+        <v>157830.9665622904</v>
       </c>
       <c r="H11">
-        <v>182023.5294494319</v>
+        <v>183006.2750276828</v>
       </c>
       <c r="I11">
-        <v>123550.6348576836</v>
+        <v>126811.1371687871</v>
       </c>
       <c r="J11">
-        <v>3117675.944181571</v>
+        <v>3145307.806107027</v>
       </c>
       <c r="K11">
-        <v>57877.06732686347</v>
+        <v>57876.67336700718</v>
       </c>
       <c r="L11">
-        <v>79417</v>
+        <v>80917</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4968.457316018926</v>
+        <v>4921.487199460725</v>
       </c>
       <c r="B12">
-        <v>12614.43386935022</v>
+        <v>11515.05054085518</v>
       </c>
       <c r="C12">
-        <v>17582.89118536914</v>
+        <v>16436.53774031591</v>
       </c>
       <c r="D12">
-        <v>322305.2710491277</v>
+        <v>321132.6045645759</v>
       </c>
       <c r="E12">
-        <v>409209.9982262014</v>
+        <v>421014.0055710581</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>322305.2710491277</v>
+        <v>321132.6045645759</v>
       </c>
       <c r="H12">
-        <v>242319.563503849</v>
+        <v>250674.7480877318</v>
       </c>
       <c r="I12">
-        <v>166890.4347223524</v>
+        <v>170339.2574833262</v>
       </c>
       <c r="J12">
-        <v>4302315.804608604</v>
+        <v>4238732.08336852</v>
       </c>
       <c r="K12">
-        <v>78645.97100390519</v>
+        <v>78645.96199040287</v>
       </c>
       <c r="L12">
-        <v>111518</v>
+        <v>113600</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>2383.359130607751</v>
+        <v>2030.671539671166</v>
       </c>
       <c r="B13">
-        <v>5478.383370480907</v>
+        <v>5409.81903779671</v>
       </c>
       <c r="C13">
-        <v>7861.742501088658</v>
+        <v>7440.490577467876</v>
       </c>
       <c r="D13">
-        <v>141536.5049857784</v>
+        <v>145164.7021237197</v>
       </c>
       <c r="E13">
-        <v>189369.0311117608</v>
+        <v>187591.1695143945</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>141536.5049857784</v>
+        <v>145164.7021237197</v>
       </c>
       <c r="H13">
-        <v>111316.024589755</v>
+        <v>110619.7188523717</v>
       </c>
       <c r="I13">
-        <v>78053.00652200577</v>
+        <v>76971.45066202279</v>
       </c>
       <c r="J13">
-        <v>1869450.106711455</v>
+        <v>1870866.012209463</v>
       </c>
       <c r="K13">
-        <v>34684.18293588579</v>
+        <v>34684.33301843771</v>
       </c>
       <c r="L13">
-        <v>48983</v>
+        <v>50017</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>8871.144200143808</v>
+        <v>9057.915160639825</v>
       </c>
       <c r="C14">
-        <v>8871.144200143808</v>
+        <v>9057.915160639825</v>
       </c>
       <c r="D14">
-        <v>176744.4023315418</v>
+        <v>177981.2063170545</v>
       </c>
       <c r="E14">
-        <v>228949.3905840378</v>
+        <v>228204.6938898856</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>176744.4023315418</v>
+        <v>177981.2063170545</v>
       </c>
       <c r="H14">
-        <v>134169.8395011755</v>
+        <v>135483.8878857346</v>
       </c>
       <c r="I14">
-        <v>94779.55108286229</v>
+        <v>92720.80600415105</v>
       </c>
       <c r="J14">
-        <v>2332227.248973288</v>
+        <v>2318291.039483704</v>
       </c>
       <c r="K14">
-        <v>42868.96604926194</v>
+        <v>42868.74333874526</v>
       </c>
       <c r="L14">
-        <v>61018</v>
+        <v>62338</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>8312.572666074242</v>
+        <v>7765.444326932084</v>
       </c>
       <c r="C15">
-        <v>8312.572666074242</v>
+        <v>7765.444326932084</v>
       </c>
       <c r="D15">
-        <v>170423.5811802364</v>
+        <v>173030.1962249708</v>
       </c>
       <c r="E15">
-        <v>222433.4977285187</v>
+        <v>225844.0575149596</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>170423.5811802364</v>
+        <v>173030.1962249708</v>
       </c>
       <c r="H15">
-        <v>131422.61787876</v>
+        <v>133536.5306461406</v>
       </c>
       <c r="I15">
-        <v>91010.87984975862</v>
+        <v>92307.526868819</v>
       </c>
       <c r="J15">
-        <v>2263335.239040247</v>
+        <v>2273494.188688093</v>
       </c>
       <c r="K15">
-        <v>41814.07355777825</v>
+        <v>41813.81308191147</v>
       </c>
       <c r="L15">
-        <v>59433</v>
+        <v>60810</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6767.011951691727</v>
+        <v>6996.139632325858</v>
       </c>
       <c r="C16">
-        <v>6767.011951691727</v>
+        <v>6996.139632325858</v>
       </c>
       <c r="D16">
-        <v>126412.1604014367</v>
+        <v>123929.3378760658</v>
       </c>
       <c r="E16">
-        <v>163319.0343041371</v>
+        <v>163278.2988457731</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>126412.1604014367</v>
+        <v>123929.3378760658</v>
       </c>
       <c r="H16">
-        <v>98008.59585410655</v>
+        <v>96385.94343904845</v>
       </c>
       <c r="I16">
-        <v>65310.43845003055</v>
+        <v>66892.35540672469</v>
       </c>
       <c r="J16">
-        <v>1683302.013408523</v>
+        <v>1676240.954472698</v>
       </c>
       <c r="K16">
-        <v>31076.69611573492</v>
+        <v>31077.16497489993</v>
       </c>
       <c r="L16">
-        <v>44221</v>
+        <v>45220</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>2036.377720244071</v>
+        <v>1947.333007182291</v>
       </c>
       <c r="C17">
-        <v>2036.377720244071</v>
+        <v>1947.333007182291</v>
       </c>
       <c r="D17">
-        <v>11929.67718395385</v>
+        <v>12006.10004629043</v>
       </c>
       <c r="E17">
-        <v>17233.07432241158</v>
+        <v>17649.44424434843</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>11929.67718395385</v>
+        <v>12006.10004629043</v>
       </c>
       <c r="H17">
-        <v>9814.569411376626</v>
+        <v>10064.67151937894</v>
       </c>
       <c r="I17">
-        <v>7418.504911034953</v>
+        <v>7584.772724969489</v>
       </c>
       <c r="J17">
-        <v>144541.5523646136</v>
+        <v>142927.1397564313</v>
       </c>
       <c r="K17">
-        <v>4914.917116210908</v>
+        <v>4914.827193229748</v>
       </c>
       <c r="L17">
-        <v>6661</v>
+        <v>6855</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2649.15914674584</v>
+        <v>2603.293369440376</v>
       </c>
       <c r="C18">
-        <v>2649.15914674584</v>
+        <v>2603.293369440376</v>
       </c>
       <c r="D18">
-        <v>16792.39458254372</v>
+        <v>16247.93825228452</v>
       </c>
       <c r="E18">
-        <v>24813.67420118214</v>
+        <v>25374.72902455819</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16792.39458254372</v>
+        <v>16247.93825228452</v>
       </c>
       <c r="H18">
-        <v>14274.24275302031</v>
+        <v>14515.0473524595</v>
       </c>
       <c r="I18">
-        <v>10539.43144816183</v>
+        <v>10859.68167209869</v>
       </c>
       <c r="J18">
-        <v>201669.0569962286</v>
+        <v>204786.1791099406</v>
       </c>
       <c r="K18">
-        <v>7009.772604700202</v>
+        <v>7009.850756543926</v>
       </c>
       <c r="L18">
-        <v>9496</v>
+        <v>9774</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>609.8809607390955</v>
+        <v>573.7252136596188</v>
       </c>
       <c r="B19">
-        <v>5928.948787803884</v>
+        <v>5919.664075333365</v>
       </c>
       <c r="C19">
-        <v>6538.829748542979</v>
+        <v>6493.389288992984</v>
       </c>
       <c r="D19">
-        <v>38155.22558586776</v>
+        <v>40949.42934880881</v>
       </c>
       <c r="E19">
-        <v>57938.85184026791</v>
+        <v>58435.4669830057</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38155.22558586776</v>
+        <v>40949.42934880881</v>
       </c>
       <c r="H19">
-        <v>32893.80286400795</v>
+        <v>33258.02315000453</v>
       </c>
       <c r="I19">
-        <v>25045.04897625996</v>
+        <v>25177.44383300116</v>
       </c>
       <c r="J19">
-        <v>467597.5493282651</v>
+        <v>473805.1577448569</v>
       </c>
       <c r="K19">
-        <v>16219.36763966478</v>
+        <v>16218.96653124245</v>
       </c>
       <c r="L19">
-        <v>21862</v>
+        <v>22507</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1336.004320531449</v>
+        <v>1330.294414878299</v>
       </c>
       <c r="B20">
-        <v>12965.32719285603</v>
+        <v>13117.13158557343</v>
       </c>
       <c r="C20">
-        <v>14301.33151338748</v>
+        <v>14447.42600045173</v>
       </c>
       <c r="D20">
-        <v>93420.83392984761</v>
+        <v>90570.30042234992</v>
       </c>
       <c r="E20">
-        <v>134271.7264660715</v>
+        <v>132523.8212881793</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>93420.83392984761</v>
+        <v>90570.30042234992</v>
       </c>
       <c r="H20">
-        <v>76057.38546903616</v>
+        <v>75394.04431101825</v>
       </c>
       <c r="I20">
-        <v>58214.34099703537</v>
+        <v>57129.776977161</v>
       </c>
       <c r="J20">
-        <v>1072314.911275543</v>
+        <v>1091028.939974625</v>
       </c>
       <c r="K20">
-        <v>37313.87565379032</v>
+        <v>37313.78735344645</v>
       </c>
       <c r="L20">
-        <v>50433</v>
+        <v>51804</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>2809.849877132393</v>
+        <v>3760.152457173869</v>
       </c>
       <c r="B21">
-        <v>32411.42408500811</v>
+        <v>31971.06837562345</v>
       </c>
       <c r="C21">
-        <v>35221.27396214051</v>
+        <v>35731.22083279732</v>
       </c>
       <c r="D21">
-        <v>223356.2315849937</v>
+        <v>221252.846919499</v>
       </c>
       <c r="E21">
-        <v>326782.0489934204</v>
+        <v>324176.5245105174</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>223356.2315849937</v>
+        <v>221252.846919499</v>
       </c>
       <c r="H21">
-        <v>185908.895340313</v>
+        <v>185820.3542264492</v>
       </c>
       <c r="I21">
-        <v>140873.1536531074</v>
+        <v>138356.1702840683</v>
       </c>
       <c r="J21">
-        <v>2654059.076364531</v>
+        <v>2607063.053395909</v>
       </c>
       <c r="K21">
-        <v>90793.81349941465</v>
+        <v>90793.80979523175</v>
       </c>
       <c r="L21">
-        <v>122799</v>
+        <v>125930</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>4197.95297507671</v>
+        <v>3739.955709377367</v>
       </c>
       <c r="B22">
-        <v>42201.84266220764</v>
+        <v>39085.74110945139</v>
       </c>
       <c r="C22">
-        <v>46399.79563728435</v>
+        <v>42825.69681882876</v>
       </c>
       <c r="D22">
-        <v>256160.6969187017</v>
+        <v>262941.4171710337</v>
       </c>
       <c r="E22">
-        <v>392703.4635118272</v>
+        <v>384506.498256784</v>
       </c>
       <c r="F22">
-        <v>41584.38198964137</v>
+        <v>43100.12985365411</v>
       </c>
       <c r="G22">
-        <v>214576.3149290603</v>
+        <v>219841.2873173796</v>
       </c>
       <c r="H22">
-        <v>224593.7635124232</v>
+        <v>219120.8178724993</v>
       </c>
       <c r="I22">
-        <v>168109.6999994041</v>
+        <v>165385.6803842847</v>
       </c>
       <c r="J22">
-        <v>3174254.509045283</v>
+        <v>3175052.556549049</v>
       </c>
       <c r="K22">
-        <v>108045.0551543518</v>
+        <v>108045.3224683064</v>
       </c>
       <c r="L22">
-        <v>144449</v>
+        <v>148299</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3675.676001271046</v>
+        <v>3833.591797101308</v>
       </c>
       <c r="B23">
-        <v>39913.25511243156</v>
+        <v>41164.9429136536</v>
       </c>
       <c r="C23">
-        <v>43588.93111370261</v>
+        <v>44998.5347107549</v>
       </c>
       <c r="D23">
-        <v>283601.529754575</v>
+        <v>283925.6421179282</v>
       </c>
       <c r="E23">
-        <v>418777.9847354708</v>
+        <v>414642.1983424347</v>
       </c>
       <c r="F23">
-        <v>44461.99579086987</v>
+        <v>45372.88529875646</v>
       </c>
       <c r="G23">
-        <v>239139.5339637052</v>
+        <v>238552.7568191717</v>
       </c>
       <c r="H23">
-        <v>238888.669871595</v>
+        <v>236765.9991279806</v>
       </c>
       <c r="I23">
-        <v>179889.3148638757</v>
+        <v>177876.1992144541</v>
       </c>
       <c r="J23">
-        <v>3420332.000544513</v>
+        <v>3415596.247237423</v>
       </c>
       <c r="K23">
-        <v>116725.8293517607</v>
+        <v>116725.8811111923</v>
       </c>
       <c r="L23">
-        <v>155987</v>
+        <v>160097</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7708.322683681043</v>
+        <v>7294.193817017193</v>
       </c>
       <c r="B24">
-        <v>72456.48085290531</v>
+        <v>68907.20991610987</v>
       </c>
       <c r="C24">
-        <v>80164.80353658636</v>
+        <v>76201.40373312707</v>
       </c>
       <c r="D24">
-        <v>463905.0437478024</v>
+        <v>443341.3932382665</v>
       </c>
       <c r="E24">
-        <v>697899.4475335834</v>
+        <v>697094.5732224624</v>
       </c>
       <c r="F24">
-        <v>75658.32653584557</v>
+        <v>72838.02621689177</v>
       </c>
       <c r="G24">
-        <v>388246.7172119569</v>
+        <v>370503.3670213748</v>
       </c>
       <c r="H24">
-        <v>397406.5342149896</v>
+        <v>395419.432178556</v>
       </c>
       <c r="I24">
-        <v>300492.9133185938</v>
+        <v>301675.1410439064</v>
       </c>
       <c r="J24">
-        <v>5575235.63414818</v>
+        <v>5678879.881849094</v>
       </c>
       <c r="K24">
-        <v>193190.0937378391</v>
+        <v>193189.7783277652</v>
       </c>
       <c r="L24">
-        <v>258165</v>
+        <v>265560</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>6253.123520114856</v>
+        <v>5998.560869061965</v>
       </c>
       <c r="B25">
-        <v>59944.19627209938</v>
+        <v>62502.94807622077</v>
       </c>
       <c r="C25">
-        <v>66197.31979221423</v>
+        <v>68501.50894528274</v>
       </c>
       <c r="D25">
-        <v>410018.8199954789</v>
+        <v>420278.3547621391</v>
       </c>
       <c r="E25">
-        <v>609521.8110609988</v>
+        <v>589173.6357145816</v>
       </c>
       <c r="F25">
-        <v>65927.44595152736</v>
+        <v>66037.73267623103</v>
       </c>
       <c r="G25">
-        <v>344091.3740439515</v>
+        <v>354240.622085908</v>
       </c>
       <c r="H25">
-        <v>346946.7578740506</v>
+        <v>336861.1050927058</v>
       </c>
       <c r="I25">
-        <v>262575.0531869482</v>
+        <v>252312.5306218758</v>
       </c>
       <c r="J25">
-        <v>4915317.124156529</v>
+        <v>4824874.615367969</v>
       </c>
       <c r="K25">
-        <v>167766.0990059668</v>
+        <v>167766.3026257479</v>
       </c>
       <c r="L25">
-        <v>224354</v>
+        <v>230248</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4609.893913683927</v>
+        <v>4290.112203199387</v>
       </c>
       <c r="B26">
-        <v>44020.33388071758</v>
+        <v>43379.18846464048</v>
       </c>
       <c r="C26">
-        <v>48630.2277944015</v>
+        <v>47669.30066783987</v>
       </c>
       <c r="D26">
-        <v>284891.7614869481</v>
+        <v>283214.0808722356</v>
       </c>
       <c r="E26">
-        <v>433509.0976339041</v>
+        <v>421790.6256050662</v>
       </c>
       <c r="F26">
-        <v>45260.29255838269</v>
+        <v>44624.53879657406</v>
       </c>
       <c r="G26">
-        <v>239631.4689285654</v>
+        <v>238589.5420756616</v>
       </c>
       <c r="H26">
-        <v>247076.8270999851</v>
+        <v>241453.4079991085</v>
       </c>
       <c r="I26">
-        <v>186432.2705339191</v>
+        <v>180337.2176059576</v>
       </c>
       <c r="J26">
-        <v>3405233.52139974</v>
+        <v>3407840.581920323</v>
       </c>
       <c r="K26">
-        <v>117051.3494826219</v>
+        <v>117051.1825465586</v>
       </c>
       <c r="L26">
-        <v>156173</v>
+        <v>160714</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4707.110182552485</v>
+        <v>5545.122579073757</v>
       </c>
       <c r="B27">
-        <v>47321.09518725896</v>
+        <v>52318.70443803992</v>
       </c>
       <c r="C27">
-        <v>52028.20536981145</v>
+        <v>57863.82701711368</v>
       </c>
       <c r="D27">
-        <v>347649.3604329582</v>
+        <v>356769.2635939716</v>
       </c>
       <c r="E27">
-        <v>533777.2735693003</v>
+        <v>520812.4350184979</v>
       </c>
       <c r="F27">
-        <v>63499.74593638368</v>
+        <v>66000.9801323423</v>
       </c>
       <c r="G27">
-        <v>284149.6144965745</v>
+        <v>290768.2834616293</v>
       </c>
       <c r="H27">
-        <v>303890.7779755396</v>
+        <v>298929.7987972234</v>
       </c>
       <c r="I27">
-        <v>229886.4955937608</v>
+        <v>221882.6362212744</v>
       </c>
       <c r="J27">
-        <v>4276583.351881478</v>
+        <v>4247331.238240396</v>
       </c>
       <c r="K27">
-        <v>146864.9801130463</v>
+        <v>146864.7623039102</v>
       </c>
       <c r="L27">
-        <v>196192</v>
+        <v>201376</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>5453.794657310302</v>
+        <v>5882.359329371779</v>
       </c>
       <c r="B28">
-        <v>59399.68589559822</v>
+        <v>57038.05076273626</v>
       </c>
       <c r="C28">
-        <v>64853.48055290853</v>
+        <v>62920.41009210803</v>
       </c>
       <c r="D28">
-        <v>406416.6784132963</v>
+        <v>406878.4708014559</v>
       </c>
       <c r="E28">
-        <v>604967.3966432936</v>
+        <v>606035.1433265599</v>
       </c>
       <c r="F28">
-        <v>75700.54831617061</v>
+        <v>75902.3726530405</v>
       </c>
       <c r="G28">
-        <v>330716.1300971257</v>
+        <v>330976.0981484154</v>
       </c>
       <c r="H28">
-        <v>347850.7120607037</v>
+        <v>345604.3163810152</v>
       </c>
       <c r="I28">
-        <v>257116.6845825899</v>
+        <v>260430.8269455447</v>
       </c>
       <c r="J28">
-        <v>4963940.846895392</v>
+        <v>5008841.226703781</v>
       </c>
       <c r="K28">
-        <v>171179.2678339413</v>
+        <v>171178.9433230655</v>
       </c>
       <c r="L28">
-        <v>228751</v>
+        <v>234891</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>3342.740324172964</v>
+        <v>4136.619748120881</v>
       </c>
       <c r="B29">
-        <v>36812.11256210764</v>
+        <v>39158.33482906105</v>
       </c>
       <c r="C29">
-        <v>40154.8528862806</v>
+        <v>43294.95457718193</v>
       </c>
       <c r="D29">
-        <v>251466.8844112642</v>
+        <v>258081.4938158561</v>
       </c>
       <c r="E29">
-        <v>380836.1689741109</v>
+        <v>382995.2943322739</v>
       </c>
       <c r="F29">
-        <v>46164.50479299113</v>
+        <v>48575.43813149726</v>
       </c>
       <c r="G29">
-        <v>205302.379618273</v>
+        <v>209506.0556843588</v>
       </c>
       <c r="H29">
-        <v>218628.1146183774</v>
+        <v>217225.0115395598</v>
       </c>
       <c r="I29">
-        <v>162208.0543557335</v>
+        <v>165770.2827927141</v>
       </c>
       <c r="J29">
-        <v>3039942.050395857</v>
+        <v>3030092.125299182</v>
       </c>
       <c r="K29">
-        <v>104633.6703950779</v>
+        <v>104633.8850718943</v>
       </c>
       <c r="L29">
-        <v>139840</v>
+        <v>143489</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1766.997835073449</v>
+        <v>1943.039820575527</v>
       </c>
       <c r="B30">
-        <v>18997.36354379999</v>
+        <v>18903.94674485988</v>
       </c>
       <c r="C30">
-        <v>20764.36137887344</v>
+        <v>20846.9865654354</v>
       </c>
       <c r="D30">
-        <v>125960.843290916</v>
+        <v>125845.6262538167</v>
       </c>
       <c r="E30">
-        <v>184310.0800180784</v>
+        <v>187230.4452911272</v>
       </c>
       <c r="F30">
-        <v>23113.980125807</v>
+        <v>23968.06086753711</v>
       </c>
       <c r="G30">
-        <v>102846.863165109</v>
+        <v>101877.5653862796</v>
       </c>
       <c r="H30">
-        <v>105133.5645748216</v>
+        <v>107447.4282389487</v>
       </c>
       <c r="I30">
-        <v>79176.51544325688</v>
+        <v>79783.01705217855</v>
       </c>
       <c r="J30">
-        <v>1514400.266733244</v>
+        <v>1495477.242624306</v>
       </c>
       <c r="K30">
-        <v>52080.73831223442</v>
+        <v>52081.03210777081</v>
       </c>
       <c r="L30">
-        <v>69567</v>
+        <v>71337</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1273.049893856147</v>
+        <v>1405.46402883915</v>
       </c>
       <c r="B31">
-        <v>13597.03494026486</v>
+        <v>14063.51701163321</v>
       </c>
       <c r="C31">
-        <v>14870.08483412101</v>
+        <v>15468.98104047236</v>
       </c>
       <c r="D31">
-        <v>94110.08847516704</v>
+        <v>92096.33553035924</v>
       </c>
       <c r="E31">
-        <v>135012.3853797503</v>
+        <v>139314.580598154</v>
       </c>
       <c r="F31">
-        <v>17956.32506048167</v>
+        <v>17374.22942216094</v>
       </c>
       <c r="G31">
-        <v>76153.76341468537</v>
+        <v>74722.10610819829</v>
       </c>
       <c r="H31">
-        <v>77154.90333628115</v>
+        <v>79378.8634737877</v>
       </c>
       <c r="I31">
-        <v>57857.48204346918</v>
+        <v>59935.7171243663</v>
       </c>
       <c r="J31">
-        <v>1112554.377296277</v>
+        <v>1122136.754092302</v>
       </c>
       <c r="K31">
-        <v>38180.79680549011</v>
+        <v>38180.89362239137</v>
       </c>
       <c r="L31">
-        <v>50995</v>
+        <v>52406</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2064,37 +2064,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>951.6785607793562</v>
+        <v>944.2556356409344</v>
       </c>
       <c r="C32">
-        <v>951.6785607793562</v>
+        <v>944.2556356409344</v>
       </c>
       <c r="D32">
-        <v>5656.995143641542</v>
+        <v>5825.580180455943</v>
       </c>
       <c r="E32">
-        <v>7026.215144555957</v>
+        <v>7015.632128098976</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5656.995143641542</v>
+        <v>5825.580180455943</v>
       </c>
       <c r="H32">
-        <v>3599.355304150181</v>
+        <v>3597.884281075099</v>
       </c>
       <c r="I32">
-        <v>3426.859840405776</v>
+        <v>3417.747847023877</v>
       </c>
       <c r="J32">
-        <v>84653.24061178537</v>
+        <v>83959.50192155562</v>
       </c>
       <c r="K32">
-        <v>2024.002329360438</v>
+        <v>2023.815295064659</v>
       </c>
       <c r="L32">
-        <v>2863</v>
+        <v>2831</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1590.836272761185</v>
+        <v>1531.866367158116</v>
       </c>
       <c r="B33">
-        <v>7543.987224010326</v>
+        <v>7140.225262870315</v>
       </c>
       <c r="C33">
-        <v>9134.823496771511</v>
+        <v>8672.091630028432</v>
       </c>
       <c r="D33">
-        <v>54275.1463369762</v>
+        <v>52848.43838744934</v>
       </c>
       <c r="E33">
-        <v>63340.24590364638</v>
+        <v>63430.4383412898</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>54275.1463369762</v>
+        <v>52848.43838744934</v>
       </c>
       <c r="H33">
-        <v>32425.81398348213</v>
+        <v>32450.84086943007</v>
       </c>
       <c r="I33">
-        <v>30914.43192016426</v>
+        <v>30979.59747185974</v>
       </c>
       <c r="J33">
-        <v>766974.5769526535</v>
+        <v>770027.7183330033</v>
       </c>
       <c r="K33">
-        <v>18522.80290132631</v>
+        <v>18523.05873231772</v>
       </c>
       <c r="L33">
-        <v>25945</v>
+        <v>25689</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5380.473924292802</v>
+        <v>5488.09278893591</v>
       </c>
       <c r="B34">
-        <v>25023.05326243677</v>
+        <v>24172.08727491276</v>
       </c>
       <c r="C34">
-        <v>30403.52718672958</v>
+        <v>29660.18006384867</v>
       </c>
       <c r="D34">
-        <v>174530.5636234514</v>
+        <v>178542.8568818767</v>
       </c>
       <c r="E34">
-        <v>211969.800096881</v>
+        <v>214003.635628926</v>
       </c>
       <c r="F34">
-        <v>31248.60124804293</v>
+        <v>30665.55891202905</v>
       </c>
       <c r="G34">
-        <v>143281.9623754084</v>
+        <v>147877.2979698477</v>
       </c>
       <c r="H34">
-        <v>107918.2506385333</v>
+        <v>108988.7229719671</v>
       </c>
       <c r="I34">
-        <v>104051.5494583477</v>
+        <v>105014.912656959</v>
       </c>
       <c r="J34">
-        <v>2547829.484045307</v>
+        <v>2547113.62347955</v>
       </c>
       <c r="K34">
-        <v>61494.23389706734</v>
+        <v>61493.75311038242</v>
       </c>
       <c r="L34">
-        <v>85001</v>
+        <v>84075</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>13661.05778195302</v>
+        <v>14077.39706837783</v>
       </c>
       <c r="B35">
-        <v>62033.76157124366</v>
+        <v>61127.39735230276</v>
       </c>
       <c r="C35">
-        <v>75694.81935319668</v>
+        <v>75204.79442068058</v>
       </c>
       <c r="D35">
-        <v>452404.2363801742</v>
+        <v>454531.8340498452</v>
       </c>
       <c r="E35">
-        <v>547812.2059574232</v>
+        <v>531718.4104909122</v>
       </c>
       <c r="F35">
-        <v>77741.27082337062</v>
+        <v>79181.03733327291</v>
       </c>
       <c r="G35">
-        <v>374662.9655568035</v>
+        <v>375350.7967165723</v>
       </c>
       <c r="H35">
-        <v>277141.3272327557</v>
+        <v>271610.0094310892</v>
       </c>
       <c r="I35">
-        <v>270670.8787246675</v>
+        <v>260108.4010598231</v>
       </c>
       <c r="J35">
-        <v>6443784.397104521</v>
+        <v>6427758.426462835</v>
       </c>
       <c r="K35">
-        <v>155265.3177310182</v>
+        <v>155264.7168823165</v>
       </c>
       <c r="L35">
-        <v>213972</v>
+        <v>212065</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>21903.43994492363</v>
+        <v>20894.00741079613</v>
       </c>
       <c r="B36">
-        <v>94977.61922462177</v>
+        <v>99690.60630351416</v>
       </c>
       <c r="C36">
-        <v>116881.0591695454</v>
+        <v>120584.6137143103</v>
       </c>
       <c r="D36">
-        <v>691337.9145686362</v>
+        <v>689950.2656534875</v>
       </c>
       <c r="E36">
-        <v>822211.5550314214</v>
+        <v>841107.8633256223</v>
       </c>
       <c r="F36">
-        <v>120925.1630426756</v>
+        <v>116415.9122785796</v>
       </c>
       <c r="G36">
-        <v>570412.7515259606</v>
+        <v>573534.353374908</v>
       </c>
       <c r="H36">
-        <v>422543.5365814884</v>
+        <v>430023.0510035865</v>
       </c>
       <c r="I36">
-        <v>399668.018449933</v>
+        <v>411084.8123220358</v>
       </c>
       <c r="J36">
-        <v>9950498.023451788</v>
+        <v>9886500.185706651</v>
       </c>
       <c r="K36">
-        <v>238366.723051878</v>
+        <v>238366.7596668016</v>
       </c>
       <c r="L36">
-        <v>327894</v>
+        <v>325769</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5852.165043493371</v>
+        <v>5132.10230480378</v>
       </c>
       <c r="B37">
-        <v>24710.24614408204</v>
+        <v>25414.44668067178</v>
       </c>
       <c r="C37">
-        <v>30562.41118757541</v>
+        <v>30546.54898547555</v>
       </c>
       <c r="D37">
-        <v>185235.1911115007</v>
+        <v>183562.0036745979</v>
       </c>
       <c r="E37">
-        <v>213537.3422860563</v>
+        <v>220834.1579431493</v>
       </c>
       <c r="F37">
-        <v>31842.33056477151</v>
+        <v>32438.37589070614</v>
       </c>
       <c r="G37">
-        <v>153392.8605467292</v>
+        <v>151123.6277838918</v>
       </c>
       <c r="H37">
-        <v>108343.2665555915</v>
+        <v>112827.7977532578</v>
       </c>
       <c r="I37">
-        <v>105194.0757304648</v>
+        <v>108006.3601898915</v>
       </c>
       <c r="J37">
-        <v>2637449.965817699</v>
+        <v>2638795.138745907</v>
       </c>
       <c r="K37">
-        <v>63838.18297476326</v>
+        <v>63837.64764736451</v>
       </c>
       <c r="L37">
-        <v>87940</v>
+        <v>87412</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>14454.43762485785</v>
+        <v>14530.50288125441</v>
       </c>
       <c r="B38">
-        <v>66893.01975406962</v>
+        <v>67644.67879609908</v>
       </c>
       <c r="C38">
-        <v>81347.45737892747</v>
+        <v>82175.1816773535</v>
       </c>
       <c r="D38">
-        <v>493215.2497959312</v>
+        <v>465058.358850661</v>
       </c>
       <c r="E38">
-        <v>587598.8804345648</v>
+        <v>569994.1767427084</v>
       </c>
       <c r="F38">
-        <v>87941.22288497903</v>
+        <v>80125.23552214833</v>
       </c>
       <c r="G38">
-        <v>405274.0269109522</v>
+        <v>384933.1233285127</v>
       </c>
       <c r="H38">
-        <v>297993.2855049661</v>
+        <v>290329.0692391308</v>
       </c>
       <c r="I38">
-        <v>289605.5949295986</v>
+        <v>279665.1075035776</v>
       </c>
       <c r="J38">
-        <v>6972524.585119211</v>
+        <v>7063533.856692755</v>
       </c>
       <c r="K38">
-        <v>169119.9716852585</v>
+        <v>169119.8245352059</v>
       </c>
       <c r="L38">
-        <v>233304</v>
+        <v>231465</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>17371.93627741836</v>
+        <v>17425.78763379965</v>
       </c>
       <c r="B39">
-        <v>79074.47322673969</v>
+        <v>78740.64847429068</v>
       </c>
       <c r="C39">
-        <v>96446.40950415806</v>
+        <v>96166.43610809032</v>
       </c>
       <c r="D39">
-        <v>583376.8752746591</v>
+        <v>572552.8241425769</v>
       </c>
       <c r="E39">
-        <v>710118.9388732801</v>
+        <v>702560.1143009467</v>
       </c>
       <c r="F39">
-        <v>101792.932932898</v>
+        <v>103799.2896211475</v>
       </c>
       <c r="G39">
-        <v>481583.9423417611</v>
+        <v>468753.5345214293</v>
       </c>
       <c r="H39">
-        <v>364761.32395314</v>
+        <v>360114.2414858099</v>
       </c>
       <c r="I39">
-        <v>345357.6149201401</v>
+        <v>342445.8728151368</v>
       </c>
       <c r="J39">
-        <v>8617330.344847769</v>
+        <v>8499438.625087436</v>
       </c>
       <c r="K39">
-        <v>206140.1727197739</v>
+        <v>206139.6790746385</v>
       </c>
       <c r="L39">
-        <v>284551</v>
+        <v>281709</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>8746.395654616324</v>
+        <v>8703.676568659834</v>
       </c>
       <c r="B40">
-        <v>37516.97663984827</v>
+        <v>39055.46161838635</v>
       </c>
       <c r="C40">
-        <v>46263.37229446459</v>
+        <v>47759.13818704618</v>
       </c>
       <c r="D40">
-        <v>282426.1130337023</v>
+        <v>285188.34003599</v>
       </c>
       <c r="E40">
-        <v>335736.5087066622</v>
+        <v>344130.3970026388</v>
       </c>
       <c r="F40">
-        <v>48766.45314368214</v>
+        <v>50208.53562085976</v>
       </c>
       <c r="G40">
-        <v>233659.6598900202</v>
+        <v>234979.8044151302</v>
       </c>
       <c r="H40">
-        <v>170458.655001831</v>
+        <v>173920.0431150086</v>
       </c>
       <c r="I40">
-        <v>165277.8537048311</v>
+        <v>170210.3538876302</v>
       </c>
       <c r="J40">
-        <v>4064329.489961355</v>
+        <v>4039868.998109906</v>
       </c>
       <c r="K40">
-        <v>97788.67374133007</v>
+        <v>97788.98139829322</v>
       </c>
       <c r="L40">
-        <v>134677</v>
+        <v>133692</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>17822.47928131609</v>
+        <v>18104.30588727929</v>
       </c>
       <c r="B41">
-        <v>83654.37123108584</v>
+        <v>81081.3314248322</v>
       </c>
       <c r="C41">
-        <v>101476.8505124019</v>
+        <v>99185.63731211147</v>
       </c>
       <c r="D41">
-        <v>573218.9274655926</v>
+        <v>562761.1374368056</v>
       </c>
       <c r="E41">
-        <v>696455.5372079307</v>
+        <v>672258.3709951156</v>
       </c>
       <c r="F41">
-        <v>100960.767997801</v>
+        <v>98035.49161535344</v>
       </c>
       <c r="G41">
-        <v>472258.1594677916</v>
+        <v>464725.6458214523</v>
       </c>
       <c r="H41">
-        <v>354558.8078504788</v>
+        <v>344559.5178616396</v>
       </c>
       <c r="I41">
-        <v>341896.7293574519</v>
+        <v>327698.853133476</v>
       </c>
       <c r="J41">
-        <v>8212664.10575924</v>
+        <v>8240527.889669326</v>
       </c>
       <c r="K41">
-        <v>197752.8332618791</v>
+        <v>197753.3502103073</v>
       </c>
       <c r="L41">
-        <v>272580</v>
+        <v>270052</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10278.13288301258</v>
+        <v>10820.78019673451</v>
       </c>
       <c r="B42">
-        <v>46642.2041209692</v>
+        <v>45157.14588799377</v>
       </c>
       <c r="C42">
-        <v>56920.33700398178</v>
+        <v>55977.92608472828</v>
       </c>
       <c r="D42">
-        <v>329333.2374187961</v>
+        <v>327517.6900467288</v>
       </c>
       <c r="E42">
-        <v>390149.8490808537</v>
+        <v>389016.8363677987</v>
       </c>
       <c r="F42">
-        <v>57607.69425067022</v>
+        <v>56831.7670659158</v>
       </c>
       <c r="G42">
-        <v>271725.5431681258</v>
+        <v>270685.922980813</v>
       </c>
       <c r="H42">
-        <v>200722.4871480992</v>
+        <v>197937.2495407276</v>
       </c>
       <c r="I42">
-        <v>189427.3619327546</v>
+        <v>191079.5868270711</v>
       </c>
       <c r="J42">
-        <v>4677000.552496874</v>
+        <v>4640319.16584178</v>
       </c>
       <c r="K42">
-        <v>112253.100619965</v>
+        <v>112252.6674612477</v>
       </c>
       <c r="L42">
-        <v>154934</v>
+        <v>153414</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>75618.62320096427</v>
+        <v>70928.73471364436</v>
       </c>
       <c r="C43">
-        <v>75618.62320096427</v>
+        <v>70928.73471364436</v>
       </c>
       <c r="D43">
-        <v>461034.3316642379</v>
+        <v>436453.8980888533</v>
       </c>
       <c r="E43">
-        <v>543573.9558834962</v>
+        <v>529776.296316415</v>
       </c>
       <c r="F43">
-        <v>79659.371138934</v>
+        <v>76718.02068680579</v>
       </c>
       <c r="G43">
-        <v>381374.9605253039</v>
+        <v>359735.8774020476</v>
       </c>
       <c r="H43">
-        <v>275844.032451666</v>
+        <v>268415.4787073882</v>
       </c>
       <c r="I43">
-        <v>267729.9234318301</v>
+        <v>261360.8176090267</v>
       </c>
       <c r="J43">
-        <v>6474767.909022438</v>
+        <v>6485696.502826007</v>
       </c>
       <c r="K43">
-        <v>156449.6943599494</v>
+        <v>156449.6652265651</v>
       </c>
       <c r="L43">
-        <v>217469</v>
+        <v>215819</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>45985.18014081775</v>
+        <v>40819.34542673681</v>
       </c>
       <c r="C44">
-        <v>45985.18014081775</v>
+        <v>40819.34542673681</v>
       </c>
       <c r="D44">
-        <v>291410.4536980881</v>
+        <v>274508.3645018446</v>
       </c>
       <c r="E44">
-        <v>343663.9169914753</v>
+        <v>336978.8156423538</v>
       </c>
       <c r="F44">
-        <v>50708.79524123002</v>
+        <v>47393.91371777261</v>
       </c>
       <c r="G44">
-        <v>240701.658456858</v>
+        <v>227114.450784072</v>
       </c>
       <c r="H44">
-        <v>174798.3243109119</v>
+        <v>169648.8539830589</v>
       </c>
       <c r="I44">
-        <v>168865.5926805635</v>
+        <v>167329.961659295</v>
       </c>
       <c r="J44">
-        <v>4104145.898127154</v>
+        <v>4099169.890102336</v>
       </c>
       <c r="K44">
-        <v>99098.66602700771</v>
+        <v>99098.89022045379</v>
       </c>
       <c r="L44">
-        <v>137711</v>
+        <v>136707</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>34274.76989533323</v>
+        <v>35175.84952273308</v>
       </c>
       <c r="C45">
-        <v>34274.76989533323</v>
+        <v>35175.84952273308</v>
       </c>
       <c r="D45">
-        <v>210706.0904183689</v>
+        <v>210498.2465893337</v>
       </c>
       <c r="E45">
-        <v>260485.2842769151</v>
+        <v>252418.49364325</v>
       </c>
       <c r="F45">
-        <v>36984.7926864469</v>
+        <v>37128.02761866978</v>
       </c>
       <c r="G45">
-        <v>173721.297731922</v>
+        <v>173370.2189706639</v>
       </c>
       <c r="H45">
-        <v>131269.1900874376</v>
+        <v>128933.4882603575</v>
       </c>
       <c r="I45">
-        <v>129216.0941894775</v>
+        <v>123485.0053828925</v>
       </c>
       <c r="J45">
-        <v>3073294.076717014</v>
+        <v>3056554.044011847</v>
       </c>
       <c r="K45">
-        <v>74157.85019538502</v>
+        <v>74158.04003915183</v>
       </c>
       <c r="L45">
-        <v>103164</v>
+        <v>102162</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2638.075171403617</v>
+        <v>2393.691287197929</v>
       </c>
       <c r="C46">
-        <v>2638.075171403617</v>
+        <v>2393.691287197929</v>
       </c>
       <c r="D46">
-        <v>15308.05649346442</v>
+        <v>14815.15011790579</v>
       </c>
       <c r="E46">
-        <v>18197.37671432708</v>
+        <v>18150.83803721552</v>
       </c>
       <c r="F46">
-        <v>2713.124303149299</v>
+        <v>2609.941431133803</v>
       </c>
       <c r="G46">
-        <v>12594.93219031512</v>
+        <v>12205.20868677199</v>
       </c>
       <c r="H46">
-        <v>9236.073832849683</v>
+        <v>9289.893966058013</v>
       </c>
       <c r="I46">
-        <v>8961.302881477395</v>
+        <v>8860.944071157506</v>
       </c>
       <c r="J46">
-        <v>216541.8426145311</v>
+        <v>217221.3513098041</v>
       </c>
       <c r="K46">
-        <v>5226.761168247699</v>
+        <v>5226.866622639427</v>
       </c>
       <c r="L46">
-        <v>7269</v>
+        <v>7201</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>189430.4873328942</v>
+        <v>196265.8454780282</v>
       </c>
       <c r="C47">
-        <v>189430.4873328942</v>
+        <v>196265.8454780282</v>
       </c>
       <c r="D47">
-        <v>290544.5096227597</v>
+        <v>294399.670586039</v>
       </c>
       <c r="E47">
-        <v>404907.9518096247</v>
+        <v>409644.9858827433</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>290544.5096227597</v>
+        <v>294399.670586039</v>
       </c>
       <c r="H47">
-        <v>245925.0719535094</v>
+        <v>245247.0243523819</v>
       </c>
       <c r="I47">
-        <v>158982.8798561152</v>
+        <v>164397.9615303614</v>
       </c>
       <c r="J47">
-        <v>9494882.512766883</v>
+        <v>9385439.906016804</v>
       </c>
       <c r="K47">
-        <v>165878.7922306113</v>
+        <v>165879.0383428782</v>
       </c>
       <c r="L47">
-        <v>243205</v>
+        <v>236700</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>10432.14487189471</v>
+        <v>10143.28239001318</v>
       </c>
       <c r="B48">
-        <v>124950.2159118742</v>
+        <v>118296.9072380673</v>
       </c>
       <c r="C48">
-        <v>135382.3607837689</v>
+        <v>128440.1896280804</v>
       </c>
       <c r="D48">
-        <v>204951.2149125628</v>
+        <v>206284.705613208</v>
       </c>
       <c r="E48">
-        <v>281513.177805925</v>
+        <v>294150.2975656358</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>204951.2149125628</v>
+        <v>206284.705613208</v>
       </c>
       <c r="H48">
-        <v>167555.2243763676</v>
+        <v>174088.032486503</v>
       </c>
       <c r="I48">
-        <v>113957.9534295574</v>
+        <v>120062.2650791327</v>
       </c>
       <c r="J48">
-        <v>6869387.056163545</v>
+        <v>6874998.409492708</v>
       </c>
       <c r="K48">
-        <v>121111.7500870378</v>
+        <v>121112.3328384063</v>
       </c>
       <c r="L48">
-        <v>176044</v>
+        <v>171809</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>27645.13700693328</v>
+        <v>26644.50945445381</v>
       </c>
       <c r="B49">
-        <v>327425.2238289675</v>
+        <v>344578.8042966948</v>
       </c>
       <c r="C49">
-        <v>355070.3608359008</v>
+        <v>371223.3137511486</v>
       </c>
       <c r="D49">
-        <v>558715.4915373444</v>
+        <v>550511.67841631</v>
       </c>
       <c r="E49">
-        <v>761162.1568750471</v>
+        <v>782643.4296192753</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>558715.4915373444</v>
+        <v>550511.67841631</v>
       </c>
       <c r="H49">
-        <v>459371.7447641778</v>
+        <v>471366.8309262802</v>
       </c>
       <c r="I49">
-        <v>301790.4121108693</v>
+        <v>311276.5986929951</v>
       </c>
       <c r="J49">
-        <v>18433658.34209418</v>
+        <v>18633209.62778556</v>
       </c>
       <c r="K49">
-        <v>325760.8155294545</v>
+        <v>325761.0935766276</v>
       </c>
       <c r="L49">
-        <v>473155</v>
+        <v>463307</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>27324.06771687009</v>
+        <v>26634.27294666319</v>
       </c>
       <c r="B50">
-        <v>339778.0491471445</v>
+        <v>342992.7817627527</v>
       </c>
       <c r="C50">
-        <v>367102.1168640146</v>
+        <v>369627.0547094159</v>
       </c>
       <c r="D50">
-        <v>558274.3672947567</v>
+        <v>604531.5014992356</v>
       </c>
       <c r="E50">
-        <v>797008.9348515468</v>
+        <v>829345.4428890168</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>558274.3672947567</v>
+        <v>604531.5014992356</v>
       </c>
       <c r="H50">
-        <v>478355.5703986037</v>
+        <v>495747.0180023643</v>
       </c>
       <c r="I50">
-        <v>318653.3644529431</v>
+        <v>333598.4248866525</v>
       </c>
       <c r="J50">
-        <v>18606456.20049358</v>
+        <v>18756938.83864665</v>
       </c>
       <c r="K50">
-        <v>328834.076674045</v>
+        <v>328834.2363894412</v>
       </c>
       <c r="L50">
-        <v>477777</v>
+        <v>467052</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>33226.04597858474</v>
+        <v>34235.81914260632</v>
       </c>
       <c r="B51">
-        <v>408116.4906458915</v>
+        <v>424636.5396106254</v>
       </c>
       <c r="C51">
-        <v>441342.5366244762</v>
+        <v>458872.3587532316</v>
       </c>
       <c r="D51">
-        <v>725066.1984990701</v>
+        <v>658783.2812160376</v>
       </c>
       <c r="E51">
-        <v>924408.6868658115</v>
+        <v>944883.0663754147</v>
       </c>
       <c r="F51">
-        <v>91985.94625512895</v>
+        <v>86425.46140927506</v>
       </c>
       <c r="G51">
-        <v>633080.2522439412</v>
+        <v>572357.8198067625</v>
       </c>
       <c r="H51">
-        <v>557412.0137037446</v>
+        <v>564735.2399370364</v>
       </c>
       <c r="I51">
-        <v>366996.6731620669</v>
+        <v>380147.8264383784</v>
       </c>
       <c r="J51">
-        <v>22504226.28270859</v>
+        <v>22480148.10860691</v>
       </c>
       <c r="K51">
-        <v>392265.3087800683</v>
+        <v>392265.2116653653</v>
       </c>
       <c r="L51">
-        <v>565975</v>
+        <v>552316</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>25017.25047517816</v>
+        <v>24871.44217624019</v>
       </c>
       <c r="B52">
-        <v>295442.800539861</v>
+        <v>299378.4315759923</v>
       </c>
       <c r="C52">
-        <v>320460.0510150391</v>
+        <v>324249.8737522325</v>
       </c>
       <c r="D52">
-        <v>521776.3185196532</v>
+        <v>492576.54782495</v>
       </c>
       <c r="E52">
-        <v>692435.7859444121</v>
+        <v>689111.816389975</v>
       </c>
       <c r="F52">
-        <v>67566.51239599116</v>
+        <v>63412.48895684638</v>
       </c>
       <c r="G52">
-        <v>454209.806123662</v>
+        <v>429164.0588681036</v>
       </c>
       <c r="H52">
-        <v>409217.1298497908</v>
+        <v>413426.6526663207</v>
       </c>
       <c r="I52">
-        <v>283218.6560946212</v>
+        <v>275685.1637236543</v>
       </c>
       <c r="J52">
-        <v>16058674.10814833</v>
+        <v>16069021.39803618</v>
       </c>
       <c r="K52">
-        <v>281795.7237609364</v>
+        <v>281796.2561816134</v>
       </c>
       <c r="L52">
-        <v>407024</v>
+        <v>395723</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>26167.13603702042</v>
+        <v>25811.79534964445</v>
       </c>
       <c r="B53">
-        <v>325099.2502656016</v>
+        <v>335519.0066649346</v>
       </c>
       <c r="C53">
-        <v>351266.386302622</v>
+        <v>361330.8020145791</v>
       </c>
       <c r="D53">
-        <v>579392.5154674881</v>
+        <v>559875.3224479744</v>
       </c>
       <c r="E53">
-        <v>738981.3054458214</v>
+        <v>785033.1427533708</v>
       </c>
       <c r="F53">
-        <v>73018.76060327383</v>
+        <v>70498.26736052982</v>
       </c>
       <c r="G53">
-        <v>506373.7548642142</v>
+        <v>489377.0550874445</v>
       </c>
       <c r="H53">
-        <v>445307.4830612743</v>
+        <v>465153.6301531718</v>
       </c>
       <c r="I53">
-        <v>293673.8223845471</v>
+        <v>319879.512600199</v>
       </c>
       <c r="J53">
-        <v>17856422.27867446</v>
+        <v>17494957.176326</v>
       </c>
       <c r="K53">
-        <v>310510.9848069422</v>
+        <v>310510.9601186054</v>
       </c>
       <c r="L53">
-        <v>448782</v>
+        <v>435665</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>48539.04086461842</v>
+        <v>49859.57109274459</v>
       </c>
       <c r="B54">
-        <v>582812.8008770896</v>
+        <v>624007.8947681668</v>
       </c>
       <c r="C54">
-        <v>631351.841741708</v>
+        <v>673867.4658609114</v>
       </c>
       <c r="D54">
-        <v>1012837.321718302</v>
+        <v>1014565.431141373</v>
       </c>
       <c r="E54">
-        <v>1404733.84635485</v>
+        <v>1336737.417666664</v>
       </c>
       <c r="F54">
-        <v>134439.3890072068</v>
+        <v>130757.5806647167</v>
       </c>
       <c r="G54">
-        <v>878397.9327110952</v>
+        <v>883807.8504766562</v>
       </c>
       <c r="H54">
-        <v>840747.3640344574</v>
+        <v>798511.4657981659</v>
       </c>
       <c r="I54">
-        <v>563986.4823203927</v>
+        <v>538225.9518684977</v>
       </c>
       <c r="J54">
-        <v>32608225.07763005</v>
+        <v>31966758.98739453</v>
       </c>
       <c r="K54">
-        <v>570648.8633946073</v>
+        <v>570649.1373087891</v>
       </c>
       <c r="L54">
-        <v>821778</v>
+        <v>800250</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>49038.66700224586</v>
+        <v>49141.82321989418</v>
       </c>
       <c r="B55">
-        <v>648449.2198915168</v>
+        <v>646201.1429115419</v>
       </c>
       <c r="C55">
-        <v>697487.8868937626</v>
+        <v>695342.9661314361</v>
       </c>
       <c r="D55">
-        <v>1135550.041244653</v>
+        <v>1128620.08883797</v>
       </c>
       <c r="E55">
-        <v>1501638.13345772</v>
+        <v>1530265.885833999</v>
       </c>
       <c r="F55">
-        <v>150940.2606065099</v>
+        <v>143521.8125669634</v>
       </c>
       <c r="G55">
-        <v>984609.7806381432</v>
+        <v>985098.2762710066</v>
       </c>
       <c r="H55">
-        <v>901901.2103243</v>
+        <v>918719.2834318872</v>
       </c>
       <c r="I55">
-        <v>599736.9231334199</v>
+        <v>611546.6024021119</v>
       </c>
       <c r="J55">
-        <v>35619189.48930364</v>
+        <v>36275354.47245824</v>
       </c>
       <c r="K55">
-        <v>638665.8194333718</v>
+        <v>638666.0903858978</v>
       </c>
       <c r="L55">
-        <v>918880</v>
+        <v>898716</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>33649.65670167381</v>
+        <v>38101.53199008752</v>
       </c>
       <c r="B56">
-        <v>430403.9463494722</v>
+        <v>441146.7861446845</v>
       </c>
       <c r="C56">
-        <v>464053.603051146</v>
+        <v>479248.3181347721</v>
       </c>
       <c r="D56">
-        <v>753661.2681642624</v>
+        <v>736454.796587719</v>
       </c>
       <c r="E56">
-        <v>1003834.032009056</v>
+        <v>1003736.050884589</v>
       </c>
       <c r="F56">
-        <v>107566.837584498</v>
+        <v>105023.5497777792</v>
       </c>
       <c r="G56">
-        <v>646094.4305797644</v>
+        <v>631431.2468099399</v>
       </c>
       <c r="H56">
-        <v>596154.1754817679</v>
+        <v>601692.2916314972</v>
       </c>
       <c r="I56">
-        <v>407679.8565272877</v>
+        <v>402043.7592530916</v>
       </c>
       <c r="J56">
-        <v>23397023.09168959</v>
+        <v>23274369.69273587</v>
       </c>
       <c r="K56">
-        <v>412477.8812716247</v>
+        <v>412477.9950342068</v>
       </c>
       <c r="L56">
-        <v>594244</v>
+        <v>579380</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>49385.56197315274</v>
+        <v>53858.08809203858</v>
       </c>
       <c r="B57">
-        <v>645255.8540701056</v>
+        <v>671059.3003814484</v>
       </c>
       <c r="C57">
-        <v>694641.4160432583</v>
+        <v>724917.388473487</v>
       </c>
       <c r="D57">
-        <v>1110904.489583411</v>
+        <v>1164326.772067187</v>
       </c>
       <c r="E57">
-        <v>1510695.4971134</v>
+        <v>1498138.473057799</v>
       </c>
       <c r="F57">
-        <v>160268.4415323863</v>
+        <v>166654.181462724</v>
       </c>
       <c r="G57">
-        <v>950636.0480510251</v>
+        <v>997672.5906044628</v>
       </c>
       <c r="H57">
-        <v>898737.1889608057</v>
+        <v>900652.842406436</v>
       </c>
       <c r="I57">
-        <v>611958.308152594</v>
+        <v>597485.6306513631</v>
       </c>
       <c r="J57">
-        <v>35214370.26926891</v>
+        <v>35131006.57156987</v>
       </c>
       <c r="K57">
-        <v>619090.2760155731</v>
+        <v>619089.9347633447</v>
       </c>
       <c r="L57">
-        <v>891377</v>
+        <v>869199</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>233167.6652856233</v>
+        <v>217166.9552662357</v>
       </c>
       <c r="C58">
-        <v>233167.6652856233</v>
+        <v>217166.9552662357</v>
       </c>
       <c r="D58">
-        <v>355019.6866572227</v>
+        <v>356958.9328906086</v>
       </c>
       <c r="E58">
-        <v>488404.572951117</v>
+        <v>473111.5254511138</v>
       </c>
       <c r="F58">
-        <v>51268.38845399961</v>
+        <v>51362.71521091515</v>
       </c>
       <c r="G58">
-        <v>303751.2982032232</v>
+        <v>305596.2176796934</v>
       </c>
       <c r="H58">
-        <v>293547.5990877404</v>
+        <v>281602.8408124426</v>
       </c>
       <c r="I58">
-        <v>194856.9738633766</v>
+        <v>191508.6846386712</v>
       </c>
       <c r="J58">
-        <v>11284586.69624831</v>
+        <v>11376713.10633587</v>
       </c>
       <c r="K58">
-        <v>199388.2680267862</v>
+        <v>199387.7150254097</v>
       </c>
       <c r="L58">
-        <v>289122</v>
+        <v>282742</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>124685.379271115</v>
+        <v>130446.7051774039</v>
       </c>
       <c r="C59">
-        <v>124685.379271115</v>
+        <v>130446.7051774039</v>
       </c>
       <c r="D59">
-        <v>202534.6411172897</v>
+        <v>195515.2865905815</v>
       </c>
       <c r="E59">
-        <v>260857.2854445394</v>
+        <v>269384.2474832483</v>
       </c>
       <c r="F59">
-        <v>29346.02327561558</v>
+        <v>28736.2884930838</v>
       </c>
       <c r="G59">
-        <v>173188.6178416741</v>
+        <v>166778.9980974977</v>
       </c>
       <c r="H59">
-        <v>155347.8996290727</v>
+        <v>161704.6517879748</v>
       </c>
       <c r="I59">
-        <v>105509.3858154668</v>
+        <v>107679.5956952735</v>
       </c>
       <c r="J59">
-        <v>6423038.188506326</v>
+        <v>6472704.302738504</v>
       </c>
       <c r="K59">
-        <v>113272.9014983102</v>
+        <v>113273.021394838</v>
       </c>
       <c r="L59">
-        <v>164611</v>
+        <v>160543</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>200952.5544388876</v>
+        <v>201175.1461579296</v>
       </c>
       <c r="C60">
-        <v>200952.5544388876</v>
+        <v>201175.1461579296</v>
       </c>
       <c r="D60">
-        <v>316755.2282980141</v>
+        <v>305351.4885348665</v>
       </c>
       <c r="E60">
-        <v>424180.4697723041</v>
+        <v>436683.990563858</v>
       </c>
       <c r="F60">
-        <v>44706.42508632085</v>
+        <v>44035.39111104391</v>
       </c>
       <c r="G60">
-        <v>272048.8032116933</v>
+        <v>261316.0974238226</v>
       </c>
       <c r="H60">
-        <v>252322.0146994281</v>
+        <v>259687.4133395894</v>
       </c>
       <c r="I60">
-        <v>171858.455072876</v>
+        <v>176996.5772242686</v>
       </c>
       <c r="J60">
-        <v>9954128.821486454</v>
+        <v>9976643.975943487</v>
       </c>
       <c r="K60">
-        <v>175786.2556877953</v>
+        <v>175786.1272291686</v>
       </c>
       <c r="L60">
-        <v>254922</v>
+        <v>248823</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>104965.4362424566</v>
+        <v>98454.16408104938</v>
       </c>
       <c r="C61">
-        <v>104965.4362424566</v>
+        <v>98454.16408104938</v>
       </c>
       <c r="D61">
-        <v>156576.8521417861</v>
+        <v>154957.252578601</v>
       </c>
       <c r="E61">
-        <v>205860.7777621341</v>
+        <v>203272.1165178038</v>
       </c>
       <c r="F61">
-        <v>21759.8636646085</v>
+        <v>22153.91924839627</v>
       </c>
       <c r="G61">
-        <v>134816.9884771776</v>
+        <v>132803.3333302047</v>
       </c>
       <c r="H61">
-        <v>123527.1321885847</v>
+        <v>122877.6371021953</v>
       </c>
       <c r="I61">
-        <v>82333.64557354935</v>
+        <v>80394.47941560856</v>
       </c>
       <c r="J61">
-        <v>4980019.358318056</v>
+        <v>4993981.123980829</v>
       </c>
       <c r="K61">
-        <v>86886.76151953651</v>
+        <v>86886.89569063715</v>
       </c>
       <c r="L61">
-        <v>126220</v>
+        <v>123212</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>6775.349191781568</v>
+        <v>7267.53218787376</v>
       </c>
       <c r="C62">
-        <v>6775.349191781568</v>
+        <v>7267.53218787376</v>
       </c>
       <c r="D62">
-        <v>10855.89040015082</v>
+        <v>11321.25339008068</v>
       </c>
       <c r="E62">
-        <v>15071.44712117204</v>
+        <v>14643.34477410463</v>
       </c>
       <c r="F62">
-        <v>1537.563384517143</v>
+        <v>1578.05356074088</v>
       </c>
       <c r="G62">
-        <v>9318.327015633678</v>
+        <v>9743.199829339805</v>
       </c>
       <c r="H62">
-        <v>9059.193249769236</v>
+        <v>8703.808953253896</v>
       </c>
       <c r="I62">
-        <v>6012.253871402807</v>
+        <v>5939.535820850736</v>
       </c>
       <c r="J62">
-        <v>350811.1058989688</v>
+        <v>351779.4761791306</v>
       </c>
       <c r="K62">
-        <v>6203.738129940775</v>
+        <v>6204.099249705569</v>
       </c>
       <c r="L62">
-        <v>9015</v>
+        <v>8778</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2831.224959895017</v>
+        <v>2918.90107314992</v>
       </c>
       <c r="C63">
-        <v>2831.224959895017</v>
+        <v>2918.90107314992</v>
       </c>
       <c r="D63">
-        <v>4227.972065594051</v>
+        <v>4291.380808580448</v>
       </c>
       <c r="E63">
-        <v>5728.659476505953</v>
+        <v>6168.470711292944</v>
       </c>
       <c r="F63">
-        <v>609.4960326983091</v>
+        <v>618.222876215368</v>
       </c>
       <c r="G63">
-        <v>3618.476032895741</v>
+        <v>3673.157932365079</v>
       </c>
       <c r="H63">
-        <v>3392.821730437796</v>
+        <v>3653.729762371975</v>
       </c>
       <c r="I63">
-        <v>2335.837746068156</v>
+        <v>2514.740948920969</v>
       </c>
       <c r="J63">
-        <v>141970.7934865894</v>
+        <v>143446.9687739518</v>
       </c>
       <c r="K63">
-        <v>2506.273860687691</v>
+        <v>2506.158654997527</v>
       </c>
       <c r="L63">
-        <v>3639</v>
+        <v>3560</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4834.166432900625</v>
+        <v>4645.449836433558</v>
       </c>
       <c r="C64">
-        <v>4834.166432900625</v>
+        <v>4645.449836433558</v>
       </c>
       <c r="D64">
-        <v>3689.262778076935</v>
+        <v>3619.523474097454</v>
       </c>
       <c r="E64">
-        <v>89.87941257567287</v>
+        <v>96.30387974693004</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3689.262778076935</v>
+        <v>3619.523474097454</v>
       </c>
       <c r="H64">
-        <v>44.91646242228279</v>
+        <v>42.94794173498772</v>
       </c>
       <c r="I64">
-        <v>44.96295015339009</v>
+        <v>53.35593801194231</v>
       </c>
       <c r="J64">
-        <v>106444.0793641881</v>
+        <v>106889.4840644418</v>
       </c>
       <c r="K64">
-        <v>1879.057755583952</v>
+        <v>1878.976850132271</v>
       </c>
       <c r="L64">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>49152.38357584937</v>
+        <v>48657.81499983739</v>
       </c>
       <c r="C65">
-        <v>49152.38357584937</v>
+        <v>48657.81499983739</v>
       </c>
       <c r="D65">
-        <v>37058.92318572517</v>
+        <v>37212.79962733805</v>
       </c>
       <c r="E65">
-        <v>1033.798338955415</v>
+        <v>1092.057991245227</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>37058.92318572517</v>
+        <v>37212.79962733805</v>
       </c>
       <c r="H65">
-        <v>451.071783028916</v>
+        <v>530.8300452162418</v>
       </c>
       <c r="I65">
-        <v>582.7265559264993</v>
+        <v>561.2279460289857</v>
       </c>
       <c r="J65">
-        <v>1115451.177432683</v>
+        <v>1103031.574194291</v>
       </c>
       <c r="K65">
-        <v>19681.73148537484</v>
+        <v>19681.78110988449</v>
       </c>
       <c r="L65">
-        <v>28793</v>
+        <v>28690</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>51290.7744908307</v>
+        <v>54781.19725887398</v>
       </c>
       <c r="C66">
-        <v>51290.7744908307</v>
+        <v>54781.19725887398</v>
       </c>
       <c r="D66">
-        <v>40431.07461660234</v>
+        <v>41979.44371784542</v>
       </c>
       <c r="E66">
-        <v>783.7917678757245</v>
+        <v>1367.315952751806</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>40431.07461660234</v>
+        <v>41979.44371784542</v>
       </c>
       <c r="H66">
-        <v>390.8303101104044</v>
+        <v>627.6579147025921</v>
       </c>
       <c r="I66">
-        <v>392.9614577653201</v>
+        <v>739.6580380492143</v>
       </c>
       <c r="J66">
-        <v>1213331.383134059</v>
+        <v>1194926.424010591</v>
       </c>
       <c r="K66">
-        <v>21219.31997124381</v>
+        <v>21219.28713240351</v>
       </c>
       <c r="L66">
-        <v>31047</v>
+        <v>30944</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>86820.2190715006</v>
+        <v>90661.53885454113</v>
       </c>
       <c r="B67">
-        <v>618430.4033719634</v>
+        <v>602517.6169922441</v>
       </c>
       <c r="C67">
-        <v>705250.622443464</v>
+        <v>693179.1558467853</v>
       </c>
       <c r="D67">
-        <v>538517.5629213798</v>
+        <v>558920.1610555851</v>
       </c>
       <c r="E67">
-        <v>11646.11829971177</v>
+        <v>22142.02336279</v>
       </c>
       <c r="F67">
-        <v>194572.7107541005</v>
+        <v>198923.5702909193</v>
       </c>
       <c r="G67">
-        <v>343944.8521672794</v>
+        <v>359996.5907646659</v>
       </c>
       <c r="H67">
-        <v>5713.195996739079</v>
+        <v>11340.75975373834</v>
       </c>
       <c r="I67">
-        <v>5932.92230297269</v>
+        <v>10801.26360905166</v>
       </c>
       <c r="J67">
-        <v>15556579.99536693</v>
+        <v>15825346.85432031</v>
       </c>
       <c r="K67">
-        <v>279228.2736136247</v>
+        <v>279227.9380180825</v>
       </c>
       <c r="L67">
-        <v>388889</v>
+        <v>389412</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>93749.54453858598</v>
+        <v>91992.04906228813</v>
       </c>
       <c r="B68">
-        <v>635592.8424902002</v>
+        <v>623967.6352975977</v>
       </c>
       <c r="C68">
-        <v>729342.3870287861</v>
+        <v>715959.6843598859</v>
       </c>
       <c r="D68">
-        <v>596745.3532139299</v>
+        <v>593114.9659582201</v>
       </c>
       <c r="E68">
-        <v>17195.03752676765</v>
+        <v>19031.93415449158</v>
       </c>
       <c r="F68">
-        <v>216453.9485223661</v>
+        <v>212925.4708719182</v>
       </c>
       <c r="G68">
-        <v>380291.4046915638</v>
+        <v>380189.4950863019</v>
       </c>
       <c r="H68">
-        <v>8062.808092629729</v>
+        <v>8608.05633367564</v>
       </c>
       <c r="I68">
-        <v>9132.229434137917</v>
+        <v>10423.87782081594</v>
       </c>
       <c r="J68">
-        <v>17115829.46639357</v>
+        <v>17026041.66261474</v>
       </c>
       <c r="K68">
-        <v>299791.6447637008</v>
+        <v>299792.2477645612</v>
       </c>
       <c r="L68">
-        <v>418135</v>
+        <v>419825</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>201874.4082796844</v>
+        <v>216668.1155821296</v>
       </c>
       <c r="B69">
-        <v>1442472.735824537</v>
+        <v>1476459.057899918</v>
       </c>
       <c r="C69">
-        <v>1644347.144104221</v>
+        <v>1693127.173482048</v>
       </c>
       <c r="D69">
-        <v>1288492.305503652</v>
+        <v>1338772.066868733</v>
       </c>
       <c r="E69">
-        <v>51208.4184050141</v>
+        <v>40653.64789692361</v>
       </c>
       <c r="F69">
-        <v>470382.9882781448</v>
+        <v>490658.2926606455</v>
       </c>
       <c r="G69">
-        <v>818109.3172255075</v>
+        <v>848113.7742080876</v>
       </c>
       <c r="H69">
-        <v>24085.36265386371</v>
+        <v>21431.68495411876</v>
       </c>
       <c r="I69">
-        <v>27123.0557511504</v>
+        <v>19221.96294280485</v>
       </c>
       <c r="J69">
-        <v>37498799.21007225</v>
+        <v>37532054.27148682</v>
       </c>
       <c r="K69">
-        <v>665262.2034033429</v>
+        <v>665261.9652730605</v>
       </c>
       <c r="L69">
-        <v>925110</v>
+        <v>927043</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>184953.8386040737</v>
+        <v>177577.8816730073</v>
       </c>
       <c r="B70">
-        <v>1307067.256715969</v>
+        <v>1256136.922913139</v>
       </c>
       <c r="C70">
-        <v>1492021.095320042</v>
+        <v>1433714.804586146</v>
       </c>
       <c r="D70">
-        <v>1018223.638644423</v>
+        <v>1089706.619391149</v>
       </c>
       <c r="E70">
-        <v>27238.31476965304</v>
+        <v>36844.56079672119</v>
       </c>
       <c r="F70">
-        <v>188830.1740510587</v>
+        <v>194223.6077659332</v>
       </c>
       <c r="G70">
-        <v>829393.464593364</v>
+        <v>895483.0116252161</v>
       </c>
       <c r="H70">
-        <v>13995.44518883124</v>
+        <v>17853.89803452566</v>
       </c>
       <c r="I70">
-        <v>13242.86958082179</v>
+        <v>18990.66276219553</v>
       </c>
       <c r="J70">
-        <v>32230717.22487441</v>
+        <v>32152653.07953204</v>
       </c>
       <c r="K70">
-        <v>572385.2958582243</v>
+        <v>572384.7341975401</v>
       </c>
       <c r="L70">
-        <v>799388</v>
+        <v>804959</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>266706.5730148744</v>
+        <v>265603.1164588942</v>
       </c>
       <c r="B71">
-        <v>1861977.814676767</v>
+        <v>1836921.869949026</v>
       </c>
       <c r="C71">
-        <v>2128684.387691641</v>
+        <v>2102524.98640792</v>
       </c>
       <c r="D71">
-        <v>1552872.075928421</v>
+        <v>1592379.101157172</v>
       </c>
       <c r="E71">
-        <v>41139.57903776703</v>
+        <v>31498.18106402968</v>
       </c>
       <c r="F71">
-        <v>274002.0117792116</v>
+        <v>286669.2381538657</v>
       </c>
       <c r="G71">
-        <v>1278870.064149209</v>
+        <v>1305709.863003306</v>
       </c>
       <c r="H71">
-        <v>19085.19773161248</v>
+        <v>14994.86072078881</v>
       </c>
       <c r="I71">
-        <v>22054.38130615456</v>
+        <v>16503.32034324086</v>
       </c>
       <c r="J71">
-        <v>46774504.1105635</v>
+        <v>47434752.66549287</v>
       </c>
       <c r="K71">
-        <v>833640.9632232774</v>
+        <v>833640.6862138499</v>
       </c>
       <c r="L71">
-        <v>1166934</v>
+        <v>1172124</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>218303.3046916776</v>
+        <v>211986.0143418855</v>
       </c>
       <c r="B72">
-        <v>1498564.438216407</v>
+        <v>1426558.538620907</v>
       </c>
       <c r="C72">
-        <v>1716867.742908085</v>
+        <v>1638544.552962793</v>
       </c>
       <c r="D72">
-        <v>1230788.128326643</v>
+        <v>1325380.568696275</v>
       </c>
       <c r="E72">
-        <v>26409.50365540807</v>
+        <v>36092.07440078614</v>
       </c>
       <c r="F72">
-        <v>225335.4232797461</v>
+        <v>231717.1629400282</v>
       </c>
       <c r="G72">
-        <v>1005452.705046897</v>
+        <v>1093663.405756247</v>
       </c>
       <c r="H72">
-        <v>13418.33671888829</v>
+        <v>16664.201243123</v>
       </c>
       <c r="I72">
-        <v>12991.16693651978</v>
+        <v>19427.87315766314</v>
       </c>
       <c r="J72">
-        <v>38216321.94111899</v>
+        <v>38250163.36199152</v>
       </c>
       <c r="K72">
-        <v>679393.1460355222</v>
+        <v>679393.1078450964</v>
       </c>
       <c r="L72">
-        <v>949528</v>
+        <v>952480</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>127894.8240990668</v>
+        <v>120747.0817080865</v>
       </c>
       <c r="B73">
-        <v>882589.7437653351</v>
+        <v>834995.1651637242</v>
       </c>
       <c r="C73">
-        <v>1010484.567864402</v>
+        <v>955742.2468718106</v>
       </c>
       <c r="D73">
-        <v>728749.8756178007</v>
+        <v>727758.6490563889</v>
       </c>
       <c r="E73">
-        <v>18705.02650139652</v>
+        <v>23423.32922443338</v>
       </c>
       <c r="F73">
-        <v>128998.6478280196</v>
+        <v>129160.2342732972</v>
       </c>
       <c r="G73">
-        <v>599751.2277897812</v>
+        <v>598598.4147830917</v>
       </c>
       <c r="H73">
-        <v>9008.455835063436</v>
+        <v>11669.20401544458</v>
       </c>
       <c r="I73">
-        <v>9696.570666333086</v>
+        <v>11754.1252089888</v>
       </c>
       <c r="J73">
-        <v>22164684.40423775</v>
+        <v>21828543.20048237</v>
       </c>
       <c r="K73">
-        <v>389252.8816814419</v>
+        <v>389252.8665702547</v>
       </c>
       <c r="L73">
-        <v>544610</v>
+        <v>545764</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>176255.6379268822</v>
+        <v>165376.8485147044</v>
       </c>
       <c r="B74">
-        <v>1210970.229895902</v>
+        <v>1199046.674307104</v>
       </c>
       <c r="C74">
-        <v>1387225.867822784</v>
+        <v>1364423.522821809</v>
       </c>
       <c r="D74">
-        <v>1077763.068604109</v>
+        <v>1057977.890480889</v>
       </c>
       <c r="E74">
-        <v>24917.88405502015</v>
+        <v>18454.42733073326</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1077763.068604109</v>
+        <v>1057977.890480889</v>
       </c>
       <c r="H74">
-        <v>12199.19543008022</v>
+        <v>8660.434074818291</v>
       </c>
       <c r="I74">
-        <v>12718.68862493993</v>
+        <v>9793.993255914966</v>
       </c>
       <c r="J74">
-        <v>30498219.70948431</v>
+        <v>30745092.51124091</v>
       </c>
       <c r="K74">
-        <v>542235.168739603</v>
+        <v>542234.8559286642</v>
       </c>
       <c r="L74">
-        <v>768885</v>
+        <v>770365</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>529196.6994285044</v>
+        <v>549213.3464814954</v>
       </c>
       <c r="C75">
-        <v>529196.6994285044</v>
+        <v>549213.3464814954</v>
       </c>
       <c r="D75">
-        <v>420548.3155564789</v>
+        <v>410080.3198325834</v>
       </c>
       <c r="E75">
-        <v>11678.69880342289</v>
+        <v>13860.85174773177</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>420548.3155564789</v>
+        <v>410080.3198325834</v>
       </c>
       <c r="H75">
-        <v>5180.156835334547</v>
+        <v>6178.980083069811</v>
       </c>
       <c r="I75">
-        <v>6498.541968088346</v>
+        <v>7681.871664661956</v>
       </c>
       <c r="J75">
-        <v>12143623.90227325</v>
+        <v>12290311.09640732</v>
       </c>
       <c r="K75">
-        <v>216447.0975663764</v>
+        <v>216446.9877335096</v>
       </c>
       <c r="L75">
-        <v>316542</v>
+        <v>315787</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>435545.4467487021</v>
+        <v>429377.9468975002</v>
       </c>
       <c r="C76">
-        <v>435545.4467487021</v>
+        <v>429377.9468975002</v>
       </c>
       <c r="D76">
-        <v>334005.7901536832</v>
+        <v>367254.3131798292</v>
       </c>
       <c r="E76">
-        <v>14210.04250880018</v>
+        <v>12752.72115690005</v>
       </c>
       <c r="F76">
-        <v>119842.1726895324</v>
+        <v>130934.1177121168</v>
       </c>
       <c r="G76">
-        <v>214163.6174641508</v>
+        <v>236320.1954677124</v>
       </c>
       <c r="H76">
-        <v>7045.118791777832</v>
+        <v>6328.305927616403</v>
       </c>
       <c r="I76">
-        <v>7164.92371702235</v>
+        <v>6424.415229283645</v>
       </c>
       <c r="J76">
-        <v>10039479.9639454</v>
+        <v>9885091.498297341</v>
       </c>
       <c r="K76">
-        <v>176525.9981129036</v>
+        <v>176525.7285001428</v>
       </c>
       <c r="L76">
-        <v>254075</v>
+        <v>253187</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>243637.7738046218</v>
+        <v>229591.4535816263</v>
       </c>
       <c r="C77">
-        <v>243637.7738046218</v>
+        <v>229591.4535816263</v>
       </c>
       <c r="D77">
-        <v>181864.1637886302</v>
+        <v>179255.710014007</v>
       </c>
       <c r="E77">
-        <v>5624.727038395782</v>
+        <v>4983.819539053424</v>
       </c>
       <c r="F77">
-        <v>65586.84238975483</v>
+        <v>65834.36893245997</v>
       </c>
       <c r="G77">
-        <v>116277.3213988753</v>
+        <v>113421.341081547</v>
       </c>
       <c r="H77">
-        <v>2579.552342402366</v>
+        <v>2463.950955787305</v>
       </c>
       <c r="I77">
-        <v>3045.174695993416</v>
+        <v>2519.868583266119</v>
       </c>
       <c r="J77">
-        <v>5307720.33046196</v>
+        <v>5353157.637882004</v>
       </c>
       <c r="K77">
-        <v>94798.28959866104</v>
+        <v>94798.10844463675</v>
       </c>
       <c r="L77">
-        <v>136249</v>
+        <v>136287</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>406072.0613296727</v>
+        <v>428941.7068379304</v>
       </c>
       <c r="C78">
-        <v>406072.0613296727</v>
+        <v>428941.7068379304</v>
       </c>
       <c r="D78">
-        <v>328213.8470135656</v>
+        <v>321682.8660324559</v>
       </c>
       <c r="E78">
-        <v>9580.983828158085</v>
+        <v>10058.89810921273</v>
       </c>
       <c r="F78">
-        <v>126015.272250553</v>
+        <v>126324.1611348952</v>
       </c>
       <c r="G78">
-        <v>202198.5747630127</v>
+        <v>195358.7048975607</v>
       </c>
       <c r="H78">
-        <v>4599.888981174686</v>
+        <v>4821.132714286511</v>
       </c>
       <c r="I78">
-        <v>4981.0948469834</v>
+        <v>5237.76539492622</v>
       </c>
       <c r="J78">
-        <v>9450298.805810908</v>
+        <v>9483849.143344132</v>
       </c>
       <c r="K78">
-        <v>168935.2012631431</v>
+        <v>168934.8381084053</v>
       </c>
       <c r="L78">
-        <v>242451</v>
+        <v>242099</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>42226.34661862571</v>
+        <v>43006.69573756148</v>
       </c>
       <c r="C79">
-        <v>42226.34661862571</v>
+        <v>43006.69573756148</v>
       </c>
       <c r="D79">
-        <v>34922.9190279953</v>
+        <v>32460.31054503917</v>
       </c>
       <c r="E79">
-        <v>999.9839648616486</v>
+        <v>866.3517964935896</v>
       </c>
       <c r="F79">
-        <v>13466.72172909027</v>
+        <v>12468.82705453285</v>
       </c>
       <c r="G79">
-        <v>21456.19729890503</v>
+        <v>19991.48349050632</v>
       </c>
       <c r="H79">
-        <v>466.6411352428473</v>
+        <v>385.7131045943711</v>
       </c>
       <c r="I79">
-        <v>533.3428296188014</v>
+        <v>480.6386918992185</v>
       </c>
       <c r="J79">
-        <v>984224.4091738077</v>
+        <v>992544.7159390196</v>
       </c>
       <c r="K79">
-        <v>17369.26918176689</v>
+        <v>17369.20205660822</v>
       </c>
       <c r="L79">
-        <v>24916</v>
+        <v>24946</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6490.2438893798</v>
+        <v>6670.94237076026</v>
       </c>
       <c r="C80">
-        <v>6490.2438893798</v>
+        <v>6670.94237076026</v>
       </c>
       <c r="D80">
-        <v>4995.117514630898</v>
+        <v>5113.945701842526</v>
       </c>
       <c r="E80">
-        <v>162.6869789112509</v>
+        <v>151.6118667609289</v>
       </c>
       <c r="F80">
-        <v>1964.842388743676</v>
+        <v>1991.362592346617</v>
       </c>
       <c r="G80">
-        <v>3030.275125887222</v>
+        <v>3122.58310949591</v>
       </c>
       <c r="H80">
-        <v>80.48551118230131</v>
+        <v>75.87605786856857</v>
       </c>
       <c r="I80">
-        <v>82.20146772894961</v>
+        <v>75.73580889236037</v>
       </c>
       <c r="J80">
-        <v>148689.7784154699</v>
+        <v>147501.5364297608</v>
       </c>
       <c r="K80">
-        <v>2630.86030832063</v>
+        <v>2631.116929496956</v>
       </c>
       <c r="L80">
-        <v>3787</v>
+        <v>3769</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,34 +4710,34 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13730.70852902878</v>
+        <v>13575.54095282253</v>
       </c>
       <c r="C81">
-        <v>13730.70852902878</v>
+        <v>13575.54095282253</v>
       </c>
       <c r="D81">
-        <v>10296.96353469812</v>
+        <v>11125.58835511065</v>
       </c>
       <c r="E81">
-        <v>206.548482995099</v>
+        <v>328.4222841532727</v>
       </c>
       <c r="F81">
-        <v>3891.497966281194</v>
+        <v>4259.39333325053</v>
       </c>
       <c r="G81">
-        <v>6405.465568416923</v>
+        <v>6866.195021860121</v>
       </c>
       <c r="H81">
-        <v>101.2590581169402</v>
+        <v>170.2092326115375</v>
       </c>
       <c r="I81">
-        <v>105.2894248781588</v>
+        <v>158.2130515417352</v>
       </c>
       <c r="J81">
-        <v>319116.7285203948</v>
+        <v>320609.9957825563</v>
       </c>
       <c r="K81">
-        <v>5643.804544983595</v>
+        <v>5644.069661735267</v>
       </c>
       <c r="L81">
         <v>8109</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>962.9369824893372</v>
+        <v>995.3878957573766</v>
       </c>
       <c r="B82">
-        <v>3810.361959066764</v>
+        <v>3962.043143386535</v>
       </c>
       <c r="C82">
-        <v>4773.298941556101</v>
+        <v>4957.431039143911</v>
       </c>
       <c r="D82">
-        <v>12410.45271419008</v>
+        <v>12484.92866121187</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12410.45271419008</v>
+        <v>12484.92866121187</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>357278.2491253453</v>
+        <v>358879.0314098959</v>
       </c>
       <c r="K82">
-        <v>5950.760057906872</v>
+        <v>5950.695979294765</v>
       </c>
       <c r="L82">
-        <v>8762</v>
+        <v>8718</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1652.653889163427</v>
+        <v>1629.965044652552</v>
       </c>
       <c r="B83">
-        <v>6489.551001492947</v>
+        <v>6504.660207018695</v>
       </c>
       <c r="C83">
-        <v>8142.204890656374</v>
+        <v>8134.625251671247</v>
       </c>
       <c r="D83">
-        <v>20969.53403899373</v>
+        <v>20482.50631917328</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20969.53403899373</v>
+        <v>20482.50631917328</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>599513.607886535</v>
+        <v>596849.3638688439</v>
       </c>
       <c r="K83">
-        <v>9946.921467019767</v>
+        <v>9946.938653591242</v>
       </c>
       <c r="L83">
-        <v>14602</v>
+        <v>14554</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9852.927871148497</v>
+        <v>9540.7031773176</v>
       </c>
       <c r="B84">
-        <v>36991.39743735005</v>
+        <v>38678.45706823572</v>
       </c>
       <c r="C84">
-        <v>46844.32530849854</v>
+        <v>48219.16024555331</v>
       </c>
       <c r="D84">
-        <v>124158.3896782648</v>
+        <v>124776.1421230299</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>33797.14924675864</v>
+        <v>34025.44873085381</v>
       </c>
       <c r="G84">
-        <v>90361.2404315062</v>
+        <v>90750.69339217612</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3652134.804907648</v>
+        <v>3646848.94803186</v>
       </c>
       <c r="K84">
-        <v>60895.73621615162</v>
+        <v>60896.10494173731</v>
       </c>
       <c r="L84">
-        <v>88277</v>
+        <v>87911</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6145.802131102168</v>
+        <v>6481.948859431023</v>
       </c>
       <c r="B85">
-        <v>24773.52908250992</v>
+        <v>25530.46661542796</v>
       </c>
       <c r="C85">
-        <v>30919.33121361209</v>
+        <v>32012.41547485898</v>
       </c>
       <c r="D85">
-        <v>77054.31171376904</v>
+        <v>77462.29036658978</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>20715.64862187718</v>
+        <v>21145.84253251615</v>
       </c>
       <c r="G85">
-        <v>56338.66309189186</v>
+        <v>56316.44783407362</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2291140.775813203</v>
+        <v>2279427.36159323</v>
       </c>
       <c r="K85">
-        <v>38034.03068039018</v>
+        <v>38034.28673136726</v>
       </c>
       <c r="L85">
-        <v>55084</v>
+        <v>54764</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>18189.42950242605</v>
+        <v>19031.38249867552</v>
       </c>
       <c r="B86">
-        <v>69265.08050794726</v>
+        <v>75050.4535423894</v>
       </c>
       <c r="C86">
-        <v>87454.51001037331</v>
+        <v>94081.83604106492</v>
       </c>
       <c r="D86">
-        <v>231179.1918973019</v>
+        <v>229706.0583780454</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>62923.79632938191</v>
+        <v>61720.95303405645</v>
       </c>
       <c r="G86">
-        <v>168255.39556792</v>
+        <v>167985.1053439889</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>6712065.383201133</v>
+        <v>6676600.579323611</v>
       </c>
       <c r="K86">
-        <v>111846.7709083272</v>
+        <v>111847.1937111801</v>
       </c>
       <c r="L86">
-        <v>162447</v>
+        <v>161453</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10805.36192212542</v>
+        <v>10952.20027853858</v>
       </c>
       <c r="B87">
-        <v>43767.15627220808</v>
+        <v>42735.3854415183</v>
       </c>
       <c r="C87">
-        <v>54572.5181943335</v>
+        <v>53687.58572005689</v>
       </c>
       <c r="D87">
-        <v>135778.6531143778</v>
+        <v>137133.7695151107</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>36996.10609657237</v>
+        <v>37300.79147631022</v>
       </c>
       <c r="G87">
-        <v>98782.54701780539</v>
+        <v>99832.9780388005</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>4008802.902917834</v>
+        <v>4009055.020052926</v>
       </c>
       <c r="K87">
-        <v>66952.67771887516</v>
+        <v>66952.95969231652</v>
       </c>
       <c r="L87">
-        <v>97264</v>
+        <v>96320</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>13642.11345030095</v>
+        <v>14752.92069977487</v>
       </c>
       <c r="B88">
-        <v>55691.39777561188</v>
+        <v>54697.05457020452</v>
       </c>
       <c r="C88">
-        <v>69333.51122591284</v>
+        <v>69449.97526997938</v>
       </c>
       <c r="D88">
-        <v>185023.5851284243</v>
+        <v>186333.9134721159</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>49885.67417035893</v>
+        <v>51338.89492337788</v>
       </c>
       <c r="G88">
-        <v>135137.9109580654</v>
+        <v>134995.018548738</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>5225008.968562159</v>
+        <v>5250174.973133604</v>
       </c>
       <c r="K88">
-        <v>87331.92193245726</v>
+        <v>87331.92440901825</v>
       </c>
       <c r="L88">
-        <v>126753</v>
+        <v>126099</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>10459.15450590511</v>
+        <v>11089.49078590129</v>
       </c>
       <c r="B89">
-        <v>40985.90688267746</v>
+        <v>43811.9082340511</v>
       </c>
       <c r="C89">
-        <v>51445.06138858257</v>
+        <v>54901.39901995239</v>
       </c>
       <c r="D89">
-        <v>136313.0427970705</v>
+        <v>129835.019911943</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>36104.24442076328</v>
+        <v>34699.57710977567</v>
       </c>
       <c r="G89">
-        <v>100208.7983763072</v>
+        <v>95135.44280216728</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3954916.986862973</v>
+        <v>3975751.58200725</v>
       </c>
       <c r="K89">
-        <v>66110.90390892615</v>
+        <v>66110.87999923308</v>
       </c>
       <c r="L89">
-        <v>95816</v>
+        <v>95311</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7502.374242711602</v>
+        <v>7953.010768963806</v>
       </c>
       <c r="B90">
-        <v>31177.17407748126</v>
+        <v>31249.0287917446</v>
       </c>
       <c r="C90">
-        <v>38679.54832019287</v>
+        <v>39202.03956070841</v>
       </c>
       <c r="D90">
-        <v>96355.86707733503</v>
+        <v>96005.05482165595</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>25909.88277057755</v>
+        <v>25941.80700891309</v>
       </c>
       <c r="G90">
-        <v>70445.98430675747</v>
+        <v>70063.24781274286</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2888780.325791141</v>
+        <v>2909840.124982981</v>
       </c>
       <c r="K90">
-        <v>48243.78505094395</v>
+        <v>48244.09598878434</v>
       </c>
       <c r="L90">
-        <v>70165</v>
+        <v>69784</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8264.991830450541</v>
+        <v>8483.342305301578</v>
       </c>
       <c r="B91">
-        <v>33565.5927838219</v>
+        <v>33902.27090342786</v>
       </c>
       <c r="C91">
-        <v>41830.58461427244</v>
+        <v>42385.61320872943</v>
       </c>
       <c r="D91">
-        <v>101713.4264352328</v>
+        <v>108171.5018085625</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>27302.70815437793</v>
+        <v>29617.2134386759</v>
       </c>
       <c r="G91">
-        <v>74410.71828085485</v>
+        <v>78554.28836988665</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>3133612.127159801</v>
+        <v>3137668.168787095</v>
       </c>
       <c r="K91">
-        <v>52389.0225561582</v>
+        <v>52388.80570185039</v>
       </c>
       <c r="L91">
-        <v>75879</v>
+        <v>75496</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6214.015126421519</v>
+        <v>6272.364888903057</v>
       </c>
       <c r="B92">
-        <v>25525.40705003523</v>
+        <v>25008.68884481038</v>
       </c>
       <c r="C92">
-        <v>31739.42217645675</v>
+        <v>31281.05373371344</v>
       </c>
       <c r="D92">
-        <v>84773.95294851501</v>
+        <v>74744.17695377914</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22834.48613938403</v>
+        <v>20831.05084494971</v>
       </c>
       <c r="G92">
-        <v>61939.46680913099</v>
+        <v>53913.12610882943</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2368801.795517056</v>
+        <v>2363961.089528811</v>
       </c>
       <c r="K92">
-        <v>39256.30462309293</v>
+        <v>39256.05217568155</v>
       </c>
       <c r="L92">
-        <v>56968</v>
+        <v>56779</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3659.434081474903</v>
+        <v>3796.951118307007</v>
       </c>
       <c r="B93">
-        <v>15162.40794541581</v>
+        <v>15543.89612730337</v>
       </c>
       <c r="C93">
-        <v>18821.84202689072</v>
+        <v>19340.84724561037</v>
       </c>
       <c r="D93">
-        <v>48426.74529650131</v>
+        <v>45942.83564126858</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>48426.74529650131</v>
+        <v>45942.83564126858</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1400202.339342763</v>
+        <v>1412911.784882851</v>
       </c>
       <c r="K93">
-        <v>23461.10603054822</v>
+        <v>23461.04546390761</v>
       </c>
       <c r="L93">
-        <v>34520</v>
+        <v>34382</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1575.043882230875</v>
+        <v>1578.694028901106</v>
       </c>
       <c r="B94">
-        <v>6271.718452458282</v>
+        <v>6599.234974670843</v>
       </c>
       <c r="C94">
-        <v>7846.762334689157</v>
+        <v>8177.92900357195</v>
       </c>
       <c r="D94">
-        <v>20274.68870741165</v>
+        <v>20682.29396815283</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5435.14303146964</v>
+        <v>5495.620005634728</v>
       </c>
       <c r="G94">
-        <v>14839.54567594201</v>
+        <v>15186.6739625181</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>606197.6491378954</v>
+        <v>606023.7686426861</v>
       </c>
       <c r="K94">
-        <v>10092.20194617282</v>
+        <v>10091.80413225781</v>
       </c>
       <c r="L94">
-        <v>14661</v>
+        <v>14569</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1396.307645715664</v>
+        <v>1463.779972637785</v>
       </c>
       <c r="B95">
-        <v>5494.85398036366</v>
+        <v>5685.856918739451</v>
       </c>
       <c r="C95">
-        <v>6891.161626079324</v>
+        <v>7149.636891377236</v>
       </c>
       <c r="D95">
-        <v>18238.18481007219</v>
+        <v>18418.54755753851</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4804.860714025041</v>
+        <v>4944.977162783352</v>
       </c>
       <c r="G95">
-        <v>13433.32409604715</v>
+        <v>13473.57039475516</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>525160.792035038</v>
+        <v>524179.7326376868</v>
       </c>
       <c r="K95">
-        <v>8744.901050046292</v>
+        <v>8744.753975649544</v>
       </c>
       <c r="L95">
-        <v>12689</v>
+        <v>12654</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1605.922602540634</v>
+        <v>1576.963165041138</v>
       </c>
       <c r="B96">
-        <v>6460.719260573174</v>
+        <v>6449.983761075039</v>
       </c>
       <c r="C96">
-        <v>8066.641863113809</v>
+        <v>8026.946926116178</v>
       </c>
       <c r="D96">
-        <v>21099.16867007842</v>
+        <v>20823.75593144256</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5698.217624098656</v>
+        <v>5463.566279411294</v>
       </c>
       <c r="G96">
-        <v>15400.95104597977</v>
+        <v>15360.18965203126</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>605971.1966481371</v>
+        <v>609596.8735792354</v>
       </c>
       <c r="K96">
-        <v>10106.83681289114</v>
+        <v>10107.00681876338</v>
       </c>
       <c r="L96">
-        <v>14638</v>
+        <v>14602</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>947.1610153128225</v>
+        <v>986.9517448766542</v>
       </c>
       <c r="B97">
-        <v>4025.471809967945</v>
+        <v>4025.25864147347</v>
       </c>
       <c r="C97">
-        <v>4972.632825280767</v>
+        <v>5012.210386350124</v>
       </c>
       <c r="D97">
-        <v>12639.83244114196</v>
+        <v>12940.14346320223</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3455.333576590947</v>
+        <v>3507.136108140025</v>
       </c>
       <c r="G97">
-        <v>9184.498864551017</v>
+        <v>9433.007355062209</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>373319.053323314</v>
+        <v>373303.2366257673</v>
       </c>
       <c r="K97">
-        <v>6198.831155178561</v>
+        <v>6198.797135401959</v>
       </c>
       <c r="L97">
-        <v>8999</v>
+        <v>8962</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>556.8304104302281</v>
+        <v>558.3370052471311</v>
       </c>
       <c r="B98">
-        <v>3892.990780917026</v>
+        <v>3944.231724732666</v>
       </c>
       <c r="C98">
-        <v>4449.821191347254</v>
+        <v>4502.568729979797</v>
       </c>
       <c r="D98">
-        <v>27993.48592237635</v>
+        <v>29551.70061778953</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>27993.48592237635</v>
+        <v>29551.70061778953</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>313547.5261510218</v>
+        <v>312611.636611169</v>
       </c>
       <c r="K98">
-        <v>6606.956331107161</v>
+        <v>6606.743130773547</v>
       </c>
       <c r="L98">
-        <v>9285</v>
+        <v>9598</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>762.8320376746552</v>
+        <v>781.5060899244781</v>
       </c>
       <c r="B99">
-        <v>5605.458879007141</v>
+        <v>5584.123168223615</v>
       </c>
       <c r="C99">
-        <v>6368.290916681796</v>
+        <v>6365.629258148093</v>
       </c>
       <c r="D99">
-        <v>40145.84689377054</v>
+        <v>40144.70275003179</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>40145.84689377054</v>
+        <v>40144.70275003179</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>442984.4514499189</v>
+        <v>444957.0821525095</v>
       </c>
       <c r="K99">
-        <v>9384.817426101681</v>
+        <v>9384.68326354664</v>
       </c>
       <c r="L99">
-        <v>13204</v>
+        <v>13607</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5498.416685647996</v>
+        <v>5165.91567865958</v>
       </c>
       <c r="B100">
-        <v>42128.16652965833</v>
+        <v>40241.9786333842</v>
       </c>
       <c r="C100">
-        <v>47626.58321530633</v>
+        <v>45407.89431204378</v>
       </c>
       <c r="D100">
-        <v>295265.9726783664</v>
+        <v>294987.9571155155</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>295265.9726783664</v>
+        <v>294987.9571155155</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>3309631.68339756</v>
+        <v>3266328.922388858</v>
       </c>
       <c r="K100">
-        <v>68687.27990063631</v>
+        <v>68687.33929662952</v>
       </c>
       <c r="L100">
-        <v>96661</v>
+        <v>99951</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>153.078582129413</v>
+        <v>173.2032458450156</v>
       </c>
       <c r="B101">
-        <v>1176.34028271211</v>
+        <v>1212.287517939863</v>
       </c>
       <c r="C101">
-        <v>1329.418864841523</v>
+        <v>1385.490763784878</v>
       </c>
       <c r="D101">
-        <v>8874.877194626977</v>
+        <v>8739.870191319897</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8874.877194626977</v>
+        <v>8739.870191319897</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>95552.1899789115</v>
+        <v>97665.72610033915</v>
       </c>
       <c r="K101">
-        <v>2023.667525296961</v>
+        <v>2024.000937759839</v>
       </c>
       <c r="L101">
-        <v>2848</v>
+        <v>2944</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>2100.762098363867</v>
+        <v>1952.673151089028</v>
       </c>
       <c r="B102">
-        <v>14647.71692078059</v>
+        <v>14030.24145563129</v>
       </c>
       <c r="C102">
-        <v>16748.47901914446</v>
+        <v>15982.91460672031</v>
       </c>
       <c r="D102">
-        <v>107940.3674355931</v>
+        <v>108499.4048488791</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6663.332598215826</v>
+        <v>6920.74755472903</v>
       </c>
       <c r="G102">
-        <v>101277.0348373773</v>
+        <v>101578.6572941501</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1174384.107882561</v>
+        <v>1196393.851610261</v>
       </c>
       <c r="K102">
-        <v>24733.90482848934</v>
+        <v>24733.96979357173</v>
       </c>
       <c r="L102">
-        <v>34395</v>
+        <v>35668</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1451.875897013729</v>
+        <v>1467.570490642674</v>
       </c>
       <c r="B103">
-        <v>10511.79753883524</v>
+        <v>10718.27706839013</v>
       </c>
       <c r="C103">
-        <v>11963.67343584896</v>
+        <v>12185.84755903281</v>
       </c>
       <c r="D103">
-        <v>80539.17797770647</v>
+        <v>77873.00067713231</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5045.827200862599</v>
+        <v>4866.846597723316</v>
       </c>
       <c r="G103">
-        <v>75493.35077684387</v>
+        <v>73006.154079409</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>872742.0245538894</v>
+        <v>882477.2218873966</v>
       </c>
       <c r="K103">
-        <v>18474.7629604644</v>
+        <v>18475.17448511314</v>
       </c>
       <c r="L103">
-        <v>25732</v>
+        <v>26614</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4529.328330773039</v>
+        <v>4730.267302517984</v>
       </c>
       <c r="B104">
-        <v>33065.22225342916</v>
+        <v>33536.60063589059</v>
       </c>
       <c r="C104">
-        <v>37594.5505842022</v>
+        <v>38266.86793840857</v>
       </c>
       <c r="D104">
-        <v>251322.2218404963</v>
+        <v>251837.895884993</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15683.01832651205</v>
+        <v>15515.73188215825</v>
       </c>
       <c r="G104">
-        <v>235639.2035139842</v>
+        <v>236322.1640028347</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2775218.458006741</v>
+        <v>2746204.299570648</v>
       </c>
       <c r="K104">
-        <v>58536.0011665872</v>
+        <v>58535.93720683265</v>
       </c>
       <c r="L104">
-        <v>81540</v>
+        <v>84258</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>8829.155766936659</v>
+        <v>7804.030891112669</v>
       </c>
       <c r="B105">
-        <v>63974.18414067317</v>
+        <v>56709.67996376901</v>
       </c>
       <c r="C105">
-        <v>72803.33990760983</v>
+        <v>64513.71085488167</v>
       </c>
       <c r="D105">
-        <v>445757.3306985914</v>
+        <v>456390.7604338687</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>27977.22732655235</v>
+        <v>28284.1653519319</v>
       </c>
       <c r="G105">
-        <v>417780.1033720391</v>
+        <v>428106.5950819369</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4908473.142827179</v>
+        <v>4888273.859985895</v>
       </c>
       <c r="K105">
-        <v>102959.9524802891</v>
+        <v>102959.9152843621</v>
       </c>
       <c r="L105">
-        <v>143346</v>
+        <v>148319</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>6786.81670469159</v>
+        <v>7020.19217784539</v>
       </c>
       <c r="B106">
-        <v>48918.9630139944</v>
+        <v>51132.38888074481</v>
       </c>
       <c r="C106">
-        <v>55705.77971868599</v>
+        <v>58152.5810585902</v>
       </c>
       <c r="D106">
-        <v>379881.7837562936</v>
+        <v>374569.030427159</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23834.3083460182</v>
+        <v>23330.14456271133</v>
       </c>
       <c r="G106">
-        <v>356047.4754102755</v>
+        <v>351238.8858644477</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4095797.684566877</v>
+        <v>4078943.263334852</v>
       </c>
       <c r="K106">
-        <v>85833.85311673841</v>
+        <v>85834.32550707254</v>
       </c>
       <c r="L106">
-        <v>119448</v>
+        <v>123357</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>6610.49450475598</v>
+        <v>7227.520931243358</v>
       </c>
       <c r="B107">
-        <v>50942.08954230385</v>
+        <v>54039.54625451569</v>
       </c>
       <c r="C107">
-        <v>57552.58404705983</v>
+        <v>61267.06718575905</v>
       </c>
       <c r="D107">
-        <v>387543.4076379096</v>
+        <v>394139.511587634</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24539.06237122044</v>
+        <v>24049.59819168433</v>
       </c>
       <c r="G107">
-        <v>363004.3452666892</v>
+        <v>370089.9133959497</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4281860.262517394</v>
+        <v>4251333.668064763</v>
       </c>
       <c r="K107">
-        <v>89899.9853564658</v>
+        <v>89900.03097626762</v>
       </c>
       <c r="L107">
-        <v>125322</v>
+        <v>129223</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3573.187421199048</v>
+        <v>3289.420195516914</v>
       </c>
       <c r="B108">
-        <v>26065.72753927129</v>
+        <v>24942.48757901214</v>
       </c>
       <c r="C108">
-        <v>29638.91496047034</v>
+        <v>28231.90777452905</v>
       </c>
       <c r="D108">
-        <v>183276.1904045211</v>
+        <v>187780.4773731225</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11550.18540348685</v>
+        <v>11877.74195183736</v>
       </c>
       <c r="G108">
-        <v>171726.0050010343</v>
+        <v>175902.7354212852</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>2022310.976619639</v>
+        <v>2034322.121905763</v>
       </c>
       <c r="K108">
-        <v>42603.72087799754</v>
+        <v>42604.34641213261</v>
       </c>
       <c r="L108">
-        <v>59272</v>
+        <v>61197</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5133.218864982171</v>
+        <v>5654.626944419777</v>
       </c>
       <c r="B109">
-        <v>36649.3688683888</v>
+        <v>39780.76186598885</v>
       </c>
       <c r="C109">
-        <v>41782.58773337096</v>
+        <v>45435.38881040862</v>
       </c>
       <c r="D109">
-        <v>281933.6639246811</v>
+        <v>284895.5099765587</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17419.61975707542</v>
+        <v>17496.12461492821</v>
       </c>
       <c r="G109">
-        <v>264514.0441676056</v>
+        <v>267399.3853616305</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3139939.352407497</v>
+        <v>3179043.628073152</v>
       </c>
       <c r="K109">
-        <v>66365.04352732237</v>
+        <v>66364.88969585732</v>
       </c>
       <c r="L109">
-        <v>92785</v>
+        <v>95568</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5319.07393179567</v>
+        <v>5352.118479069282</v>
       </c>
       <c r="B110">
-        <v>36616.28537178851</v>
+        <v>37105.95267918945</v>
       </c>
       <c r="C110">
-        <v>41935.35930358418</v>
+        <v>42458.07115825872</v>
       </c>
       <c r="D110">
-        <v>284188.1930024282</v>
+        <v>278611.2729083496</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17362.04121592784</v>
+        <v>17739.90907947211</v>
       </c>
       <c r="G110">
-        <v>266826.1517865004</v>
+        <v>260871.3638288775</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3058681.9408532</v>
+        <v>3061687.455146907</v>
       </c>
       <c r="K110">
-        <v>63796.0302845275</v>
+        <v>63795.76638726752</v>
       </c>
       <c r="L110">
-        <v>88784</v>
+        <v>91727</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17614.89403011286</v>
+        <v>17727.67927074805</v>
       </c>
       <c r="B111">
-        <v>127863.2545415028</v>
+        <v>125143.3443808578</v>
       </c>
       <c r="C111">
-        <v>145478.1485716157</v>
+        <v>142871.0236516058</v>
       </c>
       <c r="D111">
-        <v>929968.6048657278</v>
+        <v>949890.6580021012</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>57653.71637790305</v>
+        <v>61755.49827500508</v>
       </c>
       <c r="G111">
-        <v>872314.8884878247</v>
+        <v>888135.1597270962</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>10235776.5092676</v>
+        <v>10091394.23940161</v>
       </c>
       <c r="K111">
-        <v>214313.0686849213</v>
+        <v>214312.8299857798</v>
       </c>
       <c r="L111">
-        <v>298522</v>
+        <v>308060</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>584.2584205899994</v>
+        <v>571.2121625161354</v>
       </c>
       <c r="B112">
-        <v>4473.744523054728</v>
+        <v>4022.562329432272</v>
       </c>
       <c r="C112">
-        <v>5058.002943644728</v>
+        <v>4593.774491948408</v>
       </c>
       <c r="D112">
-        <v>30516.98996035667</v>
+        <v>30387.87451712261</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1965.03378445289</v>
+        <v>1853.294776295504</v>
       </c>
       <c r="G112">
-        <v>28551.95617590378</v>
+        <v>28534.57974082711</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>330493.4657808582</v>
+        <v>334873.5014228115</v>
       </c>
       <c r="K112">
-        <v>7005.665086127235</v>
+        <v>7005.819705588027</v>
       </c>
       <c r="L112">
-        <v>9742</v>
+        <v>10077</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>127.3510087381567</v>
+        <v>140.6687352146812</v>
       </c>
       <c r="B113">
-        <v>950.3494265241158</v>
+        <v>1025.141371481634</v>
       </c>
       <c r="C113">
-        <v>1077.700435262273</v>
+        <v>1165.810106696315</v>
       </c>
       <c r="D113">
-        <v>7601.367884246845</v>
+        <v>7430.053120746627</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>465.5053325150816</v>
+        <v>453.3524733387761</v>
       </c>
       <c r="G113">
-        <v>7135.862551731764</v>
+        <v>6976.700647407851</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>81796.58660599375</v>
+        <v>82875.10158033868</v>
       </c>
       <c r="K113">
-        <v>1718.747880608878</v>
+        <v>1719.018135858051</v>
       </c>
       <c r="L113">
-        <v>2396</v>
+        <v>2471</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1167.316036716747</v>
+        <v>1235.546461617269</v>
       </c>
       <c r="B114">
-        <v>8494.843850122412</v>
+        <v>8949.690256953212</v>
       </c>
       <c r="C114">
-        <v>9662.159886839157</v>
+        <v>10185.23671857048</v>
       </c>
       <c r="D114">
-        <v>65788.49680136119</v>
+        <v>65053.50845283204</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4121.244454733359</v>
+        <v>4118.114371014341</v>
       </c>
       <c r="G114">
-        <v>61667.25234662784</v>
+        <v>60935.3940818177</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>717298.2763590834</v>
+        <v>716088.0878751855</v>
       </c>
       <c r="K114">
-        <v>15018.9917738392</v>
+        <v>15018.71967345977</v>
       </c>
       <c r="L114">
-        <v>20945</v>
+        <v>21599</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>114.7016628343605</v>
+        <v>106.0971695395744</v>
       </c>
       <c r="B115">
-        <v>843.2702965771933</v>
+        <v>816.9930985273555</v>
       </c>
       <c r="C115">
-        <v>957.9719594115538</v>
+        <v>923.0902680669299</v>
       </c>
       <c r="D115">
-        <v>6000.895928865557</v>
+        <v>6335.220099722201</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>371.6134846692818</v>
+        <v>387.1261947856016</v>
       </c>
       <c r="G115">
-        <v>5629.282444196275</v>
+        <v>5948.0939049366</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>66443.96011036227</v>
+        <v>65678.63140223769</v>
       </c>
       <c r="K115">
-        <v>1383.020832442535</v>
+        <v>1383.167022378004</v>
       </c>
       <c r="L115">
-        <v>1925</v>
+        <v>1989</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1507.375757399769</v>
+        <v>1520.556569443539</v>
       </c>
       <c r="B116">
-        <v>8676.484057850799</v>
+        <v>8774.302990637259</v>
       </c>
       <c r="C116">
-        <v>10183.85981525057</v>
+        <v>10294.8595600808</v>
       </c>
       <c r="D116">
-        <v>20199.78544487723</v>
+        <v>20200.44704382911</v>
       </c>
       <c r="E116">
-        <v>936.910016234914</v>
+        <v>1137.365922392503</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>20199.78544487723</v>
+        <v>20200.44704382911</v>
       </c>
       <c r="H116">
-        <v>751.232824429681</v>
+        <v>904.8167851772195</v>
       </c>
       <c r="I116">
-        <v>185.677191805233</v>
+        <v>232.5491372152836</v>
       </c>
       <c r="J116">
-        <v>482933.3171306817</v>
+        <v>485071.6998024436</v>
       </c>
       <c r="K116">
-        <v>10097.84667025518</v>
+        <v>10098.10977206635</v>
       </c>
       <c r="L116">
-        <v>14336</v>
+        <v>14117</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>931.8300281022823</v>
+        <v>862.0846956030393</v>
       </c>
       <c r="B117">
-        <v>5151.309148399995</v>
+        <v>5232.823948030667</v>
       </c>
       <c r="C117">
-        <v>6083.139176502277</v>
+        <v>6094.908643633707</v>
       </c>
       <c r="D117">
-        <v>12355.06444459525</v>
+        <v>11878.78994170661</v>
       </c>
       <c r="E117">
-        <v>758.7714500672778</v>
+        <v>644.9072906197102</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>12355.06444459525</v>
+        <v>11878.78994170661</v>
       </c>
       <c r="H117">
-        <v>600.0503240815406</v>
+        <v>509.8466428825741</v>
       </c>
       <c r="I117">
-        <v>158.7211259857372</v>
+        <v>135.0606477371361</v>
       </c>
       <c r="J117">
-        <v>295483.9235455397</v>
+        <v>295231.6472918814</v>
       </c>
       <c r="K117">
-        <v>6147.803715408354</v>
+        <v>6148.014730743529</v>
       </c>
       <c r="L117">
-        <v>8745</v>
+        <v>8613</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2249.689932620066</v>
+        <v>2219.125377903166</v>
       </c>
       <c r="B118">
-        <v>13070.2334460419</v>
+        <v>13442.11450464273</v>
       </c>
       <c r="C118">
-        <v>15319.92337866197</v>
+        <v>15661.2398825459</v>
       </c>
       <c r="D118">
-        <v>29701.40861605019</v>
+        <v>29332.04293644854</v>
       </c>
       <c r="E118">
-        <v>1678.288991414079</v>
+        <v>1670.112947908417</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>29701.40861605019</v>
+        <v>29332.04293644854</v>
       </c>
       <c r="H118">
-        <v>1310.954452097072</v>
+        <v>1295.117387003402</v>
       </c>
       <c r="I118">
-        <v>367.3345393170075</v>
+        <v>374.9955609050153</v>
       </c>
       <c r="J118">
-        <v>722601.4186264233</v>
+        <v>717441.4621674455</v>
       </c>
       <c r="K118">
-        <v>15021.26796415471</v>
+        <v>15020.65482002581</v>
       </c>
       <c r="L118">
-        <v>21335</v>
+        <v>21047</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>8108.64356843308</v>
+        <v>8165.864990459806</v>
       </c>
       <c r="B119">
-        <v>47111.34304852258</v>
+        <v>46768.85862712115</v>
       </c>
       <c r="C119">
-        <v>55219.98661695566</v>
+        <v>54934.72361758095</v>
       </c>
       <c r="D119">
-        <v>107679.5614361708</v>
+        <v>103412.1317712973</v>
       </c>
       <c r="E119">
-        <v>6568.398983658811</v>
+        <v>5965.446383096387</v>
       </c>
       <c r="F119">
-        <v>15528.34908459036</v>
+        <v>15711.1684412461</v>
       </c>
       <c r="G119">
-        <v>92151.21235158044</v>
+        <v>87700.96333005115</v>
       </c>
       <c r="H119">
-        <v>5237.600091689135</v>
+        <v>4732.997012840251</v>
       </c>
       <c r="I119">
-        <v>1330.798891969675</v>
+        <v>1232.449370256136</v>
       </c>
       <c r="J119">
-        <v>2632831.467230969</v>
+        <v>2631305.098952536</v>
       </c>
       <c r="K119">
-        <v>54874.07642642445</v>
+        <v>54874.31537609612</v>
       </c>
       <c r="L119">
-        <v>77229</v>
+        <v>76123</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>12205.55595823647</v>
+        <v>13007.15170355224</v>
       </c>
       <c r="B120">
-        <v>73697.47959672076</v>
+        <v>71527.88239559277</v>
       </c>
       <c r="C120">
-        <v>85903.03555495723</v>
+        <v>84535.03409914501</v>
       </c>
       <c r="D120">
-        <v>169253.1309498707</v>
+        <v>161550.410737433</v>
       </c>
       <c r="E120">
-        <v>9188.131984374182</v>
+        <v>9720.869506569645</v>
       </c>
       <c r="F120">
-        <v>24308.23085483133</v>
+        <v>22958.87121871661</v>
       </c>
       <c r="G120">
-        <v>144944.9000950394</v>
+        <v>138591.5395187164</v>
       </c>
       <c r="H120">
-        <v>7337.055353124828</v>
+        <v>7395.011163935117</v>
       </c>
       <c r="I120">
-        <v>1851.076631249355</v>
+        <v>2325.858342634529</v>
       </c>
       <c r="J120">
-        <v>4082766.541717206</v>
+        <v>4076067.651747944</v>
       </c>
       <c r="K120">
-        <v>84458.00958435412</v>
+        <v>84457.97546822915</v>
       </c>
       <c r="L120">
-        <v>119382</v>
+        <v>117183</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7688.428332246362</v>
+        <v>7017.130558636389</v>
       </c>
       <c r="B121">
-        <v>44503.77978977335</v>
+        <v>41901.57768943991</v>
       </c>
       <c r="C121">
-        <v>52192.20812201971</v>
+        <v>48918.7082480763</v>
       </c>
       <c r="D121">
-        <v>97889.90315070869</v>
+        <v>103524.1845726849</v>
       </c>
       <c r="E121">
-        <v>5854.68315744165</v>
+        <v>5898.013138768936</v>
       </c>
       <c r="F121">
-        <v>13654.02776061477</v>
+        <v>15220.34009520935</v>
       </c>
       <c r="G121">
-        <v>84235.87539009393</v>
+        <v>88303.84447747558</v>
       </c>
       <c r="H121">
-        <v>4552.041547213239</v>
+        <v>4777.178994058771</v>
       </c>
       <c r="I121">
-        <v>1302.641610228411</v>
+        <v>1120.834144710165</v>
       </c>
       <c r="J121">
-        <v>2420906.494808749</v>
+        <v>2428508.953839709</v>
       </c>
       <c r="K121">
-        <v>50093.01314756941</v>
+        <v>50093.3428147829</v>
       </c>
       <c r="L121">
-        <v>70675</v>
+        <v>69421</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>20600.57007659198</v>
+        <v>19762.42214477182</v>
       </c>
       <c r="B122">
-        <v>112143.7396838802</v>
+        <v>115454.2359302493</v>
       </c>
       <c r="C122">
-        <v>132744.3097604722</v>
+        <v>135216.6580750211</v>
       </c>
       <c r="D122">
-        <v>257943.3244375956</v>
+        <v>253839.4135707433</v>
       </c>
       <c r="E122">
-        <v>13507.57275917292</v>
+        <v>14631.33397394269</v>
       </c>
       <c r="F122">
-        <v>36322.7954857165</v>
+        <v>36961.68411254272</v>
       </c>
       <c r="G122">
-        <v>221620.5289518791</v>
+        <v>216877.7294582006</v>
       </c>
       <c r="H122">
-        <v>10537.48601451273</v>
+        <v>11936.7669218077</v>
       </c>
       <c r="I122">
-        <v>2970.086744660196</v>
+        <v>2694.567052134983</v>
       </c>
       <c r="J122">
-        <v>6270045.995078481</v>
+        <v>6349862.478422076</v>
       </c>
       <c r="K122">
-        <v>131016.3208785624</v>
+        <v>131015.7919086288</v>
       </c>
       <c r="L122">
-        <v>184813</v>
+        <v>181619</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>34673.13449467017</v>
+        <v>35473.61205946327</v>
       </c>
       <c r="B123">
-        <v>201211.2191053144</v>
+        <v>198585.2139884811</v>
       </c>
       <c r="C123">
-        <v>235884.3535999846</v>
+        <v>234058.8260479444</v>
       </c>
       <c r="D123">
-        <v>490921.9768059813</v>
+        <v>475623.4572992759</v>
       </c>
       <c r="E123">
-        <v>26570.26749806782</v>
+        <v>26746.21892214737</v>
       </c>
       <c r="F123">
-        <v>70654.54666390739</v>
+        <v>68809.35532154622</v>
       </c>
       <c r="G123">
-        <v>420267.4301420739</v>
+        <v>406814.1019777297</v>
       </c>
       <c r="H123">
-        <v>20620.26626149916</v>
+        <v>21699.33571033671</v>
       </c>
       <c r="I123">
-        <v>5950.001236568653</v>
+        <v>5046.88321181066</v>
       </c>
       <c r="J123">
-        <v>11378076.99616551</v>
+        <v>11439351.26932051</v>
       </c>
       <c r="K123">
-        <v>238430.6808259817</v>
+        <v>238430.8692315136</v>
       </c>
       <c r="L123">
-        <v>335729</v>
+        <v>330151</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>24299.50247318641</v>
+        <v>23097.8177963877</v>
       </c>
       <c r="B124">
-        <v>139591.47883359</v>
+        <v>142530.7787745631</v>
       </c>
       <c r="C124">
-        <v>163890.9813067764</v>
+        <v>165628.5965709508</v>
       </c>
       <c r="D124">
-        <v>338358.9830130821</v>
+        <v>334952.1266927578</v>
       </c>
       <c r="E124">
-        <v>15527.08903771242</v>
+        <v>17629.0432160715</v>
       </c>
       <c r="F124">
-        <v>49492.23224961963</v>
+        <v>47575.45029470808</v>
       </c>
       <c r="G124">
-        <v>288866.7507634624</v>
+        <v>287376.6763980497</v>
       </c>
       <c r="H124">
-        <v>11950.50836268918</v>
+        <v>13915.06552932073</v>
       </c>
       <c r="I124">
-        <v>3576.580675023242</v>
+        <v>3713.977686750774</v>
       </c>
       <c r="J124">
-        <v>8059275.731356491</v>
+        <v>8054718.752858382</v>
       </c>
       <c r="K124">
-        <v>167395.9151936474</v>
+        <v>167395.6885623003</v>
       </c>
       <c r="L124">
-        <v>235135</v>
+        <v>232886</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13812.20258948235</v>
+        <v>13833.24321882329</v>
       </c>
       <c r="B125">
-        <v>78092.19682907934</v>
+        <v>80422.65191232259</v>
       </c>
       <c r="C125">
-        <v>91904.39941856169</v>
+        <v>94255.89513114587</v>
       </c>
       <c r="D125">
-        <v>187333.3946812406</v>
+        <v>187634.0876870195</v>
       </c>
       <c r="E125">
-        <v>10418.51391822361</v>
+        <v>9516.186668767468</v>
       </c>
       <c r="F125">
-        <v>26778.21995362243</v>
+        <v>27404.10331717382</v>
       </c>
       <c r="G125">
-        <v>160555.1747276182</v>
+        <v>160229.9843698457</v>
       </c>
       <c r="H125">
-        <v>8299.095968527437</v>
+        <v>7532.734905215026</v>
       </c>
       <c r="I125">
-        <v>2119.417949696174</v>
+        <v>1983.451763552443</v>
       </c>
       <c r="J125">
-        <v>4474842.364446509</v>
+        <v>4483079.684245059</v>
       </c>
       <c r="K125">
-        <v>93372.04394360415</v>
+        <v>93371.8323747489</v>
       </c>
       <c r="L125">
-        <v>131464</v>
+        <v>129256</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10629.81748283927</v>
+        <v>10837.30980893788</v>
       </c>
       <c r="B126">
-        <v>64219.91785420687</v>
+        <v>64302.54207896705</v>
       </c>
       <c r="C126">
-        <v>74849.73533704614</v>
+        <v>75139.85188790492</v>
       </c>
       <c r="D126">
-        <v>153268.7443633609</v>
+        <v>141567.8719108271</v>
       </c>
       <c r="E126">
-        <v>7503.396861875794</v>
+        <v>7499.153657031161</v>
       </c>
       <c r="F126">
-        <v>22791.81098112348</v>
+        <v>20496.47347583593</v>
       </c>
       <c r="G126">
-        <v>130476.9333822374</v>
+        <v>121071.3984349912</v>
       </c>
       <c r="H126">
-        <v>5949.755266459726</v>
+        <v>5853.110238483702</v>
       </c>
       <c r="I126">
-        <v>1553.641595416068</v>
+        <v>1646.043418547459</v>
       </c>
       <c r="J126">
-        <v>3559350.89620749</v>
+        <v>3507850.503451621</v>
       </c>
       <c r="K126">
-        <v>73289.98132018972</v>
+        <v>73289.84904647038</v>
       </c>
       <c r="L126">
-        <v>103285</v>
+        <v>101844</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>17716.69209661537</v>
+        <v>18773.48645040629</v>
       </c>
       <c r="B127">
-        <v>109062.4386225936</v>
+        <v>107706.3579503636</v>
       </c>
       <c r="C127">
-        <v>126779.130719209</v>
+        <v>126479.8444007699</v>
       </c>
       <c r="D127">
-        <v>245105.009346853</v>
+        <v>266723.3794241176</v>
       </c>
       <c r="E127">
-        <v>14400.9336432703</v>
+        <v>12469.97322971373</v>
       </c>
       <c r="F127">
-        <v>36961.10174632954</v>
+        <v>38237.32393549007</v>
       </c>
       <c r="G127">
-        <v>208143.9076005235</v>
+        <v>228486.0554886275</v>
       </c>
       <c r="H127">
-        <v>11833.53027122737</v>
+        <v>9927.979531287436</v>
       </c>
       <c r="I127">
-        <v>2567.403372042927</v>
+        <v>2541.993698426289</v>
       </c>
       <c r="J127">
-        <v>6256831.501573438</v>
+        <v>6160724.435171992</v>
       </c>
       <c r="K127">
-        <v>128689.8653156412</v>
+        <v>128689.700715335</v>
       </c>
       <c r="L127">
-        <v>181640</v>
+        <v>178637</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>37651.9590809109</v>
+        <v>35848.76128150085</v>
       </c>
       <c r="B128">
-        <v>220942.845341819</v>
+        <v>215543.9335591092</v>
       </c>
       <c r="C128">
-        <v>258594.80442273</v>
+        <v>251392.6948406101</v>
       </c>
       <c r="D128">
-        <v>507144.9247976911</v>
+        <v>491265.1097973818</v>
       </c>
       <c r="E128">
-        <v>27537.96578418068</v>
+        <v>26817.50438470912</v>
       </c>
       <c r="F128">
-        <v>72105.08313660155</v>
+        <v>72441.36826699506</v>
       </c>
       <c r="G128">
-        <v>435039.8416610896</v>
+        <v>418823.7415303867</v>
       </c>
       <c r="H128">
-        <v>21343.78522850307</v>
+        <v>20898.32415644982</v>
       </c>
       <c r="I128">
-        <v>6194.180555677612</v>
+        <v>5919.1802282593</v>
       </c>
       <c r="J128">
-        <v>12036445.6187917</v>
+        <v>12027456.15784291</v>
       </c>
       <c r="K128">
-        <v>248822.0870917086</v>
+        <v>248822.2425791493</v>
       </c>
       <c r="L128">
-        <v>350562</v>
+        <v>345479</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14683.24634040176</v>
+        <v>14433.76049480306</v>
       </c>
       <c r="B129">
-        <v>84340.53338190814</v>
+        <v>85643.25213513218</v>
       </c>
       <c r="C129">
-        <v>99023.7797223099</v>
+        <v>100077.0126299352</v>
       </c>
       <c r="D129">
-        <v>199288.6982580535</v>
+        <v>198838.7798616846</v>
       </c>
       <c r="E129">
-        <v>10404.76926950242</v>
+        <v>8959.18452536258</v>
       </c>
       <c r="F129">
-        <v>29400.39067382782</v>
+        <v>28628.11851436791</v>
       </c>
       <c r="G129">
-        <v>169888.3075842257</v>
+        <v>170210.6613473167</v>
       </c>
       <c r="H129">
-        <v>8399.695413297346</v>
+        <v>7080.120876370042</v>
       </c>
       <c r="I129">
-        <v>2005.073856205076</v>
+        <v>1879.063648992538</v>
       </c>
       <c r="J129">
-        <v>4710763.78824906</v>
+        <v>4738587.589240791</v>
       </c>
       <c r="K129">
-        <v>98283.30327087044</v>
+        <v>98282.64683140376</v>
       </c>
       <c r="L129">
-        <v>138475</v>
+        <v>136481</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18770.23183751279</v>
+        <v>18460.86796681669</v>
       </c>
       <c r="B130">
-        <v>109262.2849813576</v>
+        <v>112522.8068445999</v>
       </c>
       <c r="C130">
-        <v>128032.5168188704</v>
+        <v>130983.6748114166</v>
       </c>
       <c r="D130">
-        <v>249864.4462792123</v>
+        <v>260537.2915668412</v>
       </c>
       <c r="E130">
-        <v>13921.93807747481</v>
+        <v>13990.63967771688</v>
       </c>
       <c r="F130">
-        <v>36763.76308691753</v>
+        <v>38608.33406744982</v>
       </c>
       <c r="G130">
-        <v>213100.6831922947</v>
+        <v>221928.9574993914</v>
       </c>
       <c r="H130">
-        <v>11482.5695208258</v>
+        <v>11185.9434979607</v>
       </c>
       <c r="I130">
-        <v>2439.368556649012</v>
+        <v>2804.696179756173</v>
       </c>
       <c r="J130">
-        <v>6044349.361195083</v>
+        <v>6161966.434273817</v>
       </c>
       <c r="K130">
-        <v>127198.8361946709</v>
+        <v>127199.1543270932</v>
       </c>
       <c r="L130">
-        <v>178699</v>
+        <v>176444</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>131.1507227674413</v>
+        <v>136.3009832981705</v>
       </c>
       <c r="B131">
-        <v>760.089259811291</v>
+        <v>749.1407125989746</v>
       </c>
       <c r="C131">
-        <v>891.2399825787322</v>
+        <v>885.441695897145</v>
       </c>
       <c r="D131">
-        <v>1713.069060273486</v>
+        <v>1765.197342672348</v>
       </c>
       <c r="E131">
-        <v>94.40538488895238</v>
+        <v>95.89108321261352</v>
       </c>
       <c r="F131">
-        <v>254.9211461051564</v>
+        <v>257.6665517613097</v>
       </c>
       <c r="G131">
-        <v>1458.14791416833</v>
+        <v>1507.530790911039</v>
       </c>
       <c r="H131">
-        <v>77.21287435575215</v>
+        <v>74.01067752095642</v>
       </c>
       <c r="I131">
-        <v>17.19251053320023</v>
+        <v>21.88040569165711</v>
       </c>
       <c r="J131">
-        <v>42078.53349148658</v>
+        <v>42307.57911602538</v>
       </c>
       <c r="K131">
-        <v>880.9034098952258</v>
+        <v>881.1279004938684</v>
       </c>
       <c r="L131">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>705.9860349763708</v>
+        <v>710.1058936017698</v>
       </c>
       <c r="B132">
-        <v>3998.173104323609</v>
+        <v>3985.924530842394</v>
       </c>
       <c r="C132">
-        <v>4704.15913929998</v>
+        <v>4696.030424444163</v>
       </c>
       <c r="D132">
-        <v>9487.126360314729</v>
+        <v>8437.025926375063</v>
       </c>
       <c r="E132">
-        <v>502.5545561297477</v>
+        <v>500.1949521274502</v>
       </c>
       <c r="F132">
-        <v>1399.882452106096</v>
+        <v>1218.883590082585</v>
       </c>
       <c r="G132">
-        <v>8087.243908208632</v>
+        <v>7218.142336292479</v>
       </c>
       <c r="H132">
-        <v>398.3344752427814</v>
+        <v>393.324285474868</v>
       </c>
       <c r="I132">
-        <v>104.2200808869663</v>
+        <v>106.8706666525822</v>
       </c>
       <c r="J132">
-        <v>225029.2869322584</v>
+        <v>223159.9185375425</v>
       </c>
       <c r="K132">
-        <v>4647.87982065205</v>
+        <v>4647.954759956745</v>
       </c>
       <c r="L132">
-        <v>6553</v>
+        <v>6447</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>34.8644963082422</v>
+        <v>36.69319051655764</v>
       </c>
       <c r="C133">
-        <v>34.8644963082422</v>
+        <v>36.69319051655764</v>
       </c>
       <c r="D133">
-        <v>6259.21865723649</v>
+        <v>6262.247118076501</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6259.21865723649</v>
+        <v>6262.247118076501</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>140482.7332726265</v>
+        <v>139978.9728035138</v>
       </c>
       <c r="K133">
-        <v>1858.184798649025</v>
+        <v>1857.751378369778</v>
       </c>
       <c r="L133">
-        <v>2796</v>
+        <v>2854</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>134.4874070603387</v>
+        <v>130.5739258453341</v>
       </c>
       <c r="C134">
-        <v>134.4874070603387</v>
+        <v>130.5739258453341</v>
       </c>
       <c r="D134">
-        <v>20545.67580297688</v>
+        <v>20877.94195081238</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20545.67580297688</v>
+        <v>20877.94195081238</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>471683.8330047404</v>
+        <v>474066.8084743688</v>
       </c>
       <c r="K134">
-        <v>6268.051995694203</v>
+        <v>6268.090129706547</v>
       </c>
       <c r="L134">
-        <v>9427</v>
+        <v>9624</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>16.79857027825534</v>
+        <v>13.2557695084082</v>
       </c>
       <c r="C135">
-        <v>16.79857027825534</v>
+        <v>13.2557695084082</v>
       </c>
       <c r="D135">
-        <v>2597.909082088716</v>
+        <v>2593.829063500441</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>90.19904687999082</v>
+        <v>86.10272740042382</v>
       </c>
       <c r="G135">
-        <v>2507.710035208725</v>
+        <v>2507.726336100017</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>57535.35071931396</v>
+        <v>58102.83695489488</v>
       </c>
       <c r="K135">
-        <v>763.9261092813847</v>
+        <v>763.8046402847637</v>
       </c>
       <c r="L135">
-        <v>1142</v>
+        <v>1169</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>134.857329487979</v>
+        <v>158.1859123001462</v>
       </c>
       <c r="C136">
-        <v>134.857329487979</v>
+        <v>158.1859123001462</v>
       </c>
       <c r="D136">
-        <v>23107.90382439396</v>
+        <v>23304.77094163894</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>802.611773219674</v>
+        <v>756.6082149877498</v>
       </c>
       <c r="G136">
-        <v>22305.29205117429</v>
+        <v>22548.16272665119</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>525601.9756362839</v>
+        <v>533692.8523980763</v>
       </c>
       <c r="K136">
-        <v>6971.789076466086</v>
+        <v>6972.074388494776</v>
       </c>
       <c r="L136">
-        <v>10407</v>
+        <v>10675</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>311.9147184021846</v>
+        <v>363.7781982140277</v>
       </c>
       <c r="C137">
-        <v>311.9147184021846</v>
+        <v>363.7781982140277</v>
       </c>
       <c r="D137">
-        <v>53896.24009050657</v>
+        <v>53251.39672466546</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53896.24009050657</v>
+        <v>53251.39672466546</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1197405.841391297</v>
+        <v>1203969.738350909</v>
       </c>
       <c r="K137">
-        <v>15929.73462319957</v>
+        <v>15930.18273861799</v>
       </c>
       <c r="L137">
-        <v>23932</v>
+        <v>24575</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>139.2664445133943</v>
+        <v>130.0949040090559</v>
       </c>
       <c r="C138">
-        <v>139.2664445133943</v>
+        <v>130.0949040090559</v>
       </c>
       <c r="D138">
-        <v>19519.20373961236</v>
+        <v>19147.52924591326</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19519.20373961236</v>
+        <v>19147.52924591326</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>432234.2810493373</v>
+        <v>433868.403757391</v>
       </c>
       <c r="K138">
-        <v>5753.326522010258</v>
+        <v>5753.038421269876</v>
       </c>
       <c r="L138">
-        <v>8625</v>
+        <v>8862</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>724.0876526086332</v>
+        <v>977.8884919136399</v>
       </c>
       <c r="C139">
-        <v>724.0876526086332</v>
+        <v>977.8884919136399</v>
       </c>
       <c r="D139">
-        <v>130830.3843745632</v>
+        <v>128700.1783803623</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>130830.3843745632</v>
+        <v>128700.1783803623</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>2887454.468470836</v>
+        <v>2902140.123247441</v>
       </c>
       <c r="K139">
-        <v>38560.86576499513</v>
+        <v>38561.10979748546</v>
       </c>
       <c r="L139">
-        <v>57785</v>
+        <v>59236</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>418.1497088069848</v>
+        <v>420.6373843471821</v>
       </c>
       <c r="C140">
-        <v>418.1497088069848</v>
+        <v>420.6373843471821</v>
       </c>
       <c r="D140">
-        <v>67938.01280289059</v>
+        <v>69948.82725816996</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>67938.01280289059</v>
+        <v>69948.82725816996</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1572641.726774283</v>
+        <v>1561604.575969272</v>
       </c>
       <c r="K140">
-        <v>20709.29766678165</v>
+        <v>20708.83931986093</v>
       </c>
       <c r="L140">
-        <v>31139</v>
+        <v>31847</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>226.3614420455043</v>
+        <v>209.6468842692686</v>
       </c>
       <c r="C141">
-        <v>226.3614420455043</v>
+        <v>209.6468842692686</v>
       </c>
       <c r="D141">
-        <v>36504.15313510351</v>
+        <v>36939.81647220106</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36504.15313510351</v>
+        <v>36939.81647220106</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>824574.362028171</v>
+        <v>817820.472774532</v>
       </c>
       <c r="K141">
-        <v>10926.82764781481</v>
+        <v>10927.26574304475</v>
       </c>
       <c r="L141">
-        <v>16456</v>
+        <v>16782</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1396.305247463704</v>
+        <v>1277.335854551032</v>
       </c>
       <c r="C142">
-        <v>1396.305247463704</v>
+        <v>1277.335854551032</v>
       </c>
       <c r="D142">
-        <v>194730.7113197391</v>
+        <v>194704.265011142</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6328.573246825226</v>
+        <v>6456.04043899011</v>
       </c>
       <c r="G142">
-        <v>188402.1380729139</v>
+        <v>188248.2245721519</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>4414629.221317424</v>
+        <v>4327461.843542916</v>
       </c>
       <c r="K142">
-        <v>58072.01048633456</v>
+        <v>58072.04192020713</v>
       </c>
       <c r="L142">
-        <v>87090</v>
+        <v>88741</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>393.4337764819704</v>
+        <v>468.2931024091101</v>
       </c>
       <c r="C143">
-        <v>393.4337764819704</v>
+        <v>468.2931024091101</v>
       </c>
       <c r="D143">
-        <v>74910.16522725944</v>
+        <v>75047.51765428111</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2554.456578110855</v>
+        <v>2472.551870699559</v>
       </c>
       <c r="G143">
-        <v>72355.70864914858</v>
+        <v>72574.96578358155</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1678001.684082704</v>
+        <v>1687558.968226567</v>
       </c>
       <c r="K143">
-        <v>22312.32310221816</v>
+        <v>22311.76711353391</v>
       </c>
       <c r="L143">
-        <v>33359</v>
+        <v>34171</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>463.6683511159841</v>
+        <v>540.3128394932892</v>
       </c>
       <c r="C144">
-        <v>463.6683511159841</v>
+        <v>540.3128394932892</v>
       </c>
       <c r="D144">
-        <v>84620.5565524353</v>
+        <v>86481.60203125616</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2851.740349470512</v>
+        <v>2820.165421561312</v>
       </c>
       <c r="G144">
-        <v>81768.81620296479</v>
+        <v>83661.43660969485</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1908572.999573888</v>
+        <v>1919160.044322565</v>
       </c>
       <c r="K144">
-        <v>25590.82598889589</v>
+        <v>25591.06110859324</v>
       </c>
       <c r="L144">
-        <v>38165</v>
+        <v>39105</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1130.624615048633</v>
+        <v>1002.728200300626</v>
       </c>
       <c r="C145">
-        <v>1130.624615048633</v>
+        <v>1002.728200300626</v>
       </c>
       <c r="D145">
-        <v>175337.6368536956</v>
+        <v>172764.3997695965</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5851.724164997661</v>
+        <v>5667.936616450197</v>
       </c>
       <c r="G145">
-        <v>169485.912688698</v>
+        <v>167096.4631531463</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>3908351.88317075</v>
+        <v>3905616.341657326</v>
       </c>
       <c r="K145">
-        <v>52068.97406905241</v>
+        <v>52069.09407238632</v>
       </c>
       <c r="L145">
-        <v>77571</v>
+        <v>79561</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1151.430589210011</v>
+        <v>1262.981431167444</v>
       </c>
       <c r="C146">
-        <v>1151.430589210011</v>
+        <v>1262.981431167444</v>
       </c>
       <c r="D146">
-        <v>222512.5737672034</v>
+        <v>217541.2580737758</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7339.285918719382</v>
+        <v>7136.249962731832</v>
       </c>
       <c r="G146">
-        <v>215173.287848484</v>
+        <v>210405.008111044</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>4784182.128506994</v>
+        <v>4855396.734601617</v>
       </c>
       <c r="K146">
-        <v>63819.75966314051</v>
+        <v>63820.00493413389</v>
       </c>
       <c r="L146">
-        <v>95271</v>
+        <v>97679</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1020.329920953473</v>
+        <v>1051.046449511771</v>
       </c>
       <c r="C147">
-        <v>1020.329920953473</v>
+        <v>1051.046449511771</v>
       </c>
       <c r="D147">
-        <v>185163.3154170882</v>
+        <v>185960.6412754686</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>6245.047210711909</v>
+        <v>6262.543177620055</v>
       </c>
       <c r="G147">
-        <v>178918.2682063762</v>
+        <v>179698.0980978486</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>4183241.091228188</v>
+        <v>4161224.008744854</v>
       </c>
       <c r="K147">
-        <v>55341.27404621168</v>
+        <v>55340.98827427812</v>
       </c>
       <c r="L147">
-        <v>82784</v>
+        <v>84538</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1247.976083245001</v>
+        <v>1567.46775090394</v>
       </c>
       <c r="C148">
-        <v>1247.976083245001</v>
+        <v>1567.46775090394</v>
       </c>
       <c r="D148">
-        <v>208145.6328384425</v>
+        <v>206764.1517817527</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>7106.157750600916</v>
+        <v>6718.533310860601</v>
       </c>
       <c r="G148">
-        <v>201039.4750878415</v>
+        <v>200045.6184708921</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>4834773.30960733</v>
+        <v>4751216.437719568</v>
       </c>
       <c r="K148">
-        <v>63093.76532502319</v>
+        <v>63094.14626170475</v>
       </c>
       <c r="L148">
-        <v>94716</v>
+        <v>96616</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1415.584662683608</v>
+        <v>1417.041515783763</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1415.584662683608</v>
+        <v>1417.041515783763</v>
       </c>
       <c r="D149">
-        <v>202003.8933104789</v>
+        <v>200795.3514227557</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>7016.297647516392</v>
+        <v>7047.788992815989</v>
       </c>
       <c r="G149">
-        <v>194987.5956629625</v>
+        <v>193747.5624299397</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>4467571.212275327</v>
+        <v>4453458.641193419</v>
       </c>
       <c r="K149">
-        <v>59773.92503404074</v>
+        <v>59774.1263998064</v>
       </c>
       <c r="L149">
-        <v>88968</v>
+        <v>91065</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>738.2189762861478</v>
+        <v>668.0053794776168</v>
       </c>
       <c r="C150">
-        <v>738.2189762861478</v>
+        <v>668.0053794776168</v>
       </c>
       <c r="D150">
-        <v>110601.9401558697</v>
+        <v>113208.4955690284</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3739.314621973111</v>
+        <v>3716.182717159844</v>
       </c>
       <c r="G150">
-        <v>106862.6255338966</v>
+        <v>109492.3128518686</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2496752.983119423</v>
+        <v>2519386.004278883</v>
       </c>
       <c r="K150">
-        <v>33174.96406602552</v>
+        <v>33175.17513626594</v>
       </c>
       <c r="L150">
-        <v>49510</v>
+        <v>50853</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>651.4190235618574</v>
+        <v>623.8688335004693</v>
       </c>
       <c r="C151">
-        <v>651.4190235618574</v>
+        <v>623.8688335004693</v>
       </c>
       <c r="D151">
-        <v>115102.7694360787</v>
+        <v>115296.6898232448</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3738.406399049775</v>
+        <v>3720.642072045571</v>
       </c>
       <c r="G151">
-        <v>111364.363037029</v>
+        <v>111576.0477511992</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2637279.031204151</v>
+        <v>2586845.855690446</v>
       </c>
       <c r="K151">
-        <v>34695.03642507594</v>
+        <v>34695.1102015828</v>
       </c>
       <c r="L151">
-        <v>51896</v>
+        <v>52967</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>518.9998410537077</v>
+        <v>629.2489655796641</v>
       </c>
       <c r="C152">
-        <v>518.9998410537077</v>
+        <v>629.2489655796641</v>
       </c>
       <c r="D152">
-        <v>100008.925358451</v>
+        <v>96032.29322183564</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3395.514564450561</v>
+        <v>3130.361167763212</v>
       </c>
       <c r="G152">
-        <v>96613.41079400045</v>
+        <v>92901.93205407243</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2232475.234544738</v>
+        <v>2222097.373052605</v>
       </c>
       <c r="K152">
-        <v>29844.81602346429</v>
+        <v>29844.99128749517</v>
       </c>
       <c r="L152">
-        <v>44568</v>
+        <v>45546</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>621.4314100140735</v>
+        <v>569.5216248595395</v>
       </c>
       <c r="C153">
-        <v>621.4314100140735</v>
+        <v>569.5216248595395</v>
       </c>
       <c r="D153">
-        <v>104507.4882357879</v>
+        <v>104509.9333133422</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3514.476800184693</v>
+        <v>3404.445439218003</v>
       </c>
       <c r="G153">
-        <v>100993.0114356032</v>
+        <v>101105.4878741242</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2349514.099184708</v>
+        <v>2312973.127256759</v>
       </c>
       <c r="K153">
-        <v>30867.97083534306</v>
+        <v>30867.97927354831</v>
       </c>
       <c r="L153">
-        <v>46164</v>
+        <v>47113</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>141.5640786740775</v>
+        <v>167.9915063031775</v>
       </c>
       <c r="C154">
-        <v>141.5640786740775</v>
+        <v>167.9915063031775</v>
       </c>
       <c r="D154">
-        <v>28389.38317937155</v>
+        <v>28527.52787530965</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>927.8747310246448</v>
+        <v>968.9061486896256</v>
       </c>
       <c r="G154">
-        <v>27461.50844834691</v>
+        <v>27558.62172662003</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>649761.7474039152</v>
+        <v>640425.0062372955</v>
       </c>
       <c r="K154">
-        <v>8498.693275649019</v>
+        <v>8498.932948354135</v>
       </c>
       <c r="L154">
-        <v>12718</v>
+        <v>12998</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>176.5563187978884</v>
+        <v>198.4266861379845</v>
       </c>
       <c r="C155">
-        <v>176.5563187978884</v>
+        <v>198.4266861379845</v>
       </c>
       <c r="D155">
-        <v>34187.74166191632</v>
+        <v>34852.69909956169</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>34187.74166191632</v>
+        <v>34852.69909956169</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>759636.4479028193</v>
+        <v>761257.4362531415</v>
       </c>
       <c r="K155">
-        <v>10005.97522126851</v>
+        <v>10005.79688678715</v>
       </c>
       <c r="L155">
-        <v>15019</v>
+        <v>15426</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>87.92650910771354</v>
+        <v>81.2179519919853</v>
       </c>
       <c r="C156">
-        <v>87.92650910771354</v>
+        <v>81.2179519919853</v>
       </c>
       <c r="D156">
-        <v>15404.68691994643</v>
+        <v>15463.94000301548</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15404.68691994643</v>
+        <v>15463.94000301548</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>343980.2780680383</v>
+        <v>342029.660655626</v>
       </c>
       <c r="K156">
-        <v>4532.897651261803</v>
+        <v>4532.961098764808</v>
       </c>
       <c r="L156">
-        <v>6823</v>
+        <v>6981</v>
       </c>
       <c r="M156">
         <v>1</v>

--- a/calibration_output_by_period.xlsx
+++ b/calibration_output_by_period.xlsx
@@ -444,37 +444,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10250.67130821539</v>
+        <v>10535.42331640362</v>
       </c>
       <c r="C2">
-        <v>10250.67130821539</v>
+        <v>10535.42331640362</v>
       </c>
       <c r="D2">
-        <v>210189.7543898636</v>
+        <v>208854.4380305846</v>
       </c>
       <c r="E2">
-        <v>272979.9856562392</v>
+        <v>280263.1117559479</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>210189.7543898636</v>
+        <v>208854.4380305846</v>
       </c>
       <c r="H2">
-        <v>161793.6027023436</v>
+        <v>165135.7768455003</v>
       </c>
       <c r="I2">
-        <v>111186.3829538956</v>
+        <v>115127.3349104476</v>
       </c>
       <c r="J2">
-        <v>2811966.532940927</v>
+        <v>2818102.388642696</v>
       </c>
       <c r="K2">
-        <v>51893.32072176921</v>
+        <v>51892.76573138437</v>
       </c>
       <c r="L2">
-        <v>75442</v>
+        <v>73851</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -498,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>5245.432864608783</v>
+        <v>5160.861399627096</v>
       </c>
       <c r="C3">
-        <v>5245.432864608783</v>
+        <v>5160.861399627096</v>
       </c>
       <c r="D3">
-        <v>97924.48342624775</v>
+        <v>101105.5804365722</v>
       </c>
       <c r="E3">
-        <v>125854.5798477549</v>
+        <v>130824.5263071151</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>97924.48342624775</v>
+        <v>101105.5804365722</v>
       </c>
       <c r="H3">
-        <v>74820.08181630813</v>
+        <v>77253.04675382932</v>
       </c>
       <c r="I3">
-        <v>51034.49803144678</v>
+        <v>53571.47955328579</v>
       </c>
       <c r="J3">
-        <v>1317430.964049871</v>
+        <v>1314929.12611949</v>
       </c>
       <c r="K3">
-        <v>24443.25862583987</v>
+        <v>24442.91325033434</v>
       </c>
       <c r="L3">
-        <v>35506</v>
+        <v>34747</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -549,40 +549,40 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>4828.738821723761</v>
+        <v>5104.701697054479</v>
       </c>
       <c r="B4">
-        <v>11106.68453957398</v>
+        <v>12914.54222509804</v>
       </c>
       <c r="C4">
-        <v>15935.42336129774</v>
+        <v>18019.24392215252</v>
       </c>
       <c r="D4">
-        <v>308382.5152006763</v>
+        <v>312548.5087231019</v>
       </c>
       <c r="E4">
-        <v>417376.813558989</v>
+        <v>409374.9984965511</v>
       </c>
       <c r="F4">
-        <v>103477.7337005185</v>
+        <v>103024.7558885947</v>
       </c>
       <c r="G4">
-        <v>204904.7815001578</v>
+        <v>209523.7528345072</v>
       </c>
       <c r="H4">
-        <v>247014.4365925058</v>
+        <v>241808.3269971811</v>
       </c>
       <c r="I4">
-        <v>170362.3769664832</v>
+        <v>167566.6714993701</v>
       </c>
       <c r="J4">
-        <v>4187378.188630427</v>
+        <v>4147729.437887819</v>
       </c>
       <c r="K4">
-        <v>76598.02474858428</v>
+        <v>76597.66930342221</v>
       </c>
       <c r="L4">
-        <v>107179</v>
+        <v>105112</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>14511.63433247839</v>
+        <v>15303.1043766959</v>
       </c>
       <c r="B5">
-        <v>35419.76944175301</v>
+        <v>35879.62327133252</v>
       </c>
       <c r="C5">
-        <v>49931.4037742314</v>
+        <v>51182.72764802842</v>
       </c>
       <c r="D5">
-        <v>963097.0504805058</v>
+        <v>1009991.051788674</v>
       </c>
       <c r="E5">
-        <v>1239756.23806767</v>
+        <v>1323582.06621211</v>
       </c>
       <c r="F5">
-        <v>327591.8000430513</v>
+        <v>332529.5617343159</v>
       </c>
       <c r="G5">
-        <v>635505.2504374544</v>
+        <v>677461.4900543577</v>
       </c>
       <c r="H5">
-        <v>733647.7999663007</v>
+        <v>778724.3324417281</v>
       </c>
       <c r="I5">
-        <v>506108.4381013691</v>
+        <v>544857.7337703813</v>
       </c>
       <c r="J5">
-        <v>13128456.29323099</v>
+        <v>13066212.84433937</v>
       </c>
       <c r="K5">
-        <v>240460.742836406</v>
+        <v>240461.2275032412</v>
       </c>
       <c r="L5">
-        <v>336031</v>
+        <v>329710</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -657,40 +657,40 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5320.352268070696</v>
+        <v>5291.036158244802</v>
       </c>
       <c r="B6">
-        <v>13045.89139030824</v>
+        <v>12369.89214966445</v>
       </c>
       <c r="C6">
-        <v>18366.24365837893</v>
+        <v>17660.92830790926</v>
       </c>
       <c r="D6">
-        <v>351287.8976484577</v>
+        <v>371558.9249356902</v>
       </c>
       <c r="E6">
-        <v>450102.0722523737</v>
+        <v>469951.8910804715</v>
       </c>
       <c r="F6">
-        <v>119987.6592511799</v>
+        <v>122767.3963210561</v>
       </c>
       <c r="G6">
-        <v>231300.2383972779</v>
+        <v>248791.528614634</v>
       </c>
       <c r="H6">
-        <v>268423.4859033687</v>
+        <v>277395.2483616186</v>
       </c>
       <c r="I6">
-        <v>181678.586349005</v>
+        <v>192556.6427188529</v>
       </c>
       <c r="J6">
-        <v>4759560.298927001</v>
+        <v>4799367.312358188</v>
       </c>
       <c r="K6">
-        <v>88279.74074106535</v>
+        <v>88279.8314767566</v>
       </c>
       <c r="L6">
-        <v>123608</v>
+        <v>121090</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -711,40 +711,40 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2494.148442364527</v>
+        <v>3239.620341282729</v>
       </c>
       <c r="B7">
-        <v>6242.454362022129</v>
+        <v>7864.990771326349</v>
       </c>
       <c r="C7">
-        <v>8736.602804386657</v>
+        <v>11104.61111260908</v>
       </c>
       <c r="D7">
-        <v>186734.3793582226</v>
+        <v>189033.7402809037</v>
       </c>
       <c r="E7">
-        <v>245027.5230117188</v>
+        <v>248808.8447519467</v>
       </c>
       <c r="F7">
-        <v>63959.75828129004</v>
+        <v>64145.0327330061</v>
       </c>
       <c r="G7">
-        <v>122774.6210769325</v>
+        <v>124888.7075478976</v>
       </c>
       <c r="H7">
-        <v>145051.5217429752</v>
+        <v>147323.5882244961</v>
       </c>
       <c r="I7">
-        <v>99976.00126874361</v>
+        <v>101485.2565274505</v>
       </c>
       <c r="J7">
-        <v>2567122.621504386</v>
+        <v>2562148.566397334</v>
       </c>
       <c r="K7">
-        <v>47023.07972076061</v>
+        <v>47022.98149248662</v>
       </c>
       <c r="L7">
-        <v>65736</v>
+        <v>64510.00000000001</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -765,40 +765,40 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>16612.68957412878</v>
+        <v>15927.53831578488</v>
       </c>
       <c r="B8">
-        <v>41025.12877222517</v>
+        <v>36935.35772863942</v>
       </c>
       <c r="C8">
-        <v>57637.81834635395</v>
+        <v>52862.89604442431</v>
       </c>
       <c r="D8">
-        <v>1083027.205794214</v>
+        <v>1090317.789886793</v>
       </c>
       <c r="E8">
-        <v>1417454.428427082</v>
+        <v>1462896.968033858</v>
       </c>
       <c r="F8">
-        <v>355959.7132744621</v>
+        <v>356419.3756551114</v>
       </c>
       <c r="G8">
-        <v>727067.4925197514</v>
+        <v>733898.4142316815</v>
       </c>
       <c r="H8">
-        <v>835165.2650336504</v>
+        <v>859668.9991635242</v>
       </c>
       <c r="I8">
-        <v>582289.1633934317</v>
+        <v>603227.9688703339</v>
       </c>
       <c r="J8">
-        <v>14399841.68804001</v>
+        <v>14326769.48183466</v>
       </c>
       <c r="K8">
-        <v>264640.6502956624</v>
+        <v>264640.7962581586</v>
       </c>
       <c r="L8">
-        <v>369422</v>
+        <v>363460</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -819,40 +819,40 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>4297.361577402213</v>
+        <v>4439.557425151527</v>
       </c>
       <c r="B9">
-        <v>11125.82116591491</v>
+        <v>10824.19298858049</v>
       </c>
       <c r="C9">
-        <v>15423.18274331712</v>
+        <v>15263.75041373201</v>
       </c>
       <c r="D9">
-        <v>287757.5060557579</v>
+        <v>290730.7322275303</v>
       </c>
       <c r="E9">
-        <v>372430.8728254018</v>
+        <v>372871.4816073517</v>
       </c>
       <c r="F9">
-        <v>96750.894849169</v>
+        <v>96326.81786483046</v>
       </c>
       <c r="G9">
-        <v>191006.6112065889</v>
+        <v>194403.9143626998</v>
       </c>
       <c r="H9">
-        <v>221974.3594081137</v>
+        <v>221646.0395041435</v>
       </c>
       <c r="I9">
-        <v>150456.513417288</v>
+        <v>151225.4421032082</v>
       </c>
       <c r="J9">
-        <v>3870871.529667796</v>
+        <v>3878309.461359651</v>
       </c>
       <c r="K9">
-        <v>71448.29822637502</v>
+        <v>71448.36170447306</v>
       </c>
       <c r="L9">
-        <v>99859</v>
+        <v>97994</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -873,40 +873,40 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1770.355531725931</v>
+        <v>1711.372323584304</v>
       </c>
       <c r="B10">
-        <v>4116.120887903809</v>
+        <v>4235.500770367978</v>
       </c>
       <c r="C10">
-        <v>5886.47641962974</v>
+        <v>5946.873093952282</v>
       </c>
       <c r="D10">
-        <v>111057.8009072245</v>
+        <v>117894.0535804754</v>
       </c>
       <c r="E10">
-        <v>149032.5907822074</v>
+        <v>153209.732008828</v>
       </c>
       <c r="F10">
-        <v>37799.98794175082</v>
+        <v>38516.19421364873</v>
       </c>
       <c r="G10">
-        <v>73257.8129654737</v>
+        <v>79377.85936682673</v>
       </c>
       <c r="H10">
-        <v>88442.28054904938</v>
+        <v>90623.38964711085</v>
       </c>
       <c r="I10">
-        <v>60590.31023315799</v>
+        <v>62586.34236171712</v>
       </c>
       <c r="J10">
-        <v>1510979.443294786</v>
+        <v>1519016.399744933</v>
       </c>
       <c r="K10">
-        <v>28003.6600586075</v>
+        <v>28003.95381328925</v>
       </c>
       <c r="L10">
-        <v>39169</v>
+        <v>38404</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -927,40 +927,40 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>3869.895662581467</v>
+        <v>3284.079127215682</v>
       </c>
       <c r="B11">
-        <v>8355.082005402313</v>
+        <v>8460.063822963082</v>
       </c>
       <c r="C11">
-        <v>12224.97766798378</v>
+        <v>11744.14295017876</v>
       </c>
       <c r="D11">
-        <v>237512.9129211208</v>
+        <v>231168.941408066</v>
       </c>
       <c r="E11">
-        <v>309817.41219647</v>
+        <v>305574.1643071155</v>
       </c>
       <c r="F11">
-        <v>79681.94635883039</v>
+        <v>77013.39263015124</v>
       </c>
       <c r="G11">
-        <v>157830.9665622904</v>
+        <v>154155.5487779147</v>
       </c>
       <c r="H11">
-        <v>183006.2750276828</v>
+        <v>182023.5294494319</v>
       </c>
       <c r="I11">
-        <v>126811.1371687871</v>
+        <v>123550.6348576836</v>
       </c>
       <c r="J11">
-        <v>3145307.806107027</v>
+        <v>3117675.944181571</v>
       </c>
       <c r="K11">
-        <v>57876.67336700718</v>
+        <v>57877.06732686347</v>
       </c>
       <c r="L11">
-        <v>80917</v>
+        <v>79417</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -981,40 +981,40 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>4921.487199460725</v>
+        <v>4968.457316018926</v>
       </c>
       <c r="B12">
-        <v>11515.05054085518</v>
+        <v>12614.43386935022</v>
       </c>
       <c r="C12">
-        <v>16436.53774031591</v>
+        <v>17582.89118536914</v>
       </c>
       <c r="D12">
-        <v>321132.6045645759</v>
+        <v>322305.2710491277</v>
       </c>
       <c r="E12">
-        <v>421014.0055710581</v>
+        <v>409209.9982262014</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>321132.6045645759</v>
+        <v>322305.2710491277</v>
       </c>
       <c r="H12">
-        <v>250674.7480877318</v>
+        <v>242319.563503849</v>
       </c>
       <c r="I12">
-        <v>170339.2574833262</v>
+        <v>166890.4347223524</v>
       </c>
       <c r="J12">
-        <v>4238732.08336852</v>
+        <v>4302315.804608604</v>
       </c>
       <c r="K12">
-        <v>78645.96199040287</v>
+        <v>78645.97100390519</v>
       </c>
       <c r="L12">
-        <v>113600</v>
+        <v>111518</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1035,40 +1035,40 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>2030.671539671166</v>
+        <v>2383.359130607751</v>
       </c>
       <c r="B13">
-        <v>5409.81903779671</v>
+        <v>5478.383370480907</v>
       </c>
       <c r="C13">
-        <v>7440.490577467876</v>
+        <v>7861.742501088658</v>
       </c>
       <c r="D13">
-        <v>145164.7021237197</v>
+        <v>141536.5049857784</v>
       </c>
       <c r="E13">
-        <v>187591.1695143945</v>
+        <v>189369.0311117608</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>145164.7021237197</v>
+        <v>141536.5049857784</v>
       </c>
       <c r="H13">
-        <v>110619.7188523717</v>
+        <v>111316.024589755</v>
       </c>
       <c r="I13">
-        <v>76971.45066202279</v>
+        <v>78053.00652200577</v>
       </c>
       <c r="J13">
-        <v>1870866.012209463</v>
+        <v>1869450.106711455</v>
       </c>
       <c r="K13">
-        <v>34684.33301843771</v>
+        <v>34684.18293588579</v>
       </c>
       <c r="L13">
-        <v>50017</v>
+        <v>48983</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1092,37 +1092,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>9057.915160639825</v>
+        <v>8871.144200143808</v>
       </c>
       <c r="C14">
-        <v>9057.915160639825</v>
+        <v>8871.144200143808</v>
       </c>
       <c r="D14">
-        <v>177981.2063170545</v>
+        <v>176744.4023315418</v>
       </c>
       <c r="E14">
-        <v>228204.6938898856</v>
+        <v>228949.3905840378</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>177981.2063170545</v>
+        <v>176744.4023315418</v>
       </c>
       <c r="H14">
-        <v>135483.8878857346</v>
+        <v>134169.8395011755</v>
       </c>
       <c r="I14">
-        <v>92720.80600415105</v>
+        <v>94779.55108286229</v>
       </c>
       <c r="J14">
-        <v>2318291.039483704</v>
+        <v>2332227.248973288</v>
       </c>
       <c r="K14">
-        <v>42868.74333874526</v>
+        <v>42868.96604926194</v>
       </c>
       <c r="L14">
-        <v>62338</v>
+        <v>61018</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1146,37 +1146,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>7765.444326932084</v>
+        <v>8312.572666074242</v>
       </c>
       <c r="C15">
-        <v>7765.444326932084</v>
+        <v>8312.572666074242</v>
       </c>
       <c r="D15">
-        <v>173030.1962249708</v>
+        <v>170423.5811802364</v>
       </c>
       <c r="E15">
-        <v>225844.0575149596</v>
+        <v>222433.4977285187</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>173030.1962249708</v>
+        <v>170423.5811802364</v>
       </c>
       <c r="H15">
-        <v>133536.5306461406</v>
+        <v>131422.61787876</v>
       </c>
       <c r="I15">
-        <v>92307.526868819</v>
+        <v>91010.87984975862</v>
       </c>
       <c r="J15">
-        <v>2273494.188688093</v>
+        <v>2263335.239040247</v>
       </c>
       <c r="K15">
-        <v>41813.81308191147</v>
+        <v>41814.07355777825</v>
       </c>
       <c r="L15">
-        <v>60810</v>
+        <v>59433</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1200,37 +1200,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6996.139632325858</v>
+        <v>6767.011951691727</v>
       </c>
       <c r="C16">
-        <v>6996.139632325858</v>
+        <v>6767.011951691727</v>
       </c>
       <c r="D16">
-        <v>123929.3378760658</v>
+        <v>126412.1604014367</v>
       </c>
       <c r="E16">
-        <v>163278.2988457731</v>
+        <v>163319.0343041371</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>123929.3378760658</v>
+        <v>126412.1604014367</v>
       </c>
       <c r="H16">
-        <v>96385.94343904845</v>
+        <v>98008.59585410655</v>
       </c>
       <c r="I16">
-        <v>66892.35540672469</v>
+        <v>65310.43845003055</v>
       </c>
       <c r="J16">
-        <v>1676240.954472698</v>
+        <v>1683302.013408523</v>
       </c>
       <c r="K16">
-        <v>31077.16497489993</v>
+        <v>31076.69611573492</v>
       </c>
       <c r="L16">
-        <v>45220</v>
+        <v>44221</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1254,37 +1254,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1947.333007182291</v>
+        <v>2036.377720244071</v>
       </c>
       <c r="C17">
-        <v>1947.333007182291</v>
+        <v>2036.377720244071</v>
       </c>
       <c r="D17">
-        <v>12006.10004629043</v>
+        <v>11929.67718395385</v>
       </c>
       <c r="E17">
-        <v>17649.44424434843</v>
+        <v>17233.07432241158</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>12006.10004629043</v>
+        <v>11929.67718395385</v>
       </c>
       <c r="H17">
-        <v>10064.67151937894</v>
+        <v>9814.569411376626</v>
       </c>
       <c r="I17">
-        <v>7584.772724969489</v>
+        <v>7418.504911034953</v>
       </c>
       <c r="J17">
-        <v>142927.1397564313</v>
+        <v>144541.5523646136</v>
       </c>
       <c r="K17">
-        <v>4914.827193229748</v>
+        <v>4914.917116210908</v>
       </c>
       <c r="L17">
-        <v>6855</v>
+        <v>6661</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1308,37 +1308,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2603.293369440376</v>
+        <v>2649.15914674584</v>
       </c>
       <c r="C18">
-        <v>2603.293369440376</v>
+        <v>2649.15914674584</v>
       </c>
       <c r="D18">
-        <v>16247.93825228452</v>
+        <v>16792.39458254372</v>
       </c>
       <c r="E18">
-        <v>25374.72902455819</v>
+        <v>24813.67420118214</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16247.93825228452</v>
+        <v>16792.39458254372</v>
       </c>
       <c r="H18">
-        <v>14515.0473524595</v>
+        <v>14274.24275302031</v>
       </c>
       <c r="I18">
-        <v>10859.68167209869</v>
+        <v>10539.43144816183</v>
       </c>
       <c r="J18">
-        <v>204786.1791099406</v>
+        <v>201669.0569962286</v>
       </c>
       <c r="K18">
-        <v>7009.850756543926</v>
+        <v>7009.772604700202</v>
       </c>
       <c r="L18">
-        <v>9774</v>
+        <v>9496</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1359,40 +1359,40 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>573.7252136596188</v>
+        <v>609.8809607390955</v>
       </c>
       <c r="B19">
-        <v>5919.664075333365</v>
+        <v>5928.948787803884</v>
       </c>
       <c r="C19">
-        <v>6493.389288992984</v>
+        <v>6538.829748542979</v>
       </c>
       <c r="D19">
-        <v>40949.42934880881</v>
+        <v>38155.22558586776</v>
       </c>
       <c r="E19">
-        <v>58435.4669830057</v>
+        <v>57938.85184026791</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40949.42934880881</v>
+        <v>38155.22558586776</v>
       </c>
       <c r="H19">
-        <v>33258.02315000453</v>
+        <v>32893.80286400795</v>
       </c>
       <c r="I19">
-        <v>25177.44383300116</v>
+        <v>25045.04897625996</v>
       </c>
       <c r="J19">
-        <v>473805.1577448569</v>
+        <v>467597.5493282651</v>
       </c>
       <c r="K19">
-        <v>16218.96653124245</v>
+        <v>16219.36763966478</v>
       </c>
       <c r="L19">
-        <v>22507</v>
+        <v>21862</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1413,40 +1413,40 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1330.294414878299</v>
+        <v>1336.004320531449</v>
       </c>
       <c r="B20">
-        <v>13117.13158557343</v>
+        <v>12965.32719285603</v>
       </c>
       <c r="C20">
-        <v>14447.42600045173</v>
+        <v>14301.33151338748</v>
       </c>
       <c r="D20">
-        <v>90570.30042234992</v>
+        <v>93420.83392984761</v>
       </c>
       <c r="E20">
-        <v>132523.8212881793</v>
+        <v>134271.7264660715</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>90570.30042234992</v>
+        <v>93420.83392984761</v>
       </c>
       <c r="H20">
-        <v>75394.04431101825</v>
+        <v>76057.38546903616</v>
       </c>
       <c r="I20">
-        <v>57129.776977161</v>
+        <v>58214.34099703537</v>
       </c>
       <c r="J20">
-        <v>1091028.939974625</v>
+        <v>1072314.911275543</v>
       </c>
       <c r="K20">
-        <v>37313.78735344645</v>
+        <v>37313.87565379032</v>
       </c>
       <c r="L20">
-        <v>51804</v>
+        <v>50433</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1467,40 +1467,40 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3760.152457173869</v>
+        <v>2809.849877132393</v>
       </c>
       <c r="B21">
-        <v>31971.06837562345</v>
+        <v>32411.42408500811</v>
       </c>
       <c r="C21">
-        <v>35731.22083279732</v>
+        <v>35221.27396214051</v>
       </c>
       <c r="D21">
-        <v>221252.846919499</v>
+        <v>223356.2315849937</v>
       </c>
       <c r="E21">
-        <v>324176.5245105174</v>
+        <v>326782.0489934204</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>221252.846919499</v>
+        <v>223356.2315849937</v>
       </c>
       <c r="H21">
-        <v>185820.3542264492</v>
+        <v>185908.895340313</v>
       </c>
       <c r="I21">
-        <v>138356.1702840683</v>
+        <v>140873.1536531074</v>
       </c>
       <c r="J21">
-        <v>2607063.053395909</v>
+        <v>2654059.076364531</v>
       </c>
       <c r="K21">
-        <v>90793.80979523175</v>
+        <v>90793.81349941465</v>
       </c>
       <c r="L21">
-        <v>125930</v>
+        <v>122799</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1521,40 +1521,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>3739.955709377367</v>
+        <v>4197.95297507671</v>
       </c>
       <c r="B22">
-        <v>39085.74110945139</v>
+        <v>42201.84266220764</v>
       </c>
       <c r="C22">
-        <v>42825.69681882876</v>
+        <v>46399.79563728435</v>
       </c>
       <c r="D22">
-        <v>262941.4171710337</v>
+        <v>256160.6969187017</v>
       </c>
       <c r="E22">
-        <v>384506.498256784</v>
+        <v>392703.4635118272</v>
       </c>
       <c r="F22">
-        <v>43100.12985365411</v>
+        <v>41584.38198964137</v>
       </c>
       <c r="G22">
-        <v>219841.2873173796</v>
+        <v>214576.3149290603</v>
       </c>
       <c r="H22">
-        <v>219120.8178724993</v>
+        <v>224593.7635124232</v>
       </c>
       <c r="I22">
-        <v>165385.6803842847</v>
+        <v>168109.6999994041</v>
       </c>
       <c r="J22">
-        <v>3175052.556549049</v>
+        <v>3174254.509045283</v>
       </c>
       <c r="K22">
-        <v>108045.3224683064</v>
+        <v>108045.0551543518</v>
       </c>
       <c r="L22">
-        <v>148299</v>
+        <v>144449</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1575,40 +1575,40 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3833.591797101308</v>
+        <v>3675.676001271046</v>
       </c>
       <c r="B23">
-        <v>41164.9429136536</v>
+        <v>39913.25511243156</v>
       </c>
       <c r="C23">
-        <v>44998.5347107549</v>
+        <v>43588.93111370261</v>
       </c>
       <c r="D23">
-        <v>283925.6421179282</v>
+        <v>283601.529754575</v>
       </c>
       <c r="E23">
-        <v>414642.1983424347</v>
+        <v>418777.9847354708</v>
       </c>
       <c r="F23">
-        <v>45372.88529875646</v>
+        <v>44461.99579086987</v>
       </c>
       <c r="G23">
-        <v>238552.7568191717</v>
+        <v>239139.5339637052</v>
       </c>
       <c r="H23">
-        <v>236765.9991279806</v>
+        <v>238888.669871595</v>
       </c>
       <c r="I23">
-        <v>177876.1992144541</v>
+        <v>179889.3148638757</v>
       </c>
       <c r="J23">
-        <v>3415596.247237423</v>
+        <v>3420332.000544513</v>
       </c>
       <c r="K23">
-        <v>116725.8811111923</v>
+        <v>116725.8293517607</v>
       </c>
       <c r="L23">
-        <v>160097</v>
+        <v>155987</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1629,40 +1629,40 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>7294.193817017193</v>
+        <v>7708.322683681043</v>
       </c>
       <c r="B24">
-        <v>68907.20991610987</v>
+        <v>72456.48085290531</v>
       </c>
       <c r="C24">
-        <v>76201.40373312707</v>
+        <v>80164.80353658636</v>
       </c>
       <c r="D24">
-        <v>443341.3932382665</v>
+        <v>463905.0437478024</v>
       </c>
       <c r="E24">
-        <v>697094.5732224624</v>
+        <v>697899.4475335834</v>
       </c>
       <c r="F24">
-        <v>72838.02621689177</v>
+        <v>75658.32653584557</v>
       </c>
       <c r="G24">
-        <v>370503.3670213748</v>
+        <v>388246.7172119569</v>
       </c>
       <c r="H24">
-        <v>395419.432178556</v>
+        <v>397406.5342149896</v>
       </c>
       <c r="I24">
-        <v>301675.1410439064</v>
+        <v>300492.9133185938</v>
       </c>
       <c r="J24">
-        <v>5678879.881849094</v>
+        <v>5575235.63414818</v>
       </c>
       <c r="K24">
-        <v>193189.7783277652</v>
+        <v>193190.0937378391</v>
       </c>
       <c r="L24">
-        <v>265560</v>
+        <v>258165</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1683,40 +1683,40 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>5998.560869061965</v>
+        <v>6253.123520114856</v>
       </c>
       <c r="B25">
-        <v>62502.94807622077</v>
+        <v>59944.19627209938</v>
       </c>
       <c r="C25">
-        <v>68501.50894528274</v>
+        <v>66197.31979221423</v>
       </c>
       <c r="D25">
-        <v>420278.3547621391</v>
+        <v>410018.8199954789</v>
       </c>
       <c r="E25">
-        <v>589173.6357145816</v>
+        <v>609521.8110609988</v>
       </c>
       <c r="F25">
-        <v>66037.73267623103</v>
+        <v>65927.44595152736</v>
       </c>
       <c r="G25">
-        <v>354240.622085908</v>
+        <v>344091.3740439515</v>
       </c>
       <c r="H25">
-        <v>336861.1050927058</v>
+        <v>346946.7578740506</v>
       </c>
       <c r="I25">
-        <v>252312.5306218758</v>
+        <v>262575.0531869482</v>
       </c>
       <c r="J25">
-        <v>4824874.615367969</v>
+        <v>4915317.124156529</v>
       </c>
       <c r="K25">
-        <v>167766.3026257479</v>
+        <v>167766.0990059668</v>
       </c>
       <c r="L25">
-        <v>230248</v>
+        <v>224354</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1737,40 +1737,40 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4290.112203199387</v>
+        <v>4609.893913683927</v>
       </c>
       <c r="B26">
-        <v>43379.18846464048</v>
+        <v>44020.33388071758</v>
       </c>
       <c r="C26">
-        <v>47669.30066783987</v>
+        <v>48630.2277944015</v>
       </c>
       <c r="D26">
-        <v>283214.0808722356</v>
+        <v>284891.7614869481</v>
       </c>
       <c r="E26">
-        <v>421790.6256050662</v>
+        <v>433509.0976339041</v>
       </c>
       <c r="F26">
-        <v>44624.53879657406</v>
+        <v>45260.29255838269</v>
       </c>
       <c r="G26">
-        <v>238589.5420756616</v>
+        <v>239631.4689285654</v>
       </c>
       <c r="H26">
-        <v>241453.4079991085</v>
+        <v>247076.8270999851</v>
       </c>
       <c r="I26">
-        <v>180337.2176059576</v>
+        <v>186432.2705339191</v>
       </c>
       <c r="J26">
-        <v>3407840.581920323</v>
+        <v>3405233.52139974</v>
       </c>
       <c r="K26">
-        <v>117051.1825465586</v>
+        <v>117051.3494826219</v>
       </c>
       <c r="L26">
-        <v>160714</v>
+        <v>156173</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1791,40 +1791,40 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>5545.122579073757</v>
+        <v>4707.110182552485</v>
       </c>
       <c r="B27">
-        <v>52318.70443803992</v>
+        <v>47321.09518725896</v>
       </c>
       <c r="C27">
-        <v>57863.82701711368</v>
+        <v>52028.20536981145</v>
       </c>
       <c r="D27">
-        <v>356769.2635939716</v>
+        <v>347649.3604329582</v>
       </c>
       <c r="E27">
-        <v>520812.4350184979</v>
+        <v>533777.2735693003</v>
       </c>
       <c r="F27">
-        <v>66000.9801323423</v>
+        <v>63499.74593638368</v>
       </c>
       <c r="G27">
-        <v>290768.2834616293</v>
+        <v>284149.6144965745</v>
       </c>
       <c r="H27">
-        <v>298929.7987972234</v>
+        <v>303890.7779755396</v>
       </c>
       <c r="I27">
-        <v>221882.6362212744</v>
+        <v>229886.4955937608</v>
       </c>
       <c r="J27">
-        <v>4247331.238240396</v>
+        <v>4276583.351881478</v>
       </c>
       <c r="K27">
-        <v>146864.7623039102</v>
+        <v>146864.9801130463</v>
       </c>
       <c r="L27">
-        <v>201376</v>
+        <v>196192</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1845,40 +1845,40 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>5882.359329371779</v>
+        <v>5453.794657310302</v>
       </c>
       <c r="B28">
-        <v>57038.05076273626</v>
+        <v>59399.68589559822</v>
       </c>
       <c r="C28">
-        <v>62920.41009210803</v>
+        <v>64853.48055290853</v>
       </c>
       <c r="D28">
-        <v>406878.4708014559</v>
+        <v>406416.6784132963</v>
       </c>
       <c r="E28">
-        <v>606035.1433265599</v>
+        <v>604967.3966432936</v>
       </c>
       <c r="F28">
-        <v>75902.3726530405</v>
+        <v>75700.54831617061</v>
       </c>
       <c r="G28">
-        <v>330976.0981484154</v>
+        <v>330716.1300971257</v>
       </c>
       <c r="H28">
-        <v>345604.3163810152</v>
+        <v>347850.7120607037</v>
       </c>
       <c r="I28">
-        <v>260430.8269455447</v>
+        <v>257116.6845825899</v>
       </c>
       <c r="J28">
-        <v>5008841.226703781</v>
+        <v>4963940.846895392</v>
       </c>
       <c r="K28">
-        <v>171178.9433230655</v>
+        <v>171179.2678339413</v>
       </c>
       <c r="L28">
-        <v>234891</v>
+        <v>228751</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1899,40 +1899,40 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>4136.619748120881</v>
+        <v>3342.740324172964</v>
       </c>
       <c r="B29">
-        <v>39158.33482906105</v>
+        <v>36812.11256210764</v>
       </c>
       <c r="C29">
-        <v>43294.95457718193</v>
+        <v>40154.8528862806</v>
       </c>
       <c r="D29">
-        <v>258081.4938158561</v>
+        <v>251466.8844112642</v>
       </c>
       <c r="E29">
-        <v>382995.2943322739</v>
+        <v>380836.1689741109</v>
       </c>
       <c r="F29">
-        <v>48575.43813149726</v>
+        <v>46164.50479299113</v>
       </c>
       <c r="G29">
-        <v>209506.0556843588</v>
+        <v>205302.379618273</v>
       </c>
       <c r="H29">
-        <v>217225.0115395598</v>
+        <v>218628.1146183774</v>
       </c>
       <c r="I29">
-        <v>165770.2827927141</v>
+        <v>162208.0543557335</v>
       </c>
       <c r="J29">
-        <v>3030092.125299182</v>
+        <v>3039942.050395857</v>
       </c>
       <c r="K29">
-        <v>104633.8850718943</v>
+        <v>104633.6703950779</v>
       </c>
       <c r="L29">
-        <v>143489</v>
+        <v>139840</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1953,40 +1953,40 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1943.039820575527</v>
+        <v>1766.997835073449</v>
       </c>
       <c r="B30">
-        <v>18903.94674485988</v>
+        <v>18997.36354379999</v>
       </c>
       <c r="C30">
-        <v>20846.9865654354</v>
+        <v>20764.36137887344</v>
       </c>
       <c r="D30">
-        <v>125845.6262538167</v>
+        <v>125960.843290916</v>
       </c>
       <c r="E30">
-        <v>187230.4452911272</v>
+        <v>184310.0800180784</v>
       </c>
       <c r="F30">
-        <v>23968.06086753711</v>
+        <v>23113.980125807</v>
       </c>
       <c r="G30">
-        <v>101877.5653862796</v>
+        <v>102846.863165109</v>
       </c>
       <c r="H30">
-        <v>107447.4282389487</v>
+        <v>105133.5645748216</v>
       </c>
       <c r="I30">
-        <v>79783.01705217855</v>
+        <v>79176.51544325688</v>
       </c>
       <c r="J30">
-        <v>1495477.242624306</v>
+        <v>1514400.266733244</v>
       </c>
       <c r="K30">
-        <v>52081.03210777081</v>
+        <v>52080.73831223442</v>
       </c>
       <c r="L30">
-        <v>71337</v>
+        <v>69567</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2007,40 +2007,40 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1405.46402883915</v>
+        <v>1273.049893856147</v>
       </c>
       <c r="B31">
-        <v>14063.51701163321</v>
+        <v>13597.03494026486</v>
       </c>
       <c r="C31">
-        <v>15468.98104047236</v>
+        <v>14870.08483412101</v>
       </c>
       <c r="D31">
-        <v>92096.33553035924</v>
+        <v>94110.08847516704</v>
       </c>
       <c r="E31">
-        <v>139314.580598154</v>
+        <v>135012.3853797503</v>
       </c>
       <c r="F31">
-        <v>17374.22942216094</v>
+        <v>17956.32506048167</v>
       </c>
       <c r="G31">
-        <v>74722.10610819829</v>
+        <v>76153.76341468537</v>
       </c>
       <c r="H31">
-        <v>79378.8634737877</v>
+        <v>77154.90333628115</v>
       </c>
       <c r="I31">
-        <v>59935.7171243663</v>
+        <v>57857.48204346918</v>
       </c>
       <c r="J31">
-        <v>1122136.754092302</v>
+        <v>1112554.377296277</v>
       </c>
       <c r="K31">
-        <v>38180.89362239137</v>
+        <v>38180.79680549011</v>
       </c>
       <c r="L31">
-        <v>52406</v>
+        <v>50995</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2064,37 +2064,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>944.2556356409344</v>
+        <v>951.6785607793562</v>
       </c>
       <c r="C32">
-        <v>944.2556356409344</v>
+        <v>951.6785607793562</v>
       </c>
       <c r="D32">
-        <v>5825.580180455943</v>
+        <v>5656.995143641542</v>
       </c>
       <c r="E32">
-        <v>7015.632128098976</v>
+        <v>7026.215144555957</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5825.580180455943</v>
+        <v>5656.995143641542</v>
       </c>
       <c r="H32">
-        <v>3597.884281075099</v>
+        <v>3599.355304150181</v>
       </c>
       <c r="I32">
-        <v>3417.747847023877</v>
+        <v>3426.859840405776</v>
       </c>
       <c r="J32">
-        <v>83959.50192155562</v>
+        <v>84653.24061178537</v>
       </c>
       <c r="K32">
-        <v>2023.815295064659</v>
+        <v>2024.002329360438</v>
       </c>
       <c r="L32">
-        <v>2831</v>
+        <v>2863</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2115,40 +2115,40 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1531.866367158116</v>
+        <v>1590.836272761185</v>
       </c>
       <c r="B33">
-        <v>7140.225262870315</v>
+        <v>7543.987224010326</v>
       </c>
       <c r="C33">
-        <v>8672.091630028432</v>
+        <v>9134.823496771511</v>
       </c>
       <c r="D33">
-        <v>52848.43838744934</v>
+        <v>54275.1463369762</v>
       </c>
       <c r="E33">
-        <v>63430.4383412898</v>
+        <v>63340.24590364638</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>52848.43838744934</v>
+        <v>54275.1463369762</v>
       </c>
       <c r="H33">
-        <v>32450.84086943007</v>
+        <v>32425.81398348213</v>
       </c>
       <c r="I33">
-        <v>30979.59747185974</v>
+        <v>30914.43192016426</v>
       </c>
       <c r="J33">
-        <v>770027.7183330033</v>
+        <v>766974.5769526535</v>
       </c>
       <c r="K33">
-        <v>18523.05873231772</v>
+        <v>18522.80290132631</v>
       </c>
       <c r="L33">
-        <v>25689</v>
+        <v>25945</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2169,40 +2169,40 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>5488.09278893591</v>
+        <v>5380.473924292802</v>
       </c>
       <c r="B34">
-        <v>24172.08727491276</v>
+        <v>25023.05326243677</v>
       </c>
       <c r="C34">
-        <v>29660.18006384867</v>
+        <v>30403.52718672958</v>
       </c>
       <c r="D34">
-        <v>178542.8568818767</v>
+        <v>174530.5636234514</v>
       </c>
       <c r="E34">
-        <v>214003.635628926</v>
+        <v>211969.800096881</v>
       </c>
       <c r="F34">
-        <v>30665.55891202905</v>
+        <v>31248.60124804293</v>
       </c>
       <c r="G34">
-        <v>147877.2979698477</v>
+        <v>143281.9623754084</v>
       </c>
       <c r="H34">
-        <v>108988.7229719671</v>
+        <v>107918.2506385333</v>
       </c>
       <c r="I34">
-        <v>105014.912656959</v>
+        <v>104051.5494583477</v>
       </c>
       <c r="J34">
-        <v>2547113.62347955</v>
+        <v>2547829.484045307</v>
       </c>
       <c r="K34">
-        <v>61493.75311038242</v>
+        <v>61494.23389706734</v>
       </c>
       <c r="L34">
-        <v>84075</v>
+        <v>85001</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2223,40 +2223,40 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>14077.39706837783</v>
+        <v>13661.05778195302</v>
       </c>
       <c r="B35">
-        <v>61127.39735230276</v>
+        <v>62033.76157124366</v>
       </c>
       <c r="C35">
-        <v>75204.79442068058</v>
+        <v>75694.81935319668</v>
       </c>
       <c r="D35">
-        <v>454531.8340498452</v>
+        <v>452404.2363801742</v>
       </c>
       <c r="E35">
-        <v>531718.4104909122</v>
+        <v>547812.2059574232</v>
       </c>
       <c r="F35">
-        <v>79181.03733327291</v>
+        <v>77741.27082337062</v>
       </c>
       <c r="G35">
-        <v>375350.7967165723</v>
+        <v>374662.9655568035</v>
       </c>
       <c r="H35">
-        <v>271610.0094310892</v>
+        <v>277141.3272327557</v>
       </c>
       <c r="I35">
-        <v>260108.4010598231</v>
+        <v>270670.8787246675</v>
       </c>
       <c r="J35">
-        <v>6427758.426462835</v>
+        <v>6443784.397104521</v>
       </c>
       <c r="K35">
-        <v>155264.7168823165</v>
+        <v>155265.3177310182</v>
       </c>
       <c r="L35">
-        <v>212065</v>
+        <v>213972</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>20894.00741079613</v>
+        <v>21903.43994492363</v>
       </c>
       <c r="B36">
-        <v>99690.60630351416</v>
+        <v>94977.61922462177</v>
       </c>
       <c r="C36">
-        <v>120584.6137143103</v>
+        <v>116881.0591695454</v>
       </c>
       <c r="D36">
-        <v>689950.2656534875</v>
+        <v>691337.9145686362</v>
       </c>
       <c r="E36">
-        <v>841107.8633256223</v>
+        <v>822211.5550314214</v>
       </c>
       <c r="F36">
-        <v>116415.9122785796</v>
+        <v>120925.1630426756</v>
       </c>
       <c r="G36">
-        <v>573534.353374908</v>
+        <v>570412.7515259606</v>
       </c>
       <c r="H36">
-        <v>430023.0510035865</v>
+        <v>422543.5365814884</v>
       </c>
       <c r="I36">
-        <v>411084.8123220358</v>
+        <v>399668.018449933</v>
       </c>
       <c r="J36">
-        <v>9886500.185706651</v>
+        <v>9950498.023451788</v>
       </c>
       <c r="K36">
-        <v>238366.7596668016</v>
+        <v>238366.723051878</v>
       </c>
       <c r="L36">
-        <v>325769</v>
+        <v>327894</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2331,40 +2331,40 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>5132.10230480378</v>
+        <v>5852.165043493371</v>
       </c>
       <c r="B37">
-        <v>25414.44668067178</v>
+        <v>24710.24614408204</v>
       </c>
       <c r="C37">
-        <v>30546.54898547555</v>
+        <v>30562.41118757541</v>
       </c>
       <c r="D37">
-        <v>183562.0036745979</v>
+        <v>185235.1911115007</v>
       </c>
       <c r="E37">
-        <v>220834.1579431493</v>
+        <v>213537.3422860563</v>
       </c>
       <c r="F37">
-        <v>32438.37589070614</v>
+        <v>31842.33056477151</v>
       </c>
       <c r="G37">
-        <v>151123.6277838918</v>
+        <v>153392.8605467292</v>
       </c>
       <c r="H37">
-        <v>112827.7977532578</v>
+        <v>108343.2665555915</v>
       </c>
       <c r="I37">
-        <v>108006.3601898915</v>
+        <v>105194.0757304648</v>
       </c>
       <c r="J37">
-        <v>2638795.138745907</v>
+        <v>2637449.965817699</v>
       </c>
       <c r="K37">
-        <v>63837.64764736451</v>
+        <v>63838.18297476326</v>
       </c>
       <c r="L37">
-        <v>87412</v>
+        <v>87940</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -2385,40 +2385,40 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>14530.50288125441</v>
+        <v>14454.43762485785</v>
       </c>
       <c r="B38">
-        <v>67644.67879609908</v>
+        <v>66893.01975406962</v>
       </c>
       <c r="C38">
-        <v>82175.1816773535</v>
+        <v>81347.45737892747</v>
       </c>
       <c r="D38">
-        <v>465058.358850661</v>
+        <v>493215.2497959312</v>
       </c>
       <c r="E38">
-        <v>569994.1767427084</v>
+        <v>587598.8804345648</v>
       </c>
       <c r="F38">
-        <v>80125.23552214833</v>
+        <v>87941.22288497903</v>
       </c>
       <c r="G38">
-        <v>384933.1233285127</v>
+        <v>405274.0269109522</v>
       </c>
       <c r="H38">
-        <v>290329.0692391308</v>
+        <v>297993.2855049661</v>
       </c>
       <c r="I38">
-        <v>279665.1075035776</v>
+        <v>289605.5949295986</v>
       </c>
       <c r="J38">
-        <v>7063533.856692755</v>
+        <v>6972524.585119211</v>
       </c>
       <c r="K38">
-        <v>169119.8245352059</v>
+        <v>169119.9716852585</v>
       </c>
       <c r="L38">
-        <v>231465</v>
+        <v>233304</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -2439,40 +2439,40 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>17425.78763379965</v>
+        <v>17371.93627741836</v>
       </c>
       <c r="B39">
-        <v>78740.64847429068</v>
+        <v>79074.47322673969</v>
       </c>
       <c r="C39">
-        <v>96166.43610809032</v>
+        <v>96446.40950415806</v>
       </c>
       <c r="D39">
-        <v>572552.8241425769</v>
+        <v>583376.8752746591</v>
       </c>
       <c r="E39">
-        <v>702560.1143009467</v>
+        <v>710118.9388732801</v>
       </c>
       <c r="F39">
-        <v>103799.2896211475</v>
+        <v>101792.932932898</v>
       </c>
       <c r="G39">
-        <v>468753.5345214293</v>
+        <v>481583.9423417611</v>
       </c>
       <c r="H39">
-        <v>360114.2414858099</v>
+        <v>364761.32395314</v>
       </c>
       <c r="I39">
-        <v>342445.8728151368</v>
+        <v>345357.6149201401</v>
       </c>
       <c r="J39">
-        <v>8499438.625087436</v>
+        <v>8617330.344847769</v>
       </c>
       <c r="K39">
-        <v>206139.6790746385</v>
+        <v>206140.1727197739</v>
       </c>
       <c r="L39">
-        <v>281709</v>
+        <v>284551</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2493,40 +2493,40 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>8703.676568659834</v>
+        <v>8746.395654616324</v>
       </c>
       <c r="B40">
-        <v>39055.46161838635</v>
+        <v>37516.97663984827</v>
       </c>
       <c r="C40">
-        <v>47759.13818704618</v>
+        <v>46263.37229446459</v>
       </c>
       <c r="D40">
-        <v>285188.34003599</v>
+        <v>282426.1130337023</v>
       </c>
       <c r="E40">
-        <v>344130.3970026388</v>
+        <v>335736.5087066622</v>
       </c>
       <c r="F40">
-        <v>50208.53562085976</v>
+        <v>48766.45314368214</v>
       </c>
       <c r="G40">
-        <v>234979.8044151302</v>
+        <v>233659.6598900202</v>
       </c>
       <c r="H40">
-        <v>173920.0431150086</v>
+        <v>170458.655001831</v>
       </c>
       <c r="I40">
-        <v>170210.3538876302</v>
+        <v>165277.8537048311</v>
       </c>
       <c r="J40">
-        <v>4039868.998109906</v>
+        <v>4064329.489961355</v>
       </c>
       <c r="K40">
-        <v>97788.98139829322</v>
+        <v>97788.67374133007</v>
       </c>
       <c r="L40">
-        <v>133692</v>
+        <v>134677</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -2547,40 +2547,40 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>18104.30588727929</v>
+        <v>17822.47928131609</v>
       </c>
       <c r="B41">
-        <v>81081.3314248322</v>
+        <v>83654.37123108584</v>
       </c>
       <c r="C41">
-        <v>99185.63731211147</v>
+        <v>101476.8505124019</v>
       </c>
       <c r="D41">
-        <v>562761.1374368056</v>
+        <v>573218.9274655926</v>
       </c>
       <c r="E41">
-        <v>672258.3709951156</v>
+        <v>696455.5372079307</v>
       </c>
       <c r="F41">
-        <v>98035.49161535344</v>
+        <v>100960.767997801</v>
       </c>
       <c r="G41">
-        <v>464725.6458214523</v>
+        <v>472258.1594677916</v>
       </c>
       <c r="H41">
-        <v>344559.5178616396</v>
+        <v>354558.8078504788</v>
       </c>
       <c r="I41">
-        <v>327698.853133476</v>
+        <v>341896.7293574519</v>
       </c>
       <c r="J41">
-        <v>8240527.889669326</v>
+        <v>8212664.10575924</v>
       </c>
       <c r="K41">
-        <v>197753.3502103073</v>
+        <v>197752.8332618791</v>
       </c>
       <c r="L41">
-        <v>270052</v>
+        <v>272580</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2601,40 +2601,40 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10820.78019673451</v>
+        <v>10278.13288301258</v>
       </c>
       <c r="B42">
-        <v>45157.14588799377</v>
+        <v>46642.2041209692</v>
       </c>
       <c r="C42">
-        <v>55977.92608472828</v>
+        <v>56920.33700398178</v>
       </c>
       <c r="D42">
-        <v>327517.6900467288</v>
+        <v>329333.2374187961</v>
       </c>
       <c r="E42">
-        <v>389016.8363677987</v>
+        <v>390149.8490808537</v>
       </c>
       <c r="F42">
-        <v>56831.7670659158</v>
+        <v>57607.69425067022</v>
       </c>
       <c r="G42">
-        <v>270685.922980813</v>
+        <v>271725.5431681258</v>
       </c>
       <c r="H42">
-        <v>197937.2495407276</v>
+        <v>200722.4871480992</v>
       </c>
       <c r="I42">
-        <v>191079.5868270711</v>
+        <v>189427.3619327546</v>
       </c>
       <c r="J42">
-        <v>4640319.16584178</v>
+        <v>4677000.552496874</v>
       </c>
       <c r="K42">
-        <v>112252.6674612477</v>
+        <v>112253.100619965</v>
       </c>
       <c r="L42">
-        <v>153414</v>
+        <v>154934</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2658,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>70928.73471364436</v>
+        <v>75618.62320096427</v>
       </c>
       <c r="C43">
-        <v>70928.73471364436</v>
+        <v>75618.62320096427</v>
       </c>
       <c r="D43">
-        <v>436453.8980888533</v>
+        <v>461034.3316642379</v>
       </c>
       <c r="E43">
-        <v>529776.296316415</v>
+        <v>543573.9558834962</v>
       </c>
       <c r="F43">
-        <v>76718.02068680579</v>
+        <v>79659.371138934</v>
       </c>
       <c r="G43">
-        <v>359735.8774020476</v>
+        <v>381374.9605253039</v>
       </c>
       <c r="H43">
-        <v>268415.4787073882</v>
+        <v>275844.032451666</v>
       </c>
       <c r="I43">
-        <v>261360.8176090267</v>
+        <v>267729.9234318301</v>
       </c>
       <c r="J43">
-        <v>6485696.502826007</v>
+        <v>6474767.909022438</v>
       </c>
       <c r="K43">
-        <v>156449.6652265651</v>
+        <v>156449.6943599494</v>
       </c>
       <c r="L43">
-        <v>215819</v>
+        <v>217469</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2712,37 +2712,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>40819.34542673681</v>
+        <v>45985.18014081775</v>
       </c>
       <c r="C44">
-        <v>40819.34542673681</v>
+        <v>45985.18014081775</v>
       </c>
       <c r="D44">
-        <v>274508.3645018446</v>
+        <v>291410.4536980881</v>
       </c>
       <c r="E44">
-        <v>336978.8156423538</v>
+        <v>343663.9169914753</v>
       </c>
       <c r="F44">
-        <v>47393.91371777261</v>
+        <v>50708.79524123002</v>
       </c>
       <c r="G44">
-        <v>227114.450784072</v>
+        <v>240701.658456858</v>
       </c>
       <c r="H44">
-        <v>169648.8539830589</v>
+        <v>174798.3243109119</v>
       </c>
       <c r="I44">
-        <v>167329.961659295</v>
+        <v>168865.5926805635</v>
       </c>
       <c r="J44">
-        <v>4099169.890102336</v>
+        <v>4104145.898127154</v>
       </c>
       <c r="K44">
-        <v>99098.89022045379</v>
+        <v>99098.66602700771</v>
       </c>
       <c r="L44">
-        <v>136707</v>
+        <v>137711</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2766,37 +2766,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>35175.84952273308</v>
+        <v>34274.76989533323</v>
       </c>
       <c r="C45">
-        <v>35175.84952273308</v>
+        <v>34274.76989533323</v>
       </c>
       <c r="D45">
-        <v>210498.2465893337</v>
+        <v>210706.0904183689</v>
       </c>
       <c r="E45">
-        <v>252418.49364325</v>
+        <v>260485.2842769151</v>
       </c>
       <c r="F45">
-        <v>37128.02761866978</v>
+        <v>36984.7926864469</v>
       </c>
       <c r="G45">
-        <v>173370.2189706639</v>
+        <v>173721.297731922</v>
       </c>
       <c r="H45">
-        <v>128933.4882603575</v>
+        <v>131269.1900874376</v>
       </c>
       <c r="I45">
-        <v>123485.0053828925</v>
+        <v>129216.0941894775</v>
       </c>
       <c r="J45">
-        <v>3056554.044011847</v>
+        <v>3073294.076717014</v>
       </c>
       <c r="K45">
-        <v>74158.04003915183</v>
+        <v>74157.85019538502</v>
       </c>
       <c r="L45">
-        <v>102162</v>
+        <v>103164</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2820,37 +2820,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>2393.691287197929</v>
+        <v>2638.075171403617</v>
       </c>
       <c r="C46">
-        <v>2393.691287197929</v>
+        <v>2638.075171403617</v>
       </c>
       <c r="D46">
-        <v>14815.15011790579</v>
+        <v>15308.05649346442</v>
       </c>
       <c r="E46">
-        <v>18150.83803721552</v>
+        <v>18197.37671432708</v>
       </c>
       <c r="F46">
-        <v>2609.941431133803</v>
+        <v>2713.124303149299</v>
       </c>
       <c r="G46">
-        <v>12205.20868677199</v>
+        <v>12594.93219031512</v>
       </c>
       <c r="H46">
-        <v>9289.893966058013</v>
+        <v>9236.073832849683</v>
       </c>
       <c r="I46">
-        <v>8860.944071157506</v>
+        <v>8961.302881477395</v>
       </c>
       <c r="J46">
-        <v>217221.3513098041</v>
+        <v>216541.8426145311</v>
       </c>
       <c r="K46">
-        <v>5226.866622639427</v>
+        <v>5226.761168247699</v>
       </c>
       <c r="L46">
-        <v>7201</v>
+        <v>7269</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2874,37 +2874,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>196265.8454780282</v>
+        <v>189430.4873328942</v>
       </c>
       <c r="C47">
-        <v>196265.8454780282</v>
+        <v>189430.4873328942</v>
       </c>
       <c r="D47">
-        <v>294399.670586039</v>
+        <v>290544.5096227597</v>
       </c>
       <c r="E47">
-        <v>409644.9858827433</v>
+        <v>404907.9518096247</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>294399.670586039</v>
+        <v>290544.5096227597</v>
       </c>
       <c r="H47">
-        <v>245247.0243523819</v>
+        <v>245925.0719535094</v>
       </c>
       <c r="I47">
-        <v>164397.9615303614</v>
+        <v>158982.8798561152</v>
       </c>
       <c r="J47">
-        <v>9385439.906016804</v>
+        <v>9494882.512766883</v>
       </c>
       <c r="K47">
-        <v>165879.0383428782</v>
+        <v>165878.7922306113</v>
       </c>
       <c r="L47">
-        <v>236700</v>
+        <v>243205</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2925,40 +2925,40 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>10143.28239001318</v>
+        <v>10432.14487189471</v>
       </c>
       <c r="B48">
-        <v>118296.9072380673</v>
+        <v>124950.2159118742</v>
       </c>
       <c r="C48">
-        <v>128440.1896280804</v>
+        <v>135382.3607837689</v>
       </c>
       <c r="D48">
-        <v>206284.705613208</v>
+        <v>204951.2149125628</v>
       </c>
       <c r="E48">
-        <v>294150.2975656358</v>
+        <v>281513.177805925</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>206284.705613208</v>
+        <v>204951.2149125628</v>
       </c>
       <c r="H48">
-        <v>174088.032486503</v>
+        <v>167555.2243763676</v>
       </c>
       <c r="I48">
-        <v>120062.2650791327</v>
+        <v>113957.9534295574</v>
       </c>
       <c r="J48">
-        <v>6874998.409492708</v>
+        <v>6869387.056163545</v>
       </c>
       <c r="K48">
-        <v>121112.3328384063</v>
+        <v>121111.7500870378</v>
       </c>
       <c r="L48">
-        <v>171809</v>
+        <v>176044</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2979,40 +2979,40 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>26644.50945445381</v>
+        <v>27645.13700693328</v>
       </c>
       <c r="B49">
-        <v>344578.8042966948</v>
+        <v>327425.2238289675</v>
       </c>
       <c r="C49">
-        <v>371223.3137511486</v>
+        <v>355070.3608359008</v>
       </c>
       <c r="D49">
-        <v>550511.67841631</v>
+        <v>558715.4915373444</v>
       </c>
       <c r="E49">
-        <v>782643.4296192753</v>
+        <v>761162.1568750471</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>550511.67841631</v>
+        <v>558715.4915373444</v>
       </c>
       <c r="H49">
-        <v>471366.8309262802</v>
+        <v>459371.7447641778</v>
       </c>
       <c r="I49">
-        <v>311276.5986929951</v>
+        <v>301790.4121108693</v>
       </c>
       <c r="J49">
-        <v>18633209.62778556</v>
+        <v>18433658.34209418</v>
       </c>
       <c r="K49">
-        <v>325761.0935766276</v>
+        <v>325760.8155294545</v>
       </c>
       <c r="L49">
-        <v>463307</v>
+        <v>473155</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3033,40 +3033,40 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>26634.27294666319</v>
+        <v>27324.06771687009</v>
       </c>
       <c r="B50">
-        <v>342992.7817627527</v>
+        <v>339778.0491471445</v>
       </c>
       <c r="C50">
-        <v>369627.0547094159</v>
+        <v>367102.1168640146</v>
       </c>
       <c r="D50">
-        <v>604531.5014992356</v>
+        <v>558274.3672947567</v>
       </c>
       <c r="E50">
-        <v>829345.4428890168</v>
+        <v>797008.9348515468</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>604531.5014992356</v>
+        <v>558274.3672947567</v>
       </c>
       <c r="H50">
-        <v>495747.0180023643</v>
+        <v>478355.5703986037</v>
       </c>
       <c r="I50">
-        <v>333598.4248866525</v>
+        <v>318653.3644529431</v>
       </c>
       <c r="J50">
-        <v>18756938.83864665</v>
+        <v>18606456.20049358</v>
       </c>
       <c r="K50">
-        <v>328834.2363894412</v>
+        <v>328834.076674045</v>
       </c>
       <c r="L50">
-        <v>467052</v>
+        <v>477777</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3087,40 +3087,40 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>34235.81914260632</v>
+        <v>33226.04597858474</v>
       </c>
       <c r="B51">
-        <v>424636.5396106254</v>
+        <v>408116.4906458915</v>
       </c>
       <c r="C51">
-        <v>458872.3587532316</v>
+        <v>441342.5366244762</v>
       </c>
       <c r="D51">
-        <v>658783.2812160376</v>
+        <v>725066.1984990701</v>
       </c>
       <c r="E51">
-        <v>944883.0663754147</v>
+        <v>924408.6868658115</v>
       </c>
       <c r="F51">
-        <v>86425.46140927506</v>
+        <v>91985.94625512895</v>
       </c>
       <c r="G51">
-        <v>572357.8198067625</v>
+        <v>633080.2522439412</v>
       </c>
       <c r="H51">
-        <v>564735.2399370364</v>
+        <v>557412.0137037446</v>
       </c>
       <c r="I51">
-        <v>380147.8264383784</v>
+        <v>366996.6731620669</v>
       </c>
       <c r="J51">
-        <v>22480148.10860691</v>
+        <v>22504226.28270859</v>
       </c>
       <c r="K51">
-        <v>392265.2116653653</v>
+        <v>392265.3087800683</v>
       </c>
       <c r="L51">
-        <v>552316</v>
+        <v>565975</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -3141,40 +3141,40 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>24871.44217624019</v>
+        <v>25017.25047517816</v>
       </c>
       <c r="B52">
-        <v>299378.4315759923</v>
+        <v>295442.800539861</v>
       </c>
       <c r="C52">
-        <v>324249.8737522325</v>
+        <v>320460.0510150391</v>
       </c>
       <c r="D52">
-        <v>492576.54782495</v>
+        <v>521776.3185196532</v>
       </c>
       <c r="E52">
-        <v>689111.816389975</v>
+        <v>692435.7859444121</v>
       </c>
       <c r="F52">
-        <v>63412.48895684638</v>
+        <v>67566.51239599116</v>
       </c>
       <c r="G52">
-        <v>429164.0588681036</v>
+        <v>454209.806123662</v>
       </c>
       <c r="H52">
-        <v>413426.6526663207</v>
+        <v>409217.1298497908</v>
       </c>
       <c r="I52">
-        <v>275685.1637236543</v>
+        <v>283218.6560946212</v>
       </c>
       <c r="J52">
-        <v>16069021.39803618</v>
+        <v>16058674.10814833</v>
       </c>
       <c r="K52">
-        <v>281796.2561816134</v>
+        <v>281795.7237609364</v>
       </c>
       <c r="L52">
-        <v>395723</v>
+        <v>407024</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>25811.79534964445</v>
+        <v>26167.13603702042</v>
       </c>
       <c r="B53">
-        <v>335519.0066649346</v>
+        <v>325099.2502656016</v>
       </c>
       <c r="C53">
-        <v>361330.8020145791</v>
+        <v>351266.386302622</v>
       </c>
       <c r="D53">
-        <v>559875.3224479744</v>
+        <v>579392.5154674881</v>
       </c>
       <c r="E53">
-        <v>785033.1427533708</v>
+        <v>738981.3054458214</v>
       </c>
       <c r="F53">
-        <v>70498.26736052982</v>
+        <v>73018.76060327383</v>
       </c>
       <c r="G53">
-        <v>489377.0550874445</v>
+        <v>506373.7548642142</v>
       </c>
       <c r="H53">
-        <v>465153.6301531718</v>
+        <v>445307.4830612743</v>
       </c>
       <c r="I53">
-        <v>319879.512600199</v>
+        <v>293673.8223845471</v>
       </c>
       <c r="J53">
-        <v>17494957.176326</v>
+        <v>17856422.27867446</v>
       </c>
       <c r="K53">
-        <v>310510.9601186054</v>
+        <v>310510.9848069422</v>
       </c>
       <c r="L53">
-        <v>435665</v>
+        <v>448782</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3249,40 +3249,40 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>49859.57109274459</v>
+        <v>48539.04086461842</v>
       </c>
       <c r="B54">
-        <v>624007.8947681668</v>
+        <v>582812.8008770896</v>
       </c>
       <c r="C54">
-        <v>673867.4658609114</v>
+        <v>631351.841741708</v>
       </c>
       <c r="D54">
-        <v>1014565.431141373</v>
+        <v>1012837.321718302</v>
       </c>
       <c r="E54">
-        <v>1336737.417666664</v>
+        <v>1404733.84635485</v>
       </c>
       <c r="F54">
-        <v>130757.5806647167</v>
+        <v>134439.3890072068</v>
       </c>
       <c r="G54">
-        <v>883807.8504766562</v>
+        <v>878397.9327110952</v>
       </c>
       <c r="H54">
-        <v>798511.4657981659</v>
+        <v>840747.3640344574</v>
       </c>
       <c r="I54">
-        <v>538225.9518684977</v>
+        <v>563986.4823203927</v>
       </c>
       <c r="J54">
-        <v>31966758.98739453</v>
+        <v>32608225.07763005</v>
       </c>
       <c r="K54">
-        <v>570649.1373087891</v>
+        <v>570648.8633946073</v>
       </c>
       <c r="L54">
-        <v>800250</v>
+        <v>821778</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -3303,40 +3303,40 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>49141.82321989418</v>
+        <v>49038.66700224586</v>
       </c>
       <c r="B55">
-        <v>646201.1429115419</v>
+        <v>648449.2198915168</v>
       </c>
       <c r="C55">
-        <v>695342.9661314361</v>
+        <v>697487.8868937626</v>
       </c>
       <c r="D55">
-        <v>1128620.08883797</v>
+        <v>1135550.041244653</v>
       </c>
       <c r="E55">
-        <v>1530265.885833999</v>
+        <v>1501638.13345772</v>
       </c>
       <c r="F55">
-        <v>143521.8125669634</v>
+        <v>150940.2606065099</v>
       </c>
       <c r="G55">
-        <v>985098.2762710066</v>
+        <v>984609.7806381432</v>
       </c>
       <c r="H55">
-        <v>918719.2834318872</v>
+        <v>901901.2103243</v>
       </c>
       <c r="I55">
-        <v>611546.6024021119</v>
+        <v>599736.9231334199</v>
       </c>
       <c r="J55">
-        <v>36275354.47245824</v>
+        <v>35619189.48930364</v>
       </c>
       <c r="K55">
-        <v>638666.0903858978</v>
+        <v>638665.8194333718</v>
       </c>
       <c r="L55">
-        <v>898716</v>
+        <v>918880</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -3357,40 +3357,40 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>38101.53199008752</v>
+        <v>33649.65670167381</v>
       </c>
       <c r="B56">
-        <v>441146.7861446845</v>
+        <v>430403.9463494722</v>
       </c>
       <c r="C56">
-        <v>479248.3181347721</v>
+        <v>464053.603051146</v>
       </c>
       <c r="D56">
-        <v>736454.796587719</v>
+        <v>753661.2681642624</v>
       </c>
       <c r="E56">
-        <v>1003736.050884589</v>
+        <v>1003834.032009056</v>
       </c>
       <c r="F56">
-        <v>105023.5497777792</v>
+        <v>107566.837584498</v>
       </c>
       <c r="G56">
-        <v>631431.2468099399</v>
+        <v>646094.4305797644</v>
       </c>
       <c r="H56">
-        <v>601692.2916314972</v>
+        <v>596154.1754817679</v>
       </c>
       <c r="I56">
-        <v>402043.7592530916</v>
+        <v>407679.8565272877</v>
       </c>
       <c r="J56">
-        <v>23274369.69273587</v>
+        <v>23397023.09168959</v>
       </c>
       <c r="K56">
-        <v>412477.9950342068</v>
+        <v>412477.8812716247</v>
       </c>
       <c r="L56">
-        <v>579380</v>
+        <v>594244</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3411,40 +3411,40 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>53858.08809203858</v>
+        <v>49385.56197315274</v>
       </c>
       <c r="B57">
-        <v>671059.3003814484</v>
+        <v>645255.8540701056</v>
       </c>
       <c r="C57">
-        <v>724917.388473487</v>
+        <v>694641.4160432583</v>
       </c>
       <c r="D57">
-        <v>1164326.772067187</v>
+        <v>1110904.489583411</v>
       </c>
       <c r="E57">
-        <v>1498138.473057799</v>
+        <v>1510695.4971134</v>
       </c>
       <c r="F57">
-        <v>166654.181462724</v>
+        <v>160268.4415323863</v>
       </c>
       <c r="G57">
-        <v>997672.5906044628</v>
+        <v>950636.0480510251</v>
       </c>
       <c r="H57">
-        <v>900652.842406436</v>
+        <v>898737.1889608057</v>
       </c>
       <c r="I57">
-        <v>597485.6306513631</v>
+        <v>611958.308152594</v>
       </c>
       <c r="J57">
-        <v>35131006.57156987</v>
+        <v>35214370.26926891</v>
       </c>
       <c r="K57">
-        <v>619089.9347633447</v>
+        <v>619090.2760155731</v>
       </c>
       <c r="L57">
-        <v>869199</v>
+        <v>891377</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -3468,37 +3468,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>217166.9552662357</v>
+        <v>233167.6652856233</v>
       </c>
       <c r="C58">
-        <v>217166.9552662357</v>
+        <v>233167.6652856233</v>
       </c>
       <c r="D58">
-        <v>356958.9328906086</v>
+        <v>355019.6866572227</v>
       </c>
       <c r="E58">
-        <v>473111.5254511138</v>
+        <v>488404.572951117</v>
       </c>
       <c r="F58">
-        <v>51362.71521091515</v>
+        <v>51268.38845399961</v>
       </c>
       <c r="G58">
-        <v>305596.2176796934</v>
+        <v>303751.2982032232</v>
       </c>
       <c r="H58">
-        <v>281602.8408124426</v>
+        <v>293547.5990877404</v>
       </c>
       <c r="I58">
-        <v>191508.6846386712</v>
+        <v>194856.9738633766</v>
       </c>
       <c r="J58">
-        <v>11376713.10633587</v>
+        <v>11284586.69624831</v>
       </c>
       <c r="K58">
-        <v>199387.7150254097</v>
+        <v>199388.2680267862</v>
       </c>
       <c r="L58">
-        <v>282742</v>
+        <v>289122</v>
       </c>
       <c r="M58">
         <v>1</v>
@@ -3522,37 +3522,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>130446.7051774039</v>
+        <v>124685.379271115</v>
       </c>
       <c r="C59">
-        <v>130446.7051774039</v>
+        <v>124685.379271115</v>
       </c>
       <c r="D59">
-        <v>195515.2865905815</v>
+        <v>202534.6411172897</v>
       </c>
       <c r="E59">
-        <v>269384.2474832483</v>
+        <v>260857.2854445394</v>
       </c>
       <c r="F59">
-        <v>28736.2884930838</v>
+        <v>29346.02327561558</v>
       </c>
       <c r="G59">
-        <v>166778.9980974977</v>
+        <v>173188.6178416741</v>
       </c>
       <c r="H59">
-        <v>161704.6517879748</v>
+        <v>155347.8996290727</v>
       </c>
       <c r="I59">
-        <v>107679.5956952735</v>
+        <v>105509.3858154668</v>
       </c>
       <c r="J59">
-        <v>6472704.302738504</v>
+        <v>6423038.188506326</v>
       </c>
       <c r="K59">
-        <v>113273.021394838</v>
+        <v>113272.9014983102</v>
       </c>
       <c r="L59">
-        <v>160543</v>
+        <v>164611</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3576,37 +3576,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>201175.1461579296</v>
+        <v>200952.5544388876</v>
       </c>
       <c r="C60">
-        <v>201175.1461579296</v>
+        <v>200952.5544388876</v>
       </c>
       <c r="D60">
-        <v>305351.4885348665</v>
+        <v>316755.2282980141</v>
       </c>
       <c r="E60">
-        <v>436683.990563858</v>
+        <v>424180.4697723041</v>
       </c>
       <c r="F60">
-        <v>44035.39111104391</v>
+        <v>44706.42508632085</v>
       </c>
       <c r="G60">
-        <v>261316.0974238226</v>
+        <v>272048.8032116933</v>
       </c>
       <c r="H60">
-        <v>259687.4133395894</v>
+        <v>252322.0146994281</v>
       </c>
       <c r="I60">
-        <v>176996.5772242686</v>
+        <v>171858.455072876</v>
       </c>
       <c r="J60">
-        <v>9976643.975943487</v>
+        <v>9954128.821486454</v>
       </c>
       <c r="K60">
-        <v>175786.1272291686</v>
+        <v>175786.2556877953</v>
       </c>
       <c r="L60">
-        <v>248823</v>
+        <v>254922</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3630,37 +3630,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>98454.16408104938</v>
+        <v>104965.4362424566</v>
       </c>
       <c r="C61">
-        <v>98454.16408104938</v>
+        <v>104965.4362424566</v>
       </c>
       <c r="D61">
-        <v>154957.252578601</v>
+        <v>156576.8521417861</v>
       </c>
       <c r="E61">
-        <v>203272.1165178038</v>
+        <v>205860.7777621341</v>
       </c>
       <c r="F61">
-        <v>22153.91924839627</v>
+        <v>21759.8636646085</v>
       </c>
       <c r="G61">
-        <v>132803.3333302047</v>
+        <v>134816.9884771776</v>
       </c>
       <c r="H61">
-        <v>122877.6371021953</v>
+        <v>123527.1321885847</v>
       </c>
       <c r="I61">
-        <v>80394.47941560856</v>
+        <v>82333.64557354935</v>
       </c>
       <c r="J61">
-        <v>4993981.123980829</v>
+        <v>4980019.358318056</v>
       </c>
       <c r="K61">
-        <v>86886.89569063715</v>
+        <v>86886.76151953651</v>
       </c>
       <c r="L61">
-        <v>123212</v>
+        <v>126220</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -3684,37 +3684,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>7267.53218787376</v>
+        <v>6775.349191781568</v>
       </c>
       <c r="C62">
-        <v>7267.53218787376</v>
+        <v>6775.349191781568</v>
       </c>
       <c r="D62">
-        <v>11321.25339008068</v>
+        <v>10855.89040015082</v>
       </c>
       <c r="E62">
-        <v>14643.34477410463</v>
+        <v>15071.44712117204</v>
       </c>
       <c r="F62">
-        <v>1578.05356074088</v>
+        <v>1537.563384517143</v>
       </c>
       <c r="G62">
-        <v>9743.199829339805</v>
+        <v>9318.327015633678</v>
       </c>
       <c r="H62">
-        <v>8703.808953253896</v>
+        <v>9059.193249769236</v>
       </c>
       <c r="I62">
-        <v>5939.535820850736</v>
+        <v>6012.253871402807</v>
       </c>
       <c r="J62">
-        <v>351779.4761791306</v>
+        <v>350811.1058989688</v>
       </c>
       <c r="K62">
-        <v>6204.099249705569</v>
+        <v>6203.738129940775</v>
       </c>
       <c r="L62">
-        <v>8778</v>
+        <v>9015</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -3738,37 +3738,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>2918.90107314992</v>
+        <v>2831.224959895017</v>
       </c>
       <c r="C63">
-        <v>2918.90107314992</v>
+        <v>2831.224959895017</v>
       </c>
       <c r="D63">
-        <v>4291.380808580448</v>
+        <v>4227.972065594051</v>
       </c>
       <c r="E63">
-        <v>6168.470711292944</v>
+        <v>5728.659476505953</v>
       </c>
       <c r="F63">
-        <v>618.222876215368</v>
+        <v>609.4960326983091</v>
       </c>
       <c r="G63">
-        <v>3673.157932365079</v>
+        <v>3618.476032895741</v>
       </c>
       <c r="H63">
-        <v>3653.729762371975</v>
+        <v>3392.821730437796</v>
       </c>
       <c r="I63">
-        <v>2514.740948920969</v>
+        <v>2335.837746068156</v>
       </c>
       <c r="J63">
-        <v>143446.9687739518</v>
+        <v>141970.7934865894</v>
       </c>
       <c r="K63">
-        <v>2506.158654997527</v>
+        <v>2506.273860687691</v>
       </c>
       <c r="L63">
-        <v>3560</v>
+        <v>3639</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3792,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>4645.449836433558</v>
+        <v>4834.166432900625</v>
       </c>
       <c r="C64">
-        <v>4645.449836433558</v>
+        <v>4834.166432900625</v>
       </c>
       <c r="D64">
-        <v>3619.523474097454</v>
+        <v>3689.262778076935</v>
       </c>
       <c r="E64">
-        <v>96.30387974693004</v>
+        <v>89.87941257567287</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3619.523474097454</v>
+        <v>3689.262778076935</v>
       </c>
       <c r="H64">
-        <v>42.94794173498772</v>
+        <v>44.91646242228279</v>
       </c>
       <c r="I64">
-        <v>53.35593801194231</v>
+        <v>44.96295015339009</v>
       </c>
       <c r="J64">
-        <v>106889.4840644418</v>
+        <v>106444.0793641881</v>
       </c>
       <c r="K64">
-        <v>1878.976850132271</v>
+        <v>1879.057755583952</v>
       </c>
       <c r="L64">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3846,37 +3846,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>48657.81499983739</v>
+        <v>49152.38357584937</v>
       </c>
       <c r="C65">
-        <v>48657.81499983739</v>
+        <v>49152.38357584937</v>
       </c>
       <c r="D65">
-        <v>37212.79962733805</v>
+        <v>37058.92318572517</v>
       </c>
       <c r="E65">
-        <v>1092.057991245227</v>
+        <v>1033.798338955415</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>37212.79962733805</v>
+        <v>37058.92318572517</v>
       </c>
       <c r="H65">
-        <v>530.8300452162418</v>
+        <v>451.071783028916</v>
       </c>
       <c r="I65">
-        <v>561.2279460289857</v>
+        <v>582.7265559264993</v>
       </c>
       <c r="J65">
-        <v>1103031.574194291</v>
+        <v>1115451.177432683</v>
       </c>
       <c r="K65">
-        <v>19681.78110988449</v>
+        <v>19681.73148537484</v>
       </c>
       <c r="L65">
-        <v>28690</v>
+        <v>28793</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -3900,37 +3900,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>54781.19725887398</v>
+        <v>51290.7744908307</v>
       </c>
       <c r="C66">
-        <v>54781.19725887398</v>
+        <v>51290.7744908307</v>
       </c>
       <c r="D66">
-        <v>41979.44371784542</v>
+        <v>40431.07461660234</v>
       </c>
       <c r="E66">
-        <v>1367.315952751806</v>
+        <v>783.7917678757245</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>41979.44371784542</v>
+        <v>40431.07461660234</v>
       </c>
       <c r="H66">
-        <v>627.6579147025921</v>
+        <v>390.8303101104044</v>
       </c>
       <c r="I66">
-        <v>739.6580380492143</v>
+        <v>392.9614577653201</v>
       </c>
       <c r="J66">
-        <v>1194926.424010591</v>
+        <v>1213331.383134059</v>
       </c>
       <c r="K66">
-        <v>21219.28713240351</v>
+        <v>21219.31997124381</v>
       </c>
       <c r="L66">
-        <v>30944</v>
+        <v>31047</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3951,40 +3951,40 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>90661.53885454113</v>
+        <v>86820.2190715006</v>
       </c>
       <c r="B67">
-        <v>602517.6169922441</v>
+        <v>618430.4033719634</v>
       </c>
       <c r="C67">
-        <v>693179.1558467853</v>
+        <v>705250.622443464</v>
       </c>
       <c r="D67">
-        <v>558920.1610555851</v>
+        <v>538517.5629213798</v>
       </c>
       <c r="E67">
-        <v>22142.02336279</v>
+        <v>11646.11829971177</v>
       </c>
       <c r="F67">
-        <v>198923.5702909193</v>
+        <v>194572.7107541005</v>
       </c>
       <c r="G67">
-        <v>359996.5907646659</v>
+        <v>343944.8521672794</v>
       </c>
       <c r="H67">
-        <v>11340.75975373834</v>
+        <v>5713.195996739079</v>
       </c>
       <c r="I67">
-        <v>10801.26360905166</v>
+        <v>5932.92230297269</v>
       </c>
       <c r="J67">
-        <v>15825346.85432031</v>
+        <v>15556579.99536693</v>
       </c>
       <c r="K67">
-        <v>279227.9380180825</v>
+        <v>279228.2736136247</v>
       </c>
       <c r="L67">
-        <v>389412</v>
+        <v>388889</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -4005,40 +4005,40 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>91992.04906228813</v>
+        <v>93749.54453858598</v>
       </c>
       <c r="B68">
-        <v>623967.6352975977</v>
+        <v>635592.8424902002</v>
       </c>
       <c r="C68">
-        <v>715959.6843598859</v>
+        <v>729342.3870287861</v>
       </c>
       <c r="D68">
-        <v>593114.9659582201</v>
+        <v>596745.3532139299</v>
       </c>
       <c r="E68">
-        <v>19031.93415449158</v>
+        <v>17195.03752676765</v>
       </c>
       <c r="F68">
-        <v>212925.4708719182</v>
+        <v>216453.9485223661</v>
       </c>
       <c r="G68">
-        <v>380189.4950863019</v>
+        <v>380291.4046915638</v>
       </c>
       <c r="H68">
-        <v>8608.05633367564</v>
+        <v>8062.808092629729</v>
       </c>
       <c r="I68">
-        <v>10423.87782081594</v>
+        <v>9132.229434137917</v>
       </c>
       <c r="J68">
-        <v>17026041.66261474</v>
+        <v>17115829.46639357</v>
       </c>
       <c r="K68">
-        <v>299792.2477645612</v>
+        <v>299791.6447637008</v>
       </c>
       <c r="L68">
-        <v>419825</v>
+        <v>418135</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4059,40 +4059,40 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>216668.1155821296</v>
+        <v>201874.4082796844</v>
       </c>
       <c r="B69">
-        <v>1476459.057899918</v>
+        <v>1442472.735824537</v>
       </c>
       <c r="C69">
-        <v>1693127.173482048</v>
+        <v>1644347.144104221</v>
       </c>
       <c r="D69">
-        <v>1338772.066868733</v>
+        <v>1288492.305503652</v>
       </c>
       <c r="E69">
-        <v>40653.64789692361</v>
+        <v>51208.4184050141</v>
       </c>
       <c r="F69">
-        <v>490658.2926606455</v>
+        <v>470382.9882781448</v>
       </c>
       <c r="G69">
-        <v>848113.7742080876</v>
+        <v>818109.3172255075</v>
       </c>
       <c r="H69">
-        <v>21431.68495411876</v>
+        <v>24085.36265386371</v>
       </c>
       <c r="I69">
-        <v>19221.96294280485</v>
+        <v>27123.0557511504</v>
       </c>
       <c r="J69">
-        <v>37532054.27148682</v>
+        <v>37498799.21007225</v>
       </c>
       <c r="K69">
-        <v>665261.9652730605</v>
+        <v>665262.2034033429</v>
       </c>
       <c r="L69">
-        <v>927043</v>
+        <v>925110</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4113,40 +4113,40 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>177577.8816730073</v>
+        <v>184953.8386040737</v>
       </c>
       <c r="B70">
-        <v>1256136.922913139</v>
+        <v>1307067.256715969</v>
       </c>
       <c r="C70">
-        <v>1433714.804586146</v>
+        <v>1492021.095320042</v>
       </c>
       <c r="D70">
-        <v>1089706.619391149</v>
+        <v>1018223.638644423</v>
       </c>
       <c r="E70">
-        <v>36844.56079672119</v>
+        <v>27238.31476965304</v>
       </c>
       <c r="F70">
-        <v>194223.6077659332</v>
+        <v>188830.1740510587</v>
       </c>
       <c r="G70">
-        <v>895483.0116252161</v>
+        <v>829393.464593364</v>
       </c>
       <c r="H70">
-        <v>17853.89803452566</v>
+        <v>13995.44518883124</v>
       </c>
       <c r="I70">
-        <v>18990.66276219553</v>
+        <v>13242.86958082179</v>
       </c>
       <c r="J70">
-        <v>32152653.07953204</v>
+        <v>32230717.22487441</v>
       </c>
       <c r="K70">
-        <v>572384.7341975401</v>
+        <v>572385.2958582243</v>
       </c>
       <c r="L70">
-        <v>804959</v>
+        <v>799388</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4167,40 +4167,40 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>265603.1164588942</v>
+        <v>266706.5730148744</v>
       </c>
       <c r="B71">
-        <v>1836921.869949026</v>
+        <v>1861977.814676767</v>
       </c>
       <c r="C71">
-        <v>2102524.98640792</v>
+        <v>2128684.387691641</v>
       </c>
       <c r="D71">
-        <v>1592379.101157172</v>
+        <v>1552872.075928421</v>
       </c>
       <c r="E71">
-        <v>31498.18106402968</v>
+        <v>41139.57903776703</v>
       </c>
       <c r="F71">
-        <v>286669.2381538657</v>
+        <v>274002.0117792116</v>
       </c>
       <c r="G71">
-        <v>1305709.863003306</v>
+        <v>1278870.064149209</v>
       </c>
       <c r="H71">
-        <v>14994.86072078881</v>
+        <v>19085.19773161248</v>
       </c>
       <c r="I71">
-        <v>16503.32034324086</v>
+        <v>22054.38130615456</v>
       </c>
       <c r="J71">
-        <v>47434752.66549287</v>
+        <v>46774504.1105635</v>
       </c>
       <c r="K71">
-        <v>833640.6862138499</v>
+        <v>833640.9632232774</v>
       </c>
       <c r="L71">
-        <v>1172124</v>
+        <v>1166934</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -4221,40 +4221,40 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>211986.0143418855</v>
+        <v>218303.3046916776</v>
       </c>
       <c r="B72">
-        <v>1426558.538620907</v>
+        <v>1498564.438216407</v>
       </c>
       <c r="C72">
-        <v>1638544.552962793</v>
+        <v>1716867.742908085</v>
       </c>
       <c r="D72">
-        <v>1325380.568696275</v>
+        <v>1230788.128326643</v>
       </c>
       <c r="E72">
-        <v>36092.07440078614</v>
+        <v>26409.50365540807</v>
       </c>
       <c r="F72">
-        <v>231717.1629400282</v>
+        <v>225335.4232797461</v>
       </c>
       <c r="G72">
-        <v>1093663.405756247</v>
+        <v>1005452.705046897</v>
       </c>
       <c r="H72">
-        <v>16664.201243123</v>
+        <v>13418.33671888829</v>
       </c>
       <c r="I72">
-        <v>19427.87315766314</v>
+        <v>12991.16693651978</v>
       </c>
       <c r="J72">
-        <v>38250163.36199152</v>
+        <v>38216321.94111899</v>
       </c>
       <c r="K72">
-        <v>679393.1078450964</v>
+        <v>679393.1460355222</v>
       </c>
       <c r="L72">
-        <v>952480</v>
+        <v>949528</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4275,40 +4275,40 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>120747.0817080865</v>
+        <v>127894.8240990668</v>
       </c>
       <c r="B73">
-        <v>834995.1651637242</v>
+        <v>882589.7437653351</v>
       </c>
       <c r="C73">
-        <v>955742.2468718106</v>
+        <v>1010484.567864402</v>
       </c>
       <c r="D73">
-        <v>727758.6490563889</v>
+        <v>728749.8756178007</v>
       </c>
       <c r="E73">
-        <v>23423.32922443338</v>
+        <v>18705.02650139652</v>
       </c>
       <c r="F73">
-        <v>129160.2342732972</v>
+        <v>128998.6478280196</v>
       </c>
       <c r="G73">
-        <v>598598.4147830917</v>
+        <v>599751.2277897812</v>
       </c>
       <c r="H73">
-        <v>11669.20401544458</v>
+        <v>9008.455835063436</v>
       </c>
       <c r="I73">
-        <v>11754.1252089888</v>
+        <v>9696.570666333086</v>
       </c>
       <c r="J73">
-        <v>21828543.20048237</v>
+        <v>22164684.40423775</v>
       </c>
       <c r="K73">
-        <v>389252.8665702547</v>
+        <v>389252.8816814419</v>
       </c>
       <c r="L73">
-        <v>545764</v>
+        <v>544610</v>
       </c>
       <c r="M73">
         <v>1</v>
@@ -4329,40 +4329,40 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>165376.8485147044</v>
+        <v>176255.6379268822</v>
       </c>
       <c r="B74">
-        <v>1199046.674307104</v>
+        <v>1210970.229895902</v>
       </c>
       <c r="C74">
-        <v>1364423.522821809</v>
+        <v>1387225.867822784</v>
       </c>
       <c r="D74">
-        <v>1057977.890480889</v>
+        <v>1077763.068604109</v>
       </c>
       <c r="E74">
-        <v>18454.42733073326</v>
+        <v>24917.88405502015</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1057977.890480889</v>
+        <v>1077763.068604109</v>
       </c>
       <c r="H74">
-        <v>8660.434074818291</v>
+        <v>12199.19543008022</v>
       </c>
       <c r="I74">
-        <v>9793.993255914966</v>
+        <v>12718.68862493993</v>
       </c>
       <c r="J74">
-        <v>30745092.51124091</v>
+        <v>30498219.70948431</v>
       </c>
       <c r="K74">
-        <v>542234.8559286642</v>
+        <v>542235.168739603</v>
       </c>
       <c r="L74">
-        <v>770365</v>
+        <v>768885</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -4386,37 +4386,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>549213.3464814954</v>
+        <v>529196.6994285044</v>
       </c>
       <c r="C75">
-        <v>549213.3464814954</v>
+        <v>529196.6994285044</v>
       </c>
       <c r="D75">
-        <v>410080.3198325834</v>
+        <v>420548.3155564789</v>
       </c>
       <c r="E75">
-        <v>13860.85174773177</v>
+        <v>11678.69880342289</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>410080.3198325834</v>
+        <v>420548.3155564789</v>
       </c>
       <c r="H75">
-        <v>6178.980083069811</v>
+        <v>5180.156835334547</v>
       </c>
       <c r="I75">
-        <v>7681.871664661956</v>
+        <v>6498.541968088346</v>
       </c>
       <c r="J75">
-        <v>12290311.09640732</v>
+        <v>12143623.90227325</v>
       </c>
       <c r="K75">
-        <v>216446.9877335096</v>
+        <v>216447.0975663764</v>
       </c>
       <c r="L75">
-        <v>315787</v>
+        <v>316542</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -4440,37 +4440,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>429377.9468975002</v>
+        <v>435545.4467487021</v>
       </c>
       <c r="C76">
-        <v>429377.9468975002</v>
+        <v>435545.4467487021</v>
       </c>
       <c r="D76">
-        <v>367254.3131798292</v>
+        <v>334005.7901536832</v>
       </c>
       <c r="E76">
-        <v>12752.72115690005</v>
+        <v>14210.04250880018</v>
       </c>
       <c r="F76">
-        <v>130934.1177121168</v>
+        <v>119842.1726895324</v>
       </c>
       <c r="G76">
-        <v>236320.1954677124</v>
+        <v>214163.6174641508</v>
       </c>
       <c r="H76">
-        <v>6328.305927616403</v>
+        <v>7045.118791777832</v>
       </c>
       <c r="I76">
-        <v>6424.415229283645</v>
+        <v>7164.92371702235</v>
       </c>
       <c r="J76">
-        <v>9885091.498297341</v>
+        <v>10039479.9639454</v>
       </c>
       <c r="K76">
-        <v>176525.7285001428</v>
+        <v>176525.9981129036</v>
       </c>
       <c r="L76">
-        <v>253187</v>
+        <v>254075</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -4494,37 +4494,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>229591.4535816263</v>
+        <v>243637.7738046218</v>
       </c>
       <c r="C77">
-        <v>229591.4535816263</v>
+        <v>243637.7738046218</v>
       </c>
       <c r="D77">
-        <v>179255.710014007</v>
+        <v>181864.1637886302</v>
       </c>
       <c r="E77">
-        <v>4983.819539053424</v>
+        <v>5624.727038395782</v>
       </c>
       <c r="F77">
-        <v>65834.36893245997</v>
+        <v>65586.84238975483</v>
       </c>
       <c r="G77">
-        <v>113421.341081547</v>
+        <v>116277.3213988753</v>
       </c>
       <c r="H77">
-        <v>2463.950955787305</v>
+        <v>2579.552342402366</v>
       </c>
       <c r="I77">
-        <v>2519.868583266119</v>
+        <v>3045.174695993416</v>
       </c>
       <c r="J77">
-        <v>5353157.637882004</v>
+        <v>5307720.33046196</v>
       </c>
       <c r="K77">
-        <v>94798.10844463675</v>
+        <v>94798.28959866104</v>
       </c>
       <c r="L77">
-        <v>136287</v>
+        <v>136249</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -4548,37 +4548,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>428941.7068379304</v>
+        <v>406072.0613296727</v>
       </c>
       <c r="C78">
-        <v>428941.7068379304</v>
+        <v>406072.0613296727</v>
       </c>
       <c r="D78">
-        <v>321682.8660324559</v>
+        <v>328213.8470135656</v>
       </c>
       <c r="E78">
-        <v>10058.89810921273</v>
+        <v>9580.983828158085</v>
       </c>
       <c r="F78">
-        <v>126324.1611348952</v>
+        <v>126015.272250553</v>
       </c>
       <c r="G78">
-        <v>195358.7048975607</v>
+        <v>202198.5747630127</v>
       </c>
       <c r="H78">
-        <v>4821.132714286511</v>
+        <v>4599.888981174686</v>
       </c>
       <c r="I78">
-        <v>5237.76539492622</v>
+        <v>4981.0948469834</v>
       </c>
       <c r="J78">
-        <v>9483849.143344132</v>
+        <v>9450298.805810908</v>
       </c>
       <c r="K78">
-        <v>168934.8381084053</v>
+        <v>168935.2012631431</v>
       </c>
       <c r="L78">
-        <v>242099</v>
+        <v>242451</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -4602,37 +4602,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>43006.69573756148</v>
+        <v>42226.34661862571</v>
       </c>
       <c r="C79">
-        <v>43006.69573756148</v>
+        <v>42226.34661862571</v>
       </c>
       <c r="D79">
-        <v>32460.31054503917</v>
+        <v>34922.9190279953</v>
       </c>
       <c r="E79">
-        <v>866.3517964935896</v>
+        <v>999.9839648616486</v>
       </c>
       <c r="F79">
-        <v>12468.82705453285</v>
+        <v>13466.72172909027</v>
       </c>
       <c r="G79">
-        <v>19991.48349050632</v>
+        <v>21456.19729890503</v>
       </c>
       <c r="H79">
-        <v>385.7131045943711</v>
+        <v>466.6411352428473</v>
       </c>
       <c r="I79">
-        <v>480.6386918992185</v>
+        <v>533.3428296188014</v>
       </c>
       <c r="J79">
-        <v>992544.7159390196</v>
+        <v>984224.4091738077</v>
       </c>
       <c r="K79">
-        <v>17369.20205660822</v>
+        <v>17369.26918176689</v>
       </c>
       <c r="L79">
-        <v>24946</v>
+        <v>24916</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -4656,37 +4656,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6670.94237076026</v>
+        <v>6490.2438893798</v>
       </c>
       <c r="C80">
-        <v>6670.94237076026</v>
+        <v>6490.2438893798</v>
       </c>
       <c r="D80">
-        <v>5113.945701842526</v>
+        <v>4995.117514630898</v>
       </c>
       <c r="E80">
-        <v>151.6118667609289</v>
+        <v>162.6869789112509</v>
       </c>
       <c r="F80">
-        <v>1991.362592346617</v>
+        <v>1964.842388743676</v>
       </c>
       <c r="G80">
-        <v>3122.58310949591</v>
+        <v>3030.275125887222</v>
       </c>
       <c r="H80">
-        <v>75.87605786856857</v>
+        <v>80.48551118230131</v>
       </c>
       <c r="I80">
-        <v>75.73580889236037</v>
+        <v>82.20146772894961</v>
       </c>
       <c r="J80">
-        <v>147501.5364297608</v>
+        <v>148689.7784154699</v>
       </c>
       <c r="K80">
-        <v>2631.116929496956</v>
+        <v>2630.86030832063</v>
       </c>
       <c r="L80">
-        <v>3769</v>
+        <v>3787</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -4710,34 +4710,34 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>13575.54095282253</v>
+        <v>13730.70852902878</v>
       </c>
       <c r="C81">
-        <v>13575.54095282253</v>
+        <v>13730.70852902878</v>
       </c>
       <c r="D81">
-        <v>11125.58835511065</v>
+        <v>10296.96353469812</v>
       </c>
       <c r="E81">
-        <v>328.4222841532727</v>
+        <v>206.548482995099</v>
       </c>
       <c r="F81">
-        <v>4259.39333325053</v>
+        <v>3891.497966281194</v>
       </c>
       <c r="G81">
-        <v>6866.195021860121</v>
+        <v>6405.465568416923</v>
       </c>
       <c r="H81">
-        <v>170.2092326115375</v>
+        <v>101.2590581169402</v>
       </c>
       <c r="I81">
-        <v>158.2130515417352</v>
+        <v>105.2894248781588</v>
       </c>
       <c r="J81">
-        <v>320609.9957825563</v>
+        <v>319116.7285203948</v>
       </c>
       <c r="K81">
-        <v>5644.069661735267</v>
+        <v>5643.804544983595</v>
       </c>
       <c r="L81">
         <v>8109</v>
@@ -4761,16 +4761,16 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>995.3878957573766</v>
+        <v>962.9369824893372</v>
       </c>
       <c r="B82">
-        <v>3962.043143386535</v>
+        <v>3810.361959066764</v>
       </c>
       <c r="C82">
-        <v>4957.431039143911</v>
+        <v>4773.298941556101</v>
       </c>
       <c r="D82">
-        <v>12484.92866121187</v>
+        <v>12410.45271419008</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>12484.92866121187</v>
+        <v>12410.45271419008</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4788,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>358879.0314098959</v>
+        <v>357278.2491253453</v>
       </c>
       <c r="K82">
-        <v>5950.695979294765</v>
+        <v>5950.760057906872</v>
       </c>
       <c r="L82">
-        <v>8718</v>
+        <v>8762</v>
       </c>
       <c r="M82">
         <v>1</v>
@@ -4815,16 +4815,16 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>1629.965044652552</v>
+        <v>1652.653889163427</v>
       </c>
       <c r="B83">
-        <v>6504.660207018695</v>
+        <v>6489.551001492947</v>
       </c>
       <c r="C83">
-        <v>8134.625251671247</v>
+        <v>8142.204890656374</v>
       </c>
       <c r="D83">
-        <v>20482.50631917328</v>
+        <v>20969.53403899373</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>20482.50631917328</v>
+        <v>20969.53403899373</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>596849.3638688439</v>
+        <v>599513.607886535</v>
       </c>
       <c r="K83">
-        <v>9946.938653591242</v>
+        <v>9946.921467019767</v>
       </c>
       <c r="L83">
-        <v>14554</v>
+        <v>14602</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4869,25 +4869,25 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>9540.7031773176</v>
+        <v>9852.927871148497</v>
       </c>
       <c r="B84">
-        <v>38678.45706823572</v>
+        <v>36991.39743735005</v>
       </c>
       <c r="C84">
-        <v>48219.16024555331</v>
+        <v>46844.32530849854</v>
       </c>
       <c r="D84">
-        <v>124776.1421230299</v>
+        <v>124158.3896782648</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>34025.44873085381</v>
+        <v>33797.14924675864</v>
       </c>
       <c r="G84">
-        <v>90750.69339217612</v>
+        <v>90361.2404315062</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4896,13 +4896,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>3646848.94803186</v>
+        <v>3652134.804907648</v>
       </c>
       <c r="K84">
-        <v>60896.10494173731</v>
+        <v>60895.73621615162</v>
       </c>
       <c r="L84">
-        <v>87911</v>
+        <v>88277</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4923,25 +4923,25 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>6481.948859431023</v>
+        <v>6145.802131102168</v>
       </c>
       <c r="B85">
-        <v>25530.46661542796</v>
+        <v>24773.52908250992</v>
       </c>
       <c r="C85">
-        <v>32012.41547485898</v>
+        <v>30919.33121361209</v>
       </c>
       <c r="D85">
-        <v>77462.29036658978</v>
+        <v>77054.31171376904</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21145.84253251615</v>
+        <v>20715.64862187718</v>
       </c>
       <c r="G85">
-        <v>56316.44783407362</v>
+        <v>56338.66309189186</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4950,13 +4950,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2279427.36159323</v>
+        <v>2291140.775813203</v>
       </c>
       <c r="K85">
-        <v>38034.28673136726</v>
+        <v>38034.03068039018</v>
       </c>
       <c r="L85">
-        <v>54764</v>
+        <v>55084</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4977,25 +4977,25 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>19031.38249867552</v>
+        <v>18189.42950242605</v>
       </c>
       <c r="B86">
-        <v>75050.4535423894</v>
+        <v>69265.08050794726</v>
       </c>
       <c r="C86">
-        <v>94081.83604106492</v>
+        <v>87454.51001037331</v>
       </c>
       <c r="D86">
-        <v>229706.0583780454</v>
+        <v>231179.1918973019</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>61720.95303405645</v>
+        <v>62923.79632938191</v>
       </c>
       <c r="G86">
-        <v>167985.1053439889</v>
+        <v>168255.39556792</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>6676600.579323611</v>
+        <v>6712065.383201133</v>
       </c>
       <c r="K86">
-        <v>111847.1937111801</v>
+        <v>111846.7709083272</v>
       </c>
       <c r="L86">
-        <v>161453</v>
+        <v>162447</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>10952.20027853858</v>
+        <v>10805.36192212542</v>
       </c>
       <c r="B87">
-        <v>42735.3854415183</v>
+        <v>43767.15627220808</v>
       </c>
       <c r="C87">
-        <v>53687.58572005689</v>
+        <v>54572.5181943335</v>
       </c>
       <c r="D87">
-        <v>137133.7695151107</v>
+        <v>135778.6531143778</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>37300.79147631022</v>
+        <v>36996.10609657237</v>
       </c>
       <c r="G87">
-        <v>99832.9780388005</v>
+        <v>98782.54701780539</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5058,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>4009055.020052926</v>
+        <v>4008802.902917834</v>
       </c>
       <c r="K87">
-        <v>66952.95969231652</v>
+        <v>66952.67771887516</v>
       </c>
       <c r="L87">
-        <v>96320</v>
+        <v>97264</v>
       </c>
       <c r="M87">
         <v>1</v>
@@ -5085,25 +5085,25 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>14752.92069977487</v>
+        <v>13642.11345030095</v>
       </c>
       <c r="B88">
-        <v>54697.05457020452</v>
+        <v>55691.39777561188</v>
       </c>
       <c r="C88">
-        <v>69449.97526997938</v>
+        <v>69333.51122591284</v>
       </c>
       <c r="D88">
-        <v>186333.9134721159</v>
+        <v>185023.5851284243</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>51338.89492337788</v>
+        <v>49885.67417035893</v>
       </c>
       <c r="G88">
-        <v>134995.018548738</v>
+        <v>135137.9109580654</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5112,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>5250174.973133604</v>
+        <v>5225008.968562159</v>
       </c>
       <c r="K88">
-        <v>87331.92440901825</v>
+        <v>87331.92193245726</v>
       </c>
       <c r="L88">
-        <v>126099</v>
+        <v>126753</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -5139,25 +5139,25 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>11089.49078590129</v>
+        <v>10459.15450590511</v>
       </c>
       <c r="B89">
-        <v>43811.9082340511</v>
+        <v>40985.90688267746</v>
       </c>
       <c r="C89">
-        <v>54901.39901995239</v>
+        <v>51445.06138858257</v>
       </c>
       <c r="D89">
-        <v>129835.019911943</v>
+        <v>136313.0427970705</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>34699.57710977567</v>
+        <v>36104.24442076328</v>
       </c>
       <c r="G89">
-        <v>95135.44280216728</v>
+        <v>100208.7983763072</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>3975751.58200725</v>
+        <v>3954916.986862973</v>
       </c>
       <c r="K89">
-        <v>66110.87999923308</v>
+        <v>66110.90390892615</v>
       </c>
       <c r="L89">
-        <v>95311</v>
+        <v>95816</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -5193,25 +5193,25 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>7953.010768963806</v>
+        <v>7502.374242711602</v>
       </c>
       <c r="B90">
-        <v>31249.0287917446</v>
+        <v>31177.17407748126</v>
       </c>
       <c r="C90">
-        <v>39202.03956070841</v>
+        <v>38679.54832019287</v>
       </c>
       <c r="D90">
-        <v>96005.05482165595</v>
+        <v>96355.86707733503</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>25941.80700891309</v>
+        <v>25909.88277057755</v>
       </c>
       <c r="G90">
-        <v>70063.24781274286</v>
+        <v>70445.98430675747</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5220,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2909840.124982981</v>
+        <v>2888780.325791141</v>
       </c>
       <c r="K90">
-        <v>48244.09598878434</v>
+        <v>48243.78505094395</v>
       </c>
       <c r="L90">
-        <v>69784</v>
+        <v>70165</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -5247,25 +5247,25 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>8483.342305301578</v>
+        <v>8264.991830450541</v>
       </c>
       <c r="B91">
-        <v>33902.27090342786</v>
+        <v>33565.5927838219</v>
       </c>
       <c r="C91">
-        <v>42385.61320872943</v>
+        <v>41830.58461427244</v>
       </c>
       <c r="D91">
-        <v>108171.5018085625</v>
+        <v>101713.4264352328</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>29617.2134386759</v>
+        <v>27302.70815437793</v>
       </c>
       <c r="G91">
-        <v>78554.28836988665</v>
+        <v>74410.71828085485</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5274,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>3137668.168787095</v>
+        <v>3133612.127159801</v>
       </c>
       <c r="K91">
-        <v>52388.80570185039</v>
+        <v>52389.0225561582</v>
       </c>
       <c r="L91">
-        <v>75496</v>
+        <v>75879</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -5301,25 +5301,25 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>6272.364888903057</v>
+        <v>6214.015126421519</v>
       </c>
       <c r="B92">
-        <v>25008.68884481038</v>
+        <v>25525.40705003523</v>
       </c>
       <c r="C92">
-        <v>31281.05373371344</v>
+        <v>31739.42217645675</v>
       </c>
       <c r="D92">
-        <v>74744.17695377914</v>
+        <v>84773.95294851501</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>20831.05084494971</v>
+        <v>22834.48613938403</v>
       </c>
       <c r="G92">
-        <v>53913.12610882943</v>
+        <v>61939.46680913099</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2363961.089528811</v>
+        <v>2368801.795517056</v>
       </c>
       <c r="K92">
-        <v>39256.05217568155</v>
+        <v>39256.30462309293</v>
       </c>
       <c r="L92">
-        <v>56779</v>
+        <v>56968</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3796.951118307007</v>
+        <v>3659.434081474903</v>
       </c>
       <c r="B93">
-        <v>15543.89612730337</v>
+        <v>15162.40794541581</v>
       </c>
       <c r="C93">
-        <v>19340.84724561037</v>
+        <v>18821.84202689072</v>
       </c>
       <c r="D93">
-        <v>45942.83564126858</v>
+        <v>48426.74529650131</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>45942.83564126858</v>
+        <v>48426.74529650131</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5382,13 +5382,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1412911.784882851</v>
+        <v>1400202.339342763</v>
       </c>
       <c r="K93">
-        <v>23461.04546390761</v>
+        <v>23461.10603054822</v>
       </c>
       <c r="L93">
-        <v>34382</v>
+        <v>34520</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5409,25 +5409,25 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>1578.694028901106</v>
+        <v>1575.043882230875</v>
       </c>
       <c r="B94">
-        <v>6599.234974670843</v>
+        <v>6271.718452458282</v>
       </c>
       <c r="C94">
-        <v>8177.92900357195</v>
+        <v>7846.762334689157</v>
       </c>
       <c r="D94">
-        <v>20682.29396815283</v>
+        <v>20274.68870741165</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>5495.620005634728</v>
+        <v>5435.14303146964</v>
       </c>
       <c r="G94">
-        <v>15186.6739625181</v>
+        <v>14839.54567594201</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>606023.7686426861</v>
+        <v>606197.6491378954</v>
       </c>
       <c r="K94">
-        <v>10091.80413225781</v>
+        <v>10092.20194617282</v>
       </c>
       <c r="L94">
-        <v>14569</v>
+        <v>14661</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -5463,25 +5463,25 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>1463.779972637785</v>
+        <v>1396.307645715664</v>
       </c>
       <c r="B95">
-        <v>5685.856918739451</v>
+        <v>5494.85398036366</v>
       </c>
       <c r="C95">
-        <v>7149.636891377236</v>
+        <v>6891.161626079324</v>
       </c>
       <c r="D95">
-        <v>18418.54755753851</v>
+        <v>18238.18481007219</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>4944.977162783352</v>
+        <v>4804.860714025041</v>
       </c>
       <c r="G95">
-        <v>13473.57039475516</v>
+        <v>13433.32409604715</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5490,13 +5490,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>524179.7326376868</v>
+        <v>525160.792035038</v>
       </c>
       <c r="K95">
-        <v>8744.753975649544</v>
+        <v>8744.901050046292</v>
       </c>
       <c r="L95">
-        <v>12654</v>
+        <v>12689</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1576.963165041138</v>
+        <v>1605.922602540634</v>
       </c>
       <c r="B96">
-        <v>6449.983761075039</v>
+        <v>6460.719260573174</v>
       </c>
       <c r="C96">
-        <v>8026.946926116178</v>
+        <v>8066.641863113809</v>
       </c>
       <c r="D96">
-        <v>20823.75593144256</v>
+        <v>21099.16867007842</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5463.566279411294</v>
+        <v>5698.217624098656</v>
       </c>
       <c r="G96">
-        <v>15360.18965203126</v>
+        <v>15400.95104597977</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>609596.8735792354</v>
+        <v>605971.1966481371</v>
       </c>
       <c r="K96">
-        <v>10107.00681876338</v>
+        <v>10106.83681289114</v>
       </c>
       <c r="L96">
-        <v>14602</v>
+        <v>14638</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -5571,25 +5571,25 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>986.9517448766542</v>
+        <v>947.1610153128225</v>
       </c>
       <c r="B97">
-        <v>4025.25864147347</v>
+        <v>4025.471809967945</v>
       </c>
       <c r="C97">
-        <v>5012.210386350124</v>
+        <v>4972.632825280767</v>
       </c>
       <c r="D97">
-        <v>12940.14346320223</v>
+        <v>12639.83244114196</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>3507.136108140025</v>
+        <v>3455.333576590947</v>
       </c>
       <c r="G97">
-        <v>9433.007355062209</v>
+        <v>9184.498864551017</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>373303.2366257673</v>
+        <v>373319.053323314</v>
       </c>
       <c r="K97">
-        <v>6198.797135401959</v>
+        <v>6198.831155178561</v>
       </c>
       <c r="L97">
-        <v>8962</v>
+        <v>8999</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5625,16 +5625,16 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>558.3370052471311</v>
+        <v>556.8304104302281</v>
       </c>
       <c r="B98">
-        <v>3944.231724732666</v>
+        <v>3892.990780917026</v>
       </c>
       <c r="C98">
-        <v>4502.568729979797</v>
+        <v>4449.821191347254</v>
       </c>
       <c r="D98">
-        <v>29551.70061778953</v>
+        <v>27993.48592237635</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>29551.70061778953</v>
+        <v>27993.48592237635</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>312611.636611169</v>
+        <v>313547.5261510218</v>
       </c>
       <c r="K98">
-        <v>6606.743130773547</v>
+        <v>6606.956331107161</v>
       </c>
       <c r="L98">
-        <v>9598</v>
+        <v>9285</v>
       </c>
       <c r="M98">
         <v>1</v>
@@ -5679,16 +5679,16 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>781.5060899244781</v>
+        <v>762.8320376746552</v>
       </c>
       <c r="B99">
-        <v>5584.123168223615</v>
+        <v>5605.458879007141</v>
       </c>
       <c r="C99">
-        <v>6365.629258148093</v>
+        <v>6368.290916681796</v>
       </c>
       <c r="D99">
-        <v>40144.70275003179</v>
+        <v>40145.84689377054</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>40144.70275003179</v>
+        <v>40145.84689377054</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5706,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>444957.0821525095</v>
+        <v>442984.4514499189</v>
       </c>
       <c r="K99">
-        <v>9384.68326354664</v>
+        <v>9384.817426101681</v>
       </c>
       <c r="L99">
-        <v>13607</v>
+        <v>13204</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -5733,16 +5733,16 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>5165.91567865958</v>
+        <v>5498.416685647996</v>
       </c>
       <c r="B100">
-        <v>40241.9786333842</v>
+        <v>42128.16652965833</v>
       </c>
       <c r="C100">
-        <v>45407.89431204378</v>
+        <v>47626.58321530633</v>
       </c>
       <c r="D100">
-        <v>294987.9571155155</v>
+        <v>295265.9726783664</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>294987.9571155155</v>
+        <v>295265.9726783664</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5760,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>3266328.922388858</v>
+        <v>3309631.68339756</v>
       </c>
       <c r="K100">
-        <v>68687.33929662952</v>
+        <v>68687.27990063631</v>
       </c>
       <c r="L100">
-        <v>99951</v>
+        <v>96661</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -5787,16 +5787,16 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>173.2032458450156</v>
+        <v>153.078582129413</v>
       </c>
       <c r="B101">
-        <v>1212.287517939863</v>
+        <v>1176.34028271211</v>
       </c>
       <c r="C101">
-        <v>1385.490763784878</v>
+        <v>1329.418864841523</v>
       </c>
       <c r="D101">
-        <v>8739.870191319897</v>
+        <v>8874.877194626977</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>8739.870191319897</v>
+        <v>8874.877194626977</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>97665.72610033915</v>
+        <v>95552.1899789115</v>
       </c>
       <c r="K101">
-        <v>2024.000937759839</v>
+        <v>2023.667525296961</v>
       </c>
       <c r="L101">
-        <v>2944</v>
+        <v>2848</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -5841,25 +5841,25 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>1952.673151089028</v>
+        <v>2100.762098363867</v>
       </c>
       <c r="B102">
-        <v>14030.24145563129</v>
+        <v>14647.71692078059</v>
       </c>
       <c r="C102">
-        <v>15982.91460672031</v>
+        <v>16748.47901914446</v>
       </c>
       <c r="D102">
-        <v>108499.4048488791</v>
+        <v>107940.3674355931</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6920.74755472903</v>
+        <v>6663.332598215826</v>
       </c>
       <c r="G102">
-        <v>101578.6572941501</v>
+        <v>101277.0348373773</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5868,13 +5868,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1196393.851610261</v>
+        <v>1174384.107882561</v>
       </c>
       <c r="K102">
-        <v>24733.96979357173</v>
+        <v>24733.90482848934</v>
       </c>
       <c r="L102">
-        <v>35668</v>
+        <v>34395</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1467.570490642674</v>
+        <v>1451.875897013729</v>
       </c>
       <c r="B103">
-        <v>10718.27706839013</v>
+        <v>10511.79753883524</v>
       </c>
       <c r="C103">
-        <v>12185.84755903281</v>
+        <v>11963.67343584896</v>
       </c>
       <c r="D103">
-        <v>77873.00067713231</v>
+        <v>80539.17797770647</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>4866.846597723316</v>
+        <v>5045.827200862599</v>
       </c>
       <c r="G103">
-        <v>73006.154079409</v>
+        <v>75493.35077684387</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>882477.2218873966</v>
+        <v>872742.0245538894</v>
       </c>
       <c r="K103">
-        <v>18475.17448511314</v>
+        <v>18474.7629604644</v>
       </c>
       <c r="L103">
-        <v>26614</v>
+        <v>25732</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>4730.267302517984</v>
+        <v>4529.328330773039</v>
       </c>
       <c r="B104">
-        <v>33536.60063589059</v>
+        <v>33065.22225342916</v>
       </c>
       <c r="C104">
-        <v>38266.86793840857</v>
+        <v>37594.5505842022</v>
       </c>
       <c r="D104">
-        <v>251837.895884993</v>
+        <v>251322.2218404963</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>15515.73188215825</v>
+        <v>15683.01832651205</v>
       </c>
       <c r="G104">
-        <v>236322.1640028347</v>
+        <v>235639.2035139842</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>2746204.299570648</v>
+        <v>2775218.458006741</v>
       </c>
       <c r="K104">
-        <v>58535.93720683265</v>
+        <v>58536.0011665872</v>
       </c>
       <c r="L104">
-        <v>84258</v>
+        <v>81540</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -6003,25 +6003,25 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>7804.030891112669</v>
+        <v>8829.155766936659</v>
       </c>
       <c r="B105">
-        <v>56709.67996376901</v>
+        <v>63974.18414067317</v>
       </c>
       <c r="C105">
-        <v>64513.71085488167</v>
+        <v>72803.33990760983</v>
       </c>
       <c r="D105">
-        <v>456390.7604338687</v>
+        <v>445757.3306985914</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>28284.1653519319</v>
+        <v>27977.22732655235</v>
       </c>
       <c r="G105">
-        <v>428106.5950819369</v>
+        <v>417780.1033720391</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6030,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>4888273.859985895</v>
+        <v>4908473.142827179</v>
       </c>
       <c r="K105">
-        <v>102959.9152843621</v>
+        <v>102959.9524802891</v>
       </c>
       <c r="L105">
-        <v>148319</v>
+        <v>143346</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -6057,25 +6057,25 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>7020.19217784539</v>
+        <v>6786.81670469159</v>
       </c>
       <c r="B106">
-        <v>51132.38888074481</v>
+        <v>48918.9630139944</v>
       </c>
       <c r="C106">
-        <v>58152.5810585902</v>
+        <v>55705.77971868599</v>
       </c>
       <c r="D106">
-        <v>374569.030427159</v>
+        <v>379881.7837562936</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>23330.14456271133</v>
+        <v>23834.3083460182</v>
       </c>
       <c r="G106">
-        <v>351238.8858644477</v>
+        <v>356047.4754102755</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6084,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>4078943.263334852</v>
+        <v>4095797.684566877</v>
       </c>
       <c r="K106">
-        <v>85834.32550707254</v>
+        <v>85833.85311673841</v>
       </c>
       <c r="L106">
-        <v>123357</v>
+        <v>119448</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6111,25 +6111,25 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>7227.520931243358</v>
+        <v>6610.49450475598</v>
       </c>
       <c r="B107">
-        <v>54039.54625451569</v>
+        <v>50942.08954230385</v>
       </c>
       <c r="C107">
-        <v>61267.06718575905</v>
+        <v>57552.58404705983</v>
       </c>
       <c r="D107">
-        <v>394139.511587634</v>
+        <v>387543.4076379096</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>24049.59819168433</v>
+        <v>24539.06237122044</v>
       </c>
       <c r="G107">
-        <v>370089.9133959497</v>
+        <v>363004.3452666892</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6138,13 +6138,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>4251333.668064763</v>
+        <v>4281860.262517394</v>
       </c>
       <c r="K107">
-        <v>89900.03097626762</v>
+        <v>89899.9853564658</v>
       </c>
       <c r="L107">
-        <v>129223</v>
+        <v>125322</v>
       </c>
       <c r="M107">
         <v>1</v>
@@ -6165,25 +6165,25 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>3289.420195516914</v>
+        <v>3573.187421199048</v>
       </c>
       <c r="B108">
-        <v>24942.48757901214</v>
+        <v>26065.72753927129</v>
       </c>
       <c r="C108">
-        <v>28231.90777452905</v>
+        <v>29638.91496047034</v>
       </c>
       <c r="D108">
-        <v>187780.4773731225</v>
+        <v>183276.1904045211</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>11877.74195183736</v>
+        <v>11550.18540348685</v>
       </c>
       <c r="G108">
-        <v>175902.7354212852</v>
+        <v>171726.0050010343</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6192,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>2034322.121905763</v>
+        <v>2022310.976619639</v>
       </c>
       <c r="K108">
-        <v>42604.34641213261</v>
+        <v>42603.72087799754</v>
       </c>
       <c r="L108">
-        <v>61197</v>
+        <v>59272</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>5654.626944419777</v>
+        <v>5133.218864982171</v>
       </c>
       <c r="B109">
-        <v>39780.76186598885</v>
+        <v>36649.3688683888</v>
       </c>
       <c r="C109">
-        <v>45435.38881040862</v>
+        <v>41782.58773337096</v>
       </c>
       <c r="D109">
-        <v>284895.5099765587</v>
+        <v>281933.6639246811</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>17496.12461492821</v>
+        <v>17419.61975707542</v>
       </c>
       <c r="G109">
-        <v>267399.3853616305</v>
+        <v>264514.0441676056</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>3179043.628073152</v>
+        <v>3139939.352407497</v>
       </c>
       <c r="K109">
-        <v>66364.88969585732</v>
+        <v>66365.04352732237</v>
       </c>
       <c r="L109">
-        <v>95568</v>
+        <v>92785</v>
       </c>
       <c r="M109">
         <v>1</v>
@@ -6273,25 +6273,25 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>5352.118479069282</v>
+        <v>5319.07393179567</v>
       </c>
       <c r="B110">
-        <v>37105.95267918945</v>
+        <v>36616.28537178851</v>
       </c>
       <c r="C110">
-        <v>42458.07115825872</v>
+        <v>41935.35930358418</v>
       </c>
       <c r="D110">
-        <v>278611.2729083496</v>
+        <v>284188.1930024282</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>17739.90907947211</v>
+        <v>17362.04121592784</v>
       </c>
       <c r="G110">
-        <v>260871.3638288775</v>
+        <v>266826.1517865004</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6300,13 +6300,13 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>3061687.455146907</v>
+        <v>3058681.9408532</v>
       </c>
       <c r="K110">
-        <v>63795.76638726752</v>
+        <v>63796.0302845275</v>
       </c>
       <c r="L110">
-        <v>91727</v>
+        <v>88784</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -6327,25 +6327,25 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>17727.67927074805</v>
+        <v>17614.89403011286</v>
       </c>
       <c r="B111">
-        <v>125143.3443808578</v>
+        <v>127863.2545415028</v>
       </c>
       <c r="C111">
-        <v>142871.0236516058</v>
+        <v>145478.1485716157</v>
       </c>
       <c r="D111">
-        <v>949890.6580021012</v>
+        <v>929968.6048657278</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>61755.49827500508</v>
+        <v>57653.71637790305</v>
       </c>
       <c r="G111">
-        <v>888135.1597270962</v>
+        <v>872314.8884878247</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>10091394.23940161</v>
+        <v>10235776.5092676</v>
       </c>
       <c r="K111">
-        <v>214312.8299857798</v>
+        <v>214313.0686849213</v>
       </c>
       <c r="L111">
-        <v>308060</v>
+        <v>298522</v>
       </c>
       <c r="M111">
         <v>1</v>
@@ -6381,25 +6381,25 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>571.2121625161354</v>
+        <v>584.2584205899994</v>
       </c>
       <c r="B112">
-        <v>4022.562329432272</v>
+        <v>4473.744523054728</v>
       </c>
       <c r="C112">
-        <v>4593.774491948408</v>
+        <v>5058.002943644728</v>
       </c>
       <c r="D112">
-        <v>30387.87451712261</v>
+        <v>30516.98996035667</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1853.294776295504</v>
+        <v>1965.03378445289</v>
       </c>
       <c r="G112">
-        <v>28534.57974082711</v>
+        <v>28551.95617590378</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6408,13 +6408,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>334873.5014228115</v>
+        <v>330493.4657808582</v>
       </c>
       <c r="K112">
-        <v>7005.819705588027</v>
+        <v>7005.665086127235</v>
       </c>
       <c r="L112">
-        <v>10077</v>
+        <v>9742</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6435,25 +6435,25 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>140.6687352146812</v>
+        <v>127.3510087381567</v>
       </c>
       <c r="B113">
-        <v>1025.141371481634</v>
+        <v>950.3494265241158</v>
       </c>
       <c r="C113">
-        <v>1165.810106696315</v>
+        <v>1077.700435262273</v>
       </c>
       <c r="D113">
-        <v>7430.053120746627</v>
+        <v>7601.367884246845</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>453.3524733387761</v>
+        <v>465.5053325150816</v>
       </c>
       <c r="G113">
-        <v>6976.700647407851</v>
+        <v>7135.862551731764</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>82875.10158033868</v>
+        <v>81796.58660599375</v>
       </c>
       <c r="K113">
-        <v>1719.018135858051</v>
+        <v>1718.747880608878</v>
       </c>
       <c r="L113">
-        <v>2471</v>
+        <v>2396</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -6489,25 +6489,25 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1235.546461617269</v>
+        <v>1167.316036716747</v>
       </c>
       <c r="B114">
-        <v>8949.690256953212</v>
+        <v>8494.843850122412</v>
       </c>
       <c r="C114">
-        <v>10185.23671857048</v>
+        <v>9662.159886839157</v>
       </c>
       <c r="D114">
-        <v>65053.50845283204</v>
+        <v>65788.49680136119</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>4118.114371014341</v>
+        <v>4121.244454733359</v>
       </c>
       <c r="G114">
-        <v>60935.3940818177</v>
+        <v>61667.25234662784</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>716088.0878751855</v>
+        <v>717298.2763590834</v>
       </c>
       <c r="K114">
-        <v>15018.71967345977</v>
+        <v>15018.9917738392</v>
       </c>
       <c r="L114">
-        <v>21599</v>
+        <v>20945</v>
       </c>
       <c r="M114">
         <v>1</v>
@@ -6543,25 +6543,25 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>106.0971695395744</v>
+        <v>114.7016628343605</v>
       </c>
       <c r="B115">
-        <v>816.9930985273555</v>
+        <v>843.2702965771933</v>
       </c>
       <c r="C115">
-        <v>923.0902680669299</v>
+        <v>957.9719594115538</v>
       </c>
       <c r="D115">
-        <v>6335.220099722201</v>
+        <v>6000.895928865557</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>387.1261947856016</v>
+        <v>371.6134846692818</v>
       </c>
       <c r="G115">
-        <v>5948.0939049366</v>
+        <v>5629.282444196275</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>65678.63140223769</v>
+        <v>66443.96011036227</v>
       </c>
       <c r="K115">
-        <v>1383.167022378004</v>
+        <v>1383.020832442535</v>
       </c>
       <c r="L115">
-        <v>1989</v>
+        <v>1925</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -6597,40 +6597,40 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1520.556569443539</v>
+        <v>1507.375757399769</v>
       </c>
       <c r="B116">
-        <v>8774.302990637259</v>
+        <v>8676.484057850799</v>
       </c>
       <c r="C116">
-        <v>10294.8595600808</v>
+        <v>10183.85981525057</v>
       </c>
       <c r="D116">
-        <v>20200.44704382911</v>
+        <v>20199.78544487723</v>
       </c>
       <c r="E116">
-        <v>1137.365922392503</v>
+        <v>936.910016234914</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>20200.44704382911</v>
+        <v>20199.78544487723</v>
       </c>
       <c r="H116">
-        <v>904.8167851772195</v>
+        <v>751.232824429681</v>
       </c>
       <c r="I116">
-        <v>232.5491372152836</v>
+        <v>185.677191805233</v>
       </c>
       <c r="J116">
-        <v>485071.6998024436</v>
+        <v>482933.3171306817</v>
       </c>
       <c r="K116">
-        <v>10098.10977206635</v>
+        <v>10097.84667025518</v>
       </c>
       <c r="L116">
-        <v>14117</v>
+        <v>14336</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -6651,40 +6651,40 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>862.0846956030393</v>
+        <v>931.8300281022823</v>
       </c>
       <c r="B117">
-        <v>5232.823948030667</v>
+        <v>5151.309148399995</v>
       </c>
       <c r="C117">
-        <v>6094.908643633707</v>
+        <v>6083.139176502277</v>
       </c>
       <c r="D117">
-        <v>11878.78994170661</v>
+        <v>12355.06444459525</v>
       </c>
       <c r="E117">
-        <v>644.9072906197102</v>
+        <v>758.7714500672778</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>11878.78994170661</v>
+        <v>12355.06444459525</v>
       </c>
       <c r="H117">
-        <v>509.8466428825741</v>
+        <v>600.0503240815406</v>
       </c>
       <c r="I117">
-        <v>135.0606477371361</v>
+        <v>158.7211259857372</v>
       </c>
       <c r="J117">
-        <v>295231.6472918814</v>
+        <v>295483.9235455397</v>
       </c>
       <c r="K117">
-        <v>6148.014730743529</v>
+        <v>6147.803715408354</v>
       </c>
       <c r="L117">
-        <v>8613</v>
+        <v>8745</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -6705,40 +6705,40 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>2219.125377903166</v>
+        <v>2249.689932620066</v>
       </c>
       <c r="B118">
-        <v>13442.11450464273</v>
+        <v>13070.2334460419</v>
       </c>
       <c r="C118">
-        <v>15661.2398825459</v>
+        <v>15319.92337866197</v>
       </c>
       <c r="D118">
-        <v>29332.04293644854</v>
+        <v>29701.40861605019</v>
       </c>
       <c r="E118">
-        <v>1670.112947908417</v>
+        <v>1678.288991414079</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118">
-        <v>29332.04293644854</v>
+        <v>29701.40861605019</v>
       </c>
       <c r="H118">
-        <v>1295.117387003402</v>
+        <v>1310.954452097072</v>
       </c>
       <c r="I118">
-        <v>374.9955609050153</v>
+        <v>367.3345393170075</v>
       </c>
       <c r="J118">
-        <v>717441.4621674455</v>
+        <v>722601.4186264233</v>
       </c>
       <c r="K118">
-        <v>15020.65482002581</v>
+        <v>15021.26796415471</v>
       </c>
       <c r="L118">
-        <v>21047</v>
+        <v>21335</v>
       </c>
       <c r="M118">
         <v>1</v>
@@ -6759,40 +6759,40 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>8165.864990459806</v>
+        <v>8108.64356843308</v>
       </c>
       <c r="B119">
-        <v>46768.85862712115</v>
+        <v>47111.34304852258</v>
       </c>
       <c r="C119">
-        <v>54934.72361758095</v>
+        <v>55219.98661695566</v>
       </c>
       <c r="D119">
-        <v>103412.1317712973</v>
+        <v>107679.5614361708</v>
       </c>
       <c r="E119">
-        <v>5965.446383096387</v>
+        <v>6568.398983658811</v>
       </c>
       <c r="F119">
-        <v>15711.1684412461</v>
+        <v>15528.34908459036</v>
       </c>
       <c r="G119">
-        <v>87700.96333005115</v>
+        <v>92151.21235158044</v>
       </c>
       <c r="H119">
-        <v>4732.997012840251</v>
+        <v>5237.600091689135</v>
       </c>
       <c r="I119">
-        <v>1232.449370256136</v>
+        <v>1330.798891969675</v>
       </c>
       <c r="J119">
-        <v>2631305.098952536</v>
+        <v>2632831.467230969</v>
       </c>
       <c r="K119">
-        <v>54874.31537609612</v>
+        <v>54874.07642642445</v>
       </c>
       <c r="L119">
-        <v>76123</v>
+        <v>77229</v>
       </c>
       <c r="M119">
         <v>1</v>
@@ -6813,40 +6813,40 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>13007.15170355224</v>
+        <v>12205.55595823647</v>
       </c>
       <c r="B120">
-        <v>71527.88239559277</v>
+        <v>73697.47959672076</v>
       </c>
       <c r="C120">
-        <v>84535.03409914501</v>
+        <v>85903.03555495723</v>
       </c>
       <c r="D120">
-        <v>161550.410737433</v>
+        <v>169253.1309498707</v>
       </c>
       <c r="E120">
-        <v>9720.869506569645</v>
+        <v>9188.131984374182</v>
       </c>
       <c r="F120">
-        <v>22958.87121871661</v>
+        <v>24308.23085483133</v>
       </c>
       <c r="G120">
-        <v>138591.5395187164</v>
+        <v>144944.9000950394</v>
       </c>
       <c r="H120">
-        <v>7395.011163935117</v>
+        <v>7337.055353124828</v>
       </c>
       <c r="I120">
-        <v>2325.858342634529</v>
+        <v>1851.076631249355</v>
       </c>
       <c r="J120">
-        <v>4076067.651747944</v>
+        <v>4082766.541717206</v>
       </c>
       <c r="K120">
-        <v>84457.97546822915</v>
+        <v>84458.00958435412</v>
       </c>
       <c r="L120">
-        <v>117183</v>
+        <v>119382</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -6867,40 +6867,40 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>7017.130558636389</v>
+        <v>7688.428332246362</v>
       </c>
       <c r="B121">
-        <v>41901.57768943991</v>
+        <v>44503.77978977335</v>
       </c>
       <c r="C121">
-        <v>48918.7082480763</v>
+        <v>52192.20812201971</v>
       </c>
       <c r="D121">
-        <v>103524.1845726849</v>
+        <v>97889.90315070869</v>
       </c>
       <c r="E121">
-        <v>5898.013138768936</v>
+        <v>5854.68315744165</v>
       </c>
       <c r="F121">
-        <v>15220.34009520935</v>
+        <v>13654.02776061477</v>
       </c>
       <c r="G121">
-        <v>88303.84447747558</v>
+        <v>84235.87539009393</v>
       </c>
       <c r="H121">
-        <v>4777.178994058771</v>
+        <v>4552.041547213239</v>
       </c>
       <c r="I121">
-        <v>1120.834144710165</v>
+        <v>1302.641610228411</v>
       </c>
       <c r="J121">
-        <v>2428508.953839709</v>
+        <v>2420906.494808749</v>
       </c>
       <c r="K121">
-        <v>50093.3428147829</v>
+        <v>50093.01314756941</v>
       </c>
       <c r="L121">
-        <v>69421</v>
+        <v>70675</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>19762.42214477182</v>
+        <v>20600.57007659198</v>
       </c>
       <c r="B122">
-        <v>115454.2359302493</v>
+        <v>112143.7396838802</v>
       </c>
       <c r="C122">
-        <v>135216.6580750211</v>
+        <v>132744.3097604722</v>
       </c>
       <c r="D122">
-        <v>253839.4135707433</v>
+        <v>257943.3244375956</v>
       </c>
       <c r="E122">
-        <v>14631.33397394269</v>
+        <v>13507.57275917292</v>
       </c>
       <c r="F122">
-        <v>36961.68411254272</v>
+        <v>36322.7954857165</v>
       </c>
       <c r="G122">
-        <v>216877.7294582006</v>
+        <v>221620.5289518791</v>
       </c>
       <c r="H122">
-        <v>11936.7669218077</v>
+        <v>10537.48601451273</v>
       </c>
       <c r="I122">
-        <v>2694.567052134983</v>
+        <v>2970.086744660196</v>
       </c>
       <c r="J122">
-        <v>6349862.478422076</v>
+        <v>6270045.995078481</v>
       </c>
       <c r="K122">
-        <v>131015.7919086288</v>
+        <v>131016.3208785624</v>
       </c>
       <c r="L122">
-        <v>181619</v>
+        <v>184813</v>
       </c>
       <c r="M122">
         <v>1</v>
@@ -6975,40 +6975,40 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>35473.61205946327</v>
+        <v>34673.13449467017</v>
       </c>
       <c r="B123">
-        <v>198585.2139884811</v>
+        <v>201211.2191053144</v>
       </c>
       <c r="C123">
-        <v>234058.8260479444</v>
+        <v>235884.3535999846</v>
       </c>
       <c r="D123">
-        <v>475623.4572992759</v>
+        <v>490921.9768059813</v>
       </c>
       <c r="E123">
-        <v>26746.21892214737</v>
+        <v>26570.26749806782</v>
       </c>
       <c r="F123">
-        <v>68809.35532154622</v>
+        <v>70654.54666390739</v>
       </c>
       <c r="G123">
-        <v>406814.1019777297</v>
+        <v>420267.4301420739</v>
       </c>
       <c r="H123">
-        <v>21699.33571033671</v>
+        <v>20620.26626149916</v>
       </c>
       <c r="I123">
-        <v>5046.88321181066</v>
+        <v>5950.001236568653</v>
       </c>
       <c r="J123">
-        <v>11439351.26932051</v>
+        <v>11378076.99616551</v>
       </c>
       <c r="K123">
-        <v>238430.8692315136</v>
+        <v>238430.6808259817</v>
       </c>
       <c r="L123">
-        <v>330151</v>
+        <v>335729</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7029,40 +7029,40 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>23097.8177963877</v>
+        <v>24299.50247318641</v>
       </c>
       <c r="B124">
-        <v>142530.7787745631</v>
+        <v>139591.47883359</v>
       </c>
       <c r="C124">
-        <v>165628.5965709508</v>
+        <v>163890.9813067764</v>
       </c>
       <c r="D124">
-        <v>334952.1266927578</v>
+        <v>338358.9830130821</v>
       </c>
       <c r="E124">
-        <v>17629.0432160715</v>
+        <v>15527.08903771242</v>
       </c>
       <c r="F124">
-        <v>47575.45029470808</v>
+        <v>49492.23224961963</v>
       </c>
       <c r="G124">
-        <v>287376.6763980497</v>
+        <v>288866.7507634624</v>
       </c>
       <c r="H124">
-        <v>13915.06552932073</v>
+        <v>11950.50836268918</v>
       </c>
       <c r="I124">
-        <v>3713.977686750774</v>
+        <v>3576.580675023242</v>
       </c>
       <c r="J124">
-        <v>8054718.752858382</v>
+        <v>8059275.731356491</v>
       </c>
       <c r="K124">
-        <v>167395.6885623003</v>
+        <v>167395.9151936474</v>
       </c>
       <c r="L124">
-        <v>232886</v>
+        <v>235135</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -7083,40 +7083,40 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>13833.24321882329</v>
+        <v>13812.20258948235</v>
       </c>
       <c r="B125">
-        <v>80422.65191232259</v>
+        <v>78092.19682907934</v>
       </c>
       <c r="C125">
-        <v>94255.89513114587</v>
+        <v>91904.39941856169</v>
       </c>
       <c r="D125">
-        <v>187634.0876870195</v>
+        <v>187333.3946812406</v>
       </c>
       <c r="E125">
-        <v>9516.186668767468</v>
+        <v>10418.51391822361</v>
       </c>
       <c r="F125">
-        <v>27404.10331717382</v>
+        <v>26778.21995362243</v>
       </c>
       <c r="G125">
-        <v>160229.9843698457</v>
+        <v>160555.1747276182</v>
       </c>
       <c r="H125">
-        <v>7532.734905215026</v>
+        <v>8299.095968527437</v>
       </c>
       <c r="I125">
-        <v>1983.451763552443</v>
+        <v>2119.417949696174</v>
       </c>
       <c r="J125">
-        <v>4483079.684245059</v>
+        <v>4474842.364446509</v>
       </c>
       <c r="K125">
-        <v>93371.8323747489</v>
+        <v>93372.04394360415</v>
       </c>
       <c r="L125">
-        <v>129256</v>
+        <v>131464</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -7137,40 +7137,40 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>10837.30980893788</v>
+        <v>10629.81748283927</v>
       </c>
       <c r="B126">
-        <v>64302.54207896705</v>
+        <v>64219.91785420687</v>
       </c>
       <c r="C126">
-        <v>75139.85188790492</v>
+        <v>74849.73533704614</v>
       </c>
       <c r="D126">
-        <v>141567.8719108271</v>
+        <v>153268.7443633609</v>
       </c>
       <c r="E126">
-        <v>7499.153657031161</v>
+        <v>7503.396861875794</v>
       </c>
       <c r="F126">
-        <v>20496.47347583593</v>
+        <v>22791.81098112348</v>
       </c>
       <c r="G126">
-        <v>121071.3984349912</v>
+        <v>130476.9333822374</v>
       </c>
       <c r="H126">
-        <v>5853.110238483702</v>
+        <v>5949.755266459726</v>
       </c>
       <c r="I126">
-        <v>1646.043418547459</v>
+        <v>1553.641595416068</v>
       </c>
       <c r="J126">
-        <v>3507850.503451621</v>
+        <v>3559350.89620749</v>
       </c>
       <c r="K126">
-        <v>73289.84904647038</v>
+        <v>73289.98132018972</v>
       </c>
       <c r="L126">
-        <v>101844</v>
+        <v>103285</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -7191,40 +7191,40 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>18773.48645040629</v>
+        <v>17716.69209661537</v>
       </c>
       <c r="B127">
-        <v>107706.3579503636</v>
+        <v>109062.4386225936</v>
       </c>
       <c r="C127">
-        <v>126479.8444007699</v>
+        <v>126779.130719209</v>
       </c>
       <c r="D127">
-        <v>266723.3794241176</v>
+        <v>245105.009346853</v>
       </c>
       <c r="E127">
-        <v>12469.97322971373</v>
+        <v>14400.9336432703</v>
       </c>
       <c r="F127">
-        <v>38237.32393549007</v>
+        <v>36961.10174632954</v>
       </c>
       <c r="G127">
-        <v>228486.0554886275</v>
+        <v>208143.9076005235</v>
       </c>
       <c r="H127">
-        <v>9927.979531287436</v>
+        <v>11833.53027122737</v>
       </c>
       <c r="I127">
-        <v>2541.993698426289</v>
+        <v>2567.403372042927</v>
       </c>
       <c r="J127">
-        <v>6160724.435171992</v>
+        <v>6256831.501573438</v>
       </c>
       <c r="K127">
-        <v>128689.700715335</v>
+        <v>128689.8653156412</v>
       </c>
       <c r="L127">
-        <v>178637</v>
+        <v>181640</v>
       </c>
       <c r="M127">
         <v>1</v>
@@ -7245,40 +7245,40 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>35848.76128150085</v>
+        <v>37651.9590809109</v>
       </c>
       <c r="B128">
-        <v>215543.9335591092</v>
+        <v>220942.845341819</v>
       </c>
       <c r="C128">
-        <v>251392.6948406101</v>
+        <v>258594.80442273</v>
       </c>
       <c r="D128">
-        <v>491265.1097973818</v>
+        <v>507144.9247976911</v>
       </c>
       <c r="E128">
-        <v>26817.50438470912</v>
+        <v>27537.96578418068</v>
       </c>
       <c r="F128">
-        <v>72441.36826699506</v>
+        <v>72105.08313660155</v>
       </c>
       <c r="G128">
-        <v>418823.7415303867</v>
+        <v>435039.8416610896</v>
       </c>
       <c r="H128">
-        <v>20898.32415644982</v>
+        <v>21343.78522850307</v>
       </c>
       <c r="I128">
-        <v>5919.1802282593</v>
+        <v>6194.180555677612</v>
       </c>
       <c r="J128">
-        <v>12027456.15784291</v>
+        <v>12036445.6187917</v>
       </c>
       <c r="K128">
-        <v>248822.2425791493</v>
+        <v>248822.0870917086</v>
       </c>
       <c r="L128">
-        <v>345479</v>
+        <v>350562</v>
       </c>
       <c r="M128">
         <v>1</v>
@@ -7299,40 +7299,40 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>14433.76049480306</v>
+        <v>14683.24634040176</v>
       </c>
       <c r="B129">
-        <v>85643.25213513218</v>
+        <v>84340.53338190814</v>
       </c>
       <c r="C129">
-        <v>100077.0126299352</v>
+        <v>99023.7797223099</v>
       </c>
       <c r="D129">
-        <v>198838.7798616846</v>
+        <v>199288.6982580535</v>
       </c>
       <c r="E129">
-        <v>8959.18452536258</v>
+        <v>10404.76926950242</v>
       </c>
       <c r="F129">
-        <v>28628.11851436791</v>
+        <v>29400.39067382782</v>
       </c>
       <c r="G129">
-        <v>170210.6613473167</v>
+        <v>169888.3075842257</v>
       </c>
       <c r="H129">
-        <v>7080.120876370042</v>
+        <v>8399.695413297346</v>
       </c>
       <c r="I129">
-        <v>1879.063648992538</v>
+        <v>2005.073856205076</v>
       </c>
       <c r="J129">
-        <v>4738587.589240791</v>
+        <v>4710763.78824906</v>
       </c>
       <c r="K129">
-        <v>98282.64683140376</v>
+        <v>98283.30327087044</v>
       </c>
       <c r="L129">
-        <v>136481</v>
+        <v>138475</v>
       </c>
       <c r="M129">
         <v>1</v>
@@ -7353,40 +7353,40 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>18460.86796681669</v>
+        <v>18770.23183751279</v>
       </c>
       <c r="B130">
-        <v>112522.8068445999</v>
+        <v>109262.2849813576</v>
       </c>
       <c r="C130">
-        <v>130983.6748114166</v>
+        <v>128032.5168188704</v>
       </c>
       <c r="D130">
-        <v>260537.2915668412</v>
+        <v>249864.4462792123</v>
       </c>
       <c r="E130">
-        <v>13990.63967771688</v>
+        <v>13921.93807747481</v>
       </c>
       <c r="F130">
-        <v>38608.33406744982</v>
+        <v>36763.76308691753</v>
       </c>
       <c r="G130">
-        <v>221928.9574993914</v>
+        <v>213100.6831922947</v>
       </c>
       <c r="H130">
-        <v>11185.9434979607</v>
+        <v>11482.5695208258</v>
       </c>
       <c r="I130">
-        <v>2804.696179756173</v>
+        <v>2439.368556649012</v>
       </c>
       <c r="J130">
-        <v>6161966.434273817</v>
+        <v>6044349.361195083</v>
       </c>
       <c r="K130">
-        <v>127199.1543270932</v>
+        <v>127198.8361946709</v>
       </c>
       <c r="L130">
-        <v>176444</v>
+        <v>178699</v>
       </c>
       <c r="M130">
         <v>1</v>
@@ -7407,40 +7407,40 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>136.3009832981705</v>
+        <v>131.1507227674413</v>
       </c>
       <c r="B131">
-        <v>749.1407125989746</v>
+        <v>760.089259811291</v>
       </c>
       <c r="C131">
-        <v>885.441695897145</v>
+        <v>891.2399825787322</v>
       </c>
       <c r="D131">
-        <v>1765.197342672348</v>
+        <v>1713.069060273486</v>
       </c>
       <c r="E131">
-        <v>95.89108321261352</v>
+        <v>94.40538488895238</v>
       </c>
       <c r="F131">
-        <v>257.6665517613097</v>
+        <v>254.9211461051564</v>
       </c>
       <c r="G131">
-        <v>1507.530790911039</v>
+        <v>1458.14791416833</v>
       </c>
       <c r="H131">
-        <v>74.01067752095642</v>
+        <v>77.21287435575215</v>
       </c>
       <c r="I131">
-        <v>21.88040569165711</v>
+        <v>17.19251053320023</v>
       </c>
       <c r="J131">
-        <v>42307.57911602538</v>
+        <v>42078.53349148658</v>
       </c>
       <c r="K131">
-        <v>881.1279004938684</v>
+        <v>880.9034098952258</v>
       </c>
       <c r="L131">
-        <v>1218</v>
+        <v>1240</v>
       </c>
       <c r="M131">
         <v>1</v>
@@ -7461,40 +7461,40 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>710.1058936017698</v>
+        <v>705.9860349763708</v>
       </c>
       <c r="B132">
-        <v>3985.924530842394</v>
+        <v>3998.173104323609</v>
       </c>
       <c r="C132">
-        <v>4696.030424444163</v>
+        <v>4704.15913929998</v>
       </c>
       <c r="D132">
-        <v>8437.025926375063</v>
+        <v>9487.126360314729</v>
       </c>
       <c r="E132">
-        <v>500.1949521274502</v>
+        <v>502.5545561297477</v>
       </c>
       <c r="F132">
-        <v>1218.883590082585</v>
+        <v>1399.882452106096</v>
       </c>
       <c r="G132">
-        <v>7218.142336292479</v>
+        <v>8087.243908208632</v>
       </c>
       <c r="H132">
-        <v>393.324285474868</v>
+        <v>398.3344752427814</v>
       </c>
       <c r="I132">
-        <v>106.8706666525822</v>
+        <v>104.2200808869663</v>
       </c>
       <c r="J132">
-        <v>223159.9185375425</v>
+        <v>225029.2869322584</v>
       </c>
       <c r="K132">
-        <v>4647.954759956745</v>
+        <v>4647.87982065205</v>
       </c>
       <c r="L132">
-        <v>6447</v>
+        <v>6553</v>
       </c>
       <c r="M132">
         <v>1</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>36.69319051655764</v>
+        <v>34.8644963082422</v>
       </c>
       <c r="C133">
-        <v>36.69319051655764</v>
+        <v>34.8644963082422</v>
       </c>
       <c r="D133">
-        <v>6262.247118076501</v>
+        <v>6259.21865723649</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>6262.247118076501</v>
+        <v>6259.21865723649</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -7542,13 +7542,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>139978.9728035138</v>
+        <v>140482.7332726265</v>
       </c>
       <c r="K133">
-        <v>1857.751378369778</v>
+        <v>1858.184798649025</v>
       </c>
       <c r="L133">
-        <v>2854</v>
+        <v>2796</v>
       </c>
       <c r="M133">
         <v>1</v>
@@ -7572,13 +7572,13 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>130.5739258453341</v>
+        <v>134.4874070603387</v>
       </c>
       <c r="C134">
-        <v>130.5739258453341</v>
+        <v>134.4874070603387</v>
       </c>
       <c r="D134">
-        <v>20877.94195081238</v>
+        <v>20545.67580297688</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>20877.94195081238</v>
+        <v>20545.67580297688</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -7596,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>474066.8084743688</v>
+        <v>471683.8330047404</v>
       </c>
       <c r="K134">
-        <v>6268.090129706547</v>
+        <v>6268.051995694203</v>
       </c>
       <c r="L134">
-        <v>9624</v>
+        <v>9427</v>
       </c>
       <c r="M134">
         <v>1</v>
@@ -7626,22 +7626,22 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>13.2557695084082</v>
+        <v>16.79857027825534</v>
       </c>
       <c r="C135">
-        <v>13.2557695084082</v>
+        <v>16.79857027825534</v>
       </c>
       <c r="D135">
-        <v>2593.829063500441</v>
+        <v>2597.909082088716</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>86.10272740042382</v>
+        <v>90.19904687999082</v>
       </c>
       <c r="G135">
-        <v>2507.726336100017</v>
+        <v>2507.710035208725</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -7650,13 +7650,13 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>58102.83695489488</v>
+        <v>57535.35071931396</v>
       </c>
       <c r="K135">
-        <v>763.8046402847637</v>
+        <v>763.9261092813847</v>
       </c>
       <c r="L135">
-        <v>1169</v>
+        <v>1142</v>
       </c>
       <c r="M135">
         <v>1</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="B136">
-        <v>158.1859123001462</v>
+        <v>134.857329487979</v>
       </c>
       <c r="C136">
-        <v>158.1859123001462</v>
+        <v>134.857329487979</v>
       </c>
       <c r="D136">
-        <v>23304.77094163894</v>
+        <v>23107.90382439396</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>756.6082149877498</v>
+        <v>802.611773219674</v>
       </c>
       <c r="G136">
-        <v>22548.16272665119</v>
+        <v>22305.29205117429</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -7704,13 +7704,13 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>533692.8523980763</v>
+        <v>525601.9756362839</v>
       </c>
       <c r="K136">
-        <v>6972.074388494776</v>
+        <v>6971.789076466086</v>
       </c>
       <c r="L136">
-        <v>10675</v>
+        <v>10407</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="B137">
-        <v>363.7781982140277</v>
+        <v>311.9147184021846</v>
       </c>
       <c r="C137">
-        <v>363.7781982140277</v>
+        <v>311.9147184021846</v>
       </c>
       <c r="D137">
-        <v>53251.39672466546</v>
+        <v>53896.24009050657</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>53251.39672466546</v>
+        <v>53896.24009050657</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7758,13 +7758,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>1203969.738350909</v>
+        <v>1197405.841391297</v>
       </c>
       <c r="K137">
-        <v>15930.18273861799</v>
+        <v>15929.73462319957</v>
       </c>
       <c r="L137">
-        <v>24575</v>
+        <v>23932</v>
       </c>
       <c r="M137">
         <v>1</v>
@@ -7788,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="B138">
-        <v>130.0949040090559</v>
+        <v>139.2664445133943</v>
       </c>
       <c r="C138">
-        <v>130.0949040090559</v>
+        <v>139.2664445133943</v>
       </c>
       <c r="D138">
-        <v>19147.52924591326</v>
+        <v>19519.20373961236</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>19147.52924591326</v>
+        <v>19519.20373961236</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -7812,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>433868.403757391</v>
+        <v>432234.2810493373</v>
       </c>
       <c r="K138">
-        <v>5753.038421269876</v>
+        <v>5753.326522010258</v>
       </c>
       <c r="L138">
-        <v>8862</v>
+        <v>8625</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="B139">
-        <v>977.8884919136399</v>
+        <v>724.0876526086332</v>
       </c>
       <c r="C139">
-        <v>977.8884919136399</v>
+        <v>724.0876526086332</v>
       </c>
       <c r="D139">
-        <v>128700.1783803623</v>
+        <v>130830.3843745632</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>128700.1783803623</v>
+        <v>130830.3843745632</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,13 +7866,13 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>2902140.123247441</v>
+        <v>2887454.468470836</v>
       </c>
       <c r="K139">
-        <v>38561.10979748546</v>
+        <v>38560.86576499513</v>
       </c>
       <c r="L139">
-        <v>59236</v>
+        <v>57785</v>
       </c>
       <c r="M139">
         <v>1</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="B140">
-        <v>420.6373843471821</v>
+        <v>418.1497088069848</v>
       </c>
       <c r="C140">
-        <v>420.6373843471821</v>
+        <v>418.1497088069848</v>
       </c>
       <c r="D140">
-        <v>69948.82725816996</v>
+        <v>67938.01280289059</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>69948.82725816996</v>
+        <v>67938.01280289059</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1561604.575969272</v>
+        <v>1572641.726774283</v>
       </c>
       <c r="K140">
-        <v>20708.83931986093</v>
+        <v>20709.29766678165</v>
       </c>
       <c r="L140">
-        <v>31847</v>
+        <v>31139</v>
       </c>
       <c r="M140">
         <v>1</v>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>209.6468842692686</v>
+        <v>226.3614420455043</v>
       </c>
       <c r="C141">
-        <v>209.6468842692686</v>
+        <v>226.3614420455043</v>
       </c>
       <c r="D141">
-        <v>36939.81647220106</v>
+        <v>36504.15313510351</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>36939.81647220106</v>
+        <v>36504.15313510351</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7974,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>817820.472774532</v>
+        <v>824574.362028171</v>
       </c>
       <c r="K141">
-        <v>10927.26574304475</v>
+        <v>10926.82764781481</v>
       </c>
       <c r="L141">
-        <v>16782</v>
+        <v>16456</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -8004,22 +8004,22 @@
         <v>0</v>
       </c>
       <c r="B142">
-        <v>1277.335854551032</v>
+        <v>1396.305247463704</v>
       </c>
       <c r="C142">
-        <v>1277.335854551032</v>
+        <v>1396.305247463704</v>
       </c>
       <c r="D142">
-        <v>194704.265011142</v>
+        <v>194730.7113197391</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>6456.04043899011</v>
+        <v>6328.573246825226</v>
       </c>
       <c r="G142">
-        <v>188248.2245721519</v>
+        <v>188402.1380729139</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -8028,13 +8028,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>4327461.843542916</v>
+        <v>4414629.221317424</v>
       </c>
       <c r="K142">
-        <v>58072.04192020713</v>
+        <v>58072.01048633456</v>
       </c>
       <c r="L142">
-        <v>88741</v>
+        <v>87090</v>
       </c>
       <c r="M142">
         <v>1</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="B143">
-        <v>468.2931024091101</v>
+        <v>393.4337764819704</v>
       </c>
       <c r="C143">
-        <v>468.2931024091101</v>
+        <v>393.4337764819704</v>
       </c>
       <c r="D143">
-        <v>75047.51765428111</v>
+        <v>74910.16522725944</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>2472.551870699559</v>
+        <v>2554.456578110855</v>
       </c>
       <c r="G143">
-        <v>72574.96578358155</v>
+        <v>72355.70864914858</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8082,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>1687558.968226567</v>
+        <v>1678001.684082704</v>
       </c>
       <c r="K143">
-        <v>22311.76711353391</v>
+        <v>22312.32310221816</v>
       </c>
       <c r="L143">
-        <v>34171</v>
+        <v>33359</v>
       </c>
       <c r="M143">
         <v>1</v>
@@ -8112,22 +8112,22 @@
         <v>0</v>
       </c>
       <c r="B144">
-        <v>540.3128394932892</v>
+        <v>463.6683511159841</v>
       </c>
       <c r="C144">
-        <v>540.3128394932892</v>
+        <v>463.6683511159841</v>
       </c>
       <c r="D144">
-        <v>86481.60203125616</v>
+        <v>84620.5565524353</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2820.165421561312</v>
+        <v>2851.740349470512</v>
       </c>
       <c r="G144">
-        <v>83661.43660969485</v>
+        <v>81768.81620296479</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1919160.044322565</v>
+        <v>1908572.999573888</v>
       </c>
       <c r="K144">
-        <v>25591.06110859324</v>
+        <v>25590.82598889589</v>
       </c>
       <c r="L144">
-        <v>39105</v>
+        <v>38165</v>
       </c>
       <c r="M144">
         <v>1</v>
@@ -8166,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="B145">
-        <v>1002.728200300626</v>
+        <v>1130.624615048633</v>
       </c>
       <c r="C145">
-        <v>1002.728200300626</v>
+        <v>1130.624615048633</v>
       </c>
       <c r="D145">
-        <v>172764.3997695965</v>
+        <v>175337.6368536956</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>5667.936616450197</v>
+        <v>5851.724164997661</v>
       </c>
       <c r="G145">
-        <v>167096.4631531463</v>
+        <v>169485.912688698</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>3905616.341657326</v>
+        <v>3908351.88317075</v>
       </c>
       <c r="K145">
-        <v>52069.09407238632</v>
+        <v>52068.97406905241</v>
       </c>
       <c r="L145">
-        <v>79561</v>
+        <v>77571</v>
       </c>
       <c r="M145">
         <v>1</v>
@@ -8220,22 +8220,22 @@
         <v>0</v>
       </c>
       <c r="B146">
-        <v>1262.981431167444</v>
+        <v>1151.430589210011</v>
       </c>
       <c r="C146">
-        <v>1262.981431167444</v>
+        <v>1151.430589210011</v>
       </c>
       <c r="D146">
-        <v>217541.2580737758</v>
+        <v>222512.5737672034</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>7136.249962731832</v>
+        <v>7339.285918719382</v>
       </c>
       <c r="G146">
-        <v>210405.008111044</v>
+        <v>215173.287848484</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <v>4855396.734601617</v>
+        <v>4784182.128506994</v>
       </c>
       <c r="K146">
-        <v>63820.00493413389</v>
+        <v>63819.75966314051</v>
       </c>
       <c r="L146">
-        <v>97679</v>
+        <v>95271</v>
       </c>
       <c r="M146">
         <v>1</v>
@@ -8274,22 +8274,22 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>1051.046449511771</v>
+        <v>1020.329920953473</v>
       </c>
       <c r="C147">
-        <v>1051.046449511771</v>
+        <v>1020.329920953473</v>
       </c>
       <c r="D147">
-        <v>185960.6412754686</v>
+        <v>185163.3154170882</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>6262.543177620055</v>
+        <v>6245.047210711909</v>
       </c>
       <c r="G147">
-        <v>179698.0980978486</v>
+        <v>178918.2682063762</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <v>4161224.008744854</v>
+        <v>4183241.091228188</v>
       </c>
       <c r="K147">
-        <v>55340.98827427812</v>
+        <v>55341.27404621168</v>
       </c>
       <c r="L147">
-        <v>84538</v>
+        <v>82784</v>
       </c>
       <c r="M147">
         <v>1</v>
@@ -8328,22 +8328,22 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>1567.46775090394</v>
+        <v>1247.976083245001</v>
       </c>
       <c r="C148">
-        <v>1567.46775090394</v>
+        <v>1247.976083245001</v>
       </c>
       <c r="D148">
-        <v>206764.1517817527</v>
+        <v>208145.6328384425</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>6718.533310860601</v>
+        <v>7106.157750600916</v>
       </c>
       <c r="G148">
-        <v>200045.6184708921</v>
+        <v>201039.4750878415</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -8352,13 +8352,13 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <v>4751216.437719568</v>
+        <v>4834773.30960733</v>
       </c>
       <c r="K148">
-        <v>63094.14626170475</v>
+        <v>63093.76532502319</v>
       </c>
       <c r="L148">
-        <v>96616</v>
+        <v>94716</v>
       </c>
       <c r="M148">
         <v>1</v>
@@ -8379,25 +8379,25 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1417.041515783763</v>
+        <v>1415.584662683608</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1417.041515783763</v>
+        <v>1415.584662683608</v>
       </c>
       <c r="D149">
-        <v>200795.3514227557</v>
+        <v>202003.8933104789</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>7047.788992815989</v>
+        <v>7016.297647516392</v>
       </c>
       <c r="G149">
-        <v>193747.5624299397</v>
+        <v>194987.5956629625</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>4453458.641193419</v>
+        <v>4467571.212275327</v>
       </c>
       <c r="K149">
-        <v>59774.1263998064</v>
+        <v>59773.92503404074</v>
       </c>
       <c r="L149">
-        <v>91065</v>
+        <v>88968</v>
       </c>
       <c r="M149">
         <v>1</v>
@@ -8436,22 +8436,22 @@
         <v>0</v>
       </c>
       <c r="B150">
-        <v>668.0053794776168</v>
+        <v>738.2189762861478</v>
       </c>
       <c r="C150">
-        <v>668.0053794776168</v>
+        <v>738.2189762861478</v>
       </c>
       <c r="D150">
-        <v>113208.4955690284</v>
+        <v>110601.9401558697</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>3716.182717159844</v>
+        <v>3739.314621973111</v>
       </c>
       <c r="G150">
-        <v>109492.3128518686</v>
+        <v>106862.6255338966</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8460,13 +8460,13 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <v>2519386.004278883</v>
+        <v>2496752.983119423</v>
       </c>
       <c r="K150">
-        <v>33175.17513626594</v>
+        <v>33174.96406602552</v>
       </c>
       <c r="L150">
-        <v>50853</v>
+        <v>49510</v>
       </c>
       <c r="M150">
         <v>1</v>
@@ -8490,22 +8490,22 @@
         <v>0</v>
       </c>
       <c r="B151">
-        <v>623.8688335004693</v>
+        <v>651.4190235618574</v>
       </c>
       <c r="C151">
-        <v>623.8688335004693</v>
+        <v>651.4190235618574</v>
       </c>
       <c r="D151">
-        <v>115296.6898232448</v>
+        <v>115102.7694360787</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>3720.642072045571</v>
+        <v>3738.406399049775</v>
       </c>
       <c r="G151">
-        <v>111576.0477511992</v>
+        <v>111364.363037029</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -8514,13 +8514,13 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2586845.855690446</v>
+        <v>2637279.031204151</v>
       </c>
       <c r="K151">
-        <v>34695.1102015828</v>
+        <v>34695.03642507594</v>
       </c>
       <c r="L151">
-        <v>52967</v>
+        <v>51896</v>
       </c>
       <c r="M151">
         <v>1</v>
@@ -8544,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="B152">
-        <v>629.2489655796641</v>
+        <v>518.9998410537077</v>
       </c>
       <c r="C152">
-        <v>629.2489655796641</v>
+        <v>518.9998410537077</v>
       </c>
       <c r="D152">
-        <v>96032.29322183564</v>
+        <v>100008.925358451</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>3130.361167763212</v>
+        <v>3395.514564450561</v>
       </c>
       <c r="G152">
-        <v>92901.93205407243</v>
+        <v>96613.41079400045</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>2222097.373052605</v>
+        <v>2232475.234544738</v>
       </c>
       <c r="K152">
-        <v>29844.99128749517</v>
+        <v>29844.81602346429</v>
       </c>
       <c r="L152">
-        <v>45546</v>
+        <v>44568</v>
       </c>
       <c r="M152">
         <v>1</v>
@@ -8598,22 +8598,22 @@
         <v>0</v>
       </c>
       <c r="B153">
-        <v>569.5216248595395</v>
+        <v>621.4314100140735</v>
       </c>
       <c r="C153">
-        <v>569.5216248595395</v>
+        <v>621.4314100140735</v>
       </c>
       <c r="D153">
-        <v>104509.9333133422</v>
+        <v>104507.4882357879</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>3404.445439218003</v>
+        <v>3514.476800184693</v>
       </c>
       <c r="G153">
-        <v>101105.4878741242</v>
+        <v>100993.0114356032</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2312973.127256759</v>
+        <v>2349514.099184708</v>
       </c>
       <c r="K153">
-        <v>30867.97927354831</v>
+        <v>30867.97083534306</v>
       </c>
       <c r="L153">
-        <v>47113</v>
+        <v>46164</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -8652,22 +8652,22 @@
         <v>0</v>
       </c>
       <c r="B154">
-        <v>167.9915063031775</v>
+        <v>141.5640786740775</v>
       </c>
       <c r="C154">
-        <v>167.9915063031775</v>
+        <v>141.5640786740775</v>
       </c>
       <c r="D154">
-        <v>28527.52787530965</v>
+        <v>28389.38317937155</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>968.9061486896256</v>
+        <v>927.8747310246448</v>
       </c>
       <c r="G154">
-        <v>27558.62172662003</v>
+        <v>27461.50844834691</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <v>640425.0062372955</v>
+        <v>649761.7474039152</v>
       </c>
       <c r="K154">
-        <v>8498.932948354135</v>
+        <v>8498.693275649019</v>
       </c>
       <c r="L154">
-        <v>12998</v>
+        <v>12718</v>
       </c>
       <c r="M154">
         <v>1</v>
@@ -8706,13 +8706,13 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>198.4266861379845</v>
+        <v>176.5563187978884</v>
       </c>
       <c r="C155">
-        <v>198.4266861379845</v>
+        <v>176.5563187978884</v>
       </c>
       <c r="D155">
-        <v>34852.69909956169</v>
+        <v>34187.74166191632</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>34852.69909956169</v>
+        <v>34187.74166191632</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>761257.4362531415</v>
+        <v>759636.4479028193</v>
       </c>
       <c r="K155">
-        <v>10005.79688678715</v>
+        <v>10005.97522126851</v>
       </c>
       <c r="L155">
-        <v>15426</v>
+        <v>15019</v>
       </c>
       <c r="M155">
         <v>1</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="B156">
-        <v>81.2179519919853</v>
+        <v>87.92650910771354</v>
       </c>
       <c r="C156">
-        <v>81.2179519919853</v>
+        <v>87.92650910771354</v>
       </c>
       <c r="D156">
-        <v>15463.94000301548</v>
+        <v>15404.68691994643</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>15463.94000301548</v>
+        <v>15404.68691994643</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>342029.660655626</v>
+        <v>343980.2780680383</v>
       </c>
       <c r="K156">
-        <v>4532.961098764808</v>
+        <v>4532.897651261803</v>
       </c>
       <c r="L156">
-        <v>6981</v>
+        <v>6823</v>
       </c>
       <c r="M156">
         <v>1</v>
